--- a/tests/fixtures/eukaryote_core.xlsx
+++ b/tests/fixtures/eukaryote_core.xlsx
@@ -1,99 +1,88 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="13"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="993" activeTab="4"/>
   </bookViews>
   <sheets>
-    <sheet name="Knowledge base" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Cell" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Compartments" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="Metabolite species types" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="DNA species types" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="Gene loci" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="Regulatory element loci" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="Regulatory module" sheetId="8" state="visible" r:id="rId9"/>
-    <sheet name="pre-RNA species types" sheetId="9" state="visible" r:id="rId10"/>
-    <sheet name="Transcript species types" sheetId="10" state="visible" r:id="rId11"/>
-    <sheet name="Exon loci" sheetId="11" state="visible" r:id="rId12"/>
-    <sheet name="Protein species types" sheetId="12" state="visible" r:id="rId13"/>
-    <sheet name="Complex species types" sheetId="13" state="visible" r:id="rId14"/>
-    <sheet name="Concentrations" sheetId="14" state="visible" r:id="rId15"/>
-    <sheet name="Observables" sheetId="15" state="visible" r:id="rId16"/>
-    <sheet name="Reactions" sheetId="16" state="visible" r:id="rId17"/>
-    <sheet name="Rate laws" sheetId="17" state="visible" r:id="rId18"/>
-    <sheet name="Parameters" sheetId="18" state="visible" r:id="rId19"/>
-    <sheet name="Properties" sheetId="19" state="visible" r:id="rId20"/>
-    <sheet name="References" sheetId="20" state="visible" r:id="rId21"/>
+    <sheet name="Knowledge base" sheetId="1" r:id="rId1"/>
+    <sheet name="Cell" sheetId="2" r:id="rId2"/>
+    <sheet name="Compartments" sheetId="3" r:id="rId3"/>
+    <sheet name="Metabolite species types" sheetId="4" r:id="rId4"/>
+    <sheet name="DNA species types" sheetId="5" r:id="rId5"/>
+    <sheet name="Gene loci" sheetId="6" r:id="rId6"/>
+    <sheet name="Regulatory element loci" sheetId="7" r:id="rId7"/>
+    <sheet name="Regulatory module" sheetId="8" r:id="rId8"/>
+    <sheet name="pre-RNA species types" sheetId="9" r:id="rId9"/>
+    <sheet name="Transcript species types" sheetId="10" r:id="rId10"/>
+    <sheet name="Exon loci" sheetId="11" r:id="rId11"/>
+    <sheet name="Protein species types" sheetId="12" r:id="rId12"/>
+    <sheet name="Complex species types" sheetId="13" r:id="rId13"/>
+    <sheet name="Concentrations" sheetId="14" r:id="rId14"/>
+    <sheet name="Observables" sheetId="15" r:id="rId15"/>
+    <sheet name="Reactions" sheetId="16" r:id="rId16"/>
+    <sheet name="Rate laws" sheetId="17" r:id="rId17"/>
+    <sheet name="Parameters" sheetId="18" r:id="rId18"/>
+    <sheet name="Properties" sheetId="19" r:id="rId19"/>
+    <sheet name="References" sheetId="20" r:id="rId20"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">Cell!$A$1:$B$1</definedName>
-    <definedName function="false" hidden="true" localSheetId="12" name="_xlnm._FilterDatabase" vbProcedure="false">'Complex species types'!$A$1:$J$221</definedName>
-    <definedName function="false" hidden="true" localSheetId="5" name="_xlnm._FilterDatabase" vbProcedure="false">'Gene loci'!$B$1:$H$1064</definedName>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Knowledge base'!$A$1:$B$2</definedName>
-    <definedName function="false" hidden="true" localSheetId="8" name="_xlnm._FilterDatabase" vbProcedure="false">'pre-RNA species types'!$A$1:$G$915</definedName>
-    <definedName function="false" hidden="true" localSheetId="11" name="_xlnm._FilterDatabase" vbProcedure="false">'Protein species types'!$A$1:$F$719</definedName>
-    <definedName function="false" hidden="true" localSheetId="16" name="_xlnm._FilterDatabase" vbProcedure="false">'Rate laws'!$A$1:$F$1</definedName>
-    <definedName function="false" hidden="true" localSheetId="15" name="_xlnm._FilterDatabase" vbProcedure="false">Reactions!$A$1:$F$220</definedName>
-    <definedName function="false" hidden="true" localSheetId="6" name="_xlnm._FilterDatabase" vbProcedure="false">'Regulatory element loci'!$A$1:$H$776</definedName>
-    <definedName function="false" hidden="true" localSheetId="7" name="_xlnm._FilterDatabase" vbProcedure="false">'Regulatory module'!$A$1:$C$849</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0" vbProcedure="false">'Knowledge base'!$A$1:$B$2</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0" vbProcedure="false">'Knowledge base'!$A$1:$B$2</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0" vbProcedure="false">'Knowledge base'!$A$1:$B$2</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0" vbProcedure="false">'Knowledge base'!$A$1:$B$2</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0" vbProcedure="false">'Knowledge base'!$A$1:$B$2</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0" vbProcedure="false">'Knowledge base'!$A$1:$B$2</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">'Knowledge base'!$A$1:$B$2</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">'Knowledge base'!$A$1:$B$2</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Knowledge base'!$A$1:$B$2</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Knowledge base'!$A$1:$B$2</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_FilterDatabase_0" vbProcedure="false">Cell!$A$1:$B$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_FilterDatabase_0_0" vbProcedure="false">Cell!$A$1:$B$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_FilterDatabase_0_0_0" vbProcedure="false">Cell!$A$1:$B$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_FilterDatabase_0_0_0_0" vbProcedure="false">Cell!$A$1:$B$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_FilterDatabase_0_0_0_0_0" vbProcedure="false">Cell!$A$1:$B$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_FilterDatabase_0_0_0_0_0_0" vbProcedure="false">Cell!$A$1:$B$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">Cell!$A$1:$B$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">Cell!$A$1:$B$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">Cell!$A$1:$B$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Cell!$A$1:$B$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">Cell!$A$1:$B$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="5" name="_FilterDatabase_0" vbProcedure="false">'Gene loci'!$I$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="5" name="_FilterDatabase_0_0" vbProcedure="false">'Gene loci'!$B$1:$H$1064</definedName>
-    <definedName function="false" hidden="false" localSheetId="5" name="_FilterDatabase_0_0_0" vbProcedure="false">'Gene loci'!$I$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="5" name="_FilterDatabase_0_0_0_0" vbProcedure="false">'Gene loci'!$B$1:$H$1064</definedName>
-    <definedName function="false" hidden="false" localSheetId="5" name="_FilterDatabase_0_0_0_0_0" vbProcedure="false">'Gene loci'!$I$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="5" name="_FilterDatabase_0_0_0_0_0_0" vbProcedure="false">'Gene loci'!$B$1:$H$1064</definedName>
-    <definedName function="false" hidden="false" localSheetId="5" name="_FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">'Gene loci'!$I$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase" vbProcedure="false">'Gene loci'!$B$1:$H$1064</definedName>
-    <definedName function="false" hidden="false" localSheetId="6" name="_FilterDatabase_0" vbProcedure="false">'Regulatory element loci'!$A$1:$H$776</definedName>
-    <definedName function="false" hidden="false" localSheetId="6" name="_FilterDatabase_0_0" vbProcedure="false">'Regulatory element loci'!$A$1:$H$776</definedName>
-    <definedName function="false" hidden="false" localSheetId="6" name="_FilterDatabase_0_0_0" vbProcedure="false">'Regulatory element loci'!$A$1:$H$776</definedName>
-    <definedName function="false" hidden="false" localSheetId="6" name="_FilterDatabase_0_0_0_0" vbProcedure="false">'Regulatory element loci'!$A$2:$P$849</definedName>
-    <definedName function="false" hidden="false" localSheetId="6" name="_xlnm._FilterDatabase" vbProcedure="false">'Regulatory element loci'!$A$1:$H$776</definedName>
-    <definedName function="false" hidden="false" localSheetId="7" name="_FilterDatabase_0" vbProcedure="false">'Regulatory module'!$A$1:$C$849</definedName>
-    <definedName function="false" hidden="false" localSheetId="7" name="_FilterDatabase_0_0" vbProcedure="false">'Regulatory module'!$A$1:$C$849</definedName>
-    <definedName function="false" hidden="false" localSheetId="7" name="_FilterDatabase_0_0_0" vbProcedure="false">'Regulatory module'!$A$1:$C$849</definedName>
-    <definedName function="false" hidden="false" localSheetId="7" name="_xlnm._FilterDatabase" vbProcedure="false">'Regulatory module'!$A$1:$C$849</definedName>
-    <definedName function="false" hidden="false" localSheetId="8" name="_FilterDatabase_0" vbProcedure="false">'pre-RNA species types'!$A$1:$G$915</definedName>
-    <definedName function="false" hidden="false" localSheetId="8" name="_FilterDatabase_0_0" vbProcedure="false">'pre-RNA species types'!$A$1:$G$915</definedName>
-    <definedName function="false" hidden="false" localSheetId="8" name="_FilterDatabase_0_0_0" vbProcedure="false">'pre-RNA species types'!$A$1:$G$915</definedName>
-    <definedName function="false" hidden="false" localSheetId="8" name="_FilterDatabase_0_0_0_0" vbProcedure="false">'pre-RNA species types'!$A$1:$G$849</definedName>
-    <definedName function="false" hidden="false" localSheetId="8" name="_FilterDatabase_0_0_0_0_0" vbProcedure="false">'pre-RNA species types'!$A$1:$G$915</definedName>
-    <definedName function="false" hidden="false" localSheetId="8" name="_FilterDatabase_0_0_0_0_0_0" vbProcedure="false">'pre-RNA species types'!$A$1:$G$849</definedName>
-    <definedName function="false" hidden="false" localSheetId="8" name="_FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">'pre-RNA species types'!$A$1:$G$915</definedName>
-    <definedName function="false" hidden="false" localSheetId="8" name="_FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">'pre-RNA species types'!$A$1:$G$849</definedName>
-    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase" vbProcedure="false">'pre-RNA species types'!$A$1:$G$915</definedName>
-    <definedName function="false" hidden="false" localSheetId="11" name="_FilterDatabase_0" vbProcedure="false">'Protein species types'!$A$1:$F$719</definedName>
-    <definedName function="false" hidden="false" localSheetId="11" name="_xlnm._FilterDatabase" vbProcedure="false">'Protein species types'!$A$1:$F$719</definedName>
-    <definedName function="false" hidden="false" localSheetId="12" name="_xlnm._FilterDatabase" vbProcedure="false">'Complex species types'!$A$1:$J$221</definedName>
-    <definedName function="false" hidden="false" localSheetId="15" name="_xlnm._FilterDatabase" vbProcedure="false">Reactions!$A$1:$F$220</definedName>
-    <definedName function="false" hidden="false" localSheetId="16" name="_xlnm._FilterDatabase" vbProcedure="false">'Rate laws'!$A$1:$F$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1">Cell!$A$1:$B$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="12">'Complex species types'!$A$1:$J$221</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5">'Gene loci'!$B$1:$H$1064</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0">'Knowledge base'!$A$1:$B$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8">'pre-RNA species types'!$A$1:$G$915</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="11">'Protein species types'!$A$1:$F$719</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="16">'Rate laws'!$A$1:$F$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="15">Reactions!$A$1:$F$220</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6">'Regulatory element loci'!$A$1:$H$776</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7">'Regulatory module'!$A$1:$C$849</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="1">Cell!$A$1:$B$1</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="5">'Gene loci'!$I$1</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="0">'Knowledge base'!$A$1:$B$2</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="8">'pre-RNA species types'!$A$1:$G$915</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="11">'Protein species types'!$A$1:$F$719</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="6">'Regulatory element loci'!$A$1:$H$776</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="7">'Regulatory module'!$A$1:$C$849</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="1">Cell!$A$1:$B$1</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="5">'Gene loci'!$B$1:$H$1064</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="0">'Knowledge base'!$A$1:$B$2</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="8">'pre-RNA species types'!$A$1:$G$915</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="6">'Regulatory element loci'!$A$1:$H$776</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="7">'Regulatory module'!$A$1:$C$849</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="1">Cell!$A$1:$B$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="5">'Gene loci'!$I$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="0">'Knowledge base'!$A$1:$B$2</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="8">'pre-RNA species types'!$A$1:$G$915</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="6">'Regulatory element loci'!$A$1:$H$776</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="7">'Regulatory module'!$A$1:$C$849</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="1">Cell!$A$1:$B$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="5">'Gene loci'!$B$1:$H$1064</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="0">'Knowledge base'!$A$1:$B$2</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="8">'pre-RNA species types'!$A$1:$G$849</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="6">'Regulatory element loci'!$A$2:$P$849</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="1">Cell!$A$1:$B$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="5">'Gene loci'!$I$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="0">'Knowledge base'!$A$1:$B$2</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="8">'pre-RNA species types'!$A$1:$G$915</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0" localSheetId="1">Cell!$A$1:$B$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0" localSheetId="5">'Gene loci'!$B$1:$H$1064</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0" localSheetId="0">'Knowledge base'!$A$1:$B$2</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0" localSheetId="8">'pre-RNA species types'!$A$1:$G$849</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0" localSheetId="1">Cell!$A$1:$B$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0" localSheetId="5">'Gene loci'!$I$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0" localSheetId="0">'Knowledge base'!$A$1:$B$2</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0" localSheetId="8">'pre-RNA species types'!$A$1:$G$915</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0" localSheetId="1">Cell!$A$1:$B$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0" localSheetId="0">'Knowledge base'!$A$1:$B$2</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0" localSheetId="8">'pre-RNA species types'!$A$1:$G$849</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0" localSheetId="1">Cell!$A$1:$B$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0" localSheetId="0">'Knowledge base'!$A$1:$B$2</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0" localSheetId="1">Cell!$A$1:$B$1</definedName>
   </definedNames>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -103,1417 +92,1414 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="877" uniqueCount="466">
-  <si>
-    <t xml:space="preserve">Id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">human_h1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Human H1 model</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Translation table</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Version</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">URL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Branch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Revision</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wc_kb version</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comments</t>
-  </si>
-  <si>
-    <t xml:space="preserve">h1_hesc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H1 human embryonic stem cell</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Taxon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Volumetric fraction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">References</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Database References</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cytosol</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ref_1, ref_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BioNumbers:123456, BioNumbers:23456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">n</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nucleus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">m</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mitochondrion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BioNumbers:23456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">e</t>
-  </si>
-  <si>
-    <t xml:space="preserve">extracellular space</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Structure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Half life</t>
-  </si>
-  <si>
-    <t xml:space="preserve">O</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oxygen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">O2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dioxygen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">InChI=1S/O2/c1-2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">O3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ozone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">O2ions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Doubly ionized oxygen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">orn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ornithine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">InChI=1S/C5H12N2O2/c6-3-1-2-4(7)5(8)9/h4H,1-3,6-7H2,(H,8,9)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ptrc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">putrescine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">InChI=1S/C4H12N2/c5-3-1-2-4-6/h1-6H2/p+2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">co2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">carbon dioxide</t>
-  </si>
-  <si>
-    <t xml:space="preserve">InChI=1S/CO2/c2-1-3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">h</t>
-  </si>
-  <si>
-    <t xml:space="preserve">proton</t>
-  </si>
-  <si>
-    <t xml:space="preserve">InChI=1S/p+1/i/hH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sequence</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Circular</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Double Stranded</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Half_life</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chromosome1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chromosome2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chromosome3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chromosome4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chromosome5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chromosome6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chromosome7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chromosome8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chromosome9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chromosome10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chromosome11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chromosome12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chromosome13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chromosome14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chromosome15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chromosome16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chromosome17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chromosome18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chromosome19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chromosome20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chromosome21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chromosome22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chromosomeX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chromosomeY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chromosomeMT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Polymer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Symbol</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Strand</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Start</t>
-  </si>
-  <si>
-    <t xml:space="preserve">End</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENSG00000158828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PTEN induced putative kinase 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PINK1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mRna</t>
-  </si>
-  <si>
-    <t xml:space="preserve">+</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENSG00000115758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ornithine decarboxylase 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ODC1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENSG00000198380</t>
-  </si>
-  <si>
-    <t xml:space="preserve">glutamine--fructose-6-phosphate transaminase 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GFPT1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENSG00000172888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">zinc finger protein 621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ZNF621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENSG00000091986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coiled-coil domain containing 80</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CCDC80</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENSG00000138678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">glycerol-3-phosphate acyltransferase 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GPAT3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENSG00000142731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">polo like kinase 4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PLK4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENSG00000164609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pre-mRNA-splicing factor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SLU7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENSG00000091831</t>
-  </si>
-  <si>
-    <t xml:space="preserve">estrogen receptor 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESR1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENSG00000146733</t>
-  </si>
-  <si>
-    <t xml:space="preserve">phosphoserine phosphatase</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSPH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENSG00000104763</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N-acylsphingosine amidohydrolase 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ASAH1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENSG00000175445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lipoprotein lipase</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LPL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENSG00000165688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mitochondrial-processing peptidase subunit alpha</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PMPCA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENSG00000151657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNA and RNA binding protein</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KIN17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENSG00000148824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mitochondrial ribosome associated GTPase 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MTG1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENSG00000197601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fatty acyl-CoA reductase 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FAR1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENSG00000076043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RNA exonuclease 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">REXO2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENSG00000165891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E2F transcription factor 7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E2F7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENSG00000089060</t>
-  </si>
-  <si>
-    <t xml:space="preserve">solute carrier family 8 member B1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SLC8B1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENSG00000136108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cytoskeleton associated protein 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CKAP2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENSG00000198752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CDC42 binding protein kinase beta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CDC42BPB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENSG00000074696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3-hydroxyacyl-CoA dehydratase 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HACD3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENSG00000131873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chondroitin sulfate synthase 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHSY1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENSG00000176715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">acyl-CoA synthetase family member 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACSF3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENSG00000108798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABI family member 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABI3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENSG00000141642</t>
-  </si>
-  <si>
-    <t xml:space="preserve">elaC ribonuclease Z 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ELAC1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENSG00000105341</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ATP5S like</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ATP5SL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENSG00000178980</t>
-  </si>
-  <si>
-    <t xml:space="preserve">selenoprotein W</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SELENOW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENSG00000089123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">threonine aspartase 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TASP1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENSG00000196839</t>
-  </si>
-  <si>
-    <t xml:space="preserve">adenosine deaminase</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ADA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENSG00000142168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">superoxide dismutase 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SOD1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENSG00000241973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">phosphatidylinositol 4-kinase alpha</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PI4KA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENSG00000100226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GTP binding protein 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GTPBP1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENSG00000186416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NF-Kappa-B repressing factor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NKRF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENSG00000183753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">basic charge, Y-linked, 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BPY2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENSG00000198804</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mitochondrially encoded cytochrome c oxidase I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MT-CO1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Activity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENSR00000256263</t>
-  </si>
-  <si>
-    <t xml:space="preserve">element_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CTCF_binding_site</t>
-  </si>
-  <si>
-    <t xml:space="preserve">inactive</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENSR00000002638</t>
-  </si>
-  <si>
-    <t xml:space="preserve">element_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">promoter_flanking_region</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENSR00000116452</t>
-  </si>
-  <si>
-    <t xml:space="preserve">element_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">open_chromatin_region</t>
-  </si>
-  <si>
-    <t xml:space="preserve">repressed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENSR00000119564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">element_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">promoter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">active</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENSR00000303592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">element_5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">poised</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENSR00000163042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">element_6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENSR00000309980</t>
-  </si>
-  <si>
-    <t xml:space="preserve">element_7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">enhancer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENSR00000172399</t>
-  </si>
-  <si>
-    <t xml:space="preserve">element_8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENSR00000187923</t>
-  </si>
-  <si>
-    <t xml:space="preserve">element_9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENSR00000192159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">element_10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENSR00000211764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">element_11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENSR00000220425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">element_12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENSR00000228988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">element_13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENSR00000235851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">element_14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TF_binding_site</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENSR00000025514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">element_15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENSR00000027526</t>
-  </si>
-  <si>
-    <t xml:space="preserve">element_16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENSR00000266653</t>
-  </si>
-  <si>
-    <t xml:space="preserve">element_17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENSR00000044013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">element_18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENSR00000056340</t>
-  </si>
-  <si>
-    <t xml:space="preserve">element_19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENSR00000056192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">element_20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENSR00000063160</t>
-  </si>
-  <si>
-    <t xml:space="preserve">element_21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENSR00000066764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">element_22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENSR00000278949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">element_23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENSR00000076118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">element_24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENSR00000085774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">element_25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENSR00000092108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">element_26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENSR00000102082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">element_27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENSR00000111861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">element_28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENSR00000111019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">element_29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENSR00000139830</t>
-  </si>
-  <si>
-    <t xml:space="preserve">element_30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENSR00000139309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">element_31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENSR00000142069</t>
-  </si>
-  <si>
-    <t xml:space="preserve">element_32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENSR00000146936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">element_33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENSR00000145235</t>
-  </si>
-  <si>
-    <t xml:space="preserve">element_34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENSR00000343645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">element_35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENSR00000339371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">element_36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gene</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Regulatory Elements</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENSR00000309980, ENSR00000172399</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Double stranded</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rna_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pre_mRNA_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rna_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pre_mRNA_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rna</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Exons</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENST00000234111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">transcript_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENSE00001001268, ENSE00000710599, ENSE00000710600, ENSE00000710601, ENSE00000710602, ENSE00000710603, ENSE00000710605, ENSE00003477426, ENSE00000710607, ENSE00003542193, ENSE00001349711, ENSE00001349715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENST00000405333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">transcript_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENSE00001562710, ENSE00000710599, ENSE00000710600, ENSE00000710601, ENSE00000710602, ENSE00000710603, ENSE00000710605, ENSE00003477426, ENSE00000710607, ENSE00003542193, ENSE00001349711, ENSE00001551969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENST00000443218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">transcript_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENSE00001779847, ENSE00003542193, ENSE00001349711, ENSE00001610380</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENST00000446285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">transcript_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENSE00003540780, ENSE00001634763, ENSE00003607498, ENSE00001349711, ENSE00001672918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENSE00001001268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">exon_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENSE00000710599</t>
-  </si>
-  <si>
-    <t xml:space="preserve">exon_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENSE00000710600</t>
-  </si>
-  <si>
-    <t xml:space="preserve">exon_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENSE00000710601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">exon_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENSE00000710602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">exon_5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENSE00000710603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">exon_6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENSE00000710605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">exon_7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENSE00003477426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">exon_8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENSE00000710607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">exon_9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENSE00003542193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">exon_10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENSE00001349711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">exon_11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENSE00001349715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">exon_12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENSE00001562710</t>
-  </si>
-  <si>
-    <t xml:space="preserve">exon_13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENSE00001551969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">exon_14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENSE00001779847</t>
-  </si>
-  <si>
-    <t xml:space="preserve">exon_15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENSE00001610380</t>
-  </si>
-  <si>
-    <t xml:space="preserve">exon_16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENSE00003540780</t>
-  </si>
-  <si>
-    <t xml:space="preserve">exon_17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENSE00001634763</t>
-  </si>
-  <si>
-    <t xml:space="preserve">exon_18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENSE00003607498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">exon_19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENSE00001672918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">exon_20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Uniprot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Transcript</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Half Life</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENSP00000234111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ornithine decarboxylase</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P11926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENSP00000385333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENSP00000390691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C9JG30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Formation process</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Subunits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Composition in Uniprot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Complex type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Binding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Region</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Complex_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ornithine decarboxylase</t>
-  </si>
-  <si>
-    <t xml:space="preserve">process_MacromolecularComplexation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(2) ENSP00000234111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2*P11926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ref_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Complex_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(2) ENSP00000385333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Complex_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENSP00000234111 + ENSP00000385333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Complex_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(2) ENSP00000390691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2*C9JG30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Species</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Units</t>
-  </si>
-  <si>
-    <t xml:space="preserve">O[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ECMDB:1111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">O3[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">molecules</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ref_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">O2ions[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mol dm^-2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">O2[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENST00000234111[n]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENST00000405333[n]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENST00000443218[n]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENST00000446285[n]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENSP00000234111[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENSP00000385333[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENSP00000390691[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cell</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Observables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">obs_isoenzyme1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Complex_1[c] + Complex_2[c] + Complex_3[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Submodel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Participants</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reversible</t>
-  </si>
-  <si>
-    <t xml:space="preserve">O2_degradation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">O2 degradation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">metabolism</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[c]: (1) O2 ==&gt; (2) O</t>
-  </si>
-  <si>
-    <t xml:space="preserve">O2_synthesis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">O2 synthesis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(2) O[c] ==&gt; (1) O2[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oxygen_ionization</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oxygen ionization</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[c]: (1) O ==&gt; (1) O2ions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oxygen_deionization</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oxygen de-ionization</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[c]: (1) O2ions ==&gt; (1) O</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[c]: O + O2 ==&gt; O3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ORNDC_isoenzyme1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ornithine Decarboxylase</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[c]: orn + h ==&gt; co2 + ptrc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ORNDC_isoenzyme2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reaction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Direction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Equation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K cat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K m</t>
-  </si>
-  <si>
-    <t xml:space="preserve">forward</t>
-  </si>
-  <si>
-    <t xml:space="preserve">""</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"2"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Order 2, same, MA kinetics</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 * O[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">custom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Order 1, MA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1+2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Order 2, different, MA kinetics</t>
-  </si>
-  <si>
-    <t xml:space="preserve">backward</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1+3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kcat_1 * orn[c] * Complex_1[c] / (Km_1 + orn[c])</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sabio-Rk:12345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kcat_2 * orn[c] * Complex_4[c] / (Km_2 + orn[c])</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sabio-Rk:12346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Error</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kcat_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kcat for ORNDC for isoenzyme1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">s^-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sabio-Rk:21340</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kcat_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kcat for ORNDC for isoenzyme2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sabio-Rk:21341</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Km_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">km for ORNDC for isoenzyme1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Km_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">km for ORNDC for isoenzyme2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">initial_volume</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cell Volume</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cell_density</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cell Density</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cells/L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fraction_dry_weight</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dry Weight</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dimensionless</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cell_cycle_length</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cell Cycle Length</t>
-  </si>
-  <si>
-    <t xml:space="preserve">s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">standard id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1000/xyz123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1093/nar/gks1195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ref_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1234/abc234</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="878" uniqueCount="467">
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>human_h1</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Human H1 model</t>
+  </si>
+  <si>
+    <t>Translation table</t>
+  </si>
+  <si>
+    <t>Version</t>
+  </si>
+  <si>
+    <t>0.1.1</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>Branch</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>wc_kb version</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>h1_hesc</t>
+  </si>
+  <si>
+    <t>H1 human embryonic stem cell</t>
+  </si>
+  <si>
+    <t>Taxon</t>
+  </si>
+  <si>
+    <t>Volumetric fraction</t>
+  </si>
+  <si>
+    <t>References</t>
+  </si>
+  <si>
+    <t>Database References</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>cytosol</t>
+  </si>
+  <si>
+    <t>ref_1, ref_2</t>
+  </si>
+  <si>
+    <t>BioNumbers:123456, BioNumbers:23456</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>nucleus</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>mitochondrion</t>
+  </si>
+  <si>
+    <t>BioNumbers:23456</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>extracellular space</t>
+  </si>
+  <si>
+    <t>Structure</t>
+  </si>
+  <si>
+    <t>Half life</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>Oxygen</t>
+  </si>
+  <si>
+    <t>O2</t>
+  </si>
+  <si>
+    <t>Dioxygen</t>
+  </si>
+  <si>
+    <t>InChI=1S/O2/c1-2</t>
+  </si>
+  <si>
+    <t>O3</t>
+  </si>
+  <si>
+    <t>Ozone</t>
+  </si>
+  <si>
+    <t>O2ions</t>
+  </si>
+  <si>
+    <t>Doubly ionized oxygen</t>
+  </si>
+  <si>
+    <t>orn</t>
+  </si>
+  <si>
+    <t>ornithine</t>
+  </si>
+  <si>
+    <t>InChI=1S/C5H12N2O2/c6-3-1-2-4(7)5(8)9/h4H,1-3,6-7H2,(H,8,9)</t>
+  </si>
+  <si>
+    <t>ptrc</t>
+  </si>
+  <si>
+    <t>putrescine</t>
+  </si>
+  <si>
+    <t>InChI=1S/C4H12N2/c5-3-1-2-4-6/h1-6H2/p+2</t>
+  </si>
+  <si>
+    <t>co2</t>
+  </si>
+  <si>
+    <t>carbon dioxide</t>
+  </si>
+  <si>
+    <t>InChI=1S/CO2/c2-1-3</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>proton</t>
+  </si>
+  <si>
+    <t>InChI=1S/p+1/i/hH</t>
+  </si>
+  <si>
+    <t>Sequence</t>
+  </si>
+  <si>
+    <t>Circular</t>
+  </si>
+  <si>
+    <t>Double Stranded</t>
+  </si>
+  <si>
+    <t>Half_life</t>
+  </si>
+  <si>
+    <t>chromosome1</t>
+  </si>
+  <si>
+    <t>chromosome2</t>
+  </si>
+  <si>
+    <t>chromosome3</t>
+  </si>
+  <si>
+    <t>chromosome4</t>
+  </si>
+  <si>
+    <t>chromosome5</t>
+  </si>
+  <si>
+    <t>chromosome6</t>
+  </si>
+  <si>
+    <t>chromosome7</t>
+  </si>
+  <si>
+    <t>chromosome8</t>
+  </si>
+  <si>
+    <t>chromosome9</t>
+  </si>
+  <si>
+    <t>chromosome10</t>
+  </si>
+  <si>
+    <t>chromosome11</t>
+  </si>
+  <si>
+    <t>chromosome12</t>
+  </si>
+  <si>
+    <t>chromosome13</t>
+  </si>
+  <si>
+    <t>chromosome14</t>
+  </si>
+  <si>
+    <t>chromosome15</t>
+  </si>
+  <si>
+    <t>chromosome16</t>
+  </si>
+  <si>
+    <t>chromosome17</t>
+  </si>
+  <si>
+    <t>chromosome18</t>
+  </si>
+  <si>
+    <t>chromosome19</t>
+  </si>
+  <si>
+    <t>chromosome20</t>
+  </si>
+  <si>
+    <t>chromosome21</t>
+  </si>
+  <si>
+    <t>chromosome22</t>
+  </si>
+  <si>
+    <t>chromosomeX</t>
+  </si>
+  <si>
+    <t>chromosomeY</t>
+  </si>
+  <si>
+    <t>chromosomeMT</t>
+  </si>
+  <si>
+    <t>Polymer</t>
+  </si>
+  <si>
+    <t>Symbol</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Strand</t>
+  </si>
+  <si>
+    <t>Start</t>
+  </si>
+  <si>
+    <t>End</t>
+  </si>
+  <si>
+    <t>ENSG00000158828</t>
+  </si>
+  <si>
+    <t>PTEN induced putative kinase 1</t>
+  </si>
+  <si>
+    <t>PINK1</t>
+  </si>
+  <si>
+    <t>mRna</t>
+  </si>
+  <si>
+    <t>+</t>
+  </si>
+  <si>
+    <t>ENSG00000115758</t>
+  </si>
+  <si>
+    <t>ornithine decarboxylase 1</t>
+  </si>
+  <si>
+    <t>ODC1</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>ENSG00000198380</t>
+  </si>
+  <si>
+    <t>glutamine--fructose-6-phosphate transaminase 1</t>
+  </si>
+  <si>
+    <t>GFPT1</t>
+  </si>
+  <si>
+    <t>ENSG00000172888</t>
+  </si>
+  <si>
+    <t>zinc finger protein 621</t>
+  </si>
+  <si>
+    <t>ZNF621</t>
+  </si>
+  <si>
+    <t>ENSG00000091986</t>
+  </si>
+  <si>
+    <t>coiled-coil domain containing 80</t>
+  </si>
+  <si>
+    <t>CCDC80</t>
+  </si>
+  <si>
+    <t>ENSG00000138678</t>
+  </si>
+  <si>
+    <t>glycerol-3-phosphate acyltransferase 3</t>
+  </si>
+  <si>
+    <t>GPAT3</t>
+  </si>
+  <si>
+    <t>ENSG00000142731</t>
+  </si>
+  <si>
+    <t>polo like kinase 4</t>
+  </si>
+  <si>
+    <t>PLK4</t>
+  </si>
+  <si>
+    <t>ENSG00000164609</t>
+  </si>
+  <si>
+    <t>pre-mRNA-splicing factor</t>
+  </si>
+  <si>
+    <t>SLU7</t>
+  </si>
+  <si>
+    <t>ENSG00000091831</t>
+  </si>
+  <si>
+    <t>estrogen receptor 1</t>
+  </si>
+  <si>
+    <t>ESR1</t>
+  </si>
+  <si>
+    <t>ENSG00000146733</t>
+  </si>
+  <si>
+    <t>phosphoserine phosphatase</t>
+  </si>
+  <si>
+    <t>PSPH</t>
+  </si>
+  <si>
+    <t>ENSG00000104763</t>
+  </si>
+  <si>
+    <t>N-acylsphingosine amidohydrolase 1</t>
+  </si>
+  <si>
+    <t>ASAH1</t>
+  </si>
+  <si>
+    <t>ENSG00000175445</t>
+  </si>
+  <si>
+    <t>lipoprotein lipase</t>
+  </si>
+  <si>
+    <t>LPL</t>
+  </si>
+  <si>
+    <t>ENSG00000165688</t>
+  </si>
+  <si>
+    <t>mitochondrial-processing peptidase subunit alpha</t>
+  </si>
+  <si>
+    <t>PMPCA</t>
+  </si>
+  <si>
+    <t>ENSG00000151657</t>
+  </si>
+  <si>
+    <t>DNA and RNA binding protein</t>
+  </si>
+  <si>
+    <t>KIN17</t>
+  </si>
+  <si>
+    <t>ENSG00000148824</t>
+  </si>
+  <si>
+    <t>mitochondrial ribosome associated GTPase 1</t>
+  </si>
+  <si>
+    <t>MTG1</t>
+  </si>
+  <si>
+    <t>ENSG00000197601</t>
+  </si>
+  <si>
+    <t>fatty acyl-CoA reductase 1</t>
+  </si>
+  <si>
+    <t>FAR1</t>
+  </si>
+  <si>
+    <t>ENSG00000076043</t>
+  </si>
+  <si>
+    <t>RNA exonuclease 2</t>
+  </si>
+  <si>
+    <t>REXO2</t>
+  </si>
+  <si>
+    <t>ENSG00000165891</t>
+  </si>
+  <si>
+    <t>E2F transcription factor 7</t>
+  </si>
+  <si>
+    <t>E2F7</t>
+  </si>
+  <si>
+    <t>ENSG00000089060</t>
+  </si>
+  <si>
+    <t>solute carrier family 8 member B1</t>
+  </si>
+  <si>
+    <t>SLC8B1</t>
+  </si>
+  <si>
+    <t>ENSG00000136108</t>
+  </si>
+  <si>
+    <t>cytoskeleton associated protein 2</t>
+  </si>
+  <si>
+    <t>CKAP2</t>
+  </si>
+  <si>
+    <t>ENSG00000198752</t>
+  </si>
+  <si>
+    <t>CDC42 binding protein kinase beta</t>
+  </si>
+  <si>
+    <t>CDC42BPB</t>
+  </si>
+  <si>
+    <t>ENSG00000074696</t>
+  </si>
+  <si>
+    <t>3-hydroxyacyl-CoA dehydratase 3</t>
+  </si>
+  <si>
+    <t>HACD3</t>
+  </si>
+  <si>
+    <t>ENSG00000131873</t>
+  </si>
+  <si>
+    <t>chondroitin sulfate synthase 1</t>
+  </si>
+  <si>
+    <t>CHSY1</t>
+  </si>
+  <si>
+    <t>ENSG00000176715</t>
+  </si>
+  <si>
+    <t>acyl-CoA synthetase family member 3</t>
+  </si>
+  <si>
+    <t>ACSF3</t>
+  </si>
+  <si>
+    <t>ENSG00000108798</t>
+  </si>
+  <si>
+    <t>ABI family member 3</t>
+  </si>
+  <si>
+    <t>ABI3</t>
+  </si>
+  <si>
+    <t>ENSG00000141642</t>
+  </si>
+  <si>
+    <t>elaC ribonuclease Z 1</t>
+  </si>
+  <si>
+    <t>ELAC1</t>
+  </si>
+  <si>
+    <t>ENSG00000105341</t>
+  </si>
+  <si>
+    <t>ATP5S like</t>
+  </si>
+  <si>
+    <t>ATP5SL</t>
+  </si>
+  <si>
+    <t>ENSG00000178980</t>
+  </si>
+  <si>
+    <t>selenoprotein W</t>
+  </si>
+  <si>
+    <t>SELENOW</t>
+  </si>
+  <si>
+    <t>ENSG00000089123</t>
+  </si>
+  <si>
+    <t>threonine aspartase 1</t>
+  </si>
+  <si>
+    <t>TASP1</t>
+  </si>
+  <si>
+    <t>ENSG00000196839</t>
+  </si>
+  <si>
+    <t>adenosine deaminase</t>
+  </si>
+  <si>
+    <t>ADA</t>
+  </si>
+  <si>
+    <t>ENSG00000142168</t>
+  </si>
+  <si>
+    <t>superoxide dismutase 1</t>
+  </si>
+  <si>
+    <t>SOD1</t>
+  </si>
+  <si>
+    <t>ENSG00000241973</t>
+  </si>
+  <si>
+    <t>phosphatidylinositol 4-kinase alpha</t>
+  </si>
+  <si>
+    <t>PI4KA</t>
+  </si>
+  <si>
+    <t>ENSG00000100226</t>
+  </si>
+  <si>
+    <t>GTP binding protein 1</t>
+  </si>
+  <si>
+    <t>GTPBP1</t>
+  </si>
+  <si>
+    <t>ENSG00000186416</t>
+  </si>
+  <si>
+    <t>NF-Kappa-B repressing factor</t>
+  </si>
+  <si>
+    <t>NKRF</t>
+  </si>
+  <si>
+    <t>ENSG00000183753</t>
+  </si>
+  <si>
+    <t>basic charge, Y-linked, 2</t>
+  </si>
+  <si>
+    <t>BPY2</t>
+  </si>
+  <si>
+    <t>ENSG00000198804</t>
+  </si>
+  <si>
+    <t>mitochondrially encoded cytochrome c oxidase I</t>
+  </si>
+  <si>
+    <t>MT-CO1</t>
+  </si>
+  <si>
+    <t>Activity</t>
+  </si>
+  <si>
+    <t>ENSR00000256263</t>
+  </si>
+  <si>
+    <t>element_1</t>
+  </si>
+  <si>
+    <t>CTCF_binding_site</t>
+  </si>
+  <si>
+    <t>inactive</t>
+  </si>
+  <si>
+    <t>ENSR00000002638</t>
+  </si>
+  <si>
+    <t>element_2</t>
+  </si>
+  <si>
+    <t>promoter_flanking_region</t>
+  </si>
+  <si>
+    <t>ENSR00000116452</t>
+  </si>
+  <si>
+    <t>element_3</t>
+  </si>
+  <si>
+    <t>open_chromatin_region</t>
+  </si>
+  <si>
+    <t>repressed</t>
+  </si>
+  <si>
+    <t>ENSR00000119564</t>
+  </si>
+  <si>
+    <t>element_4</t>
+  </si>
+  <si>
+    <t>promoter</t>
+  </si>
+  <si>
+    <t>active</t>
+  </si>
+  <si>
+    <t>ENSR00000303592</t>
+  </si>
+  <si>
+    <t>element_5</t>
+  </si>
+  <si>
+    <t>poised</t>
+  </si>
+  <si>
+    <t>ENSR00000163042</t>
+  </si>
+  <si>
+    <t>element_6</t>
+  </si>
+  <si>
+    <t>ENSR00000309980</t>
+  </si>
+  <si>
+    <t>element_7</t>
+  </si>
+  <si>
+    <t>enhancer</t>
+  </si>
+  <si>
+    <t>ENSR00000172399</t>
+  </si>
+  <si>
+    <t>element_8</t>
+  </si>
+  <si>
+    <t>ENSR00000187923</t>
+  </si>
+  <si>
+    <t>element_9</t>
+  </si>
+  <si>
+    <t>ENSR00000192159</t>
+  </si>
+  <si>
+    <t>element_10</t>
+  </si>
+  <si>
+    <t>ENSR00000211764</t>
+  </si>
+  <si>
+    <t>element_11</t>
+  </si>
+  <si>
+    <t>ENSR00000220425</t>
+  </si>
+  <si>
+    <t>element_12</t>
+  </si>
+  <si>
+    <t>ENSR00000228988</t>
+  </si>
+  <si>
+    <t>element_13</t>
+  </si>
+  <si>
+    <t>ENSR00000235851</t>
+  </si>
+  <si>
+    <t>element_14</t>
+  </si>
+  <si>
+    <t>TF_binding_site</t>
+  </si>
+  <si>
+    <t>ENSR00000025514</t>
+  </si>
+  <si>
+    <t>element_15</t>
+  </si>
+  <si>
+    <t>ENSR00000027526</t>
+  </si>
+  <si>
+    <t>element_16</t>
+  </si>
+  <si>
+    <t>ENSR00000266653</t>
+  </si>
+  <si>
+    <t>element_17</t>
+  </si>
+  <si>
+    <t>ENSR00000044013</t>
+  </si>
+  <si>
+    <t>element_18</t>
+  </si>
+  <si>
+    <t>ENSR00000056340</t>
+  </si>
+  <si>
+    <t>element_19</t>
+  </si>
+  <si>
+    <t>ENSR00000056192</t>
+  </si>
+  <si>
+    <t>element_20</t>
+  </si>
+  <si>
+    <t>ENSR00000063160</t>
+  </si>
+  <si>
+    <t>element_21</t>
+  </si>
+  <si>
+    <t>ENSR00000066764</t>
+  </si>
+  <si>
+    <t>element_22</t>
+  </si>
+  <si>
+    <t>ENSR00000278949</t>
+  </si>
+  <si>
+    <t>element_23</t>
+  </si>
+  <si>
+    <t>ENSR00000076118</t>
+  </si>
+  <si>
+    <t>element_24</t>
+  </si>
+  <si>
+    <t>ENSR00000085774</t>
+  </si>
+  <si>
+    <t>element_25</t>
+  </si>
+  <si>
+    <t>ENSR00000092108</t>
+  </si>
+  <si>
+    <t>element_26</t>
+  </si>
+  <si>
+    <t>ENSR00000102082</t>
+  </si>
+  <si>
+    <t>element_27</t>
+  </si>
+  <si>
+    <t>ENSR00000111861</t>
+  </si>
+  <si>
+    <t>element_28</t>
+  </si>
+  <si>
+    <t>ENSR00000111019</t>
+  </si>
+  <si>
+    <t>element_29</t>
+  </si>
+  <si>
+    <t>ENSR00000139830</t>
+  </si>
+  <si>
+    <t>element_30</t>
+  </si>
+  <si>
+    <t>ENSR00000139309</t>
+  </si>
+  <si>
+    <t>element_31</t>
+  </si>
+  <si>
+    <t>ENSR00000142069</t>
+  </si>
+  <si>
+    <t>element_32</t>
+  </si>
+  <si>
+    <t>ENSR00000146936</t>
+  </si>
+  <si>
+    <t>element_33</t>
+  </si>
+  <si>
+    <t>ENSR00000145235</t>
+  </si>
+  <si>
+    <t>element_34</t>
+  </si>
+  <si>
+    <t>ENSR00000343645</t>
+  </si>
+  <si>
+    <t>element_35</t>
+  </si>
+  <si>
+    <t>ENSR00000339371</t>
+  </si>
+  <si>
+    <t>element_36</t>
+  </si>
+  <si>
+    <t>Gene</t>
+  </si>
+  <si>
+    <t>Regulatory Elements</t>
+  </si>
+  <si>
+    <t>ENSR00000309980, ENSR00000172399</t>
+  </si>
+  <si>
+    <t>Double stranded</t>
+  </si>
+  <si>
+    <t>rna_1</t>
+  </si>
+  <si>
+    <t>pre_mRNA_1</t>
+  </si>
+  <si>
+    <t>rna_2</t>
+  </si>
+  <si>
+    <t>pre_mRNA_2</t>
+  </si>
+  <si>
+    <t>Rna</t>
+  </si>
+  <si>
+    <t>Exons</t>
+  </si>
+  <si>
+    <t>ENST00000234111</t>
+  </si>
+  <si>
+    <t>transcript_1</t>
+  </si>
+  <si>
+    <t>ENSE00001001268, ENSE00000710599, ENSE00000710600, ENSE00000710601, ENSE00000710602, ENSE00000710603, ENSE00000710605, ENSE00003477426, ENSE00000710607, ENSE00003542193, ENSE00001349711, ENSE00001349715</t>
+  </si>
+  <si>
+    <t>ENST00000405333</t>
+  </si>
+  <si>
+    <t>transcript_2</t>
+  </si>
+  <si>
+    <t>ENSE00001562710, ENSE00000710599, ENSE00000710600, ENSE00000710601, ENSE00000710602, ENSE00000710603, ENSE00000710605, ENSE00003477426, ENSE00000710607, ENSE00003542193, ENSE00001349711, ENSE00001551969</t>
+  </si>
+  <si>
+    <t>ENST00000443218</t>
+  </si>
+  <si>
+    <t>transcript_3</t>
+  </si>
+  <si>
+    <t>ENSE00001779847, ENSE00003542193, ENSE00001349711, ENSE00001610380</t>
+  </si>
+  <si>
+    <t>ENST00000446285</t>
+  </si>
+  <si>
+    <t>transcript_4</t>
+  </si>
+  <si>
+    <t>ENSE00003540780, ENSE00001634763, ENSE00003607498, ENSE00001349711, ENSE00001672918</t>
+  </si>
+  <si>
+    <t>ENSE00001001268</t>
+  </si>
+  <si>
+    <t>exon_1</t>
+  </si>
+  <si>
+    <t>ENSE00000710599</t>
+  </si>
+  <si>
+    <t>exon_2</t>
+  </si>
+  <si>
+    <t>ENSE00000710600</t>
+  </si>
+  <si>
+    <t>exon_3</t>
+  </si>
+  <si>
+    <t>ENSE00000710601</t>
+  </si>
+  <si>
+    <t>exon_4</t>
+  </si>
+  <si>
+    <t>ENSE00000710602</t>
+  </si>
+  <si>
+    <t>exon_5</t>
+  </si>
+  <si>
+    <t>ENSE00000710603</t>
+  </si>
+  <si>
+    <t>exon_6</t>
+  </si>
+  <si>
+    <t>ENSE00000710605</t>
+  </si>
+  <si>
+    <t>exon_7</t>
+  </si>
+  <si>
+    <t>ENSE00003477426</t>
+  </si>
+  <si>
+    <t>exon_8</t>
+  </si>
+  <si>
+    <t>ENSE00000710607</t>
+  </si>
+  <si>
+    <t>exon_9</t>
+  </si>
+  <si>
+    <t>ENSE00003542193</t>
+  </si>
+  <si>
+    <t>exon_10</t>
+  </si>
+  <si>
+    <t>ENSE00001349711</t>
+  </si>
+  <si>
+    <t>exon_11</t>
+  </si>
+  <si>
+    <t>ENSE00001349715</t>
+  </si>
+  <si>
+    <t>exon_12</t>
+  </si>
+  <si>
+    <t>ENSE00001562710</t>
+  </si>
+  <si>
+    <t>exon_13</t>
+  </si>
+  <si>
+    <t>ENSE00001551969</t>
+  </si>
+  <si>
+    <t>exon_14</t>
+  </si>
+  <si>
+    <t>ENSE00001779847</t>
+  </si>
+  <si>
+    <t>exon_15</t>
+  </si>
+  <si>
+    <t>ENSE00001610380</t>
+  </si>
+  <si>
+    <t>exon_16</t>
+  </si>
+  <si>
+    <t>ENSE00003540780</t>
+  </si>
+  <si>
+    <t>exon_17</t>
+  </si>
+  <si>
+    <t>ENSE00001634763</t>
+  </si>
+  <si>
+    <t>exon_18</t>
+  </si>
+  <si>
+    <t>ENSE00003607498</t>
+  </si>
+  <si>
+    <t>exon_19</t>
+  </si>
+  <si>
+    <t>ENSE00001672918</t>
+  </si>
+  <si>
+    <t>exon_20</t>
+  </si>
+  <si>
+    <t>Uniprot</t>
+  </si>
+  <si>
+    <t>Transcript</t>
+  </si>
+  <si>
+    <t>Half Life</t>
+  </si>
+  <si>
+    <t>ENSP00000234111</t>
+  </si>
+  <si>
+    <t>ornithine decarboxylase</t>
+  </si>
+  <si>
+    <t>P11926</t>
+  </si>
+  <si>
+    <t>ENSP00000385333</t>
+  </si>
+  <si>
+    <t>ENSP00000390691</t>
+  </si>
+  <si>
+    <t>C9JG30</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Formation process</t>
+  </si>
+  <si>
+    <t>Subunits</t>
+  </si>
+  <si>
+    <t>Composition in Uniprot</t>
+  </si>
+  <si>
+    <t>Complex type</t>
+  </si>
+  <si>
+    <t>Binding</t>
+  </si>
+  <si>
+    <t>Region</t>
+  </si>
+  <si>
+    <t>Complex_1</t>
+  </si>
+  <si>
+    <t>Ornithine decarboxylase</t>
+  </si>
+  <si>
+    <t>process_MacromolecularComplexation</t>
+  </si>
+  <si>
+    <t>(2) ENSP00000234111</t>
+  </si>
+  <si>
+    <t>2*P11926</t>
+  </si>
+  <si>
+    <t>ref_1</t>
+  </si>
+  <si>
+    <t>Complex_2</t>
+  </si>
+  <si>
+    <t>(2) ENSP00000385333</t>
+  </si>
+  <si>
+    <t>Complex_3</t>
+  </si>
+  <si>
+    <t>ENSP00000234111 + ENSP00000385333</t>
+  </si>
+  <si>
+    <t>Complex_4</t>
+  </si>
+  <si>
+    <t>(2) ENSP00000390691</t>
+  </si>
+  <si>
+    <t>2*C9JG30</t>
+  </si>
+  <si>
+    <t>Species</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>O[c]</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>ECMDB:1111</t>
+  </si>
+  <si>
+    <t>O3[c]</t>
+  </si>
+  <si>
+    <t>molecules</t>
+  </si>
+  <si>
+    <t>ref_2</t>
+  </si>
+  <si>
+    <t>O2ions[c]</t>
+  </si>
+  <si>
+    <t>mol dm^-2</t>
+  </si>
+  <si>
+    <t>O2[c]</t>
+  </si>
+  <si>
+    <t>ENST00000234111[n]</t>
+  </si>
+  <si>
+    <t>ENST00000405333[n]</t>
+  </si>
+  <si>
+    <t>ENST00000443218[n]</t>
+  </si>
+  <si>
+    <t>ENST00000446285[n]</t>
+  </si>
+  <si>
+    <t>ENSP00000234111[c]</t>
+  </si>
+  <si>
+    <t>ENSP00000385333[c]</t>
+  </si>
+  <si>
+    <t>ENSP00000390691[c]</t>
+  </si>
+  <si>
+    <t>Cell</t>
+  </si>
+  <si>
+    <t>Observables</t>
+  </si>
+  <si>
+    <t>obs_isoenzyme1</t>
+  </si>
+  <si>
+    <t>Complex_1[c] + Complex_2[c] + Complex_3[c]</t>
+  </si>
+  <si>
+    <t>Submodel</t>
+  </si>
+  <si>
+    <t>Participants</t>
+  </si>
+  <si>
+    <t>Reversible</t>
+  </si>
+  <si>
+    <t>O2_degradation</t>
+  </si>
+  <si>
+    <t>O2 degradation</t>
+  </si>
+  <si>
+    <t>metabolism</t>
+  </si>
+  <si>
+    <t>[c]: (1) O2 ==&gt; (2) O</t>
+  </si>
+  <si>
+    <t>O2_synthesis</t>
+  </si>
+  <si>
+    <t>O2 synthesis</t>
+  </si>
+  <si>
+    <t>(2) O[c] ==&gt; (1) O2[c]</t>
+  </si>
+  <si>
+    <t>Oxygen_ionization</t>
+  </si>
+  <si>
+    <t>Oxygen ionization</t>
+  </si>
+  <si>
+    <t>[c]: (1) O ==&gt; (1) O2ions</t>
+  </si>
+  <si>
+    <t>Oxygen_deionization</t>
+  </si>
+  <si>
+    <t>Oxygen de-ionization</t>
+  </si>
+  <si>
+    <t>[c]: (1) O2ions ==&gt; (1) O</t>
+  </si>
+  <si>
+    <t>[c]: O + O2 ==&gt; O3</t>
+  </si>
+  <si>
+    <t>ORNDC_isoenzyme1</t>
+  </si>
+  <si>
+    <t>Ornithine Decarboxylase</t>
+  </si>
+  <si>
+    <t>[c]: orn + h ==&gt; co2 + ptrc</t>
+  </si>
+  <si>
+    <t>ORNDC_isoenzyme2</t>
+  </si>
+  <si>
+    <t>Reaction</t>
+  </si>
+  <si>
+    <t>Direction</t>
+  </si>
+  <si>
+    <t>Equation</t>
+  </si>
+  <si>
+    <t>K cat</t>
+  </si>
+  <si>
+    <t>K m</t>
+  </si>
+  <si>
+    <t>forward</t>
+  </si>
+  <si>
+    <t>""</t>
+  </si>
+  <si>
+    <t>"2"</t>
+  </si>
+  <si>
+    <t>Order 2, same, MA kinetics</t>
+  </si>
+  <si>
+    <t>2 * O[c]</t>
+  </si>
+  <si>
+    <t>custom</t>
+  </si>
+  <si>
+    <t>Order 1, MA</t>
+  </si>
+  <si>
+    <t>1+2</t>
+  </si>
+  <si>
+    <t>Order 2, different, MA kinetics</t>
+  </si>
+  <si>
+    <t>backward</t>
+  </si>
+  <si>
+    <t>1+3</t>
+  </si>
+  <si>
+    <t>kcat_1 * orn[c] * Complex_1[c] / (Km_1 + orn[c])</t>
+  </si>
+  <si>
+    <t>Sabio-Rk:12345</t>
+  </si>
+  <si>
+    <t>kcat_2 * orn[c] * Complex_4[c] / (Km_2 + orn[c])</t>
+  </si>
+  <si>
+    <t>Sabio-Rk:12346</t>
+  </si>
+  <si>
+    <t>Error</t>
+  </si>
+  <si>
+    <t>kcat_1</t>
+  </si>
+  <si>
+    <t>kcat for ORNDC for isoenzyme1</t>
+  </si>
+  <si>
+    <t>s^-1</t>
+  </si>
+  <si>
+    <t>Sabio-Rk:21340</t>
+  </si>
+  <si>
+    <t>kcat_2</t>
+  </si>
+  <si>
+    <t>kcat for ORNDC for isoenzyme2</t>
+  </si>
+  <si>
+    <t>Sabio-Rk:21341</t>
+  </si>
+  <si>
+    <t>Km_1</t>
+  </si>
+  <si>
+    <t>km for ORNDC for isoenzyme1</t>
+  </si>
+  <si>
+    <t>Km_2</t>
+  </si>
+  <si>
+    <t>km for ORNDC for isoenzyme2</t>
+  </si>
+  <si>
+    <t>initial_volume</t>
+  </si>
+  <si>
+    <t>Cell Volume</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>cell_density</t>
+  </si>
+  <si>
+    <t>Cell Density</t>
+  </si>
+  <si>
+    <t>cells/L</t>
+  </si>
+  <si>
+    <t>fraction_dry_weight</t>
+  </si>
+  <si>
+    <t>Dry Weight</t>
+  </si>
+  <si>
+    <t>dimensionless</t>
+  </si>
+  <si>
+    <t>cell_cycle_length</t>
+  </si>
+  <si>
+    <t>Cell Cycle Length</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>standard id</t>
+  </si>
+  <si>
+    <t>10.1000/xyz123</t>
+  </si>
+  <si>
+    <t>10.1093/nar/gks1195</t>
+  </si>
+  <si>
+    <t>ref_3</t>
+  </si>
+  <si>
+    <t>10.1234/abc234</t>
+  </si>
+  <si>
+    <t>Ploidy</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="#,##0"/>
-    <numFmt numFmtId="166" formatCode="0.00"/>
-    <numFmt numFmtId="167" formatCode="0.00E+00"/>
-  </numFmts>
-  <fonts count="15">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1522,22 +1508,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="arial"/>
@@ -1552,7 +1523,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="10"/>
       <name val="arial"/>
       <family val="2"/>
@@ -1572,7 +1543,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="10"/>
       <color rgb="FF212121"/>
       <name val="arial"/>
@@ -1593,7 +1564,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -1601,14 +1572,21 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -1643,7 +1621,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1651,234 +1629,135 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="47">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="20" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="4" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="7">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Normal 2" xfId="20" builtinId="53" customBuiltin="true"/>
+  <cellStyles count="2">
+    <cellStyle name="Explanatory Text" xfId="1" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -1937,74 +1816,328 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF212121"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
-</file>
-
-<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
-</file>
-
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
-</file>
-
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
-</file>
-
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
-</file>
-
-<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="21.5303643724696"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="43.3846153846154"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.46153846153846"/>
+    <col min="1" max="1" width="21.5703125" style="1"/>
+    <col min="2" max="2" width="43.42578125" style="2"/>
+    <col min="3" max="1025" width="8.42578125"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2012,7 +2145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -2020,15 +2153,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="5" t="n">
+      <c r="B3" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -2036,25 +2169,25 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="0"/>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="0"/>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="0"/>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -2062,48 +2195,39 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:B2"/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="7.39271255060729"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="19.8178137651822"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.57085020242915"/>
+    <col min="1" max="1" width="16.42578125"/>
+    <col min="2" max="2" width="11.7109375"/>
+    <col min="3" max="4" width="8.5703125"/>
+    <col min="5" max="5" width="7.42578125"/>
+    <col min="6" max="6" width="10.42578125"/>
+    <col min="7" max="7" width="10.7109375"/>
+    <col min="8" max="8" width="19.85546875"/>
+    <col min="9" max="1025" width="8.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" s="26" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:9" s="26" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
@@ -2130,633 +2254,611 @@
       </c>
       <c r="I1" s="8"/>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>291</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" t="s">
         <v>292</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" t="s">
         <v>285</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>294</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" t="s">
         <v>295</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" t="s">
         <v>285</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>297</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" t="s">
         <v>298</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" t="s">
         <v>285</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>300</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" t="s">
         <v>301</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" t="s">
         <v>285</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" t="s">
         <v>302</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AMG21"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.42578125"/>
+    <col min="2" max="2" width="12.7109375"/>
+    <col min="3" max="3" width="8.5703125"/>
+    <col min="4" max="4" width="10"/>
+    <col min="5" max="5" width="10.140625"/>
+    <col min="6" max="6" width="10.42578125"/>
+    <col min="7" max="7" width="10.7109375"/>
+    <col min="8" max="8" width="19.85546875"/>
+    <col min="9" max="1025" width="8.5703125"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1021" s="26" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" s="8"/>
+    </row>
+    <row r="2" spans="1:1021" s="30" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="29" t="s">
+        <v>303</v>
+      </c>
+      <c r="B2" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="31" t="s">
+        <v>304</v>
+      </c>
+      <c r="D2" s="32">
+        <v>10440868</v>
+      </c>
+      <c r="E2" s="32">
+        <v>10439968</v>
+      </c>
+      <c r="AMF2" s="33"/>
+      <c r="AMG2" s="33"/>
+    </row>
+    <row r="3" spans="1:1021" s="30" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="29" t="s">
+        <v>305</v>
+      </c>
+      <c r="B3" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" s="31" t="s">
+        <v>306</v>
+      </c>
+      <c r="D3" s="32">
+        <v>10441723</v>
+      </c>
+      <c r="E3" s="32">
+        <v>10441509</v>
+      </c>
+      <c r="AMF3" s="33"/>
+      <c r="AMG3" s="33"/>
+    </row>
+    <row r="4" spans="1:1021" s="30" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="29" t="s">
+        <v>307</v>
+      </c>
+      <c r="B4" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="31" t="s">
+        <v>308</v>
+      </c>
+      <c r="D4" s="32">
+        <v>10441929</v>
+      </c>
+      <c r="E4" s="32">
+        <v>10441817</v>
+      </c>
+      <c r="AMF4" s="33"/>
+      <c r="AMG4" s="33"/>
+    </row>
+    <row r="5" spans="1:1021" s="30" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="29" t="s">
+        <v>309</v>
+      </c>
+      <c r="B5" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" s="31" t="s">
+        <v>310</v>
+      </c>
+      <c r="D5" s="32">
+        <v>10442174</v>
+      </c>
+      <c r="E5" s="32">
+        <v>10442012</v>
+      </c>
+      <c r="AMF5" s="33"/>
+      <c r="AMG5" s="33"/>
+    </row>
+    <row r="6" spans="1:1021" s="30" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="29" t="s">
+        <v>311</v>
+      </c>
+      <c r="B6" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" s="31" t="s">
+        <v>312</v>
+      </c>
+      <c r="D6" s="32">
+        <v>10443313</v>
+      </c>
+      <c r="E6" s="32">
+        <v>10443230</v>
+      </c>
+      <c r="AMF6" s="33"/>
+      <c r="AMG6" s="33"/>
+    </row>
+    <row r="7" spans="1:1021" s="30" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="29" t="s">
+        <v>313</v>
+      </c>
+      <c r="B7" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="31" t="s">
+        <v>314</v>
+      </c>
+      <c r="D7" s="32">
+        <v>10443571</v>
+      </c>
+      <c r="E7" s="32">
+        <v>10443490</v>
+      </c>
+      <c r="AMF7" s="33"/>
+      <c r="AMG7" s="33"/>
+    </row>
+    <row r="8" spans="1:1021" s="30" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="29" t="s">
+        <v>315</v>
+      </c>
+      <c r="B8" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" s="31" t="s">
+        <v>316</v>
+      </c>
+      <c r="D8" s="32">
+        <v>10443836</v>
+      </c>
+      <c r="E8" s="32">
+        <v>10443702</v>
+      </c>
+      <c r="AMF8" s="33"/>
+      <c r="AMG8" s="33"/>
+    </row>
+    <row r="9" spans="1:1021" s="30" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="29" t="s">
+        <v>317</v>
+      </c>
+      <c r="B9" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" s="31" t="s">
+        <v>318</v>
+      </c>
+      <c r="D9" s="32">
+        <v>10444267</v>
+      </c>
+      <c r="E9" s="32">
+        <v>10444095</v>
+      </c>
+      <c r="AMF9" s="33"/>
+      <c r="AMG9" s="33"/>
+    </row>
+    <row r="10" spans="1:1021" s="30" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="29" t="s">
+        <v>319</v>
+      </c>
+      <c r="B10" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" s="31" t="s">
+        <v>320</v>
+      </c>
+      <c r="D10" s="32">
+        <v>10444647</v>
+      </c>
+      <c r="E10" s="32">
+        <v>10444474</v>
+      </c>
+      <c r="AMF10" s="33"/>
+      <c r="AMG10" s="33"/>
+    </row>
+    <row r="11" spans="1:1021" s="30" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="29" t="s">
+        <v>321</v>
+      </c>
+      <c r="B11" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" s="31" t="s">
+        <v>322</v>
+      </c>
+      <c r="D11" s="32">
+        <v>10445049</v>
+      </c>
+      <c r="E11" s="32">
+        <v>10444931</v>
+      </c>
+      <c r="AMF11" s="33"/>
+      <c r="AMG11" s="33"/>
+    </row>
+    <row r="12" spans="1:1021" s="30" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="29" t="s">
+        <v>323</v>
+      </c>
+      <c r="B12" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" s="31" t="s">
+        <v>324</v>
+      </c>
+      <c r="D12" s="32">
+        <v>10445264</v>
+      </c>
+      <c r="E12" s="32">
+        <v>10445155</v>
+      </c>
+      <c r="AMF12" s="33"/>
+      <c r="AMG12" s="33"/>
+    </row>
+    <row r="13" spans="1:1021" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>325</v>
+      </c>
+      <c r="B13" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" s="31" t="s">
+        <v>326</v>
+      </c>
+      <c r="D13" s="34">
+        <v>10448504</v>
+      </c>
+      <c r="E13" s="34">
+        <v>10448121</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1021" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>327</v>
+      </c>
+      <c r="B14" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" s="31" t="s">
+        <v>328</v>
+      </c>
+      <c r="D14" s="34">
+        <v>10440868</v>
+      </c>
+      <c r="E14" s="34">
+        <v>10440601</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1021" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>329</v>
+      </c>
+      <c r="B15" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" s="31" t="s">
+        <v>330</v>
+      </c>
+      <c r="D15" s="34">
+        <v>10447780</v>
+      </c>
+      <c r="E15" s="34">
+        <v>10447474</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1021" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>331</v>
+      </c>
+      <c r="B16" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" s="31" t="s">
+        <v>332</v>
+      </c>
+      <c r="D16" s="34">
+        <v>10444647</v>
+      </c>
+      <c r="E16" s="34">
+        <v>10444544</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>333</v>
+      </c>
+      <c r="B17" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" s="31" t="s">
+        <v>334</v>
+      </c>
+      <c r="D17" s="34">
+        <v>10447788</v>
+      </c>
+      <c r="E17" s="34">
+        <v>10447628</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>335</v>
+      </c>
+      <c r="B18" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" s="31" t="s">
+        <v>336</v>
+      </c>
+      <c r="D18" s="34">
+        <v>10444267</v>
+      </c>
+      <c r="E18" s="34">
+        <v>10444095</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>337</v>
+      </c>
+      <c r="B19" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19" s="31" t="s">
+        <v>338</v>
+      </c>
+      <c r="D19" s="34">
+        <v>10444547</v>
+      </c>
+      <c r="E19" s="34">
+        <v>10444474</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>339</v>
+      </c>
+      <c r="B20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20" s="31" t="s">
+        <v>340</v>
+      </c>
+      <c r="D20" s="34">
+        <v>10445049</v>
+      </c>
+      <c r="E20" s="34">
+        <v>10444931</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>341</v>
+      </c>
+      <c r="B21" t="s">
+        <v>57</v>
+      </c>
+      <c r="C21" s="31" t="s">
+        <v>342</v>
+      </c>
+      <c r="D21" s="34">
+        <v>10448309</v>
+      </c>
+      <c r="E21" s="34">
+        <v>10448121</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AMF4"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.28515625" style="13"/>
+    <col min="2" max="2" width="33.85546875" style="13"/>
+    <col min="3" max="3" width="16.42578125" style="14"/>
+    <col min="4" max="4" width="16.42578125" style="11"/>
+    <col min="5" max="5" width="10.42578125" style="2"/>
+    <col min="6" max="6" width="40.28515625" style="13"/>
+    <col min="7" max="7" width="9.140625" style="2"/>
+    <col min="8" max="8" width="19.85546875" style="2"/>
+    <col min="9" max="1020" width="9.140625" style="2"/>
+    <col min="1023" max="1025" width="8.7109375"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="8" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>343</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>344</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>345</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
+        <v>346</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>347</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>348</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>349</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>347</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>348</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
+        <v>350</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>347</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>351</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>297</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:F719"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:AMG21"/>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AMH5"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G27" activeCellId="0" sqref="G27"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.748987854251"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.96356275303644"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.1781376518219"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="19.8178137651822"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.57085020242915"/>
+    <col min="1" max="1" width="38.7109375" style="2"/>
+    <col min="2" max="2" width="46" style="35"/>
+    <col min="3" max="3" width="32.85546875" style="2"/>
+    <col min="4" max="4" width="45" style="36"/>
+    <col min="5" max="5" width="29.28515625" style="36"/>
+    <col min="6" max="6" width="16.42578125" style="11"/>
+    <col min="7" max="8" width="8.42578125" style="2"/>
+    <col min="9" max="9" width="13.42578125" style="2"/>
+    <col min="10" max="10" width="37.28515625" style="2"/>
+    <col min="11" max="11" width="13.42578125" style="2"/>
+    <col min="12" max="12" width="19.85546875" style="2"/>
+    <col min="13" max="1022" width="8.42578125" style="2"/>
+    <col min="1023" max="1025" width="8.42578125"/>
   </cols>
   <sheetData>
-    <row r="1" s="26" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="C1" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="I1" s="8"/>
-    </row>
-    <row r="2" s="30" customFormat="true" ht="14.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="29" t="s">
-        <v>303</v>
-      </c>
-      <c r="B2" s="30" t="s">
-        <v>57</v>
-      </c>
-      <c r="C2" s="31" t="s">
-        <v>304</v>
-      </c>
-      <c r="D2" s="32" t="n">
-        <v>10440868</v>
-      </c>
-      <c r="E2" s="32" t="n">
-        <v>10439968</v>
-      </c>
-      <c r="AMF2" s="33"/>
-      <c r="AMG2" s="33"/>
-    </row>
-    <row r="3" s="30" customFormat="true" ht="14.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="29" t="s">
-        <v>305</v>
-      </c>
-      <c r="B3" s="30" t="s">
-        <v>57</v>
-      </c>
-      <c r="C3" s="31" t="s">
-        <v>306</v>
-      </c>
-      <c r="D3" s="32" t="n">
-        <v>10441723</v>
-      </c>
-      <c r="E3" s="32" t="n">
-        <v>10441509</v>
-      </c>
-      <c r="AMF3" s="33"/>
-      <c r="AMG3" s="33"/>
-    </row>
-    <row r="4" s="30" customFormat="true" ht="14.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="29" t="s">
-        <v>307</v>
-      </c>
-      <c r="B4" s="30" t="s">
-        <v>57</v>
-      </c>
-      <c r="C4" s="31" t="s">
-        <v>308</v>
-      </c>
-      <c r="D4" s="32" t="n">
-        <v>10441929</v>
-      </c>
-      <c r="E4" s="32" t="n">
-        <v>10441817</v>
-      </c>
-      <c r="AMF4" s="33"/>
-      <c r="AMG4" s="33"/>
-    </row>
-    <row r="5" s="30" customFormat="true" ht="14.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="29" t="s">
-        <v>309</v>
-      </c>
-      <c r="B5" s="30" t="s">
-        <v>57</v>
-      </c>
-      <c r="C5" s="31" t="s">
-        <v>310</v>
-      </c>
-      <c r="D5" s="32" t="n">
-        <v>10442174</v>
-      </c>
-      <c r="E5" s="32" t="n">
-        <v>10442012</v>
-      </c>
-      <c r="AMF5" s="33"/>
-      <c r="AMG5" s="33"/>
-    </row>
-    <row r="6" s="30" customFormat="true" ht="14.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="29" t="s">
-        <v>311</v>
-      </c>
-      <c r="B6" s="30" t="s">
-        <v>57</v>
-      </c>
-      <c r="C6" s="31" t="s">
-        <v>312</v>
-      </c>
-      <c r="D6" s="32" t="n">
-        <v>10443313</v>
-      </c>
-      <c r="E6" s="32" t="n">
-        <v>10443230</v>
-      </c>
-      <c r="AMF6" s="33"/>
-      <c r="AMG6" s="33"/>
-    </row>
-    <row r="7" s="30" customFormat="true" ht="14.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="29" t="s">
-        <v>313</v>
-      </c>
-      <c r="B7" s="30" t="s">
-        <v>57</v>
-      </c>
-      <c r="C7" s="31" t="s">
-        <v>314</v>
-      </c>
-      <c r="D7" s="32" t="n">
-        <v>10443571</v>
-      </c>
-      <c r="E7" s="32" t="n">
-        <v>10443490</v>
-      </c>
-      <c r="AMF7" s="33"/>
-      <c r="AMG7" s="33"/>
-    </row>
-    <row r="8" s="30" customFormat="true" ht="14.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="29" t="s">
-        <v>315</v>
-      </c>
-      <c r="B8" s="30" t="s">
-        <v>57</v>
-      </c>
-      <c r="C8" s="31" t="s">
-        <v>316</v>
-      </c>
-      <c r="D8" s="32" t="n">
-        <v>10443836</v>
-      </c>
-      <c r="E8" s="32" t="n">
-        <v>10443702</v>
-      </c>
-      <c r="AMF8" s="33"/>
-      <c r="AMG8" s="33"/>
-    </row>
-    <row r="9" s="30" customFormat="true" ht="14.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="29" t="s">
-        <v>317</v>
-      </c>
-      <c r="B9" s="30" t="s">
-        <v>57</v>
-      </c>
-      <c r="C9" s="31" t="s">
-        <v>318</v>
-      </c>
-      <c r="D9" s="32" t="n">
-        <v>10444267</v>
-      </c>
-      <c r="E9" s="32" t="n">
-        <v>10444095</v>
-      </c>
-      <c r="AMF9" s="33"/>
-      <c r="AMG9" s="33"/>
-    </row>
-    <row r="10" s="30" customFormat="true" ht="14.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="29" t="s">
-        <v>319</v>
-      </c>
-      <c r="B10" s="30" t="s">
-        <v>57</v>
-      </c>
-      <c r="C10" s="31" t="s">
-        <v>320</v>
-      </c>
-      <c r="D10" s="32" t="n">
-        <v>10444647</v>
-      </c>
-      <c r="E10" s="32" t="n">
-        <v>10444474</v>
-      </c>
-      <c r="AMF10" s="33"/>
-      <c r="AMG10" s="33"/>
-    </row>
-    <row r="11" s="30" customFormat="true" ht="14.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="29" t="s">
-        <v>321</v>
-      </c>
-      <c r="B11" s="30" t="s">
-        <v>57</v>
-      </c>
-      <c r="C11" s="31" t="s">
-        <v>322</v>
-      </c>
-      <c r="D11" s="32" t="n">
-        <v>10445049</v>
-      </c>
-      <c r="E11" s="32" t="n">
-        <v>10444931</v>
-      </c>
-      <c r="AMF11" s="33"/>
-      <c r="AMG11" s="33"/>
-    </row>
-    <row r="12" s="30" customFormat="true" ht="14.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="29" t="s">
-        <v>323</v>
-      </c>
-      <c r="B12" s="30" t="s">
-        <v>57</v>
-      </c>
-      <c r="C12" s="31" t="s">
-        <v>324</v>
-      </c>
-      <c r="D12" s="32" t="n">
-        <v>10445264</v>
-      </c>
-      <c r="E12" s="32" t="n">
-        <v>10445155</v>
-      </c>
-      <c r="AMF12" s="33"/>
-      <c r="AMG12" s="33"/>
-    </row>
-    <row r="13" customFormat="false" ht="14.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
-        <v>325</v>
-      </c>
-      <c r="B13" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="C13" s="31" t="s">
-        <v>326</v>
-      </c>
-      <c r="D13" s="34" t="n">
-        <v>10448504</v>
-      </c>
-      <c r="E13" s="34" t="n">
-        <v>10448121</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
-        <v>327</v>
-      </c>
-      <c r="B14" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="C14" s="31" t="s">
-        <v>328</v>
-      </c>
-      <c r="D14" s="34" t="n">
-        <v>10440868</v>
-      </c>
-      <c r="E14" s="34" t="n">
-        <v>10440601</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
-        <v>329</v>
-      </c>
-      <c r="B15" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="C15" s="31" t="s">
-        <v>330</v>
-      </c>
-      <c r="D15" s="34" t="n">
-        <v>10447780</v>
-      </c>
-      <c r="E15" s="34" t="n">
-        <v>10447474</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
-        <v>331</v>
-      </c>
-      <c r="B16" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="C16" s="31" t="s">
-        <v>332</v>
-      </c>
-      <c r="D16" s="34" t="n">
-        <v>10444647</v>
-      </c>
-      <c r="E16" s="34" t="n">
-        <v>10444544</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
-        <v>333</v>
-      </c>
-      <c r="B17" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="C17" s="31" t="s">
-        <v>334</v>
-      </c>
-      <c r="D17" s="34" t="n">
-        <v>10447788</v>
-      </c>
-      <c r="E17" s="34" t="n">
-        <v>10447628</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
-        <v>335</v>
-      </c>
-      <c r="B18" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="C18" s="31" t="s">
-        <v>336</v>
-      </c>
-      <c r="D18" s="34" t="n">
-        <v>10444267</v>
-      </c>
-      <c r="E18" s="34" t="n">
-        <v>10444095</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
-        <v>337</v>
-      </c>
-      <c r="B19" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="C19" s="31" t="s">
-        <v>338</v>
-      </c>
-      <c r="D19" s="34" t="n">
-        <v>10444547</v>
-      </c>
-      <c r="E19" s="34" t="n">
-        <v>10444474</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
-        <v>339</v>
-      </c>
-      <c r="B20" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="C20" s="31" t="s">
-        <v>340</v>
-      </c>
-      <c r="D20" s="34" t="n">
-        <v>10445049</v>
-      </c>
-      <c r="E20" s="34" t="n">
-        <v>10444931</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
-        <v>341</v>
-      </c>
-      <c r="B21" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="C21" s="31" t="s">
-        <v>342</v>
-      </c>
-      <c r="D21" s="34" t="n">
-        <v>10448309</v>
-      </c>
-      <c r="E21" s="34" t="n">
-        <v>10448121</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:H4"/>
-  <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="13" width="20.246963562753"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="13" width="33.8502024291498"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="14" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="11" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="13" width="40.2753036437247"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="19.8178137651822"/>
-    <col collapsed="false" hidden="false" max="1020" min="9" style="2" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="1022" min="1021" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="1025" min="1023" style="0" width="8.67611336032389"/>
-  </cols>
-  <sheetData>
-    <row r="1" s="8" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>343</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>344</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>345</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="13" t="s">
-        <v>346</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>347</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>348</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="13" t="s">
-        <v>349</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>347</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>348</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="13" t="s">
-        <v>350</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>347</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>351</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>297</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:F719"/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:L5"/>
-  <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="2" width="38.668016194332"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="35" width="46.0607287449393"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="32.8866396761134"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="36" width="44.9919028340081"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="36" width="29.2429149797571"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="11" width="16.497975708502"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="2" width="8.46153846153846"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="37.2793522267206"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="2" width="19.8178137651822"/>
-    <col collapsed="false" hidden="false" max="1022" min="13" style="2" width="8.46153846153846"/>
-    <col collapsed="false" hidden="false" max="1025" min="1023" style="0" width="8.46153846153846"/>
-  </cols>
-  <sheetData>
-    <row r="1" s="37" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:12" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="37" t="s">
         <v>352</v>
       </c>
@@ -2794,7 +2896,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>359</v>
       </c>
@@ -2819,7 +2921,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>365</v>
       </c>
@@ -2841,7 +2943,7 @@
       <c r="J3" s="13"/>
       <c r="K3" s="13"/>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>367</v>
       </c>
@@ -2863,7 +2965,7 @@
       <c r="J4" s="13"/>
       <c r="K4" s="13"/>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>369</v>
       </c>
@@ -2887,44 +2989,34 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:J221"/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:F12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AMK12"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C5" activeCellId="0" sqref="C5"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.1"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="39" width="19.4939271255061"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="39" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="39" width="11.5708502024291"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="39" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="39" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="39" width="19.8178137651822"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="39" width="8.57085020242915"/>
+    <col min="1" max="1" width="19.42578125" style="39"/>
+    <col min="2" max="2" width="8.5703125" style="39"/>
+    <col min="3" max="3" width="11.5703125" style="39"/>
+    <col min="4" max="4" width="10.42578125" style="39"/>
+    <col min="5" max="5" width="10.7109375" style="39"/>
+    <col min="6" max="6" width="19.85546875" style="39"/>
+    <col min="7" max="1025" width="8.5703125" style="39"/>
   </cols>
   <sheetData>
-    <row r="1" s="40" customFormat="true" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:6" s="40" customFormat="1" ht="15.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="40" t="s">
         <v>372</v>
       </c>
@@ -2944,11 +3036,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:6" ht="15.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="39" t="s">
         <v>375</v>
       </c>
-      <c r="B2" s="39" t="n">
+      <c r="B2" s="39">
         <v>1</v>
       </c>
       <c r="C2" s="39" t="s">
@@ -2958,11 +3050,11 @@
         <v>377</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:6" ht="15.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="39" t="s">
         <v>378</v>
       </c>
-      <c r="B3" s="39" t="n">
+      <c r="B3" s="39">
         <v>1</v>
       </c>
       <c r="C3" s="39" t="s">
@@ -2972,99 +3064,99 @@
         <v>380</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:6" ht="15.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="39" t="s">
         <v>381</v>
       </c>
-      <c r="B4" s="39" t="n">
+      <c r="B4" s="39">
         <v>1</v>
       </c>
       <c r="C4" s="39" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:6" ht="15.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="39" t="s">
         <v>383</v>
       </c>
-      <c r="B5" s="39" t="n">
+      <c r="B5" s="39">
         <v>1</v>
       </c>
       <c r="C5" s="39" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:6" ht="15.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="39" t="s">
         <v>384</v>
       </c>
-      <c r="B6" s="39" t="n">
+      <c r="B6" s="39">
         <v>0.25</v>
       </c>
       <c r="C6" s="39" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:6" ht="15.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="39" t="s">
         <v>385</v>
       </c>
-      <c r="B7" s="39" t="n">
+      <c r="B7" s="39">
         <v>0.25</v>
       </c>
       <c r="C7" s="39" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:6" ht="15.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="39" t="s">
         <v>386</v>
       </c>
-      <c r="B8" s="39" t="n">
+      <c r="B8" s="39">
         <v>0.25</v>
       </c>
       <c r="C8" s="39" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:6" ht="15.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="39" t="s">
         <v>387</v>
       </c>
-      <c r="B9" s="39" t="n">
+      <c r="B9" s="39">
         <v>0.25</v>
       </c>
       <c r="C9" s="39" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:6" ht="15.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="41" t="s">
         <v>388</v>
       </c>
-      <c r="B10" s="39" t="n">
+      <c r="B10" s="39">
         <v>0.5</v>
       </c>
       <c r="C10" s="39" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:6" ht="15.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="41" t="s">
         <v>389</v>
       </c>
-      <c r="B11" s="39" t="n">
+      <c r="B11" s="39">
         <v>0.5</v>
       </c>
       <c r="C11" s="39" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:6" ht="15.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="41" t="s">
         <v>390</v>
       </c>
-      <c r="B12" s="39" t="n">
+      <c r="B12" s="39">
         <v>0.5</v>
       </c>
       <c r="C12" s="39" t="s">
@@ -3072,40 +3164,30 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.9595141700405"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.4251012145749"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.6032388663968"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.1417004048583"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="20.5668016194332"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="9.10526315789474"/>
+    <col min="1" max="1" width="16"/>
+    <col min="4" max="4" width="15.42578125"/>
+    <col min="5" max="5" width="14"/>
+    <col min="6" max="6" width="10.5703125"/>
+    <col min="7" max="7" width="11.140625"/>
+    <col min="8" max="8" width="20.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" s="8" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:8" s="8" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -3131,8 +3213,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>393</v>
       </c>
       <c r="D2" s="13" t="s">
@@ -3140,10 +3222,9 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -3151,29 +3232,26 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:H8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AMH8"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="2" width="18.7449392712551"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="23.4574898785425"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="17.7813765182186"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="18.7449392712551"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="12.748987854251"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="14.7813765182186"/>
-    <col collapsed="false" hidden="false" max="1022" min="7" style="2" width="37.2793522267206"/>
-    <col collapsed="false" hidden="false" max="1025" min="1023" style="0" width="8.46153846153846"/>
+    <col min="1" max="1" width="18.7109375" style="2"/>
+    <col min="2" max="2" width="23.42578125" style="2"/>
+    <col min="3" max="3" width="17.7109375" style="2"/>
+    <col min="4" max="4" width="18.7109375" style="2"/>
+    <col min="5" max="5" width="12.7109375" style="2"/>
+    <col min="6" max="6" width="14.7109375" style="2"/>
+    <col min="7" max="1022" width="37.28515625" style="2"/>
+    <col min="1023" max="1025" width="8.42578125"/>
   </cols>
   <sheetData>
-    <row r="1" s="8" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:8" s="8" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -3199,7 +3277,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>398</v>
       </c>
@@ -3212,11 +3290,11 @@
       <c r="D2" s="2" t="s">
         <v>401</v>
       </c>
-      <c r="E2" s="2" t="n">
+      <c r="E2" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>402</v>
       </c>
@@ -3229,11 +3307,11 @@
       <c r="D3" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="E3" s="2" t="n">
+      <c r="E3" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>405</v>
       </c>
@@ -3246,11 +3324,11 @@
       <c r="D4" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="E4" s="2" t="n">
+      <c r="E4" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>408</v>
       </c>
@@ -3263,11 +3341,11 @@
       <c r="D5" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="E5" s="2" t="n">
+      <c r="E5" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>37</v>
       </c>
@@ -3280,11 +3358,11 @@
       <c r="D6" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="E6" s="2" t="n">
+      <c r="E6" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>412</v>
       </c>
@@ -3297,11 +3375,11 @@
       <c r="D7" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="E7" s="2" t="n">
+      <c r="E7" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>415</v>
       </c>
@@ -3314,52 +3392,46 @@
       <c r="D8" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="E8" s="2" t="n">
+      <c r="E8" s="2">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:F220"/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:H9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AMK9"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F12" activeCellId="0" sqref="F12"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="42" width="20.246963562753"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="42" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="42" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="42" width="11.0323886639676"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="42" width="6.63967611336032"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="42" width="28.7085020242915"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="42" width="11.0323886639676"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="42" width="20.0323886639676"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="42" width="8.67611336032389"/>
+    <col min="1" max="1" width="20.28515625" style="42"/>
+    <col min="2" max="2" width="10.7109375" style="42"/>
+    <col min="3" max="3" width="10.42578125" style="42"/>
+    <col min="4" max="4" width="11" style="42"/>
+    <col min="5" max="5" width="6.5703125" style="42"/>
+    <col min="6" max="6" width="28.7109375" style="42"/>
+    <col min="7" max="7" width="11" style="42"/>
+    <col min="8" max="8" width="20" style="42"/>
+    <col min="9" max="1025" width="8.7109375" style="42"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="43" t="s">
         <v>416</v>
       </c>
@@ -3385,7 +3457,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="42" t="s">
         <v>398</v>
       </c>
@@ -3395,12 +3467,12 @@
       <c r="C2" s="42" t="s">
         <v>422</v>
       </c>
-      <c r="D2" s="0"/>
-      <c r="E2" s="0"/>
-      <c r="F2" s="0"/>
-      <c r="H2" s="0"/>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D2"/>
+      <c r="E2"/>
+      <c r="F2"/>
+      <c r="H2"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="42" t="s">
         <v>402</v>
       </c>
@@ -3410,14 +3482,14 @@
       <c r="C3" s="42" t="s">
         <v>423</v>
       </c>
-      <c r="D3" s="0"/>
-      <c r="E3" s="0"/>
+      <c r="D3"/>
+      <c r="E3"/>
       <c r="F3" s="42" t="s">
         <v>424</v>
       </c>
-      <c r="H3" s="0"/>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H3"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="42" t="s">
         <v>405</v>
       </c>
@@ -3427,18 +3499,18 @@
       <c r="C4" s="42" t="s">
         <v>425</v>
       </c>
-      <c r="D4" s="42" t="n">
+      <c r="D4" s="42">
         <v>1</v>
       </c>
-      <c r="E4" s="42" t="n">
+      <c r="E4" s="42">
         <v>2</v>
       </c>
       <c r="F4" s="42" t="s">
         <v>426</v>
       </c>
-      <c r="H4" s="0"/>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H4"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="42" t="s">
         <v>408</v>
       </c>
@@ -3451,9 +3523,9 @@
       <c r="F5" s="42" t="s">
         <v>427</v>
       </c>
-      <c r="H5" s="0"/>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H5"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="42" t="s">
         <v>37</v>
       </c>
@@ -3466,9 +3538,9 @@
       <c r="F6" s="42" t="s">
         <v>429</v>
       </c>
-      <c r="H6" s="0"/>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H6"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="42" t="s">
         <v>37</v>
       </c>
@@ -3478,9 +3550,9 @@
       <c r="C7" s="42" t="s">
         <v>431</v>
       </c>
-      <c r="H7" s="0"/>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H7"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="42" t="s">
         <v>412</v>
       </c>
@@ -3494,7 +3566,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="42" t="s">
         <v>415</v>
       </c>
@@ -3510,38 +3582,27 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:F1"/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="5" min="1" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.6032388663968"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.1417004048583"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="20.5668016194332"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.57085020242915"/>
+    <col min="1" max="5" width="8.5703125"/>
+    <col min="6" max="6" width="10.5703125"/>
+    <col min="7" max="7" width="11.140625"/>
+    <col min="8" max="8" width="20.5703125"/>
+    <col min="9" max="1025" width="8.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -3567,122 +3628,112 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>437</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" t="s">
         <v>438</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="C2">
         <v>20.5</v>
       </c>
-      <c r="D2" s="0" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="E2" s="0" t="s">
+      <c r="D2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E2" t="s">
         <v>439</v>
       </c>
-      <c r="H2" s="0" t="s">
+      <c r="H2" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>441</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" t="s">
         <v>442</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C3">
         <v>1.35</v>
       </c>
-      <c r="D3" s="0" t="n">
-        <v>0.006</v>
-      </c>
-      <c r="E3" s="0" t="s">
+      <c r="D3">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="E3" t="s">
         <v>439</v>
       </c>
-      <c r="H3" s="0" t="s">
+      <c r="H3" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>444</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" t="s">
         <v>445</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="C4">
         <v>0.46</v>
       </c>
-      <c r="D4" s="0" t="n">
-        <v>0.006</v>
-      </c>
-      <c r="E4" s="0" t="s">
+      <c r="D4">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="E4" t="s">
         <v>376</v>
       </c>
-      <c r="H4" s="0" t="s">
+      <c r="H4" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>446</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" t="s">
         <v>447</v>
       </c>
-      <c r="C5" s="0" t="n">
+      <c r="C5">
         <v>1.2</v>
       </c>
-      <c r="D5" s="0" t="n">
-        <v>0.006</v>
-      </c>
-      <c r="E5" s="0" t="s">
+      <c r="D5">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="E5" t="s">
         <v>376</v>
       </c>
-      <c r="H5" s="0" t="s">
+      <c r="H5" t="s">
         <v>443</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.7813765182186"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.5303643724696"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.1740890688259"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.6032388663968"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="11.1417004048583"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="19.8178137651822"/>
-    <col collapsed="false" hidden="false" max="1020" min="8" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="1025" min="1021" style="0" width="8.67611336032389"/>
+    <col min="1" max="1" width="17.7109375"/>
+    <col min="2" max="2" width="15.5703125"/>
+    <col min="4" max="4" width="13.140625"/>
+    <col min="5" max="5" width="10.5703125"/>
+    <col min="6" max="6" width="11.140625"/>
+    <col min="7" max="7" width="19.85546875"/>
+    <col min="1021" max="1025" width="8.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>352</v>
       </c>
@@ -3705,67 +3756,66 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>448</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" t="s">
         <v>449</v>
       </c>
-      <c r="C2" s="46" t="n">
-        <v>3E-012</v>
-      </c>
-      <c r="D2" s="0" t="s">
+      <c r="C2" s="46">
+        <v>3.0000000000000001E-12</v>
+      </c>
+      <c r="D2" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>451</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" t="s">
         <v>452</v>
       </c>
-      <c r="C3" s="46" t="n">
+      <c r="C3" s="46">
         <v>10000000</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>454</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" t="s">
         <v>455</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="C4">
         <v>0.7</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>457</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" t="s">
         <v>458</v>
       </c>
-      <c r="C5" s="0" t="n">
+      <c r="C5">
         <v>71280</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" t="s">
         <v>459</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -3773,28 +3823,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B4" activeCellId="0" sqref="B4"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="6" width="16.497975708502"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="51.0971659919028"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.46153846153846"/>
+    <col min="1" max="1" width="16.42578125" style="6"/>
+    <col min="2" max="2" width="51.140625" style="2"/>
+    <col min="3" max="1025" width="8.42578125"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3802,7 +3848,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>2</v>
       </c>
@@ -3810,51 +3856,42 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="2" t="n">
+      <c r="B3" s="2">
         <v>9606</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>11</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:B1"/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H8" activeCellId="0" sqref="H8"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.6396761133603"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.57085020242915"/>
+    <col min="1" max="1" width="8.5703125"/>
+    <col min="2" max="2" width="18.5703125"/>
+    <col min="3" max="1025" width="8.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>460</v>
       </c>
@@ -3862,66 +3899,57 @@
         <v>461</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>364</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>380</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>464</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" t="s">
         <v>465</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:F5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AMF5"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="7" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="16.1740890688259"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="17.7813765182186"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="11.3562753036437"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="11.1417004048583"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="20.5668016194332"/>
-    <col collapsed="false" hidden="false" max="1020" min="7" style="2" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="1023" min="1021" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="8.67611336032389"/>
+    <col min="1" max="1" width="9.140625" style="7"/>
+    <col min="2" max="2" width="16.140625" style="2"/>
+    <col min="3" max="3" width="17.7109375" style="2"/>
+    <col min="4" max="4" width="11.28515625" style="2"/>
+    <col min="5" max="5" width="11.140625" style="2"/>
+    <col min="6" max="6" width="20.5703125" style="2"/>
+    <col min="7" max="1020" width="9.140625" style="2"/>
+    <col min="1024" max="1025" width="8.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" s="8" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:6" s="8" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -3941,14 +3969,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>18</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="2" t="n">
+      <c r="C2" s="2">
         <v>0.7</v>
       </c>
       <c r="E2" s="2" t="s">
@@ -3958,33 +3986,33 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>22</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="2" t="n">
+      <c r="C3" s="2">
         <v>0.2</v>
       </c>
-      <c r="F3" s="0"/>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F3"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>24</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="2" t="n">
+      <c r="C4" s="2">
         <v>0.1</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>27</v>
       </c>
@@ -3993,10 +4021,9 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -4004,30 +4031,26 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:G9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AMH9"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="9" width="23.8866396761134"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="9" width="39.4210526315789"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="13.7125506072874"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="9" width="54.9514170040486"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="19.8178137651822"/>
-    <col collapsed="false" hidden="false" max="1022" min="8" style="2" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="1025" min="1023" style="0" width="9.10526315789474"/>
+    <col min="1" max="1" width="23.85546875" style="9"/>
+    <col min="2" max="2" width="39.42578125" style="9"/>
+    <col min="3" max="3" width="13.7109375" style="2"/>
+    <col min="4" max="4" width="10.7109375" style="2"/>
+    <col min="5" max="5" width="55" style="9"/>
+    <col min="6" max="6" width="9.140625" style="2"/>
+    <col min="7" max="7" width="19.85546875" style="2"/>
+    <col min="8" max="1022" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="8" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:7" s="8" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -4050,16 +4073,16 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>31</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>33</v>
       </c>
       <c r="B3" s="9" t="s">
@@ -4069,23 +4092,23 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>36</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>38</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>40</v>
       </c>
@@ -4096,7 +4119,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>43</v>
       </c>
@@ -4107,7 +4130,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>46</v>
       </c>
@@ -4118,7 +4141,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>49</v>
       </c>
@@ -4130,10 +4153,9 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -4141,30 +4163,27 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:I26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B27" activeCellId="0" sqref="B27"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="7" width="14.1417004048583"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="11" width="13.0688259109312"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="2" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="22.1740890688259"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="2" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="19.8178137651822"/>
-    <col collapsed="false" hidden="false" max="11" min="10" style="0" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="9.10526315789474"/>
+    <col min="1" max="1" width="14.140625" style="7"/>
+    <col min="2" max="2" width="13" style="11"/>
+    <col min="3" max="4" width="11.7109375" style="2"/>
+    <col min="5" max="5" width="22.140625" style="2"/>
+    <col min="6" max="6" width="9.140625" style="2"/>
+    <col min="7" max="8" width="13.42578125" style="2"/>
+    <col min="9" max="9" width="13.42578125"/>
+    <col min="10" max="10" width="19.85546875"/>
+    <col min="11" max="12" width="13.42578125"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -4181,19 +4200,22 @@
         <v>54</v>
       </c>
       <c r="F1" s="8" t="s">
+        <v>466</v>
+      </c>
+      <c r="G1" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="H1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="I1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="J1" s="8" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>56</v>
       </c>
@@ -4201,355 +4223,429 @@
         <v>56</v>
       </c>
       <c r="C2" s="12"/>
-      <c r="D2" s="11" t="n">
+      <c r="D2" s="11">
         <v>0</v>
       </c>
-      <c r="E2" s="11" t="n">
+      <c r="E2" s="11">
         <v>1</v>
       </c>
-      <c r="F2" s="11"/>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F2" s="30">
+        <v>2</v>
+      </c>
+      <c r="G2" s="11"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>57</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="D3" s="11" t="n">
+      <c r="D3" s="11">
         <v>0</v>
       </c>
-      <c r="E3" s="11" t="n">
+      <c r="E3" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F3" s="30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>58</v>
       </c>
       <c r="B4" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="D4" s="11" t="n">
+      <c r="D4" s="11">
         <v>0</v>
       </c>
-      <c r="E4" s="11" t="n">
+      <c r="E4" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F4" s="30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>59</v>
       </c>
       <c r="B5" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="D5" s="11" t="n">
+      <c r="D5" s="11">
         <v>0</v>
       </c>
-      <c r="E5" s="11" t="n">
+      <c r="E5" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F5" s="30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>60</v>
       </c>
       <c r="B6" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="D6" s="11" t="n">
+      <c r="D6" s="11">
         <v>0</v>
       </c>
-      <c r="E6" s="11" t="n">
+      <c r="E6" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F6" s="30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>61</v>
       </c>
       <c r="B7" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="D7" s="11" t="n">
+      <c r="D7" s="11">
         <v>0</v>
       </c>
-      <c r="E7" s="11" t="n">
+      <c r="E7" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F7" s="30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>62</v>
       </c>
       <c r="B8" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="D8" s="11" t="n">
+      <c r="D8" s="11">
         <v>0</v>
       </c>
-      <c r="E8" s="11" t="n">
+      <c r="E8" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F8" s="30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>63</v>
       </c>
       <c r="B9" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="D9" s="11" t="n">
+      <c r="D9" s="11">
         <v>0</v>
       </c>
-      <c r="E9" s="11" t="n">
+      <c r="E9" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F9" s="30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>64</v>
       </c>
       <c r="B10" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="D10" s="11" t="n">
+      <c r="D10" s="11">
         <v>0</v>
       </c>
-      <c r="E10" s="11" t="n">
+      <c r="E10" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F10" s="30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>65</v>
       </c>
       <c r="B11" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="D11" s="11" t="n">
+      <c r="D11" s="11">
         <v>0</v>
       </c>
-      <c r="E11" s="11" t="n">
+      <c r="E11" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F11" s="30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>66</v>
       </c>
       <c r="B12" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="D12" s="11" t="n">
+      <c r="D12" s="11">
         <v>0</v>
       </c>
-      <c r="E12" s="11" t="n">
+      <c r="E12" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F12" s="30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>67</v>
       </c>
       <c r="B13" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="D13" s="11" t="n">
+      <c r="D13" s="11">
         <v>0</v>
       </c>
-      <c r="E13" s="11" t="n">
+      <c r="E13" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F13" s="30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>68</v>
       </c>
       <c r="B14" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="D14" s="11" t="n">
+      <c r="D14" s="11">
         <v>0</v>
       </c>
-      <c r="E14" s="11" t="n">
+      <c r="E14" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F14" s="30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>69</v>
       </c>
       <c r="B15" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="D15" s="11" t="n">
+      <c r="D15" s="11">
         <v>0</v>
       </c>
-      <c r="E15" s="11" t="n">
+      <c r="E15" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F15" s="30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>70</v>
       </c>
       <c r="B16" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="D16" s="11" t="n">
+      <c r="D16" s="11">
         <v>0</v>
       </c>
-      <c r="E16" s="11" t="n">
+      <c r="E16" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F16" s="30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>71</v>
       </c>
       <c r="B17" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="D17" s="11" t="n">
+      <c r="D17" s="11">
         <v>0</v>
       </c>
-      <c r="E17" s="11" t="n">
+      <c r="E17" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F17" s="30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>72</v>
       </c>
       <c r="B18" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="D18" s="11" t="n">
+      <c r="D18" s="11">
         <v>0</v>
       </c>
-      <c r="E18" s="11" t="n">
+      <c r="E18" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F18" s="30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>73</v>
       </c>
       <c r="B19" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="D19" s="11" t="n">
+      <c r="D19" s="11">
         <v>0</v>
       </c>
-      <c r="E19" s="11" t="n">
+      <c r="E19" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F19" s="30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>74</v>
       </c>
       <c r="B20" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="D20" s="11" t="n">
+      <c r="D20" s="11">
         <v>0</v>
       </c>
-      <c r="E20" s="11" t="n">
+      <c r="E20" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F20" s="30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>75</v>
       </c>
       <c r="B21" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="D21" s="11" t="n">
+      <c r="D21" s="11">
         <v>0</v>
       </c>
-      <c r="E21" s="11" t="n">
+      <c r="E21" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F21" s="30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>76</v>
       </c>
       <c r="B22" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="D22" s="11" t="n">
+      <c r="D22" s="11">
         <v>0</v>
       </c>
-      <c r="E22" s="11" t="n">
+      <c r="E22" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F22" s="30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>77</v>
       </c>
       <c r="B23" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="D23" s="11" t="n">
+      <c r="D23" s="11">
         <v>0</v>
       </c>
-      <c r="E23" s="11" t="n">
+      <c r="E23" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F23" s="30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>78</v>
       </c>
       <c r="B24" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="D24" s="11" t="n">
+      <c r="D24" s="11">
         <v>0</v>
       </c>
-      <c r="E24" s="11" t="n">
+      <c r="E24" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F24" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>79</v>
       </c>
       <c r="B25" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="D25" s="11" t="n">
+      <c r="D25" s="11">
         <v>0</v>
       </c>
-      <c r="E25" s="11" t="n">
+      <c r="E25" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F25" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>80</v>
       </c>
       <c r="B26" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="D26" s="11" t="n">
+      <c r="D26" s="11">
         <v>0</v>
       </c>
-      <c r="E26" s="11" t="n">
+      <c r="E26" s="11">
         <v>1</v>
       </c>
+      <c r="F26" s="30">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -4557,29 +4653,26 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMI37"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H17" activeCellId="0" sqref="H17"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="11" width="17.4615384615385"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="11" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="13" width="42.4210526315789"/>
-    <col collapsed="false" hidden="false" max="6" min="4" style="14" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="11" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="15" width="16.497975708502"/>
-    <col collapsed="false" hidden="false" max="1023" min="10" style="2" width="32.5627530364372"/>
-    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="8.46153846153846"/>
+    <col min="1" max="1" width="17.42578125" style="11"/>
+    <col min="2" max="2" width="16.42578125" style="11"/>
+    <col min="3" max="3" width="42.42578125" style="13"/>
+    <col min="4" max="6" width="13.42578125" style="14"/>
+    <col min="7" max="8" width="13.42578125" style="11"/>
+    <col min="9" max="9" width="16.42578125" style="15"/>
+    <col min="10" max="1023" width="32.5703125" style="2"/>
+    <col min="1024" max="1025" width="8.42578125"/>
   </cols>
   <sheetData>
-    <row r="1" s="8" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:1023" s="8" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -4620,7 +4713,7 @@
       <c r="AMH1" s="2"/>
       <c r="AMI1" s="2"/>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:1023" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>87</v>
       </c>
@@ -4639,14 +4732,14 @@
       <c r="F2" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="G2" s="17" t="n">
+      <c r="G2" s="17">
         <v>20633455</v>
       </c>
-      <c r="H2" s="17" t="n">
+      <c r="H2" s="17">
         <v>20651511</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:1023" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>92</v>
       </c>
@@ -4665,14 +4758,14 @@
       <c r="F3" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="G3" s="17" t="n">
+      <c r="G3" s="17">
         <v>10439968</v>
       </c>
-      <c r="H3" s="17" t="n">
+      <c r="H3" s="17">
         <v>10448504</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:1023" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>96</v>
       </c>
@@ -4691,14 +4784,14 @@
       <c r="F4" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="G4" s="17" t="n">
+      <c r="G4" s="17">
         <v>69319769</v>
       </c>
-      <c r="H4" s="17" t="n">
+      <c r="H4" s="17">
         <v>69387254</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:1023" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>99</v>
       </c>
@@ -4717,14 +4810,14 @@
       <c r="F5" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="G5" s="17" t="n">
+      <c r="G5" s="17">
         <v>40524878</v>
       </c>
-      <c r="H5" s="17" t="n">
+      <c r="H5" s="17">
         <v>40574685</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:1023" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>102</v>
       </c>
@@ -4743,14 +4836,14 @@
       <c r="F6" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="G6" s="17" t="n">
+      <c r="G6" s="17">
         <v>112596794</v>
       </c>
-      <c r="H6" s="17" t="n">
+      <c r="H6" s="17">
         <v>112649530</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:1023" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>105</v>
       </c>
@@ -4769,14 +4862,14 @@
       <c r="F7" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="G7" s="17" t="n">
+      <c r="G7" s="17">
         <v>83535914</v>
       </c>
-      <c r="H7" s="17" t="n">
+      <c r="H7" s="17">
         <v>83605875</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:1023" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>108</v>
       </c>
@@ -4795,14 +4888,14 @@
       <c r="F8" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="G8" s="17" t="n">
+      <c r="G8" s="17">
         <v>127880861</v>
       </c>
-      <c r="H8" s="17" t="n">
+      <c r="H8" s="17">
         <v>127899195</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:1023" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>111</v>
       </c>
@@ -4821,14 +4914,14 @@
       <c r="F9" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="G9" s="17" t="n">
+      <c r="G9" s="17">
         <v>160401641</v>
       </c>
-      <c r="H9" s="17" t="n">
+      <c r="H9" s="17">
         <v>160421711</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:1023" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>114</v>
       </c>
@@ -4847,14 +4940,14 @@
       <c r="F10" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="G10" s="17" t="n">
+      <c r="G10" s="17">
         <v>151656691</v>
       </c>
-      <c r="H10" s="17" t="n">
+      <c r="H10" s="17">
         <v>152129619</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:1023" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>117</v>
       </c>
@@ -4873,14 +4966,14 @@
       <c r="F11" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="G11" s="17" t="n">
+      <c r="G11" s="17">
         <v>56011051</v>
       </c>
-      <c r="H11" s="17" t="n">
+      <c r="H11" s="17">
         <v>56051604</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:1023" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
         <v>120</v>
       </c>
@@ -4899,14 +4992,14 @@
       <c r="F12" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="G12" s="17" t="n">
+      <c r="G12" s="17">
         <v>18055992</v>
       </c>
-      <c r="H12" s="17" t="n">
+      <c r="H12" s="17">
         <v>18084998</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:1023" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>123</v>
       </c>
@@ -4925,14 +5018,14 @@
       <c r="F13" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="G13" s="17" t="n">
+      <c r="G13" s="17">
         <v>19901717</v>
       </c>
-      <c r="H13" s="17" t="n">
+      <c r="H13" s="17">
         <v>19967258</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="26.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:1023" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>126</v>
       </c>
@@ -4951,14 +5044,14 @@
       <c r="F14" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="G14" s="17" t="n">
+      <c r="G14" s="17">
         <v>136410570</v>
       </c>
-      <c r="H14" s="17" t="n">
+      <c r="H14" s="17">
         <v>136423761</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:1023" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>129</v>
       </c>
@@ -4977,14 +5070,14 @@
       <c r="F15" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="G15" s="17" t="n">
+      <c r="G15" s="17">
         <v>7750962</v>
       </c>
-      <c r="H15" s="17" t="n">
+      <c r="H15" s="17">
         <v>7787981</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:1023" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>132</v>
       </c>
@@ -5003,14 +5096,14 @@
       <c r="F16" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="G16" s="17" t="n">
+      <c r="G16" s="17">
         <v>133394094</v>
       </c>
-      <c r="H16" s="17" t="n">
+      <c r="H16" s="17">
         <v>133421307</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
         <v>135</v>
       </c>
@@ -5029,14 +5122,14 @@
       <c r="F17" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="G17" s="17" t="n">
+      <c r="G17" s="17">
         <v>13668670</v>
       </c>
-      <c r="H17" s="17" t="n">
+      <c r="H17" s="17">
         <v>13732346</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
         <v>138</v>
       </c>
@@ -5055,14 +5148,14 @@
       <c r="F18" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="G18" s="17" t="n">
+      <c r="G18" s="17">
         <v>114439386</v>
       </c>
-      <c r="H18" s="17" t="n">
+      <c r="H18" s="17">
         <v>114450279</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
         <v>141</v>
       </c>
@@ -5081,14 +5174,14 @@
       <c r="F19" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="G19" s="17" t="n">
+      <c r="G19" s="17">
         <v>77021247</v>
       </c>
-      <c r="H19" s="17" t="n">
+      <c r="H19" s="17">
         <v>77065580</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
         <v>144</v>
       </c>
@@ -5107,14 +5200,14 @@
       <c r="F20" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="G20" s="17" t="n">
+      <c r="G20" s="17">
         <v>113298759</v>
       </c>
-      <c r="H20" s="17" t="n">
+      <c r="H20" s="17">
         <v>113359493</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
         <v>147</v>
       </c>
@@ -5133,14 +5226,14 @@
       <c r="F21" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="G21" s="17" t="n">
+      <c r="G21" s="17">
         <v>52455429</v>
       </c>
-      <c r="H21" s="17" t="n">
+      <c r="H21" s="17">
         <v>52476628</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
         <v>150</v>
       </c>
@@ -5159,14 +5252,14 @@
       <c r="F22" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="G22" s="17" t="n">
+      <c r="G22" s="17">
         <v>102932379</v>
       </c>
-      <c r="H22" s="17" t="n">
+      <c r="H22" s="17">
         <v>103057462</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
         <v>153</v>
       </c>
@@ -5185,14 +5278,14 @@
       <c r="F23" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="G23" s="17" t="n">
+      <c r="G23" s="17">
         <v>65530418</v>
       </c>
-      <c r="H23" s="17" t="n">
+      <c r="H23" s="17">
         <v>65578352</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
         <v>156</v>
       </c>
@@ -5211,14 +5304,14 @@
       <c r="F24" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="G24" s="17" t="n">
+      <c r="G24" s="17">
         <v>101175723</v>
       </c>
-      <c r="H24" s="17" t="n">
+      <c r="H24" s="17">
         <v>101251932</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
         <v>159</v>
       </c>
@@ -5237,14 +5330,14 @@
       <c r="F25" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="G25" s="17" t="n">
+      <c r="G25" s="17">
         <v>89088375</v>
       </c>
-      <c r="H25" s="17" t="n">
+      <c r="H25" s="17">
         <v>89155846</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
         <v>162</v>
       </c>
@@ -5263,14 +5356,14 @@
       <c r="F26" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="G26" s="17" t="n">
+      <c r="G26" s="17">
         <v>49210227</v>
       </c>
-      <c r="H26" s="17" t="n">
+      <c r="H26" s="17">
         <v>49223225</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
         <v>165</v>
       </c>
@@ -5289,14 +5382,14 @@
       <c r="F27" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="G27" s="17" t="n">
+      <c r="G27" s="17">
         <v>50967991</v>
       </c>
-      <c r="H27" s="17" t="n">
+      <c r="H27" s="17">
         <v>50988121</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
         <v>168</v>
       </c>
@@ -5315,14 +5408,14 @@
       <c r="F28" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="G28" s="17" t="n">
+      <c r="G28" s="17">
         <v>41431318</v>
       </c>
-      <c r="H28" s="17" t="n">
+      <c r="H28" s="17">
         <v>41440717</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
         <v>171</v>
       </c>
@@ -5341,14 +5434,14 @@
       <c r="F29" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="G29" s="17" t="n">
+      <c r="G29" s="17">
         <v>47778572</v>
       </c>
-      <c r="H29" s="17" t="n">
+      <c r="H29" s="17">
         <v>47784686</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
         <v>174</v>
       </c>
@@ -5367,14 +5460,14 @@
       <c r="F30" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="G30" s="17" t="n">
+      <c r="G30" s="17">
         <v>13389392</v>
       </c>
-      <c r="H30" s="17" t="n">
+      <c r="H30" s="17">
         <v>13638940</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
         <v>177</v>
       </c>
@@ -5393,14 +5486,14 @@
       <c r="F31" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="G31" s="17" t="n">
+      <c r="G31" s="17">
         <v>44619522</v>
       </c>
-      <c r="H31" s="17" t="n">
+      <c r="H31" s="17">
         <v>44652233</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
         <v>180</v>
       </c>
@@ -5419,14 +5512,14 @@
       <c r="F32" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="G32" s="17" t="n">
+      <c r="G32" s="17">
         <v>31659622</v>
       </c>
-      <c r="H32" s="17" t="n">
+      <c r="H32" s="17">
         <v>31668931</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
         <v>183</v>
       </c>
@@ -5445,14 +5538,14 @@
       <c r="F33" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="G33" s="17" t="n">
+      <c r="G33" s="17">
         <v>20707691</v>
       </c>
-      <c r="H33" s="17" t="n">
+      <c r="H33" s="17">
         <v>20859417</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="11" t="s">
         <v>186</v>
       </c>
@@ -5471,14 +5564,14 @@
       <c r="F34" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="G34" s="17" t="n">
+      <c r="G34" s="17">
         <v>38705723</v>
       </c>
-      <c r="H34" s="17" t="n">
+      <c r="H34" s="17">
         <v>38738299</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="11" t="s">
         <v>189</v>
       </c>
@@ -5497,14 +5590,14 @@
       <c r="F35" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="G35" s="17" t="n">
+      <c r="G35" s="17">
         <v>119588337</v>
       </c>
-      <c r="H35" s="17" t="n">
+      <c r="H35" s="17">
         <v>119605895</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="11" t="s">
         <v>192</v>
       </c>
@@ -5523,14 +5616,14 @@
       <c r="F36" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="G36" s="17" t="n">
+      <c r="G36" s="17">
         <v>22973819</v>
       </c>
-      <c r="H36" s="17" t="n">
+      <c r="H36" s="17">
         <v>23005465</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
         <v>195</v>
       </c>
@@ -5549,60 +5642,52 @@
       <c r="F37" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="G37" s="17" t="n">
+      <c r="G37" s="17">
         <v>5904</v>
       </c>
-      <c r="H37" s="17" t="n">
+      <c r="H37" s="17">
         <v>7445</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="B1:H1064"/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMG37"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D15" activeCellId="0" sqref="D15"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="11" width="16.497975708502"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="11" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="11" width="16.497975708502"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="11" width="22.0647773279352"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="11" width="13.7125506072874"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="11" width="25.1740890688259"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="11" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="11" width="23.2429149797571"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="25.1740890688259"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="19.8178137651822"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="14" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="14" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="14" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="15" min="14" style="11" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="14" width="22.8178137651822"/>
-    <col collapsed="false" hidden="false" max="1012" min="17" style="11" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="1021" min="1013" style="2" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="1025" min="1022" style="0" width="9.10526315789474"/>
+    <col min="1" max="3" width="16.42578125" style="11"/>
+    <col min="4" max="4" width="22" style="11"/>
+    <col min="5" max="5" width="13.7109375" style="11"/>
+    <col min="6" max="6" width="25.140625" style="11"/>
+    <col min="7" max="7" width="13.42578125" style="11"/>
+    <col min="8" max="8" width="23.28515625" style="11"/>
+    <col min="9" max="9" width="25.140625" style="2"/>
+    <col min="10" max="10" width="19.85546875"/>
+    <col min="11" max="11" width="9.140625" style="14"/>
+    <col min="12" max="12" width="10.42578125" style="14"/>
+    <col min="13" max="13" width="10.7109375" style="14"/>
+    <col min="14" max="15" width="9.140625" style="11"/>
+    <col min="16" max="16" width="22.85546875" style="14"/>
+    <col min="17" max="1012" width="9.140625" style="11"/>
+    <col min="1013" max="1021" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="8" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:1021" s="8" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -5649,7 +5734,7 @@
       <c r="AMF1" s="1"/>
       <c r="AMG1" s="1"/>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:1021" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>199</v>
       </c>
@@ -5665,10 +5750,10 @@
       <c r="E2" s="11" t="s">
         <v>202</v>
       </c>
-      <c r="F2" s="11" t="n">
+      <c r="F2" s="11">
         <v>203893801</v>
       </c>
-      <c r="G2" s="11" t="n">
+      <c r="G2" s="11">
         <v>203895200</v>
       </c>
       <c r="H2" s="14"/>
@@ -5676,7 +5761,7 @@
       <c r="N2" s="22"/>
       <c r="O2" s="22"/>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:1021" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>203</v>
       </c>
@@ -5692,10 +5777,10 @@
       <c r="E3" s="11" t="s">
         <v>202</v>
       </c>
-      <c r="F3" s="11" t="n">
+      <c r="F3" s="11">
         <v>20602802</v>
       </c>
-      <c r="G3" s="11" t="n">
+      <c r="G3" s="11">
         <v>20605200</v>
       </c>
       <c r="H3" s="14"/>
@@ -5703,7 +5788,7 @@
       <c r="N3" s="22"/>
       <c r="O3" s="22"/>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:1021" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>206</v>
       </c>
@@ -5719,10 +5804,10 @@
       <c r="E4" s="11" t="s">
         <v>209</v>
       </c>
-      <c r="F4" s="11" t="n">
+      <c r="F4" s="11">
         <v>45648015</v>
       </c>
-      <c r="G4" s="11" t="n">
+      <c r="G4" s="11">
         <v>45648411</v>
       </c>
       <c r="H4" s="14"/>
@@ -5730,7 +5815,7 @@
       <c r="N4" s="22"/>
       <c r="O4" s="22"/>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:1021" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>210</v>
       </c>
@@ -5746,10 +5831,10 @@
       <c r="E5" s="11" t="s">
         <v>213</v>
       </c>
-      <c r="F5" s="11" t="n">
+      <c r="F5" s="11">
         <v>85413000</v>
       </c>
-      <c r="G5" s="11" t="n">
+      <c r="G5" s="11">
         <v>85414201</v>
       </c>
       <c r="H5" s="14"/>
@@ -5757,7 +5842,7 @@
       <c r="N5" s="22"/>
       <c r="O5" s="22"/>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:1021" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>214</v>
       </c>
@@ -5773,10 +5858,10 @@
       <c r="E6" s="11" t="s">
         <v>216</v>
       </c>
-      <c r="F6" s="11" t="n">
+      <c r="F6" s="11">
         <v>39877201</v>
       </c>
-      <c r="G6" s="11" t="n">
+      <c r="G6" s="11">
         <v>39878600</v>
       </c>
       <c r="H6" s="14"/>
@@ -5784,7 +5869,7 @@
       <c r="N6" s="22"/>
       <c r="O6" s="22"/>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:1021" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>217</v>
       </c>
@@ -5800,10 +5885,10 @@
       <c r="E7" s="11" t="s">
         <v>202</v>
       </c>
-      <c r="F7" s="11" t="n">
+      <c r="F7" s="11">
         <v>185316402</v>
       </c>
-      <c r="G7" s="11" t="n">
+      <c r="G7" s="11">
         <v>185318582</v>
       </c>
       <c r="H7" s="14"/>
@@ -5811,7 +5896,7 @@
       <c r="N7" s="22"/>
       <c r="O7" s="22"/>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:1021" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>219</v>
       </c>
@@ -5827,10 +5912,10 @@
       <c r="E8" s="11" t="s">
         <v>202</v>
       </c>
-      <c r="F8" s="11" t="n">
+      <c r="F8" s="11">
         <v>53862600</v>
       </c>
-      <c r="G8" s="11" t="n">
+      <c r="G8" s="11">
         <v>53863800</v>
       </c>
       <c r="H8" s="14"/>
@@ -5838,7 +5923,7 @@
       <c r="N8" s="22"/>
       <c r="O8" s="22"/>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:1021" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>222</v>
       </c>
@@ -5854,10 +5939,10 @@
       <c r="E9" s="11" t="s">
         <v>213</v>
       </c>
-      <c r="F9" s="11" t="n">
+      <c r="F9" s="11">
         <v>118834600</v>
       </c>
-      <c r="G9" s="11" t="n">
+      <c r="G9" s="11">
         <v>118837001</v>
       </c>
       <c r="H9" s="14"/>
@@ -5865,7 +5950,7 @@
       <c r="N9" s="22"/>
       <c r="O9" s="22"/>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:1021" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>224</v>
       </c>
@@ -5881,10 +5966,10 @@
       <c r="E10" s="11" t="s">
         <v>213</v>
       </c>
-      <c r="F10" s="11" t="n">
+      <c r="F10" s="11">
         <v>141848202</v>
       </c>
-      <c r="G10" s="11" t="n">
+      <c r="G10" s="11">
         <v>141851600</v>
       </c>
       <c r="H10" s="14"/>
@@ -5892,7 +5977,7 @@
       <c r="N10" s="22"/>
       <c r="O10" s="22"/>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:1021" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>226</v>
       </c>
@@ -5908,10 +5993,10 @@
       <c r="E11" s="11" t="s">
         <v>213</v>
       </c>
-      <c r="F11" s="11" t="n">
+      <c r="F11" s="11">
         <v>2988400</v>
       </c>
-      <c r="G11" s="11" t="n">
+      <c r="G11" s="11">
         <v>2991401</v>
       </c>
       <c r="H11" s="14"/>
@@ -5919,7 +6004,7 @@
       <c r="N11" s="22"/>
       <c r="O11" s="22"/>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:1021" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
         <v>228</v>
       </c>
@@ -5935,10 +6020,10 @@
       <c r="E12" s="11" t="s">
         <v>213</v>
       </c>
-      <c r="F12" s="11" t="n">
+      <c r="F12" s="11">
         <v>43970600</v>
       </c>
-      <c r="G12" s="11" t="n">
+      <c r="G12" s="11">
         <v>43971001</v>
       </c>
       <c r="H12" s="14"/>
@@ -5946,7 +6031,7 @@
       <c r="N12" s="22"/>
       <c r="O12" s="22"/>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:1021" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>230</v>
       </c>
@@ -5962,10 +6047,10 @@
       <c r="E13" s="11" t="s">
         <v>213</v>
       </c>
-      <c r="F13" s="11" t="n">
+      <c r="F13" s="11">
         <v>890483</v>
       </c>
-      <c r="G13" s="11" t="n">
+      <c r="G13" s="11">
         <v>893236</v>
       </c>
       <c r="H13" s="14"/>
@@ -5973,7 +6058,7 @@
       <c r="N13" s="22"/>
       <c r="O13" s="22"/>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:1021" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>232</v>
       </c>
@@ -5989,10 +6074,10 @@
       <c r="E14" s="11" t="s">
         <v>202</v>
       </c>
-      <c r="F14" s="11" t="n">
+      <c r="F14" s="11">
         <v>116112401</v>
       </c>
-      <c r="G14" s="11" t="n">
+      <c r="G14" s="11">
         <v>116112801</v>
       </c>
       <c r="H14" s="14"/>
@@ -6000,7 +6085,7 @@
       <c r="N14" s="22"/>
       <c r="O14" s="22"/>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:1021" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>234</v>
       </c>
@@ -6016,10 +6101,10 @@
       <c r="E15" s="11" t="s">
         <v>202</v>
       </c>
-      <c r="F15" s="11" t="n">
+      <c r="F15" s="11">
         <v>72121544</v>
       </c>
-      <c r="G15" s="11" t="n">
+      <c r="G15" s="11">
         <v>72121926</v>
       </c>
       <c r="H15" s="14"/>
@@ -6027,7 +6112,7 @@
       <c r="N15" s="22"/>
       <c r="O15" s="22"/>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:1021" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>237</v>
       </c>
@@ -6043,10 +6128,10 @@
       <c r="E16" s="11" t="s">
         <v>213</v>
       </c>
-      <c r="F16" s="11" t="n">
+      <c r="F16" s="11">
         <v>22700001</v>
       </c>
-      <c r="G16" s="11" t="n">
+      <c r="G16" s="11">
         <v>22702000</v>
       </c>
       <c r="H16" s="14"/>
@@ -6054,7 +6139,7 @@
       <c r="N16" s="22"/>
       <c r="O16" s="22"/>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
         <v>239</v>
       </c>
@@ -6070,10 +6155,10 @@
       <c r="E17" s="11" t="s">
         <v>216</v>
       </c>
-      <c r="F17" s="11" t="n">
+      <c r="F17" s="11">
         <v>46022400</v>
       </c>
-      <c r="G17" s="11" t="n">
+      <c r="G17" s="11">
         <v>46023801</v>
       </c>
       <c r="H17" s="14"/>
@@ -6081,7 +6166,7 @@
       <c r="N17" s="22"/>
       <c r="O17" s="22"/>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
         <v>241</v>
       </c>
@@ -6097,10 +6182,10 @@
       <c r="E18" s="11" t="s">
         <v>213</v>
       </c>
-      <c r="F18" s="11" t="n">
+      <c r="F18" s="11">
         <v>132186801</v>
       </c>
-      <c r="G18" s="11" t="n">
+      <c r="G18" s="11">
         <v>132187000</v>
       </c>
       <c r="H18" s="14"/>
@@ -6108,7 +6193,7 @@
       <c r="N18" s="22"/>
       <c r="O18" s="22"/>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
         <v>243</v>
       </c>
@@ -6124,10 +6209,10 @@
       <c r="E19" s="11" t="s">
         <v>202</v>
       </c>
-      <c r="F19" s="11" t="n">
+      <c r="F19" s="11">
         <v>102368448</v>
       </c>
-      <c r="G19" s="11" t="n">
+      <c r="G19" s="11">
         <v>102368872</v>
       </c>
       <c r="H19" s="14"/>
@@ -6135,7 +6220,7 @@
       <c r="N19" s="22"/>
       <c r="O19" s="22"/>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
         <v>245</v>
       </c>
@@ -6151,10 +6236,10 @@
       <c r="E20" s="11" t="s">
         <v>213</v>
       </c>
-      <c r="F20" s="11" t="n">
+      <c r="F20" s="11">
         <v>101939801</v>
       </c>
-      <c r="G20" s="11" t="n">
+      <c r="G20" s="11">
         <v>101940201</v>
       </c>
       <c r="H20" s="14"/>
@@ -6162,7 +6247,7 @@
       <c r="N20" s="22"/>
       <c r="O20" s="22"/>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
         <v>247</v>
       </c>
@@ -6178,10 +6263,10 @@
       <c r="E21" s="11" t="s">
         <v>216</v>
       </c>
-      <c r="F21" s="11" t="n">
+      <c r="F21" s="11">
         <v>99984000</v>
       </c>
-      <c r="G21" s="11" t="n">
+      <c r="G21" s="11">
         <v>99985401</v>
       </c>
       <c r="H21" s="14"/>
@@ -6189,7 +6274,7 @@
       <c r="N21" s="22"/>
       <c r="O21" s="22"/>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
         <v>249</v>
       </c>
@@ -6205,10 +6290,10 @@
       <c r="E22" s="11" t="s">
         <v>216</v>
       </c>
-      <c r="F22" s="11" t="n">
+      <c r="F22" s="11">
         <v>52849669</v>
       </c>
-      <c r="G22" s="11" t="n">
+      <c r="G22" s="11">
         <v>52849993</v>
       </c>
       <c r="H22" s="14"/>
@@ -6216,7 +6301,7 @@
       <c r="N22" s="22"/>
       <c r="O22" s="22"/>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
         <v>251</v>
       </c>
@@ -6232,10 +6317,10 @@
       <c r="E23" s="11" t="s">
         <v>216</v>
       </c>
-      <c r="F23" s="11" t="n">
+      <c r="F23" s="11">
         <v>23578503</v>
       </c>
-      <c r="G23" s="11" t="n">
+      <c r="G23" s="11">
         <v>23579130</v>
       </c>
       <c r="H23" s="14"/>
@@ -6243,7 +6328,7 @@
       <c r="N23" s="22"/>
       <c r="O23" s="22"/>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
         <v>253</v>
       </c>
@@ -6259,10 +6344,10 @@
       <c r="E24" s="11" t="s">
         <v>213</v>
       </c>
-      <c r="F24" s="11" t="n">
+      <c r="F24" s="11">
         <v>90214601</v>
       </c>
-      <c r="G24" s="11" t="n">
+      <c r="G24" s="11">
         <v>90215000</v>
       </c>
       <c r="H24" s="14"/>
@@ -6270,7 +6355,7 @@
       <c r="N24" s="22"/>
       <c r="O24" s="22"/>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
         <v>255</v>
       </c>
@@ -6286,10 +6371,10 @@
       <c r="E25" s="11" t="s">
         <v>216</v>
       </c>
-      <c r="F25" s="11" t="n">
+      <c r="F25" s="11">
         <v>47716801</v>
       </c>
-      <c r="G25" s="11" t="n">
+      <c r="G25" s="11">
         <v>47720200</v>
       </c>
       <c r="H25" s="14"/>
@@ -6297,7 +6382,7 @@
       <c r="N25" s="22"/>
       <c r="O25" s="22"/>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
         <v>257</v>
       </c>
@@ -6313,10 +6398,10 @@
       <c r="E26" s="11" t="s">
         <v>213</v>
       </c>
-      <c r="F26" s="11" t="n">
+      <c r="F26" s="11">
         <v>50368000</v>
       </c>
-      <c r="G26" s="11" t="n">
+      <c r="G26" s="11">
         <v>50369600</v>
       </c>
       <c r="H26" s="14"/>
@@ -6324,7 +6409,7 @@
       <c r="N26" s="22"/>
       <c r="O26" s="22"/>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
         <v>259</v>
       </c>
@@ -6340,10 +6425,10 @@
       <c r="E27" s="11" t="s">
         <v>213</v>
       </c>
-      <c r="F27" s="11" t="n">
+      <c r="F27" s="11">
         <v>18650001</v>
       </c>
-      <c r="G27" s="11" t="n">
+      <c r="G27" s="11">
         <v>18650600</v>
       </c>
       <c r="H27" s="14"/>
@@ -6351,7 +6436,7 @@
       <c r="N27" s="22"/>
       <c r="O27" s="22"/>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
         <v>261</v>
       </c>
@@ -6367,10 +6452,10 @@
       <c r="E28" s="11" t="s">
         <v>213</v>
       </c>
-      <c r="F28" s="11" t="n">
+      <c r="F28" s="11">
         <v>33756200</v>
       </c>
-      <c r="G28" s="11" t="n">
+      <c r="G28" s="11">
         <v>33756401</v>
       </c>
       <c r="H28" s="14"/>
@@ -6378,7 +6463,7 @@
       <c r="N28" s="22"/>
       <c r="O28" s="22"/>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
         <v>263</v>
       </c>
@@ -6394,10 +6479,10 @@
       <c r="E29" s="11" t="s">
         <v>216</v>
       </c>
-      <c r="F29" s="11" t="n">
+      <c r="F29" s="11">
         <v>58326200</v>
       </c>
-      <c r="G29" s="11" t="n">
+      <c r="G29" s="11">
         <v>58328001</v>
       </c>
       <c r="H29" s="14"/>
@@ -6405,7 +6490,7 @@
       <c r="N29" s="22"/>
       <c r="O29" s="22"/>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
         <v>265</v>
       </c>
@@ -6421,10 +6506,10 @@
       <c r="E30" s="11" t="s">
         <v>213</v>
       </c>
-      <c r="F30" s="11" t="n">
+      <c r="F30" s="11">
         <v>50117624</v>
       </c>
-      <c r="G30" s="11" t="n">
+      <c r="G30" s="11">
         <v>50118213</v>
       </c>
       <c r="H30" s="14"/>
@@ -6432,7 +6517,7 @@
       <c r="N30" s="22"/>
       <c r="O30" s="22"/>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
         <v>267</v>
       </c>
@@ -6448,10 +6533,10 @@
       <c r="E31" s="11" t="s">
         <v>213</v>
       </c>
-      <c r="F31" s="11" t="n">
+      <c r="F31" s="11">
         <v>62960832</v>
       </c>
-      <c r="G31" s="11" t="n">
+      <c r="G31" s="11">
         <v>62961734</v>
       </c>
       <c r="H31" s="14"/>
@@ -6459,7 +6544,7 @@
       <c r="N31" s="22"/>
       <c r="O31" s="22"/>
     </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
         <v>269</v>
       </c>
@@ -6475,10 +6560,10 @@
       <c r="E32" s="11" t="s">
         <v>202</v>
       </c>
-      <c r="F32" s="11" t="n">
+      <c r="F32" s="11">
         <v>57964075</v>
       </c>
-      <c r="G32" s="11" t="n">
+      <c r="G32" s="11">
         <v>57964896</v>
       </c>
       <c r="H32" s="14"/>
@@ -6486,7 +6571,7 @@
       <c r="N32" s="22"/>
       <c r="O32" s="22"/>
     </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
         <v>271</v>
       </c>
@@ -6502,10 +6587,10 @@
       <c r="E33" s="11" t="s">
         <v>216</v>
       </c>
-      <c r="F33" s="11" t="n">
+      <c r="F33" s="11">
         <v>36710048</v>
       </c>
-      <c r="G33" s="11" t="n">
+      <c r="G33" s="11">
         <v>36711020</v>
       </c>
       <c r="H33" s="14"/>
@@ -6513,7 +6598,7 @@
       <c r="N33" s="22"/>
       <c r="O33" s="22"/>
     </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="11" t="s">
         <v>273</v>
       </c>
@@ -6529,10 +6614,10 @@
       <c r="E34" s="11" t="s">
         <v>216</v>
       </c>
-      <c r="F34" s="11" t="n">
+      <c r="F34" s="11">
         <v>43346380</v>
       </c>
-      <c r="G34" s="11" t="n">
+      <c r="G34" s="11">
         <v>43346796</v>
       </c>
       <c r="H34" s="14"/>
@@ -6540,7 +6625,7 @@
       <c r="N34" s="22"/>
       <c r="O34" s="22"/>
     </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="11" t="s">
         <v>275</v>
       </c>
@@ -6556,10 +6641,10 @@
       <c r="E35" s="11" t="s">
         <v>213</v>
       </c>
-      <c r="F35" s="11" t="n">
+      <c r="F35" s="11">
         <v>30591000</v>
       </c>
-      <c r="G35" s="11" t="n">
+      <c r="G35" s="11">
         <v>30592601</v>
       </c>
       <c r="H35" s="14"/>
@@ -6567,7 +6652,7 @@
       <c r="N35" s="22"/>
       <c r="O35" s="22"/>
     </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="11" t="s">
         <v>277</v>
       </c>
@@ -6583,10 +6668,10 @@
       <c r="E36" s="11" t="s">
         <v>209</v>
       </c>
-      <c r="F36" s="11" t="n">
+      <c r="F36" s="11">
         <v>135326401</v>
       </c>
-      <c r="G36" s="11" t="n">
+      <c r="G36" s="11">
         <v>135326600</v>
       </c>
       <c r="H36" s="14"/>
@@ -6594,7 +6679,7 @@
       <c r="N36" s="22"/>
       <c r="O36" s="22"/>
     </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
         <v>279</v>
       </c>
@@ -6610,10 +6695,10 @@
       <c r="E37" s="11" t="s">
         <v>216</v>
       </c>
-      <c r="F37" s="11" t="n">
+      <c r="F37" s="11">
         <v>13401</v>
       </c>
-      <c r="G37" s="11" t="n">
+      <c r="G37" s="11">
         <v>14200</v>
       </c>
       <c r="H37" s="14"/>
@@ -6623,43 +6708,38 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:H776"/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Arial,Regular"&amp;10&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Arial,Regular"&amp;10Page &amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:I3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AMB3"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="11" width="17.4615384615385"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="11" width="50.5587044534413"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="15" width="22.8178137651822"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="23" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="14" width="19.8178137651822"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="14" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="11" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="1016" min="9" style="23" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="1019" min="1017" style="0" width="8.46153846153846"/>
-    <col collapsed="false" hidden="false" max="1025" min="1020" style="0" width="8.67611336032389"/>
+    <col min="1" max="1" width="17.42578125" style="11"/>
+    <col min="2" max="2" width="50.5703125" style="11"/>
+    <col min="3" max="3" width="22.85546875" style="15"/>
+    <col min="4" max="4" width="13.42578125" style="23"/>
+    <col min="5" max="5" width="19.85546875" style="14"/>
+    <col min="6" max="6" width="10.7109375" style="14"/>
+    <col min="7" max="8" width="9.140625" style="11"/>
+    <col min="9" max="1016" width="9.140625" style="23"/>
+    <col min="1017" max="1019" width="8.42578125"/>
+    <col min="1020" max="1025" width="8.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" s="8" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:9" s="8" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>281</v>
       </c>
@@ -6677,7 +6757,7 @@
       </c>
       <c r="F1" s="24"/>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>92</v>
       </c>
@@ -6688,7 +6768,7 @@
       <c r="H2" s="22"/>
       <c r="I2" s="11"/>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>108</v>
       </c>
@@ -6701,46 +6781,40 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:C849"/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:K3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AMG3"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E26" activeCellId="0" sqref="E26"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="14" width="19.6032388663968"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="14" width="21.2105263157895"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="14" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="15" width="22.8178137651822"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="11" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="25" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="22" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="11" width="19.8178137651822"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="11" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="1021" min="12" style="2" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="1025" min="1022" style="0" width="9.10526315789474"/>
+    <col min="1" max="1" width="19.5703125" style="14"/>
+    <col min="2" max="2" width="21.140625" style="14"/>
+    <col min="3" max="3" width="10.7109375" style="14"/>
+    <col min="4" max="4" width="22.85546875" style="15"/>
+    <col min="5" max="5" width="10.7109375"/>
+    <col min="6" max="6" width="13.42578125"/>
+    <col min="7" max="7" width="13.42578125" style="11"/>
+    <col min="8" max="8" width="13.42578125" style="25"/>
+    <col min="9" max="9" width="10.7109375" style="22"/>
+    <col min="10" max="10" width="19.85546875" style="11"/>
+    <col min="11" max="11" width="13.42578125" style="11"/>
+    <col min="12" max="1021" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="26" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:11" s="26" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
@@ -6773,7 +6847,7 @@
       </c>
       <c r="K1" s="8"/>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>285</v>
       </c>
@@ -6786,20 +6860,20 @@
       <c r="D2" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="E2" s="0" t="n">
+      <c r="E2">
         <v>0</v>
       </c>
-      <c r="F2" s="0" t="n">
+      <c r="F2">
         <v>0</v>
       </c>
-      <c r="G2" s="27" t="n">
-        <v>649.382685492726</v>
+      <c r="G2" s="27">
+        <v>649.38268549272595</v>
       </c>
       <c r="H2" s="15"/>
       <c r="J2" s="22"/>
       <c r="K2" s="28"/>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>287</v>
       </c>
@@ -6812,13 +6886,13 @@
       <c r="D3" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="E3" s="0" t="n">
+      <c r="E3">
         <v>0</v>
       </c>
-      <c r="F3" s="0" t="n">
+      <c r="F3">
         <v>0</v>
       </c>
-      <c r="G3" s="27" t="n">
+      <c r="G3" s="27">
         <v>498.886582908722</v>
       </c>
       <c r="H3" s="15"/>
@@ -6827,13 +6901,11 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:G915"/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/tests/fixtures/eukaryote_core.xlsx
+++ b/tests/fixtures/eukaryote_core.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="993" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="993" firstSheet="5" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Knowledge base" sheetId="1" r:id="rId1"/>
@@ -19,31 +19,32 @@
     <sheet name="Transcript species types" sheetId="10" r:id="rId10"/>
     <sheet name="Exon loci" sheetId="11" r:id="rId11"/>
     <sheet name="Protein species types" sheetId="12" r:id="rId12"/>
-    <sheet name="Complex species types" sheetId="13" r:id="rId13"/>
-    <sheet name="Concentrations" sheetId="14" r:id="rId14"/>
-    <sheet name="Observables" sheetId="15" r:id="rId15"/>
-    <sheet name="Reactions" sheetId="16" r:id="rId16"/>
-    <sheet name="Rate laws" sheetId="17" r:id="rId17"/>
-    <sheet name="Parameters" sheetId="18" r:id="rId18"/>
-    <sheet name="Properties" sheetId="19" r:id="rId19"/>
-    <sheet name="References" sheetId="20" r:id="rId20"/>
+    <sheet name="CDS loci" sheetId="21" r:id="rId13"/>
+    <sheet name="Complex species types" sheetId="13" r:id="rId14"/>
+    <sheet name="Concentrations" sheetId="14" r:id="rId15"/>
+    <sheet name="Observables" sheetId="15" r:id="rId16"/>
+    <sheet name="Reactions" sheetId="16" r:id="rId17"/>
+    <sheet name="Rate laws" sheetId="17" r:id="rId18"/>
+    <sheet name="Parameters" sheetId="18" r:id="rId19"/>
+    <sheet name="Properties" sheetId="19" r:id="rId20"/>
+    <sheet name="References" sheetId="20" r:id="rId21"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1">Cell!$A$1:$B$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="12">'Complex species types'!$A$1:$J$221</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="13">'Complex species types'!$A$1:$J$221</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5">'Gene loci'!$B$1:$H$1064</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0">'Knowledge base'!$A$1:$B$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8">'pre-RNA species types'!$A$1:$G$915</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="11">'Protein species types'!$A$1:$F$719</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="16">'Rate laws'!$A$1:$F$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="15">Reactions!$A$1:$F$220</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="11">'Protein species types'!$A$1:$G$719</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="17">'Rate laws'!$A$1:$F$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="16">Reactions!$A$1:$F$220</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6">'Regulatory element loci'!$A$1:$H$776</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7">'Regulatory module'!$A$1:$C$849</definedName>
     <definedName name="_FilterDatabase_0" localSheetId="1">Cell!$A$1:$B$1</definedName>
     <definedName name="_FilterDatabase_0" localSheetId="5">'Gene loci'!$I$1</definedName>
     <definedName name="_FilterDatabase_0" localSheetId="0">'Knowledge base'!$A$1:$B$2</definedName>
     <definedName name="_FilterDatabase_0" localSheetId="8">'pre-RNA species types'!$A$1:$G$915</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="11">'Protein species types'!$A$1:$F$719</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="11">'Protein species types'!$A$1:$G$719</definedName>
     <definedName name="_FilterDatabase_0" localSheetId="6">'Regulatory element loci'!$A$1:$H$776</definedName>
     <definedName name="_FilterDatabase_0" localSheetId="7">'Regulatory module'!$A$1:$C$849</definedName>
     <definedName name="_FilterDatabase_0_0" localSheetId="1">Cell!$A$1:$B$1</definedName>
@@ -82,7 +83,7 @@
     <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0" localSheetId="0">'Knowledge base'!$A$1:$B$2</definedName>
     <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0" localSheetId="1">Cell!$A$1:$B$1</definedName>
   </definedNames>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -92,7 +93,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="878" uniqueCount="467">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="471">
   <si>
     <t>Id</t>
   </si>
@@ -1493,6 +1494,18 @@
   </si>
   <si>
     <t>Ploidy</t>
+  </si>
+  <si>
+    <t>CDS_ENSP00000234111</t>
+  </si>
+  <si>
+    <t>CDS_ENSP00000385333</t>
+  </si>
+  <si>
+    <t>CDS_ENSP00000390691</t>
+  </si>
+  <si>
+    <t>Coding Region</t>
   </si>
 </sst>
 </file>
@@ -2130,14 +2143,14 @@
       <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.5703125" style="1"/>
-    <col min="2" max="2" width="43.42578125" style="2"/>
-    <col min="3" max="1025" width="8.42578125"/>
+    <col min="1" max="1" width="21.5546875" style="1"/>
+    <col min="2" max="2" width="43.44140625" style="2"/>
+    <col min="3" max="1025" width="8.44140625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2145,7 +2158,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -2153,7 +2166,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -2161,7 +2174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -2169,25 +2182,25 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B5"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B6"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B7"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -2195,7 +2208,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
@@ -2212,22 +2225,22 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.42578125"/>
-    <col min="2" max="2" width="11.7109375"/>
-    <col min="3" max="4" width="8.5703125"/>
-    <col min="5" max="5" width="7.42578125"/>
-    <col min="6" max="6" width="10.42578125"/>
-    <col min="7" max="7" width="10.7109375"/>
-    <col min="8" max="8" width="19.85546875"/>
-    <col min="9" max="1025" width="8.5703125"/>
+    <col min="1" max="1" width="16.44140625"/>
+    <col min="2" max="2" width="11.6640625"/>
+    <col min="3" max="4" width="8.5546875"/>
+    <col min="5" max="5" width="7.44140625"/>
+    <col min="6" max="6" width="10.44140625"/>
+    <col min="7" max="7" width="10.6640625"/>
+    <col min="8" max="8" width="19.88671875"/>
+    <col min="9" max="1025" width="8.5546875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="26" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" s="26" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
@@ -2254,7 +2267,7 @@
       </c>
       <c r="I1" s="8"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>291</v>
       </c>
@@ -2268,7 +2281,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>294</v>
       </c>
@@ -2282,7 +2295,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>297</v>
       </c>
@@ -2296,7 +2309,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>300</v>
       </c>
@@ -2320,24 +2333,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMG21"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.42578125"/>
-    <col min="2" max="2" width="12.7109375"/>
-    <col min="3" max="3" width="8.5703125"/>
+    <col min="1" max="1" width="16.44140625"/>
+    <col min="2" max="2" width="12.6640625"/>
+    <col min="3" max="3" width="8.5546875"/>
     <col min="4" max="4" width="10"/>
-    <col min="5" max="5" width="10.140625"/>
-    <col min="6" max="6" width="10.42578125"/>
-    <col min="7" max="7" width="10.7109375"/>
-    <col min="8" max="8" width="19.85546875"/>
-    <col min="9" max="1025" width="8.5703125"/>
+    <col min="5" max="5" width="10.109375"/>
+    <col min="6" max="6" width="10.44140625"/>
+    <col min="7" max="7" width="10.6640625"/>
+    <col min="8" max="8" width="19.88671875"/>
+    <col min="9" max="1025" width="8.5546875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1021" s="26" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1021" s="26" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
@@ -2364,7 +2377,7 @@
       </c>
       <c r="I1" s="8"/>
     </row>
-    <row r="2" spans="1:1021" s="30" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1021" s="30" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>303</v>
       </c>
@@ -2383,7 +2396,7 @@
       <c r="AMF2" s="33"/>
       <c r="AMG2" s="33"/>
     </row>
-    <row r="3" spans="1:1021" s="30" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1021" s="30" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
         <v>305</v>
       </c>
@@ -2402,7 +2415,7 @@
       <c r="AMF3" s="33"/>
       <c r="AMG3" s="33"/>
     </row>
-    <row r="4" spans="1:1021" s="30" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1021" s="30" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="29" t="s">
         <v>307</v>
       </c>
@@ -2421,7 +2434,7 @@
       <c r="AMF4" s="33"/>
       <c r="AMG4" s="33"/>
     </row>
-    <row r="5" spans="1:1021" s="30" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1021" s="30" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="29" t="s">
         <v>309</v>
       </c>
@@ -2440,7 +2453,7 @@
       <c r="AMF5" s="33"/>
       <c r="AMG5" s="33"/>
     </row>
-    <row r="6" spans="1:1021" s="30" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1021" s="30" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="29" t="s">
         <v>311</v>
       </c>
@@ -2459,7 +2472,7 @@
       <c r="AMF6" s="33"/>
       <c r="AMG6" s="33"/>
     </row>
-    <row r="7" spans="1:1021" s="30" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1021" s="30" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="29" t="s">
         <v>313</v>
       </c>
@@ -2478,7 +2491,7 @@
       <c r="AMF7" s="33"/>
       <c r="AMG7" s="33"/>
     </row>
-    <row r="8" spans="1:1021" s="30" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1021" s="30" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="29" t="s">
         <v>315</v>
       </c>
@@ -2497,7 +2510,7 @@
       <c r="AMF8" s="33"/>
       <c r="AMG8" s="33"/>
     </row>
-    <row r="9" spans="1:1021" s="30" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1021" s="30" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="29" t="s">
         <v>317</v>
       </c>
@@ -2516,7 +2529,7 @@
       <c r="AMF9" s="33"/>
       <c r="AMG9" s="33"/>
     </row>
-    <row r="10" spans="1:1021" s="30" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1021" s="30" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="29" t="s">
         <v>319</v>
       </c>
@@ -2535,7 +2548,7 @@
       <c r="AMF10" s="33"/>
       <c r="AMG10" s="33"/>
     </row>
-    <row r="11" spans="1:1021" s="30" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1021" s="30" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="29" t="s">
         <v>321</v>
       </c>
@@ -2554,7 +2567,7 @@
       <c r="AMF11" s="33"/>
       <c r="AMG11" s="33"/>
     </row>
-    <row r="12" spans="1:1021" s="30" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1021" s="30" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="29" t="s">
         <v>323</v>
       </c>
@@ -2573,7 +2586,7 @@
       <c r="AMF12" s="33"/>
       <c r="AMG12" s="33"/>
     </row>
-    <row r="13" spans="1:1021" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1021" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>325</v>
       </c>
@@ -2590,7 +2603,7 @@
         <v>10448121</v>
       </c>
     </row>
-    <row r="14" spans="1:1021" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1021" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>327</v>
       </c>
@@ -2607,7 +2620,7 @@
         <v>10440601</v>
       </c>
     </row>
-    <row r="15" spans="1:1021" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1021" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>329</v>
       </c>
@@ -2624,7 +2637,7 @@
         <v>10447474</v>
       </c>
     </row>
-    <row r="16" spans="1:1021" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1021" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>331</v>
       </c>
@@ -2641,7 +2654,7 @@
         <v>10444544</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>333</v>
       </c>
@@ -2658,7 +2671,7 @@
         <v>10447628</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>335</v>
       </c>
@@ -2675,7 +2688,7 @@
         <v>10444095</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>337</v>
       </c>
@@ -2692,7 +2705,7 @@
         <v>10444474</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>339</v>
       </c>
@@ -2709,7 +2722,7 @@
         <v>10444931</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>341</v>
       </c>
@@ -2734,27 +2747,28 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMF4"/>
+  <dimension ref="A1:AMG4"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.28515625" style="13"/>
-    <col min="2" max="2" width="33.85546875" style="13"/>
-    <col min="3" max="3" width="16.42578125" style="14"/>
-    <col min="4" max="4" width="16.42578125" style="11"/>
-    <col min="5" max="5" width="10.42578125" style="2"/>
-    <col min="6" max="6" width="40.28515625" style="13"/>
-    <col min="7" max="7" width="9.140625" style="2"/>
-    <col min="8" max="8" width="19.85546875" style="2"/>
-    <col min="9" max="1020" width="9.140625" style="2"/>
-    <col min="1023" max="1025" width="8.7109375"/>
+    <col min="1" max="1" width="20.33203125" style="13"/>
+    <col min="2" max="2" width="33.88671875" style="13"/>
+    <col min="3" max="3" width="16.44140625" style="14"/>
+    <col min="4" max="4" width="16.44140625" style="11"/>
+    <col min="5" max="5" width="25.5546875" style="30" customWidth="1"/>
+    <col min="6" max="6" width="10.44140625" style="2"/>
+    <col min="7" max="7" width="40.33203125" style="13"/>
+    <col min="8" max="8" width="9.109375" style="2"/>
+    <col min="9" max="9" width="19.88671875" style="2"/>
+    <col min="10" max="1021" width="9.109375" style="2"/>
+    <col min="1024" max="1026" width="8.6640625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="8" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" s="8" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -2768,19 +2782,22 @@
         <v>344</v>
       </c>
       <c r="E1" s="8" t="s">
+        <v>470</v>
+      </c>
+      <c r="F1" s="8" t="s">
         <v>345</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="G1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="H1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="I1" s="8" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
         <v>346</v>
       </c>
@@ -2793,8 +2810,11 @@
       <c r="D2" s="11" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E2" s="13" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
         <v>349</v>
       </c>
@@ -2807,8 +2827,11 @@
       <c r="D3" s="11" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E3" s="13" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
         <v>350</v>
       </c>
@@ -2821,9 +2844,12 @@
       <c r="D4" s="11" t="s">
         <v>297</v>
       </c>
+      <c r="E4" s="13" t="s">
+        <v>469</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F719"/>
+  <autoFilter ref="A1:G719"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <headerFooter>
@@ -2835,30 +2861,122 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.88671875" customWidth="1"/>
+    <col min="2" max="2" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="13" t="s">
+        <v>467</v>
+      </c>
+      <c r="B2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" s="32">
+        <v>10439999</v>
+      </c>
+      <c r="E2" s="34">
+        <v>10448100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="13" t="s">
+        <v>468</v>
+      </c>
+      <c r="B3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D3" s="34">
+        <v>10440600</v>
+      </c>
+      <c r="E3" s="34">
+        <v>10447000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="13" t="s">
+        <v>469</v>
+      </c>
+      <c r="B4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" s="34">
+        <v>10444500</v>
+      </c>
+      <c r="E4" s="34">
+        <v>10447601</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMH5"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="38.7109375" style="2"/>
+    <col min="1" max="1" width="38.6640625" style="2"/>
     <col min="2" max="2" width="46" style="35"/>
-    <col min="3" max="3" width="32.85546875" style="2"/>
+    <col min="3" max="3" width="32.88671875" style="2"/>
     <col min="4" max="4" width="45" style="36"/>
-    <col min="5" max="5" width="29.28515625" style="36"/>
-    <col min="6" max="6" width="16.42578125" style="11"/>
-    <col min="7" max="8" width="8.42578125" style="2"/>
-    <col min="9" max="9" width="13.42578125" style="2"/>
-    <col min="10" max="10" width="37.28515625" style="2"/>
-    <col min="11" max="11" width="13.42578125" style="2"/>
-    <col min="12" max="12" width="19.85546875" style="2"/>
-    <col min="13" max="1022" width="8.42578125" style="2"/>
-    <col min="1023" max="1025" width="8.42578125"/>
+    <col min="5" max="5" width="29.33203125" style="36"/>
+    <col min="6" max="6" width="16.44140625" style="11"/>
+    <col min="7" max="8" width="8.44140625" style="2"/>
+    <col min="9" max="9" width="13.44140625" style="2"/>
+    <col min="10" max="10" width="37.33203125" style="2"/>
+    <col min="11" max="11" width="13.44140625" style="2"/>
+    <col min="12" max="12" width="19.88671875" style="2"/>
+    <col min="13" max="1022" width="8.44140625" style="2"/>
+    <col min="1023" max="1025" width="8.44140625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
         <v>352</v>
       </c>
@@ -2896,7 +3014,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
         <v>359</v>
       </c>
@@ -2921,7 +3039,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
         <v>365</v>
       </c>
@@ -2943,7 +3061,7 @@
       <c r="J3" s="13"/>
       <c r="K3" s="13"/>
     </row>
-    <row r="4" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
         <v>367</v>
       </c>
@@ -2965,7 +3083,7 @@
       <c r="J4" s="13"/>
       <c r="K4" s="13"/>
     </row>
-    <row r="5" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="13" t="s">
         <v>369</v>
       </c>
@@ -2994,7 +3112,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK12"/>
   <sheetViews>
@@ -3005,18 +3123,18 @@
       <selection pane="bottomRight" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.42578125" style="39"/>
-    <col min="2" max="2" width="8.5703125" style="39"/>
-    <col min="3" max="3" width="11.5703125" style="39"/>
-    <col min="4" max="4" width="10.42578125" style="39"/>
-    <col min="5" max="5" width="10.7109375" style="39"/>
-    <col min="6" max="6" width="19.85546875" style="39"/>
-    <col min="7" max="1025" width="8.5703125" style="39"/>
+    <col min="1" max="1" width="19.44140625" style="39"/>
+    <col min="2" max="2" width="8.5546875" style="39"/>
+    <col min="3" max="3" width="11.5546875" style="39"/>
+    <col min="4" max="4" width="10.44140625" style="39"/>
+    <col min="5" max="5" width="10.6640625" style="39"/>
+    <col min="6" max="6" width="19.88671875" style="39"/>
+    <col min="7" max="1025" width="8.5546875" style="39"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="40" customFormat="1" ht="15.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="40" customFormat="1" ht="15.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="40" t="s">
         <v>372</v>
       </c>
@@ -3036,7 +3154,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="39" t="s">
         <v>375</v>
       </c>
@@ -3050,7 +3168,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="15.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="39" t="s">
         <v>378</v>
       </c>
@@ -3064,7 +3182,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="39" t="s">
         <v>381</v>
       </c>
@@ -3075,7 +3193,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="15.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="39" t="s">
         <v>383</v>
       </c>
@@ -3086,7 +3204,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="39" t="s">
         <v>384</v>
       </c>
@@ -3097,7 +3215,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="15.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="39" t="s">
         <v>385</v>
       </c>
@@ -3108,7 +3226,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="15.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="39" t="s">
         <v>386</v>
       </c>
@@ -3119,7 +3237,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="15.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="39" t="s">
         <v>387</v>
       </c>
@@ -3130,7 +3248,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="15.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="41" t="s">
         <v>388</v>
       </c>
@@ -3141,7 +3259,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="15.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="41" t="s">
         <v>389</v>
       </c>
@@ -3152,7 +3270,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="15.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="41" t="s">
         <v>390</v>
       </c>
@@ -3169,7 +3287,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H2"/>
   <sheetViews>
@@ -3177,17 +3295,17 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16"/>
-    <col min="4" max="4" width="15.42578125"/>
+    <col min="4" max="4" width="15.44140625"/>
     <col min="5" max="5" width="14"/>
-    <col min="6" max="6" width="10.5703125"/>
-    <col min="7" max="7" width="11.140625"/>
-    <col min="8" max="8" width="20.5703125"/>
+    <col min="6" max="6" width="10.5546875"/>
+    <col min="7" max="7" width="11.109375"/>
+    <col min="8" max="8" width="20.5546875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="8" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" s="8" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -3213,7 +3331,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>393</v>
       </c>
@@ -3231,7 +3349,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMH8"/>
   <sheetViews>
@@ -3239,19 +3357,19 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" style="2"/>
-    <col min="2" max="2" width="23.42578125" style="2"/>
-    <col min="3" max="3" width="17.7109375" style="2"/>
-    <col min="4" max="4" width="18.7109375" style="2"/>
-    <col min="5" max="5" width="12.7109375" style="2"/>
-    <col min="6" max="6" width="14.7109375" style="2"/>
-    <col min="7" max="1022" width="37.28515625" style="2"/>
-    <col min="1023" max="1025" width="8.42578125"/>
+    <col min="1" max="1" width="18.6640625" style="2"/>
+    <col min="2" max="2" width="23.44140625" style="2"/>
+    <col min="3" max="3" width="17.6640625" style="2"/>
+    <col min="4" max="4" width="18.6640625" style="2"/>
+    <col min="5" max="5" width="12.6640625" style="2"/>
+    <col min="6" max="6" width="14.6640625" style="2"/>
+    <col min="7" max="1022" width="37.33203125" style="2"/>
+    <col min="1023" max="1025" width="8.44140625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="8" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" s="8" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -3277,7 +3395,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>398</v>
       </c>
@@ -3294,7 +3412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>402</v>
       </c>
@@ -3311,7 +3429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>405</v>
       </c>
@@ -3328,7 +3446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>408</v>
       </c>
@@ -3345,7 +3463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>37</v>
       </c>
@@ -3362,7 +3480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>412</v>
       </c>
@@ -3379,7 +3497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>415</v>
       </c>
@@ -3407,7 +3525,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK9"/>
   <sheetViews>
@@ -3418,20 +3536,20 @@
       <selection pane="bottomRight" activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.28515625" style="42"/>
-    <col min="2" max="2" width="10.7109375" style="42"/>
-    <col min="3" max="3" width="10.42578125" style="42"/>
+    <col min="1" max="1" width="20.33203125" style="42"/>
+    <col min="2" max="2" width="10.6640625" style="42"/>
+    <col min="3" max="3" width="10.44140625" style="42"/>
     <col min="4" max="4" width="11" style="42"/>
-    <col min="5" max="5" width="6.5703125" style="42"/>
-    <col min="6" max="6" width="28.7109375" style="42"/>
+    <col min="5" max="5" width="6.5546875" style="42"/>
+    <col min="6" max="6" width="28.6640625" style="42"/>
     <col min="7" max="7" width="11" style="42"/>
     <col min="8" max="8" width="20" style="42"/>
-    <col min="9" max="1025" width="8.7109375" style="42"/>
+    <col min="9" max="1025" width="8.6640625" style="42"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="43" t="s">
         <v>416</v>
       </c>
@@ -3457,7 +3575,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="42" t="s">
         <v>398</v>
       </c>
@@ -3472,7 +3590,7 @@
       <c r="F2"/>
       <c r="H2"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="42" t="s">
         <v>402</v>
       </c>
@@ -3489,7 +3607,7 @@
       </c>
       <c r="H3"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="42" t="s">
         <v>405</v>
       </c>
@@ -3510,7 +3628,7 @@
       </c>
       <c r="H4"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="42" t="s">
         <v>408</v>
       </c>
@@ -3525,7 +3643,7 @@
       </c>
       <c r="H5"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="42" t="s">
         <v>37</v>
       </c>
@@ -3540,7 +3658,7 @@
       </c>
       <c r="H6"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="42" t="s">
         <v>37</v>
       </c>
@@ -3552,7 +3670,7 @@
       </c>
       <c r="H7"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="42" t="s">
         <v>412</v>
       </c>
@@ -3566,7 +3684,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="42" t="s">
         <v>415</v>
       </c>
@@ -3587,22 +3705,22 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="5" width="8.5703125"/>
-    <col min="6" max="6" width="10.5703125"/>
-    <col min="7" max="7" width="11.140625"/>
-    <col min="8" max="8" width="20.5703125"/>
-    <col min="9" max="1025" width="8.5703125"/>
+    <col min="1" max="5" width="8.5546875"/>
+    <col min="6" max="6" width="10.5546875"/>
+    <col min="7" max="7" width="11.109375"/>
+    <col min="8" max="8" width="20.5546875"/>
+    <col min="9" max="1025" width="8.5546875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -3628,7 +3746,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>437</v>
       </c>
@@ -3648,7 +3766,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>441</v>
       </c>
@@ -3668,7 +3786,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>444</v>
       </c>
@@ -3688,7 +3806,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>446</v>
       </c>
@@ -3711,114 +3829,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G5"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="17.7109375"/>
-    <col min="2" max="2" width="15.5703125"/>
-    <col min="4" max="4" width="13.140625"/>
-    <col min="5" max="5" width="10.5703125"/>
-    <col min="6" max="6" width="11.140625"/>
-    <col min="7" max="7" width="19.85546875"/>
-    <col min="1021" max="1025" width="8.7109375"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
-        <v>352</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>373</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>374</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>448</v>
-      </c>
-      <c r="B2" t="s">
-        <v>449</v>
-      </c>
-      <c r="C2" s="46">
-        <v>3.0000000000000001E-12</v>
-      </c>
-      <c r="D2" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>451</v>
-      </c>
-      <c r="B3" t="s">
-        <v>452</v>
-      </c>
-      <c r="C3" s="46">
-        <v>10000000</v>
-      </c>
-      <c r="D3" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>454</v>
-      </c>
-      <c r="B4" t="s">
-        <v>455</v>
-      </c>
-      <c r="C4">
-        <v>0.7</v>
-      </c>
-      <c r="D4" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>457</v>
-      </c>
-      <c r="B5" t="s">
-        <v>458</v>
-      </c>
-      <c r="C5">
-        <v>71280</v>
-      </c>
-      <c r="D5" t="s">
-        <v>459</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
-  <headerFooter>
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
 </worksheet>
 </file>
 
@@ -3833,14 +3843,14 @@
       <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" style="6"/>
-    <col min="2" max="2" width="51.140625" style="2"/>
-    <col min="3" max="1025" width="8.42578125"/>
+    <col min="1" max="1" width="16.44140625" style="6"/>
+    <col min="2" max="2" width="51.109375" style="2"/>
+    <col min="3" max="1025" width="8.44140625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3848,7 +3858,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>2</v>
       </c>
@@ -3856,7 +3866,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>14</v>
       </c>
@@ -3864,7 +3874,7 @@
         <v>9606</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>11</v>
       </c>
@@ -3878,20 +3888,128 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.6640625"/>
+    <col min="2" max="2" width="15.5546875"/>
+    <col min="4" max="4" width="13.109375"/>
+    <col min="5" max="5" width="10.5546875"/>
+    <col min="6" max="6" width="11.109375"/>
+    <col min="7" max="7" width="19.88671875"/>
+    <col min="1021" max="1025" width="8.6640625"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>373</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>448</v>
+      </c>
+      <c r="B2" t="s">
+        <v>449</v>
+      </c>
+      <c r="C2" s="46">
+        <v>3.0000000000000001E-12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>451</v>
+      </c>
+      <c r="B3" t="s">
+        <v>452</v>
+      </c>
+      <c r="C3" s="46">
+        <v>10000000</v>
+      </c>
+      <c r="D3" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>454</v>
+      </c>
+      <c r="B4" t="s">
+        <v>455</v>
+      </c>
+      <c r="C4">
+        <v>0.7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>457</v>
+      </c>
+      <c r="B5" t="s">
+        <v>458</v>
+      </c>
+      <c r="C5">
+        <v>71280</v>
+      </c>
+      <c r="D5" t="s">
+        <v>459</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.5703125"/>
-    <col min="2" max="2" width="18.5703125"/>
-    <col min="3" max="1025" width="8.5703125"/>
+    <col min="1" max="1" width="8.5546875"/>
+    <col min="2" max="2" width="18.5546875"/>
+    <col min="3" max="1025" width="8.5546875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>460</v>
       </c>
@@ -3899,7 +4017,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>364</v>
       </c>
@@ -3907,7 +4025,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>380</v>
       </c>
@@ -3915,7 +4033,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>464</v>
       </c>
@@ -3937,19 +4055,19 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="7"/>
-    <col min="2" max="2" width="16.140625" style="2"/>
-    <col min="3" max="3" width="17.7109375" style="2"/>
-    <col min="4" max="4" width="11.28515625" style="2"/>
-    <col min="5" max="5" width="11.140625" style="2"/>
-    <col min="6" max="6" width="20.5703125" style="2"/>
-    <col min="7" max="1020" width="9.140625" style="2"/>
-    <col min="1024" max="1025" width="8.7109375"/>
+    <col min="1" max="1" width="9.109375" style="7"/>
+    <col min="2" max="2" width="16.109375" style="2"/>
+    <col min="3" max="3" width="17.6640625" style="2"/>
+    <col min="4" max="4" width="11.33203125" style="2"/>
+    <col min="5" max="5" width="11.109375" style="2"/>
+    <col min="6" max="6" width="20.5546875" style="2"/>
+    <col min="7" max="1020" width="9.109375" style="2"/>
+    <col min="1024" max="1025" width="8.6640625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="8" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" s="8" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -3969,7 +4087,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>18</v>
       </c>
@@ -3986,7 +4104,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>22</v>
       </c>
@@ -3998,7 +4116,7 @@
       </c>
       <c r="F3"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>24</v>
       </c>
@@ -4012,7 +4130,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>27</v>
       </c>
@@ -4038,19 +4156,19 @@
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.85546875" style="9"/>
-    <col min="2" max="2" width="39.42578125" style="9"/>
-    <col min="3" max="3" width="13.7109375" style="2"/>
-    <col min="4" max="4" width="10.7109375" style="2"/>
+    <col min="1" max="1" width="23.88671875" style="9"/>
+    <col min="2" max="2" width="39.44140625" style="9"/>
+    <col min="3" max="3" width="13.6640625" style="2"/>
+    <col min="4" max="4" width="10.6640625" style="2"/>
     <col min="5" max="5" width="55" style="9"/>
-    <col min="6" max="6" width="9.140625" style="2"/>
-    <col min="7" max="7" width="19.85546875" style="2"/>
-    <col min="8" max="1022" width="9.140625" style="2"/>
+    <col min="6" max="6" width="9.109375" style="2"/>
+    <col min="7" max="7" width="19.88671875" style="2"/>
+    <col min="8" max="1022" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="8" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" s="8" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -4073,7 +4191,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>31</v>
       </c>
@@ -4081,7 +4199,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>33</v>
       </c>
@@ -4092,7 +4210,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>36</v>
       </c>
@@ -4100,7 +4218,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>38</v>
       </c>
@@ -4108,7 +4226,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
         <v>40</v>
       </c>
@@ -4119,7 +4237,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>43</v>
       </c>
@@ -4130,7 +4248,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
         <v>46</v>
       </c>
@@ -4141,7 +4259,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>49</v>
       </c>
@@ -4166,24 +4284,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.140625" style="7"/>
+    <col min="1" max="1" width="14.109375" style="7"/>
     <col min="2" max="2" width="13" style="11"/>
-    <col min="3" max="4" width="11.7109375" style="2"/>
-    <col min="5" max="5" width="22.140625" style="2"/>
-    <col min="6" max="6" width="9.140625" style="2"/>
-    <col min="7" max="8" width="13.42578125" style="2"/>
-    <col min="9" max="9" width="13.42578125"/>
-    <col min="10" max="10" width="19.85546875"/>
-    <col min="11" max="12" width="13.42578125"/>
+    <col min="3" max="4" width="11.6640625" style="2"/>
+    <col min="5" max="5" width="22.109375" style="2"/>
+    <col min="6" max="6" width="9.109375" style="2"/>
+    <col min="7" max="8" width="13.44140625" style="2"/>
+    <col min="9" max="9" width="13.44140625"/>
+    <col min="10" max="10" width="19.88671875"/>
+    <col min="11" max="12" width="13.44140625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -4215,7 +4333,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>56</v>
       </c>
@@ -4234,7 +4352,7 @@
       </c>
       <c r="G2" s="11"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>57</v>
       </c>
@@ -4251,7 +4369,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>58</v>
       </c>
@@ -4268,7 +4386,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>59</v>
       </c>
@@ -4285,7 +4403,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>60</v>
       </c>
@@ -4302,7 +4420,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>61</v>
       </c>
@@ -4319,7 +4437,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>62</v>
       </c>
@@ -4336,7 +4454,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>63</v>
       </c>
@@ -4353,7 +4471,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>64</v>
       </c>
@@ -4370,7 +4488,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>65</v>
       </c>
@@ -4387,7 +4505,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>66</v>
       </c>
@@ -4404,7 +4522,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>67</v>
       </c>
@@ -4421,7 +4539,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>68</v>
       </c>
@@ -4438,7 +4556,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>69</v>
       </c>
@@ -4455,7 +4573,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>70</v>
       </c>
@@ -4472,7 +4590,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>71</v>
       </c>
@@ -4489,7 +4607,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>72</v>
       </c>
@@ -4506,7 +4624,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>73</v>
       </c>
@@ -4523,7 +4641,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>74</v>
       </c>
@@ -4540,7 +4658,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>75</v>
       </c>
@@ -4557,7 +4675,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
         <v>76</v>
       </c>
@@ -4574,7 +4692,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
         <v>77</v>
       </c>
@@ -4591,7 +4709,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
         <v>78</v>
       </c>
@@ -4608,7 +4726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
         <v>79</v>
       </c>
@@ -4625,7 +4743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
         <v>80</v>
       </c>
@@ -4660,19 +4778,19 @@
       <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" style="11"/>
-    <col min="2" max="2" width="16.42578125" style="11"/>
-    <col min="3" max="3" width="42.42578125" style="13"/>
-    <col min="4" max="6" width="13.42578125" style="14"/>
-    <col min="7" max="8" width="13.42578125" style="11"/>
-    <col min="9" max="9" width="16.42578125" style="15"/>
-    <col min="10" max="1023" width="32.5703125" style="2"/>
-    <col min="1024" max="1025" width="8.42578125"/>
+    <col min="1" max="1" width="17.44140625" style="11"/>
+    <col min="2" max="2" width="16.44140625" style="11"/>
+    <col min="3" max="3" width="42.44140625" style="13"/>
+    <col min="4" max="6" width="13.44140625" style="14"/>
+    <col min="7" max="8" width="13.44140625" style="11"/>
+    <col min="9" max="9" width="16.44140625" style="15"/>
+    <col min="10" max="1023" width="32.5546875" style="2"/>
+    <col min="1024" max="1025" width="8.44140625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1023" s="8" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1023" s="8" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -4713,7 +4831,7 @@
       <c r="AMH1" s="2"/>
       <c r="AMI1" s="2"/>
     </row>
-    <row r="2" spans="1:1023" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1023" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>87</v>
       </c>
@@ -4739,7 +4857,7 @@
         <v>20651511</v>
       </c>
     </row>
-    <row r="3" spans="1:1023" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1023" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
         <v>92</v>
       </c>
@@ -4765,7 +4883,7 @@
         <v>10448504</v>
       </c>
     </row>
-    <row r="4" spans="1:1023" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1023" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
         <v>96</v>
       </c>
@@ -4791,7 +4909,7 @@
         <v>69387254</v>
       </c>
     </row>
-    <row r="5" spans="1:1023" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1023" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>99</v>
       </c>
@@ -4817,7 +4935,7 @@
         <v>40574685</v>
       </c>
     </row>
-    <row r="6" spans="1:1023" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1023" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
         <v>102</v>
       </c>
@@ -4843,7 +4961,7 @@
         <v>112649530</v>
       </c>
     </row>
-    <row r="7" spans="1:1023" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1023" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
         <v>105</v>
       </c>
@@ -4869,7 +4987,7 @@
         <v>83605875</v>
       </c>
     </row>
-    <row r="8" spans="1:1023" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1023" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
         <v>108</v>
       </c>
@@ -4895,7 +5013,7 @@
         <v>127899195</v>
       </c>
     </row>
-    <row r="9" spans="1:1023" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1023" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>111</v>
       </c>
@@ -4921,7 +5039,7 @@
         <v>160421711</v>
       </c>
     </row>
-    <row r="10" spans="1:1023" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1023" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
         <v>114</v>
       </c>
@@ -4947,7 +5065,7 @@
         <v>152129619</v>
       </c>
     </row>
-    <row r="11" spans="1:1023" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1023" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
         <v>117</v>
       </c>
@@ -4973,7 +5091,7 @@
         <v>56051604</v>
       </c>
     </row>
-    <row r="12" spans="1:1023" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1023" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
         <v>120</v>
       </c>
@@ -4999,7 +5117,7 @@
         <v>18084998</v>
       </c>
     </row>
-    <row r="13" spans="1:1023" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1023" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
         <v>123</v>
       </c>
@@ -5025,7 +5143,7 @@
         <v>19967258</v>
       </c>
     </row>
-    <row r="14" spans="1:1023" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1023" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
         <v>126</v>
       </c>
@@ -5051,7 +5169,7 @@
         <v>136423761</v>
       </c>
     </row>
-    <row r="15" spans="1:1023" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1023" x14ac:dyDescent="0.3">
       <c r="A15" s="11" t="s">
         <v>129</v>
       </c>
@@ -5077,7 +5195,7 @@
         <v>7787981</v>
       </c>
     </row>
-    <row r="16" spans="1:1023" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1023" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
         <v>132</v>
       </c>
@@ -5103,7 +5221,7 @@
         <v>133421307</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="11" t="s">
         <v>135</v>
       </c>
@@ -5129,7 +5247,7 @@
         <v>13732346</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="11" t="s">
         <v>138</v>
       </c>
@@ -5155,7 +5273,7 @@
         <v>114450279</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="11" t="s">
         <v>141</v>
       </c>
@@ -5181,7 +5299,7 @@
         <v>77065580</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="11" t="s">
         <v>144</v>
       </c>
@@ -5207,7 +5325,7 @@
         <v>113359493</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="11" t="s">
         <v>147</v>
       </c>
@@ -5233,7 +5351,7 @@
         <v>52476628</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="11" t="s">
         <v>150</v>
       </c>
@@ -5259,7 +5377,7 @@
         <v>103057462</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="11" t="s">
         <v>153</v>
       </c>
@@ -5285,7 +5403,7 @@
         <v>65578352</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="11" t="s">
         <v>156</v>
       </c>
@@ -5311,7 +5429,7 @@
         <v>101251932</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="11" t="s">
         <v>159</v>
       </c>
@@ -5337,7 +5455,7 @@
         <v>89155846</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="11" t="s">
         <v>162</v>
       </c>
@@ -5363,7 +5481,7 @@
         <v>49223225</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="11" t="s">
         <v>165</v>
       </c>
@@ -5389,7 +5507,7 @@
         <v>50988121</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="11" t="s">
         <v>168</v>
       </c>
@@ -5415,7 +5533,7 @@
         <v>41440717</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="11" t="s">
         <v>171</v>
       </c>
@@ -5441,7 +5559,7 @@
         <v>47784686</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="11" t="s">
         <v>174</v>
       </c>
@@ -5467,7 +5585,7 @@
         <v>13638940</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="11" t="s">
         <v>177</v>
       </c>
@@ -5493,7 +5611,7 @@
         <v>44652233</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="11" t="s">
         <v>180</v>
       </c>
@@ -5519,7 +5637,7 @@
         <v>31668931</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="11" t="s">
         <v>183</v>
       </c>
@@ -5545,7 +5663,7 @@
         <v>20859417</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="11" t="s">
         <v>186</v>
       </c>
@@ -5571,7 +5689,7 @@
         <v>38738299</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="11" t="s">
         <v>189</v>
       </c>
@@ -5597,7 +5715,7 @@
         <v>119605895</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="11" t="s">
         <v>192</v>
       </c>
@@ -5623,7 +5741,7 @@
         <v>23005465</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="11" t="s">
         <v>195</v>
       </c>
@@ -5668,26 +5786,26 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="16.42578125" style="11"/>
+    <col min="1" max="3" width="16.44140625" style="11"/>
     <col min="4" max="4" width="22" style="11"/>
-    <col min="5" max="5" width="13.7109375" style="11"/>
-    <col min="6" max="6" width="25.140625" style="11"/>
-    <col min="7" max="7" width="13.42578125" style="11"/>
-    <col min="8" max="8" width="23.28515625" style="11"/>
-    <col min="9" max="9" width="25.140625" style="2"/>
-    <col min="10" max="10" width="19.85546875"/>
-    <col min="11" max="11" width="9.140625" style="14"/>
-    <col min="12" max="12" width="10.42578125" style="14"/>
-    <col min="13" max="13" width="10.7109375" style="14"/>
-    <col min="14" max="15" width="9.140625" style="11"/>
-    <col min="16" max="16" width="22.85546875" style="14"/>
-    <col min="17" max="1012" width="9.140625" style="11"/>
-    <col min="1013" max="1021" width="9.140625" style="2"/>
+    <col min="5" max="5" width="13.6640625" style="11"/>
+    <col min="6" max="6" width="25.109375" style="11"/>
+    <col min="7" max="7" width="13.44140625" style="11"/>
+    <col min="8" max="8" width="23.33203125" style="11"/>
+    <col min="9" max="9" width="25.109375" style="2"/>
+    <col min="10" max="10" width="19.88671875"/>
+    <col min="11" max="11" width="9.109375" style="14"/>
+    <col min="12" max="12" width="10.44140625" style="14"/>
+    <col min="13" max="13" width="10.6640625" style="14"/>
+    <col min="14" max="15" width="9.109375" style="11"/>
+    <col min="16" max="16" width="22.88671875" style="14"/>
+    <col min="17" max="1012" width="9.109375" style="11"/>
+    <col min="1013" max="1021" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1021" s="8" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1021" s="8" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -5734,7 +5852,7 @@
       <c r="AMF1" s="1"/>
       <c r="AMG1" s="1"/>
     </row>
-    <row r="2" spans="1:1021" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1021" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>199</v>
       </c>
@@ -5761,7 +5879,7 @@
       <c r="N2" s="22"/>
       <c r="O2" s="22"/>
     </row>
-    <row r="3" spans="1:1021" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1021" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
         <v>203</v>
       </c>
@@ -5788,7 +5906,7 @@
       <c r="N3" s="22"/>
       <c r="O3" s="22"/>
     </row>
-    <row r="4" spans="1:1021" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1021" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
         <v>206</v>
       </c>
@@ -5815,7 +5933,7 @@
       <c r="N4" s="22"/>
       <c r="O4" s="22"/>
     </row>
-    <row r="5" spans="1:1021" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1021" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>210</v>
       </c>
@@ -5842,7 +5960,7 @@
       <c r="N5" s="22"/>
       <c r="O5" s="22"/>
     </row>
-    <row r="6" spans="1:1021" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1021" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
         <v>214</v>
       </c>
@@ -5869,7 +5987,7 @@
       <c r="N6" s="22"/>
       <c r="O6" s="22"/>
     </row>
-    <row r="7" spans="1:1021" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1021" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
         <v>217</v>
       </c>
@@ -5896,7 +6014,7 @@
       <c r="N7" s="22"/>
       <c r="O7" s="22"/>
     </row>
-    <row r="8" spans="1:1021" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1021" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
         <v>219</v>
       </c>
@@ -5923,7 +6041,7 @@
       <c r="N8" s="22"/>
       <c r="O8" s="22"/>
     </row>
-    <row r="9" spans="1:1021" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1021" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>222</v>
       </c>
@@ -5950,7 +6068,7 @@
       <c r="N9" s="22"/>
       <c r="O9" s="22"/>
     </row>
-    <row r="10" spans="1:1021" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1021" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
         <v>224</v>
       </c>
@@ -5977,7 +6095,7 @@
       <c r="N10" s="22"/>
       <c r="O10" s="22"/>
     </row>
-    <row r="11" spans="1:1021" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1021" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
         <v>226</v>
       </c>
@@ -6004,7 +6122,7 @@
       <c r="N11" s="22"/>
       <c r="O11" s="22"/>
     </row>
-    <row r="12" spans="1:1021" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1021" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
         <v>228</v>
       </c>
@@ -6031,7 +6149,7 @@
       <c r="N12" s="22"/>
       <c r="O12" s="22"/>
     </row>
-    <row r="13" spans="1:1021" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1021" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
         <v>230</v>
       </c>
@@ -6058,7 +6176,7 @@
       <c r="N13" s="22"/>
       <c r="O13" s="22"/>
     </row>
-    <row r="14" spans="1:1021" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1021" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
         <v>232</v>
       </c>
@@ -6085,7 +6203,7 @@
       <c r="N14" s="22"/>
       <c r="O14" s="22"/>
     </row>
-    <row r="15" spans="1:1021" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1021" x14ac:dyDescent="0.3">
       <c r="A15" s="11" t="s">
         <v>234</v>
       </c>
@@ -6112,7 +6230,7 @@
       <c r="N15" s="22"/>
       <c r="O15" s="22"/>
     </row>
-    <row r="16" spans="1:1021" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1021" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
         <v>237</v>
       </c>
@@ -6139,7 +6257,7 @@
       <c r="N16" s="22"/>
       <c r="O16" s="22"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="11" t="s">
         <v>239</v>
       </c>
@@ -6166,7 +6284,7 @@
       <c r="N17" s="22"/>
       <c r="O17" s="22"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="11" t="s">
         <v>241</v>
       </c>
@@ -6193,7 +6311,7 @@
       <c r="N18" s="22"/>
       <c r="O18" s="22"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="11" t="s">
         <v>243</v>
       </c>
@@ -6220,7 +6338,7 @@
       <c r="N19" s="22"/>
       <c r="O19" s="22"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" s="11" t="s">
         <v>245</v>
       </c>
@@ -6247,7 +6365,7 @@
       <c r="N20" s="22"/>
       <c r="O20" s="22"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="11" t="s">
         <v>247</v>
       </c>
@@ -6274,7 +6392,7 @@
       <c r="N21" s="22"/>
       <c r="O21" s="22"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" s="11" t="s">
         <v>249</v>
       </c>
@@ -6301,7 +6419,7 @@
       <c r="N22" s="22"/>
       <c r="O22" s="22"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" s="11" t="s">
         <v>251</v>
       </c>
@@ -6328,7 +6446,7 @@
       <c r="N23" s="22"/>
       <c r="O23" s="22"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" s="11" t="s">
         <v>253</v>
       </c>
@@ -6355,7 +6473,7 @@
       <c r="N24" s="22"/>
       <c r="O24" s="22"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" s="11" t="s">
         <v>255</v>
       </c>
@@ -6382,7 +6500,7 @@
       <c r="N25" s="22"/>
       <c r="O25" s="22"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" s="11" t="s">
         <v>257</v>
       </c>
@@ -6409,7 +6527,7 @@
       <c r="N26" s="22"/>
       <c r="O26" s="22"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" s="11" t="s">
         <v>259</v>
       </c>
@@ -6436,7 +6554,7 @@
       <c r="N27" s="22"/>
       <c r="O27" s="22"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" s="11" t="s">
         <v>261</v>
       </c>
@@ -6463,7 +6581,7 @@
       <c r="N28" s="22"/>
       <c r="O28" s="22"/>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" s="11" t="s">
         <v>263</v>
       </c>
@@ -6490,7 +6608,7 @@
       <c r="N29" s="22"/>
       <c r="O29" s="22"/>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" s="11" t="s">
         <v>265</v>
       </c>
@@ -6517,7 +6635,7 @@
       <c r="N30" s="22"/>
       <c r="O30" s="22"/>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31" s="11" t="s">
         <v>267</v>
       </c>
@@ -6544,7 +6662,7 @@
       <c r="N31" s="22"/>
       <c r="O31" s="22"/>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" s="11" t="s">
         <v>269</v>
       </c>
@@ -6571,7 +6689,7 @@
       <c r="N32" s="22"/>
       <c r="O32" s="22"/>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33" s="11" t="s">
         <v>271</v>
       </c>
@@ -6598,7 +6716,7 @@
       <c r="N33" s="22"/>
       <c r="O33" s="22"/>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34" s="11" t="s">
         <v>273</v>
       </c>
@@ -6625,7 +6743,7 @@
       <c r="N34" s="22"/>
       <c r="O34" s="22"/>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A35" s="11" t="s">
         <v>275</v>
       </c>
@@ -6652,7 +6770,7 @@
       <c r="N35" s="22"/>
       <c r="O35" s="22"/>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36" s="11" t="s">
         <v>277</v>
       </c>
@@ -6679,7 +6797,7 @@
       <c r="N36" s="22"/>
       <c r="O36" s="22"/>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A37" s="11" t="s">
         <v>279</v>
       </c>
@@ -6725,21 +6843,21 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" style="11"/>
-    <col min="2" max="2" width="50.5703125" style="11"/>
-    <col min="3" max="3" width="22.85546875" style="15"/>
-    <col min="4" max="4" width="13.42578125" style="23"/>
-    <col min="5" max="5" width="19.85546875" style="14"/>
-    <col min="6" max="6" width="10.7109375" style="14"/>
-    <col min="7" max="8" width="9.140625" style="11"/>
-    <col min="9" max="1016" width="9.140625" style="23"/>
-    <col min="1017" max="1019" width="8.42578125"/>
-    <col min="1020" max="1025" width="8.7109375"/>
+    <col min="1" max="1" width="17.44140625" style="11"/>
+    <col min="2" max="2" width="50.5546875" style="11"/>
+    <col min="3" max="3" width="22.88671875" style="15"/>
+    <col min="4" max="4" width="13.44140625" style="23"/>
+    <col min="5" max="5" width="19.88671875" style="14"/>
+    <col min="6" max="6" width="10.6640625" style="14"/>
+    <col min="7" max="8" width="9.109375" style="11"/>
+    <col min="9" max="1016" width="9.109375" style="23"/>
+    <col min="1017" max="1019" width="8.44140625"/>
+    <col min="1020" max="1025" width="8.6640625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="8" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" s="8" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>281</v>
       </c>
@@ -6757,7 +6875,7 @@
       </c>
       <c r="F1" s="24"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>92</v>
       </c>
@@ -6768,7 +6886,7 @@
       <c r="H2" s="22"/>
       <c r="I2" s="11"/>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
         <v>108</v>
       </c>
@@ -6798,23 +6916,23 @@
       <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.5703125" style="14"/>
-    <col min="2" max="2" width="21.140625" style="14"/>
-    <col min="3" max="3" width="10.7109375" style="14"/>
-    <col min="4" max="4" width="22.85546875" style="15"/>
-    <col min="5" max="5" width="10.7109375"/>
-    <col min="6" max="6" width="13.42578125"/>
-    <col min="7" max="7" width="13.42578125" style="11"/>
-    <col min="8" max="8" width="13.42578125" style="25"/>
-    <col min="9" max="9" width="10.7109375" style="22"/>
-    <col min="10" max="10" width="19.85546875" style="11"/>
-    <col min="11" max="11" width="13.42578125" style="11"/>
-    <col min="12" max="1021" width="9.140625" style="2"/>
+    <col min="1" max="1" width="19.5546875" style="14"/>
+    <col min="2" max="2" width="21.109375" style="14"/>
+    <col min="3" max="3" width="10.6640625" style="14"/>
+    <col min="4" max="4" width="22.88671875" style="15"/>
+    <col min="5" max="5" width="10.6640625"/>
+    <col min="6" max="6" width="13.44140625"/>
+    <col min="7" max="7" width="13.44140625" style="11"/>
+    <col min="8" max="8" width="13.44140625" style="25"/>
+    <col min="9" max="9" width="10.6640625" style="22"/>
+    <col min="10" max="10" width="19.88671875" style="11"/>
+    <col min="11" max="11" width="13.44140625" style="11"/>
+    <col min="12" max="1021" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="26" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" s="26" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
@@ -6847,7 +6965,7 @@
       </c>
       <c r="K1" s="8"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
         <v>285</v>
       </c>
@@ -6873,7 +6991,7 @@
       <c r="J2" s="22"/>
       <c r="K2" s="28"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
         <v>287</v>
       </c>

--- a/tests/fixtures/eukaryote_core.xlsx
+++ b/tests/fixtures/eukaryote_core.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="993" firstSheet="5" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="993" firstSheet="5" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Knowledge base" sheetId="1" r:id="rId1"/>
@@ -38,32 +38,32 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="11">'Protein species types'!$A$1:$G$719</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="17">'Rate laws'!$A$1:$F$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="16">Reactions!$A$1:$F$220</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6">'Regulatory element loci'!$A$1:$H$776</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6">'Regulatory element loci'!$A$1:$K$776</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7">'Regulatory module'!$A$1:$C$849</definedName>
     <definedName name="_FilterDatabase_0" localSheetId="1">Cell!$A$1:$B$1</definedName>
     <definedName name="_FilterDatabase_0" localSheetId="5">'Gene loci'!$I$1</definedName>
     <definedName name="_FilterDatabase_0" localSheetId="0">'Knowledge base'!$A$1:$B$2</definedName>
     <definedName name="_FilterDatabase_0" localSheetId="8">'pre-RNA species types'!$A$1:$G$915</definedName>
     <definedName name="_FilterDatabase_0" localSheetId="11">'Protein species types'!$A$1:$G$719</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="6">'Regulatory element loci'!$A$1:$H$776</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="6">'Regulatory element loci'!$A$1:$K$776</definedName>
     <definedName name="_FilterDatabase_0" localSheetId="7">'Regulatory module'!$A$1:$C$849</definedName>
     <definedName name="_FilterDatabase_0_0" localSheetId="1">Cell!$A$1:$B$1</definedName>
     <definedName name="_FilterDatabase_0_0" localSheetId="5">'Gene loci'!$B$1:$H$1064</definedName>
     <definedName name="_FilterDatabase_0_0" localSheetId="0">'Knowledge base'!$A$1:$B$2</definedName>
     <definedName name="_FilterDatabase_0_0" localSheetId="8">'pre-RNA species types'!$A$1:$G$915</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="6">'Regulatory element loci'!$A$1:$H$776</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="6">'Regulatory element loci'!$A$1:$K$776</definedName>
     <definedName name="_FilterDatabase_0_0" localSheetId="7">'Regulatory module'!$A$1:$C$849</definedName>
     <definedName name="_FilterDatabase_0_0_0" localSheetId="1">Cell!$A$1:$B$1</definedName>
     <definedName name="_FilterDatabase_0_0_0" localSheetId="5">'Gene loci'!$I$1</definedName>
     <definedName name="_FilterDatabase_0_0_0" localSheetId="0">'Knowledge base'!$A$1:$B$2</definedName>
     <definedName name="_FilterDatabase_0_0_0" localSheetId="8">'pre-RNA species types'!$A$1:$G$915</definedName>
-    <definedName name="_FilterDatabase_0_0_0" localSheetId="6">'Regulatory element loci'!$A$1:$H$776</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="6">'Regulatory element loci'!$A$1:$K$776</definedName>
     <definedName name="_FilterDatabase_0_0_0" localSheetId="7">'Regulatory module'!$A$1:$C$849</definedName>
     <definedName name="_FilterDatabase_0_0_0_0" localSheetId="1">Cell!$A$1:$B$1</definedName>
     <definedName name="_FilterDatabase_0_0_0_0" localSheetId="5">'Gene loci'!$B$1:$H$1064</definedName>
     <definedName name="_FilterDatabase_0_0_0_0" localSheetId="0">'Knowledge base'!$A$1:$B$2</definedName>
     <definedName name="_FilterDatabase_0_0_0_0" localSheetId="8">'pre-RNA species types'!$A$1:$G$849</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="6">'Regulatory element loci'!$A$2:$P$849</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="6">'Regulatory element loci'!$A$2:$S$849</definedName>
     <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="1">Cell!$A$1:$B$1</definedName>
     <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="5">'Gene loci'!$I$1</definedName>
     <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="0">'Knowledge base'!$A$1:$B$2</definedName>
@@ -93,7 +93,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="471">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="901" uniqueCount="475">
   <si>
     <t>Id</t>
   </si>
@@ -1506,6 +1506,18 @@
   </si>
   <si>
     <t>Coding Region</t>
+  </si>
+  <si>
+    <t>Bound End</t>
+  </si>
+  <si>
+    <t>Bound Start</t>
+  </si>
+  <si>
+    <t>Motif Features</t>
+  </si>
+  <si>
+    <t>ENSP00000234111, ENSP00000390691</t>
   </si>
 </sst>
 </file>
@@ -2143,14 +2155,14 @@
       <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.5546875" style="1"/>
-    <col min="2" max="2" width="43.44140625" style="2"/>
-    <col min="3" max="1025" width="8.44140625"/>
+    <col min="1" max="1" width="21.5703125" style="1"/>
+    <col min="2" max="2" width="43.42578125" style="2"/>
+    <col min="3" max="1025" width="8.42578125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2158,7 +2170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -2166,7 +2178,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -2174,7 +2186,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -2182,25 +2194,25 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B5"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B6"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B7"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -2208,7 +2220,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
@@ -2228,19 +2240,19 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.44140625"/>
-    <col min="2" max="2" width="11.6640625"/>
-    <col min="3" max="4" width="8.5546875"/>
-    <col min="5" max="5" width="7.44140625"/>
-    <col min="6" max="6" width="10.44140625"/>
-    <col min="7" max="7" width="10.6640625"/>
-    <col min="8" max="8" width="19.88671875"/>
-    <col min="9" max="1025" width="8.5546875"/>
+    <col min="1" max="1" width="16.42578125"/>
+    <col min="2" max="2" width="11.7109375"/>
+    <col min="3" max="4" width="8.5703125"/>
+    <col min="5" max="5" width="7.42578125"/>
+    <col min="6" max="6" width="10.42578125"/>
+    <col min="7" max="7" width="10.7109375"/>
+    <col min="8" max="8" width="19.85546875"/>
+    <col min="9" max="1025" width="8.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="26" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="26" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
@@ -2267,7 +2279,7 @@
       </c>
       <c r="I1" s="8"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>291</v>
       </c>
@@ -2281,7 +2293,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>294</v>
       </c>
@@ -2295,7 +2307,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>297</v>
       </c>
@@ -2309,7 +2321,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>300</v>
       </c>
@@ -2337,20 +2349,20 @@
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.44140625"/>
-    <col min="2" max="2" width="12.6640625"/>
-    <col min="3" max="3" width="8.5546875"/>
+    <col min="1" max="1" width="16.42578125"/>
+    <col min="2" max="2" width="12.7109375"/>
+    <col min="3" max="3" width="8.5703125"/>
     <col min="4" max="4" width="10"/>
-    <col min="5" max="5" width="10.109375"/>
-    <col min="6" max="6" width="10.44140625"/>
-    <col min="7" max="7" width="10.6640625"/>
-    <col min="8" max="8" width="19.88671875"/>
-    <col min="9" max="1025" width="8.5546875"/>
+    <col min="5" max="5" width="10.140625"/>
+    <col min="6" max="6" width="10.42578125"/>
+    <col min="7" max="7" width="10.7109375"/>
+    <col min="8" max="8" width="19.85546875"/>
+    <col min="9" max="1025" width="8.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1021" s="26" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1021" s="26" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
@@ -2377,7 +2389,7 @@
       </c>
       <c r="I1" s="8"/>
     </row>
-    <row r="2" spans="1:1021" s="30" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1021" s="30" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>303</v>
       </c>
@@ -2396,7 +2408,7 @@
       <c r="AMF2" s="33"/>
       <c r="AMG2" s="33"/>
     </row>
-    <row r="3" spans="1:1021" s="30" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1021" s="30" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>305</v>
       </c>
@@ -2415,7 +2427,7 @@
       <c r="AMF3" s="33"/>
       <c r="AMG3" s="33"/>
     </row>
-    <row r="4" spans="1:1021" s="30" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1021" s="30" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>307</v>
       </c>
@@ -2434,7 +2446,7 @@
       <c r="AMF4" s="33"/>
       <c r="AMG4" s="33"/>
     </row>
-    <row r="5" spans="1:1021" s="30" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1021" s="30" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>309</v>
       </c>
@@ -2453,7 +2465,7 @@
       <c r="AMF5" s="33"/>
       <c r="AMG5" s="33"/>
     </row>
-    <row r="6" spans="1:1021" s="30" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1021" s="30" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
         <v>311</v>
       </c>
@@ -2472,7 +2484,7 @@
       <c r="AMF6" s="33"/>
       <c r="AMG6" s="33"/>
     </row>
-    <row r="7" spans="1:1021" s="30" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1021" s="30" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
         <v>313</v>
       </c>
@@ -2491,7 +2503,7 @@
       <c r="AMF7" s="33"/>
       <c r="AMG7" s="33"/>
     </row>
-    <row r="8" spans="1:1021" s="30" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1021" s="30" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
         <v>315</v>
       </c>
@@ -2510,7 +2522,7 @@
       <c r="AMF8" s="33"/>
       <c r="AMG8" s="33"/>
     </row>
-    <row r="9" spans="1:1021" s="30" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1021" s="30" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
         <v>317</v>
       </c>
@@ -2529,7 +2541,7 @@
       <c r="AMF9" s="33"/>
       <c r="AMG9" s="33"/>
     </row>
-    <row r="10" spans="1:1021" s="30" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1021" s="30" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="29" t="s">
         <v>319</v>
       </c>
@@ -2548,7 +2560,7 @@
       <c r="AMF10" s="33"/>
       <c r="AMG10" s="33"/>
     </row>
-    <row r="11" spans="1:1021" s="30" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1021" s="30" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="29" t="s">
         <v>321</v>
       </c>
@@ -2567,7 +2579,7 @@
       <c r="AMF11" s="33"/>
       <c r="AMG11" s="33"/>
     </row>
-    <row r="12" spans="1:1021" s="30" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1021" s="30" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="29" t="s">
         <v>323</v>
       </c>
@@ -2586,7 +2598,7 @@
       <c r="AMF12" s="33"/>
       <c r="AMG12" s="33"/>
     </row>
-    <row r="13" spans="1:1021" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1021" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>325</v>
       </c>
@@ -2603,7 +2615,7 @@
         <v>10448121</v>
       </c>
     </row>
-    <row r="14" spans="1:1021" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1021" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>327</v>
       </c>
@@ -2620,7 +2632,7 @@
         <v>10440601</v>
       </c>
     </row>
-    <row r="15" spans="1:1021" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1021" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>329</v>
       </c>
@@ -2637,7 +2649,7 @@
         <v>10447474</v>
       </c>
     </row>
-    <row r="16" spans="1:1021" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1021" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>331</v>
       </c>
@@ -2654,7 +2666,7 @@
         <v>10444544</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>333</v>
       </c>
@@ -2671,7 +2683,7 @@
         <v>10447628</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>335</v>
       </c>
@@ -2688,7 +2700,7 @@
         <v>10444095</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>337</v>
       </c>
@@ -2705,7 +2717,7 @@
         <v>10444474</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>339</v>
       </c>
@@ -2722,7 +2734,7 @@
         <v>10444931</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>341</v>
       </c>
@@ -2749,26 +2761,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMG4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.33203125" style="13"/>
-    <col min="2" max="2" width="33.88671875" style="13"/>
-    <col min="3" max="3" width="16.44140625" style="14"/>
-    <col min="4" max="4" width="16.44140625" style="11"/>
-    <col min="5" max="5" width="25.5546875" style="30" customWidth="1"/>
-    <col min="6" max="6" width="10.44140625" style="2"/>
-    <col min="7" max="7" width="40.33203125" style="13"/>
-    <col min="8" max="8" width="9.109375" style="2"/>
-    <col min="9" max="9" width="19.88671875" style="2"/>
-    <col min="10" max="1021" width="9.109375" style="2"/>
-    <col min="1024" max="1026" width="8.6640625"/>
+    <col min="1" max="1" width="20.28515625" style="13"/>
+    <col min="2" max="2" width="33.85546875" style="13"/>
+    <col min="3" max="3" width="16.42578125" style="14"/>
+    <col min="4" max="4" width="16.42578125" style="11"/>
+    <col min="5" max="5" width="25.5703125" style="30" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" style="2"/>
+    <col min="7" max="7" width="40.28515625" style="13"/>
+    <col min="8" max="8" width="9.140625" style="2"/>
+    <col min="9" max="9" width="19.85546875" style="2"/>
+    <col min="10" max="1021" width="9.140625" style="2"/>
+    <col min="1024" max="1026" width="8.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="8" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="8" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -2797,7 +2809,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>346</v>
       </c>
@@ -2814,7 +2826,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>349</v>
       </c>
@@ -2831,7 +2843,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>350</v>
       </c>
@@ -2867,18 +2879,18 @@
       <selection activeCell="A2" sqref="A2:A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.88671875" customWidth="1"/>
-    <col min="2" max="2" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.85546875" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
@@ -2904,7 +2916,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>467</v>
       </c>
@@ -2918,7 +2930,7 @@
         <v>10448100</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>468</v>
       </c>
@@ -2932,7 +2944,7 @@
         <v>10447000</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>469</v>
       </c>
@@ -2959,24 +2971,24 @@
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38.6640625" style="2"/>
+    <col min="1" max="1" width="38.7109375" style="2"/>
     <col min="2" max="2" width="46" style="35"/>
-    <col min="3" max="3" width="32.88671875" style="2"/>
+    <col min="3" max="3" width="32.85546875" style="2"/>
     <col min="4" max="4" width="45" style="36"/>
-    <col min="5" max="5" width="29.33203125" style="36"/>
-    <col min="6" max="6" width="16.44140625" style="11"/>
-    <col min="7" max="8" width="8.44140625" style="2"/>
-    <col min="9" max="9" width="13.44140625" style="2"/>
-    <col min="10" max="10" width="37.33203125" style="2"/>
-    <col min="11" max="11" width="13.44140625" style="2"/>
-    <col min="12" max="12" width="19.88671875" style="2"/>
-    <col min="13" max="1022" width="8.44140625" style="2"/>
-    <col min="1023" max="1025" width="8.44140625"/>
+    <col min="5" max="5" width="29.28515625" style="36"/>
+    <col min="6" max="6" width="16.42578125" style="11"/>
+    <col min="7" max="8" width="8.42578125" style="2"/>
+    <col min="9" max="9" width="13.42578125" style="2"/>
+    <col min="10" max="10" width="37.28515625" style="2"/>
+    <col min="11" max="11" width="13.42578125" style="2"/>
+    <col min="12" max="12" width="19.85546875" style="2"/>
+    <col min="13" max="1022" width="8.42578125" style="2"/>
+    <col min="1023" max="1025" width="8.42578125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="37" t="s">
         <v>352</v>
       </c>
@@ -3014,7 +3026,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>359</v>
       </c>
@@ -3039,7 +3051,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>365</v>
       </c>
@@ -3061,7 +3073,7 @@
       <c r="J3" s="13"/>
       <c r="K3" s="13"/>
     </row>
-    <row r="4" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>367</v>
       </c>
@@ -3083,7 +3095,7 @@
       <c r="J4" s="13"/>
       <c r="K4" s="13"/>
     </row>
-    <row r="5" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>369</v>
       </c>
@@ -3123,18 +3135,18 @@
       <selection pane="bottomRight" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.44140625" style="39"/>
-    <col min="2" max="2" width="8.5546875" style="39"/>
-    <col min="3" max="3" width="11.5546875" style="39"/>
-    <col min="4" max="4" width="10.44140625" style="39"/>
-    <col min="5" max="5" width="10.6640625" style="39"/>
-    <col min="6" max="6" width="19.88671875" style="39"/>
-    <col min="7" max="1025" width="8.5546875" style="39"/>
+    <col min="1" max="1" width="19.42578125" style="39"/>
+    <col min="2" max="2" width="8.5703125" style="39"/>
+    <col min="3" max="3" width="11.5703125" style="39"/>
+    <col min="4" max="4" width="10.42578125" style="39"/>
+    <col min="5" max="5" width="10.7109375" style="39"/>
+    <col min="6" max="6" width="19.85546875" style="39"/>
+    <col min="7" max="1025" width="8.5703125" style="39"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="40" customFormat="1" ht="15.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="40" customFormat="1" ht="15.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="40" t="s">
         <v>372</v>
       </c>
@@ -3154,7 +3166,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="39" t="s">
         <v>375</v>
       </c>
@@ -3168,7 +3180,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="15.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="39" t="s">
         <v>378</v>
       </c>
@@ -3182,7 +3194,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="15.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="39" t="s">
         <v>381</v>
       </c>
@@ -3193,7 +3205,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="15.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="39" t="s">
         <v>383</v>
       </c>
@@ -3204,7 +3216,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="15.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="39" t="s">
         <v>384</v>
       </c>
@@ -3215,7 +3227,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="15.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="39" t="s">
         <v>385</v>
       </c>
@@ -3226,7 +3238,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="15.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="39" t="s">
         <v>386</v>
       </c>
@@ -3237,7 +3249,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="15.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="39" t="s">
         <v>387</v>
       </c>
@@ -3248,7 +3260,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="15.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="41" t="s">
         <v>388</v>
       </c>
@@ -3259,7 +3271,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="15.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="41" t="s">
         <v>389</v>
       </c>
@@ -3270,7 +3282,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="15.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="41" t="s">
         <v>390</v>
       </c>
@@ -3295,17 +3307,17 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16"/>
-    <col min="4" max="4" width="15.44140625"/>
+    <col min="4" max="4" width="15.42578125"/>
     <col min="5" max="5" width="14"/>
-    <col min="6" max="6" width="10.5546875"/>
-    <col min="7" max="7" width="11.109375"/>
-    <col min="8" max="8" width="20.5546875"/>
+    <col min="6" max="6" width="10.5703125"/>
+    <col min="7" max="7" width="11.140625"/>
+    <col min="8" max="8" width="20.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="8" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="8" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -3331,7 +3343,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>393</v>
       </c>
@@ -3357,19 +3369,19 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.6640625" style="2"/>
-    <col min="2" max="2" width="23.44140625" style="2"/>
-    <col min="3" max="3" width="17.6640625" style="2"/>
-    <col min="4" max="4" width="18.6640625" style="2"/>
-    <col min="5" max="5" width="12.6640625" style="2"/>
-    <col min="6" max="6" width="14.6640625" style="2"/>
-    <col min="7" max="1022" width="37.33203125" style="2"/>
-    <col min="1023" max="1025" width="8.44140625"/>
+    <col min="1" max="1" width="18.7109375" style="2"/>
+    <col min="2" max="2" width="23.42578125" style="2"/>
+    <col min="3" max="3" width="17.7109375" style="2"/>
+    <col min="4" max="4" width="18.7109375" style="2"/>
+    <col min="5" max="5" width="12.7109375" style="2"/>
+    <col min="6" max="6" width="14.7109375" style="2"/>
+    <col min="7" max="1022" width="37.28515625" style="2"/>
+    <col min="1023" max="1025" width="8.42578125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="8" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="8" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -3395,7 +3407,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>398</v>
       </c>
@@ -3412,7 +3424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>402</v>
       </c>
@@ -3429,7 +3441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>405</v>
       </c>
@@ -3446,7 +3458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>408</v>
       </c>
@@ -3463,7 +3475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>37</v>
       </c>
@@ -3480,7 +3492,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>412</v>
       </c>
@@ -3497,7 +3509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>415</v>
       </c>
@@ -3536,20 +3548,20 @@
       <selection pane="bottomRight" activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.33203125" style="42"/>
-    <col min="2" max="2" width="10.6640625" style="42"/>
-    <col min="3" max="3" width="10.44140625" style="42"/>
+    <col min="1" max="1" width="20.28515625" style="42"/>
+    <col min="2" max="2" width="10.7109375" style="42"/>
+    <col min="3" max="3" width="10.42578125" style="42"/>
     <col min="4" max="4" width="11" style="42"/>
-    <col min="5" max="5" width="6.5546875" style="42"/>
-    <col min="6" max="6" width="28.6640625" style="42"/>
+    <col min="5" max="5" width="6.5703125" style="42"/>
+    <col min="6" max="6" width="28.7109375" style="42"/>
     <col min="7" max="7" width="11" style="42"/>
     <col min="8" max="8" width="20" style="42"/>
-    <col min="9" max="1025" width="8.6640625" style="42"/>
+    <col min="9" max="1025" width="8.7109375" style="42"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="43" t="s">
         <v>416</v>
       </c>
@@ -3575,7 +3587,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="42" t="s">
         <v>398</v>
       </c>
@@ -3590,7 +3602,7 @@
       <c r="F2"/>
       <c r="H2"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="42" t="s">
         <v>402</v>
       </c>
@@ -3607,7 +3619,7 @@
       </c>
       <c r="H3"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="42" t="s">
         <v>405</v>
       </c>
@@ -3628,7 +3640,7 @@
       </c>
       <c r="H4"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="42" t="s">
         <v>408</v>
       </c>
@@ -3643,7 +3655,7 @@
       </c>
       <c r="H5"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="42" t="s">
         <v>37</v>
       </c>
@@ -3658,7 +3670,7 @@
       </c>
       <c r="H6"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="42" t="s">
         <v>37</v>
       </c>
@@ -3670,7 +3682,7 @@
       </c>
       <c r="H7"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="42" t="s">
         <v>412</v>
       </c>
@@ -3684,7 +3696,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="42" t="s">
         <v>415</v>
       </c>
@@ -3711,16 +3723,16 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="5" width="8.5546875"/>
-    <col min="6" max="6" width="10.5546875"/>
-    <col min="7" max="7" width="11.109375"/>
-    <col min="8" max="8" width="20.5546875"/>
-    <col min="9" max="1025" width="8.5546875"/>
+    <col min="1" max="5" width="8.5703125"/>
+    <col min="6" max="6" width="10.5703125"/>
+    <col min="7" max="7" width="11.140625"/>
+    <col min="8" max="8" width="20.5703125"/>
+    <col min="9" max="1025" width="8.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -3746,7 +3758,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>437</v>
       </c>
@@ -3766,7 +3778,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>441</v>
       </c>
@@ -3786,7 +3798,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>444</v>
       </c>
@@ -3806,7 +3818,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>446</v>
       </c>
@@ -3843,14 +3855,14 @@
       <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.44140625" style="6"/>
-    <col min="2" max="2" width="51.109375" style="2"/>
-    <col min="3" max="1025" width="8.44140625"/>
+    <col min="1" max="1" width="16.42578125" style="6"/>
+    <col min="2" max="2" width="51.140625" style="2"/>
+    <col min="3" max="1025" width="8.42578125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3858,7 +3870,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>2</v>
       </c>
@@ -3866,7 +3878,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>14</v>
       </c>
@@ -3874,7 +3886,7 @@
         <v>9606</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>11</v>
       </c>
@@ -3894,18 +3906,18 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.6640625"/>
-    <col min="2" max="2" width="15.5546875"/>
-    <col min="4" max="4" width="13.109375"/>
-    <col min="5" max="5" width="10.5546875"/>
-    <col min="6" max="6" width="11.109375"/>
-    <col min="7" max="7" width="19.88671875"/>
-    <col min="1021" max="1025" width="8.6640625"/>
+    <col min="1" max="1" width="17.7109375"/>
+    <col min="2" max="2" width="15.5703125"/>
+    <col min="4" max="4" width="13.140625"/>
+    <col min="5" max="5" width="10.5703125"/>
+    <col min="6" max="6" width="11.140625"/>
+    <col min="7" max="7" width="19.85546875"/>
+    <col min="1021" max="1025" width="8.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>352</v>
       </c>
@@ -3928,7 +3940,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>448</v>
       </c>
@@ -3942,7 +3954,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>451</v>
       </c>
@@ -3956,7 +3968,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>454</v>
       </c>
@@ -3970,7 +3982,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>457</v>
       </c>
@@ -4002,14 +4014,14 @@
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.5546875"/>
-    <col min="2" max="2" width="18.5546875"/>
-    <col min="3" max="1025" width="8.5546875"/>
+    <col min="1" max="1" width="8.5703125"/>
+    <col min="2" max="2" width="18.5703125"/>
+    <col min="3" max="1025" width="8.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>460</v>
       </c>
@@ -4017,7 +4029,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>364</v>
       </c>
@@ -4025,7 +4037,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>380</v>
       </c>
@@ -4033,7 +4045,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>464</v>
       </c>
@@ -4055,19 +4067,19 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="7"/>
-    <col min="2" max="2" width="16.109375" style="2"/>
-    <col min="3" max="3" width="17.6640625" style="2"/>
-    <col min="4" max="4" width="11.33203125" style="2"/>
-    <col min="5" max="5" width="11.109375" style="2"/>
-    <col min="6" max="6" width="20.5546875" style="2"/>
-    <col min="7" max="1020" width="9.109375" style="2"/>
-    <col min="1024" max="1025" width="8.6640625"/>
+    <col min="1" max="1" width="9.140625" style="7"/>
+    <col min="2" max="2" width="16.140625" style="2"/>
+    <col min="3" max="3" width="17.7109375" style="2"/>
+    <col min="4" max="4" width="11.28515625" style="2"/>
+    <col min="5" max="5" width="11.140625" style="2"/>
+    <col min="6" max="6" width="20.5703125" style="2"/>
+    <col min="7" max="1020" width="9.140625" style="2"/>
+    <col min="1024" max="1025" width="8.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="8" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="8" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -4087,7 +4099,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>18</v>
       </c>
@@ -4104,7 +4116,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>22</v>
       </c>
@@ -4116,7 +4128,7 @@
       </c>
       <c r="F3"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>24</v>
       </c>
@@ -4130,7 +4142,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>27</v>
       </c>
@@ -4156,19 +4168,19 @@
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.88671875" style="9"/>
-    <col min="2" max="2" width="39.44140625" style="9"/>
-    <col min="3" max="3" width="13.6640625" style="2"/>
-    <col min="4" max="4" width="10.6640625" style="2"/>
+    <col min="1" max="1" width="23.85546875" style="9"/>
+    <col min="2" max="2" width="39.42578125" style="9"/>
+    <col min="3" max="3" width="13.7109375" style="2"/>
+    <col min="4" max="4" width="10.7109375" style="2"/>
     <col min="5" max="5" width="55" style="9"/>
-    <col min="6" max="6" width="9.109375" style="2"/>
-    <col min="7" max="7" width="19.88671875" style="2"/>
-    <col min="8" max="1022" width="9.109375" style="2"/>
+    <col min="6" max="6" width="9.140625" style="2"/>
+    <col min="7" max="7" width="19.85546875" style="2"/>
+    <col min="8" max="1022" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="8" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="8" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -4191,7 +4203,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>31</v>
       </c>
@@ -4199,7 +4211,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>33</v>
       </c>
@@ -4210,7 +4222,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>36</v>
       </c>
@@ -4218,7 +4230,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>38</v>
       </c>
@@ -4226,7 +4238,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>40</v>
       </c>
@@ -4237,7 +4249,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>43</v>
       </c>
@@ -4248,7 +4260,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>46</v>
       </c>
@@ -4259,7 +4271,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>49</v>
       </c>
@@ -4288,20 +4300,20 @@
       <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.109375" style="7"/>
+    <col min="1" max="1" width="14.140625" style="7"/>
     <col min="2" max="2" width="13" style="11"/>
-    <col min="3" max="4" width="11.6640625" style="2"/>
-    <col min="5" max="5" width="22.109375" style="2"/>
-    <col min="6" max="6" width="9.109375" style="2"/>
-    <col min="7" max="8" width="13.44140625" style="2"/>
-    <col min="9" max="9" width="13.44140625"/>
-    <col min="10" max="10" width="19.88671875"/>
-    <col min="11" max="12" width="13.44140625"/>
+    <col min="3" max="4" width="11.7109375" style="2"/>
+    <col min="5" max="5" width="22.140625" style="2"/>
+    <col min="6" max="6" width="9.140625" style="2"/>
+    <col min="7" max="8" width="13.42578125" style="2"/>
+    <col min="9" max="9" width="13.42578125"/>
+    <col min="10" max="10" width="19.85546875"/>
+    <col min="11" max="12" width="13.42578125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -4333,7 +4345,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>56</v>
       </c>
@@ -4352,7 +4364,7 @@
       </c>
       <c r="G2" s="11"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>57</v>
       </c>
@@ -4369,7 +4381,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>58</v>
       </c>
@@ -4386,7 +4398,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>59</v>
       </c>
@@ -4403,7 +4415,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>60</v>
       </c>
@@ -4420,7 +4432,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>61</v>
       </c>
@@ -4437,7 +4449,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>62</v>
       </c>
@@ -4454,7 +4466,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>63</v>
       </c>
@@ -4471,7 +4483,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>64</v>
       </c>
@@ -4488,7 +4500,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>65</v>
       </c>
@@ -4505,7 +4517,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>66</v>
       </c>
@@ -4522,7 +4534,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>67</v>
       </c>
@@ -4539,7 +4551,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>68</v>
       </c>
@@ -4556,7 +4568,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>69</v>
       </c>
@@ -4573,7 +4585,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>70</v>
       </c>
@@ -4590,7 +4602,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>71</v>
       </c>
@@ -4607,7 +4619,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>72</v>
       </c>
@@ -4624,7 +4636,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>73</v>
       </c>
@@ -4641,7 +4653,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>74</v>
       </c>
@@ -4658,7 +4670,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>75</v>
       </c>
@@ -4675,7 +4687,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>76</v>
       </c>
@@ -4692,7 +4704,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>77</v>
       </c>
@@ -4709,7 +4721,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>78</v>
       </c>
@@ -4726,7 +4738,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>79</v>
       </c>
@@ -4743,7 +4755,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>80</v>
       </c>
@@ -4778,19 +4790,19 @@
       <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.44140625" style="11"/>
-    <col min="2" max="2" width="16.44140625" style="11"/>
-    <col min="3" max="3" width="42.44140625" style="13"/>
-    <col min="4" max="6" width="13.44140625" style="14"/>
-    <col min="7" max="8" width="13.44140625" style="11"/>
-    <col min="9" max="9" width="16.44140625" style="15"/>
-    <col min="10" max="1023" width="32.5546875" style="2"/>
-    <col min="1024" max="1025" width="8.44140625"/>
+    <col min="1" max="1" width="17.42578125" style="11"/>
+    <col min="2" max="2" width="16.42578125" style="11"/>
+    <col min="3" max="3" width="42.42578125" style="13"/>
+    <col min="4" max="6" width="13.42578125" style="14"/>
+    <col min="7" max="8" width="13.42578125" style="11"/>
+    <col min="9" max="9" width="16.42578125" style="15"/>
+    <col min="10" max="1023" width="32.5703125" style="2"/>
+    <col min="1024" max="1025" width="8.42578125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1023" s="8" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1023" s="8" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -4831,7 +4843,7 @@
       <c r="AMH1" s="2"/>
       <c r="AMI1" s="2"/>
     </row>
-    <row r="2" spans="1:1023" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1023" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>87</v>
       </c>
@@ -4857,7 +4869,7 @@
         <v>20651511</v>
       </c>
     </row>
-    <row r="3" spans="1:1023" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1023" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>92</v>
       </c>
@@ -4883,7 +4895,7 @@
         <v>10448504</v>
       </c>
     </row>
-    <row r="4" spans="1:1023" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1023" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>96</v>
       </c>
@@ -4909,7 +4921,7 @@
         <v>69387254</v>
       </c>
     </row>
-    <row r="5" spans="1:1023" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1023" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>99</v>
       </c>
@@ -4935,7 +4947,7 @@
         <v>40574685</v>
       </c>
     </row>
-    <row r="6" spans="1:1023" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1023" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>102</v>
       </c>
@@ -4961,7 +4973,7 @@
         <v>112649530</v>
       </c>
     </row>
-    <row r="7" spans="1:1023" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1023" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>105</v>
       </c>
@@ -4987,7 +4999,7 @@
         <v>83605875</v>
       </c>
     </row>
-    <row r="8" spans="1:1023" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1023" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>108</v>
       </c>
@@ -5013,7 +5025,7 @@
         <v>127899195</v>
       </c>
     </row>
-    <row r="9" spans="1:1023" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1023" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>111</v>
       </c>
@@ -5039,7 +5051,7 @@
         <v>160421711</v>
       </c>
     </row>
-    <row r="10" spans="1:1023" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1023" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>114</v>
       </c>
@@ -5065,7 +5077,7 @@
         <v>152129619</v>
       </c>
     </row>
-    <row r="11" spans="1:1023" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1023" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>117</v>
       </c>
@@ -5091,7 +5103,7 @@
         <v>56051604</v>
       </c>
     </row>
-    <row r="12" spans="1:1023" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1023" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
         <v>120</v>
       </c>
@@ -5117,7 +5129,7 @@
         <v>18084998</v>
       </c>
     </row>
-    <row r="13" spans="1:1023" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1023" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>123</v>
       </c>
@@ -5143,7 +5155,7 @@
         <v>19967258</v>
       </c>
     </row>
-    <row r="14" spans="1:1023" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1023" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>126</v>
       </c>
@@ -5169,7 +5181,7 @@
         <v>136423761</v>
       </c>
     </row>
-    <row r="15" spans="1:1023" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1023" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>129</v>
       </c>
@@ -5195,7 +5207,7 @@
         <v>7787981</v>
       </c>
     </row>
-    <row r="16" spans="1:1023" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1023" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>132</v>
       </c>
@@ -5221,7 +5233,7 @@
         <v>133421307</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
         <v>135</v>
       </c>
@@ -5247,7 +5259,7 @@
         <v>13732346</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
         <v>138</v>
       </c>
@@ -5273,7 +5285,7 @@
         <v>114450279</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
         <v>141</v>
       </c>
@@ -5299,7 +5311,7 @@
         <v>77065580</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
         <v>144</v>
       </c>
@@ -5325,7 +5337,7 @@
         <v>113359493</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
         <v>147</v>
       </c>
@@ -5351,7 +5363,7 @@
         <v>52476628</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
         <v>150</v>
       </c>
@@ -5377,7 +5389,7 @@
         <v>103057462</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
         <v>153</v>
       </c>
@@ -5403,7 +5415,7 @@
         <v>65578352</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
         <v>156</v>
       </c>
@@ -5429,7 +5441,7 @@
         <v>101251932</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
         <v>159</v>
       </c>
@@ -5455,7 +5467,7 @@
         <v>89155846</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
         <v>162</v>
       </c>
@@ -5481,7 +5493,7 @@
         <v>49223225</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
         <v>165</v>
       </c>
@@ -5507,7 +5519,7 @@
         <v>50988121</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
         <v>168</v>
       </c>
@@ -5533,7 +5545,7 @@
         <v>41440717</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
         <v>171</v>
       </c>
@@ -5559,7 +5571,7 @@
         <v>47784686</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
         <v>174</v>
       </c>
@@ -5585,7 +5597,7 @@
         <v>13638940</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
         <v>177</v>
       </c>
@@ -5611,7 +5623,7 @@
         <v>44652233</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
         <v>180</v>
       </c>
@@ -5637,7 +5649,7 @@
         <v>31668931</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
         <v>183</v>
       </c>
@@ -5663,7 +5675,7 @@
         <v>20859417</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="11" t="s">
         <v>186</v>
       </c>
@@ -5689,7 +5701,7 @@
         <v>38738299</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="11" t="s">
         <v>189</v>
       </c>
@@ -5715,7 +5727,7 @@
         <v>119605895</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="11" t="s">
         <v>192</v>
       </c>
@@ -5741,7 +5753,7 @@
         <v>23005465</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
         <v>195</v>
       </c>
@@ -5780,32 +5792,35 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMG37"/>
+  <dimension ref="A1:AMJ37"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="16.44140625" style="11"/>
+    <col min="1" max="3" width="16.42578125" style="11"/>
     <col min="4" max="4" width="22" style="11"/>
-    <col min="5" max="5" width="13.6640625" style="11"/>
-    <col min="6" max="6" width="25.109375" style="11"/>
-    <col min="7" max="7" width="13.44140625" style="11"/>
-    <col min="8" max="8" width="23.33203125" style="11"/>
-    <col min="9" max="9" width="25.109375" style="2"/>
-    <col min="10" max="10" width="19.88671875"/>
-    <col min="11" max="11" width="9.109375" style="14"/>
-    <col min="12" max="12" width="10.44140625" style="14"/>
-    <col min="13" max="13" width="10.6640625" style="14"/>
-    <col min="14" max="15" width="9.109375" style="11"/>
-    <col min="16" max="16" width="22.88671875" style="14"/>
-    <col min="17" max="1012" width="9.109375" style="11"/>
-    <col min="1013" max="1021" width="9.109375" style="2"/>
+    <col min="5" max="5" width="13.7109375" style="11"/>
+    <col min="6" max="6" width="25.140625" style="11"/>
+    <col min="7" max="7" width="13.42578125" style="11"/>
+    <col min="8" max="8" width="16.28515625" style="30" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.42578125" style="30" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.5703125" style="30" customWidth="1"/>
+    <col min="11" max="11" width="23.28515625" style="11"/>
+    <col min="12" max="12" width="25.140625" style="2"/>
+    <col min="13" max="13" width="19.85546875"/>
+    <col min="14" max="14" width="9.140625" style="14"/>
+    <col min="15" max="15" width="10.42578125" style="14"/>
+    <col min="16" max="16" width="10.7109375" style="14"/>
+    <col min="17" max="18" width="9.140625" style="11"/>
+    <col min="19" max="19" width="22.85546875" style="14"/>
+    <col min="20" max="1015" width="9.140625" style="11"/>
+    <col min="1016" max="1024" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1021" s="8" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1024" s="8" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -5827,32 +5842,41 @@
       <c r="G1" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="H1" s="8" t="s">
+        <v>472</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>471</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>473</v>
+      </c>
+      <c r="K1" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="L1" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="M1" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="20"/>
       <c r="P1" s="20"/>
-      <c r="ALY1" s="1"/>
-      <c r="ALZ1" s="1"/>
-      <c r="AMA1" s="1"/>
+      <c r="Q1" s="21"/>
+      <c r="R1" s="21"/>
+      <c r="S1" s="20"/>
       <c r="AMB1" s="1"/>
       <c r="AMC1" s="1"/>
       <c r="AMD1" s="1"/>
       <c r="AME1" s="1"/>
       <c r="AMF1" s="1"/>
       <c r="AMG1" s="1"/>
-    </row>
-    <row r="2" spans="1:1021" x14ac:dyDescent="0.3">
+      <c r="AMH1" s="1"/>
+      <c r="AMI1" s="1"/>
+      <c r="AMJ1" s="1"/>
+    </row>
+    <row r="2" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>199</v>
       </c>
@@ -5874,12 +5898,18 @@
       <c r="G2" s="11">
         <v>203895200</v>
       </c>
-      <c r="H2" s="14"/>
-      <c r="I2" s="5"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
-    </row>
-    <row r="3" spans="1:1021" x14ac:dyDescent="0.3">
+      <c r="H2" s="30">
+        <v>203893820</v>
+      </c>
+      <c r="I2" s="30">
+        <v>203895200</v>
+      </c>
+      <c r="K2" s="14"/>
+      <c r="L2" s="5"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
+    </row>
+    <row r="3" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>203</v>
       </c>
@@ -5901,12 +5931,18 @@
       <c r="G3" s="11">
         <v>20605200</v>
       </c>
-      <c r="H3" s="14"/>
-      <c r="I3" s="5"/>
-      <c r="N3" s="22"/>
-      <c r="O3" s="22"/>
-    </row>
-    <row r="4" spans="1:1021" x14ac:dyDescent="0.3">
+      <c r="H3" s="30">
+        <v>20602802</v>
+      </c>
+      <c r="I3" s="30">
+        <v>20605200</v>
+      </c>
+      <c r="K3" s="14"/>
+      <c r="L3" s="5"/>
+      <c r="Q3" s="22"/>
+      <c r="R3" s="22"/>
+    </row>
+    <row r="4" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>206</v>
       </c>
@@ -5928,12 +5964,18 @@
       <c r="G4" s="11">
         <v>45648411</v>
       </c>
-      <c r="H4" s="14"/>
-      <c r="I4" s="5"/>
-      <c r="N4" s="22"/>
-      <c r="O4" s="22"/>
-    </row>
-    <row r="5" spans="1:1021" x14ac:dyDescent="0.3">
+      <c r="H4" s="30">
+        <v>45648015</v>
+      </c>
+      <c r="I4" s="30">
+        <v>45648411</v>
+      </c>
+      <c r="K4" s="14"/>
+      <c r="L4" s="5"/>
+      <c r="Q4" s="22"/>
+      <c r="R4" s="22"/>
+    </row>
+    <row r="5" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>210</v>
       </c>
@@ -5955,12 +5997,18 @@
       <c r="G5" s="11">
         <v>85414201</v>
       </c>
-      <c r="H5" s="14"/>
-      <c r="I5" s="5"/>
-      <c r="N5" s="22"/>
-      <c r="O5" s="22"/>
-    </row>
-    <row r="6" spans="1:1021" x14ac:dyDescent="0.3">
+      <c r="H5" s="30">
+        <v>85413000</v>
+      </c>
+      <c r="I5" s="30">
+        <v>85414201</v>
+      </c>
+      <c r="K5" s="14"/>
+      <c r="L5" s="5"/>
+      <c r="Q5" s="22"/>
+      <c r="R5" s="22"/>
+    </row>
+    <row r="6" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>214</v>
       </c>
@@ -5982,12 +6030,18 @@
       <c r="G6" s="11">
         <v>39878600</v>
       </c>
-      <c r="H6" s="14"/>
-      <c r="I6" s="5"/>
-      <c r="N6" s="22"/>
-      <c r="O6" s="22"/>
-    </row>
-    <row r="7" spans="1:1021" x14ac:dyDescent="0.3">
+      <c r="H6" s="30">
+        <v>39877210</v>
+      </c>
+      <c r="I6" s="30">
+        <v>39878600</v>
+      </c>
+      <c r="K6" s="14"/>
+      <c r="L6" s="5"/>
+      <c r="Q6" s="22"/>
+      <c r="R6" s="22"/>
+    </row>
+    <row r="7" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>217</v>
       </c>
@@ -6009,12 +6063,18 @@
       <c r="G7" s="11">
         <v>185318582</v>
       </c>
-      <c r="H7" s="14"/>
-      <c r="I7" s="5"/>
-      <c r="N7" s="22"/>
-      <c r="O7" s="22"/>
-    </row>
-    <row r="8" spans="1:1021" x14ac:dyDescent="0.3">
+      <c r="H7" s="30">
+        <v>185316402</v>
+      </c>
+      <c r="I7" s="30">
+        <v>185318582</v>
+      </c>
+      <c r="K7" s="14"/>
+      <c r="L7" s="5"/>
+      <c r="Q7" s="22"/>
+      <c r="R7" s="22"/>
+    </row>
+    <row r="8" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>219</v>
       </c>
@@ -6036,12 +6096,18 @@
       <c r="G8" s="11">
         <v>53863800</v>
       </c>
-      <c r="H8" s="14"/>
-      <c r="I8" s="5"/>
-      <c r="N8" s="22"/>
-      <c r="O8" s="22"/>
-    </row>
-    <row r="9" spans="1:1021" x14ac:dyDescent="0.3">
+      <c r="H8" s="30">
+        <v>53862600</v>
+      </c>
+      <c r="I8" s="30">
+        <v>53863800</v>
+      </c>
+      <c r="K8" s="14"/>
+      <c r="L8" s="5"/>
+      <c r="Q8" s="22"/>
+      <c r="R8" s="22"/>
+    </row>
+    <row r="9" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>222</v>
       </c>
@@ -6063,12 +6129,18 @@
       <c r="G9" s="11">
         <v>118837001</v>
       </c>
-      <c r="H9" s="14"/>
-      <c r="I9" s="5"/>
-      <c r="N9" s="22"/>
-      <c r="O9" s="22"/>
-    </row>
-    <row r="10" spans="1:1021" x14ac:dyDescent="0.3">
+      <c r="H9" s="30">
+        <v>118834600</v>
+      </c>
+      <c r="I9" s="30">
+        <v>118837001</v>
+      </c>
+      <c r="K9" s="14"/>
+      <c r="L9" s="5"/>
+      <c r="Q9" s="22"/>
+      <c r="R9" s="22"/>
+    </row>
+    <row r="10" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>224</v>
       </c>
@@ -6090,12 +6162,18 @@
       <c r="G10" s="11">
         <v>141851600</v>
       </c>
-      <c r="H10" s="14"/>
-      <c r="I10" s="5"/>
-      <c r="N10" s="22"/>
-      <c r="O10" s="22"/>
-    </row>
-    <row r="11" spans="1:1021" x14ac:dyDescent="0.3">
+      <c r="H10" s="30">
+        <v>141848202</v>
+      </c>
+      <c r="I10" s="30">
+        <v>141851600</v>
+      </c>
+      <c r="K10" s="14"/>
+      <c r="L10" s="5"/>
+      <c r="Q10" s="22"/>
+      <c r="R10" s="22"/>
+    </row>
+    <row r="11" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>226</v>
       </c>
@@ -6117,12 +6195,18 @@
       <c r="G11" s="11">
         <v>2991401</v>
       </c>
-      <c r="H11" s="14"/>
-      <c r="I11" s="5"/>
-      <c r="N11" s="22"/>
-      <c r="O11" s="22"/>
-    </row>
-    <row r="12" spans="1:1021" x14ac:dyDescent="0.3">
+      <c r="H11" s="30">
+        <v>2988400</v>
+      </c>
+      <c r="I11" s="30">
+        <v>2991400</v>
+      </c>
+      <c r="K11" s="14"/>
+      <c r="L11" s="5"/>
+      <c r="Q11" s="22"/>
+      <c r="R11" s="22"/>
+    </row>
+    <row r="12" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
         <v>228</v>
       </c>
@@ -6144,12 +6228,18 @@
       <c r="G12" s="11">
         <v>43971001</v>
       </c>
-      <c r="H12" s="14"/>
-      <c r="I12" s="5"/>
-      <c r="N12" s="22"/>
-      <c r="O12" s="22"/>
-    </row>
-    <row r="13" spans="1:1021" x14ac:dyDescent="0.3">
+      <c r="H12" s="30">
+        <v>43970600</v>
+      </c>
+      <c r="I12" s="30">
+        <v>43971001</v>
+      </c>
+      <c r="K12" s="14"/>
+      <c r="L12" s="5"/>
+      <c r="Q12" s="22"/>
+      <c r="R12" s="22"/>
+    </row>
+    <row r="13" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>230</v>
       </c>
@@ -6171,12 +6261,18 @@
       <c r="G13" s="11">
         <v>893236</v>
       </c>
-      <c r="H13" s="14"/>
-      <c r="I13" s="5"/>
-      <c r="N13" s="22"/>
-      <c r="O13" s="22"/>
-    </row>
-    <row r="14" spans="1:1021" x14ac:dyDescent="0.3">
+      <c r="H13" s="30">
+        <v>890483</v>
+      </c>
+      <c r="I13" s="30">
+        <v>893236</v>
+      </c>
+      <c r="K13" s="14"/>
+      <c r="L13" s="5"/>
+      <c r="Q13" s="22"/>
+      <c r="R13" s="22"/>
+    </row>
+    <row r="14" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>232</v>
       </c>
@@ -6198,12 +6294,18 @@
       <c r="G14" s="11">
         <v>116112801</v>
       </c>
-      <c r="H14" s="14"/>
-      <c r="I14" s="5"/>
-      <c r="N14" s="22"/>
-      <c r="O14" s="22"/>
-    </row>
-    <row r="15" spans="1:1021" x14ac:dyDescent="0.3">
+      <c r="H14" s="30">
+        <v>116112401</v>
+      </c>
+      <c r="I14" s="30">
+        <v>116112801</v>
+      </c>
+      <c r="K14" s="14"/>
+      <c r="L14" s="5"/>
+      <c r="Q14" s="22"/>
+      <c r="R14" s="22"/>
+    </row>
+    <row r="15" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>234</v>
       </c>
@@ -6225,12 +6327,21 @@
       <c r="G15" s="11">
         <v>72121926</v>
       </c>
-      <c r="H15" s="14"/>
-      <c r="I15" s="5"/>
-      <c r="N15" s="22"/>
-      <c r="O15" s="22"/>
-    </row>
-    <row r="16" spans="1:1021" x14ac:dyDescent="0.3">
+      <c r="H15" s="30">
+        <v>72121544</v>
+      </c>
+      <c r="I15" s="30">
+        <v>72121926</v>
+      </c>
+      <c r="J15" s="13" t="s">
+        <v>346</v>
+      </c>
+      <c r="K15" s="14"/>
+      <c r="L15" s="5"/>
+      <c r="Q15" s="22"/>
+      <c r="R15" s="22"/>
+    </row>
+    <row r="16" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>237</v>
       </c>
@@ -6252,12 +6363,18 @@
       <c r="G16" s="11">
         <v>22702000</v>
       </c>
-      <c r="H16" s="14"/>
-      <c r="I16" s="5"/>
-      <c r="N16" s="22"/>
-      <c r="O16" s="22"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="H16" s="30">
+        <v>22700001</v>
+      </c>
+      <c r="I16" s="30">
+        <v>22702000</v>
+      </c>
+      <c r="K16" s="14"/>
+      <c r="L16" s="5"/>
+      <c r="Q16" s="22"/>
+      <c r="R16" s="22"/>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
         <v>239</v>
       </c>
@@ -6279,12 +6396,18 @@
       <c r="G17" s="11">
         <v>46023801</v>
       </c>
-      <c r="H17" s="14"/>
-      <c r="I17" s="5"/>
-      <c r="N17" s="22"/>
-      <c r="O17" s="22"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="H17" s="30">
+        <v>46022400</v>
+      </c>
+      <c r="I17" s="30">
+        <v>46023801</v>
+      </c>
+      <c r="K17" s="14"/>
+      <c r="L17" s="5"/>
+      <c r="Q17" s="22"/>
+      <c r="R17" s="22"/>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
         <v>241</v>
       </c>
@@ -6306,12 +6429,18 @@
       <c r="G18" s="11">
         <v>132187000</v>
       </c>
-      <c r="H18" s="14"/>
-      <c r="I18" s="5"/>
-      <c r="N18" s="22"/>
-      <c r="O18" s="22"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="H18" s="30">
+        <v>132186801</v>
+      </c>
+      <c r="I18" s="30">
+        <v>132187000</v>
+      </c>
+      <c r="K18" s="14"/>
+      <c r="L18" s="5"/>
+      <c r="Q18" s="22"/>
+      <c r="R18" s="22"/>
+    </row>
+    <row r="19" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
         <v>243</v>
       </c>
@@ -6333,12 +6462,21 @@
       <c r="G19" s="11">
         <v>102368872</v>
       </c>
-      <c r="H19" s="14"/>
-      <c r="I19" s="5"/>
-      <c r="N19" s="22"/>
-      <c r="O19" s="22"/>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="H19" s="30">
+        <v>102368448</v>
+      </c>
+      <c r="I19" s="30">
+        <v>102368872</v>
+      </c>
+      <c r="J19" s="13" t="s">
+        <v>474</v>
+      </c>
+      <c r="K19" s="14"/>
+      <c r="L19" s="5"/>
+      <c r="Q19" s="22"/>
+      <c r="R19" s="22"/>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
         <v>245</v>
       </c>
@@ -6360,12 +6498,18 @@
       <c r="G20" s="11">
         <v>101940201</v>
       </c>
-      <c r="H20" s="14"/>
-      <c r="I20" s="5"/>
-      <c r="N20" s="22"/>
-      <c r="O20" s="22"/>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="H20" s="30">
+        <v>101939801</v>
+      </c>
+      <c r="I20" s="30">
+        <v>101940201</v>
+      </c>
+      <c r="K20" s="14"/>
+      <c r="L20" s="5"/>
+      <c r="Q20" s="22"/>
+      <c r="R20" s="22"/>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
         <v>247</v>
       </c>
@@ -6387,12 +6531,18 @@
       <c r="G21" s="11">
         <v>99985401</v>
       </c>
-      <c r="H21" s="14"/>
-      <c r="I21" s="5"/>
-      <c r="N21" s="22"/>
-      <c r="O21" s="22"/>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="H21" s="30">
+        <v>99984000</v>
+      </c>
+      <c r="I21" s="30">
+        <v>99985401</v>
+      </c>
+      <c r="K21" s="14"/>
+      <c r="L21" s="5"/>
+      <c r="Q21" s="22"/>
+      <c r="R21" s="22"/>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
         <v>249</v>
       </c>
@@ -6414,12 +6564,18 @@
       <c r="G22" s="11">
         <v>52849993</v>
       </c>
-      <c r="H22" s="14"/>
-      <c r="I22" s="5"/>
-      <c r="N22" s="22"/>
-      <c r="O22" s="22"/>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="H22" s="30">
+        <v>52849669</v>
+      </c>
+      <c r="I22" s="30">
+        <v>52849993</v>
+      </c>
+      <c r="K22" s="14"/>
+      <c r="L22" s="5"/>
+      <c r="Q22" s="22"/>
+      <c r="R22" s="22"/>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
         <v>251</v>
       </c>
@@ -6441,12 +6597,18 @@
       <c r="G23" s="11">
         <v>23579130</v>
       </c>
-      <c r="H23" s="14"/>
-      <c r="I23" s="5"/>
-      <c r="N23" s="22"/>
-      <c r="O23" s="22"/>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="H23" s="30">
+        <v>23578503</v>
+      </c>
+      <c r="I23" s="30">
+        <v>23579130</v>
+      </c>
+      <c r="K23" s="14"/>
+      <c r="L23" s="5"/>
+      <c r="Q23" s="22"/>
+      <c r="R23" s="22"/>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
         <v>253</v>
       </c>
@@ -6468,12 +6630,18 @@
       <c r="G24" s="11">
         <v>90215000</v>
       </c>
-      <c r="H24" s="14"/>
-      <c r="I24" s="5"/>
-      <c r="N24" s="22"/>
-      <c r="O24" s="22"/>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="H24" s="30">
+        <v>90214601</v>
+      </c>
+      <c r="I24" s="30">
+        <v>90215000</v>
+      </c>
+      <c r="K24" s="14"/>
+      <c r="L24" s="5"/>
+      <c r="Q24" s="22"/>
+      <c r="R24" s="22"/>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
         <v>255</v>
       </c>
@@ -6495,12 +6663,18 @@
       <c r="G25" s="11">
         <v>47720200</v>
       </c>
-      <c r="H25" s="14"/>
-      <c r="I25" s="5"/>
-      <c r="N25" s="22"/>
-      <c r="O25" s="22"/>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="H25" s="30">
+        <v>47716801</v>
+      </c>
+      <c r="I25" s="30">
+        <v>47720200</v>
+      </c>
+      <c r="K25" s="14"/>
+      <c r="L25" s="5"/>
+      <c r="Q25" s="22"/>
+      <c r="R25" s="22"/>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
         <v>257</v>
       </c>
@@ -6522,12 +6696,18 @@
       <c r="G26" s="11">
         <v>50369600</v>
       </c>
-      <c r="H26" s="14"/>
-      <c r="I26" s="5"/>
-      <c r="N26" s="22"/>
-      <c r="O26" s="22"/>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="H26" s="30">
+        <v>50368000</v>
+      </c>
+      <c r="I26" s="30">
+        <v>50369600</v>
+      </c>
+      <c r="K26" s="14"/>
+      <c r="L26" s="5"/>
+      <c r="Q26" s="22"/>
+      <c r="R26" s="22"/>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
         <v>259</v>
       </c>
@@ -6549,12 +6729,18 @@
       <c r="G27" s="11">
         <v>18650600</v>
       </c>
-      <c r="H27" s="14"/>
-      <c r="I27" s="5"/>
-      <c r="N27" s="22"/>
-      <c r="O27" s="22"/>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="H27" s="30">
+        <v>18650001</v>
+      </c>
+      <c r="I27" s="30">
+        <v>18650600</v>
+      </c>
+      <c r="K27" s="14"/>
+      <c r="L27" s="5"/>
+      <c r="Q27" s="22"/>
+      <c r="R27" s="22"/>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
         <v>261</v>
       </c>
@@ -6576,12 +6762,18 @@
       <c r="G28" s="11">
         <v>33756401</v>
       </c>
-      <c r="H28" s="14"/>
-      <c r="I28" s="5"/>
-      <c r="N28" s="22"/>
-      <c r="O28" s="22"/>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="H28" s="30">
+        <v>33756200</v>
+      </c>
+      <c r="I28" s="30">
+        <v>33756401</v>
+      </c>
+      <c r="K28" s="14"/>
+      <c r="L28" s="5"/>
+      <c r="Q28" s="22"/>
+      <c r="R28" s="22"/>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
         <v>263</v>
       </c>
@@ -6603,12 +6795,18 @@
       <c r="G29" s="11">
         <v>58328001</v>
       </c>
-      <c r="H29" s="14"/>
-      <c r="I29" s="5"/>
-      <c r="N29" s="22"/>
-      <c r="O29" s="22"/>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="H29" s="30">
+        <v>58326200</v>
+      </c>
+      <c r="I29" s="30">
+        <v>58328001</v>
+      </c>
+      <c r="K29" s="14"/>
+      <c r="L29" s="5"/>
+      <c r="Q29" s="22"/>
+      <c r="R29" s="22"/>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
         <v>265</v>
       </c>
@@ -6630,12 +6828,18 @@
       <c r="G30" s="11">
         <v>50118213</v>
       </c>
-      <c r="H30" s="14"/>
-      <c r="I30" s="5"/>
-      <c r="N30" s="22"/>
-      <c r="O30" s="22"/>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="H30" s="30">
+        <v>50117624</v>
+      </c>
+      <c r="I30" s="30">
+        <v>50118213</v>
+      </c>
+      <c r="K30" s="14"/>
+      <c r="L30" s="5"/>
+      <c r="Q30" s="22"/>
+      <c r="R30" s="22"/>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
         <v>267</v>
       </c>
@@ -6657,12 +6861,18 @@
       <c r="G31" s="11">
         <v>62961734</v>
       </c>
-      <c r="H31" s="14"/>
-      <c r="I31" s="5"/>
-      <c r="N31" s="22"/>
-      <c r="O31" s="22"/>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="H31" s="30">
+        <v>62960832</v>
+      </c>
+      <c r="I31" s="30">
+        <v>62961734</v>
+      </c>
+      <c r="K31" s="14"/>
+      <c r="L31" s="5"/>
+      <c r="Q31" s="22"/>
+      <c r="R31" s="22"/>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
         <v>269</v>
       </c>
@@ -6684,12 +6894,18 @@
       <c r="G32" s="11">
         <v>57964896</v>
       </c>
-      <c r="H32" s="14"/>
-      <c r="I32" s="5"/>
-      <c r="N32" s="22"/>
-      <c r="O32" s="22"/>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="H32" s="30">
+        <v>57964075</v>
+      </c>
+      <c r="I32" s="30">
+        <v>57964896</v>
+      </c>
+      <c r="K32" s="14"/>
+      <c r="L32" s="5"/>
+      <c r="Q32" s="22"/>
+      <c r="R32" s="22"/>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
         <v>271</v>
       </c>
@@ -6711,12 +6927,18 @@
       <c r="G33" s="11">
         <v>36711020</v>
       </c>
-      <c r="H33" s="14"/>
-      <c r="I33" s="5"/>
-      <c r="N33" s="22"/>
-      <c r="O33" s="22"/>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="H33" s="30">
+        <v>36710048</v>
+      </c>
+      <c r="I33" s="30">
+        <v>36711020</v>
+      </c>
+      <c r="K33" s="14"/>
+      <c r="L33" s="5"/>
+      <c r="Q33" s="22"/>
+      <c r="R33" s="22"/>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" s="11" t="s">
         <v>273</v>
       </c>
@@ -6738,12 +6960,18 @@
       <c r="G34" s="11">
         <v>43346796</v>
       </c>
-      <c r="H34" s="14"/>
-      <c r="I34" s="5"/>
-      <c r="N34" s="22"/>
-      <c r="O34" s="22"/>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="H34" s="30">
+        <v>43346380</v>
+      </c>
+      <c r="I34" s="30">
+        <v>43346796</v>
+      </c>
+      <c r="K34" s="14"/>
+      <c r="L34" s="5"/>
+      <c r="Q34" s="22"/>
+      <c r="R34" s="22"/>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" s="11" t="s">
         <v>275</v>
       </c>
@@ -6765,12 +6993,18 @@
       <c r="G35" s="11">
         <v>30592601</v>
       </c>
-      <c r="H35" s="14"/>
-      <c r="I35" s="5"/>
-      <c r="N35" s="22"/>
-      <c r="O35" s="22"/>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="H35" s="30">
+        <v>30591000</v>
+      </c>
+      <c r="I35" s="30">
+        <v>30592601</v>
+      </c>
+      <c r="K35" s="14"/>
+      <c r="L35" s="5"/>
+      <c r="Q35" s="22"/>
+      <c r="R35" s="22"/>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" s="11" t="s">
         <v>277</v>
       </c>
@@ -6792,12 +7026,18 @@
       <c r="G36" s="11">
         <v>135326600</v>
       </c>
-      <c r="H36" s="14"/>
-      <c r="I36" s="5"/>
-      <c r="N36" s="22"/>
-      <c r="O36" s="22"/>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="H36" s="30">
+        <v>135326401</v>
+      </c>
+      <c r="I36" s="30">
+        <v>135326600</v>
+      </c>
+      <c r="K36" s="14"/>
+      <c r="L36" s="5"/>
+      <c r="Q36" s="22"/>
+      <c r="R36" s="22"/>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
         <v>279</v>
       </c>
@@ -6819,13 +7059,19 @@
       <c r="G37" s="11">
         <v>14200</v>
       </c>
-      <c r="H37" s="14"/>
-      <c r="I37" s="5"/>
-      <c r="N37" s="22"/>
-      <c r="O37" s="22"/>
+      <c r="H37" s="30">
+        <v>13401</v>
+      </c>
+      <c r="I37" s="30">
+        <v>14200</v>
+      </c>
+      <c r="K37" s="14"/>
+      <c r="L37" s="5"/>
+      <c r="Q37" s="22"/>
+      <c r="R37" s="22"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H776"/>
+  <autoFilter ref="A1:K776"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <headerFooter>
@@ -6843,21 +7089,21 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.44140625" style="11"/>
-    <col min="2" max="2" width="50.5546875" style="11"/>
-    <col min="3" max="3" width="22.88671875" style="15"/>
-    <col min="4" max="4" width="13.44140625" style="23"/>
-    <col min="5" max="5" width="19.88671875" style="14"/>
-    <col min="6" max="6" width="10.6640625" style="14"/>
-    <col min="7" max="8" width="9.109375" style="11"/>
-    <col min="9" max="1016" width="9.109375" style="23"/>
-    <col min="1017" max="1019" width="8.44140625"/>
-    <col min="1020" max="1025" width="8.6640625"/>
+    <col min="1" max="1" width="17.42578125" style="11"/>
+    <col min="2" max="2" width="50.5703125" style="11"/>
+    <col min="3" max="3" width="22.85546875" style="15"/>
+    <col min="4" max="4" width="13.42578125" style="23"/>
+    <col min="5" max="5" width="19.85546875" style="14"/>
+    <col min="6" max="6" width="10.7109375" style="14"/>
+    <col min="7" max="8" width="9.140625" style="11"/>
+    <col min="9" max="1016" width="9.140625" style="23"/>
+    <col min="1017" max="1019" width="8.42578125"/>
+    <col min="1020" max="1025" width="8.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="8" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="8" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>281</v>
       </c>
@@ -6875,7 +7121,7 @@
       </c>
       <c r="F1" s="24"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>92</v>
       </c>
@@ -6886,7 +7132,7 @@
       <c r="H2" s="22"/>
       <c r="I2" s="11"/>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>108</v>
       </c>
@@ -6916,23 +7162,23 @@
       <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.5546875" style="14"/>
-    <col min="2" max="2" width="21.109375" style="14"/>
-    <col min="3" max="3" width="10.6640625" style="14"/>
-    <col min="4" max="4" width="22.88671875" style="15"/>
-    <col min="5" max="5" width="10.6640625"/>
-    <col min="6" max="6" width="13.44140625"/>
-    <col min="7" max="7" width="13.44140625" style="11"/>
-    <col min="8" max="8" width="13.44140625" style="25"/>
-    <col min="9" max="9" width="10.6640625" style="22"/>
-    <col min="10" max="10" width="19.88671875" style="11"/>
-    <col min="11" max="11" width="13.44140625" style="11"/>
-    <col min="12" max="1021" width="9.109375" style="2"/>
+    <col min="1" max="1" width="19.5703125" style="14"/>
+    <col min="2" max="2" width="21.140625" style="14"/>
+    <col min="3" max="3" width="10.7109375" style="14"/>
+    <col min="4" max="4" width="22.85546875" style="15"/>
+    <col min="5" max="5" width="10.7109375"/>
+    <col min="6" max="6" width="13.42578125"/>
+    <col min="7" max="7" width="13.42578125" style="11"/>
+    <col min="8" max="8" width="13.42578125" style="25"/>
+    <col min="9" max="9" width="10.7109375" style="22"/>
+    <col min="10" max="10" width="19.85546875" style="11"/>
+    <col min="11" max="11" width="13.42578125" style="11"/>
+    <col min="12" max="1021" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="26" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="26" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
@@ -6965,7 +7211,7 @@
       </c>
       <c r="K1" s="8"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>285</v>
       </c>
@@ -6991,7 +7237,7 @@
       <c r="J2" s="22"/>
       <c r="K2" s="28"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>287</v>
       </c>

--- a/tests/fixtures/eukaryote_core.xlsx
+++ b/tests/fixtures/eukaryote_core.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="993" firstSheet="5" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="993" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Knowledge base" sheetId="1" r:id="rId1"/>
@@ -83,7 +83,7 @@
     <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0" localSheetId="0">'Knowledge base'!$A$1:$B$2</definedName>
     <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0" localSheetId="1">Cell!$A$1:$B$1</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -251,9 +251,6 @@
     <t>InChI=1S/p+1/i/hH</t>
   </si>
   <si>
-    <t>Sequence</t>
-  </si>
-  <si>
     <t>Circular</t>
   </si>
   <si>
@@ -1518,6 +1515,9 @@
   </si>
   <si>
     <t>ENSP00000234111, ENSP00000390691</t>
+  </si>
+  <si>
+    <t>Sequence Path</t>
   </si>
 </sst>
 </file>
@@ -2155,14 +2155,14 @@
       <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.5703125" style="1"/>
-    <col min="2" max="2" width="43.42578125" style="2"/>
-    <col min="3" max="1025" width="8.42578125"/>
+    <col min="1" max="1" width="21.5546875" style="1"/>
+    <col min="2" max="2" width="43.44140625" style="2"/>
+    <col min="3" max="1025" width="8.44140625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2170,7 +2170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -2178,7 +2178,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -2186,7 +2186,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -2194,25 +2194,25 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B5"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B6"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B7"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -2220,7 +2220,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
@@ -2236,23 +2236,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.42578125"/>
-    <col min="2" max="2" width="11.7109375"/>
-    <col min="3" max="4" width="8.5703125"/>
-    <col min="5" max="5" width="7.42578125"/>
-    <col min="6" max="6" width="10.42578125"/>
-    <col min="7" max="7" width="10.7109375"/>
-    <col min="8" max="8" width="19.85546875"/>
-    <col min="9" max="1025" width="8.5703125"/>
+    <col min="1" max="1" width="16.44140625"/>
+    <col min="2" max="2" width="11.6640625"/>
+    <col min="3" max="4" width="8.5546875"/>
+    <col min="5" max="5" width="7.44140625"/>
+    <col min="6" max="6" width="10.44140625"/>
+    <col min="7" max="7" width="10.6640625"/>
+    <col min="8" max="8" width="19.88671875"/>
+    <col min="9" max="1025" width="8.5546875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="26" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" s="26" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
@@ -2260,10 +2260,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="D1" s="8" t="s">
         <v>289</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>290</v>
       </c>
       <c r="E1" s="8" t="s">
         <v>30</v>
@@ -2279,60 +2279,60 @@
       </c>
       <c r="I1" s="8"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>290</v>
+      </c>
+      <c r="B2" t="s">
         <v>291</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
+        <v>284</v>
+      </c>
+      <c r="D2" t="s">
         <v>292</v>
       </c>
-      <c r="C2" t="s">
-        <v>285</v>
-      </c>
-      <c r="D2" t="s">
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
         <v>294</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
+        <v>284</v>
+      </c>
+      <c r="D3" t="s">
         <v>295</v>
       </c>
-      <c r="C3" t="s">
-        <v>285</v>
-      </c>
-      <c r="D3" t="s">
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B4" t="s">
         <v>297</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
+        <v>284</v>
+      </c>
+      <c r="D4" t="s">
         <v>298</v>
       </c>
-      <c r="C4" t="s">
-        <v>285</v>
-      </c>
-      <c r="D4" t="s">
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B5" t="s">
         <v>300</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
+        <v>284</v>
+      </c>
+      <c r="D5" t="s">
         <v>301</v>
-      </c>
-      <c r="C5" t="s">
-        <v>285</v>
-      </c>
-      <c r="D5" t="s">
-        <v>302</v>
       </c>
     </row>
   </sheetData>
@@ -2349,34 +2349,34 @@
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.42578125"/>
-    <col min="2" max="2" width="12.7109375"/>
-    <col min="3" max="3" width="8.5703125"/>
+    <col min="1" max="1" width="16.44140625"/>
+    <col min="2" max="2" width="12.6640625"/>
+    <col min="3" max="3" width="8.5546875"/>
     <col min="4" max="4" width="10"/>
-    <col min="5" max="5" width="10.140625"/>
-    <col min="6" max="6" width="10.42578125"/>
-    <col min="7" max="7" width="10.7109375"/>
-    <col min="8" max="8" width="19.85546875"/>
-    <col min="9" max="1025" width="8.5703125"/>
+    <col min="5" max="5" width="10.109375"/>
+    <col min="6" max="6" width="10.44140625"/>
+    <col min="7" max="7" width="10.6640625"/>
+    <col min="8" max="8" width="19.88671875"/>
+    <col min="9" max="1025" width="8.5546875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1021" s="26" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1021" s="26" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C1" s="18" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="E1" s="8" t="s">
         <v>85</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>86</v>
       </c>
       <c r="F1" s="8" t="s">
         <v>11</v>
@@ -2389,15 +2389,15 @@
       </c>
       <c r="I1" s="8"/>
     </row>
-    <row r="2" spans="1:1021" s="30" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1021" s="30" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
+        <v>302</v>
+      </c>
+      <c r="B2" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="31" t="s">
         <v>303</v>
-      </c>
-      <c r="B2" s="30" t="s">
-        <v>57</v>
-      </c>
-      <c r="C2" s="31" t="s">
-        <v>304</v>
       </c>
       <c r="D2" s="32">
         <v>10440868</v>
@@ -2408,15 +2408,15 @@
       <c r="AMF2" s="33"/>
       <c r="AMG2" s="33"/>
     </row>
-    <row r="3" spans="1:1021" s="30" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1021" s="30" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
+        <v>304</v>
+      </c>
+      <c r="B3" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="31" t="s">
         <v>305</v>
-      </c>
-      <c r="B3" s="30" t="s">
-        <v>57</v>
-      </c>
-      <c r="C3" s="31" t="s">
-        <v>306</v>
       </c>
       <c r="D3" s="32">
         <v>10441723</v>
@@ -2427,15 +2427,15 @@
       <c r="AMF3" s="33"/>
       <c r="AMG3" s="33"/>
     </row>
-    <row r="4" spans="1:1021" s="30" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1021" s="30" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="29" t="s">
+        <v>306</v>
+      </c>
+      <c r="B4" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" s="31" t="s">
         <v>307</v>
-      </c>
-      <c r="B4" s="30" t="s">
-        <v>57</v>
-      </c>
-      <c r="C4" s="31" t="s">
-        <v>308</v>
       </c>
       <c r="D4" s="32">
         <v>10441929</v>
@@ -2446,15 +2446,15 @@
       <c r="AMF4" s="33"/>
       <c r="AMG4" s="33"/>
     </row>
-    <row r="5" spans="1:1021" s="30" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1021" s="30" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="29" t="s">
+        <v>308</v>
+      </c>
+      <c r="B5" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" s="31" t="s">
         <v>309</v>
-      </c>
-      <c r="B5" s="30" t="s">
-        <v>57</v>
-      </c>
-      <c r="C5" s="31" t="s">
-        <v>310</v>
       </c>
       <c r="D5" s="32">
         <v>10442174</v>
@@ -2465,15 +2465,15 @@
       <c r="AMF5" s="33"/>
       <c r="AMG5" s="33"/>
     </row>
-    <row r="6" spans="1:1021" s="30" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1021" s="30" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="29" t="s">
+        <v>310</v>
+      </c>
+      <c r="B6" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" s="31" t="s">
         <v>311</v>
-      </c>
-      <c r="B6" s="30" t="s">
-        <v>57</v>
-      </c>
-      <c r="C6" s="31" t="s">
-        <v>312</v>
       </c>
       <c r="D6" s="32">
         <v>10443313</v>
@@ -2484,15 +2484,15 @@
       <c r="AMF6" s="33"/>
       <c r="AMG6" s="33"/>
     </row>
-    <row r="7" spans="1:1021" s="30" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1021" s="30" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="29" t="s">
+        <v>312</v>
+      </c>
+      <c r="B7" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" s="31" t="s">
         <v>313</v>
-      </c>
-      <c r="B7" s="30" t="s">
-        <v>57</v>
-      </c>
-      <c r="C7" s="31" t="s">
-        <v>314</v>
       </c>
       <c r="D7" s="32">
         <v>10443571</v>
@@ -2503,15 +2503,15 @@
       <c r="AMF7" s="33"/>
       <c r="AMG7" s="33"/>
     </row>
-    <row r="8" spans="1:1021" s="30" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1021" s="30" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="29" t="s">
+        <v>314</v>
+      </c>
+      <c r="B8" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" s="31" t="s">
         <v>315</v>
-      </c>
-      <c r="B8" s="30" t="s">
-        <v>57</v>
-      </c>
-      <c r="C8" s="31" t="s">
-        <v>316</v>
       </c>
       <c r="D8" s="32">
         <v>10443836</v>
@@ -2522,15 +2522,15 @@
       <c r="AMF8" s="33"/>
       <c r="AMG8" s="33"/>
     </row>
-    <row r="9" spans="1:1021" s="30" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1021" s="30" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="29" t="s">
+        <v>316</v>
+      </c>
+      <c r="B9" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="31" t="s">
         <v>317</v>
-      </c>
-      <c r="B9" s="30" t="s">
-        <v>57</v>
-      </c>
-      <c r="C9" s="31" t="s">
-        <v>318</v>
       </c>
       <c r="D9" s="32">
         <v>10444267</v>
@@ -2541,15 +2541,15 @@
       <c r="AMF9" s="33"/>
       <c r="AMG9" s="33"/>
     </row>
-    <row r="10" spans="1:1021" s="30" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1021" s="30" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="29" t="s">
+        <v>318</v>
+      </c>
+      <c r="B10" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" s="31" t="s">
         <v>319</v>
-      </c>
-      <c r="B10" s="30" t="s">
-        <v>57</v>
-      </c>
-      <c r="C10" s="31" t="s">
-        <v>320</v>
       </c>
       <c r="D10" s="32">
         <v>10444647</v>
@@ -2560,15 +2560,15 @@
       <c r="AMF10" s="33"/>
       <c r="AMG10" s="33"/>
     </row>
-    <row r="11" spans="1:1021" s="30" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1021" s="30" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="29" t="s">
+        <v>320</v>
+      </c>
+      <c r="B11" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" s="31" t="s">
         <v>321</v>
-      </c>
-      <c r="B11" s="30" t="s">
-        <v>57</v>
-      </c>
-      <c r="C11" s="31" t="s">
-        <v>322</v>
       </c>
       <c r="D11" s="32">
         <v>10445049</v>
@@ -2579,15 +2579,15 @@
       <c r="AMF11" s="33"/>
       <c r="AMG11" s="33"/>
     </row>
-    <row r="12" spans="1:1021" s="30" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1021" s="30" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="29" t="s">
+        <v>322</v>
+      </c>
+      <c r="B12" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" s="31" t="s">
         <v>323</v>
-      </c>
-      <c r="B12" s="30" t="s">
-        <v>57</v>
-      </c>
-      <c r="C12" s="31" t="s">
-        <v>324</v>
       </c>
       <c r="D12" s="32">
         <v>10445264</v>
@@ -2598,15 +2598,15 @@
       <c r="AMF12" s="33"/>
       <c r="AMG12" s="33"/>
     </row>
-    <row r="13" spans="1:1021" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1021" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>324</v>
+      </c>
+      <c r="B13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" s="31" t="s">
         <v>325</v>
-      </c>
-      <c r="B13" t="s">
-        <v>57</v>
-      </c>
-      <c r="C13" s="31" t="s">
-        <v>326</v>
       </c>
       <c r="D13" s="34">
         <v>10448504</v>
@@ -2615,15 +2615,15 @@
         <v>10448121</v>
       </c>
     </row>
-    <row r="14" spans="1:1021" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1021" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
+        <v>326</v>
+      </c>
+      <c r="B14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" s="31" t="s">
         <v>327</v>
-      </c>
-      <c r="B14" t="s">
-        <v>57</v>
-      </c>
-      <c r="C14" s="31" t="s">
-        <v>328</v>
       </c>
       <c r="D14" s="34">
         <v>10440868</v>
@@ -2632,15 +2632,15 @@
         <v>10440601</v>
       </c>
     </row>
-    <row r="15" spans="1:1021" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1021" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
+        <v>328</v>
+      </c>
+      <c r="B15" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" s="31" t="s">
         <v>329</v>
-      </c>
-      <c r="B15" t="s">
-        <v>57</v>
-      </c>
-      <c r="C15" s="31" t="s">
-        <v>330</v>
       </c>
       <c r="D15" s="34">
         <v>10447780</v>
@@ -2649,15 +2649,15 @@
         <v>10447474</v>
       </c>
     </row>
-    <row r="16" spans="1:1021" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1021" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
+        <v>330</v>
+      </c>
+      <c r="B16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" s="31" t="s">
         <v>331</v>
-      </c>
-      <c r="B16" t="s">
-        <v>57</v>
-      </c>
-      <c r="C16" s="31" t="s">
-        <v>332</v>
       </c>
       <c r="D16" s="34">
         <v>10444647</v>
@@ -2666,15 +2666,15 @@
         <v>10444544</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
+        <v>332</v>
+      </c>
+      <c r="B17" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" s="31" t="s">
         <v>333</v>
-      </c>
-      <c r="B17" t="s">
-        <v>57</v>
-      </c>
-      <c r="C17" s="31" t="s">
-        <v>334</v>
       </c>
       <c r="D17" s="34">
         <v>10447788</v>
@@ -2683,15 +2683,15 @@
         <v>10447628</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
+        <v>334</v>
+      </c>
+      <c r="B18" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18" s="31" t="s">
         <v>335</v>
-      </c>
-      <c r="B18" t="s">
-        <v>57</v>
-      </c>
-      <c r="C18" s="31" t="s">
-        <v>336</v>
       </c>
       <c r="D18" s="34">
         <v>10444267</v>
@@ -2700,15 +2700,15 @@
         <v>10444095</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
+        <v>336</v>
+      </c>
+      <c r="B19" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19" s="31" t="s">
         <v>337</v>
-      </c>
-      <c r="B19" t="s">
-        <v>57</v>
-      </c>
-      <c r="C19" s="31" t="s">
-        <v>338</v>
       </c>
       <c r="D19" s="34">
         <v>10444547</v>
@@ -2717,15 +2717,15 @@
         <v>10444474</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
+        <v>338</v>
+      </c>
+      <c r="B20" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20" s="31" t="s">
         <v>339</v>
-      </c>
-      <c r="B20" t="s">
-        <v>57</v>
-      </c>
-      <c r="C20" s="31" t="s">
-        <v>340</v>
       </c>
       <c r="D20" s="34">
         <v>10445049</v>
@@ -2734,15 +2734,15 @@
         <v>10444931</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
+        <v>340</v>
+      </c>
+      <c r="B21" t="s">
+        <v>56</v>
+      </c>
+      <c r="C21" s="31" t="s">
         <v>341</v>
-      </c>
-      <c r="B21" t="s">
-        <v>57</v>
-      </c>
-      <c r="C21" s="31" t="s">
-        <v>342</v>
       </c>
       <c r="D21" s="34">
         <v>10448309</v>
@@ -2765,22 +2765,22 @@
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.28515625" style="13"/>
-    <col min="2" max="2" width="33.85546875" style="13"/>
-    <col min="3" max="3" width="16.42578125" style="14"/>
-    <col min="4" max="4" width="16.42578125" style="11"/>
-    <col min="5" max="5" width="25.5703125" style="30" customWidth="1"/>
-    <col min="6" max="6" width="10.42578125" style="2"/>
-    <col min="7" max="7" width="40.28515625" style="13"/>
-    <col min="8" max="8" width="9.140625" style="2"/>
-    <col min="9" max="9" width="19.85546875" style="2"/>
-    <col min="10" max="1021" width="9.140625" style="2"/>
-    <col min="1024" max="1026" width="8.7109375"/>
+    <col min="1" max="1" width="20.33203125" style="13"/>
+    <col min="2" max="2" width="33.88671875" style="13"/>
+    <col min="3" max="3" width="16.44140625" style="14"/>
+    <col min="4" max="4" width="16.44140625" style="11"/>
+    <col min="5" max="5" width="25.5546875" style="30" customWidth="1"/>
+    <col min="6" max="6" width="10.44140625" style="2"/>
+    <col min="7" max="7" width="40.33203125" style="13"/>
+    <col min="8" max="8" width="9.109375" style="2"/>
+    <col min="9" max="9" width="19.88671875" style="2"/>
+    <col min="10" max="1021" width="9.109375" style="2"/>
+    <col min="1024" max="1026" width="8.6640625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="8" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" s="8" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -2788,16 +2788,16 @@
         <v>2</v>
       </c>
       <c r="C1" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="D1" s="8" t="s">
         <v>343</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="E1" s="8" t="s">
+        <v>469</v>
+      </c>
+      <c r="F1" s="8" t="s">
         <v>344</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>470</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>345</v>
       </c>
       <c r="G1" s="8" t="s">
         <v>11</v>
@@ -2809,55 +2809,55 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
+        <v>345</v>
+      </c>
+      <c r="B2" s="13" t="s">
         <v>346</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="C2" s="14" t="s">
         <v>347</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="D2" s="11" t="s">
+        <v>290</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="13" t="s">
         <v>348</v>
       </c>
-      <c r="D2" s="11" t="s">
-        <v>291</v>
-      </c>
-      <c r="E2" s="13" t="s">
+      <c r="B3" s="13" t="s">
+        <v>346</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>347</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>293</v>
+      </c>
+      <c r="E3" s="13" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="13" t="s">
         <v>349</v>
       </c>
-      <c r="B3" s="13" t="s">
-        <v>347</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>348</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>294</v>
-      </c>
-      <c r="E3" s="13" t="s">
+      <c r="B4" s="13" t="s">
+        <v>346</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>350</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>296</v>
+      </c>
+      <c r="E4" s="13" t="s">
         <v>468</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
-        <v>350</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>347</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>351</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>297</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>469</v>
       </c>
     </row>
   </sheetData>
@@ -2879,32 +2879,32 @@
       <selection activeCell="A2" sqref="A2:A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.85546875" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.88671875" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C1" s="18" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="E1" s="8" t="s">
         <v>85</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>86</v>
       </c>
       <c r="F1" s="8" t="s">
         <v>11</v>
@@ -2916,12 +2916,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D2" s="32">
         <v>10439999</v>
@@ -2930,12 +2930,12 @@
         <v>10448100</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D3" s="34">
         <v>10440600</v>
@@ -2944,12 +2944,12 @@
         <v>10447000</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D4" s="34">
         <v>10444500</v>
@@ -2971,50 +2971,50 @@
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="38.7109375" style="2"/>
+    <col min="1" max="1" width="38.6640625" style="2"/>
     <col min="2" max="2" width="46" style="35"/>
-    <col min="3" max="3" width="32.85546875" style="2"/>
+    <col min="3" max="3" width="32.88671875" style="2"/>
     <col min="4" max="4" width="45" style="36"/>
-    <col min="5" max="5" width="29.28515625" style="36"/>
-    <col min="6" max="6" width="16.42578125" style="11"/>
-    <col min="7" max="8" width="8.42578125" style="2"/>
-    <col min="9" max="9" width="13.42578125" style="2"/>
-    <col min="10" max="10" width="37.28515625" style="2"/>
-    <col min="11" max="11" width="13.42578125" style="2"/>
-    <col min="12" max="12" width="19.85546875" style="2"/>
-    <col min="13" max="1022" width="8.42578125" style="2"/>
-    <col min="1023" max="1025" width="8.42578125"/>
+    <col min="5" max="5" width="29.33203125" style="36"/>
+    <col min="6" max="6" width="16.44140625" style="11"/>
+    <col min="7" max="8" width="8.44140625" style="2"/>
+    <col min="9" max="9" width="13.44140625" style="2"/>
+    <col min="10" max="10" width="37.33203125" style="2"/>
+    <col min="11" max="11" width="13.44140625" style="2"/>
+    <col min="12" max="12" width="19.88671875" style="2"/>
+    <col min="13" max="1022" width="8.44140625" style="2"/>
+    <col min="1023" max="1025" width="8.44140625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B1" s="38" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="37" t="s">
+        <v>352</v>
+      </c>
+      <c r="D1" s="37" t="s">
         <v>353</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="E1" s="37" t="s">
         <v>354</v>
       </c>
-      <c r="E1" s="37" t="s">
+      <c r="F1" s="37" t="s">
         <v>355</v>
       </c>
-      <c r="F1" s="37" t="s">
+      <c r="G1" s="37" t="s">
         <v>356</v>
       </c>
-      <c r="G1" s="37" t="s">
+      <c r="H1" s="37" t="s">
         <v>357</v>
       </c>
-      <c r="H1" s="37" t="s">
-        <v>358</v>
-      </c>
       <c r="I1" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J1" s="37" t="s">
         <v>11</v>
@@ -3026,21 +3026,21 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
+        <v>358</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>359</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="C2" s="22" t="s">
         <v>360</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="D2" s="36" t="s">
         <v>361</v>
       </c>
-      <c r="D2" s="36" t="s">
+      <c r="E2" s="36" t="s">
         <v>362</v>
-      </c>
-      <c r="E2" s="36" t="s">
-        <v>363</v>
       </c>
       <c r="F2" s="14"/>
       <c r="G2" s="13"/>
@@ -3048,24 +3048,24 @@
       <c r="I2" s="11"/>
       <c r="J2" s="13"/>
       <c r="K2" s="13" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="13" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
+      <c r="B3" s="10" t="s">
+        <v>359</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>360</v>
+      </c>
+      <c r="D3" s="36" t="s">
         <v>365</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>360</v>
-      </c>
-      <c r="C3" s="22" t="s">
-        <v>361</v>
-      </c>
-      <c r="D3" s="36" t="s">
-        <v>366</v>
-      </c>
       <c r="E3" s="36" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F3" s="14"/>
       <c r="G3" s="13"/>
@@ -3073,21 +3073,21 @@
       <c r="J3" s="13"/>
       <c r="K3" s="13"/>
     </row>
-    <row r="4" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
+        <v>366</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>359</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>360</v>
+      </c>
+      <c r="D4" s="36" t="s">
         <v>367</v>
       </c>
-      <c r="B4" s="10" t="s">
-        <v>360</v>
-      </c>
-      <c r="C4" s="22" t="s">
-        <v>361</v>
-      </c>
-      <c r="D4" s="36" t="s">
-        <v>368</v>
-      </c>
       <c r="E4" s="36" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F4" s="14"/>
       <c r="G4" s="13"/>
@@ -3095,21 +3095,21 @@
       <c r="J4" s="13"/>
       <c r="K4" s="13"/>
     </row>
-    <row r="5" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="13" t="s">
+        <v>368</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>359</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>360</v>
+      </c>
+      <c r="D5" s="36" t="s">
         <v>369</v>
       </c>
-      <c r="B5" s="10" t="s">
-        <v>360</v>
-      </c>
-      <c r="C5" s="22" t="s">
-        <v>361</v>
-      </c>
-      <c r="D5" s="36" t="s">
+      <c r="E5" s="36" t="s">
         <v>370</v>
-      </c>
-      <c r="E5" s="36" t="s">
-        <v>371</v>
       </c>
       <c r="F5" s="14"/>
       <c r="G5" s="13"/>
@@ -3135,26 +3135,26 @@
       <selection pane="bottomRight" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.42578125" style="39"/>
-    <col min="2" max="2" width="8.5703125" style="39"/>
-    <col min="3" max="3" width="11.5703125" style="39"/>
-    <col min="4" max="4" width="10.42578125" style="39"/>
-    <col min="5" max="5" width="10.7109375" style="39"/>
-    <col min="6" max="6" width="19.85546875" style="39"/>
-    <col min="7" max="1025" width="8.5703125" style="39"/>
+    <col min="1" max="1" width="19.44140625" style="39"/>
+    <col min="2" max="2" width="8.5546875" style="39"/>
+    <col min="3" max="3" width="11.5546875" style="39"/>
+    <col min="4" max="4" width="10.44140625" style="39"/>
+    <col min="5" max="5" width="10.6640625" style="39"/>
+    <col min="6" max="6" width="19.88671875" style="39"/>
+    <col min="7" max="1025" width="8.5546875" style="39"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="40" customFormat="1" ht="15.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="40" customFormat="1" ht="15.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="40" t="s">
+        <v>371</v>
+      </c>
+      <c r="B1" s="40" t="s">
         <v>372</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="C1" s="40" t="s">
         <v>373</v>
-      </c>
-      <c r="C1" s="40" t="s">
-        <v>374</v>
       </c>
       <c r="D1" s="40" t="s">
         <v>11</v>
@@ -3166,131 +3166,131 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="39" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B2" s="39">
         <v>1</v>
       </c>
       <c r="C2" s="39" t="s">
+        <v>375</v>
+      </c>
+      <c r="F2" s="39" t="s">
         <v>376</v>
       </c>
-      <c r="F2" s="39" t="s">
+    </row>
+    <row r="3" spans="1:6" ht="15.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="39" t="s">
         <v>377</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="15.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="39" t="s">
-        <v>378</v>
       </c>
       <c r="B3" s="39">
         <v>1</v>
       </c>
       <c r="C3" s="39" t="s">
+        <v>378</v>
+      </c>
+      <c r="E3" s="39" t="s">
         <v>379</v>
       </c>
-      <c r="E3" s="39" t="s">
+    </row>
+    <row r="4" spans="1:6" ht="15.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="39" t="s">
         <v>380</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="15.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="39" t="s">
-        <v>381</v>
       </c>
       <c r="B4" s="39">
         <v>1</v>
       </c>
       <c r="C4" s="39" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="39" t="s">
         <v>382</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="15.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="39" t="s">
-        <v>383</v>
       </c>
       <c r="B5" s="39">
         <v>1</v>
       </c>
       <c r="C5" s="39" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="15.2" customHeight="1" x14ac:dyDescent="0.25">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="39" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B6" s="39">
         <v>0.25</v>
       </c>
       <c r="C6" s="39" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="15.2" customHeight="1" x14ac:dyDescent="0.25">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="39" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B7" s="39">
         <v>0.25</v>
       </c>
       <c r="C7" s="39" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="15.2" customHeight="1" x14ac:dyDescent="0.25">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="39" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B8" s="39">
         <v>0.25</v>
       </c>
       <c r="C8" s="39" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="15.2" customHeight="1" x14ac:dyDescent="0.25">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="39" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B9" s="39">
         <v>0.25</v>
       </c>
       <c r="C9" s="39" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="15.2" customHeight="1" x14ac:dyDescent="0.25">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="41" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B10" s="39">
         <v>0.5</v>
       </c>
       <c r="C10" s="39" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="15.2" customHeight="1" x14ac:dyDescent="0.25">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="41" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B11" s="39">
         <v>0.5</v>
       </c>
       <c r="C11" s="39" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="15.2" customHeight="1" x14ac:dyDescent="0.25">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="41" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B12" s="39">
         <v>0.5</v>
       </c>
       <c r="C12" s="39" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
   </sheetData>
@@ -3307,17 +3307,17 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16"/>
-    <col min="4" max="4" width="15.42578125"/>
+    <col min="4" max="4" width="15.44140625"/>
     <col min="5" max="5" width="14"/>
-    <col min="6" max="6" width="10.5703125"/>
-    <col min="7" max="7" width="11.140625"/>
-    <col min="8" max="8" width="20.5703125"/>
+    <col min="6" max="6" width="10.5546875"/>
+    <col min="7" max="7" width="11.109375"/>
+    <col min="8" max="8" width="20.5546875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="8" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" s="8" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -3325,13 +3325,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="8" t="s">
+        <v>390</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>371</v>
+      </c>
+      <c r="E1" s="8" t="s">
         <v>391</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>372</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>392</v>
       </c>
       <c r="F1" s="8" t="s">
         <v>11</v>
@@ -3343,12 +3343,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>392</v>
+      </c>
+      <c r="D2" s="13" t="s">
         <v>393</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>394</v>
       </c>
     </row>
   </sheetData>
@@ -3369,19 +3369,19 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" style="2"/>
-    <col min="2" max="2" width="23.42578125" style="2"/>
-    <col min="3" max="3" width="17.7109375" style="2"/>
-    <col min="4" max="4" width="18.7109375" style="2"/>
-    <col min="5" max="5" width="12.7109375" style="2"/>
-    <col min="6" max="6" width="14.7109375" style="2"/>
-    <col min="7" max="1022" width="37.28515625" style="2"/>
-    <col min="1023" max="1025" width="8.42578125"/>
+    <col min="1" max="1" width="18.6640625" style="2"/>
+    <col min="2" max="2" width="23.44140625" style="2"/>
+    <col min="3" max="3" width="17.6640625" style="2"/>
+    <col min="4" max="4" width="18.6640625" style="2"/>
+    <col min="5" max="5" width="12.6640625" style="2"/>
+    <col min="6" max="6" width="14.6640625" style="2"/>
+    <col min="7" max="1022" width="37.33203125" style="2"/>
+    <col min="1023" max="1025" width="8.44140625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="8" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" s="8" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -3389,13 +3389,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="8" t="s">
+        <v>394</v>
+      </c>
+      <c r="D1" s="37" t="s">
         <v>395</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="E1" s="8" t="s">
         <v>396</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>397</v>
       </c>
       <c r="F1" s="37" t="s">
         <v>11</v>
@@ -3407,75 +3407,75 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>399</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>400</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>401</v>
       </c>
       <c r="E2" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>403</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>400</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>404</v>
       </c>
       <c r="E3" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>406</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>400</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>407</v>
       </c>
       <c r="E4" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>408</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="C5" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>409</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>400</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>410</v>
       </c>
       <c r="E5" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>37</v>
       </c>
@@ -3483,44 +3483,44 @@
         <v>37</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E6" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>412</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="C7" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>413</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>400</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>414</v>
       </c>
       <c r="E7" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>413</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>400</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>414</v>
       </c>
       <c r="E8" s="2">
         <v>0</v>
@@ -3548,34 +3548,34 @@
       <selection pane="bottomRight" activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.28515625" style="42"/>
-    <col min="2" max="2" width="10.7109375" style="42"/>
-    <col min="3" max="3" width="10.42578125" style="42"/>
+    <col min="1" max="1" width="20.33203125" style="42"/>
+    <col min="2" max="2" width="10.6640625" style="42"/>
+    <col min="3" max="3" width="10.44140625" style="42"/>
     <col min="4" max="4" width="11" style="42"/>
-    <col min="5" max="5" width="6.5703125" style="42"/>
-    <col min="6" max="6" width="28.7109375" style="42"/>
+    <col min="5" max="5" width="6.5546875" style="42"/>
+    <col min="6" max="6" width="28.6640625" style="42"/>
     <col min="7" max="7" width="11" style="42"/>
     <col min="8" max="8" width="20" style="42"/>
-    <col min="9" max="1025" width="8.7109375" style="42"/>
+    <col min="9" max="1025" width="8.6640625" style="42"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="43" t="s">
+        <v>415</v>
+      </c>
+      <c r="B1" s="43" t="s">
         <v>416</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="C1" s="43" t="s">
         <v>417</v>
       </c>
-      <c r="C1" s="43" t="s">
+      <c r="D1" s="43" t="s">
         <v>418</v>
       </c>
-      <c r="D1" s="43" t="s">
+      <c r="E1" s="43" t="s">
         <v>419</v>
-      </c>
-      <c r="E1" s="43" t="s">
-        <v>420</v>
       </c>
       <c r="F1" s="43" t="s">
         <v>11</v>
@@ -3587,47 +3587,47 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="42" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B2" s="42" t="s">
+        <v>420</v>
+      </c>
+      <c r="C2" s="42" t="s">
         <v>421</v>
-      </c>
-      <c r="C2" s="42" t="s">
-        <v>422</v>
       </c>
       <c r="D2"/>
       <c r="E2"/>
       <c r="F2"/>
       <c r="H2"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="42" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B3" s="42" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C3" s="42" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
       <c r="F3" s="42" t="s">
+        <v>423</v>
+      </c>
+      <c r="H3"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="42" t="s">
+        <v>404</v>
+      </c>
+      <c r="B4" s="42" t="s">
+        <v>420</v>
+      </c>
+      <c r="C4" s="42" t="s">
         <v>424</v>
-      </c>
-      <c r="H3"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="42" t="s">
-        <v>405</v>
-      </c>
-      <c r="B4" s="42" t="s">
-        <v>421</v>
-      </c>
-      <c r="C4" s="42" t="s">
-        <v>425</v>
       </c>
       <c r="D4" s="42">
         <v>1</v>
@@ -3636,78 +3636,78 @@
         <v>2</v>
       </c>
       <c r="F4" s="42" t="s">
+        <v>425</v>
+      </c>
+      <c r="H4"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="42" t="s">
+        <v>407</v>
+      </c>
+      <c r="B5" s="42" t="s">
+        <v>420</v>
+      </c>
+      <c r="C5" s="42" t="s">
+        <v>421</v>
+      </c>
+      <c r="F5" s="42" t="s">
         <v>426</v>
       </c>
-      <c r="H4"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="42" t="s">
-        <v>408</v>
-      </c>
-      <c r="B5" s="42" t="s">
-        <v>421</v>
-      </c>
-      <c r="C5" s="42" t="s">
-        <v>422</v>
-      </c>
-      <c r="F5" s="42" t="s">
-        <v>427</v>
-      </c>
       <c r="H5"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="42" t="s">
         <v>37</v>
       </c>
       <c r="B6" s="42" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C6" s="42" t="s">
+        <v>427</v>
+      </c>
+      <c r="F6" s="42" t="s">
         <v>428</v>
       </c>
-      <c r="F6" s="42" t="s">
-        <v>429</v>
-      </c>
       <c r="H6"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="42" t="s">
         <v>37</v>
       </c>
       <c r="B7" s="42" t="s">
+        <v>429</v>
+      </c>
+      <c r="C7" s="42" t="s">
         <v>430</v>
       </c>
-      <c r="C7" s="42" t="s">
+      <c r="H7"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="42" t="s">
+        <v>411</v>
+      </c>
+      <c r="B8" s="45" t="s">
+        <v>420</v>
+      </c>
+      <c r="C8" s="45" t="s">
         <v>431</v>
       </c>
-      <c r="H7"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="42" t="s">
-        <v>412</v>
-      </c>
-      <c r="B8" s="45" t="s">
-        <v>421</v>
-      </c>
-      <c r="C8" s="45" t="s">
+      <c r="H8" s="45" t="s">
         <v>432</v>
       </c>
-      <c r="H8" s="45" t="s">
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="42" t="s">
+        <v>414</v>
+      </c>
+      <c r="B9" s="45" t="s">
+        <v>420</v>
+      </c>
+      <c r="C9" s="45" t="s">
         <v>433</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="42" t="s">
-        <v>415</v>
-      </c>
-      <c r="B9" s="45" t="s">
-        <v>421</v>
-      </c>
-      <c r="C9" s="45" t="s">
+      <c r="H9" s="45" t="s">
         <v>434</v>
-      </c>
-      <c r="H9" s="45" t="s">
-        <v>435</v>
       </c>
     </row>
   </sheetData>
@@ -3723,16 +3723,16 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="5" width="8.5703125"/>
-    <col min="6" max="6" width="10.5703125"/>
-    <col min="7" max="7" width="11.140625"/>
-    <col min="8" max="8" width="20.5703125"/>
-    <col min="9" max="1025" width="8.5703125"/>
+    <col min="1" max="5" width="8.5546875"/>
+    <col min="6" max="6" width="10.5546875"/>
+    <col min="7" max="7" width="11.109375"/>
+    <col min="8" max="8" width="20.5546875"/>
+    <col min="9" max="1025" width="8.5546875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -3740,13 +3740,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="8" t="s">
+        <v>372</v>
+      </c>
+      <c r="D1" s="37" t="s">
+        <v>435</v>
+      </c>
+      <c r="E1" s="8" t="s">
         <v>373</v>
-      </c>
-      <c r="D1" s="37" t="s">
-        <v>436</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>374</v>
       </c>
       <c r="F1" s="37" t="s">
         <v>11</v>
@@ -3758,12 +3758,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>436</v>
+      </c>
+      <c r="B2" t="s">
         <v>437</v>
-      </c>
-      <c r="B2" t="s">
-        <v>438</v>
       </c>
       <c r="C2">
         <v>20.5</v>
@@ -3772,18 +3772,18 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="E2" t="s">
+        <v>438</v>
+      </c>
+      <c r="H2" t="s">
         <v>439</v>
       </c>
-      <c r="H2" t="s">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
         <v>441</v>
-      </c>
-      <c r="B3" t="s">
-        <v>442</v>
       </c>
       <c r="C3">
         <v>1.35</v>
@@ -3792,18 +3792,18 @@
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="E3" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H3" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>443</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B4" t="s">
         <v>444</v>
-      </c>
-      <c r="B4" t="s">
-        <v>445</v>
       </c>
       <c r="C4">
         <v>0.46</v>
@@ -3812,18 +3812,18 @@
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="E4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H4" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>445</v>
+      </c>
+      <c r="B5" t="s">
         <v>446</v>
-      </c>
-      <c r="B5" t="s">
-        <v>447</v>
       </c>
       <c r="C5">
         <v>1.2</v>
@@ -3832,10 +3832,10 @@
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="E5" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H5" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
   </sheetData>
@@ -3855,14 +3855,14 @@
       <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" style="6"/>
-    <col min="2" max="2" width="51.140625" style="2"/>
-    <col min="3" max="1025" width="8.42578125"/>
+    <col min="1" max="1" width="16.44140625" style="6"/>
+    <col min="2" max="2" width="51.109375" style="2"/>
+    <col min="3" max="1025" width="8.44140625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3870,7 +3870,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>2</v>
       </c>
@@ -3878,7 +3878,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>14</v>
       </c>
@@ -3886,7 +3886,7 @@
         <v>9606</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>11</v>
       </c>
@@ -3906,29 +3906,29 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.7109375"/>
-    <col min="2" max="2" width="15.5703125"/>
-    <col min="4" max="4" width="13.140625"/>
-    <col min="5" max="5" width="10.5703125"/>
-    <col min="6" max="6" width="11.140625"/>
-    <col min="7" max="7" width="19.85546875"/>
-    <col min="1021" max="1025" width="8.7109375"/>
+    <col min="1" max="1" width="17.6640625"/>
+    <col min="2" max="2" width="15.5546875"/>
+    <col min="4" max="4" width="13.109375"/>
+    <col min="5" max="5" width="10.5546875"/>
+    <col min="6" max="6" width="11.109375"/>
+    <col min="7" max="7" width="19.88671875"/>
+    <col min="1021" max="1025" width="8.6640625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="8" t="s">
+        <v>372</v>
+      </c>
+      <c r="D1" s="8" t="s">
         <v>373</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>374</v>
       </c>
       <c r="E1" s="8" t="s">
         <v>11</v>
@@ -3940,60 +3940,60 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>447</v>
+      </c>
+      <c r="B2" t="s">
         <v>448</v>
-      </c>
-      <c r="B2" t="s">
-        <v>449</v>
       </c>
       <c r="C2" s="46">
         <v>3.0000000000000001E-12</v>
       </c>
       <c r="D2" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
         <v>451</v>
-      </c>
-      <c r="B3" t="s">
-        <v>452</v>
       </c>
       <c r="C3" s="46">
         <v>10000000</v>
       </c>
       <c r="D3" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>453</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B4" t="s">
         <v>454</v>
-      </c>
-      <c r="B4" t="s">
-        <v>455</v>
       </c>
       <c r="C4">
         <v>0.7</v>
       </c>
       <c r="D4" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B5" t="s">
         <v>457</v>
-      </c>
-      <c r="B5" t="s">
-        <v>458</v>
       </c>
       <c r="C5">
         <v>71280</v>
       </c>
       <c r="D5" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
   </sheetData>
@@ -4014,43 +4014,43 @@
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.5703125"/>
-    <col min="2" max="2" width="18.5703125"/>
-    <col min="3" max="1025" width="8.5703125"/>
+    <col min="1" max="1" width="8.5546875"/>
+    <col min="2" max="2" width="18.5546875"/>
+    <col min="3" max="1025" width="8.5546875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
+        <v>459</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>460</v>
       </c>
-      <c r="B1" s="8" t="s">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>363</v>
+      </c>
+      <c r="B2" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>364</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>379</v>
+      </c>
+      <c r="B3" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>380</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B4" t="s">
         <v>464</v>
-      </c>
-      <c r="B4" t="s">
-        <v>465</v>
       </c>
     </row>
   </sheetData>
@@ -4067,19 +4067,19 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="7"/>
-    <col min="2" max="2" width="16.140625" style="2"/>
-    <col min="3" max="3" width="17.7109375" style="2"/>
-    <col min="4" max="4" width="11.28515625" style="2"/>
-    <col min="5" max="5" width="11.140625" style="2"/>
-    <col min="6" max="6" width="20.5703125" style="2"/>
-    <col min="7" max="1020" width="9.140625" style="2"/>
-    <col min="1024" max="1025" width="8.7109375"/>
+    <col min="1" max="1" width="9.109375" style="7"/>
+    <col min="2" max="2" width="16.109375" style="2"/>
+    <col min="3" max="3" width="17.6640625" style="2"/>
+    <col min="4" max="4" width="11.33203125" style="2"/>
+    <col min="5" max="5" width="11.109375" style="2"/>
+    <col min="6" max="6" width="20.5546875" style="2"/>
+    <col min="7" max="1020" width="9.109375" style="2"/>
+    <col min="1024" max="1025" width="8.6640625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="8" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" s="8" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -4099,7 +4099,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>18</v>
       </c>
@@ -4116,7 +4116,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>22</v>
       </c>
@@ -4128,7 +4128,7 @@
       </c>
       <c r="F3"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>24</v>
       </c>
@@ -4142,7 +4142,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>27</v>
       </c>
@@ -4168,19 +4168,19 @@
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.85546875" style="9"/>
-    <col min="2" max="2" width="39.42578125" style="9"/>
-    <col min="3" max="3" width="13.7109375" style="2"/>
-    <col min="4" max="4" width="10.7109375" style="2"/>
+    <col min="1" max="1" width="23.88671875" style="9"/>
+    <col min="2" max="2" width="39.44140625" style="9"/>
+    <col min="3" max="3" width="13.6640625" style="2"/>
+    <col min="4" max="4" width="10.6640625" style="2"/>
     <col min="5" max="5" width="55" style="9"/>
-    <col min="6" max="6" width="9.140625" style="2"/>
-    <col min="7" max="7" width="19.85546875" style="2"/>
-    <col min="8" max="1022" width="9.140625" style="2"/>
+    <col min="6" max="6" width="9.109375" style="2"/>
+    <col min="7" max="7" width="19.88671875" style="2"/>
+    <col min="8" max="1022" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="8" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" s="8" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -4203,7 +4203,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>31</v>
       </c>
@@ -4211,7 +4211,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>33</v>
       </c>
@@ -4222,7 +4222,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>36</v>
       </c>
@@ -4230,7 +4230,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>38</v>
       </c>
@@ -4238,7 +4238,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
         <v>40</v>
       </c>
@@ -4249,7 +4249,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>43</v>
       </c>
@@ -4260,7 +4260,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
         <v>46</v>
       </c>
@@ -4271,7 +4271,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>49</v>
       </c>
@@ -4296,24 +4296,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.140625" style="7"/>
+    <col min="1" max="1" width="14.109375" style="7"/>
     <col min="2" max="2" width="13" style="11"/>
-    <col min="3" max="4" width="11.7109375" style="2"/>
-    <col min="5" max="5" width="22.140625" style="2"/>
-    <col min="6" max="6" width="9.140625" style="2"/>
-    <col min="7" max="8" width="13.42578125" style="2"/>
-    <col min="9" max="9" width="13.42578125"/>
-    <col min="10" max="10" width="19.85546875"/>
-    <col min="11" max="12" width="13.42578125"/>
+    <col min="3" max="4" width="11.6640625" style="2"/>
+    <col min="5" max="5" width="22.109375" style="2"/>
+    <col min="6" max="6" width="9.109375" style="2"/>
+    <col min="7" max="8" width="13.44140625" style="2"/>
+    <col min="9" max="9" width="13.44140625"/>
+    <col min="10" max="10" width="19.88671875"/>
+    <col min="11" max="12" width="13.44140625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -4321,19 +4321,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="8" t="s">
+        <v>474</v>
+      </c>
+      <c r="D1" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="E1" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="F1" s="8" t="s">
+        <v>465</v>
+      </c>
+      <c r="G1" s="8" t="s">
         <v>54</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>466</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>55</v>
       </c>
       <c r="H1" s="8" t="s">
         <v>11</v>
@@ -4345,12 +4345,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C2" s="12"/>
       <c r="D2" s="11">
@@ -4364,12 +4364,12 @@
       </c>
       <c r="G2" s="11"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D3" s="11">
         <v>0</v>
@@ -4381,12 +4381,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D4" s="11">
         <v>0</v>
@@ -4398,12 +4398,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D5" s="11">
         <v>0</v>
@@ -4415,12 +4415,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D6" s="11">
         <v>0</v>
@@ -4432,12 +4432,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D7" s="11">
         <v>0</v>
@@ -4449,12 +4449,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D8" s="11">
         <v>0</v>
@@ -4466,12 +4466,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D9" s="11">
         <v>0</v>
@@ -4483,12 +4483,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D10" s="11">
         <v>0</v>
@@ -4500,12 +4500,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D11" s="11">
         <v>0</v>
@@ -4517,12 +4517,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D12" s="11">
         <v>0</v>
@@ -4534,12 +4534,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D13" s="11">
         <v>0</v>
@@ -4551,12 +4551,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D14" s="11">
         <v>0</v>
@@ -4568,12 +4568,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D15" s="11">
         <v>0</v>
@@ -4585,12 +4585,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D16" s="11">
         <v>0</v>
@@ -4602,12 +4602,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D17" s="11">
         <v>0</v>
@@ -4619,12 +4619,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D18" s="11">
         <v>0</v>
@@ -4636,12 +4636,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D19" s="11">
         <v>0</v>
@@ -4653,12 +4653,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D20" s="11">
         <v>0</v>
@@ -4670,12 +4670,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D21" s="11">
         <v>0</v>
@@ -4687,12 +4687,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D22" s="11">
         <v>0</v>
@@ -4704,12 +4704,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D23" s="11">
         <v>0</v>
@@ -4721,12 +4721,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D24" s="11">
         <v>0</v>
@@ -4738,12 +4738,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D25" s="11">
         <v>0</v>
@@ -4755,12 +4755,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D26" s="11">
         <v>0</v>
@@ -4790,42 +4790,42 @@
       <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" style="11"/>
-    <col min="2" max="2" width="16.42578125" style="11"/>
-    <col min="3" max="3" width="42.42578125" style="13"/>
-    <col min="4" max="6" width="13.42578125" style="14"/>
-    <col min="7" max="8" width="13.42578125" style="11"/>
-    <col min="9" max="9" width="16.42578125" style="15"/>
-    <col min="10" max="1023" width="32.5703125" style="2"/>
-    <col min="1024" max="1025" width="8.42578125"/>
+    <col min="1" max="1" width="17.44140625" style="11"/>
+    <col min="2" max="2" width="16.44140625" style="11"/>
+    <col min="3" max="3" width="42.44140625" style="13"/>
+    <col min="4" max="6" width="13.44140625" style="14"/>
+    <col min="7" max="8" width="13.44140625" style="11"/>
+    <col min="9" max="9" width="16.44140625" style="15"/>
+    <col min="10" max="1023" width="32.5546875" style="2"/>
+    <col min="1024" max="1025" width="8.44140625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1023" s="8" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1023" s="8" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="F1" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="G1" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="H1" s="8" t="s">
         <v>85</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>86</v>
       </c>
       <c r="I1" s="8" t="s">
         <v>11</v>
@@ -4843,24 +4843,24 @@
       <c r="AMH1" s="2"/>
       <c r="AMI1" s="2"/>
     </row>
-    <row r="2" spans="1:1023" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1023" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="B2" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="C2" s="13" t="s">
+      <c r="D2" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="E2" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="F2" s="16" t="s">
         <v>90</v>
-      </c>
-      <c r="F2" s="16" t="s">
-        <v>91</v>
       </c>
       <c r="G2" s="17">
         <v>20633455</v>
@@ -4869,24 +4869,24 @@
         <v>20651511</v>
       </c>
     </row>
-    <row r="3" spans="1:1023" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1023" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="B3" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="C3" s="13" t="s">
+      <c r="D3" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="E3" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="F3" s="16" t="s">
         <v>94</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="F3" s="16" t="s">
-        <v>95</v>
       </c>
       <c r="G3" s="17">
         <v>10439968</v>
@@ -4895,24 +4895,24 @@
         <v>10448504</v>
       </c>
     </row>
-    <row r="4" spans="1:1023" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1023" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="B4" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="C4" s="13" t="s">
+      <c r="D4" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="D4" s="14" t="s">
-        <v>98</v>
-      </c>
       <c r="E4" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G4" s="17">
         <v>69319769</v>
@@ -4921,24 +4921,24 @@
         <v>69387254</v>
       </c>
     </row>
-    <row r="5" spans="1:1023" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1023" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="B5" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="C5" s="13" t="s">
+      <c r="D5" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="D5" s="14" t="s">
-        <v>101</v>
-      </c>
       <c r="E5" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="F5" s="16" t="s">
         <v>90</v>
-      </c>
-      <c r="F5" s="16" t="s">
-        <v>91</v>
       </c>
       <c r="G5" s="17">
         <v>40524878</v>
@@ -4947,24 +4947,24 @@
         <v>40574685</v>
       </c>
     </row>
-    <row r="6" spans="1:1023" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1023" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="B6" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="C6" s="13" t="s">
+      <c r="D6" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="D6" s="14" t="s">
-        <v>104</v>
-      </c>
       <c r="E6" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G6" s="17">
         <v>112596794</v>
@@ -4973,24 +4973,24 @@
         <v>112649530</v>
       </c>
     </row>
-    <row r="7" spans="1:1023" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1023" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="B7" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="C7" s="13" t="s">
+      <c r="D7" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="D7" s="14" t="s">
-        <v>107</v>
-      </c>
       <c r="E7" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="F7" s="16" t="s">
         <v>90</v>
-      </c>
-      <c r="F7" s="16" t="s">
-        <v>91</v>
       </c>
       <c r="G7" s="17">
         <v>83535914</v>
@@ -4999,24 +4999,24 @@
         <v>83605875</v>
       </c>
     </row>
-    <row r="8" spans="1:1023" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1023" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="B8" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="C8" s="13" t="s">
+      <c r="D8" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="D8" s="14" t="s">
-        <v>110</v>
-      </c>
       <c r="E8" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="F8" s="16" t="s">
         <v>90</v>
-      </c>
-      <c r="F8" s="16" t="s">
-        <v>91</v>
       </c>
       <c r="G8" s="17">
         <v>127880861</v>
@@ -5025,24 +5025,24 @@
         <v>127899195</v>
       </c>
     </row>
-    <row r="9" spans="1:1023" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1023" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="B9" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="C9" s="13" t="s">
+      <c r="D9" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="D9" s="14" t="s">
-        <v>113</v>
-      </c>
       <c r="E9" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G9" s="17">
         <v>160401641</v>
@@ -5051,24 +5051,24 @@
         <v>160421711</v>
       </c>
     </row>
-    <row r="10" spans="1:1023" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1023" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="B10" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="C10" s="13" t="s">
+      <c r="D10" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="D10" s="11" t="s">
-        <v>116</v>
-      </c>
       <c r="E10" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="F10" s="16" t="s">
         <v>90</v>
-      </c>
-      <c r="F10" s="16" t="s">
-        <v>91</v>
       </c>
       <c r="G10" s="17">
         <v>151656691</v>
@@ -5077,24 +5077,24 @@
         <v>152129619</v>
       </c>
     </row>
-    <row r="11" spans="1:1023" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1023" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="C11" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="B11" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="C11" s="13" t="s">
+      <c r="D11" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="D11" s="11" t="s">
-        <v>119</v>
-      </c>
       <c r="E11" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F11" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G11" s="17">
         <v>56011051</v>
@@ -5103,24 +5103,24 @@
         <v>56051604</v>
       </c>
     </row>
-    <row r="12" spans="1:1023" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1023" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="B12" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="C12" s="13" t="s">
+      <c r="D12" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="D12" s="14" t="s">
-        <v>122</v>
-      </c>
       <c r="E12" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F12" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G12" s="17">
         <v>18055992</v>
@@ -5129,24 +5129,24 @@
         <v>18084998</v>
       </c>
     </row>
-    <row r="13" spans="1:1023" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1023" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="B13" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="C13" s="13" t="s">
+      <c r="D13" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="D13" s="14" t="s">
-        <v>125</v>
-      </c>
       <c r="E13" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="F13" s="16" t="s">
         <v>90</v>
-      </c>
-      <c r="F13" s="16" t="s">
-        <v>91</v>
       </c>
       <c r="G13" s="17">
         <v>19901717</v>
@@ -5155,24 +5155,24 @@
         <v>19967258</v>
       </c>
     </row>
-    <row r="14" spans="1:1023" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1023" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="B14" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="C14" s="13" t="s">
+      <c r="D14" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="D14" s="14" t="s">
-        <v>128</v>
-      </c>
       <c r="E14" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="F14" s="16" t="s">
         <v>90</v>
-      </c>
-      <c r="F14" s="16" t="s">
-        <v>91</v>
       </c>
       <c r="G14" s="17">
         <v>136410570</v>
@@ -5181,24 +5181,24 @@
         <v>136423761</v>
       </c>
     </row>
-    <row r="15" spans="1:1023" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1023" x14ac:dyDescent="0.3">
       <c r="A15" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="B15" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="C15" s="13" t="s">
+      <c r="D15" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="D15" s="14" t="s">
-        <v>131</v>
-      </c>
       <c r="E15" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F15" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G15" s="17">
         <v>7750962</v>
@@ -5207,24 +5207,24 @@
         <v>7787981</v>
       </c>
     </row>
-    <row r="16" spans="1:1023" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1023" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="C16" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="B16" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="C16" s="13" t="s">
+      <c r="D16" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="D16" s="14" t="s">
-        <v>134</v>
-      </c>
       <c r="E16" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="F16" s="16" t="s">
         <v>90</v>
-      </c>
-      <c r="F16" s="16" t="s">
-        <v>91</v>
       </c>
       <c r="G16" s="17">
         <v>133394094</v>
@@ -5233,24 +5233,24 @@
         <v>133421307</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C17" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="B17" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="C17" s="13" t="s">
+      <c r="D17" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="D17" s="14" t="s">
-        <v>137</v>
-      </c>
       <c r="E17" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="F17" s="16" t="s">
         <v>90</v>
-      </c>
-      <c r="F17" s="16" t="s">
-        <v>91</v>
       </c>
       <c r="G17" s="17">
         <v>13668670</v>
@@ -5259,24 +5259,24 @@
         <v>13732346</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C18" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="B18" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="C18" s="13" t="s">
+      <c r="D18" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="D18" s="14" t="s">
-        <v>140</v>
-      </c>
       <c r="E18" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="F18" s="16" t="s">
         <v>90</v>
-      </c>
-      <c r="F18" s="16" t="s">
-        <v>91</v>
       </c>
       <c r="G18" s="17">
         <v>114439386</v>
@@ -5285,24 +5285,24 @@
         <v>114450279</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C19" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="B19" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="C19" s="13" t="s">
+      <c r="D19" s="14" t="s">
         <v>142</v>
       </c>
-      <c r="D19" s="14" t="s">
-        <v>143</v>
-      </c>
       <c r="E19" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F19" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G19" s="17">
         <v>77021247</v>
@@ -5311,24 +5311,24 @@
         <v>77065580</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C20" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="B20" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="C20" s="13" t="s">
+      <c r="D20" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="D20" s="14" t="s">
-        <v>146</v>
-      </c>
       <c r="E20" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F20" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G20" s="17">
         <v>113298759</v>
@@ -5337,24 +5337,24 @@
         <v>113359493</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C21" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="B21" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="C21" s="13" t="s">
+      <c r="D21" s="14" t="s">
         <v>148</v>
       </c>
-      <c r="D21" s="14" t="s">
-        <v>149</v>
-      </c>
       <c r="E21" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="F21" s="16" t="s">
         <v>90</v>
-      </c>
-      <c r="F21" s="16" t="s">
-        <v>91</v>
       </c>
       <c r="G21" s="17">
         <v>52455429</v>
@@ -5363,24 +5363,24 @@
         <v>52476628</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C22" s="13" t="s">
         <v>150</v>
       </c>
-      <c r="B22" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="C22" s="13" t="s">
+      <c r="D22" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="D22" s="14" t="s">
-        <v>152</v>
-      </c>
       <c r="E22" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F22" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G22" s="17">
         <v>102932379</v>
@@ -5389,24 +5389,24 @@
         <v>103057462</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="C23" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="B23" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="C23" s="13" t="s">
+      <c r="D23" s="14" t="s">
         <v>154</v>
       </c>
-      <c r="D23" s="14" t="s">
-        <v>155</v>
-      </c>
       <c r="E23" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="F23" s="16" t="s">
         <v>90</v>
-      </c>
-      <c r="F23" s="16" t="s">
-        <v>91</v>
       </c>
       <c r="G23" s="17">
         <v>65530418</v>
@@ -5415,24 +5415,24 @@
         <v>65578352</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="C24" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="B24" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="C24" s="13" t="s">
+      <c r="D24" s="14" t="s">
         <v>157</v>
       </c>
-      <c r="D24" s="14" t="s">
-        <v>158</v>
-      </c>
       <c r="E24" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F24" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G24" s="17">
         <v>101175723</v>
@@ -5441,24 +5441,24 @@
         <v>101251932</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C25" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="B25" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="C25" s="13" t="s">
+      <c r="D25" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="D25" s="11" t="s">
-        <v>161</v>
-      </c>
       <c r="E25" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="F25" s="16" t="s">
         <v>90</v>
-      </c>
-      <c r="F25" s="16" t="s">
-        <v>91</v>
       </c>
       <c r="G25" s="17">
         <v>89088375</v>
@@ -5467,24 +5467,24 @@
         <v>89155846</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="C26" s="13" t="s">
         <v>162</v>
       </c>
-      <c r="B26" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="C26" s="13" t="s">
+      <c r="D26" s="11" t="s">
         <v>163</v>
       </c>
-      <c r="D26" s="11" t="s">
-        <v>164</v>
-      </c>
       <c r="E26" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="F26" s="16" t="s">
         <v>90</v>
-      </c>
-      <c r="F26" s="16" t="s">
-        <v>91</v>
       </c>
       <c r="G26" s="17">
         <v>49210227</v>
@@ -5493,24 +5493,24 @@
         <v>49223225</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C27" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="B27" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="C27" s="13" t="s">
+      <c r="D27" s="11" t="s">
         <v>166</v>
       </c>
-      <c r="D27" s="11" t="s">
-        <v>167</v>
-      </c>
       <c r="E27" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="F27" s="16" t="s">
         <v>90</v>
-      </c>
-      <c r="F27" s="16" t="s">
-        <v>91</v>
       </c>
       <c r="G27" s="17">
         <v>50967991</v>
@@ -5519,24 +5519,24 @@
         <v>50988121</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="C28" s="13" t="s">
         <v>168</v>
       </c>
-      <c r="B28" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="C28" s="13" t="s">
+      <c r="D28" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="D28" s="11" t="s">
-        <v>170</v>
-      </c>
       <c r="E28" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F28" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G28" s="17">
         <v>41431318</v>
@@ -5545,24 +5545,24 @@
         <v>41440717</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="C29" s="13" t="s">
         <v>171</v>
       </c>
-      <c r="B29" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="C29" s="13" t="s">
+      <c r="D29" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="D29" s="11" t="s">
-        <v>173</v>
-      </c>
       <c r="E29" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="F29" s="16" t="s">
         <v>90</v>
-      </c>
-      <c r="F29" s="16" t="s">
-        <v>91</v>
       </c>
       <c r="G29" s="17">
         <v>47778572</v>
@@ -5571,24 +5571,24 @@
         <v>47784686</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="C30" s="13" t="s">
         <v>174</v>
       </c>
-      <c r="B30" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="C30" s="13" t="s">
+      <c r="D30" s="14" t="s">
         <v>175</v>
       </c>
-      <c r="D30" s="14" t="s">
-        <v>176</v>
-      </c>
       <c r="E30" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F30" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G30" s="17">
         <v>13389392</v>
@@ -5597,24 +5597,24 @@
         <v>13638940</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="C31" s="13" t="s">
         <v>177</v>
       </c>
-      <c r="B31" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="C31" s="13" t="s">
+      <c r="D31" s="11" t="s">
         <v>178</v>
       </c>
-      <c r="D31" s="11" t="s">
-        <v>179</v>
-      </c>
       <c r="E31" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F31" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G31" s="17">
         <v>44619522</v>
@@ -5623,24 +5623,24 @@
         <v>44652233</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C32" s="13" t="s">
         <v>180</v>
       </c>
-      <c r="B32" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="C32" s="13" t="s">
+      <c r="D32" s="14" t="s">
         <v>181</v>
       </c>
-      <c r="D32" s="14" t="s">
-        <v>182</v>
-      </c>
       <c r="E32" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="F32" s="16" t="s">
         <v>90</v>
-      </c>
-      <c r="F32" s="16" t="s">
-        <v>91</v>
       </c>
       <c r="G32" s="17">
         <v>31659622</v>
@@ -5649,24 +5649,24 @@
         <v>31668931</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="C33" s="13" t="s">
         <v>183</v>
       </c>
-      <c r="B33" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="C33" s="13" t="s">
+      <c r="D33" s="14" t="s">
         <v>184</v>
       </c>
-      <c r="D33" s="14" t="s">
-        <v>185</v>
-      </c>
       <c r="E33" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F33" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G33" s="17">
         <v>20707691</v>
@@ -5675,24 +5675,24 @@
         <v>20859417</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="C34" s="13" t="s">
         <v>186</v>
       </c>
-      <c r="B34" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="C34" s="13" t="s">
+      <c r="D34" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="D34" s="14" t="s">
-        <v>188</v>
-      </c>
       <c r="E34" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="F34" s="16" t="s">
         <v>90</v>
-      </c>
-      <c r="F34" s="16" t="s">
-        <v>91</v>
       </c>
       <c r="G34" s="17">
         <v>38705723</v>
@@ -5701,24 +5701,24 @@
         <v>38738299</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="C35" s="13" t="s">
         <v>189</v>
       </c>
-      <c r="B35" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="C35" s="13" t="s">
+      <c r="D35" s="14" t="s">
         <v>190</v>
       </c>
-      <c r="D35" s="14" t="s">
-        <v>191</v>
-      </c>
       <c r="E35" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F35" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G35" s="17">
         <v>119588337</v>
@@ -5727,24 +5727,24 @@
         <v>119605895</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="C36" s="13" t="s">
         <v>192</v>
       </c>
-      <c r="B36" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="C36" s="13" t="s">
+      <c r="D36" s="11" t="s">
         <v>193</v>
       </c>
-      <c r="D36" s="11" t="s">
-        <v>194</v>
-      </c>
       <c r="E36" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="F36" s="16" t="s">
         <v>90</v>
-      </c>
-      <c r="F36" s="16" t="s">
-        <v>91</v>
       </c>
       <c r="G36" s="17">
         <v>22973819</v>
@@ -5753,24 +5753,24 @@
         <v>23005465</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="B37" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="C37" s="13" t="s">
         <v>195</v>
       </c>
-      <c r="B37" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="C37" s="13" t="s">
+      <c r="D37" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="D37" s="11" t="s">
-        <v>197</v>
-      </c>
       <c r="E37" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="F37" s="16" t="s">
         <v>90</v>
-      </c>
-      <c r="F37" s="16" t="s">
-        <v>91</v>
       </c>
       <c r="G37" s="17">
         <v>5904</v>
@@ -5794,62 +5794,62 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMJ37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="16.42578125" style="11"/>
+    <col min="1" max="3" width="16.44140625" style="11"/>
     <col min="4" max="4" width="22" style="11"/>
-    <col min="5" max="5" width="13.7109375" style="11"/>
-    <col min="6" max="6" width="25.140625" style="11"/>
-    <col min="7" max="7" width="13.42578125" style="11"/>
-    <col min="8" max="8" width="16.28515625" style="30" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.42578125" style="30" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.5703125" style="30" customWidth="1"/>
-    <col min="11" max="11" width="23.28515625" style="11"/>
-    <col min="12" max="12" width="25.140625" style="2"/>
-    <col min="13" max="13" width="19.85546875"/>
-    <col min="14" max="14" width="9.140625" style="14"/>
-    <col min="15" max="15" width="10.42578125" style="14"/>
-    <col min="16" max="16" width="10.7109375" style="14"/>
-    <col min="17" max="18" width="9.140625" style="11"/>
-    <col min="19" max="19" width="22.85546875" style="14"/>
-    <col min="20" max="1015" width="9.140625" style="11"/>
-    <col min="1016" max="1024" width="9.140625" style="2"/>
+    <col min="5" max="5" width="13.6640625" style="11"/>
+    <col min="6" max="6" width="25.109375" style="11"/>
+    <col min="7" max="7" width="13.44140625" style="11"/>
+    <col min="8" max="8" width="16.33203125" style="30" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.44140625" style="30" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.5546875" style="30" customWidth="1"/>
+    <col min="11" max="11" width="23.33203125" style="11"/>
+    <col min="12" max="12" width="25.109375" style="2"/>
+    <col min="13" max="13" width="19.88671875"/>
+    <col min="14" max="14" width="9.109375" style="14"/>
+    <col min="15" max="15" width="10.44140625" style="14"/>
+    <col min="16" max="16" width="10.6640625" style="14"/>
+    <col min="17" max="18" width="9.109375" style="11"/>
+    <col min="19" max="19" width="22.88671875" style="14"/>
+    <col min="20" max="1015" width="9.109375" style="11"/>
+    <col min="1016" max="1024" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1024" s="8" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1024" s="8" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F1" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="G1" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="G1" s="8" t="s">
-        <v>86</v>
-      </c>
       <c r="H1" s="8" t="s">
+        <v>471</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>470</v>
+      </c>
+      <c r="J1" s="8" t="s">
         <v>472</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>471</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>473</v>
       </c>
       <c r="K1" s="18" t="s">
         <v>11</v>
@@ -5876,21 +5876,21 @@
       <c r="AMI1" s="1"/>
       <c r="AMJ1" s="1"/>
     </row>
-    <row r="2" spans="1:1024" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1024" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="B2" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="C2" s="11" t="s">
+      <c r="D2" s="11" t="s">
         <v>200</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="E2" s="11" t="s">
         <v>201</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>202</v>
       </c>
       <c r="F2" s="11">
         <v>203893801</v>
@@ -5909,21 +5909,21 @@
       <c r="Q2" s="22"/>
       <c r="R2" s="22"/>
     </row>
-    <row r="3" spans="1:1024" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1024" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" s="11" t="s">
         <v>203</v>
       </c>
-      <c r="B3" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="C3" s="11" t="s">
+      <c r="D3" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="D3" s="11" t="s">
-        <v>205</v>
-      </c>
       <c r="E3" s="11" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F3" s="11">
         <v>20602802</v>
@@ -5942,21 +5942,21 @@
       <c r="Q3" s="22"/>
       <c r="R3" s="22"/>
     </row>
-    <row r="4" spans="1:1024" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1024" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="B4" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="C4" s="11" t="s">
+      <c r="D4" s="11" t="s">
         <v>207</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="E4" s="11" t="s">
         <v>208</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>209</v>
       </c>
       <c r="F4" s="11">
         <v>45648015</v>
@@ -5975,21 +5975,21 @@
       <c r="Q4" s="22"/>
       <c r="R4" s="22"/>
     </row>
-    <row r="5" spans="1:1024" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1024" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="B5" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="C5" s="11" t="s">
+      <c r="D5" s="11" t="s">
         <v>211</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="E5" s="11" t="s">
         <v>212</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>213</v>
       </c>
       <c r="F5" s="11">
         <v>85413000</v>
@@ -6008,21 +6008,21 @@
       <c r="Q5" s="22"/>
       <c r="R5" s="22"/>
     </row>
-    <row r="6" spans="1:1024" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1024" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" s="11" t="s">
         <v>214</v>
       </c>
-      <c r="B6" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="C6" s="11" t="s">
+      <c r="D6" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="E6" s="11" t="s">
         <v>215</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>201</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>216</v>
       </c>
       <c r="F6" s="11">
         <v>39877201</v>
@@ -6041,21 +6041,21 @@
       <c r="Q6" s="22"/>
       <c r="R6" s="22"/>
     </row>
-    <row r="7" spans="1:1024" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1024" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="11" t="s">
         <v>217</v>
       </c>
-      <c r="B7" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>218</v>
-      </c>
       <c r="D7" s="11" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F7" s="11">
         <v>185316402</v>
@@ -6074,21 +6074,21 @@
       <c r="Q7" s="22"/>
       <c r="R7" s="22"/>
     </row>
-    <row r="8" spans="1:1024" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1024" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" s="11" t="s">
         <v>219</v>
       </c>
-      <c r="B8" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="C8" s="11" t="s">
+      <c r="D8" s="11" t="s">
         <v>220</v>
       </c>
-      <c r="D8" s="11" t="s">
-        <v>221</v>
-      </c>
       <c r="E8" s="11" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F8" s="11">
         <v>53862600</v>
@@ -6107,21 +6107,21 @@
       <c r="Q8" s="22"/>
       <c r="R8" s="22"/>
     </row>
-    <row r="9" spans="1:1024" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1024" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" s="11" t="s">
         <v>222</v>
       </c>
-      <c r="B9" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>223</v>
-      </c>
       <c r="D9" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="E9" s="11" t="s">
         <v>212</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>213</v>
       </c>
       <c r="F9" s="11">
         <v>118834600</v>
@@ -6140,21 +6140,21 @@
       <c r="Q9" s="22"/>
       <c r="R9" s="22"/>
     </row>
-    <row r="10" spans="1:1024" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1024" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
+        <v>223</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" s="11" t="s">
         <v>224</v>
       </c>
-      <c r="B10" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>225</v>
-      </c>
       <c r="D10" s="11" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F10" s="11">
         <v>141848202</v>
@@ -6173,21 +6173,21 @@
       <c r="Q10" s="22"/>
       <c r="R10" s="22"/>
     </row>
-    <row r="11" spans="1:1024" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1024" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="B11" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>227</v>
-      </c>
       <c r="D11" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="E11" s="11" t="s">
         <v>212</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>213</v>
       </c>
       <c r="F11" s="11">
         <v>2988400</v>
@@ -6206,21 +6206,21 @@
       <c r="Q11" s="22"/>
       <c r="R11" s="22"/>
     </row>
-    <row r="12" spans="1:1024" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1024" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12" s="11" t="s">
         <v>228</v>
       </c>
-      <c r="B12" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>229</v>
-      </c>
       <c r="D12" s="11" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F12" s="11">
         <v>43970600</v>
@@ -6239,21 +6239,21 @@
       <c r="Q12" s="22"/>
       <c r="R12" s="22"/>
     </row>
-    <row r="13" spans="1:1024" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1024" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" s="11" t="s">
         <v>230</v>
       </c>
-      <c r="B13" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>231</v>
-      </c>
       <c r="D13" s="11" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F13" s="11">
         <v>890483</v>
@@ -6272,21 +6272,21 @@
       <c r="Q13" s="22"/>
       <c r="R13" s="22"/>
     </row>
-    <row r="14" spans="1:1024" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1024" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14" s="11" t="s">
         <v>232</v>
       </c>
-      <c r="B14" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>233</v>
-      </c>
       <c r="D14" s="11" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F14" s="11">
         <v>116112401</v>
@@ -6305,21 +6305,21 @@
       <c r="Q14" s="22"/>
       <c r="R14" s="22"/>
     </row>
-    <row r="15" spans="1:1024" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1024" x14ac:dyDescent="0.3">
       <c r="A15" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15" s="11" t="s">
         <v>234</v>
       </c>
-      <c r="B15" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="C15" s="11" t="s">
+      <c r="D15" s="11" t="s">
         <v>235</v>
       </c>
-      <c r="D15" s="11" t="s">
-        <v>236</v>
-      </c>
       <c r="E15" s="11" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F15" s="11">
         <v>72121544</v>
@@ -6334,28 +6334,28 @@
         <v>72121926</v>
       </c>
       <c r="J15" s="13" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="K15" s="14"/>
       <c r="L15" s="5"/>
       <c r="Q15" s="22"/>
       <c r="R15" s="22"/>
     </row>
-    <row r="16" spans="1:1024" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1024" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="C16" s="11" t="s">
         <v>237</v>
       </c>
-      <c r="B16" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>238</v>
-      </c>
       <c r="D16" s="11" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F16" s="11">
         <v>22700001</v>
@@ -6374,21 +6374,21 @@
       <c r="Q16" s="22"/>
       <c r="R16" s="22"/>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="C17" s="11" t="s">
         <v>239</v>
       </c>
-      <c r="B17" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>240</v>
-      </c>
       <c r="D17" s="11" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F17" s="11">
         <v>46022400</v>
@@ -6407,21 +6407,21 @@
       <c r="Q17" s="22"/>
       <c r="R17" s="22"/>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C18" s="11" t="s">
         <v>241</v>
       </c>
-      <c r="B18" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>242</v>
-      </c>
       <c r="D18" s="11" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F18" s="11">
         <v>132186801</v>
@@ -6440,21 +6440,21 @@
       <c r="Q18" s="22"/>
       <c r="R18" s="22"/>
     </row>
-    <row r="19" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C19" s="11" t="s">
         <v>243</v>
       </c>
-      <c r="B19" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>244</v>
-      </c>
       <c r="D19" s="11" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F19" s="11">
         <v>102368448</v>
@@ -6469,28 +6469,28 @@
         <v>102368872</v>
       </c>
       <c r="J19" s="13" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="K19" s="14"/>
       <c r="L19" s="5"/>
       <c r="Q19" s="22"/>
       <c r="R19" s="22"/>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A20" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C20" s="11" t="s">
         <v>245</v>
       </c>
-      <c r="B20" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>246</v>
-      </c>
       <c r="D20" s="11" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F20" s="11">
         <v>101939801</v>
@@ -6509,21 +6509,21 @@
       <c r="Q20" s="22"/>
       <c r="R20" s="22"/>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A21" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C21" s="11" t="s">
         <v>247</v>
       </c>
-      <c r="B21" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>248</v>
-      </c>
       <c r="D21" s="11" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F21" s="11">
         <v>99984000</v>
@@ -6542,21 +6542,21 @@
       <c r="Q21" s="22"/>
       <c r="R21" s="22"/>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A22" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C22" s="11" t="s">
         <v>249</v>
       </c>
-      <c r="B22" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>250</v>
-      </c>
       <c r="D22" s="11" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F22" s="11">
         <v>52849669</v>
@@ -6575,21 +6575,21 @@
       <c r="Q22" s="22"/>
       <c r="R22" s="22"/>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A23" s="11" t="s">
+        <v>250</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C23" s="11" t="s">
         <v>251</v>
       </c>
-      <c r="B23" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>252</v>
-      </c>
       <c r="D23" s="11" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F23" s="11">
         <v>23578503</v>
@@ -6608,21 +6608,21 @@
       <c r="Q23" s="22"/>
       <c r="R23" s="22"/>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A24" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="C24" s="11" t="s">
         <v>253</v>
       </c>
-      <c r="B24" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>254</v>
-      </c>
       <c r="D24" s="11" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F24" s="11">
         <v>90214601</v>
@@ -6641,21 +6641,21 @@
       <c r="Q24" s="22"/>
       <c r="R24" s="22"/>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A25" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="C25" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="B25" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="C25" s="11" t="s">
-        <v>256</v>
-      </c>
       <c r="D25" s="11" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F25" s="11">
         <v>47716801</v>
@@ -6674,21 +6674,21 @@
       <c r="Q25" s="22"/>
       <c r="R25" s="22"/>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A26" s="11" t="s">
+        <v>256</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C26" s="11" t="s">
         <v>257</v>
       </c>
-      <c r="B26" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="C26" s="11" t="s">
-        <v>258</v>
-      </c>
       <c r="D26" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="E26" s="11" t="s">
         <v>212</v>
-      </c>
-      <c r="E26" s="11" t="s">
-        <v>213</v>
       </c>
       <c r="F26" s="11">
         <v>50368000</v>
@@ -6707,21 +6707,21 @@
       <c r="Q26" s="22"/>
       <c r="R26" s="22"/>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A27" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="C27" s="11" t="s">
         <v>259</v>
       </c>
-      <c r="B27" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="C27" s="11" t="s">
-        <v>260</v>
-      </c>
       <c r="D27" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="E27" s="11" t="s">
         <v>212</v>
-      </c>
-      <c r="E27" s="11" t="s">
-        <v>213</v>
       </c>
       <c r="F27" s="11">
         <v>18650001</v>
@@ -6740,21 +6740,21 @@
       <c r="Q27" s="22"/>
       <c r="R27" s="22"/>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A28" s="11" t="s">
+        <v>260</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C28" s="11" t="s">
         <v>261</v>
       </c>
-      <c r="B28" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="C28" s="11" t="s">
-        <v>262</v>
-      </c>
       <c r="D28" s="11" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F28" s="11">
         <v>33756200</v>
@@ -6773,21 +6773,21 @@
       <c r="Q28" s="22"/>
       <c r="R28" s="22"/>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A29" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="C29" s="11" t="s">
         <v>263</v>
       </c>
-      <c r="B29" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="C29" s="11" t="s">
-        <v>264</v>
-      </c>
       <c r="D29" s="11" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F29" s="11">
         <v>58326200</v>
@@ -6806,21 +6806,21 @@
       <c r="Q29" s="22"/>
       <c r="R29" s="22"/>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A30" s="11" t="s">
+        <v>264</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="C30" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="B30" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="C30" s="11" t="s">
-        <v>266</v>
-      </c>
       <c r="D30" s="11" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F30" s="11">
         <v>50117624</v>
@@ -6839,21 +6839,21 @@
       <c r="Q30" s="22"/>
       <c r="R30" s="22"/>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A31" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="C31" s="11" t="s">
         <v>267</v>
       </c>
-      <c r="B31" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="C31" s="11" t="s">
-        <v>268</v>
-      </c>
       <c r="D31" s="11" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F31" s="11">
         <v>62960832</v>
@@ -6872,21 +6872,21 @@
       <c r="Q31" s="22"/>
       <c r="R31" s="22"/>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A32" s="11" t="s">
+        <v>268</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="C32" s="11" t="s">
         <v>269</v>
       </c>
-      <c r="B32" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="C32" s="11" t="s">
-        <v>270</v>
-      </c>
       <c r="D32" s="11" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F32" s="11">
         <v>57964075</v>
@@ -6905,21 +6905,21 @@
       <c r="Q32" s="22"/>
       <c r="R32" s="22"/>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A33" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C33" s="11" t="s">
         <v>271</v>
       </c>
-      <c r="B33" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="C33" s="11" t="s">
-        <v>272</v>
-      </c>
       <c r="D33" s="11" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F33" s="11">
         <v>36710048</v>
@@ -6938,21 +6938,21 @@
       <c r="Q33" s="22"/>
       <c r="R33" s="22"/>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A34" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="C34" s="11" t="s">
         <v>273</v>
       </c>
-      <c r="B34" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="C34" s="11" t="s">
-        <v>274</v>
-      </c>
       <c r="D34" s="11" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F34" s="11">
         <v>43346380</v>
@@ -6971,21 +6971,21 @@
       <c r="Q34" s="22"/>
       <c r="R34" s="22"/>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A35" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="C35" s="11" t="s">
         <v>275</v>
       </c>
-      <c r="B35" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="C35" s="11" t="s">
-        <v>276</v>
-      </c>
       <c r="D35" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="E35" s="11" t="s">
         <v>212</v>
-      </c>
-      <c r="E35" s="11" t="s">
-        <v>213</v>
       </c>
       <c r="F35" s="11">
         <v>30591000</v>
@@ -7004,21 +7004,21 @@
       <c r="Q35" s="22"/>
       <c r="R35" s="22"/>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A36" s="11" t="s">
+        <v>276</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="C36" s="11" t="s">
         <v>277</v>
       </c>
-      <c r="B36" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="C36" s="11" t="s">
-        <v>278</v>
-      </c>
       <c r="D36" s="11" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F36" s="11">
         <v>135326401</v>
@@ -7037,21 +7037,21 @@
       <c r="Q36" s="22"/>
       <c r="R36" s="22"/>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A37" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="B37" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="C37" s="11" t="s">
         <v>279</v>
       </c>
-      <c r="B37" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="C37" s="11" t="s">
-        <v>280</v>
-      </c>
       <c r="D37" s="11" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E37" s="11" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F37" s="11">
         <v>13401</v>
@@ -7089,26 +7089,26 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" style="11"/>
-    <col min="2" max="2" width="50.5703125" style="11"/>
-    <col min="3" max="3" width="22.85546875" style="15"/>
-    <col min="4" max="4" width="13.42578125" style="23"/>
-    <col min="5" max="5" width="19.85546875" style="14"/>
-    <col min="6" max="6" width="10.7109375" style="14"/>
-    <col min="7" max="8" width="9.140625" style="11"/>
-    <col min="9" max="1016" width="9.140625" style="23"/>
-    <col min="1017" max="1019" width="8.42578125"/>
-    <col min="1020" max="1025" width="8.7109375"/>
+    <col min="1" max="1" width="17.44140625" style="11"/>
+    <col min="2" max="2" width="50.5546875" style="11"/>
+    <col min="3" max="3" width="22.88671875" style="15"/>
+    <col min="4" max="4" width="13.44140625" style="23"/>
+    <col min="5" max="5" width="19.88671875" style="14"/>
+    <col min="6" max="6" width="10.6640625" style="14"/>
+    <col min="7" max="8" width="9.109375" style="11"/>
+    <col min="9" max="1016" width="9.109375" style="23"/>
+    <col min="1017" max="1019" width="8.44140625"/>
+    <col min="1020" max="1025" width="8.6640625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="8" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" s="8" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>281</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>282</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>11</v>
@@ -7121,23 +7121,23 @@
       </c>
       <c r="F1" s="24"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G2" s="22"/>
       <c r="H2" s="22"/>
       <c r="I2" s="11"/>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G3" s="22"/>
       <c r="H3" s="22"/>
@@ -7162,23 +7162,23 @@
       <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.5703125" style="14"/>
-    <col min="2" max="2" width="21.140625" style="14"/>
-    <col min="3" max="3" width="10.7109375" style="14"/>
-    <col min="4" max="4" width="22.85546875" style="15"/>
-    <col min="5" max="5" width="10.7109375"/>
-    <col min="6" max="6" width="13.42578125"/>
-    <col min="7" max="7" width="13.42578125" style="11"/>
-    <col min="8" max="8" width="13.42578125" style="25"/>
-    <col min="9" max="9" width="10.7109375" style="22"/>
-    <col min="10" max="10" width="19.85546875" style="11"/>
-    <col min="11" max="11" width="13.42578125" style="11"/>
-    <col min="12" max="1021" width="9.140625" style="2"/>
+    <col min="1" max="1" width="19.5546875" style="14"/>
+    <col min="2" max="2" width="21.109375" style="14"/>
+    <col min="3" max="3" width="10.6640625" style="14"/>
+    <col min="4" max="4" width="22.88671875" style="15"/>
+    <col min="5" max="5" width="10.6640625"/>
+    <col min="6" max="6" width="13.44140625"/>
+    <col min="7" max="7" width="13.44140625" style="11"/>
+    <col min="8" max="8" width="13.44140625" style="25"/>
+    <col min="9" max="9" width="10.6640625" style="22"/>
+    <col min="10" max="10" width="19.88671875" style="11"/>
+    <col min="11" max="11" width="13.44140625" style="11"/>
+    <col min="12" max="1021" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="26" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" s="26" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
@@ -7186,16 +7186,16 @@
         <v>2</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G1" s="8" t="s">
         <v>30</v>
@@ -7211,18 +7211,18 @@
       </c>
       <c r="K1" s="8"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
+        <v>284</v>
+      </c>
+      <c r="B2" s="14" t="s">
         <v>285</v>
       </c>
-      <c r="B2" s="14" t="s">
-        <v>286</v>
-      </c>
       <c r="C2" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -7237,18 +7237,18 @@
       <c r="J2" s="22"/>
       <c r="K2" s="28"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
+        <v>286</v>
+      </c>
+      <c r="B3" s="14" t="s">
         <v>287</v>
       </c>
-      <c r="B3" s="14" t="s">
-        <v>288</v>
-      </c>
       <c r="C3" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E3">
         <v>0</v>

--- a/tests/fixtures/eukaryote_core.xlsx
+++ b/tests/fixtures/eukaryote_core.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="993" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="993" firstSheet="1" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Knowledge base" sheetId="1" r:id="rId1"/>
@@ -93,7 +93,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="901" uniqueCount="475">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="908" uniqueCount="478">
   <si>
     <t>Id</t>
   </si>
@@ -1493,18 +1493,6 @@
     <t>Ploidy</t>
   </si>
   <si>
-    <t>CDS_ENSP00000234111</t>
-  </si>
-  <si>
-    <t>CDS_ENSP00000385333</t>
-  </si>
-  <si>
-    <t>CDS_ENSP00000390691</t>
-  </si>
-  <si>
-    <t>Coding Region</t>
-  </si>
-  <si>
     <t>Bound End</t>
   </si>
   <si>
@@ -1518,6 +1506,27 @@
   </si>
   <si>
     <t>Sequence Path</t>
+  </si>
+  <si>
+    <t>Exon</t>
+  </si>
+  <si>
+    <t>cds_1</t>
+  </si>
+  <si>
+    <t>cds_2</t>
+  </si>
+  <si>
+    <t>cds_3</t>
+  </si>
+  <si>
+    <t>cds_4</t>
+  </si>
+  <si>
+    <t>cds_1, cds_2</t>
+  </si>
+  <si>
+    <t>Coding Regions</t>
   </si>
 </sst>
 </file>
@@ -2236,8 +2245,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2345,8 +2354,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMG21"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2400,10 +2409,10 @@
         <v>303</v>
       </c>
       <c r="D2" s="32">
+        <v>10439968</v>
+      </c>
+      <c r="E2" s="32">
         <v>10440868</v>
-      </c>
-      <c r="E2" s="32">
-        <v>10439968</v>
       </c>
       <c r="AMF2" s="33"/>
       <c r="AMG2" s="33"/>
@@ -2419,10 +2428,10 @@
         <v>305</v>
       </c>
       <c r="D3" s="32">
+        <v>10441509</v>
+      </c>
+      <c r="E3" s="32">
         <v>10441723</v>
-      </c>
-      <c r="E3" s="32">
-        <v>10441509</v>
       </c>
       <c r="AMF3" s="33"/>
       <c r="AMG3" s="33"/>
@@ -2438,10 +2447,10 @@
         <v>307</v>
       </c>
       <c r="D4" s="32">
+        <v>10441817</v>
+      </c>
+      <c r="E4" s="32">
         <v>10441929</v>
-      </c>
-      <c r="E4" s="32">
-        <v>10441817</v>
       </c>
       <c r="AMF4" s="33"/>
       <c r="AMG4" s="33"/>
@@ -2457,10 +2466,10 @@
         <v>309</v>
       </c>
       <c r="D5" s="32">
+        <v>10442012</v>
+      </c>
+      <c r="E5" s="32">
         <v>10442174</v>
-      </c>
-      <c r="E5" s="32">
-        <v>10442012</v>
       </c>
       <c r="AMF5" s="33"/>
       <c r="AMG5" s="33"/>
@@ -2476,10 +2485,10 @@
         <v>311</v>
       </c>
       <c r="D6" s="32">
+        <v>10443230</v>
+      </c>
+      <c r="E6" s="32">
         <v>10443313</v>
-      </c>
-      <c r="E6" s="32">
-        <v>10443230</v>
       </c>
       <c r="AMF6" s="33"/>
       <c r="AMG6" s="33"/>
@@ -2495,10 +2504,10 @@
         <v>313</v>
       </c>
       <c r="D7" s="32">
+        <v>10443490</v>
+      </c>
+      <c r="E7" s="32">
         <v>10443571</v>
-      </c>
-      <c r="E7" s="32">
-        <v>10443490</v>
       </c>
       <c r="AMF7" s="33"/>
       <c r="AMG7" s="33"/>
@@ -2514,10 +2523,10 @@
         <v>315</v>
       </c>
       <c r="D8" s="32">
+        <v>10443702</v>
+      </c>
+      <c r="E8" s="32">
         <v>10443836</v>
-      </c>
-      <c r="E8" s="32">
-        <v>10443702</v>
       </c>
       <c r="AMF8" s="33"/>
       <c r="AMG8" s="33"/>
@@ -2533,10 +2542,10 @@
         <v>317</v>
       </c>
       <c r="D9" s="32">
+        <v>10444095</v>
+      </c>
+      <c r="E9" s="32">
         <v>10444267</v>
-      </c>
-      <c r="E9" s="32">
-        <v>10444095</v>
       </c>
       <c r="AMF9" s="33"/>
       <c r="AMG9" s="33"/>
@@ -2552,10 +2561,10 @@
         <v>319</v>
       </c>
       <c r="D10" s="32">
+        <v>10444474</v>
+      </c>
+      <c r="E10" s="32">
         <v>10444647</v>
-      </c>
-      <c r="E10" s="32">
-        <v>10444474</v>
       </c>
       <c r="AMF10" s="33"/>
       <c r="AMG10" s="33"/>
@@ -2571,10 +2580,10 @@
         <v>321</v>
       </c>
       <c r="D11" s="32">
+        <v>10444931</v>
+      </c>
+      <c r="E11" s="32">
         <v>10445049</v>
-      </c>
-      <c r="E11" s="32">
-        <v>10444931</v>
       </c>
       <c r="AMF11" s="33"/>
       <c r="AMG11" s="33"/>
@@ -2590,10 +2599,10 @@
         <v>323</v>
       </c>
       <c r="D12" s="32">
+        <v>10445155</v>
+      </c>
+      <c r="E12" s="32">
         <v>10445264</v>
-      </c>
-      <c r="E12" s="32">
-        <v>10445155</v>
       </c>
       <c r="AMF12" s="33"/>
       <c r="AMG12" s="33"/>
@@ -2609,10 +2618,10 @@
         <v>325</v>
       </c>
       <c r="D13" s="34">
+        <v>10448121</v>
+      </c>
+      <c r="E13" s="34">
         <v>10448504</v>
-      </c>
-      <c r="E13" s="34">
-        <v>10448121</v>
       </c>
     </row>
     <row r="14" spans="1:1021" x14ac:dyDescent="0.3">
@@ -2626,10 +2635,10 @@
         <v>327</v>
       </c>
       <c r="D14" s="34">
+        <v>10440601</v>
+      </c>
+      <c r="E14" s="34">
         <v>10440868</v>
-      </c>
-      <c r="E14" s="34">
-        <v>10440601</v>
       </c>
     </row>
     <row r="15" spans="1:1021" x14ac:dyDescent="0.3">
@@ -2643,10 +2652,10 @@
         <v>329</v>
       </c>
       <c r="D15" s="34">
+        <v>10447474</v>
+      </c>
+      <c r="E15" s="34">
         <v>10447780</v>
-      </c>
-      <c r="E15" s="34">
-        <v>10447474</v>
       </c>
     </row>
     <row r="16" spans="1:1021" x14ac:dyDescent="0.3">
@@ -2660,10 +2669,10 @@
         <v>331</v>
       </c>
       <c r="D16" s="34">
+        <v>10444544</v>
+      </c>
+      <c r="E16" s="34">
         <v>10444647</v>
-      </c>
-      <c r="E16" s="34">
-        <v>10444544</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -2677,10 +2686,10 @@
         <v>333</v>
       </c>
       <c r="D17" s="34">
+        <v>10447628</v>
+      </c>
+      <c r="E17" s="34">
         <v>10447788</v>
-      </c>
-      <c r="E17" s="34">
-        <v>10447628</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -2694,10 +2703,10 @@
         <v>335</v>
       </c>
       <c r="D18" s="34">
+        <v>10444095</v>
+      </c>
+      <c r="E18" s="34">
         <v>10444267</v>
-      </c>
-      <c r="E18" s="34">
-        <v>10444095</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -2711,10 +2720,10 @@
         <v>337</v>
       </c>
       <c r="D19" s="34">
+        <v>10444474</v>
+      </c>
+      <c r="E19" s="34">
         <v>10444547</v>
-      </c>
-      <c r="E19" s="34">
-        <v>10444474</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -2728,10 +2737,10 @@
         <v>339</v>
       </c>
       <c r="D20" s="34">
+        <v>10444931</v>
+      </c>
+      <c r="E20" s="34">
         <v>10445049</v>
-      </c>
-      <c r="E20" s="34">
-        <v>10444931</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
@@ -2745,10 +2754,10 @@
         <v>341</v>
       </c>
       <c r="D21" s="34">
+        <v>10448121</v>
+      </c>
+      <c r="E21" s="34">
         <v>10448309</v>
-      </c>
-      <c r="E21" s="34">
-        <v>10448121</v>
       </c>
     </row>
   </sheetData>
@@ -2761,8 +2770,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMG4"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2794,7 +2803,7 @@
         <v>343</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>469</v>
+        <v>477</v>
       </c>
       <c r="F1" s="8" t="s">
         <v>344</v>
@@ -2823,7 +2832,7 @@
         <v>290</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>466</v>
+        <v>476</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -2840,7 +2849,7 @@
         <v>293</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>467</v>
+        <v>472</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -2857,7 +2866,7 @@
         <v>296</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
     </row>
   </sheetData>
@@ -2873,24 +2882,25 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A4"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="25.88671875" customWidth="1"/>
     <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.88671875" customWidth="1"/>
+    <col min="5" max="5" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
@@ -2900,62 +2910,91 @@
       <c r="C1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="18" t="s">
+        <v>471</v>
+      </c>
+      <c r="E1" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="F1" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="G1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="H1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="I1" s="8" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="B2" t="s">
         <v>56</v>
       </c>
-      <c r="D2" s="32">
-        <v>10439999</v>
-      </c>
-      <c r="E2" s="34">
-        <v>10448100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D2" s="29" t="s">
+        <v>302</v>
+      </c>
+      <c r="E2" s="32">
+        <v>10440000</v>
+      </c>
+      <c r="F2" s="32">
+        <v>10440868</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="B3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D3" s="34">
-        <v>10440600</v>
-      </c>
-      <c r="E3" s="34">
-        <v>10447000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>304</v>
+      </c>
+      <c r="E3" s="32">
+        <v>10441509</v>
+      </c>
+      <c r="F3" s="32">
+        <v>10441723</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="B4" t="s">
-        <v>58</v>
-      </c>
-      <c r="D4" s="34">
-        <v>10444500</v>
-      </c>
-      <c r="E4" s="34">
-        <v>10447601</v>
+        <v>56</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>320</v>
+      </c>
+      <c r="E4" s="32">
+        <v>10444931</v>
+      </c>
+      <c r="F4" s="32">
+        <v>10445049</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="13" t="s">
+        <v>475</v>
+      </c>
+      <c r="B5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" s="29" t="s">
+        <v>322</v>
+      </c>
+      <c r="E5" s="32">
+        <v>10445155</v>
+      </c>
+      <c r="F5" s="32">
+        <v>10445264</v>
       </c>
     </row>
   </sheetData>
@@ -4321,7 +4360,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="D1" s="8" t="s">
         <v>52</v>
@@ -5843,13 +5882,13 @@
         <v>85</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="K1" s="18" t="s">
         <v>11</v>
@@ -6469,7 +6508,7 @@
         <v>102368872</v>
       </c>
       <c r="J19" s="13" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="K19" s="14"/>
       <c r="L19" s="5"/>

--- a/tests/fixtures/eukaryote_core.xlsx
+++ b/tests/fixtures/eukaryote_core.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="993" firstSheet="1" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="993" firstSheet="3" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Knowledge base" sheetId="1" r:id="rId1"/>
@@ -38,32 +38,32 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="11">'Protein species types'!$A$1:$G$719</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="17">'Rate laws'!$A$1:$F$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="16">Reactions!$A$1:$F$220</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6">'Regulatory element loci'!$A$1:$K$776</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7">'Regulatory module'!$A$1:$C$849</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6">'Regulatory element loci'!$A$1:$L$776</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7">'Regulatory module'!$A$1:$H$849</definedName>
     <definedName name="_FilterDatabase_0" localSheetId="1">Cell!$A$1:$B$1</definedName>
     <definedName name="_FilterDatabase_0" localSheetId="5">'Gene loci'!$I$1</definedName>
     <definedName name="_FilterDatabase_0" localSheetId="0">'Knowledge base'!$A$1:$B$2</definedName>
     <definedName name="_FilterDatabase_0" localSheetId="8">'pre-RNA species types'!$A$1:$G$915</definedName>
     <definedName name="_FilterDatabase_0" localSheetId="11">'Protein species types'!$A$1:$G$719</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="6">'Regulatory element loci'!$A$1:$K$776</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="7">'Regulatory module'!$A$1:$C$849</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="6">'Regulatory element loci'!$A$1:$L$776</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="7">'Regulatory module'!$A$1:$H$849</definedName>
     <definedName name="_FilterDatabase_0_0" localSheetId="1">Cell!$A$1:$B$1</definedName>
     <definedName name="_FilterDatabase_0_0" localSheetId="5">'Gene loci'!$B$1:$H$1064</definedName>
     <definedName name="_FilterDatabase_0_0" localSheetId="0">'Knowledge base'!$A$1:$B$2</definedName>
     <definedName name="_FilterDatabase_0_0" localSheetId="8">'pre-RNA species types'!$A$1:$G$915</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="6">'Regulatory element loci'!$A$1:$K$776</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="7">'Regulatory module'!$A$1:$C$849</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="6">'Regulatory element loci'!$A$1:$L$776</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="7">'Regulatory module'!$A$1:$H$849</definedName>
     <definedName name="_FilterDatabase_0_0_0" localSheetId="1">Cell!$A$1:$B$1</definedName>
     <definedName name="_FilterDatabase_0_0_0" localSheetId="5">'Gene loci'!$I$1</definedName>
     <definedName name="_FilterDatabase_0_0_0" localSheetId="0">'Knowledge base'!$A$1:$B$2</definedName>
     <definedName name="_FilterDatabase_0_0_0" localSheetId="8">'pre-RNA species types'!$A$1:$G$915</definedName>
-    <definedName name="_FilterDatabase_0_0_0" localSheetId="6">'Regulatory element loci'!$A$1:$K$776</definedName>
-    <definedName name="_FilterDatabase_0_0_0" localSheetId="7">'Regulatory module'!$A$1:$C$849</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="6">'Regulatory element loci'!$A$1:$L$776</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="7">'Regulatory module'!$A$1:$H$849</definedName>
     <definedName name="_FilterDatabase_0_0_0_0" localSheetId="1">Cell!$A$1:$B$1</definedName>
     <definedName name="_FilterDatabase_0_0_0_0" localSheetId="5">'Gene loci'!$B$1:$H$1064</definedName>
     <definedName name="_FilterDatabase_0_0_0_0" localSheetId="0">'Knowledge base'!$A$1:$B$2</definedName>
     <definedName name="_FilterDatabase_0_0_0_0" localSheetId="8">'pre-RNA species types'!$A$1:$G$849</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="6">'Regulatory element loci'!$A$2:$S$849</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="6">'Regulatory element loci'!$A$2:$T$849</definedName>
     <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="1">Cell!$A$1:$B$1</definedName>
     <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="5">'Gene loci'!$I$1</definedName>
     <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="0">'Knowledge base'!$A$1:$B$2</definedName>
@@ -93,7 +93,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="908" uniqueCount="478">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="972" uniqueCount="490">
   <si>
     <t>Id</t>
   </si>
@@ -938,12 +938,6 @@
     <t>Gene</t>
   </si>
   <si>
-    <t>Regulatory Elements</t>
-  </si>
-  <si>
-    <t>ENSR00000309980, ENSR00000172399</t>
-  </si>
-  <si>
     <t>Double stranded</t>
   </si>
   <si>
@@ -1527,6 +1521,48 @@
   </si>
   <si>
     <t>Coding Regions</t>
+  </si>
+  <si>
+    <t>Regulatory Element</t>
+  </si>
+  <si>
+    <t>Binding factor</t>
+  </si>
+  <si>
+    <t>proximal</t>
+  </si>
+  <si>
+    <t>distal</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>rm1</t>
+  </si>
+  <si>
+    <t>rm2</t>
+  </si>
+  <si>
+    <t>rm3</t>
+  </si>
+  <si>
+    <t>rm4</t>
+  </si>
+  <si>
+    <t>reg_mod_1</t>
+  </si>
+  <si>
+    <t>reg_mod_2</t>
+  </si>
+  <si>
+    <t>reg_mod_3</t>
+  </si>
+  <si>
+    <t>reg_mod_4</t>
   </si>
 </sst>
 </file>
@@ -2164,14 +2200,14 @@
       <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.5546875" style="1"/>
-    <col min="2" max="2" width="43.44140625" style="2"/>
-    <col min="3" max="1025" width="8.44140625"/>
+    <col min="1" max="1" width="21.5703125" style="1"/>
+    <col min="2" max="2" width="43.42578125" style="2"/>
+    <col min="3" max="1025" width="8.42578125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2179,7 +2215,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -2187,7 +2223,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -2195,7 +2231,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -2203,25 +2239,25 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B5"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B6"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B7"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -2229,7 +2265,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
@@ -2249,19 +2285,19 @@
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.44140625"/>
-    <col min="2" max="2" width="11.6640625"/>
-    <col min="3" max="4" width="8.5546875"/>
-    <col min="5" max="5" width="7.44140625"/>
-    <col min="6" max="6" width="10.44140625"/>
-    <col min="7" max="7" width="10.6640625"/>
-    <col min="8" max="8" width="19.88671875"/>
-    <col min="9" max="1025" width="8.5546875"/>
+    <col min="1" max="1" width="16.42578125"/>
+    <col min="2" max="2" width="11.7109375"/>
+    <col min="3" max="4" width="8.5703125"/>
+    <col min="5" max="5" width="7.42578125"/>
+    <col min="6" max="6" width="10.42578125"/>
+    <col min="7" max="7" width="10.7109375"/>
+    <col min="8" max="8" width="19.85546875"/>
+    <col min="9" max="1025" width="8.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="26" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="26" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
@@ -2269,10 +2305,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="E1" s="8" t="s">
         <v>30</v>
@@ -2288,60 +2324,60 @@
       </c>
       <c r="I1" s="8"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>288</v>
+      </c>
+      <c r="B2" t="s">
+        <v>289</v>
+      </c>
+      <c r="C2" t="s">
+        <v>282</v>
+      </c>
+      <c r="D2" t="s">
         <v>290</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>291</v>
       </c>
-      <c r="C2" t="s">
-        <v>284</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="B3" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="C3" t="s">
+        <v>282</v>
+      </c>
+      <c r="D3" t="s">
         <v>293</v>
       </c>
-      <c r="B3" t="s">
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>294</v>
       </c>
-      <c r="C3" t="s">
-        <v>284</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="B4" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="C4" t="s">
+        <v>282</v>
+      </c>
+      <c r="D4" t="s">
         <v>296</v>
       </c>
-      <c r="B4" t="s">
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>297</v>
       </c>
-      <c r="C4" t="s">
-        <v>284</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="B5" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="C5" t="s">
+        <v>282</v>
+      </c>
+      <c r="D5" t="s">
         <v>299</v>
-      </c>
-      <c r="B5" t="s">
-        <v>300</v>
-      </c>
-      <c r="C5" t="s">
-        <v>284</v>
-      </c>
-      <c r="D5" t="s">
-        <v>301</v>
       </c>
     </row>
   </sheetData>
@@ -2358,20 +2394,20 @@
       <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.44140625"/>
-    <col min="2" max="2" width="12.6640625"/>
-    <col min="3" max="3" width="8.5546875"/>
+    <col min="1" max="1" width="16.42578125"/>
+    <col min="2" max="2" width="12.7109375"/>
+    <col min="3" max="3" width="8.5703125"/>
     <col min="4" max="4" width="10"/>
-    <col min="5" max="5" width="10.109375"/>
-    <col min="6" max="6" width="10.44140625"/>
-    <col min="7" max="7" width="10.6640625"/>
-    <col min="8" max="8" width="19.88671875"/>
-    <col min="9" max="1025" width="8.5546875"/>
+    <col min="5" max="5" width="10.140625"/>
+    <col min="6" max="6" width="10.42578125"/>
+    <col min="7" max="7" width="10.7109375"/>
+    <col min="8" max="8" width="19.85546875"/>
+    <col min="9" max="1025" width="8.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1021" s="26" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1021" s="26" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
@@ -2398,15 +2434,15 @@
       </c>
       <c r="I1" s="8"/>
     </row>
-    <row r="2" spans="1:1021" s="30" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1021" s="30" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B2" s="30" t="s">
         <v>56</v>
       </c>
       <c r="C2" s="31" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D2" s="32">
         <v>10439968</v>
@@ -2417,15 +2453,15 @@
       <c r="AMF2" s="33"/>
       <c r="AMG2" s="33"/>
     </row>
-    <row r="3" spans="1:1021" s="30" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1021" s="30" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B3" s="30" t="s">
         <v>56</v>
       </c>
       <c r="C3" s="31" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D3" s="32">
         <v>10441509</v>
@@ -2436,15 +2472,15 @@
       <c r="AMF3" s="33"/>
       <c r="AMG3" s="33"/>
     </row>
-    <row r="4" spans="1:1021" s="30" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1021" s="30" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B4" s="30" t="s">
         <v>56</v>
       </c>
       <c r="C4" s="31" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D4" s="32">
         <v>10441817</v>
@@ -2455,15 +2491,15 @@
       <c r="AMF4" s="33"/>
       <c r="AMG4" s="33"/>
     </row>
-    <row r="5" spans="1:1021" s="30" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1021" s="30" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B5" s="30" t="s">
         <v>56</v>
       </c>
       <c r="C5" s="31" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D5" s="32">
         <v>10442012</v>
@@ -2474,15 +2510,15 @@
       <c r="AMF5" s="33"/>
       <c r="AMG5" s="33"/>
     </row>
-    <row r="6" spans="1:1021" s="30" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1021" s="30" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B6" s="30" t="s">
         <v>56</v>
       </c>
       <c r="C6" s="31" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D6" s="32">
         <v>10443230</v>
@@ -2493,15 +2529,15 @@
       <c r="AMF6" s="33"/>
       <c r="AMG6" s="33"/>
     </row>
-    <row r="7" spans="1:1021" s="30" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1021" s="30" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B7" s="30" t="s">
         <v>56</v>
       </c>
       <c r="C7" s="31" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D7" s="32">
         <v>10443490</v>
@@ -2512,15 +2548,15 @@
       <c r="AMF7" s="33"/>
       <c r="AMG7" s="33"/>
     </row>
-    <row r="8" spans="1:1021" s="30" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1021" s="30" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B8" s="30" t="s">
         <v>56</v>
       </c>
       <c r="C8" s="31" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D8" s="32">
         <v>10443702</v>
@@ -2531,15 +2567,15 @@
       <c r="AMF8" s="33"/>
       <c r="AMG8" s="33"/>
     </row>
-    <row r="9" spans="1:1021" s="30" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1021" s="30" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B9" s="30" t="s">
         <v>56</v>
       </c>
       <c r="C9" s="31" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D9" s="32">
         <v>10444095</v>
@@ -2550,15 +2586,15 @@
       <c r="AMF9" s="33"/>
       <c r="AMG9" s="33"/>
     </row>
-    <row r="10" spans="1:1021" s="30" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1021" s="30" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="29" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B10" s="30" t="s">
         <v>56</v>
       </c>
       <c r="C10" s="31" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D10" s="32">
         <v>10444474</v>
@@ -2569,15 +2605,15 @@
       <c r="AMF10" s="33"/>
       <c r="AMG10" s="33"/>
     </row>
-    <row r="11" spans="1:1021" s="30" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1021" s="30" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="29" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B11" s="30" t="s">
         <v>56</v>
       </c>
       <c r="C11" s="31" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D11" s="32">
         <v>10444931</v>
@@ -2588,15 +2624,15 @@
       <c r="AMF11" s="33"/>
       <c r="AMG11" s="33"/>
     </row>
-    <row r="12" spans="1:1021" s="30" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1021" s="30" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="29" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B12" s="30" t="s">
         <v>56</v>
       </c>
       <c r="C12" s="31" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D12" s="32">
         <v>10445155</v>
@@ -2607,15 +2643,15 @@
       <c r="AMF12" s="33"/>
       <c r="AMG12" s="33"/>
     </row>
-    <row r="13" spans="1:1021" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1021" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B13" t="s">
         <v>56</v>
       </c>
       <c r="C13" s="31" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D13" s="34">
         <v>10448121</v>
@@ -2624,15 +2660,15 @@
         <v>10448504</v>
       </c>
     </row>
-    <row r="14" spans="1:1021" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1021" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B14" t="s">
         <v>56</v>
       </c>
       <c r="C14" s="31" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D14" s="34">
         <v>10440601</v>
@@ -2641,15 +2677,15 @@
         <v>10440868</v>
       </c>
     </row>
-    <row r="15" spans="1:1021" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1021" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B15" t="s">
         <v>56</v>
       </c>
       <c r="C15" s="31" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D15" s="34">
         <v>10447474</v>
@@ -2658,15 +2694,15 @@
         <v>10447780</v>
       </c>
     </row>
-    <row r="16" spans="1:1021" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1021" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B16" t="s">
         <v>56</v>
       </c>
       <c r="C16" s="31" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D16" s="34">
         <v>10444544</v>
@@ -2675,15 +2711,15 @@
         <v>10444647</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B17" t="s">
         <v>56</v>
       </c>
       <c r="C17" s="31" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D17" s="34">
         <v>10447628</v>
@@ -2692,15 +2728,15 @@
         <v>10447788</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B18" t="s">
         <v>56</v>
       </c>
       <c r="C18" s="31" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D18" s="34">
         <v>10444095</v>
@@ -2709,15 +2745,15 @@
         <v>10444267</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B19" t="s">
         <v>56</v>
       </c>
       <c r="C19" s="31" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="D19" s="34">
         <v>10444474</v>
@@ -2726,15 +2762,15 @@
         <v>10444547</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B20" t="s">
         <v>56</v>
       </c>
       <c r="C20" s="31" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D20" s="34">
         <v>10444931</v>
@@ -2743,15 +2779,15 @@
         <v>10445049</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B21" t="s">
         <v>56</v>
       </c>
       <c r="C21" s="31" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D21" s="34">
         <v>10448121</v>
@@ -2770,26 +2806,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMG4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.33203125" style="13"/>
-    <col min="2" max="2" width="33.88671875" style="13"/>
-    <col min="3" max="3" width="16.44140625" style="14"/>
-    <col min="4" max="4" width="16.44140625" style="11"/>
-    <col min="5" max="5" width="25.5546875" style="30" customWidth="1"/>
-    <col min="6" max="6" width="10.44140625" style="2"/>
-    <col min="7" max="7" width="40.33203125" style="13"/>
-    <col min="8" max="8" width="9.109375" style="2"/>
-    <col min="9" max="9" width="19.88671875" style="2"/>
-    <col min="10" max="1021" width="9.109375" style="2"/>
-    <col min="1024" max="1026" width="8.6640625"/>
+    <col min="1" max="1" width="20.28515625" style="13"/>
+    <col min="2" max="2" width="33.85546875" style="13"/>
+    <col min="3" max="3" width="16.42578125" style="14"/>
+    <col min="4" max="4" width="16.42578125" style="11"/>
+    <col min="5" max="5" width="25.5703125" style="30" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" style="2"/>
+    <col min="7" max="7" width="40.28515625" style="13"/>
+    <col min="8" max="8" width="9.140625" style="2"/>
+    <col min="9" max="9" width="19.85546875" style="2"/>
+    <col min="10" max="1021" width="9.140625" style="2"/>
+    <col min="1024" max="1026" width="8.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="8" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="8" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -2797,16 +2833,16 @@
         <v>2</v>
       </c>
       <c r="C1" s="8" t="s">
+        <v>340</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>475</v>
+      </c>
+      <c r="F1" s="8" t="s">
         <v>342</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>343</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>477</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>344</v>
       </c>
       <c r="G1" s="8" t="s">
         <v>11</v>
@@ -2818,55 +2854,55 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
+        <v>343</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>344</v>
+      </c>
+      <c r="C2" s="14" t="s">
         <v>345</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="D2" s="11" t="s">
+        <v>288</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
         <v>346</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="B3" s="13" t="s">
+        <v>344</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>345</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>291</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
         <v>347</v>
       </c>
-      <c r="D2" s="11" t="s">
-        <v>290</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="13" t="s">
+      <c r="B4" s="13" t="s">
+        <v>344</v>
+      </c>
+      <c r="C4" s="14" t="s">
         <v>348</v>
       </c>
-      <c r="B3" s="13" t="s">
-        <v>346</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>347</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>293</v>
-      </c>
-      <c r="E3" s="13" t="s">
+      <c r="D4" s="11" t="s">
+        <v>294</v>
+      </c>
+      <c r="E4" s="13" t="s">
         <v>472</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="13" t="s">
-        <v>349</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>346</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>350</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>296</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>474</v>
       </c>
     </row>
   </sheetData>
@@ -2888,19 +2924,19 @@
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.88671875" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.88671875" customWidth="1"/>
-    <col min="5" max="5" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.85546875" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
@@ -2911,7 +2947,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="18" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="E1" s="8" t="s">
         <v>84</v>
@@ -2929,15 +2965,15 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B2" t="s">
         <v>56</v>
       </c>
       <c r="D2" s="29" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E2" s="32">
         <v>10440000</v>
@@ -2946,15 +2982,15 @@
         <v>10440868</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B3" t="s">
         <v>56</v>
       </c>
       <c r="D3" s="29" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E3" s="32">
         <v>10441509</v>
@@ -2963,15 +2999,15 @@
         <v>10441723</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B4" t="s">
         <v>56</v>
       </c>
       <c r="D4" s="29" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E4" s="32">
         <v>10444931</v>
@@ -2980,15 +3016,15 @@
         <v>10445049</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B5" t="s">
         <v>56</v>
       </c>
       <c r="D5" s="29" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="E5" s="32">
         <v>10445155</v>
@@ -3010,47 +3046,47 @@
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38.6640625" style="2"/>
+    <col min="1" max="1" width="38.7109375" style="2"/>
     <col min="2" max="2" width="46" style="35"/>
-    <col min="3" max="3" width="32.88671875" style="2"/>
+    <col min="3" max="3" width="32.85546875" style="2"/>
     <col min="4" max="4" width="45" style="36"/>
-    <col min="5" max="5" width="29.33203125" style="36"/>
-    <col min="6" max="6" width="16.44140625" style="11"/>
-    <col min="7" max="8" width="8.44140625" style="2"/>
-    <col min="9" max="9" width="13.44140625" style="2"/>
-    <col min="10" max="10" width="37.33203125" style="2"/>
-    <col min="11" max="11" width="13.44140625" style="2"/>
-    <col min="12" max="12" width="19.88671875" style="2"/>
-    <col min="13" max="1022" width="8.44140625" style="2"/>
-    <col min="1023" max="1025" width="8.44140625"/>
+    <col min="5" max="5" width="29.28515625" style="36"/>
+    <col min="6" max="6" width="16.42578125" style="11"/>
+    <col min="7" max="8" width="8.42578125" style="2"/>
+    <col min="9" max="9" width="13.42578125" style="2"/>
+    <col min="10" max="10" width="37.28515625" style="2"/>
+    <col min="11" max="11" width="13.42578125" style="2"/>
+    <col min="12" max="12" width="19.85546875" style="2"/>
+    <col min="13" max="1022" width="8.42578125" style="2"/>
+    <col min="1023" max="1025" width="8.42578125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="37" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B1" s="38" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="37" t="s">
+        <v>350</v>
+      </c>
+      <c r="D1" s="37" t="s">
+        <v>351</v>
+      </c>
+      <c r="E1" s="37" t="s">
         <v>352</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="F1" s="37" t="s">
         <v>353</v>
       </c>
-      <c r="E1" s="37" t="s">
+      <c r="G1" s="37" t="s">
         <v>354</v>
       </c>
-      <c r="F1" s="37" t="s">
+      <c r="H1" s="37" t="s">
         <v>355</v>
-      </c>
-      <c r="G1" s="37" t="s">
-        <v>356</v>
-      </c>
-      <c r="H1" s="37" t="s">
-        <v>357</v>
       </c>
       <c r="I1" s="8" t="s">
         <v>54</v>
@@ -3065,21 +3101,21 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
+        <v>356</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>357</v>
+      </c>
+      <c r="C2" s="22" t="s">
         <v>358</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="D2" s="36" t="s">
         <v>359</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="E2" s="36" t="s">
         <v>360</v>
-      </c>
-      <c r="D2" s="36" t="s">
-        <v>361</v>
-      </c>
-      <c r="E2" s="36" t="s">
-        <v>362</v>
       </c>
       <c r="F2" s="14"/>
       <c r="G2" s="13"/>
@@ -3087,24 +3123,24 @@
       <c r="I2" s="11"/>
       <c r="J2" s="13"/>
       <c r="K2" s="13" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>362</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>357</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>358</v>
+      </c>
+      <c r="D3" s="36" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="13" t="s">
-        <v>364</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>359</v>
-      </c>
-      <c r="C3" s="22" t="s">
+      <c r="E3" s="36" t="s">
         <v>360</v>
-      </c>
-      <c r="D3" s="36" t="s">
-        <v>365</v>
-      </c>
-      <c r="E3" s="36" t="s">
-        <v>362</v>
       </c>
       <c r="F3" s="14"/>
       <c r="G3" s="13"/>
@@ -3112,21 +3148,21 @@
       <c r="J3" s="13"/>
       <c r="K3" s="13"/>
     </row>
-    <row r="4" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C4" s="22" t="s">
+        <v>358</v>
+      </c>
+      <c r="D4" s="36" t="s">
+        <v>365</v>
+      </c>
+      <c r="E4" s="36" t="s">
         <v>360</v>
-      </c>
-      <c r="D4" s="36" t="s">
-        <v>367</v>
-      </c>
-      <c r="E4" s="36" t="s">
-        <v>362</v>
       </c>
       <c r="F4" s="14"/>
       <c r="G4" s="13"/>
@@ -3134,21 +3170,21 @@
       <c r="J4" s="13"/>
       <c r="K4" s="13"/>
     </row>
-    <row r="5" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
+        <v>366</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>357</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>358</v>
+      </c>
+      <c r="D5" s="36" t="s">
+        <v>367</v>
+      </c>
+      <c r="E5" s="36" t="s">
         <v>368</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>359</v>
-      </c>
-      <c r="C5" s="22" t="s">
-        <v>360</v>
-      </c>
-      <c r="D5" s="36" t="s">
-        <v>369</v>
-      </c>
-      <c r="E5" s="36" t="s">
-        <v>370</v>
       </c>
       <c r="F5" s="14"/>
       <c r="G5" s="13"/>
@@ -3174,26 +3210,26 @@
       <selection pane="bottomRight" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.44140625" style="39"/>
-    <col min="2" max="2" width="8.5546875" style="39"/>
-    <col min="3" max="3" width="11.5546875" style="39"/>
-    <col min="4" max="4" width="10.44140625" style="39"/>
-    <col min="5" max="5" width="10.6640625" style="39"/>
-    <col min="6" max="6" width="19.88671875" style="39"/>
-    <col min="7" max="1025" width="8.5546875" style="39"/>
+    <col min="1" max="1" width="19.42578125" style="39"/>
+    <col min="2" max="2" width="8.5703125" style="39"/>
+    <col min="3" max="3" width="11.5703125" style="39"/>
+    <col min="4" max="4" width="10.42578125" style="39"/>
+    <col min="5" max="5" width="10.7109375" style="39"/>
+    <col min="6" max="6" width="19.85546875" style="39"/>
+    <col min="7" max="1025" width="8.5703125" style="39"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="40" customFormat="1" ht="15.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="40" customFormat="1" ht="15.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="40" t="s">
+        <v>369</v>
+      </c>
+      <c r="B1" s="40" t="s">
+        <v>370</v>
+      </c>
+      <c r="C1" s="40" t="s">
         <v>371</v>
-      </c>
-      <c r="B1" s="40" t="s">
-        <v>372</v>
-      </c>
-      <c r="C1" s="40" t="s">
-        <v>373</v>
       </c>
       <c r="D1" s="40" t="s">
         <v>11</v>
@@ -3205,131 +3241,131 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="39" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B2" s="39">
         <v>1</v>
       </c>
       <c r="C2" s="39" t="s">
+        <v>373</v>
+      </c>
+      <c r="F2" s="39" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="39" t="s">
         <v>375</v>
-      </c>
-      <c r="F2" s="39" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="15.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="39" t="s">
-        <v>377</v>
       </c>
       <c r="B3" s="39">
         <v>1</v>
       </c>
       <c r="C3" s="39" t="s">
+        <v>376</v>
+      </c>
+      <c r="E3" s="39" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="39" t="s">
         <v>378</v>
-      </c>
-      <c r="E3" s="39" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="15.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="39" t="s">
-        <v>380</v>
       </c>
       <c r="B4" s="39">
         <v>1</v>
       </c>
       <c r="C4" s="39" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="15.15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="39" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B5" s="39">
         <v>1</v>
       </c>
       <c r="C5" s="39" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="15.15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="39" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B6" s="39">
         <v>0.25</v>
       </c>
       <c r="C6" s="39" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="15.15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="39" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B7" s="39">
         <v>0.25</v>
       </c>
       <c r="C7" s="39" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="15.15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="39" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B8" s="39">
         <v>0.25</v>
       </c>
       <c r="C8" s="39" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="15.15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="39" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B9" s="39">
         <v>0.25</v>
       </c>
       <c r="C9" s="39" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="15.15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="41" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B10" s="39">
         <v>0.5</v>
       </c>
       <c r="C10" s="39" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="15.15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="41" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B11" s="39">
         <v>0.5</v>
       </c>
       <c r="C11" s="39" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="15.15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="41" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B12" s="39">
         <v>0.5</v>
       </c>
       <c r="C12" s="39" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
   </sheetData>
@@ -3346,17 +3382,17 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16"/>
-    <col min="4" max="4" width="15.44140625"/>
+    <col min="4" max="4" width="15.42578125"/>
     <col min="5" max="5" width="14"/>
-    <col min="6" max="6" width="10.5546875"/>
-    <col min="7" max="7" width="11.109375"/>
-    <col min="8" max="8" width="20.5546875"/>
+    <col min="6" max="6" width="10.5703125"/>
+    <col min="7" max="7" width="11.140625"/>
+    <col min="8" max="8" width="20.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="8" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="8" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -3364,13 +3400,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F1" s="8" t="s">
         <v>11</v>
@@ -3382,12 +3418,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
   </sheetData>
@@ -3408,19 +3444,19 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.6640625" style="2"/>
-    <col min="2" max="2" width="23.44140625" style="2"/>
-    <col min="3" max="3" width="17.6640625" style="2"/>
-    <col min="4" max="4" width="18.6640625" style="2"/>
-    <col min="5" max="5" width="12.6640625" style="2"/>
-    <col min="6" max="6" width="14.6640625" style="2"/>
-    <col min="7" max="1022" width="37.33203125" style="2"/>
-    <col min="1023" max="1025" width="8.44140625"/>
+    <col min="1" max="1" width="18.7109375" style="2"/>
+    <col min="2" max="2" width="23.42578125" style="2"/>
+    <col min="3" max="3" width="17.7109375" style="2"/>
+    <col min="4" max="4" width="18.7109375" style="2"/>
+    <col min="5" max="5" width="12.7109375" style="2"/>
+    <col min="6" max="6" width="14.7109375" style="2"/>
+    <col min="7" max="1022" width="37.28515625" style="2"/>
+    <col min="1023" max="1025" width="8.42578125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="8" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="8" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -3428,13 +3464,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="8" t="s">
+        <v>392</v>
+      </c>
+      <c r="D1" s="37" t="s">
+        <v>393</v>
+      </c>
+      <c r="E1" s="8" t="s">
         <v>394</v>
-      </c>
-      <c r="D1" s="37" t="s">
-        <v>395</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>396</v>
       </c>
       <c r="F1" s="37" t="s">
         <v>11</v>
@@ -3446,75 +3482,75 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>398</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>399</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>400</v>
       </c>
       <c r="E2" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>401</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>402</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>399</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>403</v>
       </c>
       <c r="E3" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>404</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>405</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>399</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>406</v>
       </c>
       <c r="E4" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>407</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>399</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>409</v>
       </c>
       <c r="E5" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>37</v>
       </c>
@@ -3522,44 +3558,44 @@
         <v>37</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="E6" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>411</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>412</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>399</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>413</v>
       </c>
       <c r="E7" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E8" s="2">
         <v>0</v>
@@ -3587,34 +3623,34 @@
       <selection pane="bottomRight" activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.33203125" style="42"/>
-    <col min="2" max="2" width="10.6640625" style="42"/>
-    <col min="3" max="3" width="10.44140625" style="42"/>
+    <col min="1" max="1" width="20.28515625" style="42"/>
+    <col min="2" max="2" width="10.7109375" style="42"/>
+    <col min="3" max="3" width="10.42578125" style="42"/>
     <col min="4" max="4" width="11" style="42"/>
-    <col min="5" max="5" width="6.5546875" style="42"/>
-    <col min="6" max="6" width="28.6640625" style="42"/>
+    <col min="5" max="5" width="6.5703125" style="42"/>
+    <col min="6" max="6" width="28.7109375" style="42"/>
     <col min="7" max="7" width="11" style="42"/>
     <col min="8" max="8" width="20" style="42"/>
-    <col min="9" max="1025" width="8.6640625" style="42"/>
+    <col min="9" max="1025" width="8.7109375" style="42"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="43" t="s">
+        <v>413</v>
+      </c>
+      <c r="B1" s="43" t="s">
+        <v>414</v>
+      </c>
+      <c r="C1" s="43" t="s">
         <v>415</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="D1" s="43" t="s">
         <v>416</v>
       </c>
-      <c r="C1" s="43" t="s">
+      <c r="E1" s="43" t="s">
         <v>417</v>
-      </c>
-      <c r="D1" s="43" t="s">
-        <v>418</v>
-      </c>
-      <c r="E1" s="43" t="s">
-        <v>419</v>
       </c>
       <c r="F1" s="43" t="s">
         <v>11</v>
@@ -3626,47 +3662,47 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="42" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B2" s="42" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C2" s="42" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="D2"/>
       <c r="E2"/>
       <c r="F2"/>
       <c r="H2"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="42" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B3" s="42" t="s">
+        <v>418</v>
+      </c>
+      <c r="C3" s="42" t="s">
         <v>420</v>
-      </c>
-      <c r="C3" s="42" t="s">
-        <v>422</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
       <c r="F3" s="42" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="H3"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="42" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B4" s="42" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C4" s="42" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="D4" s="42">
         <v>1</v>
@@ -3675,78 +3711,78 @@
         <v>2</v>
       </c>
       <c r="F4" s="42" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="H4"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="42" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B5" s="42" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C5" s="42" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F5" s="42" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="H5"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="42" t="s">
         <v>37</v>
       </c>
       <c r="B6" s="42" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C6" s="42" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="F6" s="42" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="H6"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="42" t="s">
         <v>37</v>
       </c>
       <c r="B7" s="42" t="s">
+        <v>427</v>
+      </c>
+      <c r="C7" s="42" t="s">
+        <v>428</v>
+      </c>
+      <c r="H7"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="42" t="s">
+        <v>409</v>
+      </c>
+      <c r="B8" s="45" t="s">
+        <v>418</v>
+      </c>
+      <c r="C8" s="45" t="s">
         <v>429</v>
       </c>
-      <c r="C7" s="42" t="s">
+      <c r="H8" s="45" t="s">
         <v>430</v>
       </c>
-      <c r="H7"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="42" t="s">
-        <v>411</v>
-      </c>
-      <c r="B8" s="45" t="s">
-        <v>420</v>
-      </c>
-      <c r="C8" s="45" t="s">
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="42" t="s">
+        <v>412</v>
+      </c>
+      <c r="B9" s="45" t="s">
+        <v>418</v>
+      </c>
+      <c r="C9" s="45" t="s">
         <v>431</v>
       </c>
-      <c r="H8" s="45" t="s">
+      <c r="H9" s="45" t="s">
         <v>432</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="42" t="s">
-        <v>414</v>
-      </c>
-      <c r="B9" s="45" t="s">
-        <v>420</v>
-      </c>
-      <c r="C9" s="45" t="s">
-        <v>433</v>
-      </c>
-      <c r="H9" s="45" t="s">
-        <v>434</v>
       </c>
     </row>
   </sheetData>
@@ -3762,16 +3798,16 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="5" width="8.5546875"/>
-    <col min="6" max="6" width="10.5546875"/>
-    <col min="7" max="7" width="11.109375"/>
-    <col min="8" max="8" width="20.5546875"/>
-    <col min="9" max="1025" width="8.5546875"/>
+    <col min="1" max="5" width="8.5703125"/>
+    <col min="6" max="6" width="10.5703125"/>
+    <col min="7" max="7" width="11.140625"/>
+    <col min="8" max="8" width="20.5703125"/>
+    <col min="9" max="1025" width="8.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -3779,13 +3815,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="D1" s="37" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="F1" s="37" t="s">
         <v>11</v>
@@ -3797,12 +3833,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B2" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C2">
         <v>20.5</v>
@@ -3811,18 +3847,18 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="E2" t="s">
+        <v>436</v>
+      </c>
+      <c r="H2" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>438</v>
       </c>
-      <c r="H2" t="s">
+      <c r="B3" t="s">
         <v>439</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>440</v>
-      </c>
-      <c r="B3" t="s">
-        <v>441</v>
       </c>
       <c r="C3">
         <v>1.35</v>
@@ -3831,18 +3867,18 @@
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="E3" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="H3" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>441</v>
+      </c>
+      <c r="B4" t="s">
         <v>442</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>443</v>
-      </c>
-      <c r="B4" t="s">
-        <v>444</v>
       </c>
       <c r="C4">
         <v>0.46</v>
@@ -3851,18 +3887,18 @@
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="E4" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="H4" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B5" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C5">
         <v>1.2</v>
@@ -3871,10 +3907,10 @@
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="E5" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="H5" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
   </sheetData>
@@ -3894,14 +3930,14 @@
       <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.44140625" style="6"/>
-    <col min="2" max="2" width="51.109375" style="2"/>
-    <col min="3" max="1025" width="8.44140625"/>
+    <col min="1" max="1" width="16.42578125" style="6"/>
+    <col min="2" max="2" width="51.140625" style="2"/>
+    <col min="3" max="1025" width="8.42578125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3909,7 +3945,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>2</v>
       </c>
@@ -3917,7 +3953,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>14</v>
       </c>
@@ -3925,7 +3961,7 @@
         <v>9606</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>11</v>
       </c>
@@ -3945,29 +3981,29 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.6640625"/>
-    <col min="2" max="2" width="15.5546875"/>
-    <col min="4" max="4" width="13.109375"/>
-    <col min="5" max="5" width="10.5546875"/>
-    <col min="6" max="6" width="11.109375"/>
-    <col min="7" max="7" width="19.88671875"/>
-    <col min="1021" max="1025" width="8.6640625"/>
+    <col min="1" max="1" width="17.7109375"/>
+    <col min="2" max="2" width="15.5703125"/>
+    <col min="4" max="4" width="13.140625"/>
+    <col min="5" max="5" width="10.5703125"/>
+    <col min="6" max="6" width="11.140625"/>
+    <col min="7" max="7" width="19.85546875"/>
+    <col min="1021" max="1025" width="8.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="E1" s="8" t="s">
         <v>11</v>
@@ -3979,60 +4015,60 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B2" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="C2" s="46">
         <v>3.0000000000000001E-12</v>
       </c>
       <c r="D2" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>448</v>
+      </c>
+      <c r="B3" t="s">
         <v>449</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>450</v>
-      </c>
-      <c r="B3" t="s">
-        <v>451</v>
       </c>
       <c r="C3" s="46">
         <v>10000000</v>
       </c>
       <c r="D3" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>451</v>
+      </c>
+      <c r="B4" t="s">
         <v>452</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>453</v>
-      </c>
-      <c r="B4" t="s">
-        <v>454</v>
       </c>
       <c r="C4">
         <v>0.7</v>
       </c>
       <c r="D4" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>454</v>
+      </c>
+      <c r="B5" t="s">
         <v>455</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>456</v>
-      </c>
-      <c r="B5" t="s">
-        <v>457</v>
       </c>
       <c r="C5">
         <v>71280</v>
       </c>
       <c r="D5" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
   </sheetData>
@@ -4053,43 +4089,43 @@
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.5546875"/>
-    <col min="2" max="2" width="18.5546875"/>
-    <col min="3" max="1025" width="8.5546875"/>
+    <col min="1" max="1" width="8.5703125"/>
+    <col min="2" max="2" width="18.5703125"/>
+    <col min="3" max="1025" width="8.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
+        <v>457</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>361</v>
+      </c>
+      <c r="B2" t="s">
         <v>459</v>
       </c>
-      <c r="B1" s="8" t="s">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>377</v>
+      </c>
+      <c r="B3" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>363</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>379</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>462</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>463</v>
-      </c>
-      <c r="B4" t="s">
-        <v>464</v>
       </c>
     </row>
   </sheetData>
@@ -4106,19 +4142,19 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="7"/>
-    <col min="2" max="2" width="16.109375" style="2"/>
-    <col min="3" max="3" width="17.6640625" style="2"/>
-    <col min="4" max="4" width="11.33203125" style="2"/>
-    <col min="5" max="5" width="11.109375" style="2"/>
-    <col min="6" max="6" width="20.5546875" style="2"/>
-    <col min="7" max="1020" width="9.109375" style="2"/>
-    <col min="1024" max="1025" width="8.6640625"/>
+    <col min="1" max="1" width="9.140625" style="7"/>
+    <col min="2" max="2" width="16.140625" style="2"/>
+    <col min="3" max="3" width="17.7109375" style="2"/>
+    <col min="4" max="4" width="11.28515625" style="2"/>
+    <col min="5" max="5" width="11.140625" style="2"/>
+    <col min="6" max="6" width="20.5703125" style="2"/>
+    <col min="7" max="1020" width="9.140625" style="2"/>
+    <col min="1024" max="1025" width="8.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="8" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="8" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -4138,7 +4174,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>18</v>
       </c>
@@ -4155,7 +4191,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>22</v>
       </c>
@@ -4167,7 +4203,7 @@
       </c>
       <c r="F3"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>24</v>
       </c>
@@ -4181,7 +4217,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>27</v>
       </c>
@@ -4207,19 +4243,19 @@
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.88671875" style="9"/>
-    <col min="2" max="2" width="39.44140625" style="9"/>
-    <col min="3" max="3" width="13.6640625" style="2"/>
-    <col min="4" max="4" width="10.6640625" style="2"/>
+    <col min="1" max="1" width="23.85546875" style="9"/>
+    <col min="2" max="2" width="39.42578125" style="9"/>
+    <col min="3" max="3" width="13.7109375" style="2"/>
+    <col min="4" max="4" width="10.7109375" style="2"/>
     <col min="5" max="5" width="55" style="9"/>
-    <col min="6" max="6" width="9.109375" style="2"/>
-    <col min="7" max="7" width="19.88671875" style="2"/>
-    <col min="8" max="1022" width="9.109375" style="2"/>
+    <col min="6" max="6" width="9.140625" style="2"/>
+    <col min="7" max="7" width="19.85546875" style="2"/>
+    <col min="8" max="1022" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="8" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="8" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -4242,7 +4278,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>31</v>
       </c>
@@ -4250,7 +4286,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>33</v>
       </c>
@@ -4261,7 +4297,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>36</v>
       </c>
@@ -4269,7 +4305,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>38</v>
       </c>
@@ -4277,7 +4313,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>40</v>
       </c>
@@ -4288,7 +4324,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>43</v>
       </c>
@@ -4299,7 +4335,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>46</v>
       </c>
@@ -4310,7 +4346,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>49</v>
       </c>
@@ -4339,20 +4375,20 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.109375" style="7"/>
+    <col min="1" max="1" width="14.140625" style="7"/>
     <col min="2" max="2" width="13" style="11"/>
-    <col min="3" max="4" width="11.6640625" style="2"/>
-    <col min="5" max="5" width="22.109375" style="2"/>
-    <col min="6" max="6" width="9.109375" style="2"/>
-    <col min="7" max="8" width="13.44140625" style="2"/>
-    <col min="9" max="9" width="13.44140625"/>
-    <col min="10" max="10" width="19.88671875"/>
-    <col min="11" max="12" width="13.44140625"/>
+    <col min="3" max="4" width="11.7109375" style="2"/>
+    <col min="5" max="5" width="22.140625" style="2"/>
+    <col min="6" max="6" width="9.140625" style="2"/>
+    <col min="7" max="8" width="13.42578125" style="2"/>
+    <col min="9" max="9" width="13.42578125"/>
+    <col min="10" max="10" width="19.85546875"/>
+    <col min="11" max="12" width="13.42578125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -4360,7 +4396,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="D1" s="8" t="s">
         <v>52</v>
@@ -4369,7 +4405,7 @@
         <v>53</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="G1" s="8" t="s">
         <v>54</v>
@@ -4384,7 +4420,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>55</v>
       </c>
@@ -4403,7 +4439,7 @@
       </c>
       <c r="G2" s="11"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>56</v>
       </c>
@@ -4420,7 +4456,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>57</v>
       </c>
@@ -4437,7 +4473,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>58</v>
       </c>
@@ -4454,7 +4490,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>59</v>
       </c>
@@ -4471,7 +4507,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>60</v>
       </c>
@@ -4488,7 +4524,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>61</v>
       </c>
@@ -4505,7 +4541,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>62</v>
       </c>
@@ -4522,7 +4558,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>63</v>
       </c>
@@ -4539,7 +4575,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>64</v>
       </c>
@@ -4556,7 +4592,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>65</v>
       </c>
@@ -4573,7 +4609,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>66</v>
       </c>
@@ -4590,7 +4626,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>67</v>
       </c>
@@ -4607,7 +4643,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>68</v>
       </c>
@@ -4624,7 +4660,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>69</v>
       </c>
@@ -4641,7 +4677,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>70</v>
       </c>
@@ -4658,7 +4694,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>71</v>
       </c>
@@ -4675,7 +4711,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>72</v>
       </c>
@@ -4692,7 +4728,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>73</v>
       </c>
@@ -4709,7 +4745,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>74</v>
       </c>
@@ -4726,7 +4762,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>75</v>
       </c>
@@ -4743,7 +4779,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>76</v>
       </c>
@@ -4760,7 +4796,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>77</v>
       </c>
@@ -4777,7 +4813,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>78</v>
       </c>
@@ -4794,7 +4830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>79</v>
       </c>
@@ -4826,22 +4862,22 @@
   <dimension ref="A1:AMI37"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.44140625" style="11"/>
-    <col min="2" max="2" width="16.44140625" style="11"/>
-    <col min="3" max="3" width="42.44140625" style="13"/>
-    <col min="4" max="6" width="13.44140625" style="14"/>
-    <col min="7" max="8" width="13.44140625" style="11"/>
-    <col min="9" max="9" width="16.44140625" style="15"/>
-    <col min="10" max="1023" width="32.5546875" style="2"/>
-    <col min="1024" max="1025" width="8.44140625"/>
+    <col min="1" max="1" width="17.42578125" style="11"/>
+    <col min="2" max="2" width="16.42578125" style="11"/>
+    <col min="3" max="3" width="42.42578125" style="13"/>
+    <col min="4" max="6" width="13.42578125" style="14"/>
+    <col min="7" max="8" width="13.42578125" style="11"/>
+    <col min="9" max="9" width="16.42578125" style="15"/>
+    <col min="10" max="1023" width="32.5703125" style="2"/>
+    <col min="1024" max="1025" width="8.42578125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1023" s="8" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1023" s="8" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -4882,7 +4918,7 @@
       <c r="AMH1" s="2"/>
       <c r="AMI1" s="2"/>
     </row>
-    <row r="2" spans="1:1023" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1023" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>86</v>
       </c>
@@ -4908,7 +4944,7 @@
         <v>20651511</v>
       </c>
     </row>
-    <row r="3" spans="1:1023" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1023" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>91</v>
       </c>
@@ -4934,7 +4970,7 @@
         <v>10448504</v>
       </c>
     </row>
-    <row r="4" spans="1:1023" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1023" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>95</v>
       </c>
@@ -4960,7 +4996,7 @@
         <v>69387254</v>
       </c>
     </row>
-    <row r="5" spans="1:1023" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1023" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>98</v>
       </c>
@@ -4986,7 +5022,7 @@
         <v>40574685</v>
       </c>
     </row>
-    <row r="6" spans="1:1023" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1023" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>101</v>
       </c>
@@ -5012,7 +5048,7 @@
         <v>112649530</v>
       </c>
     </row>
-    <row r="7" spans="1:1023" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1023" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>104</v>
       </c>
@@ -5038,7 +5074,7 @@
         <v>83605875</v>
       </c>
     </row>
-    <row r="8" spans="1:1023" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1023" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>107</v>
       </c>
@@ -5064,7 +5100,7 @@
         <v>127899195</v>
       </c>
     </row>
-    <row r="9" spans="1:1023" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1023" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>110</v>
       </c>
@@ -5090,7 +5126,7 @@
         <v>160421711</v>
       </c>
     </row>
-    <row r="10" spans="1:1023" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1023" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>113</v>
       </c>
@@ -5116,7 +5152,7 @@
         <v>152129619</v>
       </c>
     </row>
-    <row r="11" spans="1:1023" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1023" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>116</v>
       </c>
@@ -5142,7 +5178,7 @@
         <v>56051604</v>
       </c>
     </row>
-    <row r="12" spans="1:1023" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1023" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
         <v>119</v>
       </c>
@@ -5168,7 +5204,7 @@
         <v>18084998</v>
       </c>
     </row>
-    <row r="13" spans="1:1023" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1023" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>122</v>
       </c>
@@ -5194,7 +5230,7 @@
         <v>19967258</v>
       </c>
     </row>
-    <row r="14" spans="1:1023" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1023" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>125</v>
       </c>
@@ -5220,7 +5256,7 @@
         <v>136423761</v>
       </c>
     </row>
-    <row r="15" spans="1:1023" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1023" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>128</v>
       </c>
@@ -5246,7 +5282,7 @@
         <v>7787981</v>
       </c>
     </row>
-    <row r="16" spans="1:1023" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1023" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>131</v>
       </c>
@@ -5272,7 +5308,7 @@
         <v>133421307</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
         <v>134</v>
       </c>
@@ -5298,7 +5334,7 @@
         <v>13732346</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
         <v>137</v>
       </c>
@@ -5324,7 +5360,7 @@
         <v>114450279</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
         <v>140</v>
       </c>
@@ -5350,7 +5386,7 @@
         <v>77065580</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
         <v>143</v>
       </c>
@@ -5376,7 +5412,7 @@
         <v>113359493</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
         <v>146</v>
       </c>
@@ -5402,7 +5438,7 @@
         <v>52476628</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
         <v>149</v>
       </c>
@@ -5428,7 +5464,7 @@
         <v>103057462</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
         <v>152</v>
       </c>
@@ -5454,7 +5490,7 @@
         <v>65578352</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
         <v>155</v>
       </c>
@@ -5480,7 +5516,7 @@
         <v>101251932</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
         <v>158</v>
       </c>
@@ -5506,7 +5542,7 @@
         <v>89155846</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
         <v>161</v>
       </c>
@@ -5532,7 +5568,7 @@
         <v>49223225</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
         <v>164</v>
       </c>
@@ -5558,7 +5594,7 @@
         <v>50988121</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
         <v>167</v>
       </c>
@@ -5584,7 +5620,7 @@
         <v>41440717</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
         <v>170</v>
       </c>
@@ -5610,7 +5646,7 @@
         <v>47784686</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
         <v>173</v>
       </c>
@@ -5636,7 +5672,7 @@
         <v>13638940</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
         <v>176</v>
       </c>
@@ -5662,7 +5698,7 @@
         <v>44652233</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
         <v>179</v>
       </c>
@@ -5688,7 +5724,7 @@
         <v>31668931</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
         <v>182</v>
       </c>
@@ -5714,7 +5750,7 @@
         <v>20859417</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="11" t="s">
         <v>185</v>
       </c>
@@ -5740,7 +5776,7 @@
         <v>38738299</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="11" t="s">
         <v>188</v>
       </c>
@@ -5766,7 +5802,7 @@
         <v>119605895</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="11" t="s">
         <v>191</v>
       </c>
@@ -5792,7 +5828,7 @@
         <v>23005465</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
         <v>194</v>
       </c>
@@ -5831,35 +5867,36 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMJ37"/>
+  <dimension ref="A1:AMK37"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="16.44140625" style="11"/>
+    <col min="1" max="3" width="16.42578125" style="11"/>
     <col min="4" max="4" width="22" style="11"/>
-    <col min="5" max="5" width="13.6640625" style="11"/>
-    <col min="6" max="6" width="25.109375" style="11"/>
-    <col min="7" max="7" width="13.44140625" style="11"/>
-    <col min="8" max="8" width="16.33203125" style="30" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.44140625" style="30" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.5546875" style="30" customWidth="1"/>
-    <col min="11" max="11" width="23.33203125" style="11"/>
-    <col min="12" max="12" width="25.109375" style="2"/>
-    <col min="13" max="13" width="19.88671875"/>
-    <col min="14" max="14" width="9.109375" style="14"/>
-    <col min="15" max="15" width="10.44140625" style="14"/>
-    <col min="16" max="16" width="10.6640625" style="14"/>
-    <col min="17" max="18" width="9.109375" style="11"/>
-    <col min="19" max="19" width="22.88671875" style="14"/>
-    <col min="20" max="1015" width="9.109375" style="11"/>
-    <col min="1016" max="1024" width="9.109375" style="2"/>
+    <col min="5" max="5" width="13.7109375" style="11"/>
+    <col min="6" max="6" width="9.140625" style="30"/>
+    <col min="7" max="7" width="25.140625" style="11"/>
+    <col min="8" max="8" width="13.42578125" style="11"/>
+    <col min="9" max="9" width="16.28515625" style="30" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.42578125" style="30" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.5703125" style="30" customWidth="1"/>
+    <col min="12" max="12" width="23.28515625" style="11"/>
+    <col min="13" max="13" width="25.140625" style="2"/>
+    <col min="14" max="14" width="19.85546875"/>
+    <col min="15" max="15" width="9.140625" style="14"/>
+    <col min="16" max="16" width="10.42578125" style="14"/>
+    <col min="17" max="17" width="10.7109375" style="14"/>
+    <col min="18" max="19" width="9.140625" style="11"/>
+    <col min="20" max="20" width="22.85546875" style="14"/>
+    <col min="21" max="1016" width="9.140625" style="11"/>
+    <col min="1017" max="1025" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1024" s="8" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1025" s="8" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -5876,36 +5913,38 @@
         <v>197</v>
       </c>
       <c r="F1" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="G1" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="H1" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="H1" s="8" t="s">
-        <v>467</v>
-      </c>
       <c r="I1" s="8" t="s">
+        <v>465</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>464</v>
+      </c>
+      <c r="K1" s="8" t="s">
         <v>466</v>
       </c>
-      <c r="J1" s="8" t="s">
-        <v>468</v>
-      </c>
-      <c r="K1" s="18" t="s">
+      <c r="L1" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="19" t="s">
+      <c r="M1" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="N1" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="N1" s="20"/>
       <c r="O1" s="20"/>
       <c r="P1" s="20"/>
-      <c r="Q1" s="21"/>
+      <c r="Q1" s="20"/>
       <c r="R1" s="21"/>
-      <c r="S1" s="20"/>
-      <c r="AMB1" s="1"/>
+      <c r="S1" s="21"/>
+      <c r="T1" s="20"/>
       <c r="AMC1" s="1"/>
       <c r="AMD1" s="1"/>
       <c r="AME1" s="1"/>
@@ -5914,8 +5953,9 @@
       <c r="AMH1" s="1"/>
       <c r="AMI1" s="1"/>
       <c r="AMJ1" s="1"/>
-    </row>
-    <row r="2" spans="1:1024" x14ac:dyDescent="0.3">
+      <c r="AMK1" s="1"/>
+    </row>
+    <row r="2" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>198</v>
       </c>
@@ -5931,24 +5971,27 @@
       <c r="E2" s="11" t="s">
         <v>201</v>
       </c>
-      <c r="F2" s="11">
+      <c r="F2" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="G2" s="11">
         <v>203893801</v>
       </c>
-      <c r="G2" s="11">
+      <c r="H2" s="11">
         <v>203895200</v>
       </c>
-      <c r="H2" s="30">
+      <c r="I2" s="30">
         <v>203893820</v>
       </c>
-      <c r="I2" s="30">
+      <c r="J2" s="30">
         <v>203895200</v>
       </c>
-      <c r="K2" s="14"/>
-      <c r="L2" s="5"/>
-      <c r="Q2" s="22"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="5"/>
       <c r="R2" s="22"/>
-    </row>
-    <row r="3" spans="1:1024" x14ac:dyDescent="0.3">
+      <c r="S2" s="22"/>
+    </row>
+    <row r="3" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>202</v>
       </c>
@@ -5964,24 +6007,27 @@
       <c r="E3" s="11" t="s">
         <v>201</v>
       </c>
-      <c r="F3" s="11">
+      <c r="F3" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="G3" s="11">
         <v>20602802</v>
       </c>
-      <c r="G3" s="11">
+      <c r="H3" s="11">
         <v>20605200</v>
       </c>
-      <c r="H3" s="30">
+      <c r="I3" s="30">
         <v>20602802</v>
       </c>
-      <c r="I3" s="30">
+      <c r="J3" s="30">
         <v>20605200</v>
       </c>
-      <c r="K3" s="14"/>
-      <c r="L3" s="5"/>
-      <c r="Q3" s="22"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="5"/>
       <c r="R3" s="22"/>
-    </row>
-    <row r="4" spans="1:1024" x14ac:dyDescent="0.3">
+      <c r="S3" s="22"/>
+    </row>
+    <row r="4" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>205</v>
       </c>
@@ -5997,24 +6043,27 @@
       <c r="E4" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="F4" s="11">
+      <c r="F4" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="G4" s="11">
         <v>45648015</v>
       </c>
-      <c r="G4" s="11">
+      <c r="H4" s="11">
         <v>45648411</v>
       </c>
-      <c r="H4" s="30">
+      <c r="I4" s="30">
         <v>45648015</v>
       </c>
-      <c r="I4" s="30">
+      <c r="J4" s="30">
         <v>45648411</v>
       </c>
-      <c r="K4" s="14"/>
-      <c r="L4" s="5"/>
-      <c r="Q4" s="22"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="5"/>
       <c r="R4" s="22"/>
-    </row>
-    <row r="5" spans="1:1024" x14ac:dyDescent="0.3">
+      <c r="S4" s="22"/>
+    </row>
+    <row r="5" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>209</v>
       </c>
@@ -6030,24 +6079,27 @@
       <c r="E5" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="G5" s="11">
         <v>85413000</v>
       </c>
-      <c r="G5" s="11">
+      <c r="H5" s="11">
         <v>85414201</v>
       </c>
-      <c r="H5" s="30">
+      <c r="I5" s="30">
         <v>85413000</v>
       </c>
-      <c r="I5" s="30">
+      <c r="J5" s="30">
         <v>85414201</v>
       </c>
-      <c r="K5" s="14"/>
-      <c r="L5" s="5"/>
-      <c r="Q5" s="22"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="5"/>
       <c r="R5" s="22"/>
-    </row>
-    <row r="6" spans="1:1024" x14ac:dyDescent="0.3">
+      <c r="S5" s="22"/>
+    </row>
+    <row r="6" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>213</v>
       </c>
@@ -6063,24 +6115,27 @@
       <c r="E6" s="11" t="s">
         <v>215</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="G6" s="11">
         <v>39877201</v>
       </c>
-      <c r="G6" s="11">
+      <c r="H6" s="11">
         <v>39878600</v>
       </c>
-      <c r="H6" s="30">
+      <c r="I6" s="30">
         <v>39877210</v>
       </c>
-      <c r="I6" s="30">
+      <c r="J6" s="30">
         <v>39878600</v>
       </c>
-      <c r="K6" s="14"/>
-      <c r="L6" s="5"/>
-      <c r="Q6" s="22"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="5"/>
       <c r="R6" s="22"/>
-    </row>
-    <row r="7" spans="1:1024" x14ac:dyDescent="0.3">
+      <c r="S6" s="22"/>
+    </row>
+    <row r="7" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>216</v>
       </c>
@@ -6096,24 +6151,27 @@
       <c r="E7" s="11" t="s">
         <v>201</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="G7" s="11">
         <v>185316402</v>
       </c>
-      <c r="G7" s="11">
+      <c r="H7" s="11">
         <v>185318582</v>
       </c>
-      <c r="H7" s="30">
+      <c r="I7" s="30">
         <v>185316402</v>
       </c>
-      <c r="I7" s="30">
+      <c r="J7" s="30">
         <v>185318582</v>
       </c>
-      <c r="K7" s="14"/>
-      <c r="L7" s="5"/>
-      <c r="Q7" s="22"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="5"/>
       <c r="R7" s="22"/>
-    </row>
-    <row r="8" spans="1:1024" x14ac:dyDescent="0.3">
+      <c r="S7" s="22"/>
+    </row>
+    <row r="8" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>218</v>
       </c>
@@ -6129,24 +6187,27 @@
       <c r="E8" s="11" t="s">
         <v>201</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F8" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="G8" s="11">
         <v>53862600</v>
       </c>
-      <c r="G8" s="11">
+      <c r="H8" s="11">
         <v>53863800</v>
       </c>
-      <c r="H8" s="30">
+      <c r="I8" s="30">
         <v>53862600</v>
       </c>
-      <c r="I8" s="30">
+      <c r="J8" s="30">
         <v>53863800</v>
       </c>
-      <c r="K8" s="14"/>
-      <c r="L8" s="5"/>
-      <c r="Q8" s="22"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="5"/>
       <c r="R8" s="22"/>
-    </row>
-    <row r="9" spans="1:1024" x14ac:dyDescent="0.3">
+      <c r="S8" s="22"/>
+    </row>
+    <row r="9" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>221</v>
       </c>
@@ -6162,24 +6223,27 @@
       <c r="E9" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F9" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="G9" s="11">
         <v>118834600</v>
       </c>
-      <c r="G9" s="11">
+      <c r="H9" s="11">
         <v>118837001</v>
       </c>
-      <c r="H9" s="30">
+      <c r="I9" s="30">
         <v>118834600</v>
       </c>
-      <c r="I9" s="30">
+      <c r="J9" s="30">
         <v>118837001</v>
       </c>
-      <c r="K9" s="14"/>
-      <c r="L9" s="5"/>
-      <c r="Q9" s="22"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="5"/>
       <c r="R9" s="22"/>
-    </row>
-    <row r="10" spans="1:1024" x14ac:dyDescent="0.3">
+      <c r="S9" s="22"/>
+    </row>
+    <row r="10" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>223</v>
       </c>
@@ -6195,24 +6259,27 @@
       <c r="E10" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="F10" s="11">
+      <c r="F10" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="G10" s="11">
         <v>141848202</v>
       </c>
-      <c r="G10" s="11">
+      <c r="H10" s="11">
         <v>141851600</v>
       </c>
-      <c r="H10" s="30">
+      <c r="I10" s="30">
         <v>141848202</v>
       </c>
-      <c r="I10" s="30">
+      <c r="J10" s="30">
         <v>141851600</v>
       </c>
-      <c r="K10" s="14"/>
-      <c r="L10" s="5"/>
-      <c r="Q10" s="22"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="5"/>
       <c r="R10" s="22"/>
-    </row>
-    <row r="11" spans="1:1024" x14ac:dyDescent="0.3">
+      <c r="S10" s="22"/>
+    </row>
+    <row r="11" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>225</v>
       </c>
@@ -6228,24 +6295,27 @@
       <c r="E11" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="F11" s="11">
+      <c r="F11" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="G11" s="11">
         <v>2988400</v>
       </c>
-      <c r="G11" s="11">
+      <c r="H11" s="11">
         <v>2991401</v>
       </c>
-      <c r="H11" s="30">
+      <c r="I11" s="30">
         <v>2988400</v>
       </c>
-      <c r="I11" s="30">
+      <c r="J11" s="30">
         <v>2991400</v>
       </c>
-      <c r="K11" s="14"/>
-      <c r="L11" s="5"/>
-      <c r="Q11" s="22"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="5"/>
       <c r="R11" s="22"/>
-    </row>
-    <row r="12" spans="1:1024" x14ac:dyDescent="0.3">
+      <c r="S11" s="22"/>
+    </row>
+    <row r="12" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
         <v>227</v>
       </c>
@@ -6261,24 +6331,27 @@
       <c r="E12" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="F12" s="11">
+      <c r="F12" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="G12" s="11">
         <v>43970600</v>
       </c>
-      <c r="G12" s="11">
+      <c r="H12" s="11">
         <v>43971001</v>
       </c>
-      <c r="H12" s="30">
+      <c r="I12" s="30">
         <v>43970600</v>
       </c>
-      <c r="I12" s="30">
+      <c r="J12" s="30">
         <v>43971001</v>
       </c>
-      <c r="K12" s="14"/>
-      <c r="L12" s="5"/>
-      <c r="Q12" s="22"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="5"/>
       <c r="R12" s="22"/>
-    </row>
-    <row r="13" spans="1:1024" x14ac:dyDescent="0.3">
+      <c r="S12" s="22"/>
+    </row>
+    <row r="13" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>229</v>
       </c>
@@ -6294,24 +6367,27 @@
       <c r="E13" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="F13" s="11">
+      <c r="F13" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="G13" s="11">
         <v>890483</v>
       </c>
-      <c r="G13" s="11">
+      <c r="H13" s="11">
         <v>893236</v>
       </c>
-      <c r="H13" s="30">
+      <c r="I13" s="30">
         <v>890483</v>
       </c>
-      <c r="I13" s="30">
+      <c r="J13" s="30">
         <v>893236</v>
       </c>
-      <c r="K13" s="14"/>
-      <c r="L13" s="5"/>
-      <c r="Q13" s="22"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="5"/>
       <c r="R13" s="22"/>
-    </row>
-    <row r="14" spans="1:1024" x14ac:dyDescent="0.3">
+      <c r="S13" s="22"/>
+    </row>
+    <row r="14" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>231</v>
       </c>
@@ -6327,24 +6403,27 @@
       <c r="E14" s="11" t="s">
         <v>201</v>
       </c>
-      <c r="F14" s="11">
+      <c r="F14" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="G14" s="11">
         <v>116112401</v>
       </c>
-      <c r="G14" s="11">
+      <c r="H14" s="11">
         <v>116112801</v>
       </c>
-      <c r="H14" s="30">
+      <c r="I14" s="30">
         <v>116112401</v>
       </c>
-      <c r="I14" s="30">
+      <c r="J14" s="30">
         <v>116112801</v>
       </c>
-      <c r="K14" s="14"/>
-      <c r="L14" s="5"/>
-      <c r="Q14" s="22"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="5"/>
       <c r="R14" s="22"/>
-    </row>
-    <row r="15" spans="1:1024" x14ac:dyDescent="0.3">
+      <c r="S14" s="22"/>
+    </row>
+    <row r="15" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>233</v>
       </c>
@@ -6360,27 +6439,30 @@
       <c r="E15" s="11" t="s">
         <v>201</v>
       </c>
-      <c r="F15" s="11">
+      <c r="F15" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="G15" s="11">
         <v>72121544</v>
       </c>
-      <c r="G15" s="11">
+      <c r="H15" s="11">
         <v>72121926</v>
       </c>
-      <c r="H15" s="30">
+      <c r="I15" s="30">
         <v>72121544</v>
       </c>
-      <c r="I15" s="30">
+      <c r="J15" s="30">
         <v>72121926</v>
       </c>
-      <c r="J15" s="13" t="s">
-        <v>345</v>
-      </c>
-      <c r="K15" s="14"/>
-      <c r="L15" s="5"/>
-      <c r="Q15" s="22"/>
+      <c r="K15" s="13" t="s">
+        <v>343</v>
+      </c>
+      <c r="L15" s="14"/>
+      <c r="M15" s="5"/>
       <c r="R15" s="22"/>
-    </row>
-    <row r="16" spans="1:1024" x14ac:dyDescent="0.3">
+      <c r="S15" s="22"/>
+    </row>
+    <row r="16" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>236</v>
       </c>
@@ -6396,24 +6478,27 @@
       <c r="E16" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="F16" s="11">
+      <c r="F16" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="G16" s="11">
         <v>22700001</v>
       </c>
-      <c r="G16" s="11">
+      <c r="H16" s="11">
         <v>22702000</v>
       </c>
-      <c r="H16" s="30">
+      <c r="I16" s="30">
         <v>22700001</v>
       </c>
-      <c r="I16" s="30">
+      <c r="J16" s="30">
         <v>22702000</v>
       </c>
-      <c r="K16" s="14"/>
-      <c r="L16" s="5"/>
-      <c r="Q16" s="22"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="5"/>
       <c r="R16" s="22"/>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S16" s="22"/>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
         <v>238</v>
       </c>
@@ -6429,24 +6514,27 @@
       <c r="E17" s="11" t="s">
         <v>215</v>
       </c>
-      <c r="F17" s="11">
+      <c r="F17" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="G17" s="11">
         <v>46022400</v>
       </c>
-      <c r="G17" s="11">
+      <c r="H17" s="11">
         <v>46023801</v>
       </c>
-      <c r="H17" s="30">
+      <c r="I17" s="30">
         <v>46022400</v>
       </c>
-      <c r="I17" s="30">
+      <c r="J17" s="30">
         <v>46023801</v>
       </c>
-      <c r="K17" s="14"/>
-      <c r="L17" s="5"/>
-      <c r="Q17" s="22"/>
+      <c r="L17" s="14"/>
+      <c r="M17" s="5"/>
       <c r="R17" s="22"/>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S17" s="22"/>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
         <v>240</v>
       </c>
@@ -6462,24 +6550,27 @@
       <c r="E18" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="F18" s="11">
+      <c r="F18" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="G18" s="11">
         <v>132186801</v>
       </c>
-      <c r="G18" s="11">
+      <c r="H18" s="11">
         <v>132187000</v>
       </c>
-      <c r="H18" s="30">
+      <c r="I18" s="30">
         <v>132186801</v>
       </c>
-      <c r="I18" s="30">
+      <c r="J18" s="30">
         <v>132187000</v>
       </c>
-      <c r="K18" s="14"/>
-      <c r="L18" s="5"/>
-      <c r="Q18" s="22"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="5"/>
       <c r="R18" s="22"/>
-    </row>
-    <row r="19" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="S18" s="22"/>
+    </row>
+    <row r="19" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
         <v>242</v>
       </c>
@@ -6495,27 +6586,30 @@
       <c r="E19" s="11" t="s">
         <v>201</v>
       </c>
-      <c r="F19" s="11">
+      <c r="F19" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="G19" s="11">
         <v>102368448</v>
       </c>
-      <c r="G19" s="11">
+      <c r="H19" s="11">
         <v>102368872</v>
       </c>
-      <c r="H19" s="30">
+      <c r="I19" s="30">
         <v>102368448</v>
       </c>
-      <c r="I19" s="30">
+      <c r="J19" s="30">
         <v>102368872</v>
       </c>
-      <c r="J19" s="13" t="s">
-        <v>469</v>
-      </c>
-      <c r="K19" s="14"/>
-      <c r="L19" s="5"/>
-      <c r="Q19" s="22"/>
+      <c r="K19" s="13" t="s">
+        <v>467</v>
+      </c>
+      <c r="L19" s="14"/>
+      <c r="M19" s="5"/>
       <c r="R19" s="22"/>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S19" s="22"/>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
         <v>244</v>
       </c>
@@ -6531,24 +6625,27 @@
       <c r="E20" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="F20" s="11">
+      <c r="F20" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="G20" s="11">
         <v>101939801</v>
       </c>
-      <c r="G20" s="11">
+      <c r="H20" s="11">
         <v>101940201</v>
       </c>
-      <c r="H20" s="30">
+      <c r="I20" s="30">
         <v>101939801</v>
       </c>
-      <c r="I20" s="30">
+      <c r="J20" s="30">
         <v>101940201</v>
       </c>
-      <c r="K20" s="14"/>
-      <c r="L20" s="5"/>
-      <c r="Q20" s="22"/>
+      <c r="L20" s="14"/>
+      <c r="M20" s="5"/>
       <c r="R20" s="22"/>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S20" s="22"/>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
         <v>246</v>
       </c>
@@ -6564,24 +6661,27 @@
       <c r="E21" s="11" t="s">
         <v>215</v>
       </c>
-      <c r="F21" s="11">
+      <c r="F21" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="G21" s="11">
         <v>99984000</v>
       </c>
-      <c r="G21" s="11">
+      <c r="H21" s="11">
         <v>99985401</v>
       </c>
-      <c r="H21" s="30">
+      <c r="I21" s="30">
         <v>99984000</v>
       </c>
-      <c r="I21" s="30">
+      <c r="J21" s="30">
         <v>99985401</v>
       </c>
-      <c r="K21" s="14"/>
-      <c r="L21" s="5"/>
-      <c r="Q21" s="22"/>
+      <c r="L21" s="14"/>
+      <c r="M21" s="5"/>
       <c r="R21" s="22"/>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S21" s="22"/>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
         <v>248</v>
       </c>
@@ -6597,24 +6697,27 @@
       <c r="E22" s="11" t="s">
         <v>215</v>
       </c>
-      <c r="F22" s="11">
+      <c r="F22" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="G22" s="11">
         <v>52849669</v>
       </c>
-      <c r="G22" s="11">
+      <c r="H22" s="11">
         <v>52849993</v>
       </c>
-      <c r="H22" s="30">
+      <c r="I22" s="30">
         <v>52849669</v>
       </c>
-      <c r="I22" s="30">
+      <c r="J22" s="30">
         <v>52849993</v>
       </c>
-      <c r="K22" s="14"/>
-      <c r="L22" s="5"/>
-      <c r="Q22" s="22"/>
+      <c r="L22" s="14"/>
+      <c r="M22" s="5"/>
       <c r="R22" s="22"/>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S22" s="22"/>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
         <v>250</v>
       </c>
@@ -6630,24 +6733,27 @@
       <c r="E23" s="11" t="s">
         <v>215</v>
       </c>
-      <c r="F23" s="11">
+      <c r="F23" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="G23" s="11">
         <v>23578503</v>
       </c>
-      <c r="G23" s="11">
+      <c r="H23" s="11">
         <v>23579130</v>
       </c>
-      <c r="H23" s="30">
+      <c r="I23" s="30">
         <v>23578503</v>
       </c>
-      <c r="I23" s="30">
+      <c r="J23" s="30">
         <v>23579130</v>
       </c>
-      <c r="K23" s="14"/>
-      <c r="L23" s="5"/>
-      <c r="Q23" s="22"/>
+      <c r="L23" s="14"/>
+      <c r="M23" s="5"/>
       <c r="R23" s="22"/>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S23" s="22"/>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
         <v>252</v>
       </c>
@@ -6663,24 +6769,27 @@
       <c r="E24" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="F24" s="11">
+      <c r="F24" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="G24" s="11">
         <v>90214601</v>
       </c>
-      <c r="G24" s="11">
+      <c r="H24" s="11">
         <v>90215000</v>
       </c>
-      <c r="H24" s="30">
+      <c r="I24" s="30">
         <v>90214601</v>
       </c>
-      <c r="I24" s="30">
+      <c r="J24" s="30">
         <v>90215000</v>
       </c>
-      <c r="K24" s="14"/>
-      <c r="L24" s="5"/>
-      <c r="Q24" s="22"/>
+      <c r="L24" s="14"/>
+      <c r="M24" s="5"/>
       <c r="R24" s="22"/>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S24" s="22"/>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
         <v>254</v>
       </c>
@@ -6696,24 +6805,27 @@
       <c r="E25" s="11" t="s">
         <v>215</v>
       </c>
-      <c r="F25" s="11">
+      <c r="F25" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="G25" s="11">
         <v>47716801</v>
       </c>
-      <c r="G25" s="11">
+      <c r="H25" s="11">
         <v>47720200</v>
       </c>
-      <c r="H25" s="30">
+      <c r="I25" s="30">
         <v>47716801</v>
       </c>
-      <c r="I25" s="30">
+      <c r="J25" s="30">
         <v>47720200</v>
       </c>
-      <c r="K25" s="14"/>
-      <c r="L25" s="5"/>
-      <c r="Q25" s="22"/>
+      <c r="L25" s="14"/>
+      <c r="M25" s="5"/>
       <c r="R25" s="22"/>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S25" s="22"/>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
         <v>256</v>
       </c>
@@ -6729,24 +6841,27 @@
       <c r="E26" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="F26" s="11">
+      <c r="F26" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="G26" s="11">
         <v>50368000</v>
       </c>
-      <c r="G26" s="11">
+      <c r="H26" s="11">
         <v>50369600</v>
       </c>
-      <c r="H26" s="30">
+      <c r="I26" s="30">
         <v>50368000</v>
       </c>
-      <c r="I26" s="30">
+      <c r="J26" s="30">
         <v>50369600</v>
       </c>
-      <c r="K26" s="14"/>
-      <c r="L26" s="5"/>
-      <c r="Q26" s="22"/>
+      <c r="L26" s="14"/>
+      <c r="M26" s="5"/>
       <c r="R26" s="22"/>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S26" s="22"/>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
         <v>258</v>
       </c>
@@ -6762,24 +6877,27 @@
       <c r="E27" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="F27" s="11">
+      <c r="F27" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="G27" s="11">
         <v>18650001</v>
       </c>
-      <c r="G27" s="11">
+      <c r="H27" s="11">
         <v>18650600</v>
       </c>
-      <c r="H27" s="30">
+      <c r="I27" s="30">
         <v>18650001</v>
       </c>
-      <c r="I27" s="30">
+      <c r="J27" s="30">
         <v>18650600</v>
       </c>
-      <c r="K27" s="14"/>
-      <c r="L27" s="5"/>
-      <c r="Q27" s="22"/>
+      <c r="L27" s="14"/>
+      <c r="M27" s="5"/>
       <c r="R27" s="22"/>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S27" s="22"/>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
         <v>260</v>
       </c>
@@ -6795,24 +6913,27 @@
       <c r="E28" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="F28" s="11">
+      <c r="F28" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="G28" s="11">
         <v>33756200</v>
       </c>
-      <c r="G28" s="11">
+      <c r="H28" s="11">
         <v>33756401</v>
       </c>
-      <c r="H28" s="30">
+      <c r="I28" s="30">
         <v>33756200</v>
       </c>
-      <c r="I28" s="30">
+      <c r="J28" s="30">
         <v>33756401</v>
       </c>
-      <c r="K28" s="14"/>
-      <c r="L28" s="5"/>
-      <c r="Q28" s="22"/>
+      <c r="L28" s="14"/>
+      <c r="M28" s="5"/>
       <c r="R28" s="22"/>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S28" s="22"/>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
         <v>262</v>
       </c>
@@ -6828,24 +6949,27 @@
       <c r="E29" s="11" t="s">
         <v>215</v>
       </c>
-      <c r="F29" s="11">
+      <c r="F29" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="G29" s="11">
         <v>58326200</v>
       </c>
-      <c r="G29" s="11">
+      <c r="H29" s="11">
         <v>58328001</v>
       </c>
-      <c r="H29" s="30">
+      <c r="I29" s="30">
         <v>58326200</v>
       </c>
-      <c r="I29" s="30">
+      <c r="J29" s="30">
         <v>58328001</v>
       </c>
-      <c r="K29" s="14"/>
-      <c r="L29" s="5"/>
-      <c r="Q29" s="22"/>
+      <c r="L29" s="14"/>
+      <c r="M29" s="5"/>
       <c r="R29" s="22"/>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S29" s="22"/>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
         <v>264</v>
       </c>
@@ -6861,24 +6985,27 @@
       <c r="E30" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="F30" s="11">
+      <c r="F30" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="G30" s="11">
         <v>50117624</v>
       </c>
-      <c r="G30" s="11">
+      <c r="H30" s="11">
         <v>50118213</v>
       </c>
-      <c r="H30" s="30">
+      <c r="I30" s="30">
         <v>50117624</v>
       </c>
-      <c r="I30" s="30">
+      <c r="J30" s="30">
         <v>50118213</v>
       </c>
-      <c r="K30" s="14"/>
-      <c r="L30" s="5"/>
-      <c r="Q30" s="22"/>
+      <c r="L30" s="14"/>
+      <c r="M30" s="5"/>
       <c r="R30" s="22"/>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S30" s="22"/>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
         <v>266</v>
       </c>
@@ -6894,24 +7021,27 @@
       <c r="E31" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="F31" s="11">
+      <c r="F31" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="G31" s="11">
         <v>62960832</v>
       </c>
-      <c r="G31" s="11">
+      <c r="H31" s="11">
         <v>62961734</v>
       </c>
-      <c r="H31" s="30">
+      <c r="I31" s="30">
         <v>62960832</v>
       </c>
-      <c r="I31" s="30">
+      <c r="J31" s="30">
         <v>62961734</v>
       </c>
-      <c r="K31" s="14"/>
-      <c r="L31" s="5"/>
-      <c r="Q31" s="22"/>
+      <c r="L31" s="14"/>
+      <c r="M31" s="5"/>
       <c r="R31" s="22"/>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S31" s="22"/>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
         <v>268</v>
       </c>
@@ -6927,24 +7057,27 @@
       <c r="E32" s="11" t="s">
         <v>201</v>
       </c>
-      <c r="F32" s="11">
+      <c r="F32" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="G32" s="11">
         <v>57964075</v>
       </c>
-      <c r="G32" s="11">
+      <c r="H32" s="11">
         <v>57964896</v>
       </c>
-      <c r="H32" s="30">
+      <c r="I32" s="30">
         <v>57964075</v>
       </c>
-      <c r="I32" s="30">
+      <c r="J32" s="30">
         <v>57964896</v>
       </c>
-      <c r="K32" s="14"/>
-      <c r="L32" s="5"/>
-      <c r="Q32" s="22"/>
+      <c r="L32" s="14"/>
+      <c r="M32" s="5"/>
       <c r="R32" s="22"/>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S32" s="22"/>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
         <v>270</v>
       </c>
@@ -6960,24 +7093,27 @@
       <c r="E33" s="11" t="s">
         <v>215</v>
       </c>
-      <c r="F33" s="11">
+      <c r="F33" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="G33" s="11">
         <v>36710048</v>
       </c>
-      <c r="G33" s="11">
+      <c r="H33" s="11">
         <v>36711020</v>
       </c>
-      <c r="H33" s="30">
+      <c r="I33" s="30">
         <v>36710048</v>
       </c>
-      <c r="I33" s="30">
+      <c r="J33" s="30">
         <v>36711020</v>
       </c>
-      <c r="K33" s="14"/>
-      <c r="L33" s="5"/>
-      <c r="Q33" s="22"/>
+      <c r="L33" s="14"/>
+      <c r="M33" s="5"/>
       <c r="R33" s="22"/>
-    </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S33" s="22"/>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" s="11" t="s">
         <v>272</v>
       </c>
@@ -6993,24 +7129,27 @@
       <c r="E34" s="11" t="s">
         <v>215</v>
       </c>
-      <c r="F34" s="11">
+      <c r="F34" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="G34" s="11">
         <v>43346380</v>
       </c>
-      <c r="G34" s="11">
+      <c r="H34" s="11">
         <v>43346796</v>
       </c>
-      <c r="H34" s="30">
+      <c r="I34" s="30">
         <v>43346380</v>
       </c>
-      <c r="I34" s="30">
+      <c r="J34" s="30">
         <v>43346796</v>
       </c>
-      <c r="K34" s="14"/>
-      <c r="L34" s="5"/>
-      <c r="Q34" s="22"/>
+      <c r="L34" s="14"/>
+      <c r="M34" s="5"/>
       <c r="R34" s="22"/>
-    </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S34" s="22"/>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" s="11" t="s">
         <v>274</v>
       </c>
@@ -7026,24 +7165,27 @@
       <c r="E35" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="F35" s="11">
+      <c r="F35" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="G35" s="11">
         <v>30591000</v>
       </c>
-      <c r="G35" s="11">
+      <c r="H35" s="11">
         <v>30592601</v>
       </c>
-      <c r="H35" s="30">
+      <c r="I35" s="30">
         <v>30591000</v>
       </c>
-      <c r="I35" s="30">
+      <c r="J35" s="30">
         <v>30592601</v>
       </c>
-      <c r="K35" s="14"/>
-      <c r="L35" s="5"/>
-      <c r="Q35" s="22"/>
+      <c r="L35" s="14"/>
+      <c r="M35" s="5"/>
       <c r="R35" s="22"/>
-    </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S35" s="22"/>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" s="11" t="s">
         <v>276</v>
       </c>
@@ -7059,24 +7201,27 @@
       <c r="E36" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="F36" s="11">
+      <c r="F36" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="G36" s="11">
         <v>135326401</v>
       </c>
-      <c r="G36" s="11">
+      <c r="H36" s="11">
         <v>135326600</v>
       </c>
-      <c r="H36" s="30">
+      <c r="I36" s="30">
         <v>135326401</v>
       </c>
-      <c r="I36" s="30">
+      <c r="J36" s="30">
         <v>135326600</v>
       </c>
-      <c r="K36" s="14"/>
-      <c r="L36" s="5"/>
-      <c r="Q36" s="22"/>
+      <c r="L36" s="14"/>
+      <c r="M36" s="5"/>
       <c r="R36" s="22"/>
-    </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S36" s="22"/>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
         <v>278</v>
       </c>
@@ -7092,25 +7237,28 @@
       <c r="E37" s="11" t="s">
         <v>215</v>
       </c>
-      <c r="F37" s="11">
+      <c r="F37" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="G37" s="11">
         <v>13401</v>
       </c>
-      <c r="G37" s="11">
+      <c r="H37" s="11">
         <v>14200</v>
       </c>
-      <c r="H37" s="30">
+      <c r="I37" s="30">
         <v>13401</v>
       </c>
-      <c r="I37" s="30">
+      <c r="J37" s="30">
         <v>14200</v>
       </c>
-      <c r="K37" s="14"/>
-      <c r="L37" s="5"/>
-      <c r="Q37" s="22"/>
+      <c r="L37" s="14"/>
+      <c r="M37" s="5"/>
       <c r="R37" s="22"/>
+      <c r="S37" s="22"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K776"/>
+  <autoFilter ref="A1:L776"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <headerFooter>
@@ -7122,68 +7270,160 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMB3"/>
+  <dimension ref="A1:AMG5"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.44140625" style="11"/>
-    <col min="2" max="2" width="50.5546875" style="11"/>
-    <col min="3" max="3" width="22.88671875" style="15"/>
-    <col min="4" max="4" width="13.44140625" style="23"/>
-    <col min="5" max="5" width="19.88671875" style="14"/>
-    <col min="6" max="6" width="10.6640625" style="14"/>
-    <col min="7" max="8" width="9.109375" style="11"/>
-    <col min="9" max="1016" width="9.109375" style="23"/>
-    <col min="1017" max="1019" width="8.44140625"/>
-    <col min="1020" max="1025" width="8.6640625"/>
+    <col min="1" max="1" width="9.7109375" style="11" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" style="30" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" style="30" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="50.5703125" style="11"/>
+    <col min="5" max="5" width="18.42578125" style="30" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" style="30" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" style="30" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.85546875" style="15"/>
+    <col min="9" max="9" width="13.42578125" style="23"/>
+    <col min="10" max="10" width="19.85546875" style="14"/>
+    <col min="11" max="11" width="10.7109375" style="14"/>
+    <col min="12" max="13" width="9.140625" style="11"/>
+    <col min="14" max="1021" width="9.140625" style="23"/>
+    <col min="1022" max="1024" width="8.42578125"/>
+    <col min="1025" max="1030" width="8.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="8" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="8" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>280</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>281</v>
-      </c>
-      <c r="C1" s="8" t="s">
+      <c r="D1" s="8" t="s">
+        <v>476</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>477</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>414</v>
+      </c>
+      <c r="H1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="I1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="J1" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="24"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K1" s="24"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
+        <v>482</v>
+      </c>
+      <c r="B2" s="30" t="s">
+        <v>486</v>
+      </c>
+      <c r="C2" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="D2" s="22" t="s">
         <v>209</v>
       </c>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="11"/>
-    </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E2" s="22"/>
+      <c r="F2" s="22" t="s">
+        <v>478</v>
+      </c>
+      <c r="G2" s="22" t="s">
+        <v>480</v>
+      </c>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="11"/>
+    </row>
+    <row r="3" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
+        <v>483</v>
+      </c>
+      <c r="B3" s="30" t="s">
+        <v>487</v>
+      </c>
+      <c r="C3" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="B3" s="22" t="s">
-        <v>282</v>
-      </c>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="11"/>
+      <c r="D3" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22" t="s">
+        <v>478</v>
+      </c>
+      <c r="G3" s="22" t="s">
+        <v>481</v>
+      </c>
+      <c r="L3" s="22"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="11"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>484</v>
+      </c>
+      <c r="B4" s="30" t="s">
+        <v>488</v>
+      </c>
+      <c r="C4" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>218</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>347</v>
+      </c>
+      <c r="F4" s="30" t="s">
+        <v>479</v>
+      </c>
+      <c r="G4" s="30" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>485</v>
+      </c>
+      <c r="B5" s="30" t="s">
+        <v>489</v>
+      </c>
+      <c r="C5" s="30" t="s">
+        <v>104</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>218</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>347</v>
+      </c>
+      <c r="F5" s="30" t="s">
+        <v>479</v>
+      </c>
+      <c r="G5" s="30" t="s">
+        <v>480</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C849"/>
+  <autoFilter ref="A1:H849"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <headerFooter>
@@ -7201,23 +7441,23 @@
       <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.5546875" style="14"/>
-    <col min="2" max="2" width="21.109375" style="14"/>
-    <col min="3" max="3" width="10.6640625" style="14"/>
-    <col min="4" max="4" width="22.88671875" style="15"/>
-    <col min="5" max="5" width="10.6640625"/>
-    <col min="6" max="6" width="13.44140625"/>
-    <col min="7" max="7" width="13.44140625" style="11"/>
-    <col min="8" max="8" width="13.44140625" style="25"/>
-    <col min="9" max="9" width="10.6640625" style="22"/>
-    <col min="10" max="10" width="19.88671875" style="11"/>
-    <col min="11" max="11" width="13.44140625" style="11"/>
-    <col min="12" max="1021" width="9.109375" style="2"/>
+    <col min="1" max="1" width="19.5703125" style="14"/>
+    <col min="2" max="2" width="21.140625" style="14"/>
+    <col min="3" max="3" width="10.7109375" style="14"/>
+    <col min="4" max="4" width="22.85546875" style="15"/>
+    <col min="5" max="5" width="10.7109375"/>
+    <col min="6" max="6" width="13.42578125"/>
+    <col min="7" max="7" width="13.42578125" style="11"/>
+    <col min="8" max="8" width="13.42578125" style="25"/>
+    <col min="9" max="9" width="10.7109375" style="22"/>
+    <col min="10" max="10" width="19.85546875" style="11"/>
+    <col min="11" max="11" width="13.42578125" style="11"/>
+    <col min="12" max="1021" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="26" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="26" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
@@ -7234,7 +7474,7 @@
         <v>52</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="G1" s="8" t="s">
         <v>30</v>
@@ -7250,12 +7490,12 @@
       </c>
       <c r="K1" s="8"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C2" s="14" t="s">
         <v>89</v>
@@ -7276,12 +7516,12 @@
       <c r="J2" s="22"/>
       <c r="K2" s="28"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C3" s="14" t="s">
         <v>89</v>

--- a/tests/fixtures/eukaryote_core.xlsx
+++ b/tests/fixtures/eukaryote_core.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="993" firstSheet="3" activeTab="7"/>
+    <workbookView xWindow="2070" yWindow="705" windowWidth="16380" windowHeight="8175" tabRatio="993" firstSheet="8" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="Knowledge base" sheetId="1" r:id="rId1"/>
@@ -93,7 +93,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="972" uniqueCount="490">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="977" uniqueCount="492">
   <si>
     <t>Id</t>
   </si>
@@ -1259,12 +1259,6 @@
     <t>ENSP00000390691[c]</t>
   </si>
   <si>
-    <t>Cell</t>
-  </si>
-  <si>
-    <t>Observables</t>
-  </si>
-  <si>
     <t>obs_isoenzyme1</t>
   </si>
   <si>
@@ -1563,6 +1557,18 @@
   </si>
   <si>
     <t>reg_mod_4</t>
+  </si>
+  <si>
+    <t>Expression</t>
+  </si>
+  <si>
+    <t>Complex_3[c]</t>
+  </si>
+  <si>
+    <t>Complex_2[c]</t>
+  </si>
+  <si>
+    <t>Complex_1[c]</t>
   </si>
 </sst>
 </file>
@@ -2839,7 +2845,7 @@
         <v>341</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="F1" s="8" t="s">
         <v>342</v>
@@ -2868,7 +2874,7 @@
         <v>288</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -2885,7 +2891,7 @@
         <v>291</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -2902,7 +2908,7 @@
         <v>294</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
   </sheetData>
@@ -2947,7 +2953,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="18" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="E1" s="8" t="s">
         <v>84</v>
@@ -2967,7 +2973,7 @@
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B2" t="s">
         <v>56</v>
@@ -2984,7 +2990,7 @@
     </row>
     <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B3" t="s">
         <v>56</v>
@@ -3001,7 +3007,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B4" t="s">
         <v>56</v>
@@ -3018,7 +3024,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B5" t="s">
         <v>56</v>
@@ -3043,7 +3049,7 @@
   <dimension ref="A1:AMH5"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3201,13 +3207,13 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMK12"/>
+  <dimension ref="A1:AMK15"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C5" sqref="C5"/>
+      <selection pane="bottomRight" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3368,6 +3374,39 @@
         <v>373</v>
       </c>
     </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="39" t="s">
+        <v>491</v>
+      </c>
+      <c r="B13" s="39">
+        <v>0.1</v>
+      </c>
+      <c r="C13" s="39" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="39" t="s">
+        <v>490</v>
+      </c>
+      <c r="B14" s="39">
+        <v>0.36</v>
+      </c>
+      <c r="C14" s="39" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="39" t="s">
+        <v>489</v>
+      </c>
+      <c r="B15" s="39">
+        <v>0.5</v>
+      </c>
+      <c r="C15" s="39" t="s">
+        <v>373</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -3376,23 +3415,22 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16"/>
-    <col min="4" max="4" width="15.42578125"/>
-    <col min="5" max="5" width="14"/>
-    <col min="6" max="6" width="10.5703125"/>
-    <col min="7" max="7" width="11.140625"/>
-    <col min="8" max="8" width="20.5703125"/>
+    <col min="3" max="3" width="15.42578125"/>
+    <col min="5" max="5" width="10.5703125"/>
+    <col min="6" max="6" width="11.140625"/>
+    <col min="7" max="7" width="20.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="8" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" s="8" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -3400,30 +3438,30 @@
         <v>2</v>
       </c>
       <c r="C1" s="8" t="s">
+        <v>488</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>371</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>388</v>
       </c>
-      <c r="D1" s="8" t="s">
-        <v>369</v>
-      </c>
-      <c r="E1" s="8" t="s">
+      <c r="C2" s="13" t="s">
         <v>389</v>
       </c>
-      <c r="F1" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>390</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>391</v>
+      <c r="D2" s="13">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -3464,13 +3502,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="8" t="s">
+        <v>390</v>
+      </c>
+      <c r="D1" s="37" t="s">
+        <v>391</v>
+      </c>
+      <c r="E1" s="8" t="s">
         <v>392</v>
-      </c>
-      <c r="D1" s="37" t="s">
-        <v>393</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>394</v>
       </c>
       <c r="F1" s="37" t="s">
         <v>11</v>
@@ -3484,16 +3522,16 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>396</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>397</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>398</v>
       </c>
       <c r="E2" s="2">
         <v>0</v>
@@ -3501,16 +3539,16 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>399</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>400</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>397</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>401</v>
       </c>
       <c r="E3" s="2">
         <v>0</v>
@@ -3518,16 +3556,16 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>402</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>403</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>397</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>404</v>
       </c>
       <c r="E4" s="2">
         <v>0</v>
@@ -3535,16 +3573,16 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>405</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>397</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>407</v>
       </c>
       <c r="E5" s="2">
         <v>0</v>
@@ -3558,10 +3596,10 @@
         <v>37</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="E6" s="2">
         <v>1</v>
@@ -3569,16 +3607,16 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>409</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>410</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>397</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>411</v>
       </c>
       <c r="E7" s="2">
         <v>0</v>
@@ -3586,16 +3624,16 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="E8" s="2">
         <v>0</v>
@@ -3638,19 +3676,19 @@
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="43" t="s">
+        <v>411</v>
+      </c>
+      <c r="B1" s="43" t="s">
+        <v>412</v>
+      </c>
+      <c r="C1" s="43" t="s">
         <v>413</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="D1" s="43" t="s">
         <v>414</v>
       </c>
-      <c r="C1" s="43" t="s">
+      <c r="E1" s="43" t="s">
         <v>415</v>
-      </c>
-      <c r="D1" s="43" t="s">
-        <v>416</v>
-      </c>
-      <c r="E1" s="43" t="s">
-        <v>417</v>
       </c>
       <c r="F1" s="43" t="s">
         <v>11</v>
@@ -3664,13 +3702,13 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="42" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B2" s="42" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C2" s="42" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="D2"/>
       <c r="E2"/>
@@ -3679,30 +3717,30 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="42" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B3" s="42" t="s">
+        <v>416</v>
+      </c>
+      <c r="C3" s="42" t="s">
         <v>418</v>
-      </c>
-      <c r="C3" s="42" t="s">
-        <v>420</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
       <c r="F3" s="42" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="H3"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="42" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B4" s="42" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C4" s="42" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="D4" s="42">
         <v>1</v>
@@ -3711,22 +3749,22 @@
         <v>2</v>
       </c>
       <c r="F4" s="42" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="H4"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="42" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B5" s="42" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C5" s="42" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="F5" s="42" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="H5"/>
     </row>
@@ -3735,13 +3773,13 @@
         <v>37</v>
       </c>
       <c r="B6" s="42" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C6" s="42" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="F6" s="42" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="H6"/>
     </row>
@@ -3750,39 +3788,39 @@
         <v>37</v>
       </c>
       <c r="B7" s="42" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C7" s="42" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="H7"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="42" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B8" s="45" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C8" s="45" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="H8" s="45" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="42" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B9" s="45" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C9" s="45" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="H9" s="45" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
   </sheetData>
@@ -3818,7 +3856,7 @@
         <v>370</v>
       </c>
       <c r="D1" s="37" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="E1" s="8" t="s">
         <v>371</v>
@@ -3835,10 +3873,10 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B2" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C2">
         <v>20.5</v>
@@ -3847,18 +3885,18 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="E2" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="H2" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B3" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C3">
         <v>1.35</v>
@@ -3867,18 +3905,18 @@
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="E3" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="H3" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B4" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C4">
         <v>0.46</v>
@@ -3890,15 +3928,15 @@
         <v>373</v>
       </c>
       <c r="H4" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B5" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C5">
         <v>1.2</v>
@@ -3910,7 +3948,7 @@
         <v>373</v>
       </c>
       <c r="H5" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
   </sheetData>
@@ -4017,58 +4055,58 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B2" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C2" s="46">
         <v>3.0000000000000001E-12</v>
       </c>
       <c r="D2" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B3" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C3" s="46">
         <v>10000000</v>
       </c>
       <c r="D3" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B4" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C4">
         <v>0.7</v>
       </c>
       <c r="D4" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B5" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="C5">
         <v>71280</v>
       </c>
       <c r="D5" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
   </sheetData>
@@ -4098,10 +4136,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -4109,7 +4147,7 @@
         <v>361</v>
       </c>
       <c r="B2" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -4117,15 +4155,15 @@
         <v>377</v>
       </c>
       <c r="B3" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B4" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
   </sheetData>
@@ -4396,7 +4434,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="D1" s="8" t="s">
         <v>52</v>
@@ -4405,7 +4443,7 @@
         <v>53</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="G1" s="8" t="s">
         <v>54</v>
@@ -5922,13 +5960,13 @@
         <v>85</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="J1" s="8" t="s">
+        <v>462</v>
+      </c>
+      <c r="K1" s="8" t="s">
         <v>464</v>
-      </c>
-      <c r="K1" s="8" t="s">
-        <v>466</v>
       </c>
       <c r="L1" s="18" t="s">
         <v>11</v>
@@ -6602,7 +6640,7 @@
         <v>102368872</v>
       </c>
       <c r="K19" s="13" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="L19" s="14"/>
       <c r="M19" s="5"/>
@@ -7272,7 +7310,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMG5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -7306,16 +7344,16 @@
         <v>280</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="F1" s="8" t="s">
         <v>82</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="H1" s="8" t="s">
         <v>11</v>
@@ -7330,10 +7368,10 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>91</v>
@@ -7343,10 +7381,10 @@
       </c>
       <c r="E2" s="22"/>
       <c r="F2" s="22" t="s">
+        <v>476</v>
+      </c>
+      <c r="G2" s="22" t="s">
         <v>478</v>
-      </c>
-      <c r="G2" s="22" t="s">
-        <v>480</v>
       </c>
       <c r="L2" s="22"/>
       <c r="M2" s="22"/>
@@ -7354,10 +7392,10 @@
     </row>
     <row r="3" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="C3" s="11" t="s">
         <v>107</v>
@@ -7367,10 +7405,10 @@
       </c>
       <c r="E3" s="22"/>
       <c r="F3" s="22" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="G3" s="22" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="L3" s="22"/>
       <c r="M3" s="22"/>
@@ -7378,10 +7416,10 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B4" s="30" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="C4" s="30" t="s">
         <v>107</v>
@@ -7393,18 +7431,18 @@
         <v>347</v>
       </c>
       <c r="F4" s="30" t="s">
+        <v>477</v>
+      </c>
+      <c r="G4" s="30" t="s">
         <v>479</v>
-      </c>
-      <c r="G4" s="30" t="s">
-        <v>481</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B5" s="30" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C5" s="30" t="s">
         <v>104</v>
@@ -7416,10 +7454,10 @@
         <v>347</v>
       </c>
       <c r="F5" s="30" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="G5" s="30" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
   </sheetData>

--- a/tests/fixtures/eukaryote_core.xlsx
+++ b/tests/fixtures/eukaryote_core.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="2070" yWindow="705" windowWidth="16380" windowHeight="8175" tabRatio="993" firstSheet="8" activeTab="15"/>
+    <workbookView xWindow="1020" yWindow="672" windowWidth="16380" windowHeight="8172" tabRatio="993" firstSheet="10" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="Knowledge base" sheetId="1" r:id="rId1"/>
@@ -93,7 +93,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="977" uniqueCount="492">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="990" uniqueCount="500">
   <si>
     <t>Id</t>
   </si>
@@ -1334,24 +1334,9 @@
     <t>Direction</t>
   </si>
   <si>
-    <t>Equation</t>
-  </si>
-  <si>
-    <t>K cat</t>
-  </si>
-  <si>
-    <t>K m</t>
-  </si>
-  <si>
     <t>forward</t>
   </si>
   <si>
-    <t>""</t>
-  </si>
-  <si>
-    <t>"2"</t>
-  </si>
-  <si>
     <t>Order 2, same, MA kinetics</t>
   </si>
   <si>
@@ -1569,6 +1554,45 @@
   </si>
   <si>
     <t>Complex_1[c]</t>
+  </si>
+  <si>
+    <t>kdeg</t>
+  </si>
+  <si>
+    <t>degradation constant</t>
+  </si>
+  <si>
+    <t>M s^-1</t>
+  </si>
+  <si>
+    <t>Complex_4[c]</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>O2_degradation_forward</t>
+  </si>
+  <si>
+    <t>O2_synthesis_forward</t>
+  </si>
+  <si>
+    <t>Oxygen_ionization_forward</t>
+  </si>
+  <si>
+    <t>Oxygen_deionization_forward</t>
+  </si>
+  <si>
+    <t>Ozone_forward</t>
+  </si>
+  <si>
+    <t>Ozone_backward</t>
+  </si>
+  <si>
+    <t>ORNDC_isoenzyme1_forward</t>
+  </si>
+  <si>
+    <t>ORNDC_isoenzyme2_forward</t>
   </si>
 </sst>
 </file>
@@ -1709,7 +1733,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1827,6 +1851,7 @@
     <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Explanatory Text" xfId="1" builtinId="53" customBuiltin="1"/>
@@ -2206,14 +2231,14 @@
       <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.5703125" style="1"/>
-    <col min="2" max="2" width="43.42578125" style="2"/>
-    <col min="3" max="1025" width="8.42578125"/>
+    <col min="1" max="1" width="21.5546875" style="1"/>
+    <col min="2" max="2" width="43.44140625" style="2"/>
+    <col min="3" max="1025" width="8.44140625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2221,7 +2246,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -2229,7 +2254,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -2237,7 +2262,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -2245,25 +2270,25 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B5"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B6"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B7"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -2271,7 +2296,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
@@ -2291,19 +2316,19 @@
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.42578125"/>
-    <col min="2" max="2" width="11.7109375"/>
-    <col min="3" max="4" width="8.5703125"/>
-    <col min="5" max="5" width="7.42578125"/>
-    <col min="6" max="6" width="10.42578125"/>
-    <col min="7" max="7" width="10.7109375"/>
-    <col min="8" max="8" width="19.85546875"/>
-    <col min="9" max="1025" width="8.5703125"/>
+    <col min="1" max="1" width="16.44140625"/>
+    <col min="2" max="2" width="11.6640625"/>
+    <col min="3" max="4" width="8.5546875"/>
+    <col min="5" max="5" width="7.44140625"/>
+    <col min="6" max="6" width="10.44140625"/>
+    <col min="7" max="7" width="10.6640625"/>
+    <col min="8" max="8" width="19.88671875"/>
+    <col min="9" max="1025" width="8.5546875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="26" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" s="26" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
@@ -2330,7 +2355,7 @@
       </c>
       <c r="I1" s="8"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>288</v>
       </c>
@@ -2344,7 +2369,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>291</v>
       </c>
@@ -2358,7 +2383,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>294</v>
       </c>
@@ -2372,7 +2397,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>297</v>
       </c>
@@ -2400,20 +2425,20 @@
       <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.42578125"/>
-    <col min="2" max="2" width="12.7109375"/>
-    <col min="3" max="3" width="8.5703125"/>
+    <col min="1" max="1" width="16.44140625"/>
+    <col min="2" max="2" width="12.6640625"/>
+    <col min="3" max="3" width="8.5546875"/>
     <col min="4" max="4" width="10"/>
-    <col min="5" max="5" width="10.140625"/>
-    <col min="6" max="6" width="10.42578125"/>
-    <col min="7" max="7" width="10.7109375"/>
-    <col min="8" max="8" width="19.85546875"/>
-    <col min="9" max="1025" width="8.5703125"/>
+    <col min="5" max="5" width="10.109375"/>
+    <col min="6" max="6" width="10.44140625"/>
+    <col min="7" max="7" width="10.6640625"/>
+    <col min="8" max="8" width="19.88671875"/>
+    <col min="9" max="1025" width="8.5546875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1021" s="26" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1021" s="26" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
@@ -2440,7 +2465,7 @@
       </c>
       <c r="I1" s="8"/>
     </row>
-    <row r="2" spans="1:1021" s="30" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1021" s="30" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>300</v>
       </c>
@@ -2459,7 +2484,7 @@
       <c r="AMF2" s="33"/>
       <c r="AMG2" s="33"/>
     </row>
-    <row r="3" spans="1:1021" s="30" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1021" s="30" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
         <v>302</v>
       </c>
@@ -2478,7 +2503,7 @@
       <c r="AMF3" s="33"/>
       <c r="AMG3" s="33"/>
     </row>
-    <row r="4" spans="1:1021" s="30" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1021" s="30" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="29" t="s">
         <v>304</v>
       </c>
@@ -2497,7 +2522,7 @@
       <c r="AMF4" s="33"/>
       <c r="AMG4" s="33"/>
     </row>
-    <row r="5" spans="1:1021" s="30" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1021" s="30" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="29" t="s">
         <v>306</v>
       </c>
@@ -2516,7 +2541,7 @@
       <c r="AMF5" s="33"/>
       <c r="AMG5" s="33"/>
     </row>
-    <row r="6" spans="1:1021" s="30" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1021" s="30" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="29" t="s">
         <v>308</v>
       </c>
@@ -2535,7 +2560,7 @@
       <c r="AMF6" s="33"/>
       <c r="AMG6" s="33"/>
     </row>
-    <row r="7" spans="1:1021" s="30" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1021" s="30" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="29" t="s">
         <v>310</v>
       </c>
@@ -2554,7 +2579,7 @@
       <c r="AMF7" s="33"/>
       <c r="AMG7" s="33"/>
     </row>
-    <row r="8" spans="1:1021" s="30" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1021" s="30" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="29" t="s">
         <v>312</v>
       </c>
@@ -2573,7 +2598,7 @@
       <c r="AMF8" s="33"/>
       <c r="AMG8" s="33"/>
     </row>
-    <row r="9" spans="1:1021" s="30" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1021" s="30" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="29" t="s">
         <v>314</v>
       </c>
@@ -2592,7 +2617,7 @@
       <c r="AMF9" s="33"/>
       <c r="AMG9" s="33"/>
     </row>
-    <row r="10" spans="1:1021" s="30" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1021" s="30" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="29" t="s">
         <v>316</v>
       </c>
@@ -2611,7 +2636,7 @@
       <c r="AMF10" s="33"/>
       <c r="AMG10" s="33"/>
     </row>
-    <row r="11" spans="1:1021" s="30" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1021" s="30" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="29" t="s">
         <v>318</v>
       </c>
@@ -2630,7 +2655,7 @@
       <c r="AMF11" s="33"/>
       <c r="AMG11" s="33"/>
     </row>
-    <row r="12" spans="1:1021" s="30" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1021" s="30" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="29" t="s">
         <v>320</v>
       </c>
@@ -2649,7 +2674,7 @@
       <c r="AMF12" s="33"/>
       <c r="AMG12" s="33"/>
     </row>
-    <row r="13" spans="1:1021" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1021" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>322</v>
       </c>
@@ -2666,7 +2691,7 @@
         <v>10448504</v>
       </c>
     </row>
-    <row r="14" spans="1:1021" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1021" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>324</v>
       </c>
@@ -2683,7 +2708,7 @@
         <v>10440868</v>
       </c>
     </row>
-    <row r="15" spans="1:1021" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1021" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>326</v>
       </c>
@@ -2700,7 +2725,7 @@
         <v>10447780</v>
       </c>
     </row>
-    <row r="16" spans="1:1021" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1021" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>328</v>
       </c>
@@ -2717,7 +2742,7 @@
         <v>10444647</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>330</v>
       </c>
@@ -2734,7 +2759,7 @@
         <v>10447788</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>332</v>
       </c>
@@ -2751,7 +2776,7 @@
         <v>10444267</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>334</v>
       </c>
@@ -2768,7 +2793,7 @@
         <v>10444547</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>336</v>
       </c>
@@ -2785,7 +2810,7 @@
         <v>10445049</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>338</v>
       </c>
@@ -2816,22 +2841,22 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.28515625" style="13"/>
-    <col min="2" max="2" width="33.85546875" style="13"/>
-    <col min="3" max="3" width="16.42578125" style="14"/>
-    <col min="4" max="4" width="16.42578125" style="11"/>
-    <col min="5" max="5" width="25.5703125" style="30" customWidth="1"/>
-    <col min="6" max="6" width="10.42578125" style="2"/>
-    <col min="7" max="7" width="40.28515625" style="13"/>
-    <col min="8" max="8" width="9.140625" style="2"/>
-    <col min="9" max="9" width="19.85546875" style="2"/>
-    <col min="10" max="1021" width="9.140625" style="2"/>
-    <col min="1024" max="1026" width="8.7109375"/>
+    <col min="1" max="1" width="20.33203125" style="13"/>
+    <col min="2" max="2" width="33.88671875" style="13"/>
+    <col min="3" max="3" width="16.44140625" style="14"/>
+    <col min="4" max="4" width="16.44140625" style="11"/>
+    <col min="5" max="5" width="25.5546875" style="30" customWidth="1"/>
+    <col min="6" max="6" width="10.44140625" style="2"/>
+    <col min="7" max="7" width="40.33203125" style="13"/>
+    <col min="8" max="8" width="9.109375" style="2"/>
+    <col min="9" max="9" width="19.88671875" style="2"/>
+    <col min="10" max="1021" width="9.109375" style="2"/>
+    <col min="1024" max="1026" width="8.6640625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="8" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" s="8" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -2845,7 +2870,7 @@
         <v>341</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="F1" s="8" t="s">
         <v>342</v>
@@ -2860,7 +2885,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
         <v>343</v>
       </c>
@@ -2874,10 +2899,10 @@
         <v>288</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
         <v>346</v>
       </c>
@@ -2891,10 +2916,10 @@
         <v>291</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
         <v>347</v>
       </c>
@@ -2908,7 +2933,7 @@
         <v>294</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
     </row>
   </sheetData>
@@ -2930,19 +2955,19 @@
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.85546875" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.85546875" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.88671875" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.88671875" customWidth="1"/>
+    <col min="5" max="5" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
@@ -2953,7 +2978,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="18" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="E1" s="8" t="s">
         <v>84</v>
@@ -2971,9 +2996,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="B2" t="s">
         <v>56</v>
@@ -2988,9 +3013,9 @@
         <v>10440868</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="B3" t="s">
         <v>56</v>
@@ -3005,9 +3030,9 @@
         <v>10441723</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="B4" t="s">
         <v>56</v>
@@ -3022,9 +3047,9 @@
         <v>10445049</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="13" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="B5" t="s">
         <v>56</v>
@@ -3052,24 +3077,24 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="38.7109375" style="2"/>
+    <col min="1" max="1" width="38.6640625" style="2"/>
     <col min="2" max="2" width="46" style="35"/>
-    <col min="3" max="3" width="32.85546875" style="2"/>
+    <col min="3" max="3" width="32.88671875" style="2"/>
     <col min="4" max="4" width="45" style="36"/>
-    <col min="5" max="5" width="29.28515625" style="36"/>
-    <col min="6" max="6" width="16.42578125" style="11"/>
-    <col min="7" max="8" width="8.42578125" style="2"/>
-    <col min="9" max="9" width="13.42578125" style="2"/>
-    <col min="10" max="10" width="37.28515625" style="2"/>
-    <col min="11" max="11" width="13.42578125" style="2"/>
-    <col min="12" max="12" width="19.85546875" style="2"/>
-    <col min="13" max="1022" width="8.42578125" style="2"/>
-    <col min="1023" max="1025" width="8.42578125"/>
+    <col min="5" max="5" width="29.33203125" style="36"/>
+    <col min="6" max="6" width="16.44140625" style="11"/>
+    <col min="7" max="8" width="8.44140625" style="2"/>
+    <col min="9" max="9" width="13.44140625" style="2"/>
+    <col min="10" max="10" width="37.33203125" style="2"/>
+    <col min="11" max="11" width="13.44140625" style="2"/>
+    <col min="12" max="12" width="19.88671875" style="2"/>
+    <col min="13" max="1022" width="8.44140625" style="2"/>
+    <col min="1023" max="1025" width="8.44140625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
         <v>349</v>
       </c>
@@ -3107,7 +3132,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
         <v>356</v>
       </c>
@@ -3132,7 +3157,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
         <v>362</v>
       </c>
@@ -3154,7 +3179,7 @@
       <c r="J3" s="13"/>
       <c r="K3" s="13"/>
     </row>
-    <row r="4" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
         <v>364</v>
       </c>
@@ -3176,7 +3201,7 @@
       <c r="J4" s="13"/>
       <c r="K4" s="13"/>
     </row>
-    <row r="5" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="13" t="s">
         <v>366</v>
       </c>
@@ -3207,27 +3232,27 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMK15"/>
+  <dimension ref="A1:AMK16"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A11" sqref="A11"/>
+      <selection pane="bottomRight" activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.42578125" style="39"/>
-    <col min="2" max="2" width="8.5703125" style="39"/>
-    <col min="3" max="3" width="11.5703125" style="39"/>
-    <col min="4" max="4" width="10.42578125" style="39"/>
-    <col min="5" max="5" width="10.7109375" style="39"/>
-    <col min="6" max="6" width="19.85546875" style="39"/>
-    <col min="7" max="1025" width="8.5703125" style="39"/>
+    <col min="1" max="1" width="19.44140625" style="39"/>
+    <col min="2" max="2" width="8.5546875" style="39"/>
+    <col min="3" max="3" width="11.5546875" style="39"/>
+    <col min="4" max="4" width="10.44140625" style="39"/>
+    <col min="5" max="5" width="10.6640625" style="39"/>
+    <col min="6" max="6" width="19.88671875" style="39"/>
+    <col min="7" max="1025" width="8.5546875" style="39"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="40" customFormat="1" ht="15.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="40" customFormat="1" ht="15.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="40" t="s">
         <v>369</v>
       </c>
@@ -3247,7 +3272,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="39" t="s">
         <v>372</v>
       </c>
@@ -3261,7 +3286,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="15.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="39" t="s">
         <v>375</v>
       </c>
@@ -3275,7 +3300,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="39" t="s">
         <v>378</v>
       </c>
@@ -3286,7 +3311,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="15.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="39" t="s">
         <v>380</v>
       </c>
@@ -3297,7 +3322,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="39" t="s">
         <v>381</v>
       </c>
@@ -3308,7 +3333,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="15.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="39" t="s">
         <v>382</v>
       </c>
@@ -3319,7 +3344,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="15.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="39" t="s">
         <v>383</v>
       </c>
@@ -3330,7 +3355,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="15.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="39" t="s">
         <v>384</v>
       </c>
@@ -3341,7 +3366,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="15.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="41" t="s">
         <v>385</v>
       </c>
@@ -3352,7 +3377,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="15.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="41" t="s">
         <v>386</v>
       </c>
@@ -3363,7 +3388,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="15.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="41" t="s">
         <v>387</v>
       </c>
@@ -3374,9 +3399,9 @@
         <v>373</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="39" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="B13" s="39">
         <v>0.1</v>
@@ -3385,9 +3410,9 @@
         <v>373</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="39" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="B14" s="39">
         <v>0.36</v>
@@ -3396,14 +3421,25 @@
         <v>373</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="39" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="B15" s="39">
         <v>0.5</v>
       </c>
       <c r="C15" s="39" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="39" t="s">
+        <v>490</v>
+      </c>
+      <c r="B16" s="39">
+        <v>0.25</v>
+      </c>
+      <c r="C16" s="39" t="s">
         <v>373</v>
       </c>
     </row>
@@ -3417,20 +3453,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16"/>
-    <col min="3" max="3" width="15.42578125"/>
-    <col min="5" max="5" width="10.5703125"/>
-    <col min="6" max="6" width="11.140625"/>
-    <col min="7" max="7" width="20.5703125"/>
+    <col min="3" max="3" width="15.44140625"/>
+    <col min="5" max="5" width="10.5546875"/>
+    <col min="6" max="6" width="11.109375"/>
+    <col min="7" max="7" width="20.5546875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="8" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" s="8" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -3438,7 +3474,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="D1" s="8" t="s">
         <v>371</v>
@@ -3453,7 +3489,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>388</v>
       </c>
@@ -3482,19 +3518,19 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" style="2"/>
-    <col min="2" max="2" width="23.42578125" style="2"/>
-    <col min="3" max="3" width="17.7109375" style="2"/>
-    <col min="4" max="4" width="18.7109375" style="2"/>
-    <col min="5" max="5" width="12.7109375" style="2"/>
-    <col min="6" max="6" width="14.7109375" style="2"/>
-    <col min="7" max="1022" width="37.28515625" style="2"/>
-    <col min="1023" max="1025" width="8.42578125"/>
+    <col min="1" max="1" width="18.6640625" style="2"/>
+    <col min="2" max="2" width="23.44140625" style="2"/>
+    <col min="3" max="3" width="17.6640625" style="2"/>
+    <col min="4" max="4" width="18.6640625" style="2"/>
+    <col min="5" max="5" width="12.6640625" style="2"/>
+    <col min="6" max="6" width="14.6640625" style="2"/>
+    <col min="7" max="1022" width="37.33203125" style="2"/>
+    <col min="1023" max="1025" width="8.44140625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="8" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" s="8" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -3520,7 +3556,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>393</v>
       </c>
@@ -3537,7 +3573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>397</v>
       </c>
@@ -3554,7 +3590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>400</v>
       </c>
@@ -3571,7 +3607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>403</v>
       </c>
@@ -3588,7 +3624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>37</v>
       </c>
@@ -3605,7 +3641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>407</v>
       </c>
@@ -3622,7 +3658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>410</v>
       </c>
@@ -3654,41 +3690,41 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK9"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F12" sqref="F12"/>
+      <selection pane="bottomRight" activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.28515625" style="42"/>
-    <col min="2" max="2" width="10.7109375" style="42"/>
-    <col min="3" max="3" width="10.42578125" style="42"/>
-    <col min="4" max="4" width="11" style="42"/>
-    <col min="5" max="5" width="6.5703125" style="42"/>
-    <col min="6" max="6" width="28.7109375" style="42"/>
+    <col min="1" max="1" width="20.33203125" style="42"/>
+    <col min="2" max="2" width="18.21875" style="42" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" style="42"/>
+    <col min="4" max="4" width="10.44140625" style="42"/>
+    <col min="5" max="5" width="11" style="42"/>
+    <col min="6" max="6" width="28.6640625" style="42"/>
     <col min="7" max="7" width="11" style="42"/>
     <col min="8" max="8" width="20" style="42"/>
-    <col min="9" max="1025" width="8.7109375" style="42"/>
+    <col min="9" max="1025" width="8.6640625" style="42"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="43" t="s">
+        <v>349</v>
+      </c>
+      <c r="B1" s="43" t="s">
         <v>411</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="C1" s="43" t="s">
         <v>412</v>
       </c>
-      <c r="C1" s="43" t="s">
-        <v>413</v>
-      </c>
       <c r="D1" s="43" t="s">
-        <v>414</v>
+        <v>483</v>
       </c>
       <c r="E1" s="43" t="s">
-        <v>415</v>
+        <v>371</v>
       </c>
       <c r="F1" s="43" t="s">
         <v>11</v>
@@ -3700,127 +3736,165 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="42" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="45" t="s">
+        <v>492</v>
+      </c>
+      <c r="B2" s="42" t="s">
         <v>393</v>
       </c>
-      <c r="B2" s="42" t="s">
-        <v>416</v>
-      </c>
       <c r="C2" s="42" t="s">
-        <v>417</v>
-      </c>
-      <c r="D2"/>
-      <c r="E2"/>
+        <v>413</v>
+      </c>
+      <c r="D2" s="45" t="s">
+        <v>487</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
       <c r="F2"/>
       <c r="H2"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="42" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="45" t="s">
+        <v>493</v>
+      </c>
+      <c r="B3" s="42" t="s">
         <v>397</v>
       </c>
-      <c r="B3" s="42" t="s">
+      <c r="C3" s="42" t="s">
+        <v>413</v>
+      </c>
+      <c r="D3" s="47" t="s">
+        <v>491</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3" s="42" t="s">
+        <v>414</v>
+      </c>
+      <c r="H3"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="45" t="s">
+        <v>494</v>
+      </c>
+      <c r="B4" s="42" t="s">
+        <v>400</v>
+      </c>
+      <c r="C4" s="42" t="s">
+        <v>413</v>
+      </c>
+      <c r="D4" s="42" t="s">
+        <v>415</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4" s="42" t="s">
         <v>416</v>
       </c>
-      <c r="C3" s="42" t="s">
+      <c r="H4"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="45" t="s">
+        <v>495</v>
+      </c>
+      <c r="B5" s="42" t="s">
+        <v>403</v>
+      </c>
+      <c r="C5" s="42" t="s">
+        <v>413</v>
+      </c>
+      <c r="D5" s="45" t="s">
+        <v>487</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5" s="42" t="s">
+        <v>417</v>
+      </c>
+      <c r="H5"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="45" t="s">
+        <v>496</v>
+      </c>
+      <c r="B6" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="42" t="s">
+        <v>413</v>
+      </c>
+      <c r="D6" s="42" t="s">
         <v>418</v>
       </c>
-      <c r="D3"/>
-      <c r="E3"/>
-      <c r="F3" s="42" t="s">
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6" s="42" t="s">
         <v>419</v>
       </c>
-      <c r="H3"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="42" t="s">
-        <v>400</v>
-      </c>
-      <c r="B4" s="42" t="s">
-        <v>416</v>
-      </c>
-      <c r="C4" s="42" t="s">
+      <c r="H6"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="45" t="s">
+        <v>497</v>
+      </c>
+      <c r="B7" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="42" t="s">
         <v>420</v>
       </c>
-      <c r="D4" s="42">
+      <c r="D7" s="42" t="s">
+        <v>421</v>
+      </c>
+      <c r="E7">
         <v>1</v>
       </c>
-      <c r="E4" s="42">
-        <v>2</v>
-      </c>
-      <c r="F4" s="42" t="s">
-        <v>421</v>
-      </c>
-      <c r="H4"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="42" t="s">
-        <v>403</v>
-      </c>
-      <c r="B5" s="42" t="s">
-        <v>416</v>
-      </c>
-      <c r="C5" s="42" t="s">
-        <v>417</v>
-      </c>
-      <c r="F5" s="42" t="s">
+      <c r="H7"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="45" t="s">
+        <v>498</v>
+      </c>
+      <c r="B8" s="42" t="s">
+        <v>407</v>
+      </c>
+      <c r="C8" s="45" t="s">
+        <v>413</v>
+      </c>
+      <c r="D8" s="45" t="s">
         <v>422</v>
       </c>
-      <c r="H5"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="42" t="s">
-        <v>37</v>
-      </c>
-      <c r="B6" s="42" t="s">
-        <v>416</v>
-      </c>
-      <c r="C6" s="42" t="s">
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="H8" s="45" t="s">
         <v>423</v>
       </c>
-      <c r="F6" s="42" t="s">
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="45" t="s">
+        <v>499</v>
+      </c>
+      <c r="B9" s="42" t="s">
+        <v>410</v>
+      </c>
+      <c r="C9" s="45" t="s">
+        <v>413</v>
+      </c>
+      <c r="D9" s="45" t="s">
         <v>424</v>
       </c>
-      <c r="H6"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="42" t="s">
-        <v>37</v>
-      </c>
-      <c r="B7" s="42" t="s">
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="H9" s="45" t="s">
         <v>425</v>
-      </c>
-      <c r="C7" s="42" t="s">
-        <v>426</v>
-      </c>
-      <c r="H7"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="42" t="s">
-        <v>407</v>
-      </c>
-      <c r="B8" s="45" t="s">
-        <v>416</v>
-      </c>
-      <c r="C8" s="45" t="s">
-        <v>427</v>
-      </c>
-      <c r="H8" s="45" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="42" t="s">
-        <v>410</v>
-      </c>
-      <c r="B9" s="45" t="s">
-        <v>416</v>
-      </c>
-      <c r="C9" s="45" t="s">
-        <v>429</v>
-      </c>
-      <c r="H9" s="45" t="s">
-        <v>430</v>
       </c>
     </row>
   </sheetData>
@@ -3832,20 +3906,22 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="5" width="8.5703125"/>
-    <col min="6" max="6" width="10.5703125"/>
-    <col min="7" max="7" width="11.140625"/>
-    <col min="8" max="8" width="20.5703125"/>
-    <col min="9" max="1025" width="8.5703125"/>
+    <col min="1" max="5" width="8.5546875"/>
+    <col min="6" max="6" width="10.5546875"/>
+    <col min="7" max="7" width="11.109375"/>
+    <col min="8" max="8" width="20.5546875"/>
+    <col min="9" max="1025" width="8.5546875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -3856,7 +3932,7 @@
         <v>370</v>
       </c>
       <c r="D1" s="37" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="E1" s="8" t="s">
         <v>371</v>
@@ -3871,12 +3947,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="B2" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="C2">
         <v>20.5</v>
@@ -3885,18 +3961,18 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="E2" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="H2" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="B3" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="C3">
         <v>1.35</v>
@@ -3905,18 +3981,18 @@
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="E3" t="s">
+        <v>429</v>
+      </c>
+      <c r="H3" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>434</v>
       </c>
-      <c r="H3" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>439</v>
-      </c>
       <c r="B4" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="C4">
         <v>0.46</v>
@@ -3928,15 +4004,15 @@
         <v>373</v>
       </c>
       <c r="H4" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="B5" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="C5">
         <v>1.2</v>
@@ -3948,7 +4024,24 @@
         <v>373</v>
       </c>
       <c r="H5" t="s">
-        <v>438</v>
+        <v>433</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>487</v>
+      </c>
+      <c r="B6" t="s">
+        <v>488</v>
+      </c>
+      <c r="C6">
+        <v>2.1</v>
+      </c>
+      <c r="D6">
+        <v>1E-3</v>
+      </c>
+      <c r="E6" t="s">
+        <v>489</v>
       </c>
     </row>
   </sheetData>
@@ -3968,14 +4061,14 @@
       <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" style="6"/>
-    <col min="2" max="2" width="51.140625" style="2"/>
-    <col min="3" max="1025" width="8.42578125"/>
+    <col min="1" max="1" width="16.44140625" style="6"/>
+    <col min="2" max="2" width="51.109375" style="2"/>
+    <col min="3" max="1025" width="8.44140625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3983,7 +4076,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>2</v>
       </c>
@@ -3991,7 +4084,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>14</v>
       </c>
@@ -3999,7 +4092,7 @@
         <v>9606</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>11</v>
       </c>
@@ -4019,18 +4112,18 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.7109375"/>
-    <col min="2" max="2" width="15.5703125"/>
-    <col min="4" max="4" width="13.140625"/>
-    <col min="5" max="5" width="10.5703125"/>
-    <col min="6" max="6" width="11.140625"/>
-    <col min="7" max="7" width="19.85546875"/>
-    <col min="1021" max="1025" width="8.7109375"/>
+    <col min="1" max="1" width="17.6640625"/>
+    <col min="2" max="2" width="15.5546875"/>
+    <col min="4" max="4" width="13.109375"/>
+    <col min="5" max="5" width="10.5546875"/>
+    <col min="6" max="6" width="11.109375"/>
+    <col min="7" max="7" width="19.88671875"/>
+    <col min="1021" max="1025" width="8.6640625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>349</v>
       </c>
@@ -4053,60 +4146,60 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="B2" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="C2" s="46">
         <v>3.0000000000000001E-12</v>
       </c>
       <c r="D2" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="B3" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="C3" s="46">
         <v>10000000</v>
       </c>
       <c r="D3" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="B4" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="C4">
         <v>0.7</v>
       </c>
       <c r="D4" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="B5" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="C5">
         <v>71280</v>
       </c>
       <c r="D5" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
     </row>
   </sheetData>
@@ -4127,43 +4220,43 @@
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.5703125"/>
-    <col min="2" max="2" width="18.5703125"/>
-    <col min="3" max="1025" width="8.5703125"/>
+    <col min="1" max="1" width="8.5546875"/>
+    <col min="2" max="2" width="18.5546875"/>
+    <col min="3" max="1025" width="8.5546875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>361</v>
       </c>
       <c r="B2" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>377</v>
       </c>
       <c r="B3" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="B4" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
     </row>
   </sheetData>
@@ -4180,19 +4273,19 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="7"/>
-    <col min="2" max="2" width="16.140625" style="2"/>
-    <col min="3" max="3" width="17.7109375" style="2"/>
-    <col min="4" max="4" width="11.28515625" style="2"/>
-    <col min="5" max="5" width="11.140625" style="2"/>
-    <col min="6" max="6" width="20.5703125" style="2"/>
-    <col min="7" max="1020" width="9.140625" style="2"/>
-    <col min="1024" max="1025" width="8.7109375"/>
+    <col min="1" max="1" width="9.109375" style="7"/>
+    <col min="2" max="2" width="16.109375" style="2"/>
+    <col min="3" max="3" width="17.6640625" style="2"/>
+    <col min="4" max="4" width="11.33203125" style="2"/>
+    <col min="5" max="5" width="11.109375" style="2"/>
+    <col min="6" max="6" width="20.5546875" style="2"/>
+    <col min="7" max="1020" width="9.109375" style="2"/>
+    <col min="1024" max="1025" width="8.6640625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="8" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" s="8" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -4212,7 +4305,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>18</v>
       </c>
@@ -4229,7 +4322,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>22</v>
       </c>
@@ -4241,7 +4334,7 @@
       </c>
       <c r="F3"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>24</v>
       </c>
@@ -4255,7 +4348,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>27</v>
       </c>
@@ -4281,19 +4374,19 @@
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.85546875" style="9"/>
-    <col min="2" max="2" width="39.42578125" style="9"/>
-    <col min="3" max="3" width="13.7109375" style="2"/>
-    <col min="4" max="4" width="10.7109375" style="2"/>
+    <col min="1" max="1" width="23.88671875" style="9"/>
+    <col min="2" max="2" width="39.44140625" style="9"/>
+    <col min="3" max="3" width="13.6640625" style="2"/>
+    <col min="4" max="4" width="10.6640625" style="2"/>
     <col min="5" max="5" width="55" style="9"/>
-    <col min="6" max="6" width="9.140625" style="2"/>
-    <col min="7" max="7" width="19.85546875" style="2"/>
-    <col min="8" max="1022" width="9.140625" style="2"/>
+    <col min="6" max="6" width="9.109375" style="2"/>
+    <col min="7" max="7" width="19.88671875" style="2"/>
+    <col min="8" max="1022" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="8" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" s="8" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -4316,7 +4409,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>31</v>
       </c>
@@ -4324,7 +4417,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>33</v>
       </c>
@@ -4335,7 +4428,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>36</v>
       </c>
@@ -4343,7 +4436,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>38</v>
       </c>
@@ -4351,7 +4444,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
         <v>40</v>
       </c>
@@ -4362,7 +4455,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>43</v>
       </c>
@@ -4373,7 +4466,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
         <v>46</v>
       </c>
@@ -4384,7 +4477,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>49</v>
       </c>
@@ -4413,20 +4506,20 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.140625" style="7"/>
+    <col min="1" max="1" width="14.109375" style="7"/>
     <col min="2" max="2" width="13" style="11"/>
-    <col min="3" max="4" width="11.7109375" style="2"/>
-    <col min="5" max="5" width="22.140625" style="2"/>
-    <col min="6" max="6" width="9.140625" style="2"/>
-    <col min="7" max="8" width="13.42578125" style="2"/>
-    <col min="9" max="9" width="13.42578125"/>
-    <col min="10" max="10" width="19.85546875"/>
-    <col min="11" max="12" width="13.42578125"/>
+    <col min="3" max="4" width="11.6640625" style="2"/>
+    <col min="5" max="5" width="22.109375" style="2"/>
+    <col min="6" max="6" width="9.109375" style="2"/>
+    <col min="7" max="8" width="13.44140625" style="2"/>
+    <col min="9" max="9" width="13.44140625"/>
+    <col min="10" max="10" width="19.88671875"/>
+    <col min="11" max="12" width="13.44140625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -4434,7 +4527,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="D1" s="8" t="s">
         <v>52</v>
@@ -4443,7 +4536,7 @@
         <v>53</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="G1" s="8" t="s">
         <v>54</v>
@@ -4458,7 +4551,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>55</v>
       </c>
@@ -4477,7 +4570,7 @@
       </c>
       <c r="G2" s="11"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>56</v>
       </c>
@@ -4494,7 +4587,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>57</v>
       </c>
@@ -4511,7 +4604,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>58</v>
       </c>
@@ -4528,7 +4621,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>59</v>
       </c>
@@ -4545,7 +4638,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>60</v>
       </c>
@@ -4562,7 +4655,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>61</v>
       </c>
@@ -4579,7 +4672,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>62</v>
       </c>
@@ -4596,7 +4689,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>63</v>
       </c>
@@ -4613,7 +4706,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>64</v>
       </c>
@@ -4630,7 +4723,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>65</v>
       </c>
@@ -4647,7 +4740,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>66</v>
       </c>
@@ -4664,7 +4757,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>67</v>
       </c>
@@ -4681,7 +4774,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>68</v>
       </c>
@@ -4698,7 +4791,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>69</v>
       </c>
@@ -4715,7 +4808,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>70</v>
       </c>
@@ -4732,7 +4825,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>71</v>
       </c>
@@ -4749,7 +4842,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>72</v>
       </c>
@@ -4766,7 +4859,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>73</v>
       </c>
@@ -4783,7 +4876,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>74</v>
       </c>
@@ -4800,7 +4893,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
         <v>75</v>
       </c>
@@ -4817,7 +4910,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
         <v>76</v>
       </c>
@@ -4834,7 +4927,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
         <v>77</v>
       </c>
@@ -4851,7 +4944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
         <v>78</v>
       </c>
@@ -4868,7 +4961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
         <v>79</v>
       </c>
@@ -4903,19 +4996,19 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" style="11"/>
-    <col min="2" max="2" width="16.42578125" style="11"/>
-    <col min="3" max="3" width="42.42578125" style="13"/>
-    <col min="4" max="6" width="13.42578125" style="14"/>
-    <col min="7" max="8" width="13.42578125" style="11"/>
-    <col min="9" max="9" width="16.42578125" style="15"/>
-    <col min="10" max="1023" width="32.5703125" style="2"/>
-    <col min="1024" max="1025" width="8.42578125"/>
+    <col min="1" max="1" width="17.44140625" style="11"/>
+    <col min="2" max="2" width="16.44140625" style="11"/>
+    <col min="3" max="3" width="42.44140625" style="13"/>
+    <col min="4" max="6" width="13.44140625" style="14"/>
+    <col min="7" max="8" width="13.44140625" style="11"/>
+    <col min="9" max="9" width="16.44140625" style="15"/>
+    <col min="10" max="1023" width="32.5546875" style="2"/>
+    <col min="1024" max="1025" width="8.44140625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1023" s="8" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1023" s="8" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -4956,7 +5049,7 @@
       <c r="AMH1" s="2"/>
       <c r="AMI1" s="2"/>
     </row>
-    <row r="2" spans="1:1023" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1023" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>86</v>
       </c>
@@ -4982,7 +5075,7 @@
         <v>20651511</v>
       </c>
     </row>
-    <row r="3" spans="1:1023" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1023" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
         <v>91</v>
       </c>
@@ -5008,7 +5101,7 @@
         <v>10448504</v>
       </c>
     </row>
-    <row r="4" spans="1:1023" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1023" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
         <v>95</v>
       </c>
@@ -5034,7 +5127,7 @@
         <v>69387254</v>
       </c>
     </row>
-    <row r="5" spans="1:1023" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1023" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>98</v>
       </c>
@@ -5060,7 +5153,7 @@
         <v>40574685</v>
       </c>
     </row>
-    <row r="6" spans="1:1023" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1023" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
         <v>101</v>
       </c>
@@ -5086,7 +5179,7 @@
         <v>112649530</v>
       </c>
     </row>
-    <row r="7" spans="1:1023" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1023" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
         <v>104</v>
       </c>
@@ -5112,7 +5205,7 @@
         <v>83605875</v>
       </c>
     </row>
-    <row r="8" spans="1:1023" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1023" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
         <v>107</v>
       </c>
@@ -5138,7 +5231,7 @@
         <v>127899195</v>
       </c>
     </row>
-    <row r="9" spans="1:1023" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1023" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>110</v>
       </c>
@@ -5164,7 +5257,7 @@
         <v>160421711</v>
       </c>
     </row>
-    <row r="10" spans="1:1023" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1023" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
         <v>113</v>
       </c>
@@ -5190,7 +5283,7 @@
         <v>152129619</v>
       </c>
     </row>
-    <row r="11" spans="1:1023" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1023" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
         <v>116</v>
       </c>
@@ -5216,7 +5309,7 @@
         <v>56051604</v>
       </c>
     </row>
-    <row r="12" spans="1:1023" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1023" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
         <v>119</v>
       </c>
@@ -5242,7 +5335,7 @@
         <v>18084998</v>
       </c>
     </row>
-    <row r="13" spans="1:1023" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1023" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
         <v>122</v>
       </c>
@@ -5268,7 +5361,7 @@
         <v>19967258</v>
       </c>
     </row>
-    <row r="14" spans="1:1023" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1023" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
         <v>125</v>
       </c>
@@ -5294,7 +5387,7 @@
         <v>136423761</v>
       </c>
     </row>
-    <row r="15" spans="1:1023" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1023" x14ac:dyDescent="0.3">
       <c r="A15" s="11" t="s">
         <v>128</v>
       </c>
@@ -5320,7 +5413,7 @@
         <v>7787981</v>
       </c>
     </row>
-    <row r="16" spans="1:1023" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1023" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
         <v>131</v>
       </c>
@@ -5346,7 +5439,7 @@
         <v>133421307</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="11" t="s">
         <v>134</v>
       </c>
@@ -5372,7 +5465,7 @@
         <v>13732346</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="11" t="s">
         <v>137</v>
       </c>
@@ -5398,7 +5491,7 @@
         <v>114450279</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="11" t="s">
         <v>140</v>
       </c>
@@ -5424,7 +5517,7 @@
         <v>77065580</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="11" t="s">
         <v>143</v>
       </c>
@@ -5450,7 +5543,7 @@
         <v>113359493</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="11" t="s">
         <v>146</v>
       </c>
@@ -5476,7 +5569,7 @@
         <v>52476628</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="11" t="s">
         <v>149</v>
       </c>
@@ -5502,7 +5595,7 @@
         <v>103057462</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="11" t="s">
         <v>152</v>
       </c>
@@ -5528,7 +5621,7 @@
         <v>65578352</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="11" t="s">
         <v>155</v>
       </c>
@@ -5554,7 +5647,7 @@
         <v>101251932</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="11" t="s">
         <v>158</v>
       </c>
@@ -5580,7 +5673,7 @@
         <v>89155846</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="11" t="s">
         <v>161</v>
       </c>
@@ -5606,7 +5699,7 @@
         <v>49223225</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="11" t="s">
         <v>164</v>
       </c>
@@ -5632,7 +5725,7 @@
         <v>50988121</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="11" t="s">
         <v>167</v>
       </c>
@@ -5658,7 +5751,7 @@
         <v>41440717</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="11" t="s">
         <v>170</v>
       </c>
@@ -5684,7 +5777,7 @@
         <v>47784686</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="11" t="s">
         <v>173</v>
       </c>
@@ -5710,7 +5803,7 @@
         <v>13638940</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="11" t="s">
         <v>176</v>
       </c>
@@ -5736,7 +5829,7 @@
         <v>44652233</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="11" t="s">
         <v>179</v>
       </c>
@@ -5762,7 +5855,7 @@
         <v>31668931</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="11" t="s">
         <v>182</v>
       </c>
@@ -5788,7 +5881,7 @@
         <v>20859417</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="11" t="s">
         <v>185</v>
       </c>
@@ -5814,7 +5907,7 @@
         <v>38738299</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="11" t="s">
         <v>188</v>
       </c>
@@ -5840,7 +5933,7 @@
         <v>119605895</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="11" t="s">
         <v>191</v>
       </c>
@@ -5866,7 +5959,7 @@
         <v>23005465</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="11" t="s">
         <v>194</v>
       </c>
@@ -5911,30 +6004,30 @@
       <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="16.42578125" style="11"/>
+    <col min="1" max="3" width="16.44140625" style="11"/>
     <col min="4" max="4" width="22" style="11"/>
-    <col min="5" max="5" width="13.7109375" style="11"/>
-    <col min="6" max="6" width="9.140625" style="30"/>
-    <col min="7" max="7" width="25.140625" style="11"/>
-    <col min="8" max="8" width="13.42578125" style="11"/>
-    <col min="9" max="9" width="16.28515625" style="30" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.42578125" style="30" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.5703125" style="30" customWidth="1"/>
-    <col min="12" max="12" width="23.28515625" style="11"/>
-    <col min="13" max="13" width="25.140625" style="2"/>
-    <col min="14" max="14" width="19.85546875"/>
-    <col min="15" max="15" width="9.140625" style="14"/>
-    <col min="16" max="16" width="10.42578125" style="14"/>
-    <col min="17" max="17" width="10.7109375" style="14"/>
-    <col min="18" max="19" width="9.140625" style="11"/>
-    <col min="20" max="20" width="22.85546875" style="14"/>
-    <col min="21" max="1016" width="9.140625" style="11"/>
-    <col min="1017" max="1025" width="9.140625" style="2"/>
+    <col min="5" max="5" width="13.6640625" style="11"/>
+    <col min="6" max="6" width="9.109375" style="30"/>
+    <col min="7" max="7" width="25.109375" style="11"/>
+    <col min="8" max="8" width="13.44140625" style="11"/>
+    <col min="9" max="9" width="16.33203125" style="30" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.44140625" style="30" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.5546875" style="30" customWidth="1"/>
+    <col min="12" max="12" width="23.33203125" style="11"/>
+    <col min="13" max="13" width="25.109375" style="2"/>
+    <col min="14" max="14" width="19.88671875"/>
+    <col min="15" max="15" width="9.109375" style="14"/>
+    <col min="16" max="16" width="10.44140625" style="14"/>
+    <col min="17" max="17" width="10.6640625" style="14"/>
+    <col min="18" max="19" width="9.109375" style="11"/>
+    <col min="20" max="20" width="22.88671875" style="14"/>
+    <col min="21" max="1016" width="9.109375" style="11"/>
+    <col min="1017" max="1025" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1025" s="8" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1025" s="8" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -5960,13 +6053,13 @@
         <v>85</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="K1" s="8" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="L1" s="18" t="s">
         <v>11</v>
@@ -5993,7 +6086,7 @@
       <c r="AMJ1" s="1"/>
       <c r="AMK1" s="1"/>
     </row>
-    <row r="2" spans="1:1025" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1025" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>198</v>
       </c>
@@ -6029,7 +6122,7 @@
       <c r="R2" s="22"/>
       <c r="S2" s="22"/>
     </row>
-    <row r="3" spans="1:1025" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1025" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
         <v>202</v>
       </c>
@@ -6065,7 +6158,7 @@
       <c r="R3" s="22"/>
       <c r="S3" s="22"/>
     </row>
-    <row r="4" spans="1:1025" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1025" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
         <v>205</v>
       </c>
@@ -6101,7 +6194,7 @@
       <c r="R4" s="22"/>
       <c r="S4" s="22"/>
     </row>
-    <row r="5" spans="1:1025" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1025" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>209</v>
       </c>
@@ -6137,7 +6230,7 @@
       <c r="R5" s="22"/>
       <c r="S5" s="22"/>
     </row>
-    <row r="6" spans="1:1025" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1025" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
         <v>213</v>
       </c>
@@ -6173,7 +6266,7 @@
       <c r="R6" s="22"/>
       <c r="S6" s="22"/>
     </row>
-    <row r="7" spans="1:1025" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1025" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
         <v>216</v>
       </c>
@@ -6209,7 +6302,7 @@
       <c r="R7" s="22"/>
       <c r="S7" s="22"/>
     </row>
-    <row r="8" spans="1:1025" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1025" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
         <v>218</v>
       </c>
@@ -6245,7 +6338,7 @@
       <c r="R8" s="22"/>
       <c r="S8" s="22"/>
     </row>
-    <row r="9" spans="1:1025" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1025" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>221</v>
       </c>
@@ -6281,7 +6374,7 @@
       <c r="R9" s="22"/>
       <c r="S9" s="22"/>
     </row>
-    <row r="10" spans="1:1025" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1025" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
         <v>223</v>
       </c>
@@ -6317,7 +6410,7 @@
       <c r="R10" s="22"/>
       <c r="S10" s="22"/>
     </row>
-    <row r="11" spans="1:1025" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1025" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
         <v>225</v>
       </c>
@@ -6353,7 +6446,7 @@
       <c r="R11" s="22"/>
       <c r="S11" s="22"/>
     </row>
-    <row r="12" spans="1:1025" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1025" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
         <v>227</v>
       </c>
@@ -6389,7 +6482,7 @@
       <c r="R12" s="22"/>
       <c r="S12" s="22"/>
     </row>
-    <row r="13" spans="1:1025" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1025" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
         <v>229</v>
       </c>
@@ -6425,7 +6518,7 @@
       <c r="R13" s="22"/>
       <c r="S13" s="22"/>
     </row>
-    <row r="14" spans="1:1025" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1025" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
         <v>231</v>
       </c>
@@ -6461,7 +6554,7 @@
       <c r="R14" s="22"/>
       <c r="S14" s="22"/>
     </row>
-    <row r="15" spans="1:1025" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1025" x14ac:dyDescent="0.3">
       <c r="A15" s="11" t="s">
         <v>233</v>
       </c>
@@ -6500,7 +6593,7 @@
       <c r="R15" s="22"/>
       <c r="S15" s="22"/>
     </row>
-    <row r="16" spans="1:1025" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1025" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
         <v>236</v>
       </c>
@@ -6536,7 +6629,7 @@
       <c r="R16" s="22"/>
       <c r="S16" s="22"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A17" s="11" t="s">
         <v>238</v>
       </c>
@@ -6572,7 +6665,7 @@
       <c r="R17" s="22"/>
       <c r="S17" s="22"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A18" s="11" t="s">
         <v>240</v>
       </c>
@@ -6608,7 +6701,7 @@
       <c r="R18" s="22"/>
       <c r="S18" s="22"/>
     </row>
-    <row r="19" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="11" t="s">
         <v>242</v>
       </c>
@@ -6640,14 +6733,14 @@
         <v>102368872</v>
       </c>
       <c r="K19" s="13" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="L19" s="14"/>
       <c r="M19" s="5"/>
       <c r="R19" s="22"/>
       <c r="S19" s="22"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A20" s="11" t="s">
         <v>244</v>
       </c>
@@ -6683,7 +6776,7 @@
       <c r="R20" s="22"/>
       <c r="S20" s="22"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A21" s="11" t="s">
         <v>246</v>
       </c>
@@ -6719,7 +6812,7 @@
       <c r="R21" s="22"/>
       <c r="S21" s="22"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A22" s="11" t="s">
         <v>248</v>
       </c>
@@ -6755,7 +6848,7 @@
       <c r="R22" s="22"/>
       <c r="S22" s="22"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A23" s="11" t="s">
         <v>250</v>
       </c>
@@ -6791,7 +6884,7 @@
       <c r="R23" s="22"/>
       <c r="S23" s="22"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A24" s="11" t="s">
         <v>252</v>
       </c>
@@ -6827,7 +6920,7 @@
       <c r="R24" s="22"/>
       <c r="S24" s="22"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A25" s="11" t="s">
         <v>254</v>
       </c>
@@ -6863,7 +6956,7 @@
       <c r="R25" s="22"/>
       <c r="S25" s="22"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A26" s="11" t="s">
         <v>256</v>
       </c>
@@ -6899,7 +6992,7 @@
       <c r="R26" s="22"/>
       <c r="S26" s="22"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A27" s="11" t="s">
         <v>258</v>
       </c>
@@ -6935,7 +7028,7 @@
       <c r="R27" s="22"/>
       <c r="S27" s="22"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A28" s="11" t="s">
         <v>260</v>
       </c>
@@ -6971,7 +7064,7 @@
       <c r="R28" s="22"/>
       <c r="S28" s="22"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A29" s="11" t="s">
         <v>262</v>
       </c>
@@ -7007,7 +7100,7 @@
       <c r="R29" s="22"/>
       <c r="S29" s="22"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A30" s="11" t="s">
         <v>264</v>
       </c>
@@ -7043,7 +7136,7 @@
       <c r="R30" s="22"/>
       <c r="S30" s="22"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A31" s="11" t="s">
         <v>266</v>
       </c>
@@ -7079,7 +7172,7 @@
       <c r="R31" s="22"/>
       <c r="S31" s="22"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A32" s="11" t="s">
         <v>268</v>
       </c>
@@ -7115,7 +7208,7 @@
       <c r="R32" s="22"/>
       <c r="S32" s="22"/>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A33" s="11" t="s">
         <v>270</v>
       </c>
@@ -7151,7 +7244,7 @@
       <c r="R33" s="22"/>
       <c r="S33" s="22"/>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A34" s="11" t="s">
         <v>272</v>
       </c>
@@ -7187,7 +7280,7 @@
       <c r="R34" s="22"/>
       <c r="S34" s="22"/>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A35" s="11" t="s">
         <v>274</v>
       </c>
@@ -7223,7 +7316,7 @@
       <c r="R35" s="22"/>
       <c r="S35" s="22"/>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A36" s="11" t="s">
         <v>276</v>
       </c>
@@ -7259,7 +7352,7 @@
       <c r="R36" s="22"/>
       <c r="S36" s="22"/>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A37" s="11" t="s">
         <v>278</v>
       </c>
@@ -7314,26 +7407,26 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" style="11" customWidth="1"/>
-    <col min="2" max="2" width="10.42578125" style="30" customWidth="1"/>
-    <col min="3" max="3" width="17.5703125" style="30" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="50.5703125" style="11"/>
-    <col min="5" max="5" width="18.42578125" style="30" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.6640625" style="11" customWidth="1"/>
+    <col min="2" max="2" width="10.44140625" style="30" customWidth="1"/>
+    <col min="3" max="3" width="17.5546875" style="30" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="50.5546875" style="11"/>
+    <col min="5" max="5" width="18.44140625" style="30" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" style="30" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" style="30" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.85546875" style="15"/>
-    <col min="9" max="9" width="13.42578125" style="23"/>
-    <col min="10" max="10" width="19.85546875" style="14"/>
-    <col min="11" max="11" width="10.7109375" style="14"/>
-    <col min="12" max="13" width="9.140625" style="11"/>
-    <col min="14" max="1021" width="9.140625" style="23"/>
-    <col min="1022" max="1024" width="8.42578125"/>
-    <col min="1025" max="1030" width="8.7109375"/>
+    <col min="7" max="7" width="13.6640625" style="30" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.88671875" style="15"/>
+    <col min="9" max="9" width="13.44140625" style="23"/>
+    <col min="10" max="10" width="19.88671875" style="14"/>
+    <col min="11" max="11" width="10.6640625" style="14"/>
+    <col min="12" max="13" width="9.109375" style="11"/>
+    <col min="14" max="1021" width="9.109375" style="23"/>
+    <col min="1022" max="1024" width="8.44140625"/>
+    <col min="1025" max="1030" width="8.6640625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="8" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" s="8" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -7344,10 +7437,10 @@
         <v>280</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="F1" s="8" t="s">
         <v>82</v>
@@ -7366,12 +7459,12 @@
       </c>
       <c r="K1" s="24"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>91</v>
@@ -7381,21 +7474,21 @@
       </c>
       <c r="E2" s="22"/>
       <c r="F2" s="22" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="G2" s="22" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="L2" s="22"/>
       <c r="M2" s="22"/>
       <c r="N2" s="11"/>
     </row>
-    <row r="3" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="C3" s="11" t="s">
         <v>107</v>
@@ -7405,21 +7498,21 @@
       </c>
       <c r="E3" s="22"/>
       <c r="F3" s="22" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="G3" s="22" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="L3" s="22"/>
       <c r="M3" s="22"/>
       <c r="N3" s="11"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="B4" s="30" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="C4" s="30" t="s">
         <v>107</v>
@@ -7431,18 +7524,18 @@
         <v>347</v>
       </c>
       <c r="F4" s="30" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="G4" s="30" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="B5" s="30" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="C5" s="30" t="s">
         <v>104</v>
@@ -7454,10 +7547,10 @@
         <v>347</v>
       </c>
       <c r="F5" s="30" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="G5" s="30" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
     </row>
   </sheetData>
@@ -7479,23 +7572,23 @@
       <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.5703125" style="14"/>
-    <col min="2" max="2" width="21.140625" style="14"/>
-    <col min="3" max="3" width="10.7109375" style="14"/>
-    <col min="4" max="4" width="22.85546875" style="15"/>
-    <col min="5" max="5" width="10.7109375"/>
-    <col min="6" max="6" width="13.42578125"/>
-    <col min="7" max="7" width="13.42578125" style="11"/>
-    <col min="8" max="8" width="13.42578125" style="25"/>
-    <col min="9" max="9" width="10.7109375" style="22"/>
-    <col min="10" max="10" width="19.85546875" style="11"/>
-    <col min="11" max="11" width="13.42578125" style="11"/>
-    <col min="12" max="1021" width="9.140625" style="2"/>
+    <col min="1" max="1" width="19.5546875" style="14"/>
+    <col min="2" max="2" width="21.109375" style="14"/>
+    <col min="3" max="3" width="10.6640625" style="14"/>
+    <col min="4" max="4" width="22.88671875" style="15"/>
+    <col min="5" max="5" width="10.6640625"/>
+    <col min="6" max="6" width="13.44140625"/>
+    <col min="7" max="7" width="13.44140625" style="11"/>
+    <col min="8" max="8" width="13.44140625" style="25"/>
+    <col min="9" max="9" width="10.6640625" style="22"/>
+    <col min="10" max="10" width="19.88671875" style="11"/>
+    <col min="11" max="11" width="13.44140625" style="11"/>
+    <col min="12" max="1021" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="26" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" s="26" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
@@ -7528,7 +7621,7 @@
       </c>
       <c r="K1" s="8"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
         <v>282</v>
       </c>
@@ -7554,7 +7647,7 @@
       <c r="J2" s="22"/>
       <c r="K2" s="28"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
         <v>284</v>
       </c>

--- a/tests/fixtures/eukaryote_core.xlsx
+++ b/tests/fixtures/eukaryote_core.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10115"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chebaro/WC/wc_kb/tests/fixtures/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19FADA8E-A2BD-0A43-B59A-30CC488912D6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="20295" windowHeight="6840" tabRatio="993" firstSheet="10" activeTab="14"/>
+    <workbookView xWindow="0" yWindow="1760" windowWidth="27040" windowHeight="20260" tabRatio="993" firstSheet="6" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Knowledge base" sheetId="1" r:id="rId1"/>
@@ -20,26 +26,27 @@
     <sheet name="Exon loci" sheetId="11" r:id="rId11"/>
     <sheet name="Protein species types" sheetId="12" r:id="rId12"/>
     <sheet name="CDS loci" sheetId="21" r:id="rId13"/>
-    <sheet name="Complex species types" sheetId="13" r:id="rId14"/>
-    <sheet name="Concentrations" sheetId="14" r:id="rId15"/>
-    <sheet name="Observables" sheetId="15" r:id="rId16"/>
-    <sheet name="Reactions" sheetId="16" r:id="rId17"/>
-    <sheet name="Rate laws" sheetId="17" r:id="rId18"/>
-    <sheet name="Parameters" sheetId="18" r:id="rId19"/>
-    <sheet name="Properties" sheetId="19" r:id="rId20"/>
-    <sheet name="References" sheetId="20" r:id="rId21"/>
+    <sheet name="Ptm site" sheetId="22" r:id="rId14"/>
+    <sheet name="Complex species types" sheetId="13" r:id="rId15"/>
+    <sheet name="Concentrations" sheetId="14" r:id="rId16"/>
+    <sheet name="Observables" sheetId="15" r:id="rId17"/>
+    <sheet name="Reactions" sheetId="16" r:id="rId18"/>
+    <sheet name="Rate laws" sheetId="17" r:id="rId19"/>
+    <sheet name="Parameters" sheetId="18" r:id="rId20"/>
+    <sheet name="Properties" sheetId="19" r:id="rId21"/>
+    <sheet name="References" sheetId="20" r:id="rId22"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Cell!$A$1:$B$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">'Complex species types'!$A$1:$J$221</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Gene loci'!$B$1:$H$1064</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Knowledge base'!$A$1:$B$9</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Cell!$A$1:$B$4</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Gene loci'!$B$1:$H$1064</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'pre-RNA species types'!$A$1:$G$915</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">'Protein species types'!$A$1:$G$719</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="18" hidden="1">'Rate laws'!$A$1:$F$9</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="17" hidden="1">Reactions!$A$1:$F$220</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Regulatory element loci'!$A$1:$L$776</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'Regulatory module'!$A$1:$H$849</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'pre-RNA species types'!$A$1:$G$915</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">'Protein species types'!$A$1:$G$719</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">'Complex species types'!$A$1:$J$221</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="16" hidden="1">Reactions!$A$1:$F$220</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="17" hidden="1">'Rate laws'!$A$1:$F$9</definedName>
     <definedName name="_FilterDatabase_0" localSheetId="1">Cell!$A$1:$B$1</definedName>
     <definedName name="_FilterDatabase_0" localSheetId="5">'Gene loci'!$I$1</definedName>
     <definedName name="_FilterDatabase_0" localSheetId="0">'Knowledge base'!$A$1:$B$2</definedName>
@@ -88,7 +95,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="990" uniqueCount="499">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1011" uniqueCount="509">
   <si>
     <t>Id</t>
   </si>
@@ -1585,19 +1592,43 @@
   </si>
   <si>
     <t>10.1234/abc234</t>
+  </si>
+  <si>
+    <t>Modified protein</t>
+  </si>
+  <si>
+    <t>Modified residue</t>
+  </si>
+  <si>
+    <t>Abundance ratio</t>
+  </si>
+  <si>
+    <t>s56</t>
+  </si>
+  <si>
+    <t>phosphorylation</t>
+  </si>
+  <si>
+    <t>ENSP00000355428_1</t>
+  </si>
+  <si>
+    <t>ENSP00000355428_2</t>
+  </si>
+  <si>
+    <t>ENSP00000355428_3</t>
+  </si>
+  <si>
+    <t>t73,s77</t>
+  </si>
+  <si>
+    <t>s141</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="31">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1673,150 +1704,31 @@
       <charset val="1"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="1"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1841,194 +1753,8 @@
         <bgColor rgb="FFCCCCCC"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -2036,251 +1762,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2289,12 +1776,12 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="35"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="35" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="35" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="35" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2392,59 +1879,18 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="35" applyFont="1" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="2">
+    <cellStyle name="Explanatory Text" xfId="1" builtinId="53"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
-    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
-    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
-    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
-    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
-    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
-    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
-    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
-    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
-    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
-    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
-    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
-    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
-    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
-    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
-    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
-    <cellStyle name="Total" xfId="25" builtinId="25"/>
-    <cellStyle name="Output" xfId="26" builtinId="21"/>
-    <cellStyle name="Currency" xfId="27" builtinId="4"/>
-    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
-    <cellStyle name="Note" xfId="29" builtinId="10"/>
-    <cellStyle name="Input" xfId="30" builtinId="20"/>
-    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
-    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
-    <cellStyle name="Good" xfId="33" builtinId="26"/>
-    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
-    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
-    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
-    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
-    <cellStyle name="Title" xfId="39" builtinId="15"/>
-    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
-    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
-    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
-    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
-    <cellStyle name="Comma" xfId="44" builtinId="3"/>
-    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
-    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
-    <cellStyle name="Percent" xfId="47" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
@@ -2517,6 +1963,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2803,30 +2252,29 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.5583333333333" style="37"/>
-    <col min="2" max="2" width="43.4416666666667" style="8"/>
-    <col min="3" max="1025" width="8.44166666666667"/>
+    <col min="1" max="1" width="21.5" style="37"/>
+    <col min="2" max="2" width="43.5" style="8"/>
+    <col min="3" max="1025" width="8.5"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1" spans="1:2">
+    <row r="1" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="43" t="s">
         <v>0</v>
       </c>
@@ -2834,7 +2282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" ht="15" customHeight="1" spans="1:2">
+    <row r="2" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="43" t="s">
         <v>2</v>
       </c>
@@ -2842,7 +2290,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" ht="15" customHeight="1" spans="1:2">
+    <row r="3" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="43" t="s">
         <v>4</v>
       </c>
@@ -2850,7 +2298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="37" t="s">
         <v>5</v>
       </c>
@@ -2858,25 +2306,25 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="37" t="s">
         <v>7</v>
       </c>
       <c r="B5"/>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="37" t="s">
         <v>8</v>
       </c>
       <c r="B6"/>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="37" t="s">
         <v>9</v>
       </c>
       <c r="B7"/>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="37" t="s">
         <v>10</v>
       </c>
@@ -2884,43 +2332,39 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="37" t="s">
         <v>11</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B9">
-    <extLst/>
-  </autoFilter>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
+  <autoFilter ref="A1:B9" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.4416666666667"/>
-    <col min="2" max="2" width="11.6666666666667"/>
-    <col min="3" max="4" width="8.55833333333333"/>
-    <col min="5" max="5" width="7.44166666666667"/>
-    <col min="6" max="6" width="10.4416666666667"/>
-    <col min="7" max="7" width="10.6666666666667"/>
-    <col min="8" max="8" width="19.8833333333333"/>
-    <col min="9" max="1025" width="8.55833333333333"/>
+    <col min="1" max="1" width="16.5"/>
+    <col min="2" max="2" width="11.6640625"/>
+    <col min="3" max="4" width="8.5"/>
+    <col min="5" max="5" width="7.5"/>
+    <col min="6" max="6" width="10.5"/>
+    <col min="7" max="7" width="10.6640625"/>
+    <col min="8" max="8" width="19.83203125"/>
+    <col min="9" max="1025" width="8.5"/>
   </cols>
   <sheetData>
-    <row r="1" s="23" customFormat="1" ht="12" spans="1:9">
+    <row r="1" spans="1:9" s="23" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
@@ -2947,7 +2391,7 @@
       </c>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>311</v>
       </c>
@@ -2961,7 +2405,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>314</v>
       </c>
@@ -2975,7 +2419,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>317</v>
       </c>
@@ -2989,7 +2433,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>320</v>
       </c>
@@ -3004,35 +2448,33 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:AMG21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.4416666666667"/>
-    <col min="2" max="2" width="12.6666666666667"/>
-    <col min="3" max="3" width="8.55833333333333"/>
+    <col min="1" max="1" width="16.5"/>
+    <col min="2" max="2" width="12.6640625"/>
+    <col min="3" max="3" width="8.5"/>
     <col min="4" max="4" width="10"/>
-    <col min="5" max="5" width="10.1083333333333"/>
-    <col min="6" max="6" width="10.4416666666667"/>
-    <col min="7" max="7" width="10.6666666666667"/>
-    <col min="8" max="8" width="19.8833333333333"/>
-    <col min="9" max="1025" width="8.55833333333333"/>
+    <col min="5" max="5" width="10.1640625"/>
+    <col min="6" max="6" width="10.5"/>
+    <col min="7" max="7" width="10.6640625"/>
+    <col min="8" max="8" width="19.83203125"/>
+    <col min="9" max="1025" width="8.5"/>
   </cols>
   <sheetData>
-    <row r="1" s="23" customFormat="1" ht="12" spans="1:9">
+    <row r="1" spans="1:1021" s="23" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
@@ -3059,7 +2501,7 @@
       </c>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" s="15" customFormat="1" ht="14.4" customHeight="1" spans="1:1021">
+    <row r="2" spans="1:1021" s="15" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="21" t="s">
         <v>323</v>
       </c>
@@ -3078,7 +2520,7 @@
       <c r="AMF2" s="26"/>
       <c r="AMG2" s="26"/>
     </row>
-    <row r="3" s="15" customFormat="1" ht="14.4" customHeight="1" spans="1:1021">
+    <row r="3" spans="1:1021" s="15" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="21" t="s">
         <v>325</v>
       </c>
@@ -3097,7 +2539,7 @@
       <c r="AMF3" s="26"/>
       <c r="AMG3" s="26"/>
     </row>
-    <row r="4" s="15" customFormat="1" ht="14.4" customHeight="1" spans="1:1021">
+    <row r="4" spans="1:1021" s="15" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="21" t="s">
         <v>327</v>
       </c>
@@ -3116,7 +2558,7 @@
       <c r="AMF4" s="26"/>
       <c r="AMG4" s="26"/>
     </row>
-    <row r="5" s="15" customFormat="1" ht="14.4" customHeight="1" spans="1:1021">
+    <row r="5" spans="1:1021" s="15" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="21" t="s">
         <v>329</v>
       </c>
@@ -3135,7 +2577,7 @@
       <c r="AMF5" s="26"/>
       <c r="AMG5" s="26"/>
     </row>
-    <row r="6" s="15" customFormat="1" ht="14.4" customHeight="1" spans="1:1021">
+    <row r="6" spans="1:1021" s="15" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="21" t="s">
         <v>331</v>
       </c>
@@ -3154,7 +2596,7 @@
       <c r="AMF6" s="26"/>
       <c r="AMG6" s="26"/>
     </row>
-    <row r="7" s="15" customFormat="1" ht="14.4" customHeight="1" spans="1:1021">
+    <row r="7" spans="1:1021" s="15" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="21" t="s">
         <v>333</v>
       </c>
@@ -3173,7 +2615,7 @@
       <c r="AMF7" s="26"/>
       <c r="AMG7" s="26"/>
     </row>
-    <row r="8" s="15" customFormat="1" ht="14.4" customHeight="1" spans="1:1021">
+    <row r="8" spans="1:1021" s="15" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="21" t="s">
         <v>335</v>
       </c>
@@ -3192,7 +2634,7 @@
       <c r="AMF8" s="26"/>
       <c r="AMG8" s="26"/>
     </row>
-    <row r="9" s="15" customFormat="1" ht="14.4" customHeight="1" spans="1:1021">
+    <row r="9" spans="1:1021" s="15" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="21" t="s">
         <v>337</v>
       </c>
@@ -3211,7 +2653,7 @@
       <c r="AMF9" s="26"/>
       <c r="AMG9" s="26"/>
     </row>
-    <row r="10" s="15" customFormat="1" ht="14.4" customHeight="1" spans="1:1021">
+    <row r="10" spans="1:1021" s="15" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="21" t="s">
         <v>339</v>
       </c>
@@ -3230,7 +2672,7 @@
       <c r="AMF10" s="26"/>
       <c r="AMG10" s="26"/>
     </row>
-    <row r="11" s="15" customFormat="1" ht="14.4" customHeight="1" spans="1:1021">
+    <row r="11" spans="1:1021" s="15" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="21" t="s">
         <v>341</v>
       </c>
@@ -3249,7 +2691,7 @@
       <c r="AMF11" s="26"/>
       <c r="AMG11" s="26"/>
     </row>
-    <row r="12" s="15" customFormat="1" ht="14.4" customHeight="1" spans="1:1021">
+    <row r="12" spans="1:1021" s="15" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="21" t="s">
         <v>343</v>
       </c>
@@ -3268,7 +2710,7 @@
       <c r="AMF12" s="26"/>
       <c r="AMG12" s="26"/>
     </row>
-    <row r="13" ht="14.4" customHeight="1" spans="1:5">
+    <row r="13" spans="1:1021" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>345</v>
       </c>
@@ -3285,7 +2727,7 @@
         <v>10448504</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:1021" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>347</v>
       </c>
@@ -3302,7 +2744,7 @@
         <v>10440868</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:1021" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>349</v>
       </c>
@@ -3319,7 +2761,7 @@
         <v>10447780</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:1021" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>351</v>
       </c>
@@ -3336,7 +2778,7 @@
         <v>10444647</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>353</v>
       </c>
@@ -3353,7 +2795,7 @@
         <v>10447788</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>355</v>
       </c>
@@ -3370,7 +2812,7 @@
         <v>10444267</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>357</v>
       </c>
@@ -3387,7 +2829,7 @@
         <v>10444547</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>359</v>
       </c>
@@ -3404,7 +2846,7 @@
         <v>10445049</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>361</v>
       </c>
@@ -3422,37 +2864,35 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:I4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+  <dimension ref="A1:AMG4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.3333333333333" style="9"/>
-    <col min="2" max="2" width="33.8833333333333" style="9"/>
-    <col min="3" max="3" width="16.4416666666667" style="19"/>
-    <col min="4" max="4" width="16.4416666666667" style="15"/>
-    <col min="5" max="5" width="25.5583333333333" style="15" customWidth="1"/>
-    <col min="6" max="6" width="10.4416666666667" style="8"/>
-    <col min="7" max="7" width="40.3333333333333" style="9"/>
-    <col min="8" max="8" width="9.10833333333333" style="8"/>
-    <col min="9" max="9" width="19.8833333333333" style="8"/>
-    <col min="10" max="1021" width="9.10833333333333" style="8"/>
-    <col min="1024" max="1026" width="8.66666666666667"/>
+    <col min="1" max="1" width="20.33203125" style="9"/>
+    <col min="2" max="2" width="33.83203125" style="9"/>
+    <col min="3" max="3" width="16.5" style="19"/>
+    <col min="4" max="4" width="16.5" style="15"/>
+    <col min="5" max="5" width="25.5" style="15" customWidth="1"/>
+    <col min="6" max="6" width="10.5" style="8"/>
+    <col min="7" max="7" width="40.33203125" style="9"/>
+    <col min="8" max="8" width="9.1640625" style="8"/>
+    <col min="9" max="9" width="19.83203125" style="8"/>
+    <col min="10" max="1021" width="9.1640625" style="8"/>
+    <col min="1024" max="1026" width="8.6640625"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="12" spans="1:9">
+    <row r="1" spans="1:9" s="1" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3481,7 +2921,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
         <v>241</v>
       </c>
@@ -3498,8 +2938,8 @@
         <v>369</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="9" t="s">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="48" t="s">
         <v>370</v>
       </c>
       <c r="B3" s="9" t="s">
@@ -3515,7 +2955,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>300</v>
       </c>
@@ -3533,10 +2973,8 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G719">
-    <extLst/>
-  </autoFilter>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <autoFilter ref="A1:G719" xr:uid="{00000000-0009-0000-0000-00000B000000}"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
@@ -3546,27 +2984,26 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.8833333333333" customWidth="1"/>
-    <col min="2" max="2" width="12.6666666666667" customWidth="1"/>
-    <col min="4" max="4" width="17.8833333333333" customWidth="1"/>
-    <col min="5" max="5" width="10.1083333333333" customWidth="1"/>
-    <col min="6" max="6" width="9.88333333333333" customWidth="1"/>
-    <col min="7" max="7" width="10.3333333333333" customWidth="1"/>
-    <col min="8" max="8" width="10.6666666666667" customWidth="1"/>
-    <col min="9" max="9" width="19.6666666666667" customWidth="1"/>
+    <col min="1" max="1" width="25.83203125" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
+    <col min="4" max="4" width="17.83203125" customWidth="1"/>
+    <col min="5" max="5" width="10.1640625" customWidth="1"/>
+    <col min="6" max="6" width="9.83203125" customWidth="1"/>
+    <col min="7" max="7" width="10.33203125" customWidth="1"/>
+    <col min="8" max="8" width="10.6640625" customWidth="1"/>
+    <col min="9" max="9" width="19.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
@@ -3595,7 +3032,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" ht="15" customHeight="1" spans="1:6">
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
         <v>371</v>
       </c>
@@ -3612,7 +3049,7 @@
         <v>10440868</v>
       </c>
     </row>
-    <row r="3" ht="15" customHeight="1" spans="1:6">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
         <v>375</v>
       </c>
@@ -3629,7 +3066,7 @@
         <v>10441723</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>373</v>
       </c>
@@ -3646,7 +3083,7 @@
         <v>10445049</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
         <v>376</v>
       </c>
@@ -3665,37 +3102,142 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:L5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E0DB845-CD92-6A44-ACBA-7BA9C7C1DD93}">
+  <dimension ref="A1:I4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="19" customWidth="1"/>
+    <col min="2" max="2" width="17.1640625" customWidth="1"/>
+    <col min="3" max="3" width="20.5" customWidth="1"/>
+    <col min="4" max="4" width="19.6640625" customWidth="1"/>
+    <col min="5" max="5" width="19.1640625" customWidth="1"/>
+    <col min="6" max="6" width="16" customWidth="1"/>
+    <col min="8" max="8" width="23.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>499</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="47" t="s">
+        <v>504</v>
+      </c>
+      <c r="C2" t="s">
+        <v>370</v>
+      </c>
+      <c r="D2" s="47" t="s">
+        <v>503</v>
+      </c>
+      <c r="E2" s="47" t="s">
+        <v>502</v>
+      </c>
+      <c r="F2">
+        <v>0.5</v>
+      </c>
+      <c r="H2" s="46"/>
+    </row>
+    <row r="3" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="47" t="s">
+        <v>505</v>
+      </c>
+      <c r="C3" s="47" t="s">
+        <v>370</v>
+      </c>
+      <c r="D3" s="47" t="s">
+        <v>503</v>
+      </c>
+      <c r="E3" s="47" t="s">
+        <v>507</v>
+      </c>
+      <c r="F3">
+        <v>0.8</v>
+      </c>
+      <c r="H3" s="46"/>
+    </row>
+    <row r="4" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="47" t="s">
+        <v>506</v>
+      </c>
+      <c r="C4" s="47" t="s">
+        <v>370</v>
+      </c>
+      <c r="D4" s="47" t="s">
+        <v>503</v>
+      </c>
+      <c r="E4" s="47" t="s">
+        <v>508</v>
+      </c>
+      <c r="F4">
+        <v>0.02</v>
+      </c>
+      <c r="H4" s="46"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+  <dimension ref="A1:AMH5"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="38.6666666666667" style="8"/>
+    <col min="1" max="1" width="38.6640625" style="8"/>
     <col min="2" max="2" width="46" style="13"/>
-    <col min="3" max="3" width="32.8833333333333" style="8"/>
+    <col min="3" max="3" width="32.83203125" style="8"/>
     <col min="4" max="4" width="45" style="14"/>
-    <col min="5" max="5" width="29.3333333333333" style="14"/>
-    <col min="6" max="6" width="16.4416666666667" style="15"/>
-    <col min="7" max="8" width="8.44166666666667" style="8"/>
-    <col min="9" max="9" width="13.4416666666667" style="8"/>
-    <col min="10" max="10" width="37.3333333333333" style="8"/>
-    <col min="11" max="11" width="13.4416666666667" style="8"/>
-    <col min="12" max="12" width="19.8833333333333" style="8"/>
-    <col min="13" max="1022" width="8.44166666666667" style="8"/>
-    <col min="1023" max="1025" width="8.44166666666667"/>
+    <col min="5" max="5" width="29.33203125" style="14"/>
+    <col min="6" max="6" width="16.5" style="15"/>
+    <col min="7" max="8" width="8.5" style="8"/>
+    <col min="9" max="9" width="13.5" style="8"/>
+    <col min="10" max="10" width="37.33203125" style="8"/>
+    <col min="11" max="11" width="13.5" style="8"/>
+    <col min="12" max="12" width="19.83203125" style="8"/>
+    <col min="13" max="1022" width="8.5" style="8"/>
+    <col min="1023" max="1025" width="8.5"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="1" ht="15" customHeight="1" spans="1:12">
+    <row r="1" spans="1:12" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>377</v>
       </c>
@@ -3733,7 +3275,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" ht="15" customHeight="1" spans="1:11">
+    <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
         <v>384</v>
       </c>
@@ -3758,7 +3300,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="3" ht="15" customHeight="1" spans="1:11">
+    <row r="3" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
         <v>390</v>
       </c>
@@ -3780,7 +3322,7 @@
       <c r="J3" s="9"/>
       <c r="K3" s="9"/>
     </row>
-    <row r="4" ht="15" customHeight="1" spans="1:11">
+    <row r="4" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>392</v>
       </c>
@@ -3802,7 +3344,7 @@
       <c r="J4" s="9"/>
       <c r="K4" s="9"/>
     </row>
-    <row r="5" ht="15" customHeight="1" spans="1:11">
+    <row r="5" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
         <v>394</v>
       </c>
@@ -3825,40 +3367,35 @@
       <c r="K5" s="9"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J221">
-    <extLst/>
-  </autoFilter>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <autoFilter ref="A1:J221" xr:uid="{00000000-0009-0000-0000-00000D000000}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:F16"/>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+  <dimension ref="A1:AMK16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.4416666666667" style="11"/>
-    <col min="2" max="2" width="8.55833333333333" style="11"/>
-    <col min="3" max="3" width="11.5583333333333" style="11"/>
-    <col min="4" max="4" width="10.4416666666667" style="11"/>
-    <col min="5" max="5" width="10.6666666666667" style="11"/>
-    <col min="6" max="6" width="19.8833333333333" style="11"/>
-    <col min="7" max="1025" width="8.55833333333333" style="11"/>
+    <col min="1" max="1" width="19.5" style="11"/>
+    <col min="2" max="2" width="8.5" style="11"/>
+    <col min="3" max="3" width="11.5" style="11"/>
+    <col min="4" max="4" width="10.5" style="11"/>
+    <col min="5" max="5" width="10.6640625" style="11"/>
+    <col min="6" max="6" width="19.83203125" style="11"/>
+    <col min="7" max="1025" width="8.5" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" s="10" customFormat="1" ht="15.15" customHeight="1" spans="1:6">
+    <row r="1" spans="1:6" s="10" customFormat="1" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
         <v>397</v>
       </c>
@@ -3878,7 +3415,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" ht="15.15" customHeight="1" spans="1:6">
+    <row r="2" spans="1:6" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
         <v>400</v>
       </c>
@@ -3892,7 +3429,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="3" ht="15.15" customHeight="1" spans="1:5">
+    <row r="3" spans="1:6" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
         <v>403</v>
       </c>
@@ -3906,7 +3443,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="4" ht="15.15" customHeight="1" spans="1:3">
+    <row r="4" spans="1:6" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="11" t="s">
         <v>406</v>
       </c>
@@ -3917,7 +3454,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="5" ht="15.15" customHeight="1" spans="1:3">
+    <row r="5" spans="1:6" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
         <v>407</v>
       </c>
@@ -3928,7 +3465,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="6" ht="15.15" customHeight="1" spans="1:3">
+    <row r="6" spans="1:6" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="s">
         <v>408</v>
       </c>
@@ -3939,7 +3476,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="7" ht="15.15" customHeight="1" spans="1:3">
+    <row r="7" spans="1:6" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
         <v>409</v>
       </c>
@@ -3950,7 +3487,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="8" ht="15.15" customHeight="1" spans="1:3">
+    <row r="8" spans="1:6" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
         <v>410</v>
       </c>
@@ -3961,7 +3498,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="9" ht="15.15" customHeight="1" spans="1:3">
+    <row r="9" spans="1:6" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
         <v>411</v>
       </c>
@@ -3972,7 +3509,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="10" ht="15.15" customHeight="1" spans="1:3">
+    <row r="10" spans="1:6" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="12" t="s">
         <v>412</v>
       </c>
@@ -3983,7 +3520,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="11" ht="15.15" customHeight="1" spans="1:3">
+    <row r="11" spans="1:6" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="12" t="s">
         <v>413</v>
       </c>
@@ -3994,7 +3531,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="12" ht="15.15" customHeight="1" spans="1:3">
+    <row r="12" spans="1:6" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="12" t="s">
         <v>414</v>
       </c>
@@ -4005,7 +3542,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="11" t="s">
         <v>415</v>
       </c>
@@ -4016,7 +3553,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
         <v>416</v>
       </c>
@@ -4027,7 +3564,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="11" t="s">
         <v>417</v>
       </c>
@@ -4038,7 +3575,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="11" t="s">
         <v>418</v>
       </c>
@@ -4050,31 +3587,29 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16"/>
-    <col min="3" max="3" width="15.4416666666667"/>
-    <col min="5" max="5" width="10.5583333333333"/>
-    <col min="6" max="6" width="11.1083333333333"/>
-    <col min="7" max="7" width="20.5583333333333"/>
+    <col min="3" max="3" width="15.5"/>
+    <col min="5" max="5" width="10.5"/>
+    <col min="6" max="6" width="11.1640625"/>
+    <col min="7" max="7" width="20.5"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="12" spans="1:7">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4097,7 +3632,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" ht="14.4" customHeight="1" spans="1:4">
+    <row r="2" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>420</v>
       </c>
@@ -4109,186 +3644,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1"/>
-  <headerFooter>
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:H8"/>
-  <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="7"/>
-  <cols>
-    <col min="1" max="1" width="18.6666666666667" style="8"/>
-    <col min="2" max="2" width="23.4416666666667" style="8"/>
-    <col min="3" max="3" width="17.6666666666667" style="8"/>
-    <col min="4" max="4" width="18.6666666666667" style="8"/>
-    <col min="5" max="5" width="12.6666666666667" style="8"/>
-    <col min="6" max="6" width="14.6666666666667" style="8"/>
-    <col min="7" max="1022" width="37.3333333333333" style="8"/>
-    <col min="1023" max="1025" width="8.44166666666667"/>
-  </cols>
-  <sheetData>
-    <row r="1" s="1" customFormat="1" ht="12" spans="1:8">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>423</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="8" t="s">
-        <v>425</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>426</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>427</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>428</v>
-      </c>
-      <c r="E2" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="8" t="s">
-        <v>429</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>430</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>427</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>431</v>
-      </c>
-      <c r="E3" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="8" t="s">
-        <v>432</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>433</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>427</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>434</v>
-      </c>
-      <c r="E4" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="8" t="s">
-        <v>435</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>436</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>427</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>437</v>
-      </c>
-      <c r="E5" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>427</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>438</v>
-      </c>
-      <c r="E6" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="8" t="s">
-        <v>439</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>440</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>427</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>441</v>
-      </c>
-      <c r="E7" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="8" t="s">
-        <v>442</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>440</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>427</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>441</v>
-      </c>
-      <c r="E8" s="8">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:F220">
-    <extLst/>
-  </autoFilter>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
@@ -4298,247 +3654,26 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:H9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+  <dimension ref="A1:AMH8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection/>
-      <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A10" sqref="A10"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.3333333333333" style="4"/>
-    <col min="2" max="2" width="18.2166666666667" style="4" customWidth="1"/>
-    <col min="3" max="3" width="10.6666666666667" style="4"/>
-    <col min="4" max="4" width="10.4416666666667" style="4"/>
-    <col min="5" max="5" width="11" style="4"/>
-    <col min="6" max="6" width="28.6666666666667" style="4"/>
-    <col min="7" max="7" width="11" style="4"/>
-    <col min="8" max="8" width="20" style="4"/>
-    <col min="9" max="1025" width="8.66666666666667" style="4"/>
+    <col min="1" max="1" width="18.6640625" style="8"/>
+    <col min="2" max="2" width="23.5" style="8"/>
+    <col min="3" max="3" width="17.6640625" style="8"/>
+    <col min="4" max="4" width="18.6640625" style="8"/>
+    <col min="5" max="5" width="12.6640625" style="8"/>
+    <col min="6" max="6" width="14.6640625" style="8"/>
+    <col min="7" max="1022" width="37.33203125" style="8"/>
+    <col min="1023" max="1025" width="8.5"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1" spans="1:8">
-      <c r="A1" s="5" t="s">
-        <v>377</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>443</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>419</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>399</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="6" t="s">
-        <v>444</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>425</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>445</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>446</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2"/>
-      <c r="H2"/>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="6" t="s">
-        <v>447</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>429</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>445</v>
-      </c>
-      <c r="D3" s="45" t="s">
-        <v>448</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>449</v>
-      </c>
-      <c r="H3"/>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="6" t="s">
-        <v>450</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>432</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>445</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>451</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>452</v>
-      </c>
-      <c r="H4"/>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="6" t="s">
-        <v>453</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>435</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>445</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>446</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>454</v>
-      </c>
-      <c r="H5"/>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="6" t="s">
-        <v>455</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>445</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>456</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>457</v>
-      </c>
-      <c r="H6"/>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="6" t="s">
-        <v>458</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>459</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>460</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="H7"/>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="6" t="s">
-        <v>461</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>439</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>445</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>462</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="6" t="s">
-        <v>464</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>442</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>445</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>465</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>466</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:F9">
-    <extLst/>
-  </autoFilter>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:H6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="7"/>
-  <cols>
-    <col min="1" max="5" width="8.55833333333333"/>
-    <col min="6" max="6" width="10.5583333333333"/>
-    <col min="7" max="7" width="11.1083333333333"/>
-    <col min="8" max="8" width="20.5583333333333"/>
-    <col min="9" max="1025" width="8.55833333333333"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4546,13 +3681,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>398</v>
+        <v>422</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>467</v>
+        <v>423</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>399</v>
+        <v>424</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>11</v>
@@ -4564,270 +3699,128 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
-      <c r="A2" t="s">
-        <v>468</v>
-      </c>
-      <c r="B2" t="s">
-        <v>469</v>
-      </c>
-      <c r="C2">
-        <v>20.5</v>
-      </c>
-      <c r="D2">
-        <v>0.005</v>
-      </c>
-      <c r="E2" t="s">
-        <v>470</v>
-      </c>
-      <c r="H2" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" t="s">
-        <v>472</v>
-      </c>
-      <c r="B3" t="s">
-        <v>473</v>
-      </c>
-      <c r="C3">
-        <v>1.35</v>
-      </c>
-      <c r="D3">
-        <v>0.006</v>
-      </c>
-      <c r="E3" t="s">
-        <v>470</v>
-      </c>
-      <c r="H3" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" t="s">
-        <v>475</v>
-      </c>
-      <c r="B4" t="s">
-        <v>476</v>
-      </c>
-      <c r="C4">
-        <v>0.46</v>
-      </c>
-      <c r="D4">
-        <v>0.006</v>
-      </c>
-      <c r="E4" t="s">
-        <v>401</v>
-      </c>
-      <c r="H4" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" t="s">
-        <v>477</v>
-      </c>
-      <c r="B5" t="s">
-        <v>478</v>
-      </c>
-      <c r="C5">
-        <v>1.2</v>
-      </c>
-      <c r="D5">
-        <v>0.006</v>
-      </c>
-      <c r="E5" t="s">
-        <v>401</v>
-      </c>
-      <c r="H5" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>446</v>
-      </c>
-      <c r="B6" t="s">
-        <v>479</v>
-      </c>
-      <c r="C6">
-        <v>2.1</v>
-      </c>
-      <c r="D6">
-        <v>0.001</v>
-      </c>
-      <c r="E6" t="s">
-        <v>480</v>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="8" t="s">
+        <v>425</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>426</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>427</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>428</v>
+      </c>
+      <c r="E2" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="s">
+        <v>429</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>430</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>427</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>431</v>
+      </c>
+      <c r="E3" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="8" t="s">
+        <v>432</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>433</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>427</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>434</v>
+      </c>
+      <c r="E4" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="8" t="s">
+        <v>435</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>436</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>427</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>437</v>
+      </c>
+      <c r="E5" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>427</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>438</v>
+      </c>
+      <c r="E6" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="8" t="s">
+        <v>439</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>440</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>427</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>441</v>
+      </c>
+      <c r="E7" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="8" t="s">
+        <v>442</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>440</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>427</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>441</v>
+      </c>
+      <c r="E8" s="8">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection/>
-      <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="1"/>
-  <cols>
-    <col min="1" max="1" width="16.4416666666667" style="42"/>
-    <col min="2" max="2" width="51.1083333333333" style="8"/>
-    <col min="3" max="1025" width="8.44166666666667"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="15" customHeight="1" spans="1:2">
-      <c r="A1" s="43" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="44" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="42" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="8">
-        <v>9606</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" s="42" t="s">
-        <v>11</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:B4">
-    <extLst/>
-  </autoFilter>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:G5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="6"/>
-  <cols>
-    <col min="1" max="1" width="17.6666666666667"/>
-    <col min="2" max="2" width="15.5583333333333"/>
-    <col min="4" max="4" width="13.1083333333333"/>
-    <col min="5" max="5" width="10.5583333333333"/>
-    <col min="6" max="6" width="11.1083333333333"/>
-    <col min="7" max="7" width="19.8833333333333"/>
-    <col min="1021" max="1025" width="8.66666666666667"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>481</v>
-      </c>
-      <c r="B2" t="s">
-        <v>482</v>
-      </c>
-      <c r="C2" s="2">
-        <v>3e-12</v>
-      </c>
-      <c r="D2" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>484</v>
-      </c>
-      <c r="B3" t="s">
-        <v>485</v>
-      </c>
-      <c r="C3" s="2">
-        <v>10000000</v>
-      </c>
-      <c r="D3" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>487</v>
-      </c>
-      <c r="B4" t="s">
-        <v>488</v>
-      </c>
-      <c r="C4">
-        <v>0.7</v>
-      </c>
-      <c r="D4" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>490</v>
-      </c>
-      <c r="B5" t="s">
-        <v>491</v>
-      </c>
-      <c r="C5">
-        <v>71280</v>
-      </c>
-      <c r="D5" t="s">
-        <v>492</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <autoFilter ref="A1:F220" xr:uid="{00000000-0009-0000-0000-000010000000}"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
@@ -4836,23 +3829,548 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
+  <dimension ref="A1:AMK9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A10" sqref="A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="20.33203125" style="4"/>
+    <col min="2" max="2" width="18.1640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" style="4"/>
+    <col min="4" max="4" width="10.5" style="4"/>
+    <col min="5" max="5" width="11" style="4"/>
+    <col min="6" max="6" width="28.6640625" style="4"/>
+    <col min="7" max="7" width="11" style="4"/>
+    <col min="8" max="8" width="20" style="4"/>
+    <col min="9" max="1025" width="8.6640625" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>443</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>419</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>399</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
+        <v>444</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>425</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>445</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2"/>
+      <c r="H2"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>445</v>
+      </c>
+      <c r="D3" s="45" t="s">
+        <v>448</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>449</v>
+      </c>
+      <c r="H3"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>432</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>445</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>451</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>452</v>
+      </c>
+      <c r="H4"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
+        <v>453</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>445</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="H5"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
+        <v>455</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>445</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>456</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>457</v>
+      </c>
+      <c r="H6"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
+        <v>458</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>459</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>460</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="H7"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="s">
+        <v>461</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>439</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>445</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>462</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="6" t="s">
+        <v>464</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>442</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>445</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>465</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>466</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:F9" xr:uid="{00000000-0009-0000-0000-000011000000}"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16.5" style="42"/>
+    <col min="2" max="2" width="51.1640625" style="8"/>
+    <col min="3" max="1025" width="8.5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="44" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="8">
+        <v>9606</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="42" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:B4" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="5" width="8.5"/>
+    <col min="6" max="6" width="10.5"/>
+    <col min="7" max="7" width="11.1640625"/>
+    <col min="8" max="8" width="20.5"/>
+    <col min="9" max="1025" width="8.5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>468</v>
+      </c>
+      <c r="B2" t="s">
+        <v>469</v>
+      </c>
+      <c r="C2">
+        <v>20.5</v>
+      </c>
+      <c r="D2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>470</v>
+      </c>
+      <c r="H2" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>472</v>
+      </c>
+      <c r="B3" t="s">
+        <v>473</v>
+      </c>
+      <c r="C3">
+        <v>1.35</v>
+      </c>
+      <c r="D3">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="E3" t="s">
+        <v>470</v>
+      </c>
+      <c r="H3" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>475</v>
+      </c>
+      <c r="B4" t="s">
+        <v>476</v>
+      </c>
+      <c r="C4">
+        <v>0.46</v>
+      </c>
+      <c r="D4">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>401</v>
+      </c>
+      <c r="H4" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>477</v>
+      </c>
+      <c r="B5" t="s">
+        <v>478</v>
+      </c>
+      <c r="C5">
+        <v>1.2</v>
+      </c>
+      <c r="D5">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="E5" t="s">
+        <v>401</v>
+      </c>
+      <c r="H5" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>446</v>
+      </c>
+      <c r="B6" t="s">
+        <v>479</v>
+      </c>
+      <c r="C6">
+        <v>2.1</v>
+      </c>
+      <c r="D6">
+        <v>1E-3</v>
+      </c>
+      <c r="E6" t="s">
+        <v>480</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.6640625"/>
+    <col min="2" max="2" width="15.5"/>
+    <col min="4" max="4" width="13.1640625"/>
+    <col min="5" max="5" width="10.5"/>
+    <col min="6" max="6" width="11.1640625"/>
+    <col min="7" max="7" width="19.83203125"/>
+    <col min="1021" max="1025" width="8.6640625"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>481</v>
+      </c>
+      <c r="B2" t="s">
+        <v>482</v>
+      </c>
+      <c r="C2" s="2">
+        <v>3.0000000000000001E-12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>484</v>
+      </c>
+      <c r="B3" t="s">
+        <v>485</v>
+      </c>
+      <c r="C3" s="2">
+        <v>10000000</v>
+      </c>
+      <c r="D3" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>487</v>
+      </c>
+      <c r="B4" t="s">
+        <v>488</v>
+      </c>
+      <c r="C4">
+        <v>0.7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>490</v>
+      </c>
+      <c r="B5" t="s">
+        <v>491</v>
+      </c>
+      <c r="C5">
+        <v>71280</v>
+      </c>
+      <c r="D5" t="s">
+        <v>492</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.55833333333333"/>
-    <col min="2" max="2" width="18.5583333333333"/>
-    <col min="3" max="1025" width="8.55833333333333"/>
+    <col min="1" max="1" width="8.5"/>
+    <col min="2" max="2" width="18.5"/>
+    <col min="3" max="1025" width="8.5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>493</v>
       </c>
@@ -4860,7 +4378,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>389</v>
       </c>
@@ -4868,7 +4386,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>405</v>
       </c>
@@ -4876,7 +4394,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>497</v>
       </c>
@@ -4885,34 +4403,32 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:F5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:AMF5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.10833333333333" style="39"/>
-    <col min="2" max="2" width="16.1083333333333" style="8"/>
-    <col min="3" max="3" width="17.6666666666667" style="8"/>
-    <col min="4" max="4" width="11.3333333333333" style="8"/>
-    <col min="5" max="5" width="11.1083333333333" style="8"/>
-    <col min="6" max="6" width="20.5583333333333" style="8"/>
-    <col min="7" max="1020" width="9.10833333333333" style="8"/>
-    <col min="1024" max="1025" width="8.66666666666667"/>
+    <col min="1" max="1" width="9.1640625" style="39"/>
+    <col min="2" max="2" width="16.1640625" style="8"/>
+    <col min="3" max="3" width="17.6640625" style="8"/>
+    <col min="4" max="4" width="11.33203125" style="8"/>
+    <col min="5" max="5" width="11.1640625" style="8"/>
+    <col min="6" max="6" width="20.5" style="8"/>
+    <col min="7" max="1020" width="9.1640625" style="8"/>
+    <col min="1024" max="1025" width="8.6640625"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="12" spans="1:6">
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4932,7 +4448,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="39" t="s">
         <v>18</v>
       </c>
@@ -4949,7 +4465,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="39" t="s">
         <v>22</v>
       </c>
@@ -4961,7 +4477,7 @@
       </c>
       <c r="F3"/>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="39" t="s">
         <v>24</v>
       </c>
@@ -4975,7 +4491,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="39" t="s">
         <v>27</v>
       </c>
@@ -4984,7 +4500,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
@@ -4994,27 +4510,26 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:G9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:AMH9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.8833333333333" style="41"/>
-    <col min="2" max="2" width="39.4416666666667" style="41"/>
-    <col min="3" max="3" width="13.6666666666667" style="8"/>
-    <col min="4" max="4" width="10.6666666666667" style="8"/>
+    <col min="1" max="1" width="23.83203125" style="41"/>
+    <col min="2" max="2" width="39.5" style="41"/>
+    <col min="3" max="3" width="13.6640625" style="8"/>
+    <col min="4" max="4" width="10.6640625" style="8"/>
     <col min="5" max="5" width="55" style="41"/>
-    <col min="6" max="6" width="9.10833333333333" style="8"/>
-    <col min="7" max="7" width="19.8833333333333" style="8"/>
-    <col min="8" max="1022" width="9.10833333333333" style="8"/>
+    <col min="6" max="6" width="9.1640625" style="8"/>
+    <col min="7" max="7" width="19.83203125" style="8"/>
+    <col min="8" max="1022" width="9.1640625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="12" spans="1:7">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5037,7 +4552,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>31</v>
       </c>
@@ -5045,7 +4560,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>33</v>
       </c>
@@ -5056,7 +4571,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>36</v>
       </c>
@@ -5064,7 +4579,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>38</v>
       </c>
@@ -5072,7 +4587,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="17" t="s">
         <v>40</v>
       </c>
@@ -5083,7 +4598,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="41" t="s">
         <v>43</v>
       </c>
@@ -5094,7 +4609,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="41" t="s">
         <v>46</v>
       </c>
@@ -5105,7 +4620,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="41" t="s">
         <v>49</v>
       </c>
@@ -5117,7 +4632,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
@@ -5127,28 +4642,27 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.1083333333333" style="39"/>
+    <col min="1" max="1" width="14.1640625" style="39"/>
     <col min="2" max="2" width="13" style="15"/>
-    <col min="3" max="4" width="11.6666666666667" style="8"/>
-    <col min="5" max="5" width="22.1083333333333" style="8"/>
-    <col min="6" max="6" width="9.10833333333333" style="8"/>
-    <col min="7" max="8" width="13.4416666666667" style="8"/>
-    <col min="9" max="9" width="13.4416666666667"/>
-    <col min="10" max="10" width="19.8833333333333"/>
-    <col min="11" max="12" width="13.4416666666667"/>
+    <col min="3" max="4" width="11.6640625" style="8"/>
+    <col min="5" max="5" width="22.1640625" style="8"/>
+    <col min="6" max="6" width="9.1640625" style="8"/>
+    <col min="7" max="8" width="13.5" style="8"/>
+    <col min="9" max="9" width="13.5"/>
+    <col min="10" max="10" width="19.83203125"/>
+    <col min="11" max="12" width="13.5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5180,7 +4694,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="39" t="s">
         <v>57</v>
       </c>
@@ -5199,7 +4713,7 @@
       </c>
       <c r="G2" s="15"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="39" t="s">
         <v>58</v>
       </c>
@@ -5216,7 +4730,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="39" t="s">
         <v>59</v>
       </c>
@@ -5233,7 +4747,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="39" t="s">
         <v>60</v>
       </c>
@@ -5250,7 +4764,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="39" t="s">
         <v>61</v>
       </c>
@@ -5267,7 +4781,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="39" t="s">
         <v>62</v>
       </c>
@@ -5284,7 +4798,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="39" t="s">
         <v>63</v>
       </c>
@@ -5301,7 +4815,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="39" t="s">
         <v>64</v>
       </c>
@@ -5318,7 +4832,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="39" t="s">
         <v>65</v>
       </c>
@@ -5335,7 +4849,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="39" t="s">
         <v>66</v>
       </c>
@@ -5352,7 +4866,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="39" t="s">
         <v>67</v>
       </c>
@@ -5369,7 +4883,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="39" t="s">
         <v>68</v>
       </c>
@@ -5386,7 +4900,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="39" t="s">
         <v>69</v>
       </c>
@@ -5403,7 +4917,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="39" t="s">
         <v>70</v>
       </c>
@@ -5420,7 +4934,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="39" t="s">
         <v>71</v>
       </c>
@@ -5437,7 +4951,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="39" t="s">
         <v>72</v>
       </c>
@@ -5454,7 +4968,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="39" t="s">
         <v>73</v>
       </c>
@@ -5471,7 +4985,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="39" t="s">
         <v>74</v>
       </c>
@@ -5488,7 +5002,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="39" t="s">
         <v>75</v>
       </c>
@@ -5505,7 +5019,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="39" t="s">
         <v>76</v>
       </c>
@@ -5522,7 +5036,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="39" t="s">
         <v>77</v>
       </c>
@@ -5539,7 +5053,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="39" t="s">
         <v>78</v>
       </c>
@@ -5556,7 +5070,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="39" t="s">
         <v>79</v>
       </c>
@@ -5573,7 +5087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="39" t="s">
         <v>80</v>
       </c>
@@ -5590,7 +5104,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="39" t="s">
         <v>81</v>
       </c>
@@ -5608,7 +5122,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
@@ -5618,27 +5132,26 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AMI37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.4416666666667" style="15"/>
-    <col min="2" max="2" width="16.4416666666667" style="15"/>
-    <col min="3" max="3" width="42.4416666666667" style="9"/>
-    <col min="4" max="6" width="13.4416666666667" style="19"/>
-    <col min="7" max="8" width="13.4416666666667" style="15"/>
-    <col min="9" max="9" width="16.4416666666667" style="27"/>
-    <col min="10" max="1023" width="32.5583333333333" style="8"/>
-    <col min="1024" max="1025" width="8.44166666666667"/>
+    <col min="1" max="1" width="17.5" style="15"/>
+    <col min="2" max="2" width="16.5" style="15"/>
+    <col min="3" max="3" width="42.5" style="9"/>
+    <col min="4" max="6" width="13.5" style="19"/>
+    <col min="7" max="8" width="13.5" style="15"/>
+    <col min="9" max="9" width="16.5" style="27"/>
+    <col min="10" max="1023" width="32.5" style="8"/>
+    <col min="1024" max="1025" width="8.5"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="12" spans="1:1023">
+    <row r="1" spans="1:1023" s="1" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5679,7 +5192,7 @@
       <c r="AMH1" s="8"/>
       <c r="AMI1" s="8"/>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:1023" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
         <v>88</v>
       </c>
@@ -5705,7 +5218,7 @@
         <v>20651511</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:1023" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
         <v>93</v>
       </c>
@@ -5731,7 +5244,7 @@
         <v>10448504</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:1023" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
         <v>97</v>
       </c>
@@ -5757,7 +5270,7 @@
         <v>69387254</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:1023" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
         <v>100</v>
       </c>
@@ -5783,7 +5296,7 @@
         <v>40574685</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:1023" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
         <v>103</v>
       </c>
@@ -5809,7 +5322,7 @@
         <v>112649530</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:1023" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
         <v>106</v>
       </c>
@@ -5835,7 +5348,7 @@
         <v>83605875</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:1023" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
         <v>109</v>
       </c>
@@ -5861,7 +5374,7 @@
         <v>127899195</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:1023" x14ac:dyDescent="0.2">
       <c r="A9" s="15" t="s">
         <v>112</v>
       </c>
@@ -5887,7 +5400,7 @@
         <v>160421711</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:1023" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="s">
         <v>115</v>
       </c>
@@ -5913,7 +5426,7 @@
         <v>152129619</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:1023" x14ac:dyDescent="0.2">
       <c r="A11" s="15" t="s">
         <v>118</v>
       </c>
@@ -5939,7 +5452,7 @@
         <v>56051604</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:1023" x14ac:dyDescent="0.2">
       <c r="A12" s="15" t="s">
         <v>121</v>
       </c>
@@ -5965,7 +5478,7 @@
         <v>18084998</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:1023" x14ac:dyDescent="0.2">
       <c r="A13" s="15" t="s">
         <v>124</v>
       </c>
@@ -5991,7 +5504,7 @@
         <v>19967258</v>
       </c>
     </row>
-    <row r="14" ht="15" customHeight="1" spans="1:8">
+    <row r="14" spans="1:1023" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="15" t="s">
         <v>127</v>
       </c>
@@ -6017,7 +5530,7 @@
         <v>136423761</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:1023" x14ac:dyDescent="0.2">
       <c r="A15" s="15" t="s">
         <v>130</v>
       </c>
@@ -6043,7 +5556,7 @@
         <v>7787981</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:1023" x14ac:dyDescent="0.2">
       <c r="A16" s="15" t="s">
         <v>133</v>
       </c>
@@ -6069,7 +5582,7 @@
         <v>133421307</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="15" t="s">
         <v>136</v>
       </c>
@@ -6095,7 +5608,7 @@
         <v>13732346</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="15" t="s">
         <v>139</v>
       </c>
@@ -6121,7 +5634,7 @@
         <v>114450279</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="15" t="s">
         <v>142</v>
       </c>
@@ -6147,7 +5660,7 @@
         <v>77065580</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="15" t="s">
         <v>145</v>
       </c>
@@ -6173,7 +5686,7 @@
         <v>113359493</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="15" t="s">
         <v>148</v>
       </c>
@@ -6199,7 +5712,7 @@
         <v>52476628</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="15" t="s">
         <v>151</v>
       </c>
@@ -6225,7 +5738,7 @@
         <v>103057462</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="15" t="s">
         <v>154</v>
       </c>
@@ -6251,7 +5764,7 @@
         <v>65578352</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="15" t="s">
         <v>157</v>
       </c>
@@ -6277,7 +5790,7 @@
         <v>101251932</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="15" t="s">
         <v>160</v>
       </c>
@@ -6303,7 +5816,7 @@
         <v>89155846</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="15" t="s">
         <v>163</v>
       </c>
@@ -6329,7 +5842,7 @@
         <v>49223225</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="15" t="s">
         <v>166</v>
       </c>
@@ -6355,7 +5868,7 @@
         <v>50988121</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="15" t="s">
         <v>169</v>
       </c>
@@ -6381,7 +5894,7 @@
         <v>41440717</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="15" t="s">
         <v>172</v>
       </c>
@@ -6407,7 +5920,7 @@
         <v>47784686</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="15" t="s">
         <v>175</v>
       </c>
@@ -6433,7 +5946,7 @@
         <v>13638940</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="15" t="s">
         <v>178</v>
       </c>
@@ -6459,7 +5972,7 @@
         <v>44652233</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="15" t="s">
         <v>181</v>
       </c>
@@ -6485,7 +5998,7 @@
         <v>31668931</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="15" t="s">
         <v>184</v>
       </c>
@@ -6511,7 +6024,7 @@
         <v>20859417</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="15" t="s">
         <v>187</v>
       </c>
@@ -6537,7 +6050,7 @@
         <v>38738299</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="15" t="s">
         <v>190</v>
       </c>
@@ -6563,7 +6076,7 @@
         <v>119605895</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="15" t="s">
         <v>193</v>
       </c>
@@ -6589,7 +6102,7 @@
         <v>23005465</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="15" t="s">
         <v>196</v>
       </c>
@@ -6616,10 +6129,8 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:H1064">
-    <extLst/>
-  </autoFilter>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <autoFilter ref="B1:H1064" xr:uid="{00000000-0009-0000-0000-000005000000}"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
@@ -6629,38 +6140,37 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:AMK37"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="16.4416666666667" style="15"/>
+    <col min="1" max="3" width="16.5" style="15"/>
     <col min="4" max="4" width="22" style="15"/>
-    <col min="5" max="5" width="13.6666666666667" style="15"/>
-    <col min="6" max="6" width="9.10833333333333" style="15"/>
-    <col min="7" max="7" width="25.1083333333333" style="15"/>
-    <col min="8" max="8" width="13.4416666666667" style="15"/>
-    <col min="9" max="9" width="16.3333333333333" style="15" customWidth="1"/>
-    <col min="10" max="10" width="15.4416666666667" style="15" customWidth="1"/>
-    <col min="11" max="11" width="18.5583333333333" style="15" customWidth="1"/>
-    <col min="12" max="12" width="23.3333333333333" style="15"/>
-    <col min="13" max="13" width="25.1083333333333" style="8"/>
-    <col min="14" max="14" width="19.8833333333333"/>
-    <col min="15" max="15" width="9.10833333333333" style="19"/>
-    <col min="16" max="16" width="10.4416666666667" style="19"/>
-    <col min="17" max="17" width="10.6666666666667" style="19"/>
-    <col min="18" max="19" width="9.10833333333333" style="15"/>
-    <col min="20" max="20" width="22.8833333333333" style="19"/>
-    <col min="21" max="1016" width="9.10833333333333" style="15"/>
-    <col min="1017" max="1025" width="9.10833333333333" style="8"/>
+    <col min="5" max="5" width="13.6640625" style="15"/>
+    <col min="6" max="6" width="9.1640625" style="15"/>
+    <col min="7" max="7" width="25.1640625" style="15"/>
+    <col min="8" max="8" width="13.5" style="15"/>
+    <col min="9" max="9" width="16.33203125" style="15" customWidth="1"/>
+    <col min="10" max="10" width="15.5" style="15" customWidth="1"/>
+    <col min="11" max="11" width="18.5" style="15" customWidth="1"/>
+    <col min="12" max="12" width="23.33203125" style="15"/>
+    <col min="13" max="13" width="25.1640625" style="8"/>
+    <col min="14" max="14" width="19.83203125"/>
+    <col min="15" max="15" width="9.1640625" style="19"/>
+    <col min="16" max="16" width="10.5" style="19"/>
+    <col min="17" max="17" width="10.6640625" style="19"/>
+    <col min="18" max="19" width="9.1640625" style="15"/>
+    <col min="20" max="20" width="22.83203125" style="19"/>
+    <col min="21" max="1016" width="9.1640625" style="15"/>
+    <col min="1017" max="1025" width="9.1640625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="12" spans="1:1025">
+    <row r="1" spans="1:1025" s="1" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6719,7 +6229,7 @@
       <c r="AMJ1" s="37"/>
       <c r="AMK1" s="37"/>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:1025" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
         <v>203</v>
       </c>
@@ -6755,7 +6265,7 @@
       <c r="R2" s="18"/>
       <c r="S2" s="18"/>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:1025" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
         <v>207</v>
       </c>
@@ -6791,7 +6301,7 @@
       <c r="R3" s="18"/>
       <c r="S3" s="18"/>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:1025" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
         <v>210</v>
       </c>
@@ -6827,7 +6337,7 @@
       <c r="R4" s="18"/>
       <c r="S4" s="18"/>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:1025" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
         <v>214</v>
       </c>
@@ -6863,7 +6373,7 @@
       <c r="R5" s="18"/>
       <c r="S5" s="18"/>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:1025" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
         <v>218</v>
       </c>
@@ -6899,7 +6409,7 @@
       <c r="R6" s="18"/>
       <c r="S6" s="18"/>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:1025" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
         <v>221</v>
       </c>
@@ -6935,7 +6445,7 @@
       <c r="R7" s="18"/>
       <c r="S7" s="18"/>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:1025" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
         <v>223</v>
       </c>
@@ -6971,7 +6481,7 @@
       <c r="R8" s="18"/>
       <c r="S8" s="18"/>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:1025" x14ac:dyDescent="0.2">
       <c r="A9" s="15" t="s">
         <v>226</v>
       </c>
@@ -7007,7 +6517,7 @@
       <c r="R9" s="18"/>
       <c r="S9" s="18"/>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:1025" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="s">
         <v>228</v>
       </c>
@@ -7043,7 +6553,7 @@
       <c r="R10" s="18"/>
       <c r="S10" s="18"/>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:1025" x14ac:dyDescent="0.2">
       <c r="A11" s="15" t="s">
         <v>230</v>
       </c>
@@ -7079,7 +6589,7 @@
       <c r="R11" s="18"/>
       <c r="S11" s="18"/>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:1025" x14ac:dyDescent="0.2">
       <c r="A12" s="15" t="s">
         <v>232</v>
       </c>
@@ -7115,7 +6625,7 @@
       <c r="R12" s="18"/>
       <c r="S12" s="18"/>
     </row>
-    <row r="13" spans="1:19">
+    <row r="13" spans="1:1025" x14ac:dyDescent="0.2">
       <c r="A13" s="15" t="s">
         <v>234</v>
       </c>
@@ -7151,7 +6661,7 @@
       <c r="R13" s="18"/>
       <c r="S13" s="18"/>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:1025" x14ac:dyDescent="0.2">
       <c r="A14" s="15" t="s">
         <v>236</v>
       </c>
@@ -7187,7 +6697,7 @@
       <c r="R14" s="18"/>
       <c r="S14" s="18"/>
     </row>
-    <row r="15" spans="1:19">
+    <row r="15" spans="1:1025" x14ac:dyDescent="0.2">
       <c r="A15" s="15" t="s">
         <v>238</v>
       </c>
@@ -7226,7 +6736,7 @@
       <c r="R15" s="18"/>
       <c r="S15" s="18"/>
     </row>
-    <row r="16" spans="1:19">
+    <row r="16" spans="1:1025" x14ac:dyDescent="0.2">
       <c r="A16" s="15" t="s">
         <v>242</v>
       </c>
@@ -7262,7 +6772,7 @@
       <c r="R16" s="18"/>
       <c r="S16" s="18"/>
     </row>
-    <row r="17" spans="1:19">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A17" s="15" t="s">
         <v>244</v>
       </c>
@@ -7298,7 +6808,7 @@
       <c r="R17" s="18"/>
       <c r="S17" s="18"/>
     </row>
-    <row r="18" spans="1:19">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A18" s="15" t="s">
         <v>246</v>
       </c>
@@ -7334,7 +6844,7 @@
       <c r="R18" s="18"/>
       <c r="S18" s="18"/>
     </row>
-    <row r="19" ht="15" customHeight="1" spans="1:19">
+    <row r="19" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="15" t="s">
         <v>248</v>
       </c>
@@ -7373,7 +6883,7 @@
       <c r="R19" s="18"/>
       <c r="S19" s="18"/>
     </row>
-    <row r="20" spans="1:19">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A20" s="15" t="s">
         <v>251</v>
       </c>
@@ -7409,7 +6919,7 @@
       <c r="R20" s="18"/>
       <c r="S20" s="18"/>
     </row>
-    <row r="21" spans="1:19">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A21" s="15" t="s">
         <v>253</v>
       </c>
@@ -7445,7 +6955,7 @@
       <c r="R21" s="18"/>
       <c r="S21" s="18"/>
     </row>
-    <row r="22" spans="1:19">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A22" s="15" t="s">
         <v>255</v>
       </c>
@@ -7481,7 +6991,7 @@
       <c r="R22" s="18"/>
       <c r="S22" s="18"/>
     </row>
-    <row r="23" spans="1:19">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A23" s="15" t="s">
         <v>257</v>
       </c>
@@ -7517,7 +7027,7 @@
       <c r="R23" s="18"/>
       <c r="S23" s="18"/>
     </row>
-    <row r="24" spans="1:19">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A24" s="15" t="s">
         <v>259</v>
       </c>
@@ -7553,7 +7063,7 @@
       <c r="R24" s="18"/>
       <c r="S24" s="18"/>
     </row>
-    <row r="25" spans="1:19">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A25" s="15" t="s">
         <v>261</v>
       </c>
@@ -7589,7 +7099,7 @@
       <c r="R25" s="18"/>
       <c r="S25" s="18"/>
     </row>
-    <row r="26" spans="1:19">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A26" s="15" t="s">
         <v>263</v>
       </c>
@@ -7625,7 +7135,7 @@
       <c r="R26" s="18"/>
       <c r="S26" s="18"/>
     </row>
-    <row r="27" spans="1:19">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A27" s="15" t="s">
         <v>265</v>
       </c>
@@ -7661,7 +7171,7 @@
       <c r="R27" s="18"/>
       <c r="S27" s="18"/>
     </row>
-    <row r="28" spans="1:19">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A28" s="15" t="s">
         <v>267</v>
       </c>
@@ -7697,7 +7207,7 @@
       <c r="R28" s="18"/>
       <c r="S28" s="18"/>
     </row>
-    <row r="29" spans="1:19">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A29" s="15" t="s">
         <v>269</v>
       </c>
@@ -7733,7 +7243,7 @@
       <c r="R29" s="18"/>
       <c r="S29" s="18"/>
     </row>
-    <row r="30" spans="1:19">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A30" s="15" t="s">
         <v>271</v>
       </c>
@@ -7769,7 +7279,7 @@
       <c r="R30" s="18"/>
       <c r="S30" s="18"/>
     </row>
-    <row r="31" spans="1:19">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A31" s="15" t="s">
         <v>273</v>
       </c>
@@ -7805,7 +7315,7 @@
       <c r="R31" s="18"/>
       <c r="S31" s="18"/>
     </row>
-    <row r="32" spans="1:19">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A32" s="15" t="s">
         <v>275</v>
       </c>
@@ -7841,7 +7351,7 @@
       <c r="R32" s="18"/>
       <c r="S32" s="18"/>
     </row>
-    <row r="33" spans="1:19">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A33" s="15" t="s">
         <v>277</v>
       </c>
@@ -7877,7 +7387,7 @@
       <c r="R33" s="18"/>
       <c r="S33" s="18"/>
     </row>
-    <row r="34" spans="1:19">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A34" s="15" t="s">
         <v>279</v>
       </c>
@@ -7913,7 +7423,7 @@
       <c r="R34" s="18"/>
       <c r="S34" s="18"/>
     </row>
-    <row r="35" spans="1:19">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A35" s="15" t="s">
         <v>281</v>
       </c>
@@ -7949,7 +7459,7 @@
       <c r="R35" s="18"/>
       <c r="S35" s="18"/>
     </row>
-    <row r="36" spans="1:19">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A36" s="15" t="s">
         <v>283</v>
       </c>
@@ -7985,7 +7495,7 @@
       <c r="R36" s="18"/>
       <c r="S36" s="18"/>
     </row>
-    <row r="37" spans="1:19">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A37" s="15" t="s">
         <v>285</v>
       </c>
@@ -8022,10 +7532,8 @@
       <c r="S37" s="18"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L776">
-    <extLst/>
-  </autoFilter>
-  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
+  <autoFilter ref="A1:L776" xr:uid="{00000000-0009-0000-0000-000006000000}"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Arial,Regular"&amp;10&amp;A</oddHeader>
@@ -8035,34 +7543,33 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:N5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:AMG5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.66666666666667" style="15" customWidth="1"/>
-    <col min="2" max="2" width="10.4416666666667" style="15" customWidth="1"/>
-    <col min="3" max="3" width="17.5583333333333" style="15" customWidth="1"/>
-    <col min="4" max="4" width="50.5583333333333" style="15"/>
-    <col min="5" max="5" width="18.4416666666667" style="15" customWidth="1"/>
+    <col min="1" max="1" width="9.6640625" style="15" customWidth="1"/>
+    <col min="2" max="2" width="10.5" style="15" customWidth="1"/>
+    <col min="3" max="3" width="17.5" style="15" customWidth="1"/>
+    <col min="4" max="4" width="50.5" style="15"/>
+    <col min="5" max="5" width="18.5" style="15" customWidth="1"/>
     <col min="6" max="6" width="10" style="15" customWidth="1"/>
-    <col min="7" max="7" width="13.6666666666667" style="15" customWidth="1"/>
-    <col min="8" max="8" width="22.8833333333333" style="27"/>
-    <col min="9" max="9" width="13.4416666666667" style="31"/>
-    <col min="10" max="10" width="19.8833333333333" style="19"/>
-    <col min="11" max="11" width="10.6666666666667" style="19"/>
-    <col min="12" max="13" width="9.10833333333333" style="15"/>
-    <col min="14" max="1021" width="9.10833333333333" style="31"/>
-    <col min="1022" max="1024" width="8.44166666666667"/>
-    <col min="1025" max="1030" width="8.66666666666667"/>
+    <col min="7" max="7" width="13.6640625" style="15" customWidth="1"/>
+    <col min="8" max="8" width="22.83203125" style="27"/>
+    <col min="9" max="9" width="13.5" style="31"/>
+    <col min="10" max="10" width="19.83203125" style="19"/>
+    <col min="11" max="11" width="10.6640625" style="19"/>
+    <col min="12" max="13" width="9.1640625" style="15"/>
+    <col min="14" max="1021" width="9.1640625" style="31"/>
+    <col min="1022" max="1024" width="8.5"/>
+    <col min="1025" max="1030" width="8.6640625"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="12" spans="1:11">
+    <row r="1" spans="1:14" s="1" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8095,7 +7602,7 @@
       </c>
       <c r="K1" s="32"/>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
         <v>291</v>
       </c>
@@ -8119,7 +7626,7 @@
       <c r="M2" s="18"/>
       <c r="N2" s="15"/>
     </row>
-    <row r="3" ht="15" customHeight="1" spans="1:14">
+    <row r="3" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
         <v>295</v>
       </c>
@@ -8143,7 +7650,7 @@
       <c r="M3" s="18"/>
       <c r="N3" s="15"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
         <v>298</v>
       </c>
@@ -8166,7 +7673,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
         <v>302</v>
       </c>
@@ -8190,10 +7697,8 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H849">
-    <extLst/>
-  </autoFilter>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <autoFilter ref="A1:H849" xr:uid="{00000000-0009-0000-0000-000007000000}"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
@@ -8203,31 +7708,30 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:K3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:AMG3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.5583333333333" style="19"/>
-    <col min="2" max="2" width="21.1083333333333" style="19"/>
-    <col min="3" max="3" width="10.6666666666667" style="19"/>
-    <col min="4" max="4" width="22.8833333333333" style="27"/>
-    <col min="5" max="5" width="10.6666666666667"/>
-    <col min="6" max="6" width="13.4416666666667"/>
-    <col min="7" max="7" width="13.4416666666667" style="15"/>
-    <col min="8" max="8" width="13.4416666666667" style="28"/>
-    <col min="9" max="9" width="10.6666666666667" style="18"/>
-    <col min="10" max="10" width="19.8833333333333" style="15"/>
-    <col min="11" max="11" width="13.4416666666667" style="15"/>
-    <col min="12" max="1021" width="9.10833333333333" style="8"/>
+    <col min="1" max="1" width="19.5" style="19"/>
+    <col min="2" max="2" width="21.1640625" style="19"/>
+    <col min="3" max="3" width="10.6640625" style="19"/>
+    <col min="4" max="4" width="22.83203125" style="27"/>
+    <col min="5" max="5" width="10.6640625"/>
+    <col min="6" max="6" width="13.5"/>
+    <col min="7" max="7" width="13.5" style="15"/>
+    <col min="8" max="8" width="13.5" style="28"/>
+    <col min="9" max="9" width="10.6640625" style="18"/>
+    <col min="10" max="10" width="19.83203125" style="15"/>
+    <col min="11" max="11" width="13.5" style="15"/>
+    <col min="12" max="1021" width="9.1640625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" s="23" customFormat="1" ht="12" spans="1:11">
+    <row r="1" spans="1:11" s="23" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
@@ -8260,7 +7764,7 @@
       </c>
       <c r="K1" s="1"/>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="19" t="s">
         <v>305</v>
       </c>
@@ -8280,13 +7784,13 @@
         <v>0</v>
       </c>
       <c r="G2" s="29">
-        <v>649.382685492726</v>
+        <v>649.38268549272595</v>
       </c>
       <c r="H2" s="27"/>
       <c r="J2" s="18"/>
       <c r="K2" s="30"/>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="19" t="s">
         <v>307</v>
       </c>
@@ -8313,10 +7817,8 @@
       <c r="K3" s="30"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G915">
-    <extLst/>
-  </autoFilter>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <autoFilter ref="A1:G915" xr:uid="{00000000-0009-0000-0000-000008000000}"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>

--- a/tests/fixtures/eukaryote_core.xlsx
+++ b/tests/fixtures/eukaryote_core.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10115"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chebaro/WC/wc_kb/tests/fixtures/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19FADA8E-A2BD-0A43-B59A-30CC488912D6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1760" windowWidth="27040" windowHeight="20260" tabRatio="993" firstSheet="6" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1755" windowWidth="27045" windowHeight="17910" tabRatio="993" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Knowledge base" sheetId="1" r:id="rId1"/>
@@ -21,71 +15,59 @@
     <sheet name="Gene loci" sheetId="6" r:id="rId6"/>
     <sheet name="Regulatory element loci" sheetId="7" r:id="rId7"/>
     <sheet name="Regulatory module" sheetId="8" r:id="rId8"/>
-    <sheet name="pre-RNA species types" sheetId="9" r:id="rId9"/>
-    <sheet name="Transcript species types" sheetId="10" r:id="rId10"/>
-    <sheet name="Exon loci" sheetId="11" r:id="rId11"/>
-    <sheet name="Protein species types" sheetId="12" r:id="rId12"/>
-    <sheet name="CDS loci" sheetId="21" r:id="rId13"/>
-    <sheet name="Ptm site" sheetId="22" r:id="rId14"/>
-    <sheet name="Complex species types" sheetId="13" r:id="rId15"/>
-    <sheet name="Concentrations" sheetId="14" r:id="rId16"/>
-    <sheet name="Observables" sheetId="15" r:id="rId17"/>
-    <sheet name="Reactions" sheetId="16" r:id="rId18"/>
-    <sheet name="Rate laws" sheetId="17" r:id="rId19"/>
-    <sheet name="Parameters" sheetId="18" r:id="rId20"/>
-    <sheet name="Properties" sheetId="19" r:id="rId21"/>
-    <sheet name="References" sheetId="20" r:id="rId22"/>
+    <sheet name="Transcript species types" sheetId="10" r:id="rId9"/>
+    <sheet name="Protein species types" sheetId="12" r:id="rId10"/>
+    <sheet name="Ptm site" sheetId="22" r:id="rId11"/>
+    <sheet name="Complex species types" sheetId="13" r:id="rId12"/>
+    <sheet name="Concentrations" sheetId="14" r:id="rId13"/>
+    <sheet name="Observables" sheetId="15" r:id="rId14"/>
+    <sheet name="Reactions" sheetId="16" r:id="rId15"/>
+    <sheet name="Rate laws" sheetId="17" r:id="rId16"/>
+    <sheet name="Parameters" sheetId="18" r:id="rId17"/>
+    <sheet name="Properties" sheetId="19" r:id="rId18"/>
+    <sheet name="References" sheetId="20" r:id="rId19"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Cell!$A$1:$B$4</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">'Complex species types'!$A$1:$J$221</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">'Complex species types'!$A$1:$J$221</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Gene loci'!$B$1:$H$1064</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Knowledge base'!$A$1:$B$9</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'pre-RNA species types'!$A$1:$G$915</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">'Protein species types'!$A$1:$G$719</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="18" hidden="1">'Rate laws'!$A$1:$F$9</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="17" hidden="1">Reactions!$A$1:$F$220</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'Protein species types'!$A$1:$G$719</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="15" hidden="1">'Rate laws'!$A$1:$F$9</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">Reactions!$A$1:$F$220</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Regulatory element loci'!$A$1:$L$776</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'Regulatory module'!$A$1:$H$849</definedName>
     <definedName name="_FilterDatabase_0" localSheetId="1">Cell!$A$1:$B$1</definedName>
     <definedName name="_FilterDatabase_0" localSheetId="5">'Gene loci'!$I$1</definedName>
     <definedName name="_FilterDatabase_0" localSheetId="0">'Knowledge base'!$A$1:$B$2</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="8">'pre-RNA species types'!$A$1:$G$915</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="11">'Protein species types'!$A$1:$G$719</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="9">'Protein species types'!$A$1:$G$719</definedName>
     <definedName name="_FilterDatabase_0" localSheetId="6">'Regulatory element loci'!$A$1:$L$776</definedName>
     <definedName name="_FilterDatabase_0" localSheetId="7">'Regulatory module'!$A$1:$H$849</definedName>
     <definedName name="_FilterDatabase_0_0" localSheetId="1">Cell!$A$1:$B$1</definedName>
     <definedName name="_FilterDatabase_0_0" localSheetId="5">'Gene loci'!$B$1:$H$1064</definedName>
     <definedName name="_FilterDatabase_0_0" localSheetId="0">'Knowledge base'!$A$1:$B$2</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="8">'pre-RNA species types'!$A$1:$G$915</definedName>
     <definedName name="_FilterDatabase_0_0" localSheetId="6">'Regulatory element loci'!$A$1:$L$776</definedName>
     <definedName name="_FilterDatabase_0_0" localSheetId="7">'Regulatory module'!$A$1:$H$849</definedName>
     <definedName name="_FilterDatabase_0_0_0" localSheetId="1">Cell!$A$1:$B$1</definedName>
     <definedName name="_FilterDatabase_0_0_0" localSheetId="5">'Gene loci'!$I$1</definedName>
     <definedName name="_FilterDatabase_0_0_0" localSheetId="0">'Knowledge base'!$A$1:$B$2</definedName>
-    <definedName name="_FilterDatabase_0_0_0" localSheetId="8">'pre-RNA species types'!$A$1:$G$915</definedName>
     <definedName name="_FilterDatabase_0_0_0" localSheetId="6">'Regulatory element loci'!$A$1:$L$776</definedName>
     <definedName name="_FilterDatabase_0_0_0" localSheetId="7">'Regulatory module'!$A$1:$H$849</definedName>
     <definedName name="_FilterDatabase_0_0_0_0" localSheetId="1">Cell!$A$1:$B$1</definedName>
     <definedName name="_FilterDatabase_0_0_0_0" localSheetId="5">'Gene loci'!$B$1:$H$1064</definedName>
     <definedName name="_FilterDatabase_0_0_0_0" localSheetId="0">'Knowledge base'!$A$1:$B$2</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="8">'pre-RNA species types'!$A$1:$G$849</definedName>
     <definedName name="_FilterDatabase_0_0_0_0" localSheetId="6">'Regulatory element loci'!$A$2:$T$849</definedName>
     <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="1">Cell!$A$1:$B$1</definedName>
     <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="5">'Gene loci'!$I$1</definedName>
     <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="0">'Knowledge base'!$A$1:$B$2</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="8">'pre-RNA species types'!$A$1:$G$915</definedName>
     <definedName name="_FilterDatabase_0_0_0_0_0_0" localSheetId="1">Cell!$A$1:$B$1</definedName>
     <definedName name="_FilterDatabase_0_0_0_0_0_0" localSheetId="5">'Gene loci'!$B$1:$H$1064</definedName>
     <definedName name="_FilterDatabase_0_0_0_0_0_0" localSheetId="0">'Knowledge base'!$A$1:$B$2</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0" localSheetId="8">'pre-RNA species types'!$A$1:$G$849</definedName>
     <definedName name="_FilterDatabase_0_0_0_0_0_0_0" localSheetId="1">Cell!$A$1:$B$1</definedName>
     <definedName name="_FilterDatabase_0_0_0_0_0_0_0" localSheetId="5">'Gene loci'!$I$1</definedName>
     <definedName name="_FilterDatabase_0_0_0_0_0_0_0" localSheetId="0">'Knowledge base'!$A$1:$B$2</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0" localSheetId="8">'pre-RNA species types'!$A$1:$G$915</definedName>
     <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0" localSheetId="1">Cell!$A$1:$B$1</definedName>
     <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0" localSheetId="0">'Knowledge base'!$A$1:$B$2</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0" localSheetId="8">'pre-RNA species types'!$A$1:$G$849</definedName>
     <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0" localSheetId="1">Cell!$A$1:$B$1</definedName>
     <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0" localSheetId="0">'Knowledge base'!$A$1:$B$2</definedName>
     <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0" localSheetId="1">Cell!$A$1:$B$1</definedName>
@@ -95,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1011" uniqueCount="509">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="904" uniqueCount="460">
   <si>
     <t>Id</t>
   </si>
@@ -1009,24 +991,6 @@
     <t>reg_mod_4</t>
   </si>
   <si>
-    <t>Double stranded</t>
-  </si>
-  <si>
-    <t>rna_1</t>
-  </si>
-  <si>
-    <t>pre_mRNA_1</t>
-  </si>
-  <si>
-    <t>rna_2</t>
-  </si>
-  <si>
-    <t>pre_mRNA_2</t>
-  </si>
-  <si>
-    <t>Rna</t>
-  </si>
-  <si>
     <t>Exons</t>
   </si>
   <si>
@@ -1036,156 +1000,24 @@
     <t>transcript_1</t>
   </si>
   <si>
-    <t>ENSE00001001268, ENSE00000710599, ENSE00000710600, ENSE00000710601, ENSE00000710602, ENSE00000710603, ENSE00000710605, ENSE00003477426, ENSE00000710607, ENSE00003542193, ENSE00001349711, ENSE00001349715</t>
-  </si>
-  <si>
     <t>ENST00000405333</t>
   </si>
   <si>
     <t>transcript_2</t>
   </si>
   <si>
-    <t>ENSE00001562710, ENSE00000710599, ENSE00000710600, ENSE00000710601, ENSE00000710602, ENSE00000710603, ENSE00000710605, ENSE00003477426, ENSE00000710607, ENSE00003542193, ENSE00001349711, ENSE00001551969</t>
-  </si>
-  <si>
     <t>ENST00000443218</t>
   </si>
   <si>
     <t>transcript_3</t>
   </si>
   <si>
-    <t>ENSE00001779847, ENSE00003542193, ENSE00001349711, ENSE00001610380</t>
-  </si>
-  <si>
     <t>ENST00000446285</t>
   </si>
   <si>
     <t>transcript_4</t>
   </si>
   <si>
-    <t>ENSE00003540780, ENSE00001634763, ENSE00003607498, ENSE00001349711, ENSE00001672918</t>
-  </si>
-  <si>
-    <t>ENSE00001001268</t>
-  </si>
-  <si>
-    <t>exon_1</t>
-  </si>
-  <si>
-    <t>ENSE00000710599</t>
-  </si>
-  <si>
-    <t>exon_2</t>
-  </si>
-  <si>
-    <t>ENSE00000710600</t>
-  </si>
-  <si>
-    <t>exon_3</t>
-  </si>
-  <si>
-    <t>ENSE00000710601</t>
-  </si>
-  <si>
-    <t>exon_4</t>
-  </si>
-  <si>
-    <t>ENSE00000710602</t>
-  </si>
-  <si>
-    <t>exon_5</t>
-  </si>
-  <si>
-    <t>ENSE00000710603</t>
-  </si>
-  <si>
-    <t>exon_6</t>
-  </si>
-  <si>
-    <t>ENSE00000710605</t>
-  </si>
-  <si>
-    <t>exon_7</t>
-  </si>
-  <si>
-    <t>ENSE00003477426</t>
-  </si>
-  <si>
-    <t>exon_8</t>
-  </si>
-  <si>
-    <t>ENSE00000710607</t>
-  </si>
-  <si>
-    <t>exon_9</t>
-  </si>
-  <si>
-    <t>ENSE00003542193</t>
-  </si>
-  <si>
-    <t>exon_10</t>
-  </si>
-  <si>
-    <t>ENSE00001349711</t>
-  </si>
-  <si>
-    <t>exon_11</t>
-  </si>
-  <si>
-    <t>ENSE00001349715</t>
-  </si>
-  <si>
-    <t>exon_12</t>
-  </si>
-  <si>
-    <t>ENSE00001562710</t>
-  </si>
-  <si>
-    <t>exon_13</t>
-  </si>
-  <si>
-    <t>ENSE00001551969</t>
-  </si>
-  <si>
-    <t>exon_14</t>
-  </si>
-  <si>
-    <t>ENSE00001779847</t>
-  </si>
-  <si>
-    <t>exon_15</t>
-  </si>
-  <si>
-    <t>ENSE00001610380</t>
-  </si>
-  <si>
-    <t>exon_16</t>
-  </si>
-  <si>
-    <t>ENSE00003540780</t>
-  </si>
-  <si>
-    <t>exon_17</t>
-  </si>
-  <si>
-    <t>ENSE00001634763</t>
-  </si>
-  <si>
-    <t>exon_18</t>
-  </si>
-  <si>
-    <t>ENSE00003607498</t>
-  </si>
-  <si>
-    <t>exon_19</t>
-  </si>
-  <si>
-    <t>ENSE00001672918</t>
-  </si>
-  <si>
-    <t>exon_20</t>
-  </si>
-  <si>
     <t>Uniprot</t>
   </si>
   <si>
@@ -1204,30 +1036,12 @@
     <t>P11926</t>
   </si>
   <si>
-    <t>cds_1, cds_2</t>
-  </si>
-  <si>
     <t>ENSP00000385333</t>
   </si>
   <si>
-    <t>cds_1</t>
-  </si>
-  <si>
     <t>C9JG30</t>
   </si>
   <si>
-    <t>cds_3</t>
-  </si>
-  <si>
-    <t>Exon</t>
-  </si>
-  <si>
-    <t>cds_2</t>
-  </si>
-  <si>
-    <t>cds_4</t>
-  </si>
-  <si>
     <t>ID</t>
   </si>
   <si>
@@ -1622,13 +1436,34 @@
   </si>
   <si>
     <t>s141</t>
+  </si>
+  <si>
+    <t>10440000:10442000, 10442780:10443000</t>
+  </si>
+  <si>
+    <t>10440000:10442000, 10443780:10444001</t>
+  </si>
+  <si>
+    <t>10440000:10442000, 10448000:10448500</t>
+  </si>
+  <si>
+    <t>10446000:10442000, 10442780:10443003</t>
+  </si>
+  <si>
+    <t>10440000:10440868, 10441509:10441723</t>
+  </si>
+  <si>
+    <t>10440000:10440868</t>
+  </si>
+  <si>
+    <t>10444931:10445049</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1678,11 +1513,6 @@
       <b/>
       <sz val="10"/>
       <name val="arial"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
       <charset val="1"/>
     </font>
     <font>
@@ -1765,9 +1595,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1776,7 +1606,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1819,9 +1649,6 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1829,26 +1656,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1868,21 +1681,21 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1976,10 +1789,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="212121"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="F3F3F3"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -2257,7 +2070,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2267,632 +2080,107 @@
       <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.5" style="37"/>
-    <col min="2" max="2" width="43.5" style="8"/>
-    <col min="3" max="1025" width="8.5"/>
+    <col min="1" max="1" width="21.42578125" style="30"/>
+    <col min="2" max="2" width="43.42578125" style="8"/>
+    <col min="3" max="1025" width="8.42578125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="43" t="s">
+    <row r="1" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="37" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="43" t="s">
+    <row r="2" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="28" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="43" t="s">
+    <row r="3" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="35">
+      <c r="B3" s="28">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="37" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="30" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="37" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="30" t="s">
         <v>7</v>
       </c>
       <c r="B5"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="37" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="30" t="s">
         <v>8</v>
       </c>
       <c r="B6"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="37" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="30" t="s">
         <v>9</v>
       </c>
       <c r="B7"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="37" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="30" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="37" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="30" t="s">
         <v>11</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B9" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:B9"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:I5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AMG15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="E2" sqref="E2:E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.5"/>
-    <col min="2" max="2" width="11.6640625"/>
-    <col min="3" max="4" width="8.5"/>
-    <col min="5" max="5" width="7.5"/>
-    <col min="6" max="6" width="10.5"/>
-    <col min="7" max="7" width="10.6640625"/>
-    <col min="8" max="8" width="19.83203125"/>
-    <col min="9" max="1025" width="8.5"/>
+    <col min="1" max="1" width="20.28515625" style="9"/>
+    <col min="2" max="2" width="33.85546875" style="9"/>
+    <col min="3" max="3" width="16.42578125" style="19"/>
+    <col min="4" max="4" width="16.42578125" style="15"/>
+    <col min="5" max="5" width="25.42578125" style="15" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" style="8"/>
+    <col min="7" max="7" width="40.28515625" style="9"/>
+    <col min="8" max="8" width="9.140625" style="8"/>
+    <col min="9" max="9" width="19.85546875" style="8"/>
+    <col min="10" max="1021" width="9.140625" style="8"/>
+    <col min="1024" max="1026" width="8.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="23" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A1" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>311</v>
-      </c>
-      <c r="B2" t="s">
-        <v>312</v>
-      </c>
-      <c r="C2" t="s">
-        <v>305</v>
-      </c>
-      <c r="D2" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>314</v>
-      </c>
-      <c r="B3" t="s">
-        <v>315</v>
-      </c>
-      <c r="C3" t="s">
-        <v>305</v>
-      </c>
-      <c r="D3" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>317</v>
-      </c>
-      <c r="B4" t="s">
-        <v>318</v>
-      </c>
-      <c r="C4" t="s">
-        <v>305</v>
-      </c>
-      <c r="D4" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>320</v>
-      </c>
-      <c r="B5" t="s">
-        <v>321</v>
-      </c>
-      <c r="C5" t="s">
-        <v>305</v>
-      </c>
-      <c r="D5" t="s">
-        <v>322</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:AMG21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="16.5"/>
-    <col min="2" max="2" width="12.6640625"/>
-    <col min="3" max="3" width="8.5"/>
-    <col min="4" max="4" width="10"/>
-    <col min="5" max="5" width="10.1640625"/>
-    <col min="6" max="6" width="10.5"/>
-    <col min="7" max="7" width="10.6640625"/>
-    <col min="8" max="8" width="19.83203125"/>
-    <col min="9" max="1025" width="8.5"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1021" s="23" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A1" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="C1" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="1:1021" s="15" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="21" t="s">
-        <v>323</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="C2" s="24" t="s">
-        <v>324</v>
-      </c>
-      <c r="D2" s="22">
-        <v>10439968</v>
-      </c>
-      <c r="E2" s="22">
-        <v>10440868</v>
-      </c>
-      <c r="AMF2" s="26"/>
-      <c r="AMG2" s="26"/>
-    </row>
-    <row r="3" spans="1:1021" s="15" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="21" t="s">
-        <v>325</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="C3" s="24" t="s">
-        <v>326</v>
-      </c>
-      <c r="D3" s="22">
-        <v>10441509</v>
-      </c>
-      <c r="E3" s="22">
-        <v>10441723</v>
-      </c>
-      <c r="AMF3" s="26"/>
-      <c r="AMG3" s="26"/>
-    </row>
-    <row r="4" spans="1:1021" s="15" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="21" t="s">
-        <v>327</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="C4" s="24" t="s">
-        <v>328</v>
-      </c>
-      <c r="D4" s="22">
-        <v>10441817</v>
-      </c>
-      <c r="E4" s="22">
-        <v>10441929</v>
-      </c>
-      <c r="AMF4" s="26"/>
-      <c r="AMG4" s="26"/>
-    </row>
-    <row r="5" spans="1:1021" s="15" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="21" t="s">
-        <v>329</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="C5" s="24" t="s">
-        <v>330</v>
-      </c>
-      <c r="D5" s="22">
-        <v>10442012</v>
-      </c>
-      <c r="E5" s="22">
-        <v>10442174</v>
-      </c>
-      <c r="AMF5" s="26"/>
-      <c r="AMG5" s="26"/>
-    </row>
-    <row r="6" spans="1:1021" s="15" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="21" t="s">
-        <v>331</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="C6" s="24" t="s">
-        <v>332</v>
-      </c>
-      <c r="D6" s="22">
-        <v>10443230</v>
-      </c>
-      <c r="E6" s="22">
-        <v>10443313</v>
-      </c>
-      <c r="AMF6" s="26"/>
-      <c r="AMG6" s="26"/>
-    </row>
-    <row r="7" spans="1:1021" s="15" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="21" t="s">
-        <v>333</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="C7" s="24" t="s">
-        <v>334</v>
-      </c>
-      <c r="D7" s="22">
-        <v>10443490</v>
-      </c>
-      <c r="E7" s="22">
-        <v>10443571</v>
-      </c>
-      <c r="AMF7" s="26"/>
-      <c r="AMG7" s="26"/>
-    </row>
-    <row r="8" spans="1:1021" s="15" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="21" t="s">
-        <v>335</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="C8" s="24" t="s">
-        <v>336</v>
-      </c>
-      <c r="D8" s="22">
-        <v>10443702</v>
-      </c>
-      <c r="E8" s="22">
-        <v>10443836</v>
-      </c>
-      <c r="AMF8" s="26"/>
-      <c r="AMG8" s="26"/>
-    </row>
-    <row r="9" spans="1:1021" s="15" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="21" t="s">
-        <v>337</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="C9" s="24" t="s">
-        <v>338</v>
-      </c>
-      <c r="D9" s="22">
-        <v>10444095</v>
-      </c>
-      <c r="E9" s="22">
-        <v>10444267</v>
-      </c>
-      <c r="AMF9" s="26"/>
-      <c r="AMG9" s="26"/>
-    </row>
-    <row r="10" spans="1:1021" s="15" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="21" t="s">
-        <v>339</v>
-      </c>
-      <c r="B10" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="C10" s="24" t="s">
-        <v>340</v>
-      </c>
-      <c r="D10" s="22">
-        <v>10444474</v>
-      </c>
-      <c r="E10" s="22">
-        <v>10444647</v>
-      </c>
-      <c r="AMF10" s="26"/>
-      <c r="AMG10" s="26"/>
-    </row>
-    <row r="11" spans="1:1021" s="15" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="21" t="s">
-        <v>341</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="C11" s="24" t="s">
-        <v>342</v>
-      </c>
-      <c r="D11" s="22">
-        <v>10444931</v>
-      </c>
-      <c r="E11" s="22">
-        <v>10445049</v>
-      </c>
-      <c r="AMF11" s="26"/>
-      <c r="AMG11" s="26"/>
-    </row>
-    <row r="12" spans="1:1021" s="15" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="21" t="s">
-        <v>343</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="C12" s="24" t="s">
-        <v>344</v>
-      </c>
-      <c r="D12" s="22">
-        <v>10445155</v>
-      </c>
-      <c r="E12" s="22">
-        <v>10445264</v>
-      </c>
-      <c r="AMF12" s="26"/>
-      <c r="AMG12" s="26"/>
-    </row>
-    <row r="13" spans="1:1021" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>345</v>
-      </c>
-      <c r="B13" t="s">
-        <v>58</v>
-      </c>
-      <c r="C13" s="24" t="s">
-        <v>346</v>
-      </c>
-      <c r="D13" s="25">
-        <v>10448121</v>
-      </c>
-      <c r="E13" s="25">
-        <v>10448504</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1021" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>347</v>
-      </c>
-      <c r="B14" t="s">
-        <v>58</v>
-      </c>
-      <c r="C14" s="24" t="s">
-        <v>348</v>
-      </c>
-      <c r="D14" s="25">
-        <v>10440601</v>
-      </c>
-      <c r="E14" s="25">
-        <v>10440868</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1021" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>349</v>
-      </c>
-      <c r="B15" t="s">
-        <v>58</v>
-      </c>
-      <c r="C15" s="24" t="s">
-        <v>350</v>
-      </c>
-      <c r="D15" s="25">
-        <v>10447474</v>
-      </c>
-      <c r="E15" s="25">
-        <v>10447780</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1021" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>351</v>
-      </c>
-      <c r="B16" t="s">
-        <v>58</v>
-      </c>
-      <c r="C16" s="24" t="s">
-        <v>352</v>
-      </c>
-      <c r="D16" s="25">
-        <v>10444544</v>
-      </c>
-      <c r="E16" s="25">
-        <v>10444647</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>353</v>
-      </c>
-      <c r="B17" t="s">
-        <v>58</v>
-      </c>
-      <c r="C17" s="24" t="s">
-        <v>354</v>
-      </c>
-      <c r="D17" s="25">
-        <v>10447628</v>
-      </c>
-      <c r="E17" s="25">
-        <v>10447788</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>355</v>
-      </c>
-      <c r="B18" t="s">
-        <v>58</v>
-      </c>
-      <c r="C18" s="24" t="s">
-        <v>356</v>
-      </c>
-      <c r="D18" s="25">
-        <v>10444095</v>
-      </c>
-      <c r="E18" s="25">
-        <v>10444267</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>357</v>
-      </c>
-      <c r="B19" t="s">
-        <v>58</v>
-      </c>
-      <c r="C19" s="24" t="s">
-        <v>358</v>
-      </c>
-      <c r="D19" s="25">
-        <v>10444474</v>
-      </c>
-      <c r="E19" s="25">
-        <v>10444547</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>359</v>
-      </c>
-      <c r="B20" t="s">
-        <v>58</v>
-      </c>
-      <c r="C20" s="24" t="s">
-        <v>360</v>
-      </c>
-      <c r="D20" s="25">
-        <v>10444931</v>
-      </c>
-      <c r="E20" s="25">
-        <v>10445049</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>361</v>
-      </c>
-      <c r="B21" t="s">
-        <v>58</v>
-      </c>
-      <c r="C21" s="24" t="s">
-        <v>362</v>
-      </c>
-      <c r="D21" s="25">
-        <v>10448121</v>
-      </c>
-      <c r="E21" s="25">
-        <v>10448309</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
-  <dimension ref="A1:AMG4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="20.33203125" style="9"/>
-    <col min="2" max="2" width="33.83203125" style="9"/>
-    <col min="3" max="3" width="16.5" style="19"/>
-    <col min="4" max="4" width="16.5" style="15"/>
-    <col min="5" max="5" width="25.5" style="15" customWidth="1"/>
-    <col min="6" max="6" width="10.5" style="8"/>
-    <col min="7" max="7" width="40.33203125" style="9"/>
-    <col min="8" max="8" width="9.1640625" style="8"/>
-    <col min="9" max="9" width="19.83203125" style="8"/>
-    <col min="10" max="1021" width="9.1640625" style="8"/>
-    <col min="1024" max="1026" width="8.6640625"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2900,16 +2188,16 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>363</v>
+        <v>313</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>364</v>
+        <v>314</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>365</v>
+        <v>315</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>366</v>
+        <v>316</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>11</v>
@@ -2921,59 +2209,75 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>241</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>367</v>
+        <v>317</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>368</v>
+        <v>318</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="48" t="s">
-        <v>370</v>
+        <v>457</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="41" t="s">
+        <v>319</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>367</v>
+        <v>317</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>368</v>
+        <v>318</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>300</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>367</v>
+        <v>317</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>372</v>
+        <v>320</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>373</v>
-      </c>
+        <v>459</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G719" xr:uid="{00000000-0009-0000-0000-00000B000000}"/>
+  <autoFilter ref="A1:G719"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1"/>
   <headerFooter>
@@ -2983,44 +2287,43 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
-  <dimension ref="A1:I5"/>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.83203125" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" customWidth="1"/>
-    <col min="4" max="4" width="17.83203125" customWidth="1"/>
-    <col min="5" max="5" width="10.1640625" customWidth="1"/>
-    <col min="6" max="6" width="9.83203125" customWidth="1"/>
-    <col min="7" max="7" width="10.33203125" customWidth="1"/>
-    <col min="8" max="8" width="10.6640625" customWidth="1"/>
-    <col min="9" max="9" width="19.6640625" customWidth="1"/>
+    <col min="1" max="1" width="19" customWidth="1"/>
+    <col min="2" max="2" width="17.140625" customWidth="1"/>
+    <col min="3" max="3" width="20.42578125" customWidth="1"/>
+    <col min="4" max="4" width="19.7109375" customWidth="1"/>
+    <col min="5" max="5" width="19.140625" customWidth="1"/>
+    <col min="6" max="6" width="16" customWidth="1"/>
+    <col min="8" max="8" width="23.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="20" t="s">
-        <v>82</v>
+        <v>2</v>
       </c>
       <c r="C1" s="20" t="s">
-        <v>2</v>
+        <v>443</v>
       </c>
       <c r="D1" s="20" t="s">
-        <v>374</v>
+        <v>84</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>86</v>
+        <v>444</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>87</v>
+        <v>445</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>11</v>
@@ -3032,235 +2335,114 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="9" t="s">
-        <v>371</v>
-      </c>
-      <c r="B2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D2" s="21" t="s">
-        <v>323</v>
-      </c>
-      <c r="E2" s="22">
-        <v>10440000</v>
-      </c>
-      <c r="F2" s="22">
-        <v>10440868</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="9" t="s">
-        <v>375</v>
-      </c>
-      <c r="B3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D3" s="21" t="s">
-        <v>325</v>
-      </c>
-      <c r="E3" s="22">
-        <v>10441509</v>
-      </c>
-      <c r="F3" s="22">
-        <v>10441723</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="9" t="s">
-        <v>373</v>
-      </c>
-      <c r="B4" t="s">
-        <v>58</v>
-      </c>
-      <c r="D4" s="21" t="s">
-        <v>341</v>
-      </c>
-      <c r="E4" s="22">
-        <v>10444931</v>
-      </c>
-      <c r="F4" s="22">
-        <v>10445049</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="9" t="s">
-        <v>376</v>
-      </c>
-      <c r="B5" t="s">
-        <v>58</v>
-      </c>
-      <c r="D5" s="21" t="s">
-        <v>343</v>
-      </c>
-      <c r="E5" s="22">
-        <v>10445155</v>
-      </c>
-      <c r="F5" s="22">
-        <v>10445264</v>
-      </c>
+    <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="40" t="s">
+        <v>448</v>
+      </c>
+      <c r="C2" t="s">
+        <v>319</v>
+      </c>
+      <c r="D2" s="40" t="s">
+        <v>447</v>
+      </c>
+      <c r="E2" s="40" t="s">
+        <v>446</v>
+      </c>
+      <c r="F2">
+        <v>0.5</v>
+      </c>
+      <c r="H2" s="39"/>
+    </row>
+    <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="40" t="s">
+        <v>449</v>
+      </c>
+      <c r="C3" s="40" t="s">
+        <v>319</v>
+      </c>
+      <c r="D3" s="40" t="s">
+        <v>447</v>
+      </c>
+      <c r="E3" s="40" t="s">
+        <v>451</v>
+      </c>
+      <c r="F3">
+        <v>0.8</v>
+      </c>
+      <c r="H3" s="39"/>
+    </row>
+    <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="40" t="s">
+        <v>450</v>
+      </c>
+      <c r="C4" s="40" t="s">
+        <v>319</v>
+      </c>
+      <c r="D4" s="40" t="s">
+        <v>447</v>
+      </c>
+      <c r="E4" s="40" t="s">
+        <v>452</v>
+      </c>
+      <c r="F4">
+        <v>0.02</v>
+      </c>
+      <c r="H4" s="39"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E0DB845-CD92-6A44-ACBA-7BA9C7C1DD93}">
-  <dimension ref="A1:I4"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="2" max="2" width="17.1640625" customWidth="1"/>
-    <col min="3" max="3" width="20.5" customWidth="1"/>
-    <col min="4" max="4" width="19.6640625" customWidth="1"/>
-    <col min="5" max="5" width="19.1640625" customWidth="1"/>
-    <col min="6" max="6" width="16" customWidth="1"/>
-    <col min="8" max="8" width="23.83203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="20" t="s">
-        <v>499</v>
-      </c>
-      <c r="D1" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>500</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>501</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="47" t="s">
-        <v>504</v>
-      </c>
-      <c r="C2" t="s">
-        <v>370</v>
-      </c>
-      <c r="D2" s="47" t="s">
-        <v>503</v>
-      </c>
-      <c r="E2" s="47" t="s">
-        <v>502</v>
-      </c>
-      <c r="F2">
-        <v>0.5</v>
-      </c>
-      <c r="H2" s="46"/>
-    </row>
-    <row r="3" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="47" t="s">
-        <v>505</v>
-      </c>
-      <c r="C3" s="47" t="s">
-        <v>370</v>
-      </c>
-      <c r="D3" s="47" t="s">
-        <v>503</v>
-      </c>
-      <c r="E3" s="47" t="s">
-        <v>507</v>
-      </c>
-      <c r="F3">
-        <v>0.8</v>
-      </c>
-      <c r="H3" s="46"/>
-    </row>
-    <row r="4" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="47" t="s">
-        <v>506</v>
-      </c>
-      <c r="C4" s="47" t="s">
-        <v>370</v>
-      </c>
-      <c r="D4" s="47" t="s">
-        <v>503</v>
-      </c>
-      <c r="E4" s="47" t="s">
-        <v>508</v>
-      </c>
-      <c r="F4">
-        <v>0.02</v>
-      </c>
-      <c r="H4" s="46"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMH5"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38.6640625" style="8"/>
+    <col min="1" max="1" width="38.7109375" style="8"/>
     <col min="2" max="2" width="46" style="13"/>
-    <col min="3" max="3" width="32.83203125" style="8"/>
+    <col min="3" max="3" width="32.85546875" style="8"/>
     <col min="4" max="4" width="45" style="14"/>
-    <col min="5" max="5" width="29.33203125" style="14"/>
-    <col min="6" max="6" width="16.5" style="15"/>
-    <col min="7" max="8" width="8.5" style="8"/>
-    <col min="9" max="9" width="13.5" style="8"/>
-    <col min="10" max="10" width="37.33203125" style="8"/>
-    <col min="11" max="11" width="13.5" style="8"/>
-    <col min="12" max="12" width="19.83203125" style="8"/>
-    <col min="13" max="1022" width="8.5" style="8"/>
-    <col min="1023" max="1025" width="8.5"/>
+    <col min="5" max="5" width="29.28515625" style="14"/>
+    <col min="6" max="6" width="16.42578125" style="15"/>
+    <col min="7" max="8" width="8.42578125" style="8"/>
+    <col min="9" max="9" width="13.42578125" style="8"/>
+    <col min="10" max="10" width="37.28515625" style="8"/>
+    <col min="11" max="11" width="13.42578125" style="8"/>
+    <col min="12" max="12" width="19.85546875" style="8"/>
+    <col min="13" max="1022" width="8.42578125" style="8"/>
+    <col min="1023" max="1025" width="8.42578125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>377</v>
+        <v>321</v>
       </c>
       <c r="B1" s="16" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>378</v>
+        <v>322</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>379</v>
+        <v>323</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>380</v>
+        <v>324</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>381</v>
+        <v>325</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>382</v>
+        <v>326</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>383</v>
+        <v>327</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>56</v>
@@ -3275,21 +2457,21 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>384</v>
+        <v>328</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>385</v>
+        <v>329</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>386</v>
+        <v>330</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>387</v>
+        <v>331</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>388</v>
+        <v>332</v>
       </c>
       <c r="F2" s="19"/>
       <c r="G2" s="9"/>
@@ -3297,24 +2479,24 @@
       <c r="I2" s="15"/>
       <c r="J2" s="9"/>
       <c r="K2" s="9" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>390</v>
+        <v>334</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>385</v>
+        <v>329</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>386</v>
+        <v>330</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>391</v>
+        <v>335</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>388</v>
+        <v>332</v>
       </c>
       <c r="F3" s="19"/>
       <c r="G3" s="9"/>
@@ -3322,21 +2504,21 @@
       <c r="J3" s="9"/>
       <c r="K3" s="9"/>
     </row>
-    <row r="4" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>392</v>
+        <v>336</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>385</v>
+        <v>329</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>386</v>
+        <v>330</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>393</v>
+        <v>337</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>388</v>
+        <v>332</v>
       </c>
       <c r="F4" s="19"/>
       <c r="G4" s="9"/>
@@ -3344,21 +2526,21 @@
       <c r="J4" s="9"/>
       <c r="K4" s="9"/>
     </row>
-    <row r="5" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>394</v>
+        <v>338</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>385</v>
+        <v>329</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>386</v>
+        <v>330</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>395</v>
+        <v>339</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>396</v>
+        <v>340</v>
       </c>
       <c r="F5" s="19"/>
       <c r="G5" s="9"/>
@@ -3367,14 +2549,14 @@
       <c r="K5" s="9"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J221" xr:uid="{00000000-0009-0000-0000-00000D000000}"/>
+  <autoFilter ref="A1:J221"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3384,26 +2566,26 @@
       <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.5" style="11"/>
-    <col min="2" max="2" width="8.5" style="11"/>
-    <col min="3" max="3" width="11.5" style="11"/>
-    <col min="4" max="4" width="10.5" style="11"/>
-    <col min="5" max="5" width="10.6640625" style="11"/>
-    <col min="6" max="6" width="19.83203125" style="11"/>
-    <col min="7" max="1025" width="8.5" style="11"/>
+    <col min="1" max="1" width="19.42578125" style="11"/>
+    <col min="2" max="2" width="8.42578125" style="11"/>
+    <col min="3" max="3" width="11.42578125" style="11"/>
+    <col min="4" max="4" width="10.42578125" style="11"/>
+    <col min="5" max="5" width="10.7109375" style="11"/>
+    <col min="6" max="6" width="19.85546875" style="11"/>
+    <col min="7" max="1025" width="8.42578125" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="10" customFormat="1" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" s="10" customFormat="1" ht="15.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>397</v>
+        <v>341</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>398</v>
+        <v>342</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>399</v>
+        <v>343</v>
       </c>
       <c r="D1" s="10" t="s">
         <v>11</v>
@@ -3415,175 +2597,175 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="15.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>400</v>
+        <v>344</v>
       </c>
       <c r="B2" s="11">
         <v>1</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>401</v>
+        <v>345</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
-        <v>403</v>
+        <v>347</v>
       </c>
       <c r="B3" s="11">
         <v>1</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>404</v>
+        <v>348</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>406</v>
+        <v>350</v>
       </c>
       <c r="B4" s="11">
         <v>1</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>407</v>
+        <v>351</v>
       </c>
       <c r="B5" s="11">
         <v>1</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>408</v>
+        <v>352</v>
       </c>
       <c r="B6" s="11">
         <v>0.25</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
-        <v>409</v>
+        <v>353</v>
       </c>
       <c r="B7" s="11">
         <v>0.25</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
-        <v>410</v>
+        <v>354</v>
       </c>
       <c r="B8" s="11">
         <v>0.25</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
-        <v>411</v>
+        <v>355</v>
       </c>
       <c r="B9" s="11">
         <v>0.25</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
-        <v>412</v>
+        <v>356</v>
       </c>
       <c r="B10" s="11">
         <v>0.5</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
-        <v>413</v>
+        <v>357</v>
       </c>
       <c r="B11" s="11">
         <v>0.5</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
-        <v>414</v>
+        <v>358</v>
       </c>
       <c r="B12" s="11">
         <v>0.5</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
-        <v>415</v>
+        <v>359</v>
       </c>
       <c r="B13" s="11">
         <v>0.1</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
-        <v>416</v>
+        <v>360</v>
       </c>
       <c r="B14" s="11">
         <v>0.36</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
-        <v>417</v>
+        <v>361</v>
       </c>
       <c r="B15" s="11">
         <v>0.5</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
-        <v>418</v>
+        <v>362</v>
       </c>
       <c r="B16" s="11">
         <v>0.25</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>401</v>
+        <v>345</v>
       </c>
     </row>
   </sheetData>
@@ -3592,24 +2774,24 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16"/>
-    <col min="3" max="3" width="15.5"/>
-    <col min="5" max="5" width="10.5"/>
-    <col min="6" max="6" width="11.1640625"/>
-    <col min="7" max="7" width="20.5"/>
+    <col min="3" max="3" width="15.42578125"/>
+    <col min="5" max="5" width="10.42578125"/>
+    <col min="6" max="6" width="11.140625"/>
+    <col min="7" max="7" width="20.42578125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3617,10 +2799,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>419</v>
+        <v>363</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>399</v>
+        <v>343</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>11</v>
@@ -3632,12 +2814,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>420</v>
+        <v>364</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>421</v>
+        <v>365</v>
       </c>
       <c r="D2" s="9">
         <v>1</v>
@@ -3653,27 +2835,27 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMH8"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.6640625" style="8"/>
-    <col min="2" max="2" width="23.5" style="8"/>
-    <col min="3" max="3" width="17.6640625" style="8"/>
-    <col min="4" max="4" width="18.6640625" style="8"/>
-    <col min="5" max="5" width="12.6640625" style="8"/>
-    <col min="6" max="6" width="14.6640625" style="8"/>
-    <col min="7" max="1022" width="37.33203125" style="8"/>
-    <col min="1023" max="1025" width="8.5"/>
+    <col min="1" max="1" width="18.7109375" style="8"/>
+    <col min="2" max="2" width="23.42578125" style="8"/>
+    <col min="3" max="3" width="17.7109375" style="8"/>
+    <col min="4" max="4" width="18.7109375" style="8"/>
+    <col min="5" max="5" width="12.7109375" style="8"/>
+    <col min="6" max="6" width="14.7109375" style="8"/>
+    <col min="7" max="1022" width="37.28515625" style="8"/>
+    <col min="1023" max="1025" width="8.42578125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3681,13 +2863,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>422</v>
+        <v>366</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>423</v>
+        <v>367</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>424</v>
+        <v>368</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>11</v>
@@ -3699,75 +2881,75 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>425</v>
+        <v>369</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>426</v>
+        <v>370</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>427</v>
+        <v>371</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>428</v>
+        <v>372</v>
       </c>
       <c r="E2" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>429</v>
+        <v>373</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>430</v>
+        <v>374</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>427</v>
+        <v>371</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>431</v>
+        <v>375</v>
       </c>
       <c r="E3" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>432</v>
+        <v>376</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>433</v>
+        <v>377</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>427</v>
+        <v>371</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>434</v>
+        <v>378</v>
       </c>
       <c r="E4" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>435</v>
+        <v>379</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>436</v>
+        <v>380</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>427</v>
+        <v>371</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>437</v>
+        <v>381</v>
       </c>
       <c r="E5" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>37</v>
       </c>
@@ -3775,51 +2957,523 @@
         <v>37</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>427</v>
+        <v>371</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>438</v>
+        <v>382</v>
       </c>
       <c r="E6" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>439</v>
+        <v>383</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>440</v>
+        <v>384</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>427</v>
+        <v>371</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>441</v>
+        <v>385</v>
       </c>
       <c r="E7" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>442</v>
+        <v>386</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>440</v>
+        <v>384</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>427</v>
+        <v>371</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>441</v>
+        <v>385</v>
       </c>
       <c r="E8" s="8">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F220" xr:uid="{00000000-0009-0000-0000-000010000000}"/>
+  <autoFilter ref="A1:F220"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AMK9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A10" sqref="A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.28515625" style="4"/>
+    <col min="2" max="2" width="18.140625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="4"/>
+    <col min="4" max="4" width="10.42578125" style="4"/>
+    <col min="5" max="5" width="11" style="4"/>
+    <col min="6" max="6" width="28.7109375" style="4"/>
+    <col min="7" max="7" width="11" style="4"/>
+    <col min="8" max="8" width="20" style="4"/>
+    <col min="9" max="1025" width="8.7109375" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>387</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>388</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>390</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2"/>
+      <c r="H2"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>391</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="D3" s="38" t="s">
+        <v>392</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="H3"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>394</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="H4"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>390</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="H5"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="H6"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>402</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="H7"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>405</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>389</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>389</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>409</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>410</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:F9"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="5" width="8.42578125"/>
+    <col min="6" max="6" width="10.42578125"/>
+    <col min="7" max="7" width="11.140625"/>
+    <col min="8" max="8" width="20.42578125"/>
+    <col min="9" max="1025" width="8.42578125"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>412</v>
+      </c>
+      <c r="B2" t="s">
+        <v>413</v>
+      </c>
+      <c r="C2">
+        <v>20.5</v>
+      </c>
+      <c r="D2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>414</v>
+      </c>
+      <c r="H2" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>416</v>
+      </c>
+      <c r="B3" t="s">
+        <v>417</v>
+      </c>
+      <c r="C3">
+        <v>1.35</v>
+      </c>
+      <c r="D3">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="E3" t="s">
+        <v>414</v>
+      </c>
+      <c r="H3" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>419</v>
+      </c>
+      <c r="B4" t="s">
+        <v>420</v>
+      </c>
+      <c r="C4">
+        <v>0.46</v>
+      </c>
+      <c r="D4">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>345</v>
+      </c>
+      <c r="H4" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>421</v>
+      </c>
+      <c r="B5" t="s">
+        <v>422</v>
+      </c>
+      <c r="C5">
+        <v>1.2</v>
+      </c>
+      <c r="D5">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="E5" t="s">
+        <v>345</v>
+      </c>
+      <c r="H5" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>390</v>
+      </c>
+      <c r="B6" t="s">
+        <v>423</v>
+      </c>
+      <c r="C6">
+        <v>2.1</v>
+      </c>
+      <c r="D6">
+        <v>1E-3</v>
+      </c>
+      <c r="E6" t="s">
+        <v>424</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.7109375"/>
+    <col min="2" max="2" width="15.42578125"/>
+    <col min="4" max="4" width="13.140625"/>
+    <col min="5" max="5" width="10.42578125"/>
+    <col min="6" max="6" width="11.140625"/>
+    <col min="7" max="7" width="19.85546875"/>
+    <col min="1021" max="1025" width="8.7109375"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>425</v>
+      </c>
+      <c r="B2" t="s">
+        <v>426</v>
+      </c>
+      <c r="C2" s="2">
+        <v>3.0000000000000001E-12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>428</v>
+      </c>
+      <c r="B3" t="s">
+        <v>429</v>
+      </c>
+      <c r="C3" s="2">
+        <v>10000000</v>
+      </c>
+      <c r="D3" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>431</v>
+      </c>
+      <c r="B4" t="s">
+        <v>432</v>
+      </c>
+      <c r="C4">
+        <v>0.7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>434</v>
+      </c>
+      <c r="B5" t="s">
+        <v>435</v>
+      </c>
+      <c r="C5">
+        <v>71280</v>
+      </c>
+      <c r="D5" t="s">
+        <v>436</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1"/>
   <headerFooter>
@@ -3830,225 +3484,60 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
-  <dimension ref="A1:AMK9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A10" sqref="A10"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.33203125" style="4"/>
-    <col min="2" max="2" width="18.1640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" style="4"/>
-    <col min="4" max="4" width="10.5" style="4"/>
-    <col min="5" max="5" width="11" style="4"/>
-    <col min="6" max="6" width="28.6640625" style="4"/>
-    <col min="7" max="7" width="11" style="4"/>
-    <col min="8" max="8" width="20" style="4"/>
-    <col min="9" max="1025" width="8.6640625" style="4"/>
+    <col min="1" max="1" width="8.42578125"/>
+    <col min="2" max="2" width="18.42578125"/>
+    <col min="3" max="1025" width="8.42578125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
-        <v>377</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>443</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>419</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>399</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
-        <v>444</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>425</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>445</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>446</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2"/>
-      <c r="H2"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
-        <v>447</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>429</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>445</v>
-      </c>
-      <c r="D3" s="45" t="s">
-        <v>448</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>449</v>
-      </c>
-      <c r="H3"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
-        <v>450</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>432</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>445</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>451</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>452</v>
-      </c>
-      <c r="H4"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="6" t="s">
-        <v>453</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>435</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>445</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>446</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>454</v>
-      </c>
-      <c r="H5"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="6" t="s">
-        <v>455</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>445</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>456</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>457</v>
-      </c>
-      <c r="H6"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="6" t="s">
-        <v>458</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>459</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>460</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="H7"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="6" t="s">
-        <v>461</v>
-      </c>
-      <c r="B8" s="4" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>333</v>
+      </c>
+      <c r="B2" t="s">
         <v>439</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>445</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>462</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="6" t="s">
-        <v>464</v>
-      </c>
-      <c r="B9" s="4" t="s">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>349</v>
+      </c>
+      <c r="B3" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>441</v>
+      </c>
+      <c r="B4" t="s">
         <v>442</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>445</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>465</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>466</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F9" xr:uid="{00000000-0009-0000-0000-000011000000}"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4058,377 +3547,70 @@
       <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.5" style="42"/>
-    <col min="2" max="2" width="51.1640625" style="8"/>
-    <col min="3" max="1025" width="8.5"/>
+    <col min="1" max="1" width="16.42578125" style="35"/>
+    <col min="2" max="2" width="51.140625" style="8"/>
+    <col min="3" max="1025" width="8.42578125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="43" t="s">
+    <row r="1" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="37" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="42" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="35" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="42" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="35" t="s">
         <v>14</v>
       </c>
       <c r="B3" s="8">
         <v>9606</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="42" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="35" t="s">
         <v>11</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B4" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <autoFilter ref="A1:B4"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
-  <dimension ref="A1:H6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="5" width="8.5"/>
-    <col min="6" max="6" width="10.5"/>
-    <col min="7" max="7" width="11.1640625"/>
-    <col min="8" max="8" width="20.5"/>
-    <col min="9" max="1025" width="8.5"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>467</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>468</v>
-      </c>
-      <c r="B2" t="s">
-        <v>469</v>
-      </c>
-      <c r="C2">
-        <v>20.5</v>
-      </c>
-      <c r="D2">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="E2" t="s">
-        <v>470</v>
-      </c>
-      <c r="H2" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>472</v>
-      </c>
-      <c r="B3" t="s">
-        <v>473</v>
-      </c>
-      <c r="C3">
-        <v>1.35</v>
-      </c>
-      <c r="D3">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="E3" t="s">
-        <v>470</v>
-      </c>
-      <c r="H3" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>475</v>
-      </c>
-      <c r="B4" t="s">
-        <v>476</v>
-      </c>
-      <c r="C4">
-        <v>0.46</v>
-      </c>
-      <c r="D4">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="E4" t="s">
-        <v>401</v>
-      </c>
-      <c r="H4" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>477</v>
-      </c>
-      <c r="B5" t="s">
-        <v>478</v>
-      </c>
-      <c r="C5">
-        <v>1.2</v>
-      </c>
-      <c r="D5">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="E5" t="s">
-        <v>401</v>
-      </c>
-      <c r="H5" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>446</v>
-      </c>
-      <c r="B6" t="s">
-        <v>479</v>
-      </c>
-      <c r="C6">
-        <v>2.1</v>
-      </c>
-      <c r="D6">
-        <v>1E-3</v>
-      </c>
-      <c r="E6" t="s">
-        <v>480</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
-  <dimension ref="A1:G5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="17.6640625"/>
-    <col min="2" max="2" width="15.5"/>
-    <col min="4" max="4" width="13.1640625"/>
-    <col min="5" max="5" width="10.5"/>
-    <col min="6" max="6" width="11.1640625"/>
-    <col min="7" max="7" width="19.83203125"/>
-    <col min="1021" max="1025" width="8.6640625"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>481</v>
-      </c>
-      <c r="B2" t="s">
-        <v>482</v>
-      </c>
-      <c r="C2" s="2">
-        <v>3.0000000000000001E-12</v>
-      </c>
-      <c r="D2" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>484</v>
-      </c>
-      <c r="B3" t="s">
-        <v>485</v>
-      </c>
-      <c r="C3" s="2">
-        <v>10000000</v>
-      </c>
-      <c r="D3" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>487</v>
-      </c>
-      <c r="B4" t="s">
-        <v>488</v>
-      </c>
-      <c r="C4">
-        <v>0.7</v>
-      </c>
-      <c r="D4" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>490</v>
-      </c>
-      <c r="B5" t="s">
-        <v>491</v>
-      </c>
-      <c r="C5">
-        <v>71280</v>
-      </c>
-      <c r="D5" t="s">
-        <v>492</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1"/>
-  <headerFooter>
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="8.5"/>
-    <col min="2" max="2" width="18.5"/>
-    <col min="3" max="1025" width="8.5"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>493</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>389</v>
-      </c>
-      <c r="B2" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>405</v>
-      </c>
-      <c r="B3" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>497</v>
-      </c>
-      <c r="B4" t="s">
-        <v>498</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMF5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.1640625" style="39"/>
-    <col min="2" max="2" width="16.1640625" style="8"/>
-    <col min="3" max="3" width="17.6640625" style="8"/>
-    <col min="4" max="4" width="11.33203125" style="8"/>
-    <col min="5" max="5" width="11.1640625" style="8"/>
-    <col min="6" max="6" width="20.5" style="8"/>
-    <col min="7" max="1020" width="9.1640625" style="8"/>
-    <col min="1024" max="1025" width="8.6640625"/>
+    <col min="1" max="1" width="9.140625" style="32"/>
+    <col min="2" max="2" width="16.140625" style="8"/>
+    <col min="3" max="3" width="17.7109375" style="8"/>
+    <col min="4" max="4" width="11.28515625" style="8"/>
+    <col min="5" max="5" width="11.140625" style="8"/>
+    <col min="6" max="6" width="20.42578125" style="8"/>
+    <col min="7" max="1020" width="9.140625" style="8"/>
+    <col min="1024" max="1025" width="8.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4448,8 +3630,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="39" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="32" t="s">
         <v>18</v>
       </c>
       <c r="B2" s="8" t="s">
@@ -4465,8 +3647,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="39" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="32" t="s">
         <v>22</v>
       </c>
       <c r="B3" s="8" t="s">
@@ -4477,8 +3659,8 @@
       </c>
       <c r="F3"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="39" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="32" t="s">
         <v>24</v>
       </c>
       <c r="B4" s="8" t="s">
@@ -4491,8 +3673,8 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="39" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="32" t="s">
         <v>27</v>
       </c>
       <c r="B5" s="8" t="s">
@@ -4510,26 +3692,26 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMH9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.83203125" style="41"/>
-    <col min="2" max="2" width="39.5" style="41"/>
-    <col min="3" max="3" width="13.6640625" style="8"/>
-    <col min="4" max="4" width="10.6640625" style="8"/>
-    <col min="5" max="5" width="55" style="41"/>
-    <col min="6" max="6" width="9.1640625" style="8"/>
-    <col min="7" max="7" width="19.83203125" style="8"/>
-    <col min="8" max="1022" width="9.1640625" style="8"/>
+    <col min="1" max="1" width="23.85546875" style="34"/>
+    <col min="2" max="2" width="39.42578125" style="34"/>
+    <col min="3" max="3" width="13.7109375" style="8"/>
+    <col min="4" max="4" width="10.7109375" style="8"/>
+    <col min="5" max="5" width="55" style="34"/>
+    <col min="6" max="6" width="9.140625" style="8"/>
+    <col min="7" max="7" width="19.85546875" style="8"/>
+    <col min="8" max="1022" width="9.140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4552,79 +3734,79 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="34" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="34" t="s">
         <v>34</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="41" t="s">
+      <c r="B4" s="34" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>38</v>
       </c>
-      <c r="B5" s="41" t="s">
+      <c r="B5" s="34" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="B6" s="41" t="s">
+      <c r="B6" s="34" t="s">
         <v>41</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="41" t="s">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="B7" s="41" t="s">
+      <c r="B7" s="34" t="s">
         <v>44</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="41" t="s">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="B8" s="41" t="s">
+      <c r="B8" s="34" t="s">
         <v>47</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="41" t="s">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="B9" s="41" t="s">
+      <c r="B9" s="34" t="s">
         <v>50</v>
       </c>
       <c r="C9" s="8" t="s">
@@ -4642,27 +3824,27 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.1640625" style="39"/>
+    <col min="1" max="1" width="14.140625" style="32"/>
     <col min="2" max="2" width="13" style="15"/>
-    <col min="3" max="4" width="11.6640625" style="8"/>
-    <col min="5" max="5" width="22.1640625" style="8"/>
-    <col min="6" max="6" width="9.1640625" style="8"/>
-    <col min="7" max="8" width="13.5" style="8"/>
-    <col min="9" max="9" width="13.5"/>
-    <col min="10" max="10" width="19.83203125"/>
-    <col min="11" max="12" width="13.5"/>
+    <col min="3" max="4" width="11.7109375" style="8"/>
+    <col min="5" max="5" width="22.140625" style="8"/>
+    <col min="6" max="6" width="9.140625" style="8"/>
+    <col min="7" max="8" width="13.42578125" style="8"/>
+    <col min="9" max="9" width="13.42578125"/>
+    <col min="10" max="10" width="19.85546875"/>
+    <col min="11" max="12" width="13.42578125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4694,14 +3876,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="39" t="s">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="32" t="s">
         <v>57</v>
       </c>
       <c r="B2" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="C2" s="40"/>
+      <c r="C2" s="33"/>
       <c r="D2" s="15">
         <v>0</v>
       </c>
@@ -4713,8 +3895,8 @@
       </c>
       <c r="G2" s="15"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="39" t="s">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="32" t="s">
         <v>58</v>
       </c>
       <c r="B3" s="15" t="s">
@@ -4730,8 +3912,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="39" t="s">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="32" t="s">
         <v>59</v>
       </c>
       <c r="B4" s="15" t="s">
@@ -4747,8 +3929,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="39" t="s">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="32" t="s">
         <v>60</v>
       </c>
       <c r="B5" s="15" t="s">
@@ -4764,8 +3946,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="39" t="s">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="32" t="s">
         <v>61</v>
       </c>
       <c r="B6" s="15" t="s">
@@ -4781,8 +3963,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="39" t="s">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="32" t="s">
         <v>62</v>
       </c>
       <c r="B7" s="15" t="s">
@@ -4798,8 +3980,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="39" t="s">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="32" t="s">
         <v>63</v>
       </c>
       <c r="B8" s="15" t="s">
@@ -4815,8 +3997,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="39" t="s">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="32" t="s">
         <v>64</v>
       </c>
       <c r="B9" s="15" t="s">
@@ -4832,8 +4014,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="39" t="s">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="32" t="s">
         <v>65</v>
       </c>
       <c r="B10" s="15" t="s">
@@ -4849,8 +4031,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="39" t="s">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="32" t="s">
         <v>66</v>
       </c>
       <c r="B11" s="15" t="s">
@@ -4866,8 +4048,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="39" t="s">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="32" t="s">
         <v>67</v>
       </c>
       <c r="B12" s="15" t="s">
@@ -4883,8 +4065,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="39" t="s">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="32" t="s">
         <v>68</v>
       </c>
       <c r="B13" s="15" t="s">
@@ -4900,8 +4082,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="39" t="s">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="32" t="s">
         <v>69</v>
       </c>
       <c r="B14" s="15" t="s">
@@ -4917,8 +4099,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="39" t="s">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="32" t="s">
         <v>70</v>
       </c>
       <c r="B15" s="15" t="s">
@@ -4934,8 +4116,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="39" t="s">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="32" t="s">
         <v>71</v>
       </c>
       <c r="B16" s="15" t="s">
@@ -4951,8 +4133,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="39" t="s">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="32" t="s">
         <v>72</v>
       </c>
       <c r="B17" s="15" t="s">
@@ -4968,8 +4150,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="39" t="s">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="32" t="s">
         <v>73</v>
       </c>
       <c r="B18" s="15" t="s">
@@ -4985,8 +4167,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="39" t="s">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="32" t="s">
         <v>74</v>
       </c>
       <c r="B19" s="15" t="s">
@@ -5002,8 +4184,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="39" t="s">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="32" t="s">
         <v>75</v>
       </c>
       <c r="B20" s="15" t="s">
@@ -5019,8 +4201,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="39" t="s">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="32" t="s">
         <v>76</v>
       </c>
       <c r="B21" s="15" t="s">
@@ -5036,8 +4218,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="39" t="s">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="32" t="s">
         <v>77</v>
       </c>
       <c r="B22" s="15" t="s">
@@ -5053,8 +4235,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="39" t="s">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="32" t="s">
         <v>78</v>
       </c>
       <c r="B23" s="15" t="s">
@@ -5070,8 +4252,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="39" t="s">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="32" t="s">
         <v>79</v>
       </c>
       <c r="B24" s="15" t="s">
@@ -5087,8 +4269,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="39" t="s">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="32" t="s">
         <v>80</v>
       </c>
       <c r="B25" s="15" t="s">
@@ -5104,8 +4286,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="39" t="s">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="32" t="s">
         <v>81</v>
       </c>
       <c r="B26" s="15" t="s">
@@ -5132,26 +4314,26 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMI37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="G3" sqref="G3:H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.5" style="15"/>
-    <col min="2" max="2" width="16.5" style="15"/>
-    <col min="3" max="3" width="42.5" style="9"/>
-    <col min="4" max="6" width="13.5" style="19"/>
-    <col min="7" max="8" width="13.5" style="15"/>
-    <col min="9" max="9" width="16.5" style="27"/>
-    <col min="10" max="1023" width="32.5" style="8"/>
-    <col min="1024" max="1025" width="8.5"/>
+    <col min="1" max="1" width="17.42578125" style="15"/>
+    <col min="2" max="2" width="16.42578125" style="15"/>
+    <col min="3" max="3" width="42.42578125" style="9"/>
+    <col min="4" max="6" width="13.42578125" style="19"/>
+    <col min="7" max="8" width="13.42578125" style="15"/>
+    <col min="9" max="9" width="16.42578125" style="23"/>
+    <col min="10" max="1023" width="32.42578125" style="8"/>
+    <col min="1024" max="1025" width="8.42578125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1023" s="1" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1023" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5192,7 +4374,7 @@
       <c r="AMH1" s="8"/>
       <c r="AMI1" s="8"/>
     </row>
-    <row r="2" spans="1:1023" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1023" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>88</v>
       </c>
@@ -5208,17 +4390,17 @@
       <c r="E2" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="F2" s="38" t="s">
+      <c r="F2" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="G2" s="22">
+      <c r="G2" s="21">
         <v>20633455</v>
       </c>
-      <c r="H2" s="22">
+      <c r="H2" s="21">
         <v>20651511</v>
       </c>
     </row>
-    <row r="3" spans="1:1023" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1023" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>93</v>
       </c>
@@ -5234,17 +4416,17 @@
       <c r="E3" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="F3" s="38" t="s">
+      <c r="F3" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="G3" s="22">
+      <c r="G3" s="21">
         <v>10439968</v>
       </c>
-      <c r="H3" s="22">
+      <c r="H3" s="21">
         <v>10448504</v>
       </c>
     </row>
-    <row r="4" spans="1:1023" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1023" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>97</v>
       </c>
@@ -5260,17 +4442,17 @@
       <c r="E4" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="F4" s="38" t="s">
+      <c r="F4" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="G4" s="22">
+      <c r="G4" s="21">
         <v>69319769</v>
       </c>
-      <c r="H4" s="22">
+      <c r="H4" s="21">
         <v>69387254</v>
       </c>
     </row>
-    <row r="5" spans="1:1023" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1023" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>100</v>
       </c>
@@ -5286,17 +4468,17 @@
       <c r="E5" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="F5" s="38" t="s">
+      <c r="F5" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="G5" s="22">
+      <c r="G5" s="21">
         <v>40524878</v>
       </c>
-      <c r="H5" s="22">
+      <c r="H5" s="21">
         <v>40574685</v>
       </c>
     </row>
-    <row r="6" spans="1:1023" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1023" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>103</v>
       </c>
@@ -5312,17 +4494,17 @@
       <c r="E6" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="F6" s="38" t="s">
+      <c r="F6" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="G6" s="22">
+      <c r="G6" s="21">
         <v>112596794</v>
       </c>
-      <c r="H6" s="22">
+      <c r="H6" s="21">
         <v>112649530</v>
       </c>
     </row>
-    <row r="7" spans="1:1023" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1023" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>106</v>
       </c>
@@ -5338,17 +4520,17 @@
       <c r="E7" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="F7" s="38" t="s">
+      <c r="F7" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="G7" s="22">
+      <c r="G7" s="21">
         <v>83535914</v>
       </c>
-      <c r="H7" s="22">
+      <c r="H7" s="21">
         <v>83605875</v>
       </c>
     </row>
-    <row r="8" spans="1:1023" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:1023" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>109</v>
       </c>
@@ -5364,17 +4546,17 @@
       <c r="E8" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="F8" s="38" t="s">
+      <c r="F8" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="G8" s="22">
+      <c r="G8" s="21">
         <v>127880861</v>
       </c>
-      <c r="H8" s="22">
+      <c r="H8" s="21">
         <v>127899195</v>
       </c>
     </row>
-    <row r="9" spans="1:1023" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:1023" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
         <v>112</v>
       </c>
@@ -5390,17 +4572,17 @@
       <c r="E9" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="F9" s="38" t="s">
+      <c r="F9" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="G9" s="22">
+      <c r="G9" s="21">
         <v>160401641</v>
       </c>
-      <c r="H9" s="22">
+      <c r="H9" s="21">
         <v>160421711</v>
       </c>
     </row>
-    <row r="10" spans="1:1023" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:1023" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
         <v>115</v>
       </c>
@@ -5416,17 +4598,17 @@
       <c r="E10" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="F10" s="38" t="s">
+      <c r="F10" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="G10" s="22">
+      <c r="G10" s="21">
         <v>151656691</v>
       </c>
-      <c r="H10" s="22">
+      <c r="H10" s="21">
         <v>152129619</v>
       </c>
     </row>
-    <row r="11" spans="1:1023" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:1023" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
         <v>118</v>
       </c>
@@ -5442,17 +4624,17 @@
       <c r="E11" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="F11" s="38" t="s">
+      <c r="F11" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="G11" s="22">
+      <c r="G11" s="21">
         <v>56011051</v>
       </c>
-      <c r="H11" s="22">
+      <c r="H11" s="21">
         <v>56051604</v>
       </c>
     </row>
-    <row r="12" spans="1:1023" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:1023" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
         <v>121</v>
       </c>
@@ -5468,17 +4650,17 @@
       <c r="E12" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="F12" s="38" t="s">
+      <c r="F12" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="G12" s="22">
+      <c r="G12" s="21">
         <v>18055992</v>
       </c>
-      <c r="H12" s="22">
+      <c r="H12" s="21">
         <v>18084998</v>
       </c>
     </row>
-    <row r="13" spans="1:1023" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:1023" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
         <v>124</v>
       </c>
@@ -5494,17 +4676,17 @@
       <c r="E13" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="F13" s="38" t="s">
+      <c r="F13" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="G13" s="22">
+      <c r="G13" s="21">
         <v>19901717</v>
       </c>
-      <c r="H13" s="22">
+      <c r="H13" s="21">
         <v>19967258</v>
       </c>
     </row>
-    <row r="14" spans="1:1023" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:1023" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
         <v>127</v>
       </c>
@@ -5520,17 +4702,17 @@
       <c r="E14" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="F14" s="38" t="s">
+      <c r="F14" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="G14" s="22">
+      <c r="G14" s="21">
         <v>136410570</v>
       </c>
-      <c r="H14" s="22">
+      <c r="H14" s="21">
         <v>136423761</v>
       </c>
     </row>
-    <row r="15" spans="1:1023" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:1023" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
         <v>130</v>
       </c>
@@ -5546,17 +4728,17 @@
       <c r="E15" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="F15" s="38" t="s">
+      <c r="F15" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="G15" s="22">
+      <c r="G15" s="21">
         <v>7750962</v>
       </c>
-      <c r="H15" s="22">
+      <c r="H15" s="21">
         <v>7787981</v>
       </c>
     </row>
-    <row r="16" spans="1:1023" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:1023" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
         <v>133</v>
       </c>
@@ -5572,17 +4754,17 @@
       <c r="E16" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="F16" s="38" t="s">
+      <c r="F16" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="G16" s="22">
+      <c r="G16" s="21">
         <v>133394094</v>
       </c>
-      <c r="H16" s="22">
+      <c r="H16" s="21">
         <v>133421307</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
         <v>136</v>
       </c>
@@ -5598,17 +4780,17 @@
       <c r="E17" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="F17" s="38" t="s">
+      <c r="F17" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="G17" s="22">
+      <c r="G17" s="21">
         <v>13668670</v>
       </c>
-      <c r="H17" s="22">
+      <c r="H17" s="21">
         <v>13732346</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="15" t="s">
         <v>139</v>
       </c>
@@ -5624,17 +4806,17 @@
       <c r="E18" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="F18" s="38" t="s">
+      <c r="F18" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="G18" s="22">
+      <c r="G18" s="21">
         <v>114439386</v>
       </c>
-      <c r="H18" s="22">
+      <c r="H18" s="21">
         <v>114450279</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
         <v>142</v>
       </c>
@@ -5650,17 +4832,17 @@
       <c r="E19" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="F19" s="38" t="s">
+      <c r="F19" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="G19" s="22">
+      <c r="G19" s="21">
         <v>77021247</v>
       </c>
-      <c r="H19" s="22">
+      <c r="H19" s="21">
         <v>77065580</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="15" t="s">
         <v>145</v>
       </c>
@@ -5676,17 +4858,17 @@
       <c r="E20" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="F20" s="38" t="s">
+      <c r="F20" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="G20" s="22">
+      <c r="G20" s="21">
         <v>113298759</v>
       </c>
-      <c r="H20" s="22">
+      <c r="H20" s="21">
         <v>113359493</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="15" t="s">
         <v>148</v>
       </c>
@@ -5702,17 +4884,17 @@
       <c r="E21" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="F21" s="38" t="s">
+      <c r="F21" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="G21" s="22">
+      <c r="G21" s="21">
         <v>52455429</v>
       </c>
-      <c r="H21" s="22">
+      <c r="H21" s="21">
         <v>52476628</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="15" t="s">
         <v>151</v>
       </c>
@@ -5728,17 +4910,17 @@
       <c r="E22" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="F22" s="38" t="s">
+      <c r="F22" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="G22" s="22">
+      <c r="G22" s="21">
         <v>102932379</v>
       </c>
-      <c r="H22" s="22">
+      <c r="H22" s="21">
         <v>103057462</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="15" t="s">
         <v>154</v>
       </c>
@@ -5754,17 +4936,17 @@
       <c r="E23" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="F23" s="38" t="s">
+      <c r="F23" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="G23" s="22">
+      <c r="G23" s="21">
         <v>65530418</v>
       </c>
-      <c r="H23" s="22">
+      <c r="H23" s="21">
         <v>65578352</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="15" t="s">
         <v>157</v>
       </c>
@@ -5780,17 +4962,17 @@
       <c r="E24" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="F24" s="38" t="s">
+      <c r="F24" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="G24" s="22">
+      <c r="G24" s="21">
         <v>101175723</v>
       </c>
-      <c r="H24" s="22">
+      <c r="H24" s="21">
         <v>101251932</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="15" t="s">
         <v>160</v>
       </c>
@@ -5806,17 +4988,17 @@
       <c r="E25" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="F25" s="38" t="s">
+      <c r="F25" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="G25" s="22">
+      <c r="G25" s="21">
         <v>89088375</v>
       </c>
-      <c r="H25" s="22">
+      <c r="H25" s="21">
         <v>89155846</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="15" t="s">
         <v>163</v>
       </c>
@@ -5832,17 +5014,17 @@
       <c r="E26" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="F26" s="38" t="s">
+      <c r="F26" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="G26" s="22">
+      <c r="G26" s="21">
         <v>49210227</v>
       </c>
-      <c r="H26" s="22">
+      <c r="H26" s="21">
         <v>49223225</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="15" t="s">
         <v>166</v>
       </c>
@@ -5858,17 +5040,17 @@
       <c r="E27" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="F27" s="38" t="s">
+      <c r="F27" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="G27" s="22">
+      <c r="G27" s="21">
         <v>50967991</v>
       </c>
-      <c r="H27" s="22">
+      <c r="H27" s="21">
         <v>50988121</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="15" t="s">
         <v>169</v>
       </c>
@@ -5884,17 +5066,17 @@
       <c r="E28" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="F28" s="38" t="s">
+      <c r="F28" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="G28" s="22">
+      <c r="G28" s="21">
         <v>41431318</v>
       </c>
-      <c r="H28" s="22">
+      <c r="H28" s="21">
         <v>41440717</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="15" t="s">
         <v>172</v>
       </c>
@@ -5910,17 +5092,17 @@
       <c r="E29" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="F29" s="38" t="s">
+      <c r="F29" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="G29" s="22">
+      <c r="G29" s="21">
         <v>47778572</v>
       </c>
-      <c r="H29" s="22">
+      <c r="H29" s="21">
         <v>47784686</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="15" t="s">
         <v>175</v>
       </c>
@@ -5936,17 +5118,17 @@
       <c r="E30" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="F30" s="38" t="s">
+      <c r="F30" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="G30" s="22">
+      <c r="G30" s="21">
         <v>13389392</v>
       </c>
-      <c r="H30" s="22">
+      <c r="H30" s="21">
         <v>13638940</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="15" t="s">
         <v>178</v>
       </c>
@@ -5962,17 +5144,17 @@
       <c r="E31" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="F31" s="38" t="s">
+      <c r="F31" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="G31" s="22">
+      <c r="G31" s="21">
         <v>44619522</v>
       </c>
-      <c r="H31" s="22">
+      <c r="H31" s="21">
         <v>44652233</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="15" t="s">
         <v>181</v>
       </c>
@@ -5988,17 +5170,17 @@
       <c r="E32" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="F32" s="38" t="s">
+      <c r="F32" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="G32" s="22">
+      <c r="G32" s="21">
         <v>31659622</v>
       </c>
-      <c r="H32" s="22">
+      <c r="H32" s="21">
         <v>31668931</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="15" t="s">
         <v>184</v>
       </c>
@@ -6014,17 +5196,17 @@
       <c r="E33" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="F33" s="38" t="s">
+      <c r="F33" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="G33" s="22">
+      <c r="G33" s="21">
         <v>20707691</v>
       </c>
-      <c r="H33" s="22">
+      <c r="H33" s="21">
         <v>20859417</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="15" t="s">
         <v>187</v>
       </c>
@@ -6040,17 +5222,17 @@
       <c r="E34" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="F34" s="38" t="s">
+      <c r="F34" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="G34" s="22">
+      <c r="G34" s="21">
         <v>38705723</v>
       </c>
-      <c r="H34" s="22">
+      <c r="H34" s="21">
         <v>38738299</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="15" t="s">
         <v>190</v>
       </c>
@@ -6066,17 +5248,17 @@
       <c r="E35" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="F35" s="38" t="s">
+      <c r="F35" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="G35" s="22">
+      <c r="G35" s="21">
         <v>119588337</v>
       </c>
-      <c r="H35" s="22">
+      <c r="H35" s="21">
         <v>119605895</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="15" t="s">
         <v>193</v>
       </c>
@@ -6092,17 +5274,17 @@
       <c r="E36" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="F36" s="38" t="s">
+      <c r="F36" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="G36" s="22">
+      <c r="G36" s="21">
         <v>22973819</v>
       </c>
-      <c r="H36" s="22">
+      <c r="H36" s="21">
         <v>23005465</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="15" t="s">
         <v>196</v>
       </c>
@@ -6118,18 +5300,18 @@
       <c r="E37" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="F37" s="38" t="s">
+      <c r="F37" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="G37" s="22">
+      <c r="G37" s="21">
         <v>5904</v>
       </c>
-      <c r="H37" s="22">
+      <c r="H37" s="21">
         <v>7445</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:H1064" xr:uid="{00000000-0009-0000-0000-000005000000}"/>
+  <autoFilter ref="B1:H1064"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1"/>
   <headerFooter>
@@ -6140,37 +5322,37 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="16.5" style="15"/>
+    <col min="1" max="3" width="16.42578125" style="15"/>
     <col min="4" max="4" width="22" style="15"/>
-    <col min="5" max="5" width="13.6640625" style="15"/>
-    <col min="6" max="6" width="9.1640625" style="15"/>
-    <col min="7" max="7" width="25.1640625" style="15"/>
-    <col min="8" max="8" width="13.5" style="15"/>
-    <col min="9" max="9" width="16.33203125" style="15" customWidth="1"/>
-    <col min="10" max="10" width="15.5" style="15" customWidth="1"/>
-    <col min="11" max="11" width="18.5" style="15" customWidth="1"/>
-    <col min="12" max="12" width="23.33203125" style="15"/>
-    <col min="13" max="13" width="25.1640625" style="8"/>
-    <col min="14" max="14" width="19.83203125"/>
-    <col min="15" max="15" width="9.1640625" style="19"/>
-    <col min="16" max="16" width="10.5" style="19"/>
-    <col min="17" max="17" width="10.6640625" style="19"/>
-    <col min="18" max="19" width="9.1640625" style="15"/>
-    <col min="20" max="20" width="22.83203125" style="19"/>
-    <col min="21" max="1016" width="9.1640625" style="15"/>
-    <col min="1017" max="1025" width="9.1640625" style="8"/>
+    <col min="5" max="5" width="13.7109375" style="15"/>
+    <col min="6" max="6" width="9.140625" style="15"/>
+    <col min="7" max="7" width="25.140625" style="15"/>
+    <col min="8" max="8" width="13.42578125" style="15"/>
+    <col min="9" max="9" width="16.28515625" style="15" customWidth="1"/>
+    <col min="10" max="10" width="15.42578125" style="15" customWidth="1"/>
+    <col min="11" max="11" width="18.42578125" style="15" customWidth="1"/>
+    <col min="12" max="12" width="23.28515625" style="15"/>
+    <col min="13" max="13" width="25.140625" style="8"/>
+    <col min="14" max="14" width="19.85546875"/>
+    <col min="15" max="15" width="9.140625" style="19"/>
+    <col min="16" max="16" width="10.42578125" style="19"/>
+    <col min="17" max="17" width="10.7109375" style="19"/>
+    <col min="18" max="19" width="9.140625" style="15"/>
+    <col min="20" max="20" width="22.85546875" style="19"/>
+    <col min="21" max="1016" width="9.140625" style="15"/>
+    <col min="1017" max="1025" width="9.140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1025" s="1" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1025" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6207,29 +5389,29 @@
       <c r="L1" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="33" t="s">
+      <c r="M1" s="26" t="s">
         <v>16</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="O1" s="34"/>
-      <c r="P1" s="34"/>
-      <c r="Q1" s="34"/>
-      <c r="R1" s="36"/>
-      <c r="S1" s="36"/>
-      <c r="T1" s="34"/>
-      <c r="AMC1" s="37"/>
-      <c r="AMD1" s="37"/>
-      <c r="AME1" s="37"/>
-      <c r="AMF1" s="37"/>
-      <c r="AMG1" s="37"/>
-      <c r="AMH1" s="37"/>
-      <c r="AMI1" s="37"/>
-      <c r="AMJ1" s="37"/>
-      <c r="AMK1" s="37"/>
-    </row>
-    <row r="2" spans="1:1025" x14ac:dyDescent="0.2">
+      <c r="O1" s="27"/>
+      <c r="P1" s="27"/>
+      <c r="Q1" s="27"/>
+      <c r="R1" s="29"/>
+      <c r="S1" s="29"/>
+      <c r="T1" s="27"/>
+      <c r="AMC1" s="30"/>
+      <c r="AMD1" s="30"/>
+      <c r="AME1" s="30"/>
+      <c r="AMF1" s="30"/>
+      <c r="AMG1" s="30"/>
+      <c r="AMH1" s="30"/>
+      <c r="AMI1" s="30"/>
+      <c r="AMJ1" s="30"/>
+      <c r="AMK1" s="30"/>
+    </row>
+    <row r="2" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>203</v>
       </c>
@@ -6261,11 +5443,11 @@
         <v>203895200</v>
       </c>
       <c r="L2" s="19"/>
-      <c r="M2" s="35"/>
+      <c r="M2" s="28"/>
       <c r="R2" s="18"/>
       <c r="S2" s="18"/>
     </row>
-    <row r="3" spans="1:1025" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>207</v>
       </c>
@@ -6297,11 +5479,11 @@
         <v>20605200</v>
       </c>
       <c r="L3" s="19"/>
-      <c r="M3" s="35"/>
+      <c r="M3" s="28"/>
       <c r="R3" s="18"/>
       <c r="S3" s="18"/>
     </row>
-    <row r="4" spans="1:1025" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>210</v>
       </c>
@@ -6333,11 +5515,11 @@
         <v>45648411</v>
       </c>
       <c r="L4" s="19"/>
-      <c r="M4" s="35"/>
+      <c r="M4" s="28"/>
       <c r="R4" s="18"/>
       <c r="S4" s="18"/>
     </row>
-    <row r="5" spans="1:1025" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>214</v>
       </c>
@@ -6369,11 +5551,11 @@
         <v>85414201</v>
       </c>
       <c r="L5" s="19"/>
-      <c r="M5" s="35"/>
+      <c r="M5" s="28"/>
       <c r="R5" s="18"/>
       <c r="S5" s="18"/>
     </row>
-    <row r="6" spans="1:1025" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>218</v>
       </c>
@@ -6405,11 +5587,11 @@
         <v>39878600</v>
       </c>
       <c r="L6" s="19"/>
-      <c r="M6" s="35"/>
+      <c r="M6" s="28"/>
       <c r="R6" s="18"/>
       <c r="S6" s="18"/>
     </row>
-    <row r="7" spans="1:1025" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>221</v>
       </c>
@@ -6441,11 +5623,11 @@
         <v>185318582</v>
       </c>
       <c r="L7" s="19"/>
-      <c r="M7" s="35"/>
+      <c r="M7" s="28"/>
       <c r="R7" s="18"/>
       <c r="S7" s="18"/>
     </row>
-    <row r="8" spans="1:1025" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>223</v>
       </c>
@@ -6477,11 +5659,11 @@
         <v>53863800</v>
       </c>
       <c r="L8" s="19"/>
-      <c r="M8" s="35"/>
+      <c r="M8" s="28"/>
       <c r="R8" s="18"/>
       <c r="S8" s="18"/>
     </row>
-    <row r="9" spans="1:1025" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
         <v>226</v>
       </c>
@@ -6513,11 +5695,11 @@
         <v>118837001</v>
       </c>
       <c r="L9" s="19"/>
-      <c r="M9" s="35"/>
+      <c r="M9" s="28"/>
       <c r="R9" s="18"/>
       <c r="S9" s="18"/>
     </row>
-    <row r="10" spans="1:1025" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
         <v>228</v>
       </c>
@@ -6549,11 +5731,11 @@
         <v>141851600</v>
       </c>
       <c r="L10" s="19"/>
-      <c r="M10" s="35"/>
+      <c r="M10" s="28"/>
       <c r="R10" s="18"/>
       <c r="S10" s="18"/>
     </row>
-    <row r="11" spans="1:1025" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
         <v>230</v>
       </c>
@@ -6585,11 +5767,11 @@
         <v>2991400</v>
       </c>
       <c r="L11" s="19"/>
-      <c r="M11" s="35"/>
+      <c r="M11" s="28"/>
       <c r="R11" s="18"/>
       <c r="S11" s="18"/>
     </row>
-    <row r="12" spans="1:1025" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
         <v>232</v>
       </c>
@@ -6621,11 +5803,11 @@
         <v>43971001</v>
       </c>
       <c r="L12" s="19"/>
-      <c r="M12" s="35"/>
+      <c r="M12" s="28"/>
       <c r="R12" s="18"/>
       <c r="S12" s="18"/>
     </row>
-    <row r="13" spans="1:1025" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
         <v>234</v>
       </c>
@@ -6657,11 +5839,11 @@
         <v>893236</v>
       </c>
       <c r="L13" s="19"/>
-      <c r="M13" s="35"/>
+      <c r="M13" s="28"/>
       <c r="R13" s="18"/>
       <c r="S13" s="18"/>
     </row>
-    <row r="14" spans="1:1025" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
         <v>236</v>
       </c>
@@ -6693,11 +5875,11 @@
         <v>116112801</v>
       </c>
       <c r="L14" s="19"/>
-      <c r="M14" s="35"/>
+      <c r="M14" s="28"/>
       <c r="R14" s="18"/>
       <c r="S14" s="18"/>
     </row>
-    <row r="15" spans="1:1025" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
         <v>238</v>
       </c>
@@ -6732,11 +5914,11 @@
         <v>241</v>
       </c>
       <c r="L15" s="19"/>
-      <c r="M15" s="35"/>
+      <c r="M15" s="28"/>
       <c r="R15" s="18"/>
       <c r="S15" s="18"/>
     </row>
-    <row r="16" spans="1:1025" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
         <v>242</v>
       </c>
@@ -6768,11 +5950,11 @@
         <v>22702000</v>
       </c>
       <c r="L16" s="19"/>
-      <c r="M16" s="35"/>
+      <c r="M16" s="28"/>
       <c r="R16" s="18"/>
       <c r="S16" s="18"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
         <v>244</v>
       </c>
@@ -6804,11 +5986,11 @@
         <v>46023801</v>
       </c>
       <c r="L17" s="19"/>
-      <c r="M17" s="35"/>
+      <c r="M17" s="28"/>
       <c r="R17" s="18"/>
       <c r="S17" s="18"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="15" t="s">
         <v>246</v>
       </c>
@@ -6840,11 +6022,11 @@
         <v>132187000</v>
       </c>
       <c r="L18" s="19"/>
-      <c r="M18" s="35"/>
+      <c r="M18" s="28"/>
       <c r="R18" s="18"/>
       <c r="S18" s="18"/>
     </row>
-    <row r="19" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
         <v>248</v>
       </c>
@@ -6879,11 +6061,11 @@
         <v>250</v>
       </c>
       <c r="L19" s="19"/>
-      <c r="M19" s="35"/>
+      <c r="M19" s="28"/>
       <c r="R19" s="18"/>
       <c r="S19" s="18"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="15" t="s">
         <v>251</v>
       </c>
@@ -6915,11 +6097,11 @@
         <v>101940201</v>
       </c>
       <c r="L20" s="19"/>
-      <c r="M20" s="35"/>
+      <c r="M20" s="28"/>
       <c r="R20" s="18"/>
       <c r="S20" s="18"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="15" t="s">
         <v>253</v>
       </c>
@@ -6951,11 +6133,11 @@
         <v>99985401</v>
       </c>
       <c r="L21" s="19"/>
-      <c r="M21" s="35"/>
+      <c r="M21" s="28"/>
       <c r="R21" s="18"/>
       <c r="S21" s="18"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="15" t="s">
         <v>255</v>
       </c>
@@ -6987,11 +6169,11 @@
         <v>52849993</v>
       </c>
       <c r="L22" s="19"/>
-      <c r="M22" s="35"/>
+      <c r="M22" s="28"/>
       <c r="R22" s="18"/>
       <c r="S22" s="18"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="15" t="s">
         <v>257</v>
       </c>
@@ -7023,11 +6205,11 @@
         <v>23579130</v>
       </c>
       <c r="L23" s="19"/>
-      <c r="M23" s="35"/>
+      <c r="M23" s="28"/>
       <c r="R23" s="18"/>
       <c r="S23" s="18"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="15" t="s">
         <v>259</v>
       </c>
@@ -7059,11 +6241,11 @@
         <v>90215000</v>
       </c>
       <c r="L24" s="19"/>
-      <c r="M24" s="35"/>
+      <c r="M24" s="28"/>
       <c r="R24" s="18"/>
       <c r="S24" s="18"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="15" t="s">
         <v>261</v>
       </c>
@@ -7095,11 +6277,11 @@
         <v>47720200</v>
       </c>
       <c r="L25" s="19"/>
-      <c r="M25" s="35"/>
+      <c r="M25" s="28"/>
       <c r="R25" s="18"/>
       <c r="S25" s="18"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="15" t="s">
         <v>263</v>
       </c>
@@ -7131,11 +6313,11 @@
         <v>50369600</v>
       </c>
       <c r="L26" s="19"/>
-      <c r="M26" s="35"/>
+      <c r="M26" s="28"/>
       <c r="R26" s="18"/>
       <c r="S26" s="18"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="15" t="s">
         <v>265</v>
       </c>
@@ -7167,11 +6349,11 @@
         <v>18650600</v>
       </c>
       <c r="L27" s="19"/>
-      <c r="M27" s="35"/>
+      <c r="M27" s="28"/>
       <c r="R27" s="18"/>
       <c r="S27" s="18"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="15" t="s">
         <v>267</v>
       </c>
@@ -7203,11 +6385,11 @@
         <v>33756401</v>
       </c>
       <c r="L28" s="19"/>
-      <c r="M28" s="35"/>
+      <c r="M28" s="28"/>
       <c r="R28" s="18"/>
       <c r="S28" s="18"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="15" t="s">
         <v>269</v>
       </c>
@@ -7239,11 +6421,11 @@
         <v>58328001</v>
       </c>
       <c r="L29" s="19"/>
-      <c r="M29" s="35"/>
+      <c r="M29" s="28"/>
       <c r="R29" s="18"/>
       <c r="S29" s="18"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="15" t="s">
         <v>271</v>
       </c>
@@ -7275,11 +6457,11 @@
         <v>50118213</v>
       </c>
       <c r="L30" s="19"/>
-      <c r="M30" s="35"/>
+      <c r="M30" s="28"/>
       <c r="R30" s="18"/>
       <c r="S30" s="18"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="15" t="s">
         <v>273</v>
       </c>
@@ -7311,11 +6493,11 @@
         <v>62961734</v>
       </c>
       <c r="L31" s="19"/>
-      <c r="M31" s="35"/>
+      <c r="M31" s="28"/>
       <c r="R31" s="18"/>
       <c r="S31" s="18"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="15" t="s">
         <v>275</v>
       </c>
@@ -7347,11 +6529,11 @@
         <v>57964896</v>
       </c>
       <c r="L32" s="19"/>
-      <c r="M32" s="35"/>
+      <c r="M32" s="28"/>
       <c r="R32" s="18"/>
       <c r="S32" s="18"/>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="15" t="s">
         <v>277</v>
       </c>
@@ -7383,11 +6565,11 @@
         <v>36711020</v>
       </c>
       <c r="L33" s="19"/>
-      <c r="M33" s="35"/>
+      <c r="M33" s="28"/>
       <c r="R33" s="18"/>
       <c r="S33" s="18"/>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" s="15" t="s">
         <v>279</v>
       </c>
@@ -7419,11 +6601,11 @@
         <v>43346796</v>
       </c>
       <c r="L34" s="19"/>
-      <c r="M34" s="35"/>
+      <c r="M34" s="28"/>
       <c r="R34" s="18"/>
       <c r="S34" s="18"/>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" s="15" t="s">
         <v>281</v>
       </c>
@@ -7455,11 +6637,11 @@
         <v>30592601</v>
       </c>
       <c r="L35" s="19"/>
-      <c r="M35" s="35"/>
+      <c r="M35" s="28"/>
       <c r="R35" s="18"/>
       <c r="S35" s="18"/>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" s="15" t="s">
         <v>283</v>
       </c>
@@ -7491,11 +6673,11 @@
         <v>135326600</v>
       </c>
       <c r="L36" s="19"/>
-      <c r="M36" s="35"/>
+      <c r="M36" s="28"/>
       <c r="R36" s="18"/>
       <c r="S36" s="18"/>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" s="15" t="s">
         <v>285</v>
       </c>
@@ -7527,12 +6709,12 @@
         <v>14200</v>
       </c>
       <c r="L37" s="19"/>
-      <c r="M37" s="35"/>
+      <c r="M37" s="28"/>
       <c r="R37" s="18"/>
       <c r="S37" s="18"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L776" xr:uid="{00000000-0009-0000-0000-000006000000}"/>
+  <autoFilter ref="A1:L776"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1"/>
   <headerFooter>
@@ -7543,33 +6725,33 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMG5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.6640625" style="15" customWidth="1"/>
-    <col min="2" max="2" width="10.5" style="15" customWidth="1"/>
-    <col min="3" max="3" width="17.5" style="15" customWidth="1"/>
-    <col min="4" max="4" width="50.5" style="15"/>
-    <col min="5" max="5" width="18.5" style="15" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" style="15" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" style="15" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" style="15" customWidth="1"/>
+    <col min="4" max="4" width="50.42578125" style="15"/>
+    <col min="5" max="5" width="18.42578125" style="15" customWidth="1"/>
     <col min="6" max="6" width="10" style="15" customWidth="1"/>
-    <col min="7" max="7" width="13.6640625" style="15" customWidth="1"/>
-    <col min="8" max="8" width="22.83203125" style="27"/>
-    <col min="9" max="9" width="13.5" style="31"/>
-    <col min="10" max="10" width="19.83203125" style="19"/>
-    <col min="11" max="11" width="10.6640625" style="19"/>
-    <col min="12" max="13" width="9.1640625" style="15"/>
-    <col min="14" max="1021" width="9.1640625" style="31"/>
-    <col min="1022" max="1024" width="8.5"/>
-    <col min="1025" max="1030" width="8.6640625"/>
+    <col min="7" max="7" width="13.7109375" style="15" customWidth="1"/>
+    <col min="8" max="8" width="22.85546875" style="23"/>
+    <col min="9" max="9" width="13.42578125" style="24"/>
+    <col min="10" max="10" width="19.85546875" style="19"/>
+    <col min="11" max="11" width="10.7109375" style="19"/>
+    <col min="12" max="13" width="9.140625" style="15"/>
+    <col min="14" max="1021" width="9.140625" style="24"/>
+    <col min="1022" max="1024" width="8.42578125"/>
+    <col min="1025" max="1030" width="8.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7600,9 +6782,9 @@
       <c r="J1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K1" s="32"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K1" s="25"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>291</v>
       </c>
@@ -7626,7 +6808,7 @@
       <c r="M2" s="18"/>
       <c r="N2" s="15"/>
     </row>
-    <row r="3" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>295</v>
       </c>
@@ -7650,7 +6832,7 @@
       <c r="M3" s="18"/>
       <c r="N3" s="15"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>298</v>
       </c>
@@ -7673,7 +6855,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>302</v>
       </c>
@@ -7697,7 +6879,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H849" xr:uid="{00000000-0009-0000-0000-000007000000}"/>
+  <autoFilter ref="A1:H849"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1"/>
   <headerFooter>
@@ -7708,30 +6890,26 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:AMG3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.5" style="19"/>
-    <col min="2" max="2" width="21.1640625" style="19"/>
-    <col min="3" max="3" width="10.6640625" style="19"/>
-    <col min="4" max="4" width="22.83203125" style="27"/>
-    <col min="5" max="5" width="10.6640625"/>
-    <col min="6" max="6" width="13.5"/>
-    <col min="7" max="7" width="13.5" style="15"/>
-    <col min="8" max="8" width="13.5" style="28"/>
-    <col min="9" max="9" width="10.6640625" style="18"/>
-    <col min="10" max="10" width="19.83203125" style="15"/>
-    <col min="11" max="11" width="13.5" style="15"/>
-    <col min="12" max="1021" width="9.1640625" style="8"/>
+    <col min="1" max="1" width="16.42578125"/>
+    <col min="2" max="2" width="11.7109375"/>
+    <col min="3" max="4" width="8.42578125"/>
+    <col min="5" max="5" width="7.42578125"/>
+    <col min="6" max="6" width="10.42578125"/>
+    <col min="7" max="7" width="10.7109375"/>
+    <col min="8" max="8" width="19.85546875"/>
+    <col min="9" max="1025" width="8.42578125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="23" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" s="22" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
@@ -7739,90 +6917,89 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>84</v>
+        <v>287</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>287</v>
+        <v>304</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>304</v>
+        <v>11</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K1" s="1"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="19" t="s">
+      <c r="I1" s="1"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>305</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" t="s">
         <v>306</v>
       </c>
-      <c r="C2" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="D2" s="15" t="s">
+      <c r="C2" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2" s="29">
-        <v>649.38268549272595</v>
-      </c>
-      <c r="H2" s="27"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="30"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="19" t="s">
+      <c r="D2" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>307</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" t="s">
         <v>308</v>
       </c>
-      <c r="C3" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3" s="29">
-        <v>498.886582908722</v>
-      </c>
-      <c r="H3" s="27"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="30"/>
+      <c r="C3" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="D3" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>309</v>
+      </c>
+      <c r="B4" t="s">
+        <v>310</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="D4" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>311</v>
+      </c>
+      <c r="B5" t="s">
+        <v>312</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="D5" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="19" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H19" s="21"/>
+    </row>
+    <row r="20" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H20" s="21"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G915" xr:uid="{00000000-0009-0000-0000-000008000000}"/>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1"/>
-  <headerFooter>
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
 </worksheet>
 </file>
--- a/tests/fixtures/eukaryote_core.xlsx
+++ b/tests/fixtures/eukaryote_core.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1755" windowWidth="27045" windowHeight="17910" tabRatio="993" activeTab="8"/>
+    <workbookView windowWidth="20295" windowHeight="6840" tabRatio="993" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Knowledge base" sheetId="1" r:id="rId1"/>
@@ -28,15 +28,15 @@
     <sheet name="References" sheetId="20" r:id="rId19"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Knowledge base'!$A$1:$B$9</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Cell!$A$1:$B$4</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">'Complex species types'!$A$1:$J$221</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Gene loci'!$B$1:$H$1064</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Knowledge base'!$A$1:$B$9</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'Protein species types'!$A$1:$G$719</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="15" hidden="1">'Rate laws'!$A$1:$F$9</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">Reactions!$A$1:$F$220</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Regulatory element loci'!$A$1:$L$776</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'Regulatory module'!$A$1:$H$849</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'Protein species types'!$A$1:$G$719</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">'Complex species types'!$A$1:$J$221</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">Reactions!$A$1:$F$220</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="15" hidden="1">'Rate laws'!$A$1:$F$9</definedName>
     <definedName name="_FilterDatabase_0" localSheetId="1">Cell!$A$1:$B$1</definedName>
     <definedName name="_FilterDatabase_0" localSheetId="5">'Gene loci'!$I$1</definedName>
     <definedName name="_FilterDatabase_0" localSheetId="0">'Knowledge base'!$A$1:$B$2</definedName>
@@ -130,7 +130,7 @@
     <t>References</t>
   </si>
   <si>
-    <t>Database References</t>
+    <t>Identifiers</t>
   </si>
   <si>
     <t>c</t>
@@ -1000,24 +1000,36 @@
     <t>transcript_1</t>
   </si>
   <si>
+    <t>10440000:10442000, 10442780:10443000</t>
+  </si>
+  <si>
     <t>ENST00000405333</t>
   </si>
   <si>
     <t>transcript_2</t>
   </si>
   <si>
+    <t>10440000:10442000, 10443780:10444001</t>
+  </si>
+  <si>
     <t>ENST00000443218</t>
   </si>
   <si>
     <t>transcript_3</t>
   </si>
   <si>
+    <t>10440000:10442000, 10448000:10448500</t>
+  </si>
+  <si>
     <t>ENST00000446285</t>
   </si>
   <si>
     <t>transcript_4</t>
   </si>
   <si>
+    <t>10446000:10442000, 10442780:10443003</t>
+  </si>
+  <si>
     <t>Uniprot</t>
   </si>
   <si>
@@ -1036,12 +1048,51 @@
     <t>P11926</t>
   </si>
   <si>
+    <t>10440000:10440868, 10441509:10441723</t>
+  </si>
+  <si>
     <t>ENSP00000385333</t>
   </si>
   <si>
+    <t>10440000:10440868</t>
+  </si>
+  <si>
     <t>C9JG30</t>
   </si>
   <si>
+    <t>10444931:10445049</t>
+  </si>
+  <si>
+    <t>Modified protein</t>
+  </si>
+  <si>
+    <t>Modified residue</t>
+  </si>
+  <si>
+    <t>Abundance ratio</t>
+  </si>
+  <si>
+    <t>ENSP00000355428_1</t>
+  </si>
+  <si>
+    <t>phosphorylation</t>
+  </si>
+  <si>
+    <t>s56</t>
+  </si>
+  <si>
+    <t>ENSP00000355428_2</t>
+  </si>
+  <si>
+    <t>t73,s77</t>
+  </si>
+  <si>
+    <t>ENSP00000355428_3</t>
+  </si>
+  <si>
+    <t>s141</t>
+  </si>
+  <si>
     <t>ID</t>
   </si>
   <si>
@@ -1406,64 +1457,19 @@
   </si>
   <si>
     <t>10.1234/abc234</t>
-  </si>
-  <si>
-    <t>Modified protein</t>
-  </si>
-  <si>
-    <t>Modified residue</t>
-  </si>
-  <si>
-    <t>Abundance ratio</t>
-  </si>
-  <si>
-    <t>s56</t>
-  </si>
-  <si>
-    <t>phosphorylation</t>
-  </si>
-  <si>
-    <t>ENSP00000355428_1</t>
-  </si>
-  <si>
-    <t>ENSP00000355428_2</t>
-  </si>
-  <si>
-    <t>ENSP00000355428_3</t>
-  </si>
-  <si>
-    <t>t73,s77</t>
-  </si>
-  <si>
-    <t>s141</t>
-  </si>
-  <si>
-    <t>10440000:10442000, 10442780:10443000</t>
-  </si>
-  <si>
-    <t>10440000:10442000, 10443780:10444001</t>
-  </si>
-  <si>
-    <t>10440000:10442000, 10448000:10448500</t>
-  </si>
-  <si>
-    <t>10446000:10442000, 10442780:10443003</t>
-  </si>
-  <si>
-    <t>10440000:10440868, 10441509:10441723</t>
-  </si>
-  <si>
-    <t>10440000:10440868</t>
-  </si>
-  <si>
-    <t>10444931:10445049</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="15" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+  </numFmts>
+  <fonts count="33">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1516,9 +1522,22 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="10"/>
-      <name val="arial"/>
-      <charset val="1"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1534,31 +1553,155 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <sz val="10"/>
+      <name val="arial"/>
       <charset val="1"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color theme="0"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1583,8 +1726,194 @@
         <bgColor rgb="FFCCCCCC"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1592,12 +1921,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1606,12 +2174,12 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="35"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="35" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="35" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="35" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1649,19 +2217,24 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1681,29 +2254,70 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="35" applyFont="1" quotePrefix="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Explanatory Text" xfId="1" builtinId="53"/>
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
+    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
+    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
+    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
+    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
+    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
+    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
+    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
+    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
+    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
+    <cellStyle name="Total" xfId="25" builtinId="25"/>
+    <cellStyle name="Output" xfId="26" builtinId="21"/>
+    <cellStyle name="Currency" xfId="27" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
+    <cellStyle name="Note" xfId="29" builtinId="10"/>
+    <cellStyle name="Input" xfId="30" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
+    <cellStyle name="Good" xfId="33" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
+    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
+    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
+    <cellStyle name="Title" xfId="39" builtinId="15"/>
+    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
+    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
+    <cellStyle name="Comma" xfId="44" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
+    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
+    <cellStyle name="Percent" xfId="47" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
@@ -1777,9 +2391,6 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -1789,10 +2400,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr val="windowText" lastClr="212121"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="F3F3F3"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -2065,122 +2676,127 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="21.42578125" style="30"/>
-    <col min="2" max="2" width="43.42578125" style="8"/>
-    <col min="3" max="1025" width="8.42578125"/>
+    <col min="1" max="1" width="21.425" style="33"/>
+    <col min="2" max="2" width="43.425" style="8"/>
+    <col min="3" max="1025" width="8.425"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
+    <row r="1" ht="15" customHeight="1" spans="1:2">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="40" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="36" t="s">
+    <row r="2" ht="15" customHeight="1" spans="1:2">
+      <c r="A2" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="31" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="36" t="s">
+    <row r="3" ht="15" customHeight="1" spans="1:2">
+      <c r="A3" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="28">
+      <c r="B3" s="31">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="30" t="s">
+    <row r="4" spans="1:2">
+      <c r="A4" s="33" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="30" t="s">
+    <row r="5" spans="1:2">
+      <c r="A5" s="33" t="s">
         <v>7</v>
       </c>
       <c r="B5"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="30" t="s">
+    <row r="6" spans="1:2">
+      <c r="A6" s="33" t="s">
         <v>8</v>
       </c>
       <c r="B6"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="30" t="s">
+    <row r="7" spans="1:2">
+      <c r="A7" s="33" t="s">
         <v>9</v>
       </c>
       <c r="B7"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="30" t="s">
+    <row r="8" spans="1:2">
+      <c r="A8" s="33" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="30" t="s">
+    <row r="9" spans="1:1">
+      <c r="A9" s="33" t="s">
         <v>11</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B9"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <autoFilter ref="A1:B9">
+    <extLst/>
+  </autoFilter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMG15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2:E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="20.28515625" style="9"/>
-    <col min="2" max="2" width="33.85546875" style="9"/>
-    <col min="3" max="3" width="16.42578125" style="19"/>
-    <col min="4" max="4" width="16.42578125" style="15"/>
-    <col min="5" max="5" width="25.42578125" style="15" customWidth="1"/>
-    <col min="6" max="6" width="10.42578125" style="8"/>
-    <col min="7" max="7" width="40.28515625" style="9"/>
-    <col min="8" max="8" width="9.140625" style="8"/>
-    <col min="9" max="9" width="19.85546875" style="8"/>
-    <col min="10" max="1021" width="9.140625" style="8"/>
-    <col min="1024" max="1026" width="8.7109375"/>
+    <col min="1" max="1" width="20.2833333333333" style="9"/>
+    <col min="2" max="2" width="33.8583333333333" style="9"/>
+    <col min="3" max="3" width="16.425" style="19"/>
+    <col min="4" max="4" width="16.425" style="15"/>
+    <col min="5" max="5" width="25.425" style="15" customWidth="1"/>
+    <col min="6" max="6" width="10.425" style="8"/>
+    <col min="7" max="7" width="40.2833333333333" style="9"/>
+    <col min="8" max="8" width="9.14166666666667" style="8"/>
+    <col min="9" max="9" width="19.8583333333333" style="8"/>
+    <col min="10" max="1021" width="9.14166666666667" style="8"/>
+    <col min="1024" max="1026" width="8.70833333333333"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1" s="1" customFormat="1" ht="12" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2188,16 +2804,16 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>11</v>
@@ -2209,76 +2825,78 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" ht="15" customHeight="1" spans="1:5">
       <c r="A2" s="9" t="s">
         <v>241</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="D2" s="15" t="s">
         <v>305</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="41" t="s">
-        <v>319</v>
+        <v>323</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="23" t="s">
+        <v>324</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="9" t="s">
         <v>300</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
+        <v>327</v>
+      </c>
+    </row>
+    <row r="12" spans="4:5">
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+    </row>
+    <row r="13" spans="4:5">
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+    </row>
+    <row r="14" spans="4:5">
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+    </row>
+    <row r="15" spans="4:5">
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G719"/>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <autoFilter ref="A1:G719">
+    <extLst/>
+  </autoFilter>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
@@ -2288,25 +2906,26 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.425" defaultRowHeight="13.5" outlineLevelRow="3"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="2" max="2" width="17.140625" customWidth="1"/>
-    <col min="3" max="3" width="20.42578125" customWidth="1"/>
-    <col min="4" max="4" width="19.7109375" customWidth="1"/>
-    <col min="5" max="5" width="19.140625" customWidth="1"/>
+    <col min="2" max="2" width="17.1416666666667" customWidth="1"/>
+    <col min="3" max="3" width="20.425" customWidth="1"/>
+    <col min="4" max="4" width="19.7083333333333" customWidth="1"/>
+    <col min="5" max="5" width="19.1416666666667" customWidth="1"/>
     <col min="6" max="6" width="16" customWidth="1"/>
-    <col min="8" max="8" width="23.85546875" customWidth="1"/>
+    <col min="8" max="8" width="23.8583333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
@@ -2314,16 +2933,16 @@
         <v>2</v>
       </c>
       <c r="C1" s="20" t="s">
-        <v>443</v>
+        <v>328</v>
       </c>
       <c r="D1" s="20" t="s">
         <v>84</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>444</v>
+        <v>329</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>445</v>
+        <v>330</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>11</v>
@@ -2335,114 +2954,116 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="40" t="s">
-        <v>448</v>
+    <row r="2" spans="1:8">
+      <c r="A2" s="21" t="s">
+        <v>331</v>
       </c>
       <c r="C2" t="s">
-        <v>319</v>
-      </c>
-      <c r="D2" s="40" t="s">
-        <v>447</v>
-      </c>
-      <c r="E2" s="40" t="s">
-        <v>446</v>
+        <v>324</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>332</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>333</v>
       </c>
       <c r="F2">
         <v>0.5</v>
       </c>
-      <c r="H2" s="39"/>
-    </row>
-    <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="40" t="s">
-        <v>449</v>
-      </c>
-      <c r="C3" s="40" t="s">
-        <v>319</v>
-      </c>
-      <c r="D3" s="40" t="s">
-        <v>447</v>
-      </c>
-      <c r="E3" s="40" t="s">
-        <v>451</v>
+      <c r="H2" s="22"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="21" t="s">
+        <v>334</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>324</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>332</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>335</v>
       </c>
       <c r="F3">
         <v>0.8</v>
       </c>
-      <c r="H3" s="39"/>
-    </row>
-    <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="40" t="s">
-        <v>450</v>
-      </c>
-      <c r="C4" s="40" t="s">
-        <v>319</v>
-      </c>
-      <c r="D4" s="40" t="s">
-        <v>447</v>
-      </c>
-      <c r="E4" s="40" t="s">
-        <v>452</v>
+      <c r="H3" s="22"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="21" t="s">
+        <v>336</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>324</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>332</v>
+      </c>
+      <c r="E4" s="21" t="s">
+        <v>337</v>
       </c>
       <c r="F4">
         <v>0.02</v>
       </c>
-      <c r="H4" s="39"/>
+      <c r="H4" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMH5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
   <cols>
-    <col min="1" max="1" width="38.7109375" style="8"/>
+    <col min="1" max="1" width="38.7083333333333" style="8"/>
     <col min="2" max="2" width="46" style="13"/>
-    <col min="3" max="3" width="32.85546875" style="8"/>
+    <col min="3" max="3" width="32.8583333333333" style="8"/>
     <col min="4" max="4" width="45" style="14"/>
-    <col min="5" max="5" width="29.28515625" style="14"/>
-    <col min="6" max="6" width="16.42578125" style="15"/>
-    <col min="7" max="8" width="8.42578125" style="8"/>
-    <col min="9" max="9" width="13.42578125" style="8"/>
-    <col min="10" max="10" width="37.28515625" style="8"/>
-    <col min="11" max="11" width="13.42578125" style="8"/>
-    <col min="12" max="12" width="19.85546875" style="8"/>
-    <col min="13" max="1022" width="8.42578125" style="8"/>
-    <col min="1023" max="1025" width="8.42578125"/>
+    <col min="5" max="5" width="29.2833333333333" style="14"/>
+    <col min="6" max="6" width="16.425" style="15"/>
+    <col min="7" max="8" width="8.425" style="8"/>
+    <col min="9" max="9" width="13.425" style="8"/>
+    <col min="10" max="10" width="37.2833333333333" style="8"/>
+    <col min="11" max="11" width="13.425" style="8"/>
+    <col min="12" max="12" width="19.8583333333333" style="8"/>
+    <col min="13" max="1022" width="8.425" style="8"/>
+    <col min="1023" max="1025" width="8.425"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" s="3" customFormat="1" ht="15" customHeight="1" spans="1:12">
       <c r="A1" s="3" t="s">
-        <v>321</v>
+        <v>338</v>
       </c>
       <c r="B1" s="16" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>322</v>
+        <v>339</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>323</v>
+        <v>340</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>324</v>
+        <v>341</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>325</v>
+        <v>342</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>326</v>
+        <v>343</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>327</v>
+        <v>344</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>56</v>
@@ -2457,21 +3078,21 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" ht="15" customHeight="1" spans="1:11">
       <c r="A2" s="9" t="s">
-        <v>328</v>
+        <v>345</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>329</v>
+        <v>346</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>330</v>
+        <v>347</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>331</v>
+        <v>348</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>332</v>
+        <v>349</v>
       </c>
       <c r="F2" s="19"/>
       <c r="G2" s="9"/>
@@ -2479,24 +3100,24 @@
       <c r="I2" s="15"/>
       <c r="J2" s="9"/>
       <c r="K2" s="9" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="3" ht="15" customHeight="1" spans="1:11">
       <c r="A3" s="9" t="s">
-        <v>334</v>
+        <v>351</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>329</v>
+        <v>346</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>330</v>
+        <v>347</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>335</v>
+        <v>352</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>332</v>
+        <v>349</v>
       </c>
       <c r="F3" s="19"/>
       <c r="G3" s="9"/>
@@ -2504,21 +3125,21 @@
       <c r="J3" s="9"/>
       <c r="K3" s="9"/>
     </row>
-    <row r="4" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" ht="15" customHeight="1" spans="1:11">
       <c r="A4" s="9" t="s">
-        <v>336</v>
+        <v>353</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>329</v>
+        <v>346</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>330</v>
+        <v>347</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>337</v>
+        <v>354</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>332</v>
+        <v>349</v>
       </c>
       <c r="F4" s="19"/>
       <c r="G4" s="9"/>
@@ -2526,21 +3147,21 @@
       <c r="J4" s="9"/>
       <c r="K4" s="9"/>
     </row>
-    <row r="5" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" ht="15" customHeight="1" spans="1:11">
       <c r="A5" s="9" t="s">
-        <v>338</v>
+        <v>355</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>329</v>
+        <v>346</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>330</v>
+        <v>347</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>339</v>
+        <v>356</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>340</v>
+        <v>357</v>
       </c>
       <c r="F5" s="19"/>
       <c r="G5" s="9"/>
@@ -2549,43 +3170,48 @@
       <c r="K5" s="9"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J221"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <autoFilter ref="A1:J221">
+    <extLst/>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMK16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="19.42578125" style="11"/>
-    <col min="2" max="2" width="8.42578125" style="11"/>
-    <col min="3" max="3" width="11.42578125" style="11"/>
-    <col min="4" max="4" width="10.42578125" style="11"/>
-    <col min="5" max="5" width="10.7109375" style="11"/>
-    <col min="6" max="6" width="19.85546875" style="11"/>
-    <col min="7" max="1025" width="8.42578125" style="11"/>
+    <col min="1" max="1" width="19.425" style="11"/>
+    <col min="2" max="2" width="8.425" style="11"/>
+    <col min="3" max="3" width="11.425" style="11"/>
+    <col min="4" max="4" width="10.425" style="11"/>
+    <col min="5" max="5" width="10.7083333333333" style="11"/>
+    <col min="6" max="6" width="19.8583333333333" style="11"/>
+    <col min="7" max="1025" width="8.425" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="10" customFormat="1" ht="15.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" s="10" customFormat="1" ht="15.2" customHeight="1" spans="1:6">
       <c r="A1" s="10" t="s">
-        <v>341</v>
+        <v>358</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>342</v>
+        <v>359</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>343</v>
+        <v>360</v>
       </c>
       <c r="D1" s="10" t="s">
         <v>11</v>
@@ -2597,201 +3223,203 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" ht="15.2" customHeight="1" spans="1:6">
       <c r="A2" s="11" t="s">
-        <v>344</v>
+        <v>361</v>
       </c>
       <c r="B2" s="11">
         <v>1</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>345</v>
+        <v>362</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="15.2" customHeight="1" x14ac:dyDescent="0.25">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="3" ht="15.2" customHeight="1" spans="1:5">
       <c r="A3" s="11" t="s">
-        <v>347</v>
+        <v>364</v>
       </c>
       <c r="B3" s="11">
         <v>1</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>348</v>
+        <v>365</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="15.2" customHeight="1" x14ac:dyDescent="0.25">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="4" ht="15.2" customHeight="1" spans="1:3">
       <c r="A4" s="11" t="s">
-        <v>350</v>
+        <v>367</v>
       </c>
       <c r="B4" s="11">
         <v>1</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="15.2" customHeight="1" x14ac:dyDescent="0.25">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="5" ht="15.2" customHeight="1" spans="1:3">
       <c r="A5" s="11" t="s">
-        <v>351</v>
+        <v>368</v>
       </c>
       <c r="B5" s="11">
         <v>1</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="15.2" customHeight="1" x14ac:dyDescent="0.25">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="6" ht="15.2" customHeight="1" spans="1:3">
       <c r="A6" s="11" t="s">
-        <v>352</v>
+        <v>369</v>
       </c>
       <c r="B6" s="11">
         <v>0.25</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="15.2" customHeight="1" x14ac:dyDescent="0.25">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="7" ht="15.2" customHeight="1" spans="1:3">
       <c r="A7" s="11" t="s">
-        <v>353</v>
+        <v>370</v>
       </c>
       <c r="B7" s="11">
         <v>0.25</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="15.2" customHeight="1" x14ac:dyDescent="0.25">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="8" ht="15.2" customHeight="1" spans="1:3">
       <c r="A8" s="11" t="s">
-        <v>354</v>
+        <v>371</v>
       </c>
       <c r="B8" s="11">
         <v>0.25</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="15.2" customHeight="1" x14ac:dyDescent="0.25">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="9" ht="15.2" customHeight="1" spans="1:3">
       <c r="A9" s="11" t="s">
-        <v>355</v>
+        <v>372</v>
       </c>
       <c r="B9" s="11">
         <v>0.25</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="15.2" customHeight="1" x14ac:dyDescent="0.25">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="10" ht="15.2" customHeight="1" spans="1:3">
       <c r="A10" s="12" t="s">
-        <v>356</v>
+        <v>373</v>
       </c>
       <c r="B10" s="11">
         <v>0.5</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="15.2" customHeight="1" x14ac:dyDescent="0.25">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="11" ht="15.2" customHeight="1" spans="1:3">
       <c r="A11" s="12" t="s">
-        <v>357</v>
+        <v>374</v>
       </c>
       <c r="B11" s="11">
         <v>0.5</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="15.2" customHeight="1" x14ac:dyDescent="0.25">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="12" ht="15.2" customHeight="1" spans="1:3">
       <c r="A12" s="12" t="s">
-        <v>358</v>
+        <v>375</v>
       </c>
       <c r="B12" s="11">
         <v>0.5</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13" s="11" t="s">
-        <v>359</v>
+        <v>376</v>
       </c>
       <c r="B13" s="11">
         <v>0.1</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14" s="11" t="s">
-        <v>360</v>
+        <v>377</v>
       </c>
       <c r="B14" s="11">
         <v>0.36</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15" s="11" t="s">
-        <v>361</v>
+        <v>378</v>
       </c>
       <c r="B15" s="11">
         <v>0.5</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16" s="11" t="s">
-        <v>362</v>
+        <v>379</v>
       </c>
       <c r="B16" s="11">
         <v>0.25</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>345</v>
+        <v>362</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="16"/>
-    <col min="3" max="3" width="15.42578125"/>
-    <col min="5" max="5" width="10.42578125"/>
-    <col min="6" max="6" width="11.140625"/>
-    <col min="7" max="7" width="20.42578125"/>
+    <col min="3" max="3" width="15.425"/>
+    <col min="5" max="5" width="10.425"/>
+    <col min="6" max="6" width="11.1416666666667"/>
+    <col min="7" max="7" width="20.425"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1" s="1" customFormat="1" ht="12" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2799,10 +3427,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>363</v>
+        <v>380</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>343</v>
+        <v>360</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>11</v>
@@ -2814,19 +3442,19 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" ht="14.45" customHeight="1" spans="1:4">
       <c r="A2" t="s">
-        <v>364</v>
+        <v>381</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>365</v>
+        <v>382</v>
       </c>
       <c r="D2" s="9">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
@@ -2836,26 +3464,27 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMH8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" style="8"/>
-    <col min="2" max="2" width="23.42578125" style="8"/>
-    <col min="3" max="3" width="17.7109375" style="8"/>
-    <col min="4" max="4" width="18.7109375" style="8"/>
-    <col min="5" max="5" width="12.7109375" style="8"/>
-    <col min="6" max="6" width="14.7109375" style="8"/>
-    <col min="7" max="1022" width="37.28515625" style="8"/>
-    <col min="1023" max="1025" width="8.42578125"/>
+    <col min="1" max="1" width="18.7083333333333" style="8"/>
+    <col min="2" max="2" width="23.425" style="8"/>
+    <col min="3" max="3" width="17.7083333333333" style="8"/>
+    <col min="4" max="4" width="18.7083333333333" style="8"/>
+    <col min="5" max="5" width="12.7083333333333" style="8"/>
+    <col min="6" max="6" width="14.7083333333333" style="8"/>
+    <col min="7" max="1022" width="37.2833333333333" style="8"/>
+    <col min="1023" max="1025" width="8.425"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1" s="1" customFormat="1" ht="12" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2863,13 +3492,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>366</v>
+        <v>383</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>367</v>
+        <v>384</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>368</v>
+        <v>385</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>11</v>
@@ -2881,75 +3510,75 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" s="8" t="s">
-        <v>369</v>
+        <v>386</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>370</v>
+        <v>387</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>371</v>
+        <v>388</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>372</v>
+        <v>389</v>
       </c>
       <c r="E2" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" s="8" t="s">
-        <v>373</v>
+        <v>390</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>374</v>
+        <v>391</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>371</v>
+        <v>388</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>375</v>
+        <v>392</v>
       </c>
       <c r="E3" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" s="8" t="s">
-        <v>376</v>
+        <v>393</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>377</v>
+        <v>394</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>371</v>
+        <v>388</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>378</v>
+        <v>395</v>
       </c>
       <c r="E4" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" s="8" t="s">
-        <v>379</v>
+        <v>396</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>380</v>
+        <v>397</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>371</v>
+        <v>388</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>381</v>
+        <v>398</v>
       </c>
       <c r="E5" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" s="8" t="s">
         <v>37</v>
       </c>
@@ -2957,52 +3586,54 @@
         <v>37</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>371</v>
+        <v>388</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>382</v>
+        <v>399</v>
       </c>
       <c r="E6" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" s="8" t="s">
-        <v>383</v>
+        <v>400</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>384</v>
+        <v>401</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>371</v>
+        <v>388</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>385</v>
+        <v>402</v>
       </c>
       <c r="E7" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8" s="8" t="s">
-        <v>386</v>
+        <v>403</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>384</v>
+        <v>401</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>371</v>
+        <v>388</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>385</v>
+        <v>402</v>
       </c>
       <c r="E8" s="8">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F220"/>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <autoFilter ref="A1:F220">
+    <extLst/>
+  </autoFilter>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
@@ -3012,44 +3643,46 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMK9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="20.28515625" style="4"/>
-    <col min="2" max="2" width="18.140625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="4"/>
-    <col min="4" max="4" width="10.42578125" style="4"/>
+    <col min="1" max="1" width="20.2833333333333" style="4"/>
+    <col min="2" max="2" width="18.1416666666667" style="4" customWidth="1"/>
+    <col min="3" max="3" width="10.7083333333333" style="4"/>
+    <col min="4" max="4" width="10.425" style="4"/>
     <col min="5" max="5" width="11" style="4"/>
-    <col min="6" max="6" width="28.7109375" style="4"/>
+    <col min="6" max="6" width="28.7083333333333" style="4"/>
     <col min="7" max="7" width="11" style="4"/>
     <col min="8" max="8" width="20" style="4"/>
-    <col min="9" max="1025" width="8.7109375" style="4"/>
+    <col min="9" max="1025" width="8.70833333333333" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" ht="15" customHeight="1" spans="1:8">
       <c r="A1" s="5" t="s">
-        <v>321</v>
+        <v>338</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>387</v>
+        <v>404</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>290</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>363</v>
+        <v>380</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>343</v>
+        <v>360</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>11</v>
@@ -3061,18 +3694,18 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2" s="6" t="s">
-        <v>388</v>
+        <v>405</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>369</v>
+        <v>386</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>389</v>
+        <v>406</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>390</v>
+        <v>407</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -3080,173 +3713,177 @@
       <c r="F2"/>
       <c r="H2"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="A3" s="6" t="s">
-        <v>391</v>
+        <v>408</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>373</v>
+        <v>390</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>389</v>
-      </c>
-      <c r="D3" s="38" t="s">
-        <v>392</v>
+        <v>406</v>
+      </c>
+      <c r="D3" s="41" t="s">
+        <v>409</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="H3"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>393</v>
       </c>
-      <c r="H3"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>394</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>376</v>
-      </c>
       <c r="C4" s="4" t="s">
-        <v>389</v>
+        <v>406</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>395</v>
+        <v>412</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="H4"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>396</v>
       </c>
-      <c r="H4"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>397</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>379</v>
-      </c>
       <c r="C5" s="4" t="s">
-        <v>389</v>
+        <v>406</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>390</v>
+        <v>407</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>398</v>
+        <v>415</v>
       </c>
       <c r="H5"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8">
       <c r="A6" s="6" t="s">
-        <v>399</v>
+        <v>416</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>37</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>389</v>
+        <v>406</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>400</v>
+        <v>417</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>401</v>
+        <v>418</v>
       </c>
       <c r="H6"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8">
       <c r="A7" s="6" t="s">
-        <v>402</v>
+        <v>419</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>37</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>403</v>
+        <v>420</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>404</v>
+        <v>421</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="H7"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8">
       <c r="A8" s="6" t="s">
-        <v>405</v>
+        <v>422</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>383</v>
+        <v>400</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>389</v>
+        <v>406</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>406</v>
+        <v>423</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="6" t="s">
-        <v>408</v>
+        <v>425</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>386</v>
+        <v>403</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>389</v>
+        <v>406</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>409</v>
+        <v>426</v>
       </c>
       <c r="E9">
         <v>1</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>410</v>
+        <v>427</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F9"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <autoFilter ref="A1:F9">
+    <extLst/>
+  </autoFilter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="5" width="8.42578125"/>
-    <col min="6" max="6" width="10.42578125"/>
-    <col min="7" max="7" width="11.140625"/>
-    <col min="8" max="8" width="20.42578125"/>
-    <col min="9" max="1025" width="8.42578125"/>
+    <col min="1" max="5" width="8.425"/>
+    <col min="6" max="6" width="10.425"/>
+    <col min="7" max="7" width="11.1416666666667"/>
+    <col min="8" max="8" width="20.425"/>
+    <col min="9" max="1025" width="8.425"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3254,13 +3891,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>342</v>
+        <v>359</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>411</v>
+        <v>428</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>343</v>
+        <v>360</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>11</v>
@@ -3272,140 +3909,142 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>412</v>
+        <v>429</v>
       </c>
       <c r="B2" t="s">
-        <v>413</v>
+        <v>430</v>
       </c>
       <c r="C2">
         <v>20.5</v>
       </c>
       <c r="D2">
-        <v>5.0000000000000001E-3</v>
+        <v>0.005</v>
       </c>
       <c r="E2" t="s">
-        <v>414</v>
+        <v>431</v>
       </c>
       <c r="H2" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>416</v>
+        <v>433</v>
       </c>
       <c r="B3" t="s">
-        <v>417</v>
+        <v>434</v>
       </c>
       <c r="C3">
         <v>1.35</v>
       </c>
       <c r="D3">
-        <v>6.0000000000000001E-3</v>
+        <v>0.006</v>
       </c>
       <c r="E3" t="s">
-        <v>414</v>
+        <v>431</v>
       </c>
       <c r="H3" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>419</v>
+        <v>436</v>
       </c>
       <c r="B4" t="s">
-        <v>420</v>
+        <v>437</v>
       </c>
       <c r="C4">
         <v>0.46</v>
       </c>
       <c r="D4">
-        <v>6.0000000000000001E-3</v>
+        <v>0.006</v>
       </c>
       <c r="E4" t="s">
-        <v>345</v>
+        <v>362</v>
       </c>
       <c r="H4" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>421</v>
+        <v>438</v>
       </c>
       <c r="B5" t="s">
-        <v>422</v>
+        <v>439</v>
       </c>
       <c r="C5">
         <v>1.2</v>
       </c>
       <c r="D5">
-        <v>6.0000000000000001E-3</v>
+        <v>0.006</v>
       </c>
       <c r="E5" t="s">
-        <v>345</v>
+        <v>362</v>
       </c>
       <c r="H5" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>390</v>
+        <v>407</v>
       </c>
       <c r="B6" t="s">
-        <v>423</v>
+        <v>440</v>
       </c>
       <c r="C6">
         <v>2.1</v>
       </c>
       <c r="D6">
-        <v>1E-3</v>
+        <v>0.001</v>
       </c>
       <c r="E6" t="s">
-        <v>424</v>
+        <v>441</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="17.7109375"/>
-    <col min="2" max="2" width="15.42578125"/>
-    <col min="4" max="4" width="13.140625"/>
-    <col min="5" max="5" width="10.42578125"/>
-    <col min="6" max="6" width="11.140625"/>
-    <col min="7" max="7" width="19.85546875"/>
-    <col min="1021" max="1025" width="8.7109375"/>
+    <col min="1" max="1" width="17.7083333333333"/>
+    <col min="2" max="2" width="15.425"/>
+    <col min="4" max="4" width="13.1416666666667"/>
+    <col min="5" max="5" width="10.425"/>
+    <col min="6" max="6" width="11.1416666666667"/>
+    <col min="7" max="7" width="19.8583333333333"/>
+    <col min="1021" max="1025" width="8.70833333333333"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>321</v>
+        <v>338</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>342</v>
+        <v>359</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>343</v>
+        <v>360</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>11</v>
@@ -3417,64 +4056,64 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>425</v>
+        <v>442</v>
       </c>
       <c r="B2" t="s">
-        <v>426</v>
+        <v>443</v>
       </c>
       <c r="C2" s="2">
-        <v>3.0000000000000001E-12</v>
+        <v>3e-12</v>
       </c>
       <c r="D2" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>428</v>
+        <v>445</v>
       </c>
       <c r="B3" t="s">
-        <v>429</v>
+        <v>446</v>
       </c>
       <c r="C3" s="2">
         <v>10000000</v>
       </c>
       <c r="D3" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>431</v>
+        <v>448</v>
       </c>
       <c r="B4" t="s">
-        <v>432</v>
+        <v>449</v>
       </c>
       <c r="C4">
         <v>0.7</v>
       </c>
       <c r="D4" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>434</v>
+        <v>451</v>
       </c>
       <c r="B5" t="s">
-        <v>435</v>
+        <v>452</v>
       </c>
       <c r="C5">
         <v>71280</v>
       </c>
       <c r="D5" t="s">
-        <v>436</v>
+        <v>453</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
@@ -3484,133 +4123,141 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="8.42578125"/>
-    <col min="2" max="2" width="18.42578125"/>
-    <col min="3" max="1025" width="8.42578125"/>
+    <col min="1" max="1" width="8.425"/>
+    <col min="2" max="2" width="18.425"/>
+    <col min="3" max="1025" width="8.425"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>437</v>
+        <v>454</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>333</v>
+        <v>350</v>
       </c>
       <c r="B2" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>349</v>
+        <v>366</v>
       </c>
       <c r="B3" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>441</v>
+        <v>458</v>
       </c>
       <c r="B4" t="s">
-        <v>442</v>
+        <v>459</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" style="35"/>
-    <col min="2" max="2" width="51.140625" style="8"/>
-    <col min="3" max="1025" width="8.42578125"/>
+    <col min="1" max="1" width="16.425" style="38"/>
+    <col min="2" max="2" width="51.1416666666667" style="8"/>
+    <col min="3" max="1025" width="8.425"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
+    <row r="1" ht="15" customHeight="1" spans="1:2">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="40" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="35" t="s">
+    <row r="2" spans="1:2">
+      <c r="A2" s="38" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="35" t="s">
+    <row r="3" spans="1:2">
+      <c r="A3" s="38" t="s">
         <v>14</v>
       </c>
       <c r="B3" s="8">
         <v>9606</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="35" t="s">
+    <row r="4" spans="1:1">
+      <c r="A4" s="38" t="s">
         <v>11</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B4"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <autoFilter ref="A1:B4">
+    <extLst/>
+  </autoFilter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMF5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="32"/>
-    <col min="2" max="2" width="16.140625" style="8"/>
-    <col min="3" max="3" width="17.7109375" style="8"/>
-    <col min="4" max="4" width="11.28515625" style="8"/>
-    <col min="5" max="5" width="11.140625" style="8"/>
-    <col min="6" max="6" width="20.42578125" style="8"/>
-    <col min="7" max="1020" width="9.140625" style="8"/>
-    <col min="1024" max="1025" width="8.7109375"/>
+    <col min="1" max="1" width="9.14166666666667" style="35"/>
+    <col min="2" max="2" width="16.1416666666667" style="8"/>
+    <col min="3" max="3" width="17.7083333333333" style="8"/>
+    <col min="4" max="4" width="11.2833333333333" style="8"/>
+    <col min="5" max="5" width="11.1416666666667" style="8"/>
+    <col min="6" max="6" width="20.425" style="8"/>
+    <col min="7" max="1020" width="9.14166666666667" style="8"/>
+    <col min="1024" max="1025" width="8.70833333333333"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1" s="1" customFormat="1" ht="12" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3630,8 +4277,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="32" t="s">
+    <row r="2" spans="1:6">
+      <c r="A2" s="35" t="s">
         <v>18</v>
       </c>
       <c r="B2" s="8" t="s">
@@ -3647,8 +4294,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="32" t="s">
+    <row r="3" spans="1:6">
+      <c r="A3" s="35" t="s">
         <v>22</v>
       </c>
       <c r="B3" s="8" t="s">
@@ -3659,8 +4306,8 @@
       </c>
       <c r="F3"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="32" t="s">
+    <row r="4" spans="1:6">
+      <c r="A4" s="35" t="s">
         <v>24</v>
       </c>
       <c r="B4" s="8" t="s">
@@ -3673,8 +4320,8 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="32" t="s">
+    <row r="5" spans="1:2">
+      <c r="A5" s="35" t="s">
         <v>27</v>
       </c>
       <c r="B5" s="8" t="s">
@@ -3682,7 +4329,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
@@ -3692,26 +4339,27 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMH9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="23.85546875" style="34"/>
-    <col min="2" max="2" width="39.42578125" style="34"/>
-    <col min="3" max="3" width="13.7109375" style="8"/>
-    <col min="4" max="4" width="10.7109375" style="8"/>
-    <col min="5" max="5" width="55" style="34"/>
-    <col min="6" max="6" width="9.140625" style="8"/>
-    <col min="7" max="7" width="19.85546875" style="8"/>
-    <col min="8" max="1022" width="9.140625" style="8"/>
+    <col min="1" max="1" width="23.8583333333333" style="37"/>
+    <col min="2" max="2" width="39.425" style="37"/>
+    <col min="3" max="3" width="13.7083333333333" style="8"/>
+    <col min="4" max="4" width="10.7083333333333" style="8"/>
+    <col min="5" max="5" width="55" style="37"/>
+    <col min="6" max="6" width="9.14166666666667" style="8"/>
+    <col min="7" max="7" width="19.8583333333333" style="8"/>
+    <col min="8" max="1022" width="9.14166666666667" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1" s="1" customFormat="1" ht="12" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3734,79 +4382,79 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="37" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="37" t="s">
         <v>34</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="37" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>38</v>
       </c>
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="37" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="37" t="s">
         <v>41</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="34" t="s">
+    <row r="7" spans="1:3">
+      <c r="A7" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="B7" s="34" t="s">
+      <c r="B7" s="37" t="s">
         <v>44</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="34" t="s">
+    <row r="8" spans="1:3">
+      <c r="A8" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="B8" s="34" t="s">
+      <c r="B8" s="37" t="s">
         <v>47</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="34" t="s">
+    <row r="9" spans="1:3">
+      <c r="A9" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="B9" s="34" t="s">
+      <c r="B9" s="37" t="s">
         <v>50</v>
       </c>
       <c r="C9" s="8" t="s">
@@ -3814,7 +4462,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
@@ -3824,27 +4472,28 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="14.140625" style="32"/>
+    <col min="1" max="1" width="14.1416666666667" style="35"/>
     <col min="2" max="2" width="13" style="15"/>
-    <col min="3" max="4" width="11.7109375" style="8"/>
-    <col min="5" max="5" width="22.140625" style="8"/>
-    <col min="6" max="6" width="9.140625" style="8"/>
-    <col min="7" max="8" width="13.42578125" style="8"/>
-    <col min="9" max="9" width="13.42578125"/>
-    <col min="10" max="10" width="19.85546875"/>
-    <col min="11" max="12" width="13.42578125"/>
+    <col min="3" max="4" width="11.7083333333333" style="8"/>
+    <col min="5" max="5" width="22.1416666666667" style="8"/>
+    <col min="6" max="6" width="9.14166666666667" style="8"/>
+    <col min="7" max="8" width="13.425" style="8"/>
+    <col min="9" max="9" width="13.425"/>
+    <col min="10" max="10" width="19.8583333333333"/>
+    <col min="11" max="12" width="13.425"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3876,14 +4525,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="32" t="s">
+    <row r="2" spans="1:7">
+      <c r="A2" s="35" t="s">
         <v>57</v>
       </c>
       <c r="B2" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="C2" s="33"/>
+      <c r="C2" s="36"/>
       <c r="D2" s="15">
         <v>0</v>
       </c>
@@ -3895,8 +4544,8 @@
       </c>
       <c r="G2" s="15"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="32" t="s">
+    <row r="3" spans="1:6">
+      <c r="A3" s="35" t="s">
         <v>58</v>
       </c>
       <c r="B3" s="15" t="s">
@@ -3912,8 +4561,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="32" t="s">
+    <row r="4" spans="1:6">
+      <c r="A4" s="35" t="s">
         <v>59</v>
       </c>
       <c r="B4" s="15" t="s">
@@ -3929,8 +4578,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="32" t="s">
+    <row r="5" spans="1:6">
+      <c r="A5" s="35" t="s">
         <v>60</v>
       </c>
       <c r="B5" s="15" t="s">
@@ -3946,8 +4595,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="32" t="s">
+    <row r="6" spans="1:6">
+      <c r="A6" s="35" t="s">
         <v>61</v>
       </c>
       <c r="B6" s="15" t="s">
@@ -3963,8 +4612,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="32" t="s">
+    <row r="7" spans="1:6">
+      <c r="A7" s="35" t="s">
         <v>62</v>
       </c>
       <c r="B7" s="15" t="s">
@@ -3980,8 +4629,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="32" t="s">
+    <row r="8" spans="1:6">
+      <c r="A8" s="35" t="s">
         <v>63</v>
       </c>
       <c r="B8" s="15" t="s">
@@ -3997,8 +4646,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="32" t="s">
+    <row r="9" spans="1:6">
+      <c r="A9" s="35" t="s">
         <v>64</v>
       </c>
       <c r="B9" s="15" t="s">
@@ -4014,8 +4663,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="32" t="s">
+    <row r="10" spans="1:6">
+      <c r="A10" s="35" t="s">
         <v>65</v>
       </c>
       <c r="B10" s="15" t="s">
@@ -4031,8 +4680,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="32" t="s">
+    <row r="11" spans="1:6">
+      <c r="A11" s="35" t="s">
         <v>66</v>
       </c>
       <c r="B11" s="15" t="s">
@@ -4048,8 +4697,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="32" t="s">
+    <row r="12" spans="1:6">
+      <c r="A12" s="35" t="s">
         <v>67</v>
       </c>
       <c r="B12" s="15" t="s">
@@ -4065,8 +4714,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="32" t="s">
+    <row r="13" spans="1:6">
+      <c r="A13" s="35" t="s">
         <v>68</v>
       </c>
       <c r="B13" s="15" t="s">
@@ -4082,8 +4731,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="32" t="s">
+    <row r="14" spans="1:6">
+      <c r="A14" s="35" t="s">
         <v>69</v>
       </c>
       <c r="B14" s="15" t="s">
@@ -4099,8 +4748,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="32" t="s">
+    <row r="15" spans="1:6">
+      <c r="A15" s="35" t="s">
         <v>70</v>
       </c>
       <c r="B15" s="15" t="s">
@@ -4116,8 +4765,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="32" t="s">
+    <row r="16" spans="1:6">
+      <c r="A16" s="35" t="s">
         <v>71</v>
       </c>
       <c r="B16" s="15" t="s">
@@ -4133,8 +4782,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="32" t="s">
+    <row r="17" spans="1:6">
+      <c r="A17" s="35" t="s">
         <v>72</v>
       </c>
       <c r="B17" s="15" t="s">
@@ -4150,8 +4799,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="32" t="s">
+    <row r="18" spans="1:6">
+      <c r="A18" s="35" t="s">
         <v>73</v>
       </c>
       <c r="B18" s="15" t="s">
@@ -4167,8 +4816,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="32" t="s">
+    <row r="19" spans="1:6">
+      <c r="A19" s="35" t="s">
         <v>74</v>
       </c>
       <c r="B19" s="15" t="s">
@@ -4184,8 +4833,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="32" t="s">
+    <row r="20" spans="1:6">
+      <c r="A20" s="35" t="s">
         <v>75</v>
       </c>
       <c r="B20" s="15" t="s">
@@ -4201,8 +4850,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="32" t="s">
+    <row r="21" spans="1:6">
+      <c r="A21" s="35" t="s">
         <v>76</v>
       </c>
       <c r="B21" s="15" t="s">
@@ -4218,8 +4867,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="32" t="s">
+    <row r="22" spans="1:6">
+      <c r="A22" s="35" t="s">
         <v>77</v>
       </c>
       <c r="B22" s="15" t="s">
@@ -4235,8 +4884,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="32" t="s">
+    <row r="23" spans="1:6">
+      <c r="A23" s="35" t="s">
         <v>78</v>
       </c>
       <c r="B23" s="15" t="s">
@@ -4252,8 +4901,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="32" t="s">
+    <row r="24" spans="1:6">
+      <c r="A24" s="35" t="s">
         <v>79</v>
       </c>
       <c r="B24" s="15" t="s">
@@ -4269,8 +4918,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="32" t="s">
+    <row r="25" spans="1:6">
+      <c r="A25" s="35" t="s">
         <v>80</v>
       </c>
       <c r="B25" s="15" t="s">
@@ -4286,8 +4935,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="32" t="s">
+    <row r="26" spans="1:6">
+      <c r="A26" s="35" t="s">
         <v>81</v>
       </c>
       <c r="B26" s="15" t="s">
@@ -4304,7 +4953,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
@@ -4314,26 +4963,27 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:AMI37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3:H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" style="15"/>
-    <col min="2" max="2" width="16.42578125" style="15"/>
-    <col min="3" max="3" width="42.42578125" style="9"/>
-    <col min="4" max="6" width="13.42578125" style="19"/>
-    <col min="7" max="8" width="13.42578125" style="15"/>
-    <col min="9" max="9" width="16.42578125" style="23"/>
-    <col min="10" max="1023" width="32.42578125" style="8"/>
-    <col min="1024" max="1025" width="8.42578125"/>
+    <col min="1" max="1" width="17.425" style="15"/>
+    <col min="2" max="2" width="16.425" style="15"/>
+    <col min="3" max="3" width="42.425" style="9"/>
+    <col min="4" max="6" width="13.425" style="19"/>
+    <col min="7" max="8" width="13.425" style="15"/>
+    <col min="9" max="9" width="16.425" style="26"/>
+    <col min="10" max="1023" width="32.425" style="8"/>
+    <col min="1024" max="1025" width="8.425"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1023" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1" s="1" customFormat="1" ht="12" spans="1:1023">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4374,7 +5024,7 @@
       <c r="AMH1" s="8"/>
       <c r="AMI1" s="8"/>
     </row>
-    <row r="2" spans="1:1023" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2" s="15" t="s">
         <v>88</v>
       </c>
@@ -4390,17 +5040,17 @@
       <c r="E2" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="F2" s="31" t="s">
+      <c r="F2" s="34" t="s">
         <v>92</v>
       </c>
-      <c r="G2" s="21">
+      <c r="G2" s="24">
         <v>20633455</v>
       </c>
-      <c r="H2" s="21">
+      <c r="H2" s="24">
         <v>20651511</v>
       </c>
     </row>
-    <row r="3" spans="1:1023" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="A3" s="15" t="s">
         <v>93</v>
       </c>
@@ -4416,17 +5066,17 @@
       <c r="E3" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="F3" s="31" t="s">
+      <c r="F3" s="34" t="s">
         <v>96</v>
       </c>
-      <c r="G3" s="21">
+      <c r="G3" s="24">
         <v>10439968</v>
       </c>
-      <c r="H3" s="21">
+      <c r="H3" s="24">
         <v>10448504</v>
       </c>
     </row>
-    <row r="4" spans="1:1023" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8">
       <c r="A4" s="15" t="s">
         <v>97</v>
       </c>
@@ -4442,17 +5092,17 @@
       <c r="E4" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="F4" s="31" t="s">
+      <c r="F4" s="34" t="s">
         <v>96</v>
       </c>
-      <c r="G4" s="21">
+      <c r="G4" s="24">
         <v>69319769</v>
       </c>
-      <c r="H4" s="21">
+      <c r="H4" s="24">
         <v>69387254</v>
       </c>
     </row>
-    <row r="5" spans="1:1023" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8">
       <c r="A5" s="15" t="s">
         <v>100</v>
       </c>
@@ -4468,17 +5118,17 @@
       <c r="E5" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="F5" s="31" t="s">
+      <c r="F5" s="34" t="s">
         <v>92</v>
       </c>
-      <c r="G5" s="21">
+      <c r="G5" s="24">
         <v>40524878</v>
       </c>
-      <c r="H5" s="21">
+      <c r="H5" s="24">
         <v>40574685</v>
       </c>
     </row>
-    <row r="6" spans="1:1023" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8">
       <c r="A6" s="15" t="s">
         <v>103</v>
       </c>
@@ -4494,17 +5144,17 @@
       <c r="E6" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="F6" s="31" t="s">
+      <c r="F6" s="34" t="s">
         <v>96</v>
       </c>
-      <c r="G6" s="21">
+      <c r="G6" s="24">
         <v>112596794</v>
       </c>
-      <c r="H6" s="21">
+      <c r="H6" s="24">
         <v>112649530</v>
       </c>
     </row>
-    <row r="7" spans="1:1023" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8">
       <c r="A7" s="15" t="s">
         <v>106</v>
       </c>
@@ -4520,17 +5170,17 @@
       <c r="E7" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="F7" s="31" t="s">
+      <c r="F7" s="34" t="s">
         <v>92</v>
       </c>
-      <c r="G7" s="21">
+      <c r="G7" s="24">
         <v>83535914</v>
       </c>
-      <c r="H7" s="21">
+      <c r="H7" s="24">
         <v>83605875</v>
       </c>
     </row>
-    <row r="8" spans="1:1023" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8">
       <c r="A8" s="15" t="s">
         <v>109</v>
       </c>
@@ -4546,17 +5196,17 @@
       <c r="E8" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="F8" s="31" t="s">
+      <c r="F8" s="34" t="s">
         <v>92</v>
       </c>
-      <c r="G8" s="21">
+      <c r="G8" s="24">
         <v>127880861</v>
       </c>
-      <c r="H8" s="21">
+      <c r="H8" s="24">
         <v>127899195</v>
       </c>
     </row>
-    <row r="9" spans="1:1023" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8">
       <c r="A9" s="15" t="s">
         <v>112</v>
       </c>
@@ -4572,17 +5222,17 @@
       <c r="E9" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="F9" s="31" t="s">
+      <c r="F9" s="34" t="s">
         <v>96</v>
       </c>
-      <c r="G9" s="21">
+      <c r="G9" s="24">
         <v>160401641</v>
       </c>
-      <c r="H9" s="21">
+      <c r="H9" s="24">
         <v>160421711</v>
       </c>
     </row>
-    <row r="10" spans="1:1023" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8">
       <c r="A10" s="15" t="s">
         <v>115</v>
       </c>
@@ -4598,17 +5248,17 @@
       <c r="E10" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="F10" s="31" t="s">
+      <c r="F10" s="34" t="s">
         <v>92</v>
       </c>
-      <c r="G10" s="21">
+      <c r="G10" s="24">
         <v>151656691</v>
       </c>
-      <c r="H10" s="21">
+      <c r="H10" s="24">
         <v>152129619</v>
       </c>
     </row>
-    <row r="11" spans="1:1023" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8">
       <c r="A11" s="15" t="s">
         <v>118</v>
       </c>
@@ -4624,17 +5274,17 @@
       <c r="E11" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="F11" s="31" t="s">
+      <c r="F11" s="34" t="s">
         <v>96</v>
       </c>
-      <c r="G11" s="21">
+      <c r="G11" s="24">
         <v>56011051</v>
       </c>
-      <c r="H11" s="21">
+      <c r="H11" s="24">
         <v>56051604</v>
       </c>
     </row>
-    <row r="12" spans="1:1023" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8">
       <c r="A12" s="15" t="s">
         <v>121</v>
       </c>
@@ -4650,17 +5300,17 @@
       <c r="E12" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="F12" s="31" t="s">
+      <c r="F12" s="34" t="s">
         <v>96</v>
       </c>
-      <c r="G12" s="21">
+      <c r="G12" s="24">
         <v>18055992</v>
       </c>
-      <c r="H12" s="21">
+      <c r="H12" s="24">
         <v>18084998</v>
       </c>
     </row>
-    <row r="13" spans="1:1023" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8">
       <c r="A13" s="15" t="s">
         <v>124</v>
       </c>
@@ -4676,17 +5326,17 @@
       <c r="E13" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="F13" s="31" t="s">
+      <c r="F13" s="34" t="s">
         <v>92</v>
       </c>
-      <c r="G13" s="21">
+      <c r="G13" s="24">
         <v>19901717</v>
       </c>
-      <c r="H13" s="21">
+      <c r="H13" s="24">
         <v>19967258</v>
       </c>
     </row>
-    <row r="14" spans="1:1023" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" ht="15" customHeight="1" spans="1:8">
       <c r="A14" s="15" t="s">
         <v>127</v>
       </c>
@@ -4702,17 +5352,17 @@
       <c r="E14" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="F14" s="31" t="s">
+      <c r="F14" s="34" t="s">
         <v>92</v>
       </c>
-      <c r="G14" s="21">
+      <c r="G14" s="24">
         <v>136410570</v>
       </c>
-      <c r="H14" s="21">
+      <c r="H14" s="24">
         <v>136423761</v>
       </c>
     </row>
-    <row r="15" spans="1:1023" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8">
       <c r="A15" s="15" t="s">
         <v>130</v>
       </c>
@@ -4728,17 +5378,17 @@
       <c r="E15" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="F15" s="31" t="s">
+      <c r="F15" s="34" t="s">
         <v>96</v>
       </c>
-      <c r="G15" s="21">
+      <c r="G15" s="24">
         <v>7750962</v>
       </c>
-      <c r="H15" s="21">
+      <c r="H15" s="24">
         <v>7787981</v>
       </c>
     </row>
-    <row r="16" spans="1:1023" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8">
       <c r="A16" s="15" t="s">
         <v>133</v>
       </c>
@@ -4754,17 +5404,17 @@
       <c r="E16" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="F16" s="31" t="s">
+      <c r="F16" s="34" t="s">
         <v>92</v>
       </c>
-      <c r="G16" s="21">
+      <c r="G16" s="24">
         <v>133394094</v>
       </c>
-      <c r="H16" s="21">
+      <c r="H16" s="24">
         <v>133421307</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8">
       <c r="A17" s="15" t="s">
         <v>136</v>
       </c>
@@ -4780,17 +5430,17 @@
       <c r="E17" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="F17" s="31" t="s">
+      <c r="F17" s="34" t="s">
         <v>92</v>
       </c>
-      <c r="G17" s="21">
+      <c r="G17" s="24">
         <v>13668670</v>
       </c>
-      <c r="H17" s="21">
+      <c r="H17" s="24">
         <v>13732346</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8">
       <c r="A18" s="15" t="s">
         <v>139</v>
       </c>
@@ -4806,17 +5456,17 @@
       <c r="E18" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="F18" s="31" t="s">
+      <c r="F18" s="34" t="s">
         <v>92</v>
       </c>
-      <c r="G18" s="21">
+      <c r="G18" s="24">
         <v>114439386</v>
       </c>
-      <c r="H18" s="21">
+      <c r="H18" s="24">
         <v>114450279</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8">
       <c r="A19" s="15" t="s">
         <v>142</v>
       </c>
@@ -4832,17 +5482,17 @@
       <c r="E19" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="F19" s="31" t="s">
+      <c r="F19" s="34" t="s">
         <v>96</v>
       </c>
-      <c r="G19" s="21">
+      <c r="G19" s="24">
         <v>77021247</v>
       </c>
-      <c r="H19" s="21">
+      <c r="H19" s="24">
         <v>77065580</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8">
       <c r="A20" s="15" t="s">
         <v>145</v>
       </c>
@@ -4858,17 +5508,17 @@
       <c r="E20" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="F20" s="31" t="s">
+      <c r="F20" s="34" t="s">
         <v>96</v>
       </c>
-      <c r="G20" s="21">
+      <c r="G20" s="24">
         <v>113298759</v>
       </c>
-      <c r="H20" s="21">
+      <c r="H20" s="24">
         <v>113359493</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8">
       <c r="A21" s="15" t="s">
         <v>148</v>
       </c>
@@ -4884,17 +5534,17 @@
       <c r="E21" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="F21" s="31" t="s">
+      <c r="F21" s="34" t="s">
         <v>92</v>
       </c>
-      <c r="G21" s="21">
+      <c r="G21" s="24">
         <v>52455429</v>
       </c>
-      <c r="H21" s="21">
+      <c r="H21" s="24">
         <v>52476628</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8">
       <c r="A22" s="15" t="s">
         <v>151</v>
       </c>
@@ -4910,17 +5560,17 @@
       <c r="E22" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="F22" s="31" t="s">
+      <c r="F22" s="34" t="s">
         <v>96</v>
       </c>
-      <c r="G22" s="21">
+      <c r="G22" s="24">
         <v>102932379</v>
       </c>
-      <c r="H22" s="21">
+      <c r="H22" s="24">
         <v>103057462</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8">
       <c r="A23" s="15" t="s">
         <v>154</v>
       </c>
@@ -4936,17 +5586,17 @@
       <c r="E23" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="F23" s="31" t="s">
+      <c r="F23" s="34" t="s">
         <v>92</v>
       </c>
-      <c r="G23" s="21">
+      <c r="G23" s="24">
         <v>65530418</v>
       </c>
-      <c r="H23" s="21">
+      <c r="H23" s="24">
         <v>65578352</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8">
       <c r="A24" s="15" t="s">
         <v>157</v>
       </c>
@@ -4962,17 +5612,17 @@
       <c r="E24" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="F24" s="31" t="s">
+      <c r="F24" s="34" t="s">
         <v>96</v>
       </c>
-      <c r="G24" s="21">
+      <c r="G24" s="24">
         <v>101175723</v>
       </c>
-      <c r="H24" s="21">
+      <c r="H24" s="24">
         <v>101251932</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8">
       <c r="A25" s="15" t="s">
         <v>160</v>
       </c>
@@ -4988,17 +5638,17 @@
       <c r="E25" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="F25" s="31" t="s">
+      <c r="F25" s="34" t="s">
         <v>92</v>
       </c>
-      <c r="G25" s="21">
+      <c r="G25" s="24">
         <v>89088375</v>
       </c>
-      <c r="H25" s="21">
+      <c r="H25" s="24">
         <v>89155846</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8">
       <c r="A26" s="15" t="s">
         <v>163</v>
       </c>
@@ -5014,17 +5664,17 @@
       <c r="E26" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="F26" s="31" t="s">
+      <c r="F26" s="34" t="s">
         <v>92</v>
       </c>
-      <c r="G26" s="21">
+      <c r="G26" s="24">
         <v>49210227</v>
       </c>
-      <c r="H26" s="21">
+      <c r="H26" s="24">
         <v>49223225</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8">
       <c r="A27" s="15" t="s">
         <v>166</v>
       </c>
@@ -5040,17 +5690,17 @@
       <c r="E27" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="F27" s="31" t="s">
+      <c r="F27" s="34" t="s">
         <v>92</v>
       </c>
-      <c r="G27" s="21">
+      <c r="G27" s="24">
         <v>50967991</v>
       </c>
-      <c r="H27" s="21">
+      <c r="H27" s="24">
         <v>50988121</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8">
       <c r="A28" s="15" t="s">
         <v>169</v>
       </c>
@@ -5066,17 +5716,17 @@
       <c r="E28" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="F28" s="31" t="s">
+      <c r="F28" s="34" t="s">
         <v>96</v>
       </c>
-      <c r="G28" s="21">
+      <c r="G28" s="24">
         <v>41431318</v>
       </c>
-      <c r="H28" s="21">
+      <c r="H28" s="24">
         <v>41440717</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8">
       <c r="A29" s="15" t="s">
         <v>172</v>
       </c>
@@ -5092,17 +5742,17 @@
       <c r="E29" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="F29" s="31" t="s">
+      <c r="F29" s="34" t="s">
         <v>92</v>
       </c>
-      <c r="G29" s="21">
+      <c r="G29" s="24">
         <v>47778572</v>
       </c>
-      <c r="H29" s="21">
+      <c r="H29" s="24">
         <v>47784686</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8">
       <c r="A30" s="15" t="s">
         <v>175</v>
       </c>
@@ -5118,17 +5768,17 @@
       <c r="E30" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="F30" s="31" t="s">
+      <c r="F30" s="34" t="s">
         <v>96</v>
       </c>
-      <c r="G30" s="21">
+      <c r="G30" s="24">
         <v>13389392</v>
       </c>
-      <c r="H30" s="21">
+      <c r="H30" s="24">
         <v>13638940</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8">
       <c r="A31" s="15" t="s">
         <v>178</v>
       </c>
@@ -5144,17 +5794,17 @@
       <c r="E31" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="F31" s="31" t="s">
+      <c r="F31" s="34" t="s">
         <v>96</v>
       </c>
-      <c r="G31" s="21">
+      <c r="G31" s="24">
         <v>44619522</v>
       </c>
-      <c r="H31" s="21">
+      <c r="H31" s="24">
         <v>44652233</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8">
       <c r="A32" s="15" t="s">
         <v>181</v>
       </c>
@@ -5170,17 +5820,17 @@
       <c r="E32" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="F32" s="31" t="s">
+      <c r="F32" s="34" t="s">
         <v>92</v>
       </c>
-      <c r="G32" s="21">
+      <c r="G32" s="24">
         <v>31659622</v>
       </c>
-      <c r="H32" s="21">
+      <c r="H32" s="24">
         <v>31668931</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8">
       <c r="A33" s="15" t="s">
         <v>184</v>
       </c>
@@ -5196,17 +5846,17 @@
       <c r="E33" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="F33" s="31" t="s">
+      <c r="F33" s="34" t="s">
         <v>96</v>
       </c>
-      <c r="G33" s="21">
+      <c r="G33" s="24">
         <v>20707691</v>
       </c>
-      <c r="H33" s="21">
+      <c r="H33" s="24">
         <v>20859417</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8">
       <c r="A34" s="15" t="s">
         <v>187</v>
       </c>
@@ -5222,17 +5872,17 @@
       <c r="E34" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="F34" s="31" t="s">
+      <c r="F34" s="34" t="s">
         <v>92</v>
       </c>
-      <c r="G34" s="21">
+      <c r="G34" s="24">
         <v>38705723</v>
       </c>
-      <c r="H34" s="21">
+      <c r="H34" s="24">
         <v>38738299</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8">
       <c r="A35" s="15" t="s">
         <v>190</v>
       </c>
@@ -5248,17 +5898,17 @@
       <c r="E35" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="F35" s="31" t="s">
+      <c r="F35" s="34" t="s">
         <v>96</v>
       </c>
-      <c r="G35" s="21">
+      <c r="G35" s="24">
         <v>119588337</v>
       </c>
-      <c r="H35" s="21">
+      <c r="H35" s="24">
         <v>119605895</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8">
       <c r="A36" s="15" t="s">
         <v>193</v>
       </c>
@@ -5274,17 +5924,17 @@
       <c r="E36" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="F36" s="31" t="s">
+      <c r="F36" s="34" t="s">
         <v>92</v>
       </c>
-      <c r="G36" s="21">
+      <c r="G36" s="24">
         <v>22973819</v>
       </c>
-      <c r="H36" s="21">
+      <c r="H36" s="24">
         <v>23005465</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8">
       <c r="A37" s="15" t="s">
         <v>196</v>
       </c>
@@ -5300,19 +5950,21 @@
       <c r="E37" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="F37" s="31" t="s">
+      <c r="F37" s="34" t="s">
         <v>92</v>
       </c>
-      <c r="G37" s="21">
+      <c r="G37" s="24">
         <v>5904</v>
       </c>
-      <c r="H37" s="21">
+      <c r="H37" s="24">
         <v>7445</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:H1064"/>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <autoFilter ref="B1:H1064">
+    <extLst/>
+  </autoFilter>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
@@ -5322,37 +5974,38 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:AMK37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="3" width="16.42578125" style="15"/>
+    <col min="1" max="3" width="16.425" style="15"/>
     <col min="4" max="4" width="22" style="15"/>
-    <col min="5" max="5" width="13.7109375" style="15"/>
-    <col min="6" max="6" width="9.140625" style="15"/>
-    <col min="7" max="7" width="25.140625" style="15"/>
-    <col min="8" max="8" width="13.42578125" style="15"/>
-    <col min="9" max="9" width="16.28515625" style="15" customWidth="1"/>
-    <col min="10" max="10" width="15.42578125" style="15" customWidth="1"/>
-    <col min="11" max="11" width="18.42578125" style="15" customWidth="1"/>
-    <col min="12" max="12" width="23.28515625" style="15"/>
-    <col min="13" max="13" width="25.140625" style="8"/>
-    <col min="14" max="14" width="19.85546875"/>
-    <col min="15" max="15" width="9.140625" style="19"/>
-    <col min="16" max="16" width="10.42578125" style="19"/>
-    <col min="17" max="17" width="10.7109375" style="19"/>
-    <col min="18" max="19" width="9.140625" style="15"/>
-    <col min="20" max="20" width="22.85546875" style="19"/>
-    <col min="21" max="1016" width="9.140625" style="15"/>
-    <col min="1017" max="1025" width="9.140625" style="8"/>
+    <col min="5" max="5" width="13.7083333333333" style="15"/>
+    <col min="6" max="6" width="9.14166666666667" style="15"/>
+    <col min="7" max="7" width="25.1416666666667" style="15"/>
+    <col min="8" max="8" width="13.425" style="15"/>
+    <col min="9" max="9" width="16.2833333333333" style="15" customWidth="1"/>
+    <col min="10" max="10" width="15.425" style="15" customWidth="1"/>
+    <col min="11" max="11" width="18.425" style="15" customWidth="1"/>
+    <col min="12" max="12" width="23.2833333333333" style="15"/>
+    <col min="13" max="13" width="25.1416666666667" style="8"/>
+    <col min="14" max="14" width="19.8583333333333"/>
+    <col min="15" max="15" width="9.14166666666667" style="19"/>
+    <col min="16" max="16" width="10.425" style="19"/>
+    <col min="17" max="17" width="10.7083333333333" style="19"/>
+    <col min="18" max="19" width="9.14166666666667" style="15"/>
+    <col min="20" max="20" width="22.8583333333333" style="19"/>
+    <col min="21" max="1016" width="9.14166666666667" style="15"/>
+    <col min="1017" max="1025" width="9.14166666666667" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1025" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1" s="1" customFormat="1" ht="12" spans="1:1025">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5389,29 +6042,29 @@
       <c r="L1" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="26" t="s">
+      <c r="M1" s="29" t="s">
         <v>16</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="O1" s="27"/>
-      <c r="P1" s="27"/>
-      <c r="Q1" s="27"/>
-      <c r="R1" s="29"/>
-      <c r="S1" s="29"/>
-      <c r="T1" s="27"/>
-      <c r="AMC1" s="30"/>
-      <c r="AMD1" s="30"/>
-      <c r="AME1" s="30"/>
-      <c r="AMF1" s="30"/>
-      <c r="AMG1" s="30"/>
-      <c r="AMH1" s="30"/>
-      <c r="AMI1" s="30"/>
-      <c r="AMJ1" s="30"/>
-      <c r="AMK1" s="30"/>
-    </row>
-    <row r="2" spans="1:1025" x14ac:dyDescent="0.25">
+      <c r="O1" s="30"/>
+      <c r="P1" s="30"/>
+      <c r="Q1" s="30"/>
+      <c r="R1" s="32"/>
+      <c r="S1" s="32"/>
+      <c r="T1" s="30"/>
+      <c r="AMC1" s="33"/>
+      <c r="AMD1" s="33"/>
+      <c r="AME1" s="33"/>
+      <c r="AMF1" s="33"/>
+      <c r="AMG1" s="33"/>
+      <c r="AMH1" s="33"/>
+      <c r="AMI1" s="33"/>
+      <c r="AMJ1" s="33"/>
+      <c r="AMK1" s="33"/>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="15" t="s">
         <v>203</v>
       </c>
@@ -5443,11 +6096,11 @@
         <v>203895200</v>
       </c>
       <c r="L2" s="19"/>
-      <c r="M2" s="28"/>
+      <c r="M2" s="31"/>
       <c r="R2" s="18"/>
       <c r="S2" s="18"/>
     </row>
-    <row r="3" spans="1:1025" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19">
       <c r="A3" s="15" t="s">
         <v>207</v>
       </c>
@@ -5479,11 +6132,11 @@
         <v>20605200</v>
       </c>
       <c r="L3" s="19"/>
-      <c r="M3" s="28"/>
+      <c r="M3" s="31"/>
       <c r="R3" s="18"/>
       <c r="S3" s="18"/>
     </row>
-    <row r="4" spans="1:1025" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19">
       <c r="A4" s="15" t="s">
         <v>210</v>
       </c>
@@ -5515,11 +6168,11 @@
         <v>45648411</v>
       </c>
       <c r="L4" s="19"/>
-      <c r="M4" s="28"/>
+      <c r="M4" s="31"/>
       <c r="R4" s="18"/>
       <c r="S4" s="18"/>
     </row>
-    <row r="5" spans="1:1025" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19">
       <c r="A5" s="15" t="s">
         <v>214</v>
       </c>
@@ -5551,11 +6204,11 @@
         <v>85414201</v>
       </c>
       <c r="L5" s="19"/>
-      <c r="M5" s="28"/>
+      <c r="M5" s="31"/>
       <c r="R5" s="18"/>
       <c r="S5" s="18"/>
     </row>
-    <row r="6" spans="1:1025" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19">
       <c r="A6" s="15" t="s">
         <v>218</v>
       </c>
@@ -5587,11 +6240,11 @@
         <v>39878600</v>
       </c>
       <c r="L6" s="19"/>
-      <c r="M6" s="28"/>
+      <c r="M6" s="31"/>
       <c r="R6" s="18"/>
       <c r="S6" s="18"/>
     </row>
-    <row r="7" spans="1:1025" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19">
       <c r="A7" s="15" t="s">
         <v>221</v>
       </c>
@@ -5623,11 +6276,11 @@
         <v>185318582</v>
       </c>
       <c r="L7" s="19"/>
-      <c r="M7" s="28"/>
+      <c r="M7" s="31"/>
       <c r="R7" s="18"/>
       <c r="S7" s="18"/>
     </row>
-    <row r="8" spans="1:1025" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19">
       <c r="A8" s="15" t="s">
         <v>223</v>
       </c>
@@ -5659,11 +6312,11 @@
         <v>53863800</v>
       </c>
       <c r="L8" s="19"/>
-      <c r="M8" s="28"/>
+      <c r="M8" s="31"/>
       <c r="R8" s="18"/>
       <c r="S8" s="18"/>
     </row>
-    <row r="9" spans="1:1025" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19">
       <c r="A9" s="15" t="s">
         <v>226</v>
       </c>
@@ -5695,11 +6348,11 @@
         <v>118837001</v>
       </c>
       <c r="L9" s="19"/>
-      <c r="M9" s="28"/>
+      <c r="M9" s="31"/>
       <c r="R9" s="18"/>
       <c r="S9" s="18"/>
     </row>
-    <row r="10" spans="1:1025" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19">
       <c r="A10" s="15" t="s">
         <v>228</v>
       </c>
@@ -5731,11 +6384,11 @@
         <v>141851600</v>
       </c>
       <c r="L10" s="19"/>
-      <c r="M10" s="28"/>
+      <c r="M10" s="31"/>
       <c r="R10" s="18"/>
       <c r="S10" s="18"/>
     </row>
-    <row r="11" spans="1:1025" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19">
       <c r="A11" s="15" t="s">
         <v>230</v>
       </c>
@@ -5767,11 +6420,11 @@
         <v>2991400</v>
       </c>
       <c r="L11" s="19"/>
-      <c r="M11" s="28"/>
+      <c r="M11" s="31"/>
       <c r="R11" s="18"/>
       <c r="S11" s="18"/>
     </row>
-    <row r="12" spans="1:1025" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19">
       <c r="A12" s="15" t="s">
         <v>232</v>
       </c>
@@ -5803,11 +6456,11 @@
         <v>43971001</v>
       </c>
       <c r="L12" s="19"/>
-      <c r="M12" s="28"/>
+      <c r="M12" s="31"/>
       <c r="R12" s="18"/>
       <c r="S12" s="18"/>
     </row>
-    <row r="13" spans="1:1025" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19">
       <c r="A13" s="15" t="s">
         <v>234</v>
       </c>
@@ -5839,11 +6492,11 @@
         <v>893236</v>
       </c>
       <c r="L13" s="19"/>
-      <c r="M13" s="28"/>
+      <c r="M13" s="31"/>
       <c r="R13" s="18"/>
       <c r="S13" s="18"/>
     </row>
-    <row r="14" spans="1:1025" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19">
       <c r="A14" s="15" t="s">
         <v>236</v>
       </c>
@@ -5875,11 +6528,11 @@
         <v>116112801</v>
       </c>
       <c r="L14" s="19"/>
-      <c r="M14" s="28"/>
+      <c r="M14" s="31"/>
       <c r="R14" s="18"/>
       <c r="S14" s="18"/>
     </row>
-    <row r="15" spans="1:1025" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19">
       <c r="A15" s="15" t="s">
         <v>238</v>
       </c>
@@ -5914,11 +6567,11 @@
         <v>241</v>
       </c>
       <c r="L15" s="19"/>
-      <c r="M15" s="28"/>
+      <c r="M15" s="31"/>
       <c r="R15" s="18"/>
       <c r="S15" s="18"/>
     </row>
-    <row r="16" spans="1:1025" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19">
       <c r="A16" s="15" t="s">
         <v>242</v>
       </c>
@@ -5950,11 +6603,11 @@
         <v>22702000</v>
       </c>
       <c r="L16" s="19"/>
-      <c r="M16" s="28"/>
+      <c r="M16" s="31"/>
       <c r="R16" s="18"/>
       <c r="S16" s="18"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19">
       <c r="A17" s="15" t="s">
         <v>244</v>
       </c>
@@ -5986,11 +6639,11 @@
         <v>46023801</v>
       </c>
       <c r="L17" s="19"/>
-      <c r="M17" s="28"/>
+      <c r="M17" s="31"/>
       <c r="R17" s="18"/>
       <c r="S17" s="18"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19">
       <c r="A18" s="15" t="s">
         <v>246</v>
       </c>
@@ -6022,11 +6675,11 @@
         <v>132187000</v>
       </c>
       <c r="L18" s="19"/>
-      <c r="M18" s="28"/>
+      <c r="M18" s="31"/>
       <c r="R18" s="18"/>
       <c r="S18" s="18"/>
     </row>
-    <row r="19" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" ht="15" customHeight="1" spans="1:19">
       <c r="A19" s="15" t="s">
         <v>248</v>
       </c>
@@ -6061,11 +6714,11 @@
         <v>250</v>
       </c>
       <c r="L19" s="19"/>
-      <c r="M19" s="28"/>
+      <c r="M19" s="31"/>
       <c r="R19" s="18"/>
       <c r="S19" s="18"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19">
       <c r="A20" s="15" t="s">
         <v>251</v>
       </c>
@@ -6097,11 +6750,11 @@
         <v>101940201</v>
       </c>
       <c r="L20" s="19"/>
-      <c r="M20" s="28"/>
+      <c r="M20" s="31"/>
       <c r="R20" s="18"/>
       <c r="S20" s="18"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19">
       <c r="A21" s="15" t="s">
         <v>253</v>
       </c>
@@ -6133,11 +6786,11 @@
         <v>99985401</v>
       </c>
       <c r="L21" s="19"/>
-      <c r="M21" s="28"/>
+      <c r="M21" s="31"/>
       <c r="R21" s="18"/>
       <c r="S21" s="18"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19">
       <c r="A22" s="15" t="s">
         <v>255</v>
       </c>
@@ -6169,11 +6822,11 @@
         <v>52849993</v>
       </c>
       <c r="L22" s="19"/>
-      <c r="M22" s="28"/>
+      <c r="M22" s="31"/>
       <c r="R22" s="18"/>
       <c r="S22" s="18"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19">
       <c r="A23" s="15" t="s">
         <v>257</v>
       </c>
@@ -6205,11 +6858,11 @@
         <v>23579130</v>
       </c>
       <c r="L23" s="19"/>
-      <c r="M23" s="28"/>
+      <c r="M23" s="31"/>
       <c r="R23" s="18"/>
       <c r="S23" s="18"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19">
       <c r="A24" s="15" t="s">
         <v>259</v>
       </c>
@@ -6241,11 +6894,11 @@
         <v>90215000</v>
       </c>
       <c r="L24" s="19"/>
-      <c r="M24" s="28"/>
+      <c r="M24" s="31"/>
       <c r="R24" s="18"/>
       <c r="S24" s="18"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19">
       <c r="A25" s="15" t="s">
         <v>261</v>
       </c>
@@ -6277,11 +6930,11 @@
         <v>47720200</v>
       </c>
       <c r="L25" s="19"/>
-      <c r="M25" s="28"/>
+      <c r="M25" s="31"/>
       <c r="R25" s="18"/>
       <c r="S25" s="18"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19">
       <c r="A26" s="15" t="s">
         <v>263</v>
       </c>
@@ -6313,11 +6966,11 @@
         <v>50369600</v>
       </c>
       <c r="L26" s="19"/>
-      <c r="M26" s="28"/>
+      <c r="M26" s="31"/>
       <c r="R26" s="18"/>
       <c r="S26" s="18"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19">
       <c r="A27" s="15" t="s">
         <v>265</v>
       </c>
@@ -6349,11 +7002,11 @@
         <v>18650600</v>
       </c>
       <c r="L27" s="19"/>
-      <c r="M27" s="28"/>
+      <c r="M27" s="31"/>
       <c r="R27" s="18"/>
       <c r="S27" s="18"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19">
       <c r="A28" s="15" t="s">
         <v>267</v>
       </c>
@@ -6385,11 +7038,11 @@
         <v>33756401</v>
       </c>
       <c r="L28" s="19"/>
-      <c r="M28" s="28"/>
+      <c r="M28" s="31"/>
       <c r="R28" s="18"/>
       <c r="S28" s="18"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19">
       <c r="A29" s="15" t="s">
         <v>269</v>
       </c>
@@ -6421,11 +7074,11 @@
         <v>58328001</v>
       </c>
       <c r="L29" s="19"/>
-      <c r="M29" s="28"/>
+      <c r="M29" s="31"/>
       <c r="R29" s="18"/>
       <c r="S29" s="18"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19">
       <c r="A30" s="15" t="s">
         <v>271</v>
       </c>
@@ -6457,11 +7110,11 @@
         <v>50118213</v>
       </c>
       <c r="L30" s="19"/>
-      <c r="M30" s="28"/>
+      <c r="M30" s="31"/>
       <c r="R30" s="18"/>
       <c r="S30" s="18"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19">
       <c r="A31" s="15" t="s">
         <v>273</v>
       </c>
@@ -6493,11 +7146,11 @@
         <v>62961734</v>
       </c>
       <c r="L31" s="19"/>
-      <c r="M31" s="28"/>
+      <c r="M31" s="31"/>
       <c r="R31" s="18"/>
       <c r="S31" s="18"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19">
       <c r="A32" s="15" t="s">
         <v>275</v>
       </c>
@@ -6529,11 +7182,11 @@
         <v>57964896</v>
       </c>
       <c r="L32" s="19"/>
-      <c r="M32" s="28"/>
+      <c r="M32" s="31"/>
       <c r="R32" s="18"/>
       <c r="S32" s="18"/>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19">
       <c r="A33" s="15" t="s">
         <v>277</v>
       </c>
@@ -6565,11 +7218,11 @@
         <v>36711020</v>
       </c>
       <c r="L33" s="19"/>
-      <c r="M33" s="28"/>
+      <c r="M33" s="31"/>
       <c r="R33" s="18"/>
       <c r="S33" s="18"/>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19">
       <c r="A34" s="15" t="s">
         <v>279</v>
       </c>
@@ -6601,11 +7254,11 @@
         <v>43346796</v>
       </c>
       <c r="L34" s="19"/>
-      <c r="M34" s="28"/>
+      <c r="M34" s="31"/>
       <c r="R34" s="18"/>
       <c r="S34" s="18"/>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19">
       <c r="A35" s="15" t="s">
         <v>281</v>
       </c>
@@ -6637,11 +7290,11 @@
         <v>30592601</v>
       </c>
       <c r="L35" s="19"/>
-      <c r="M35" s="28"/>
+      <c r="M35" s="31"/>
       <c r="R35" s="18"/>
       <c r="S35" s="18"/>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19">
       <c r="A36" s="15" t="s">
         <v>283</v>
       </c>
@@ -6673,11 +7326,11 @@
         <v>135326600</v>
       </c>
       <c r="L36" s="19"/>
-      <c r="M36" s="28"/>
+      <c r="M36" s="31"/>
       <c r="R36" s="18"/>
       <c r="S36" s="18"/>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19">
       <c r="A37" s="15" t="s">
         <v>285</v>
       </c>
@@ -6709,13 +7362,15 @@
         <v>14200</v>
       </c>
       <c r="L37" s="19"/>
-      <c r="M37" s="28"/>
+      <c r="M37" s="31"/>
       <c r="R37" s="18"/>
       <c r="S37" s="18"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L776"/>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <autoFilter ref="A1:L776">
+    <extLst/>
+  </autoFilter>
+  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Arial,Regular"&amp;10&amp;A</oddHeader>
@@ -6725,33 +7380,34 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMG5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" style="15" customWidth="1"/>
-    <col min="2" max="2" width="10.42578125" style="15" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" style="15" customWidth="1"/>
-    <col min="4" max="4" width="50.42578125" style="15"/>
-    <col min="5" max="5" width="18.42578125" style="15" customWidth="1"/>
+    <col min="1" max="1" width="9.70833333333333" style="15" customWidth="1"/>
+    <col min="2" max="2" width="10.425" style="15" customWidth="1"/>
+    <col min="3" max="3" width="17.425" style="15" customWidth="1"/>
+    <col min="4" max="4" width="50.425" style="15"/>
+    <col min="5" max="5" width="18.425" style="15" customWidth="1"/>
     <col min="6" max="6" width="10" style="15" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" style="15" customWidth="1"/>
-    <col min="8" max="8" width="22.85546875" style="23"/>
-    <col min="9" max="9" width="13.42578125" style="24"/>
-    <col min="10" max="10" width="19.85546875" style="19"/>
-    <col min="11" max="11" width="10.7109375" style="19"/>
-    <col min="12" max="13" width="9.140625" style="15"/>
-    <col min="14" max="1021" width="9.140625" style="24"/>
-    <col min="1022" max="1024" width="8.42578125"/>
-    <col min="1025" max="1030" width="8.7109375"/>
+    <col min="7" max="7" width="13.7083333333333" style="15" customWidth="1"/>
+    <col min="8" max="8" width="22.8583333333333" style="26"/>
+    <col min="9" max="9" width="13.425" style="27"/>
+    <col min="10" max="10" width="19.8583333333333" style="19"/>
+    <col min="11" max="11" width="10.7083333333333" style="19"/>
+    <col min="12" max="13" width="9.14166666666667" style="15"/>
+    <col min="14" max="1021" width="9.14166666666667" style="27"/>
+    <col min="1022" max="1024" width="8.425"/>
+    <col min="1025" max="1030" width="8.70833333333333"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6782,9 +7438,9 @@
       <c r="J1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K1" s="25"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K1" s="28"/>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="15" t="s">
         <v>291</v>
       </c>
@@ -6808,7 +7464,7 @@
       <c r="M2" s="18"/>
       <c r="N2" s="15"/>
     </row>
-    <row r="3" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" ht="15" customHeight="1" spans="1:14">
       <c r="A3" s="15" t="s">
         <v>295</v>
       </c>
@@ -6832,7 +7488,7 @@
       <c r="M3" s="18"/>
       <c r="N3" s="15"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="A4" s="15" t="s">
         <v>298</v>
       </c>
@@ -6855,7 +7511,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="A5" s="15" t="s">
         <v>302</v>
       </c>
@@ -6879,8 +7535,10 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H849"/>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <autoFilter ref="A1:H849">
+    <extLst/>
+  </autoFilter>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
@@ -6890,26 +7548,27 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="16.42578125"/>
-    <col min="2" max="2" width="11.7109375"/>
-    <col min="3" max="4" width="8.42578125"/>
-    <col min="5" max="5" width="7.42578125"/>
-    <col min="6" max="6" width="10.42578125"/>
-    <col min="7" max="7" width="10.7109375"/>
-    <col min="8" max="8" width="19.85546875"/>
-    <col min="9" max="1025" width="8.42578125"/>
+    <col min="1" max="1" width="16.425"/>
+    <col min="2" max="2" width="11.7083333333333"/>
+    <col min="3" max="4" width="8.425"/>
+    <col min="5" max="5" width="7.425"/>
+    <col min="6" max="6" width="10.425"/>
+    <col min="7" max="7" width="10.7083333333333"/>
+    <col min="8" max="8" width="19.8583333333333"/>
+    <col min="9" max="1025" width="8.425"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="22" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1" s="25" customFormat="1" ht="12" spans="1:9">
       <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
@@ -6936,7 +7595,7 @@
       </c>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>305</v>
       </c>
@@ -6947,59 +7606,60 @@
         <v>93</v>
       </c>
       <c r="D2" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B3" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C3" s="15" t="s">
         <v>93</v>
       </c>
       <c r="D3" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="B4" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="C4" s="15" t="s">
         <v>93</v>
       </c>
       <c r="D4" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="B5" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="C5" s="15" t="s">
         <v>93</v>
       </c>
       <c r="D5" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="19" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H19" s="21"/>
-    </row>
-    <row r="20" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H20" s="21"/>
+        <v>316</v>
+      </c>
+    </row>
+    <row r="19" spans="8:8">
+      <c r="H19" s="24"/>
+    </row>
+    <row r="20" spans="8:8">
+      <c r="H20" s="24"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/tests/fixtures/eukaryote_core.xlsx
+++ b/tests/fixtures/eukaryote_core.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20295" windowHeight="6840" tabRatio="993" firstSheet="1" activeTab="15"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="26160" windowHeight="6840" tabRatio="993" firstSheet="1" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="KB" sheetId="1" r:id="rId1"/>
@@ -1467,9 +1467,6 @@
     <t>Enzyme</t>
   </si>
   <si>
-    <t>Spontenaeous</t>
-  </si>
-  <si>
     <t>Parameters</t>
   </si>
   <si>
@@ -1588,6 +1585,9 @@
   </si>
   <si>
     <t>uncategorized</t>
+  </si>
+  <si>
+    <t>Spontaneous</t>
   </si>
 </sst>
 </file>
@@ -3020,7 +3020,7 @@
     </row>
     <row r="2" spans="1:8" ht="15.2" customHeight="1">
       <c r="A2" s="80" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B2" s="38" t="s">
         <v>348</v>
@@ -3040,7 +3040,7 @@
     </row>
     <row r="3" spans="1:8" ht="15.2" customHeight="1">
       <c r="A3" s="79" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B3" s="38" t="s">
         <v>351</v>
@@ -3060,7 +3060,7 @@
     </row>
     <row r="4" spans="1:8" ht="15.2" customHeight="1">
       <c r="A4" s="79" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B4" s="38" t="s">
         <v>354</v>
@@ -3078,7 +3078,7 @@
     </row>
     <row r="5" spans="1:8" ht="15.2" customHeight="1">
       <c r="A5" s="79" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B5" s="38" t="s">
         <v>355</v>
@@ -3096,7 +3096,7 @@
     </row>
     <row r="6" spans="1:8" ht="15.2" customHeight="1">
       <c r="A6" s="79" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B6" s="38" t="s">
         <v>356</v>
@@ -3114,7 +3114,7 @@
     </row>
     <row r="7" spans="1:8" ht="15.2" customHeight="1">
       <c r="A7" s="79" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B7" s="38" t="s">
         <v>357</v>
@@ -3132,7 +3132,7 @@
     </row>
     <row r="8" spans="1:8" ht="15.2" customHeight="1">
       <c r="A8" s="79" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B8" s="38" t="s">
         <v>358</v>
@@ -3150,7 +3150,7 @@
     </row>
     <row r="9" spans="1:8" ht="15.2" customHeight="1">
       <c r="A9" s="79" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B9" s="38" t="s">
         <v>359</v>
@@ -3168,7 +3168,7 @@
     </row>
     <row r="10" spans="1:8" ht="15.2" customHeight="1">
       <c r="A10" s="79" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B10" s="81" t="s">
         <v>360</v>
@@ -3186,7 +3186,7 @@
     </row>
     <row r="11" spans="1:8" ht="15.2" customHeight="1">
       <c r="A11" s="79" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B11" s="81" t="s">
         <v>361</v>
@@ -3204,7 +3204,7 @@
     </row>
     <row r="12" spans="1:8" ht="15.2" customHeight="1">
       <c r="A12" s="79" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B12" s="81" t="s">
         <v>362</v>
@@ -3222,7 +3222,7 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="79" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B13" s="38" t="s">
         <v>363</v>
@@ -3240,7 +3240,7 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="79" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B14" s="38" t="s">
         <v>364</v>
@@ -3258,7 +3258,7 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="79" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B15" s="38" t="s">
         <v>365</v>
@@ -3276,7 +3276,7 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="79" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B16" s="38" t="s">
         <v>366</v>
@@ -3561,7 +3561,7 @@
   <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.7109375" defaultRowHeight="12.75"/>
@@ -3594,16 +3594,16 @@
         <v>461</v>
       </c>
       <c r="G1" s="65" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H1" s="66" t="s">
         <v>371</v>
       </c>
       <c r="I1" s="66" t="s">
+        <v>502</v>
+      </c>
+      <c r="J1" s="65" t="s">
         <v>462</v>
-      </c>
-      <c r="J1" s="65" t="s">
-        <v>463</v>
       </c>
       <c r="K1" s="66" t="s">
         <v>457</v>
@@ -3627,7 +3627,7 @@
       </c>
       <c r="C2" s="52"/>
       <c r="D2" s="52" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E2" s="52" t="s">
         <v>374</v>
@@ -3655,7 +3655,7 @@
       </c>
       <c r="C3" s="52"/>
       <c r="D3" s="52" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E3" s="52" t="s">
         <v>377</v>
@@ -3683,7 +3683,7 @@
       </c>
       <c r="C4" s="52"/>
       <c r="D4" s="52" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E4" s="52" t="s">
         <v>380</v>
@@ -3711,7 +3711,7 @@
       </c>
       <c r="C5" s="52"/>
       <c r="D5" s="52" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E5" s="52" t="s">
         <v>383</v>
@@ -3739,7 +3739,7 @@
       </c>
       <c r="C6" s="52"/>
       <c r="D6" s="52" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E6" s="52" t="s">
         <v>384</v>
@@ -3767,7 +3767,7 @@
       </c>
       <c r="C7" s="52"/>
       <c r="D7" s="52" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E7" s="52" t="s">
         <v>387</v>
@@ -3795,7 +3795,7 @@
       </c>
       <c r="C8" s="52"/>
       <c r="D8" s="52" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E8" s="52" t="s">
         <v>387</v>
@@ -5271,19 +5271,19 @@
         <v>446</v>
       </c>
       <c r="C1" s="71" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D1" s="71" t="s">
         <v>455</v>
       </c>
       <c r="E1" s="71" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="F1" s="71" t="s">
         <v>347</v>
       </c>
       <c r="G1" s="71" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="H1" s="72" t="s">
         <v>13</v>
@@ -5380,31 +5380,31 @@
         <v>331</v>
       </c>
       <c r="B1" s="70" t="s">
+        <v>466</v>
+      </c>
+      <c r="C1" s="70" t="s">
         <v>467</v>
       </c>
-      <c r="C1" s="70" t="s">
+      <c r="D1" s="70" t="s">
         <v>468</v>
-      </c>
-      <c r="D1" s="70" t="s">
-        <v>469</v>
       </c>
       <c r="E1" s="70" t="s">
         <v>345</v>
       </c>
       <c r="F1" s="70" t="s">
+        <v>469</v>
+      </c>
+      <c r="G1" s="70" t="s">
         <v>470</v>
       </c>
-      <c r="G1" s="70" t="s">
+      <c r="H1" s="70" t="s">
         <v>471</v>
       </c>
-      <c r="H1" s="70" t="s">
+      <c r="I1" s="70" t="s">
         <v>472</v>
       </c>
-      <c r="I1" s="70" t="s">
+      <c r="J1" s="70" t="s">
         <v>473</v>
-      </c>
-      <c r="J1" s="70" t="s">
-        <v>474</v>
       </c>
       <c r="K1" s="70" t="s">
         <v>13</v>
@@ -5452,25 +5452,25 @@
         <v>77</v>
       </c>
       <c r="D1" s="73" t="s">
+        <v>474</v>
+      </c>
+      <c r="E1" s="75" t="s">
         <v>475</v>
       </c>
-      <c r="E1" s="75" t="s">
+      <c r="F1" s="73" t="s">
         <v>476</v>
       </c>
-      <c r="F1" s="73" t="s">
+      <c r="G1" s="75" t="s">
         <v>477</v>
       </c>
-      <c r="G1" s="75" t="s">
+      <c r="H1" s="75" t="s">
         <v>478</v>
       </c>
-      <c r="H1" s="75" t="s">
+      <c r="I1" s="76" t="s">
         <v>479</v>
       </c>
-      <c r="I1" s="76" t="s">
+      <c r="J1" s="73" t="s">
         <v>480</v>
-      </c>
-      <c r="J1" s="73" t="s">
-        <v>481</v>
       </c>
       <c r="K1" s="74" t="s">
         <v>13</v>
@@ -5484,7 +5484,7 @@
         <v>338</v>
       </c>
       <c r="C2" s="35" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -5492,7 +5492,7 @@
         <v>353</v>
       </c>
       <c r="C3" s="35" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -5500,7 +5500,7 @@
         <v>438</v>
       </c>
       <c r="C4" s="35" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
   </sheetData>
@@ -8834,7 +8834,7 @@
         <v>27</v>
       </c>
       <c r="D2" s="50" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -8845,7 +8845,7 @@
         <v>29</v>
       </c>
       <c r="D3" s="50" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F3" s="48" t="s">
         <v>450</v>
@@ -8859,7 +8859,7 @@
         <v>32</v>
       </c>
       <c r="D4" s="50" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -8870,7 +8870,7 @@
         <v>34</v>
       </c>
       <c r="D5" s="50" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -8881,7 +8881,7 @@
         <v>36</v>
       </c>
       <c r="D6" s="50" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F6" s="48" t="s">
         <v>450</v>
@@ -8895,7 +8895,7 @@
         <v>39</v>
       </c>
       <c r="D7" s="50" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F7" s="48" t="s">
         <v>451</v>
@@ -8909,7 +8909,7 @@
         <v>42</v>
       </c>
       <c r="D8" s="50" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F8" s="48" t="s">
         <v>452</v>
@@ -8923,7 +8923,7 @@
         <v>44</v>
       </c>
       <c r="D9" s="50" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F9" s="48" t="s">
         <v>453</v>

--- a/tests/fixtures/eukaryote_core.xlsx
+++ b/tests/fixtures/eukaryote_core.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20295" windowHeight="6840" tabRatio="993" firstSheet="1" activeTab="15"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="20295" windowHeight="6780" tabRatio="993" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="KB" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Cell!$A$1:$B$4</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">Complexes!$A$1:$K$221</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">Genes!$G$1:$J$1064</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">Genes!$F$1:$I$1064</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">KB!$A$1:$B$9</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">Proteins!$A$1:$I$719</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="16" hidden="1">'Rate laws'!$A$1:$H$9</definedName>
@@ -40,33 +40,33 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Regulatory element'!$A$1:$O$776</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Regulatory module'!$A$1:$J$849</definedName>
     <definedName name="_FilterDatabase_0" localSheetId="1">Cell!$A$1:$B$1</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="7">Genes!$M$1</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="7">Genes!$L$1</definedName>
     <definedName name="_FilterDatabase_0" localSheetId="0">KB!$A$1:$B$2</definedName>
     <definedName name="_FilterDatabase_0" localSheetId="10">Proteins!$A$1:$I$719</definedName>
     <definedName name="_FilterDatabase_0" localSheetId="4">'Regulatory element'!$A$1:$O$776</definedName>
     <definedName name="_FilterDatabase_0" localSheetId="5">'Regulatory module'!$A$1:$J$849</definedName>
     <definedName name="_FilterDatabase_0_0" localSheetId="1">Cell!$A$1:$B$1</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="7">Genes!$G$1:$J$1064</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="7">Genes!$F$1:$I$1064</definedName>
     <definedName name="_FilterDatabase_0_0" localSheetId="0">KB!$A$1:$B$2</definedName>
     <definedName name="_FilterDatabase_0_0" localSheetId="4">'Regulatory element'!$A$1:$O$776</definedName>
     <definedName name="_FilterDatabase_0_0" localSheetId="5">'Regulatory module'!$A$1:$J$849</definedName>
     <definedName name="_FilterDatabase_0_0_0" localSheetId="1">Cell!$A$1:$B$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0" localSheetId="7">Genes!$M$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="7">Genes!$L$1</definedName>
     <definedName name="_FilterDatabase_0_0_0" localSheetId="0">KB!$A$1:$B$2</definedName>
     <definedName name="_FilterDatabase_0_0_0" localSheetId="4">'Regulatory element'!$A$1:$O$776</definedName>
     <definedName name="_FilterDatabase_0_0_0" localSheetId="5">'Regulatory module'!$A$1:$J$849</definedName>
     <definedName name="_FilterDatabase_0_0_0_0" localSheetId="1">Cell!$A$1:$B$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="7">Genes!$G$1:$J$1064</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="7">Genes!$F$1:$I$1064</definedName>
     <definedName name="_FilterDatabase_0_0_0_0" localSheetId="0">KB!$A$1:$B$2</definedName>
     <definedName name="_FilterDatabase_0_0_0_0" localSheetId="4">'Regulatory element'!$A$2:$T$849</definedName>
     <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="1">Cell!$A$1:$B$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="7">Genes!$M$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="7">Genes!$L$1</definedName>
     <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="0">KB!$A$1:$B$2</definedName>
     <definedName name="_FilterDatabase_0_0_0_0_0_0" localSheetId="1">Cell!$A$1:$B$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0" localSheetId="7">Genes!$G$1:$J$1064</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0" localSheetId="7">Genes!$F$1:$I$1064</definedName>
     <definedName name="_FilterDatabase_0_0_0_0_0_0" localSheetId="0">KB!$A$1:$B$2</definedName>
     <definedName name="_FilterDatabase_0_0_0_0_0_0_0" localSheetId="1">Cell!$A$1:$B$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0" localSheetId="7">Genes!$M$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0" localSheetId="7">Genes!$L$1</definedName>
     <definedName name="_FilterDatabase_0_0_0_0_0_0_0" localSheetId="0">KB!$A$1:$B$2</definedName>
     <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0" localSheetId="1">Cell!$A$1:$B$1</definedName>
     <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0" localSheetId="0">KB!$A$1:$B$2</definedName>
@@ -79,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="997" uniqueCount="503">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="945" uniqueCount="498">
   <si>
     <t>Id</t>
   </si>
@@ -333,12 +333,6 @@
     <t>PINK1</t>
   </si>
   <si>
-    <t>mRna</t>
-  </si>
-  <si>
-    <t>+</t>
-  </si>
-  <si>
     <t>ENSG00000115758</t>
   </si>
   <si>
@@ -348,9 +342,6 @@
     <t>ODC1</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>ENSG00000198380</t>
   </si>
   <si>
@@ -675,9 +666,6 @@
     <t>element_1</t>
   </si>
   <si>
-    <t>CTCF_binding_site</t>
-  </si>
-  <si>
     <t>inactive</t>
   </si>
   <si>
@@ -687,18 +675,12 @@
     <t>element_2</t>
   </si>
   <si>
-    <t>promoter_flanking_region</t>
-  </si>
-  <si>
     <t>ENSR00000116452</t>
   </si>
   <si>
     <t>element_3</t>
   </si>
   <si>
-    <t>open_chromatin_region</t>
-  </si>
-  <si>
     <t>repressed</t>
   </si>
   <si>
@@ -708,9 +690,6 @@
     <t>element_4</t>
   </si>
   <si>
-    <t>promoter</t>
-  </si>
-  <si>
     <t>active</t>
   </si>
   <si>
@@ -735,9 +714,6 @@
     <t>element_7</t>
   </si>
   <si>
-    <t>enhancer</t>
-  </si>
-  <si>
     <t>ENSR00000172399</t>
   </si>
   <si>
@@ -780,9 +756,6 @@
     <t>element_14</t>
   </si>
   <si>
-    <t>TF_binding_site</t>
-  </si>
-  <si>
     <t>ENSP00000234111</t>
   </si>
   <si>
@@ -939,9 +912,6 @@
     <t>reg_mod_1</t>
   </si>
   <si>
-    <t>proximal</t>
-  </si>
-  <si>
     <t>positive</t>
   </si>
   <si>
@@ -963,9 +933,6 @@
     <t>ENSP00000390691</t>
   </si>
   <si>
-    <t>distal</t>
-  </si>
-  <si>
     <t>rm4</t>
   </si>
   <si>
@@ -1089,9 +1056,6 @@
     <t>Ornithine decarboxylase</t>
   </si>
   <si>
-    <t>process_MacromolecularComplexation</t>
-  </si>
-  <si>
     <t>(2) ENSP00000234111</t>
   </si>
   <si>
@@ -1296,9 +1260,6 @@
     <t>Ozone_backward</t>
   </si>
   <si>
-    <t>backward</t>
-  </si>
-  <si>
     <t>1+3</t>
   </si>
   <si>
@@ -1575,9 +1536,6 @@
     <t>conc_Complex_4[c]</t>
   </si>
   <si>
-    <t>unknown</t>
-  </si>
-  <si>
     <t>article</t>
   </si>
   <si>
@@ -1587,7 +1545,34 @@
     <t>book</t>
   </si>
   <si>
-    <t>uncategorized</t>
+    <t>reverse</t>
+  </si>
+  <si>
+    <t>CTCFBindingSite</t>
+  </si>
+  <si>
+    <t>PromoterFlankingRegion</t>
+  </si>
+  <si>
+    <t>OpenChromatinRegion</t>
+  </si>
+  <si>
+    <t>Enhancer</t>
+  </si>
+  <si>
+    <t>Promoter</t>
+  </si>
+  <si>
+    <t>MacromolecularComplexation</t>
+  </si>
+  <si>
+    <t>Proximal</t>
+  </si>
+  <si>
+    <t>Distal</t>
+  </si>
+  <si>
+    <t>TFBindingSite</t>
   </si>
 </sst>
 </file>
@@ -1863,7 +1848,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1930,9 +1915,6 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1995,7 +1977,6 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2077,6 +2058,36 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="58">
@@ -2521,23 +2532,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15" customHeight="1">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31" t="s">
-        <v>439</v>
+      <c r="B1" s="30" t="s">
+        <v>426</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15" customHeight="1">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="29" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>440</v>
+        <v>427</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15" customHeight="1">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="29" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="23">
@@ -2549,7 +2560,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>441</v>
+        <v>428</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2583,7 +2594,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>442</v>
+        <v>429</v>
       </c>
     </row>
   </sheetData>
@@ -2619,10 +2630,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>25</v>
@@ -2639,58 +2650,58 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="B2" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D2" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="B3" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D3" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
       <c r="B4" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D4" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="B5" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D5" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
     </row>
     <row r="19" spans="6:6">
@@ -2736,16 +2747,16 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>313</v>
+        <v>302</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>13</v>
@@ -2759,53 +2770,53 @@
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1">
       <c r="A2" s="5" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>314</v>
+        <v>303</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>315</v>
+        <v>304</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="16" t="s">
-        <v>317</v>
+        <v>306</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>314</v>
+        <v>303</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>315</v>
+        <v>304</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>318</v>
+        <v>307</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>308</v>
+      </c>
+      <c r="D4" s="9" t="s">
         <v>293</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>314</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>319</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>304</v>
-      </c>
       <c r="E4" s="5" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -2840,17 +2851,17 @@
   <dimension ref="A1:AMF5"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="20.7109375" style="4" customWidth="1"/>
     <col min="2" max="2" width="20.7109375" style="7" customWidth="1"/>
-    <col min="3" max="4" width="9" style="39"/>
+    <col min="3" max="4" width="9" style="38"/>
     <col min="5" max="5" width="30.7109375" style="4" customWidth="1"/>
     <col min="6" max="6" width="30.7109375" style="8" customWidth="1"/>
-    <col min="7" max="8" width="15.7109375" style="41" customWidth="1"/>
+    <col min="7" max="8" width="15.7109375" style="40" customWidth="1"/>
     <col min="9" max="11" width="15.7109375" style="4" customWidth="1"/>
     <col min="12" max="1020" width="8.42578125" style="4"/>
     <col min="1021" max="1023" width="8.42578125"/>
@@ -2858,28 +2869,28 @@
   <sheetData>
     <row r="1" spans="1:11" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="49" t="s">
-        <v>447</v>
-      </c>
-      <c r="D1" s="49" t="s">
+      <c r="C1" s="48" t="s">
+        <v>434</v>
+      </c>
+      <c r="D1" s="48" t="s">
         <v>77</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="G1" s="49" t="s">
-        <v>449</v>
-      </c>
-      <c r="H1" s="49" t="s">
-        <v>448</v>
+        <v>322</v>
+      </c>
+      <c r="G1" s="48" t="s">
+        <v>436</v>
+      </c>
+      <c r="H1" s="48" t="s">
+        <v>435</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>13</v>
@@ -2893,74 +2904,74 @@
     </row>
     <row r="2" spans="1:11" ht="15" customHeight="1">
       <c r="A2" s="5" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
       <c r="C2" s="10"/>
       <c r="D2" s="10"/>
       <c r="E2" s="11" t="s">
-        <v>336</v>
+        <v>494</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="K2" s="5"/>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1">
       <c r="A3" s="5" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
       <c r="C3" s="10"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11" t="s">
-        <v>336</v>
+        <v>494</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1">
       <c r="A4" s="5" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
       <c r="E4" s="11" t="s">
-        <v>336</v>
+        <v>494</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
     </row>
     <row r="5" spans="1:11" ht="15" customHeight="1">
       <c r="A5" s="5" t="s">
-        <v>343</v>
+        <v>331</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
       <c r="C5" s="10"/>
       <c r="D5" s="10"/>
       <c r="E5" s="11" t="s">
-        <v>336</v>
+        <v>494</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>344</v>
+        <v>332</v>
       </c>
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
@@ -2985,312 +2996,312 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" style="33" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" style="32" customWidth="1"/>
     <col min="2" max="2" width="20.7109375" style="6" customWidth="1"/>
     <col min="3" max="4" width="15.7109375" style="6" customWidth="1"/>
     <col min="5" max="8" width="20.7109375" style="6" customWidth="1"/>
     <col min="9" max="1026" width="8.42578125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="78" customFormat="1" ht="15.2" customHeight="1">
-      <c r="A1" s="68" t="s">
+    <row r="1" spans="1:8" s="76" customFormat="1" ht="15.2" customHeight="1">
+      <c r="A1" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="68" t="s">
+      <c r="B1" s="66" t="s">
+        <v>333</v>
+      </c>
+      <c r="C1" s="66" t="s">
+        <v>334</v>
+      </c>
+      <c r="D1" s="66" t="s">
+        <v>335</v>
+      </c>
+      <c r="E1" s="66" t="s">
+        <v>444</v>
+      </c>
+      <c r="F1" s="66" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="66" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="66" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15.2" customHeight="1">
+      <c r="A2" s="78" t="s">
+        <v>470</v>
+      </c>
+      <c r="B2" s="37" t="s">
+        <v>336</v>
+      </c>
+      <c r="C2" s="37">
+        <v>1</v>
+      </c>
+      <c r="D2" s="37" t="s">
+        <v>337</v>
+      </c>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37" t="s">
+        <v>338</v>
+      </c>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+    </row>
+    <row r="3" spans="1:8" ht="15.2" customHeight="1">
+      <c r="A3" s="77" t="s">
+        <v>471</v>
+      </c>
+      <c r="B3" s="37" t="s">
+        <v>339</v>
+      </c>
+      <c r="C3" s="37">
+        <v>1</v>
+      </c>
+      <c r="D3" s="37" t="s">
+        <v>340</v>
+      </c>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37" t="s">
+        <v>341</v>
+      </c>
+      <c r="H3" s="37"/>
+    </row>
+    <row r="4" spans="1:8" ht="15.2" customHeight="1">
+      <c r="A4" s="77" t="s">
+        <v>472</v>
+      </c>
+      <c r="B4" s="37" t="s">
+        <v>342</v>
+      </c>
+      <c r="C4" s="37">
+        <v>1</v>
+      </c>
+      <c r="D4" s="37" t="s">
+        <v>340</v>
+      </c>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+    </row>
+    <row r="5" spans="1:8" ht="15.2" customHeight="1">
+      <c r="A5" s="77" t="s">
+        <v>473</v>
+      </c>
+      <c r="B5" s="37" t="s">
+        <v>343</v>
+      </c>
+      <c r="C5" s="37">
+        <v>1</v>
+      </c>
+      <c r="D5" s="37" t="s">
+        <v>337</v>
+      </c>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
+    </row>
+    <row r="6" spans="1:8" ht="15.2" customHeight="1">
+      <c r="A6" s="77" t="s">
+        <v>474</v>
+      </c>
+      <c r="B6" s="37" t="s">
+        <v>344</v>
+      </c>
+      <c r="C6" s="37">
+        <v>0.25</v>
+      </c>
+      <c r="D6" s="37" t="s">
+        <v>337</v>
+      </c>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
+    </row>
+    <row r="7" spans="1:8" ht="15.2" customHeight="1">
+      <c r="A7" s="77" t="s">
+        <v>475</v>
+      </c>
+      <c r="B7" s="37" t="s">
         <v>345</v>
       </c>
-      <c r="C1" s="68" t="s">
+      <c r="C7" s="37">
+        <v>0.25</v>
+      </c>
+      <c r="D7" s="37" t="s">
+        <v>337</v>
+      </c>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
+    </row>
+    <row r="8" spans="1:8" ht="15.2" customHeight="1">
+      <c r="A8" s="77" t="s">
+        <v>476</v>
+      </c>
+      <c r="B8" s="37" t="s">
         <v>346</v>
       </c>
-      <c r="D1" s="68" t="s">
+      <c r="C8" s="37">
+        <v>0.25</v>
+      </c>
+      <c r="D8" s="37" t="s">
+        <v>337</v>
+      </c>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="37"/>
+    </row>
+    <row r="9" spans="1:8" ht="15.2" customHeight="1">
+      <c r="A9" s="77" t="s">
+        <v>477</v>
+      </c>
+      <c r="B9" s="37" t="s">
         <v>347</v>
       </c>
-      <c r="E1" s="68" t="s">
-        <v>457</v>
-      </c>
-      <c r="F1" s="68" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" s="68" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" s="68" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="15.2" customHeight="1">
-      <c r="A2" s="80" t="s">
+      <c r="C9" s="37">
+        <v>0.25</v>
+      </c>
+      <c r="D9" s="37" t="s">
+        <v>337</v>
+      </c>
+      <c r="E9" s="37"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="37"/>
+    </row>
+    <row r="10" spans="1:8" ht="15.2" customHeight="1">
+      <c r="A10" s="77" t="s">
+        <v>478</v>
+      </c>
+      <c r="B10" s="79" t="s">
+        <v>348</v>
+      </c>
+      <c r="C10" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="D10" s="37" t="s">
+        <v>337</v>
+      </c>
+      <c r="E10" s="37"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="37"/>
+    </row>
+    <row r="11" spans="1:8" ht="15.2" customHeight="1">
+      <c r="A11" s="77" t="s">
+        <v>479</v>
+      </c>
+      <c r="B11" s="79" t="s">
+        <v>349</v>
+      </c>
+      <c r="C11" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="D11" s="37" t="s">
+        <v>337</v>
+      </c>
+      <c r="E11" s="37"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="37"/>
+    </row>
+    <row r="12" spans="1:8" ht="15.2" customHeight="1">
+      <c r="A12" s="77" t="s">
+        <v>480</v>
+      </c>
+      <c r="B12" s="79" t="s">
+        <v>350</v>
+      </c>
+      <c r="C12" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="D12" s="37" t="s">
+        <v>337</v>
+      </c>
+      <c r="E12" s="37"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="37"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="77" t="s">
+        <v>481</v>
+      </c>
+      <c r="B13" s="37" t="s">
+        <v>351</v>
+      </c>
+      <c r="C13" s="37">
+        <v>0.1</v>
+      </c>
+      <c r="D13" s="37" t="s">
+        <v>337</v>
+      </c>
+      <c r="E13" s="37"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="37"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="77" t="s">
+        <v>482</v>
+      </c>
+      <c r="B14" s="37" t="s">
+        <v>352</v>
+      </c>
+      <c r="C14" s="37">
+        <v>0.36</v>
+      </c>
+      <c r="D14" s="37" t="s">
+        <v>337</v>
+      </c>
+      <c r="E14" s="37"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="37"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="77" t="s">
         <v>483</v>
       </c>
-      <c r="B2" s="38" t="s">
-        <v>348</v>
-      </c>
-      <c r="C2" s="38">
-        <v>1</v>
-      </c>
-      <c r="D2" s="38" t="s">
-        <v>349</v>
-      </c>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38" t="s">
-        <v>350</v>
-      </c>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-    </row>
-    <row r="3" spans="1:8" ht="15.2" customHeight="1">
-      <c r="A3" s="79" t="s">
+      <c r="B15" s="37" t="s">
+        <v>353</v>
+      </c>
+      <c r="C15" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="D15" s="37" t="s">
+        <v>337</v>
+      </c>
+      <c r="E15" s="37"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="37"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="77" t="s">
         <v>484</v>
       </c>
-      <c r="B3" s="38" t="s">
-        <v>351</v>
-      </c>
-      <c r="C3" s="38">
-        <v>1</v>
-      </c>
-      <c r="D3" s="38" t="s">
-        <v>352</v>
-      </c>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38" t="s">
-        <v>353</v>
-      </c>
-      <c r="H3" s="38"/>
-    </row>
-    <row r="4" spans="1:8" ht="15.2" customHeight="1">
-      <c r="A4" s="79" t="s">
-        <v>485</v>
-      </c>
-      <c r="B4" s="38" t="s">
+      <c r="B16" s="37" t="s">
         <v>354</v>
       </c>
-      <c r="C4" s="38">
-        <v>1</v>
-      </c>
-      <c r="D4" s="38" t="s">
-        <v>352</v>
-      </c>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
-    </row>
-    <row r="5" spans="1:8" ht="15.2" customHeight="1">
-      <c r="A5" s="79" t="s">
-        <v>486</v>
-      </c>
-      <c r="B5" s="38" t="s">
-        <v>355</v>
-      </c>
-      <c r="C5" s="38">
-        <v>1</v>
-      </c>
-      <c r="D5" s="38" t="s">
-        <v>349</v>
-      </c>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
-    </row>
-    <row r="6" spans="1:8" ht="15.2" customHeight="1">
-      <c r="A6" s="79" t="s">
-        <v>487</v>
-      </c>
-      <c r="B6" s="38" t="s">
-        <v>356</v>
-      </c>
-      <c r="C6" s="38">
+      <c r="C16" s="37">
         <v>0.25</v>
       </c>
-      <c r="D6" s="38" t="s">
-        <v>349</v>
-      </c>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
-    </row>
-    <row r="7" spans="1:8" ht="15.2" customHeight="1">
-      <c r="A7" s="79" t="s">
-        <v>488</v>
-      </c>
-      <c r="B7" s="38" t="s">
-        <v>357</v>
-      </c>
-      <c r="C7" s="38">
-        <v>0.25</v>
-      </c>
-      <c r="D7" s="38" t="s">
-        <v>349</v>
-      </c>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38"/>
-    </row>
-    <row r="8" spans="1:8" ht="15.2" customHeight="1">
-      <c r="A8" s="79" t="s">
-        <v>489</v>
-      </c>
-      <c r="B8" s="38" t="s">
-        <v>358</v>
-      </c>
-      <c r="C8" s="38">
-        <v>0.25</v>
-      </c>
-      <c r="D8" s="38" t="s">
-        <v>349</v>
-      </c>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="38"/>
-    </row>
-    <row r="9" spans="1:8" ht="15.2" customHeight="1">
-      <c r="A9" s="79" t="s">
-        <v>490</v>
-      </c>
-      <c r="B9" s="38" t="s">
-        <v>359</v>
-      </c>
-      <c r="C9" s="38">
-        <v>0.25</v>
-      </c>
-      <c r="D9" s="38" t="s">
-        <v>349</v>
-      </c>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="38"/>
-    </row>
-    <row r="10" spans="1:8" ht="15.2" customHeight="1">
-      <c r="A10" s="79" t="s">
-        <v>491</v>
-      </c>
-      <c r="B10" s="81" t="s">
-        <v>360</v>
-      </c>
-      <c r="C10" s="38">
-        <v>0.5</v>
-      </c>
-      <c r="D10" s="38" t="s">
-        <v>349</v>
-      </c>
-      <c r="E10" s="38"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="38"/>
-      <c r="H10" s="38"/>
-    </row>
-    <row r="11" spans="1:8" ht="15.2" customHeight="1">
-      <c r="A11" s="79" t="s">
-        <v>492</v>
-      </c>
-      <c r="B11" s="81" t="s">
-        <v>361</v>
-      </c>
-      <c r="C11" s="38">
-        <v>0.5</v>
-      </c>
-      <c r="D11" s="38" t="s">
-        <v>349</v>
-      </c>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="38"/>
-    </row>
-    <row r="12" spans="1:8" ht="15.2" customHeight="1">
-      <c r="A12" s="79" t="s">
-        <v>493</v>
-      </c>
-      <c r="B12" s="81" t="s">
-        <v>362</v>
-      </c>
-      <c r="C12" s="38">
-        <v>0.5</v>
-      </c>
-      <c r="D12" s="38" t="s">
-        <v>349</v>
-      </c>
-      <c r="E12" s="38"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
-      <c r="H12" s="38"/>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="79" t="s">
-        <v>494</v>
-      </c>
-      <c r="B13" s="38" t="s">
-        <v>363</v>
-      </c>
-      <c r="C13" s="38">
-        <v>0.1</v>
-      </c>
-      <c r="D13" s="38" t="s">
-        <v>349</v>
-      </c>
-      <c r="E13" s="38"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="38"/>
-      <c r="H13" s="38"/>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="79" t="s">
-        <v>495</v>
-      </c>
-      <c r="B14" s="38" t="s">
-        <v>364</v>
-      </c>
-      <c r="C14" s="38">
-        <v>0.36</v>
-      </c>
-      <c r="D14" s="38" t="s">
-        <v>349</v>
-      </c>
-      <c r="E14" s="38"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="38"/>
-      <c r="H14" s="38"/>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="79" t="s">
-        <v>496</v>
-      </c>
-      <c r="B15" s="38" t="s">
-        <v>365</v>
-      </c>
-      <c r="C15" s="38">
-        <v>0.5</v>
-      </c>
-      <c r="D15" s="38" t="s">
-        <v>349</v>
-      </c>
-      <c r="E15" s="38"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="38"/>
-      <c r="H15" s="38"/>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="79" t="s">
-        <v>497</v>
-      </c>
-      <c r="B16" s="38" t="s">
-        <v>366</v>
-      </c>
-      <c r="C16" s="38">
-        <v>0.25</v>
-      </c>
-      <c r="D16" s="38" t="s">
-        <v>349</v>
-      </c>
-      <c r="E16" s="38"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="38"/>
-      <c r="H16" s="38"/>
+      <c r="D16" s="37" t="s">
+        <v>337</v>
+      </c>
+      <c r="E16" s="37"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="37"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -3302,195 +3313,195 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="20.7109375" customWidth="1"/>
-    <col min="2" max="3" width="20.7109375" style="37" customWidth="1"/>
+    <col min="2" max="3" width="20.7109375" style="36" customWidth="1"/>
     <col min="4" max="4" width="20.7109375" customWidth="1"/>
-    <col min="5" max="6" width="20.7109375" style="37" customWidth="1"/>
+    <col min="5" max="6" width="20.7109375" style="36" customWidth="1"/>
     <col min="7" max="10" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="44" customFormat="1">
-      <c r="A1" s="58" t="s">
+    <row r="1" spans="1:11" s="43" customFormat="1">
+      <c r="A1" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="58" t="s">
-        <v>454</v>
-      </c>
-      <c r="C1" s="58" t="s">
-        <v>455</v>
-      </c>
-      <c r="D1" s="58" t="s">
-        <v>346</v>
-      </c>
-      <c r="E1" s="58" t="s">
-        <v>456</v>
-      </c>
-      <c r="F1" s="58" t="s">
-        <v>347</v>
-      </c>
-      <c r="G1" s="57" t="s">
-        <v>457</v>
-      </c>
-      <c r="H1" s="57" t="s">
+      <c r="B1" s="56" t="s">
+        <v>441</v>
+      </c>
+      <c r="C1" s="56" t="s">
+        <v>442</v>
+      </c>
+      <c r="D1" s="56" t="s">
+        <v>334</v>
+      </c>
+      <c r="E1" s="56" t="s">
+        <v>443</v>
+      </c>
+      <c r="F1" s="56" t="s">
+        <v>335</v>
+      </c>
+      <c r="G1" s="55" t="s">
+        <v>444</v>
+      </c>
+      <c r="H1" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="57" t="s">
+      <c r="I1" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="58" t="s">
+      <c r="J1" s="56" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="48" t="s">
-        <v>450</v>
-      </c>
-      <c r="B2" s="56" t="s">
+      <c r="A2" s="47" t="s">
+        <v>437</v>
+      </c>
+      <c r="B2" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="36" t="s">
-        <v>458</v>
-      </c>
-      <c r="D2" s="42" t="s">
+      <c r="C2" s="35" t="s">
+        <v>445</v>
+      </c>
+      <c r="D2" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="36" t="s">
-        <v>459</v>
-      </c>
-      <c r="F2" s="36" t="s">
-        <v>434</v>
-      </c>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="42"/>
+      <c r="E2" s="35" t="s">
+        <v>446</v>
+      </c>
+      <c r="F2" s="35" t="s">
+        <v>421</v>
+      </c>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="41"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="48" t="s">
-        <v>451</v>
+      <c r="A3" s="47" t="s">
+        <v>438</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="36" t="s">
-        <v>458</v>
-      </c>
-      <c r="D3" s="42" t="s">
+      <c r="C3" s="35" t="s">
+        <v>445</v>
+      </c>
+      <c r="D3" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="36" t="s">
-        <v>459</v>
-      </c>
-      <c r="F3" s="36" t="s">
-        <v>434</v>
-      </c>
-      <c r="H3" s="42"/>
-      <c r="I3" s="42"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="42"/>
+      <c r="E3" s="35" t="s">
+        <v>446</v>
+      </c>
+      <c r="F3" s="35" t="s">
+        <v>421</v>
+      </c>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="41"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="48" t="s">
-        <v>452</v>
-      </c>
-      <c r="B4" s="50" t="s">
+      <c r="A4" s="47" t="s">
+        <v>439</v>
+      </c>
+      <c r="B4" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="36" t="s">
-        <v>458</v>
-      </c>
-      <c r="D4" s="42" t="s">
+      <c r="C4" s="35" t="s">
+        <v>445</v>
+      </c>
+      <c r="D4" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="E4" s="36" t="s">
-        <v>459</v>
-      </c>
-      <c r="F4" s="36" t="s">
-        <v>434</v>
-      </c>
-      <c r="H4" s="42"/>
-      <c r="I4" s="42"/>
-      <c r="J4" s="29"/>
-      <c r="K4" s="42"/>
+      <c r="E4" s="35" t="s">
+        <v>446</v>
+      </c>
+      <c r="F4" s="35" t="s">
+        <v>421</v>
+      </c>
+      <c r="H4" s="41"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="41"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="48" t="s">
-        <v>453</v>
-      </c>
-      <c r="B5" s="50" t="s">
+      <c r="A5" s="47" t="s">
+        <v>440</v>
+      </c>
+      <c r="B5" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="36" t="s">
-        <v>458</v>
-      </c>
-      <c r="D5" s="42" t="s">
+      <c r="C5" s="35" t="s">
+        <v>445</v>
+      </c>
+      <c r="D5" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="E5" s="36" t="s">
-        <v>459</v>
-      </c>
-      <c r="F5" s="36" t="s">
-        <v>434</v>
-      </c>
-      <c r="H5" s="42"/>
-      <c r="I5" s="42"/>
-      <c r="J5" s="29"/>
-      <c r="K5" s="42"/>
+      <c r="E5" s="35" t="s">
+        <v>446</v>
+      </c>
+      <c r="F5" s="35" t="s">
+        <v>421</v>
+      </c>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="28"/>
+      <c r="K5" s="41"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="C6" s="50"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="50"/>
-      <c r="F6" s="50"/>
-      <c r="H6" s="42"/>
-      <c r="I6" s="42"/>
-      <c r="J6" s="29"/>
-      <c r="K6" s="42"/>
+      <c r="C6" s="49"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="49"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="41"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="41"/>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="29"/>
-      <c r="B7" s="50"/>
-      <c r="C7" s="50"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="42"/>
-      <c r="H7" s="42"/>
-      <c r="I7" s="42"/>
-      <c r="J7" s="29"/>
-      <c r="K7" s="42"/>
+      <c r="A7" s="28"/>
+      <c r="B7" s="49"/>
+      <c r="C7" s="49"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="41"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="41"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="29"/>
-      <c r="B8" s="50"/>
-      <c r="C8" s="50"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="50"/>
-      <c r="F8" s="50"/>
-      <c r="G8" s="42"/>
-      <c r="H8" s="42"/>
-      <c r="I8" s="42"/>
-      <c r="J8" s="29"/>
-      <c r="K8" s="42"/>
+      <c r="A8" s="28"/>
+      <c r="B8" s="49"/>
+      <c r="C8" s="49"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="49"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="41"/>
+      <c r="I8" s="41"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="41"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="29"/>
-      <c r="B9" s="50"/>
-      <c r="C9" s="50"/>
-      <c r="E9" s="50"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="42"/>
-      <c r="H9" s="42"/>
-      <c r="I9" s="42"/>
-      <c r="J9" s="29"/>
-      <c r="K9" s="42"/>
+      <c r="A9" s="28"/>
+      <c r="B9" s="49"/>
+      <c r="C9" s="49"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="49"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="41"/>
+      <c r="I9" s="41"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="41"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3520,10 +3531,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>347</v>
+        <v>335</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>13</v>
@@ -3537,10 +3548,10 @@
     </row>
     <row r="2" spans="1:7" ht="14.45" customHeight="1">
       <c r="A2" t="s">
-        <v>368</v>
+        <v>356</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="D2" s="5">
         <v>1</v>
@@ -3560,259 +3571,245 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.7109375" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="3" width="20.7109375" style="43" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" style="43" customWidth="1"/>
-    <col min="5" max="5" width="30.7109375" style="43" customWidth="1"/>
-    <col min="6" max="11" width="15.7109375" style="43" customWidth="1"/>
-    <col min="12" max="14" width="20.7109375" style="43" customWidth="1"/>
-    <col min="15" max="16384" width="18.7109375" style="43"/>
+    <col min="1" max="3" width="20.7109375" style="42" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" style="42" customWidth="1"/>
+    <col min="5" max="5" width="30.7109375" style="42" customWidth="1"/>
+    <col min="6" max="11" width="15.7109375" style="42" customWidth="1"/>
+    <col min="12" max="14" width="20.7109375" style="42" customWidth="1"/>
+    <col min="15" max="16384" width="18.7109375" style="42"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="54" customFormat="1">
-      <c r="A1" s="66" t="s">
+    <row r="1" spans="1:14" s="52" customFormat="1">
+      <c r="A1" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="66" t="s">
+      <c r="B1" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="66" t="s">
-        <v>447</v>
-      </c>
-      <c r="D1" s="66" t="s">
+      <c r="C1" s="64" t="s">
+        <v>434</v>
+      </c>
+      <c r="D1" s="64" t="s">
         <v>77</v>
       </c>
-      <c r="E1" s="65" t="s">
+      <c r="E1" s="63" t="s">
+        <v>358</v>
+      </c>
+      <c r="F1" s="63" t="s">
+        <v>448</v>
+      </c>
+      <c r="G1" s="63" t="s">
+        <v>469</v>
+      </c>
+      <c r="H1" s="64" t="s">
+        <v>359</v>
+      </c>
+      <c r="I1" s="64" t="s">
+        <v>449</v>
+      </c>
+      <c r="J1" s="63" t="s">
+        <v>450</v>
+      </c>
+      <c r="K1" s="64" t="s">
+        <v>444</v>
+      </c>
+      <c r="L1" s="64" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" s="64" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="63" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="51" t="s">
+        <v>360</v>
+      </c>
+      <c r="B2" s="51" t="s">
+        <v>361</v>
+      </c>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51" t="s">
+        <v>362</v>
+      </c>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" s="51" t="b">
+        <v>0</v>
+      </c>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="51"/>
+      <c r="M2" s="51"/>
+      <c r="N2" s="51"/>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="51" t="s">
+        <v>363</v>
+      </c>
+      <c r="B3" s="51" t="s">
+        <v>364</v>
+      </c>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51" t="s">
+        <v>365</v>
+      </c>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" s="51" t="b">
+        <v>0</v>
+      </c>
+      <c r="J3" s="51"/>
+      <c r="K3" s="51"/>
+      <c r="L3" s="51"/>
+      <c r="M3" s="51"/>
+      <c r="N3" s="51"/>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="51" t="s">
+        <v>366</v>
+      </c>
+      <c r="B4" s="51" t="s">
+        <v>367</v>
+      </c>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51" t="s">
+        <v>368</v>
+      </c>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="51" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" s="51" t="b">
+        <v>1</v>
+      </c>
+      <c r="J4" s="51"/>
+      <c r="K4" s="51"/>
+      <c r="L4" s="51"/>
+      <c r="M4" s="51"/>
+      <c r="N4" s="51"/>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="51" t="s">
+        <v>369</v>
+      </c>
+      <c r="B5" s="51" t="s">
         <v>370</v>
       </c>
-      <c r="F1" s="65" t="s">
-        <v>461</v>
-      </c>
-      <c r="G1" s="65" t="s">
-        <v>482</v>
-      </c>
-      <c r="H1" s="66" t="s">
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51" t="s">
         <v>371</v>
       </c>
-      <c r="I1" s="66" t="s">
-        <v>462</v>
-      </c>
-      <c r="J1" s="65" t="s">
-        <v>463</v>
-      </c>
-      <c r="K1" s="66" t="s">
-        <v>457</v>
-      </c>
-      <c r="L1" s="66" t="s">
-        <v>13</v>
-      </c>
-      <c r="M1" s="66" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="65" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14">
-      <c r="A2" s="52" t="s">
+      <c r="F5" s="51"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="51" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" s="51" t="b">
+        <v>1</v>
+      </c>
+      <c r="J5" s="51"/>
+      <c r="K5" s="51"/>
+      <c r="L5" s="51"/>
+      <c r="M5" s="51"/>
+      <c r="N5" s="51"/>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="51" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="51" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="51"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="51" t="s">
         <v>372</v>
       </c>
-      <c r="B2" s="52" t="s">
+      <c r="F6" s="51"/>
+      <c r="G6" s="51"/>
+      <c r="H6" s="51" t="b">
+        <v>1</v>
+      </c>
+      <c r="I6" s="51" t="b">
+        <v>1</v>
+      </c>
+      <c r="J6" s="51"/>
+      <c r="K6" s="51"/>
+      <c r="L6" s="51"/>
+      <c r="M6" s="51"/>
+      <c r="N6" s="51"/>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="51" t="s">
         <v>373</v>
       </c>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52" t="s">
-        <v>502</v>
-      </c>
-      <c r="E2" s="52" t="s">
+      <c r="B7" s="51" t="s">
         <v>374</v>
       </c>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52" t="b">
+      <c r="C7" s="51"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="51" t="s">
+        <v>375</v>
+      </c>
+      <c r="F7" s="51"/>
+      <c r="G7" s="51"/>
+      <c r="H7" s="51" t="b">
         <v>0</v>
       </c>
-      <c r="I2" s="52" t="b">
+      <c r="I7" s="51" t="b">
+        <v>1</v>
+      </c>
+      <c r="J7" s="51"/>
+      <c r="K7" s="51"/>
+      <c r="L7" s="51"/>
+      <c r="M7" s="51"/>
+      <c r="N7" s="51"/>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="51" t="s">
+        <v>376</v>
+      </c>
+      <c r="B8" s="51" t="s">
+        <v>374</v>
+      </c>
+      <c r="C8" s="51"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="51" t="s">
+        <v>375</v>
+      </c>
+      <c r="F8" s="51"/>
+      <c r="G8" s="51"/>
+      <c r="H8" s="51" t="b">
         <v>0</v>
       </c>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="52"/>
-      <c r="M2" s="52"/>
-      <c r="N2" s="52"/>
-    </row>
-    <row r="3" spans="1:14">
-      <c r="A3" s="52" t="s">
-        <v>375</v>
-      </c>
-      <c r="B3" s="52" t="s">
-        <v>376</v>
-      </c>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52" t="s">
-        <v>502</v>
-      </c>
-      <c r="E3" s="52" t="s">
-        <v>377</v>
-      </c>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52" t="b">
+      <c r="I8" s="51" t="b">
         <v>0</v>
       </c>
-      <c r="I3" s="52" t="b">
-        <v>0</v>
-      </c>
-      <c r="J3" s="52"/>
-      <c r="K3" s="52"/>
-      <c r="L3" s="52"/>
-      <c r="M3" s="52"/>
-      <c r="N3" s="52"/>
-    </row>
-    <row r="4" spans="1:14">
-      <c r="A4" s="52" t="s">
-        <v>378</v>
-      </c>
-      <c r="B4" s="52" t="s">
-        <v>379</v>
-      </c>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52" t="s">
-        <v>502</v>
-      </c>
-      <c r="E4" s="52" t="s">
-        <v>380</v>
-      </c>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52" t="b">
-        <v>0</v>
-      </c>
-      <c r="I4" s="52" t="b">
-        <v>1</v>
-      </c>
-      <c r="J4" s="52"/>
-      <c r="K4" s="52"/>
-      <c r="L4" s="52"/>
-      <c r="M4" s="52"/>
-      <c r="N4" s="52"/>
-    </row>
-    <row r="5" spans="1:14">
-      <c r="A5" s="52" t="s">
-        <v>381</v>
-      </c>
-      <c r="B5" s="52" t="s">
-        <v>382</v>
-      </c>
-      <c r="C5" s="52"/>
-      <c r="D5" s="52" t="s">
-        <v>502</v>
-      </c>
-      <c r="E5" s="52" t="s">
-        <v>383</v>
-      </c>
-      <c r="F5" s="52"/>
-      <c r="G5" s="52"/>
-      <c r="H5" s="52" t="b">
-        <v>0</v>
-      </c>
-      <c r="I5" s="52" t="b">
-        <v>1</v>
-      </c>
-      <c r="J5" s="52"/>
-      <c r="K5" s="52"/>
-      <c r="L5" s="52"/>
-      <c r="M5" s="52"/>
-      <c r="N5" s="52"/>
-    </row>
-    <row r="6" spans="1:14">
-      <c r="A6" s="52" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6" s="52" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" s="52"/>
-      <c r="D6" s="52" t="s">
-        <v>502</v>
-      </c>
-      <c r="E6" s="52" t="s">
-        <v>384</v>
-      </c>
-      <c r="F6" s="52"/>
-      <c r="G6" s="52"/>
-      <c r="H6" s="52" t="b">
-        <v>1</v>
-      </c>
-      <c r="I6" s="52" t="b">
-        <v>1</v>
-      </c>
-      <c r="J6" s="52"/>
-      <c r="K6" s="52"/>
-      <c r="L6" s="52"/>
-      <c r="M6" s="52"/>
-      <c r="N6" s="52"/>
-    </row>
-    <row r="7" spans="1:14">
-      <c r="A7" s="52" t="s">
-        <v>385</v>
-      </c>
-      <c r="B7" s="52" t="s">
-        <v>386</v>
-      </c>
-      <c r="C7" s="52"/>
-      <c r="D7" s="52" t="s">
-        <v>502</v>
-      </c>
-      <c r="E7" s="52" t="s">
-        <v>387</v>
-      </c>
-      <c r="F7" s="52"/>
-      <c r="G7" s="52"/>
-      <c r="H7" s="52" t="b">
-        <v>0</v>
-      </c>
-      <c r="I7" s="52" t="b">
-        <v>1</v>
-      </c>
-      <c r="J7" s="52"/>
-      <c r="K7" s="52"/>
-      <c r="L7" s="52"/>
-      <c r="M7" s="52"/>
-      <c r="N7" s="52"/>
-    </row>
-    <row r="8" spans="1:14">
-      <c r="A8" s="52" t="s">
-        <v>388</v>
-      </c>
-      <c r="B8" s="52" t="s">
-        <v>386</v>
-      </c>
-      <c r="C8" s="52"/>
-      <c r="D8" s="52" t="s">
-        <v>502</v>
-      </c>
-      <c r="E8" s="52" t="s">
-        <v>387</v>
-      </c>
-      <c r="F8" s="52"/>
-      <c r="G8" s="52"/>
-      <c r="H8" s="52" t="b">
-        <v>0</v>
-      </c>
-      <c r="I8" s="52" t="b">
-        <v>0</v>
-      </c>
-      <c r="J8" s="52"/>
-      <c r="K8" s="52"/>
-      <c r="L8" s="52"/>
-      <c r="M8" s="52"/>
-      <c r="N8" s="52"/>
+      <c r="J8" s="51"/>
+      <c r="K8" s="51"/>
+      <c r="L8" s="51"/>
+      <c r="M8" s="51"/>
+      <c r="N8" s="51"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:L220"/>
@@ -3833,1218 +3830,1220 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H26" sqref="H26"/>
+      <selection pane="bottomRight" activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="4" width="20.7109375" style="51" customWidth="1"/>
-    <col min="5" max="5" width="20.7109375" style="63" customWidth="1"/>
-    <col min="6" max="8" width="20.7109375" style="51" customWidth="1"/>
+    <col min="1" max="2" width="20.7109375" style="50" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" style="89" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" style="50" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" style="61" customWidth="1"/>
+    <col min="6" max="8" width="20.7109375" style="50" customWidth="1"/>
     <col min="9" max="1024" width="8.7109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1024" s="62" customFormat="1" ht="15" customHeight="1">
-      <c r="A1" s="59" t="s">
-        <v>331</v>
-      </c>
-      <c r="B1" s="59" t="s">
+    <row r="1" spans="1:1024" s="60" customFormat="1" ht="15" customHeight="1">
+      <c r="A1" s="57" t="s">
+        <v>320</v>
+      </c>
+      <c r="B1" s="57" t="s">
+        <v>377</v>
+      </c>
+      <c r="C1" s="88" t="s">
+        <v>274</v>
+      </c>
+      <c r="D1" s="57" t="s">
+        <v>355</v>
+      </c>
+      <c r="E1" s="57" t="s">
+        <v>335</v>
+      </c>
+      <c r="F1" s="58" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="58" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="57" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
+      <c r="M1" s="59"/>
+      <c r="N1" s="59"/>
+      <c r="O1" s="59"/>
+      <c r="P1" s="59"/>
+      <c r="Q1" s="59"/>
+      <c r="R1" s="59"/>
+      <c r="S1" s="59"/>
+      <c r="T1" s="59"/>
+      <c r="U1" s="59"/>
+      <c r="V1" s="59"/>
+      <c r="W1" s="59"/>
+      <c r="X1" s="59"/>
+      <c r="Y1" s="59"/>
+      <c r="Z1" s="59"/>
+      <c r="AA1" s="59"/>
+      <c r="AB1" s="59"/>
+      <c r="AC1" s="59"/>
+      <c r="AD1" s="59"/>
+      <c r="AE1" s="59"/>
+      <c r="AF1" s="59"/>
+      <c r="AG1" s="59"/>
+      <c r="AH1" s="59"/>
+      <c r="AI1" s="59"/>
+      <c r="AJ1" s="59"/>
+      <c r="AK1" s="59"/>
+      <c r="AL1" s="59"/>
+      <c r="AM1" s="59"/>
+      <c r="AN1" s="59"/>
+      <c r="AO1" s="59"/>
+      <c r="AP1" s="59"/>
+      <c r="AQ1" s="59"/>
+      <c r="AR1" s="59"/>
+      <c r="AS1" s="59"/>
+      <c r="AT1" s="59"/>
+      <c r="AU1" s="59"/>
+      <c r="AV1" s="59"/>
+      <c r="AW1" s="59"/>
+      <c r="AX1" s="59"/>
+      <c r="AY1" s="59"/>
+      <c r="AZ1" s="59"/>
+      <c r="BA1" s="59"/>
+      <c r="BB1" s="59"/>
+      <c r="BC1" s="59"/>
+      <c r="BD1" s="59"/>
+      <c r="BE1" s="59"/>
+      <c r="BF1" s="59"/>
+      <c r="BG1" s="59"/>
+      <c r="BH1" s="59"/>
+      <c r="BI1" s="59"/>
+      <c r="BJ1" s="59"/>
+      <c r="BK1" s="59"/>
+      <c r="BL1" s="59"/>
+      <c r="BM1" s="59"/>
+      <c r="BN1" s="59"/>
+      <c r="BO1" s="59"/>
+      <c r="BP1" s="59"/>
+      <c r="BQ1" s="59"/>
+      <c r="BR1" s="59"/>
+      <c r="BS1" s="59"/>
+      <c r="BT1" s="59"/>
+      <c r="BU1" s="59"/>
+      <c r="BV1" s="59"/>
+      <c r="BW1" s="59"/>
+      <c r="BX1" s="59"/>
+      <c r="BY1" s="59"/>
+      <c r="BZ1" s="59"/>
+      <c r="CA1" s="59"/>
+      <c r="CB1" s="59"/>
+      <c r="CC1" s="59"/>
+      <c r="CD1" s="59"/>
+      <c r="CE1" s="59"/>
+      <c r="CF1" s="59"/>
+      <c r="CG1" s="59"/>
+      <c r="CH1" s="59"/>
+      <c r="CI1" s="59"/>
+      <c r="CJ1" s="59"/>
+      <c r="CK1" s="59"/>
+      <c r="CL1" s="59"/>
+      <c r="CM1" s="59"/>
+      <c r="CN1" s="59"/>
+      <c r="CO1" s="59"/>
+      <c r="CP1" s="59"/>
+      <c r="CQ1" s="59"/>
+      <c r="CR1" s="59"/>
+      <c r="CS1" s="59"/>
+      <c r="CT1" s="59"/>
+      <c r="CU1" s="59"/>
+      <c r="CV1" s="59"/>
+      <c r="CW1" s="59"/>
+      <c r="CX1" s="59"/>
+      <c r="CY1" s="59"/>
+      <c r="CZ1" s="59"/>
+      <c r="DA1" s="59"/>
+      <c r="DB1" s="59"/>
+      <c r="DC1" s="59"/>
+      <c r="DD1" s="59"/>
+      <c r="DE1" s="59"/>
+      <c r="DF1" s="59"/>
+      <c r="DG1" s="59"/>
+      <c r="DH1" s="59"/>
+      <c r="DI1" s="59"/>
+      <c r="DJ1" s="59"/>
+      <c r="DK1" s="59"/>
+      <c r="DL1" s="59"/>
+      <c r="DM1" s="59"/>
+      <c r="DN1" s="59"/>
+      <c r="DO1" s="59"/>
+      <c r="DP1" s="59"/>
+      <c r="DQ1" s="59"/>
+      <c r="DR1" s="59"/>
+      <c r="DS1" s="59"/>
+      <c r="DT1" s="59"/>
+      <c r="DU1" s="59"/>
+      <c r="DV1" s="59"/>
+      <c r="DW1" s="59"/>
+      <c r="DX1" s="59"/>
+      <c r="DY1" s="59"/>
+      <c r="DZ1" s="59"/>
+      <c r="EA1" s="59"/>
+      <c r="EB1" s="59"/>
+      <c r="EC1" s="59"/>
+      <c r="ED1" s="59"/>
+      <c r="EE1" s="59"/>
+      <c r="EF1" s="59"/>
+      <c r="EG1" s="59"/>
+      <c r="EH1" s="59"/>
+      <c r="EI1" s="59"/>
+      <c r="EJ1" s="59"/>
+      <c r="EK1" s="59"/>
+      <c r="EL1" s="59"/>
+      <c r="EM1" s="59"/>
+      <c r="EN1" s="59"/>
+      <c r="EO1" s="59"/>
+      <c r="EP1" s="59"/>
+      <c r="EQ1" s="59"/>
+      <c r="ER1" s="59"/>
+      <c r="ES1" s="59"/>
+      <c r="ET1" s="59"/>
+      <c r="EU1" s="59"/>
+      <c r="EV1" s="59"/>
+      <c r="EW1" s="59"/>
+      <c r="EX1" s="59"/>
+      <c r="EY1" s="59"/>
+      <c r="EZ1" s="59"/>
+      <c r="FA1" s="59"/>
+      <c r="FB1" s="59"/>
+      <c r="FC1" s="59"/>
+      <c r="FD1" s="59"/>
+      <c r="FE1" s="59"/>
+      <c r="FF1" s="59"/>
+      <c r="FG1" s="59"/>
+      <c r="FH1" s="59"/>
+      <c r="FI1" s="59"/>
+      <c r="FJ1" s="59"/>
+      <c r="FK1" s="59"/>
+      <c r="FL1" s="59"/>
+      <c r="FM1" s="59"/>
+      <c r="FN1" s="59"/>
+      <c r="FO1" s="59"/>
+      <c r="FP1" s="59"/>
+      <c r="FQ1" s="59"/>
+      <c r="FR1" s="59"/>
+      <c r="FS1" s="59"/>
+      <c r="FT1" s="59"/>
+      <c r="FU1" s="59"/>
+      <c r="FV1" s="59"/>
+      <c r="FW1" s="59"/>
+      <c r="FX1" s="59"/>
+      <c r="FY1" s="59"/>
+      <c r="FZ1" s="59"/>
+      <c r="GA1" s="59"/>
+      <c r="GB1" s="59"/>
+      <c r="GC1" s="59"/>
+      <c r="GD1" s="59"/>
+      <c r="GE1" s="59"/>
+      <c r="GF1" s="59"/>
+      <c r="GG1" s="59"/>
+      <c r="GH1" s="59"/>
+      <c r="GI1" s="59"/>
+      <c r="GJ1" s="59"/>
+      <c r="GK1" s="59"/>
+      <c r="GL1" s="59"/>
+      <c r="GM1" s="59"/>
+      <c r="GN1" s="59"/>
+      <c r="GO1" s="59"/>
+      <c r="GP1" s="59"/>
+      <c r="GQ1" s="59"/>
+      <c r="GR1" s="59"/>
+      <c r="GS1" s="59"/>
+      <c r="GT1" s="59"/>
+      <c r="GU1" s="59"/>
+      <c r="GV1" s="59"/>
+      <c r="GW1" s="59"/>
+      <c r="GX1" s="59"/>
+      <c r="GY1" s="59"/>
+      <c r="GZ1" s="59"/>
+      <c r="HA1" s="59"/>
+      <c r="HB1" s="59"/>
+      <c r="HC1" s="59"/>
+      <c r="HD1" s="59"/>
+      <c r="HE1" s="59"/>
+      <c r="HF1" s="59"/>
+      <c r="HG1" s="59"/>
+      <c r="HH1" s="59"/>
+      <c r="HI1" s="59"/>
+      <c r="HJ1" s="59"/>
+      <c r="HK1" s="59"/>
+      <c r="HL1" s="59"/>
+      <c r="HM1" s="59"/>
+      <c r="HN1" s="59"/>
+      <c r="HO1" s="59"/>
+      <c r="HP1" s="59"/>
+      <c r="HQ1" s="59"/>
+      <c r="HR1" s="59"/>
+      <c r="HS1" s="59"/>
+      <c r="HT1" s="59"/>
+      <c r="HU1" s="59"/>
+      <c r="HV1" s="59"/>
+      <c r="HW1" s="59"/>
+      <c r="HX1" s="59"/>
+      <c r="HY1" s="59"/>
+      <c r="HZ1" s="59"/>
+      <c r="IA1" s="59"/>
+      <c r="IB1" s="59"/>
+      <c r="IC1" s="59"/>
+      <c r="ID1" s="59"/>
+      <c r="IE1" s="59"/>
+      <c r="IF1" s="59"/>
+      <c r="IG1" s="59"/>
+      <c r="IH1" s="59"/>
+      <c r="II1" s="59"/>
+      <c r="IJ1" s="59"/>
+      <c r="IK1" s="59"/>
+      <c r="IL1" s="59"/>
+      <c r="IM1" s="59"/>
+      <c r="IN1" s="59"/>
+      <c r="IO1" s="59"/>
+      <c r="IP1" s="59"/>
+      <c r="IQ1" s="59"/>
+      <c r="IR1" s="59"/>
+      <c r="IS1" s="59"/>
+      <c r="IT1" s="59"/>
+      <c r="IU1" s="59"/>
+      <c r="IV1" s="59"/>
+      <c r="IW1" s="59"/>
+      <c r="IX1" s="59"/>
+      <c r="IY1" s="59"/>
+      <c r="IZ1" s="59"/>
+      <c r="JA1" s="59"/>
+      <c r="JB1" s="59"/>
+      <c r="JC1" s="59"/>
+      <c r="JD1" s="59"/>
+      <c r="JE1" s="59"/>
+      <c r="JF1" s="59"/>
+      <c r="JG1" s="59"/>
+      <c r="JH1" s="59"/>
+      <c r="JI1" s="59"/>
+      <c r="JJ1" s="59"/>
+      <c r="JK1" s="59"/>
+      <c r="JL1" s="59"/>
+      <c r="JM1" s="59"/>
+      <c r="JN1" s="59"/>
+      <c r="JO1" s="59"/>
+      <c r="JP1" s="59"/>
+      <c r="JQ1" s="59"/>
+      <c r="JR1" s="59"/>
+      <c r="JS1" s="59"/>
+      <c r="JT1" s="59"/>
+      <c r="JU1" s="59"/>
+      <c r="JV1" s="59"/>
+      <c r="JW1" s="59"/>
+      <c r="JX1" s="59"/>
+      <c r="JY1" s="59"/>
+      <c r="JZ1" s="59"/>
+      <c r="KA1" s="59"/>
+      <c r="KB1" s="59"/>
+      <c r="KC1" s="59"/>
+      <c r="KD1" s="59"/>
+      <c r="KE1" s="59"/>
+      <c r="KF1" s="59"/>
+      <c r="KG1" s="59"/>
+      <c r="KH1" s="59"/>
+      <c r="KI1" s="59"/>
+      <c r="KJ1" s="59"/>
+      <c r="KK1" s="59"/>
+      <c r="KL1" s="59"/>
+      <c r="KM1" s="59"/>
+      <c r="KN1" s="59"/>
+      <c r="KO1" s="59"/>
+      <c r="KP1" s="59"/>
+      <c r="KQ1" s="59"/>
+      <c r="KR1" s="59"/>
+      <c r="KS1" s="59"/>
+      <c r="KT1" s="59"/>
+      <c r="KU1" s="59"/>
+      <c r="KV1" s="59"/>
+      <c r="KW1" s="59"/>
+      <c r="KX1" s="59"/>
+      <c r="KY1" s="59"/>
+      <c r="KZ1" s="59"/>
+      <c r="LA1" s="59"/>
+      <c r="LB1" s="59"/>
+      <c r="LC1" s="59"/>
+      <c r="LD1" s="59"/>
+      <c r="LE1" s="59"/>
+      <c r="LF1" s="59"/>
+      <c r="LG1" s="59"/>
+      <c r="LH1" s="59"/>
+      <c r="LI1" s="59"/>
+      <c r="LJ1" s="59"/>
+      <c r="LK1" s="59"/>
+      <c r="LL1" s="59"/>
+      <c r="LM1" s="59"/>
+      <c r="LN1" s="59"/>
+      <c r="LO1" s="59"/>
+      <c r="LP1" s="59"/>
+      <c r="LQ1" s="59"/>
+      <c r="LR1" s="59"/>
+      <c r="LS1" s="59"/>
+      <c r="LT1" s="59"/>
+      <c r="LU1" s="59"/>
+      <c r="LV1" s="59"/>
+      <c r="LW1" s="59"/>
+      <c r="LX1" s="59"/>
+      <c r="LY1" s="59"/>
+      <c r="LZ1" s="59"/>
+      <c r="MA1" s="59"/>
+      <c r="MB1" s="59"/>
+      <c r="MC1" s="59"/>
+      <c r="MD1" s="59"/>
+      <c r="ME1" s="59"/>
+      <c r="MF1" s="59"/>
+      <c r="MG1" s="59"/>
+      <c r="MH1" s="59"/>
+      <c r="MI1" s="59"/>
+      <c r="MJ1" s="59"/>
+      <c r="MK1" s="59"/>
+      <c r="ML1" s="59"/>
+      <c r="MM1" s="59"/>
+      <c r="MN1" s="59"/>
+      <c r="MO1" s="59"/>
+      <c r="MP1" s="59"/>
+      <c r="MQ1" s="59"/>
+      <c r="MR1" s="59"/>
+      <c r="MS1" s="59"/>
+      <c r="MT1" s="59"/>
+      <c r="MU1" s="59"/>
+      <c r="MV1" s="59"/>
+      <c r="MW1" s="59"/>
+      <c r="MX1" s="59"/>
+      <c r="MY1" s="59"/>
+      <c r="MZ1" s="59"/>
+      <c r="NA1" s="59"/>
+      <c r="NB1" s="59"/>
+      <c r="NC1" s="59"/>
+      <c r="ND1" s="59"/>
+      <c r="NE1" s="59"/>
+      <c r="NF1" s="59"/>
+      <c r="NG1" s="59"/>
+      <c r="NH1" s="59"/>
+      <c r="NI1" s="59"/>
+      <c r="NJ1" s="59"/>
+      <c r="NK1" s="59"/>
+      <c r="NL1" s="59"/>
+      <c r="NM1" s="59"/>
+      <c r="NN1" s="59"/>
+      <c r="NO1" s="59"/>
+      <c r="NP1" s="59"/>
+      <c r="NQ1" s="59"/>
+      <c r="NR1" s="59"/>
+      <c r="NS1" s="59"/>
+      <c r="NT1" s="59"/>
+      <c r="NU1" s="59"/>
+      <c r="NV1" s="59"/>
+      <c r="NW1" s="59"/>
+      <c r="NX1" s="59"/>
+      <c r="NY1" s="59"/>
+      <c r="NZ1" s="59"/>
+      <c r="OA1" s="59"/>
+      <c r="OB1" s="59"/>
+      <c r="OC1" s="59"/>
+      <c r="OD1" s="59"/>
+      <c r="OE1" s="59"/>
+      <c r="OF1" s="59"/>
+      <c r="OG1" s="59"/>
+      <c r="OH1" s="59"/>
+      <c r="OI1" s="59"/>
+      <c r="OJ1" s="59"/>
+      <c r="OK1" s="59"/>
+      <c r="OL1" s="59"/>
+      <c r="OM1" s="59"/>
+      <c r="ON1" s="59"/>
+      <c r="OO1" s="59"/>
+      <c r="OP1" s="59"/>
+      <c r="OQ1" s="59"/>
+      <c r="OR1" s="59"/>
+      <c r="OS1" s="59"/>
+      <c r="OT1" s="59"/>
+      <c r="OU1" s="59"/>
+      <c r="OV1" s="59"/>
+      <c r="OW1" s="59"/>
+      <c r="OX1" s="59"/>
+      <c r="OY1" s="59"/>
+      <c r="OZ1" s="59"/>
+      <c r="PA1" s="59"/>
+      <c r="PB1" s="59"/>
+      <c r="PC1" s="59"/>
+      <c r="PD1" s="59"/>
+      <c r="PE1" s="59"/>
+      <c r="PF1" s="59"/>
+      <c r="PG1" s="59"/>
+      <c r="PH1" s="59"/>
+      <c r="PI1" s="59"/>
+      <c r="PJ1" s="59"/>
+      <c r="PK1" s="59"/>
+      <c r="PL1" s="59"/>
+      <c r="PM1" s="59"/>
+      <c r="PN1" s="59"/>
+      <c r="PO1" s="59"/>
+      <c r="PP1" s="59"/>
+      <c r="PQ1" s="59"/>
+      <c r="PR1" s="59"/>
+      <c r="PS1" s="59"/>
+      <c r="PT1" s="59"/>
+      <c r="PU1" s="59"/>
+      <c r="PV1" s="59"/>
+      <c r="PW1" s="59"/>
+      <c r="PX1" s="59"/>
+      <c r="PY1" s="59"/>
+      <c r="PZ1" s="59"/>
+      <c r="QA1" s="59"/>
+      <c r="QB1" s="59"/>
+      <c r="QC1" s="59"/>
+      <c r="QD1" s="59"/>
+      <c r="QE1" s="59"/>
+      <c r="QF1" s="59"/>
+      <c r="QG1" s="59"/>
+      <c r="QH1" s="59"/>
+      <c r="QI1" s="59"/>
+      <c r="QJ1" s="59"/>
+      <c r="QK1" s="59"/>
+      <c r="QL1" s="59"/>
+      <c r="QM1" s="59"/>
+      <c r="QN1" s="59"/>
+      <c r="QO1" s="59"/>
+      <c r="QP1" s="59"/>
+      <c r="QQ1" s="59"/>
+      <c r="QR1" s="59"/>
+      <c r="QS1" s="59"/>
+      <c r="QT1" s="59"/>
+      <c r="QU1" s="59"/>
+      <c r="QV1" s="59"/>
+      <c r="QW1" s="59"/>
+      <c r="QX1" s="59"/>
+      <c r="QY1" s="59"/>
+      <c r="QZ1" s="59"/>
+      <c r="RA1" s="59"/>
+      <c r="RB1" s="59"/>
+      <c r="RC1" s="59"/>
+      <c r="RD1" s="59"/>
+      <c r="RE1" s="59"/>
+      <c r="RF1" s="59"/>
+      <c r="RG1" s="59"/>
+      <c r="RH1" s="59"/>
+      <c r="RI1" s="59"/>
+      <c r="RJ1" s="59"/>
+      <c r="RK1" s="59"/>
+      <c r="RL1" s="59"/>
+      <c r="RM1" s="59"/>
+      <c r="RN1" s="59"/>
+      <c r="RO1" s="59"/>
+      <c r="RP1" s="59"/>
+      <c r="RQ1" s="59"/>
+      <c r="RR1" s="59"/>
+      <c r="RS1" s="59"/>
+      <c r="RT1" s="59"/>
+      <c r="RU1" s="59"/>
+      <c r="RV1" s="59"/>
+      <c r="RW1" s="59"/>
+      <c r="RX1" s="59"/>
+      <c r="RY1" s="59"/>
+      <c r="RZ1" s="59"/>
+      <c r="SA1" s="59"/>
+      <c r="SB1" s="59"/>
+      <c r="SC1" s="59"/>
+      <c r="SD1" s="59"/>
+      <c r="SE1" s="59"/>
+      <c r="SF1" s="59"/>
+      <c r="SG1" s="59"/>
+      <c r="SH1" s="59"/>
+      <c r="SI1" s="59"/>
+      <c r="SJ1" s="59"/>
+      <c r="SK1" s="59"/>
+      <c r="SL1" s="59"/>
+      <c r="SM1" s="59"/>
+      <c r="SN1" s="59"/>
+      <c r="SO1" s="59"/>
+      <c r="SP1" s="59"/>
+      <c r="SQ1" s="59"/>
+      <c r="SR1" s="59"/>
+      <c r="SS1" s="59"/>
+      <c r="ST1" s="59"/>
+      <c r="SU1" s="59"/>
+      <c r="SV1" s="59"/>
+      <c r="SW1" s="59"/>
+      <c r="SX1" s="59"/>
+      <c r="SY1" s="59"/>
+      <c r="SZ1" s="59"/>
+      <c r="TA1" s="59"/>
+      <c r="TB1" s="59"/>
+      <c r="TC1" s="59"/>
+      <c r="TD1" s="59"/>
+      <c r="TE1" s="59"/>
+      <c r="TF1" s="59"/>
+      <c r="TG1" s="59"/>
+      <c r="TH1" s="59"/>
+      <c r="TI1" s="59"/>
+      <c r="TJ1" s="59"/>
+      <c r="TK1" s="59"/>
+      <c r="TL1" s="59"/>
+      <c r="TM1" s="59"/>
+      <c r="TN1" s="59"/>
+      <c r="TO1" s="59"/>
+      <c r="TP1" s="59"/>
+      <c r="TQ1" s="59"/>
+      <c r="TR1" s="59"/>
+      <c r="TS1" s="59"/>
+      <c r="TT1" s="59"/>
+      <c r="TU1" s="59"/>
+      <c r="TV1" s="59"/>
+      <c r="TW1" s="59"/>
+      <c r="TX1" s="59"/>
+      <c r="TY1" s="59"/>
+      <c r="TZ1" s="59"/>
+      <c r="UA1" s="59"/>
+      <c r="UB1" s="59"/>
+      <c r="UC1" s="59"/>
+      <c r="UD1" s="59"/>
+      <c r="UE1" s="59"/>
+      <c r="UF1" s="59"/>
+      <c r="UG1" s="59"/>
+      <c r="UH1" s="59"/>
+      <c r="UI1" s="59"/>
+      <c r="UJ1" s="59"/>
+      <c r="UK1" s="59"/>
+      <c r="UL1" s="59"/>
+      <c r="UM1" s="59"/>
+      <c r="UN1" s="59"/>
+      <c r="UO1" s="59"/>
+      <c r="UP1" s="59"/>
+      <c r="UQ1" s="59"/>
+      <c r="UR1" s="59"/>
+      <c r="US1" s="59"/>
+      <c r="UT1" s="59"/>
+      <c r="UU1" s="59"/>
+      <c r="UV1" s="59"/>
+      <c r="UW1" s="59"/>
+      <c r="UX1" s="59"/>
+      <c r="UY1" s="59"/>
+      <c r="UZ1" s="59"/>
+      <c r="VA1" s="59"/>
+      <c r="VB1" s="59"/>
+      <c r="VC1" s="59"/>
+      <c r="VD1" s="59"/>
+      <c r="VE1" s="59"/>
+      <c r="VF1" s="59"/>
+      <c r="VG1" s="59"/>
+      <c r="VH1" s="59"/>
+      <c r="VI1" s="59"/>
+      <c r="VJ1" s="59"/>
+      <c r="VK1" s="59"/>
+      <c r="VL1" s="59"/>
+      <c r="VM1" s="59"/>
+      <c r="VN1" s="59"/>
+      <c r="VO1" s="59"/>
+      <c r="VP1" s="59"/>
+      <c r="VQ1" s="59"/>
+      <c r="VR1" s="59"/>
+      <c r="VS1" s="59"/>
+      <c r="VT1" s="59"/>
+      <c r="VU1" s="59"/>
+      <c r="VV1" s="59"/>
+      <c r="VW1" s="59"/>
+      <c r="VX1" s="59"/>
+      <c r="VY1" s="59"/>
+      <c r="VZ1" s="59"/>
+      <c r="WA1" s="59"/>
+      <c r="WB1" s="59"/>
+      <c r="WC1" s="59"/>
+      <c r="WD1" s="59"/>
+      <c r="WE1" s="59"/>
+      <c r="WF1" s="59"/>
+      <c r="WG1" s="59"/>
+      <c r="WH1" s="59"/>
+      <c r="WI1" s="59"/>
+      <c r="WJ1" s="59"/>
+      <c r="WK1" s="59"/>
+      <c r="WL1" s="59"/>
+      <c r="WM1" s="59"/>
+      <c r="WN1" s="59"/>
+      <c r="WO1" s="59"/>
+      <c r="WP1" s="59"/>
+      <c r="WQ1" s="59"/>
+      <c r="WR1" s="59"/>
+      <c r="WS1" s="59"/>
+      <c r="WT1" s="59"/>
+      <c r="WU1" s="59"/>
+      <c r="WV1" s="59"/>
+      <c r="WW1" s="59"/>
+      <c r="WX1" s="59"/>
+      <c r="WY1" s="59"/>
+      <c r="WZ1" s="59"/>
+      <c r="XA1" s="59"/>
+      <c r="XB1" s="59"/>
+      <c r="XC1" s="59"/>
+      <c r="XD1" s="59"/>
+      <c r="XE1" s="59"/>
+      <c r="XF1" s="59"/>
+      <c r="XG1" s="59"/>
+      <c r="XH1" s="59"/>
+      <c r="XI1" s="59"/>
+      <c r="XJ1" s="59"/>
+      <c r="XK1" s="59"/>
+      <c r="XL1" s="59"/>
+      <c r="XM1" s="59"/>
+      <c r="XN1" s="59"/>
+      <c r="XO1" s="59"/>
+      <c r="XP1" s="59"/>
+      <c r="XQ1" s="59"/>
+      <c r="XR1" s="59"/>
+      <c r="XS1" s="59"/>
+      <c r="XT1" s="59"/>
+      <c r="XU1" s="59"/>
+      <c r="XV1" s="59"/>
+      <c r="XW1" s="59"/>
+      <c r="XX1" s="59"/>
+      <c r="XY1" s="59"/>
+      <c r="XZ1" s="59"/>
+      <c r="YA1" s="59"/>
+      <c r="YB1" s="59"/>
+      <c r="YC1" s="59"/>
+      <c r="YD1" s="59"/>
+      <c r="YE1" s="59"/>
+      <c r="YF1" s="59"/>
+      <c r="YG1" s="59"/>
+      <c r="YH1" s="59"/>
+      <c r="YI1" s="59"/>
+      <c r="YJ1" s="59"/>
+      <c r="YK1" s="59"/>
+      <c r="YL1" s="59"/>
+      <c r="YM1" s="59"/>
+      <c r="YN1" s="59"/>
+      <c r="YO1" s="59"/>
+      <c r="YP1" s="59"/>
+      <c r="YQ1" s="59"/>
+      <c r="YR1" s="59"/>
+      <c r="YS1" s="59"/>
+      <c r="YT1" s="59"/>
+      <c r="YU1" s="59"/>
+      <c r="YV1" s="59"/>
+      <c r="YW1" s="59"/>
+      <c r="YX1" s="59"/>
+      <c r="YY1" s="59"/>
+      <c r="YZ1" s="59"/>
+      <c r="ZA1" s="59"/>
+      <c r="ZB1" s="59"/>
+      <c r="ZC1" s="59"/>
+      <c r="ZD1" s="59"/>
+      <c r="ZE1" s="59"/>
+      <c r="ZF1" s="59"/>
+      <c r="ZG1" s="59"/>
+      <c r="ZH1" s="59"/>
+      <c r="ZI1" s="59"/>
+      <c r="ZJ1" s="59"/>
+      <c r="ZK1" s="59"/>
+      <c r="ZL1" s="59"/>
+      <c r="ZM1" s="59"/>
+      <c r="ZN1" s="59"/>
+      <c r="ZO1" s="59"/>
+      <c r="ZP1" s="59"/>
+      <c r="ZQ1" s="59"/>
+      <c r="ZR1" s="59"/>
+      <c r="ZS1" s="59"/>
+      <c r="ZT1" s="59"/>
+      <c r="ZU1" s="59"/>
+      <c r="ZV1" s="59"/>
+      <c r="ZW1" s="59"/>
+      <c r="ZX1" s="59"/>
+      <c r="ZY1" s="59"/>
+      <c r="ZZ1" s="59"/>
+      <c r="AAA1" s="59"/>
+      <c r="AAB1" s="59"/>
+      <c r="AAC1" s="59"/>
+      <c r="AAD1" s="59"/>
+      <c r="AAE1" s="59"/>
+      <c r="AAF1" s="59"/>
+      <c r="AAG1" s="59"/>
+      <c r="AAH1" s="59"/>
+      <c r="AAI1" s="59"/>
+      <c r="AAJ1" s="59"/>
+      <c r="AAK1" s="59"/>
+      <c r="AAL1" s="59"/>
+      <c r="AAM1" s="59"/>
+      <c r="AAN1" s="59"/>
+      <c r="AAO1" s="59"/>
+      <c r="AAP1" s="59"/>
+      <c r="AAQ1" s="59"/>
+      <c r="AAR1" s="59"/>
+      <c r="AAS1" s="59"/>
+      <c r="AAT1" s="59"/>
+      <c r="AAU1" s="59"/>
+      <c r="AAV1" s="59"/>
+      <c r="AAW1" s="59"/>
+      <c r="AAX1" s="59"/>
+      <c r="AAY1" s="59"/>
+      <c r="AAZ1" s="59"/>
+      <c r="ABA1" s="59"/>
+      <c r="ABB1" s="59"/>
+      <c r="ABC1" s="59"/>
+      <c r="ABD1" s="59"/>
+      <c r="ABE1" s="59"/>
+      <c r="ABF1" s="59"/>
+      <c r="ABG1" s="59"/>
+      <c r="ABH1" s="59"/>
+      <c r="ABI1" s="59"/>
+      <c r="ABJ1" s="59"/>
+      <c r="ABK1" s="59"/>
+      <c r="ABL1" s="59"/>
+      <c r="ABM1" s="59"/>
+      <c r="ABN1" s="59"/>
+      <c r="ABO1" s="59"/>
+      <c r="ABP1" s="59"/>
+      <c r="ABQ1" s="59"/>
+      <c r="ABR1" s="59"/>
+      <c r="ABS1" s="59"/>
+      <c r="ABT1" s="59"/>
+      <c r="ABU1" s="59"/>
+      <c r="ABV1" s="59"/>
+      <c r="ABW1" s="59"/>
+      <c r="ABX1" s="59"/>
+      <c r="ABY1" s="59"/>
+      <c r="ABZ1" s="59"/>
+      <c r="ACA1" s="59"/>
+      <c r="ACB1" s="59"/>
+      <c r="ACC1" s="59"/>
+      <c r="ACD1" s="59"/>
+      <c r="ACE1" s="59"/>
+      <c r="ACF1" s="59"/>
+      <c r="ACG1" s="59"/>
+      <c r="ACH1" s="59"/>
+      <c r="ACI1" s="59"/>
+      <c r="ACJ1" s="59"/>
+      <c r="ACK1" s="59"/>
+      <c r="ACL1" s="59"/>
+      <c r="ACM1" s="59"/>
+      <c r="ACN1" s="59"/>
+      <c r="ACO1" s="59"/>
+      <c r="ACP1" s="59"/>
+      <c r="ACQ1" s="59"/>
+      <c r="ACR1" s="59"/>
+      <c r="ACS1" s="59"/>
+      <c r="ACT1" s="59"/>
+      <c r="ACU1" s="59"/>
+      <c r="ACV1" s="59"/>
+      <c r="ACW1" s="59"/>
+      <c r="ACX1" s="59"/>
+      <c r="ACY1" s="59"/>
+      <c r="ACZ1" s="59"/>
+      <c r="ADA1" s="59"/>
+      <c r="ADB1" s="59"/>
+      <c r="ADC1" s="59"/>
+      <c r="ADD1" s="59"/>
+      <c r="ADE1" s="59"/>
+      <c r="ADF1" s="59"/>
+      <c r="ADG1" s="59"/>
+      <c r="ADH1" s="59"/>
+      <c r="ADI1" s="59"/>
+      <c r="ADJ1" s="59"/>
+      <c r="ADK1" s="59"/>
+      <c r="ADL1" s="59"/>
+      <c r="ADM1" s="59"/>
+      <c r="ADN1" s="59"/>
+      <c r="ADO1" s="59"/>
+      <c r="ADP1" s="59"/>
+      <c r="ADQ1" s="59"/>
+      <c r="ADR1" s="59"/>
+      <c r="ADS1" s="59"/>
+      <c r="ADT1" s="59"/>
+      <c r="ADU1" s="59"/>
+      <c r="ADV1" s="59"/>
+      <c r="ADW1" s="59"/>
+      <c r="ADX1" s="59"/>
+      <c r="ADY1" s="59"/>
+      <c r="ADZ1" s="59"/>
+      <c r="AEA1" s="59"/>
+      <c r="AEB1" s="59"/>
+      <c r="AEC1" s="59"/>
+      <c r="AED1" s="59"/>
+      <c r="AEE1" s="59"/>
+      <c r="AEF1" s="59"/>
+      <c r="AEG1" s="59"/>
+      <c r="AEH1" s="59"/>
+      <c r="AEI1" s="59"/>
+      <c r="AEJ1" s="59"/>
+      <c r="AEK1" s="59"/>
+      <c r="AEL1" s="59"/>
+      <c r="AEM1" s="59"/>
+      <c r="AEN1" s="59"/>
+      <c r="AEO1" s="59"/>
+      <c r="AEP1" s="59"/>
+      <c r="AEQ1" s="59"/>
+      <c r="AER1" s="59"/>
+      <c r="AES1" s="59"/>
+      <c r="AET1" s="59"/>
+      <c r="AEU1" s="59"/>
+      <c r="AEV1" s="59"/>
+      <c r="AEW1" s="59"/>
+      <c r="AEX1" s="59"/>
+      <c r="AEY1" s="59"/>
+      <c r="AEZ1" s="59"/>
+      <c r="AFA1" s="59"/>
+      <c r="AFB1" s="59"/>
+      <c r="AFC1" s="59"/>
+      <c r="AFD1" s="59"/>
+      <c r="AFE1" s="59"/>
+      <c r="AFF1" s="59"/>
+      <c r="AFG1" s="59"/>
+      <c r="AFH1" s="59"/>
+      <c r="AFI1" s="59"/>
+      <c r="AFJ1" s="59"/>
+      <c r="AFK1" s="59"/>
+      <c r="AFL1" s="59"/>
+      <c r="AFM1" s="59"/>
+      <c r="AFN1" s="59"/>
+      <c r="AFO1" s="59"/>
+      <c r="AFP1" s="59"/>
+      <c r="AFQ1" s="59"/>
+      <c r="AFR1" s="59"/>
+      <c r="AFS1" s="59"/>
+      <c r="AFT1" s="59"/>
+      <c r="AFU1" s="59"/>
+      <c r="AFV1" s="59"/>
+      <c r="AFW1" s="59"/>
+      <c r="AFX1" s="59"/>
+      <c r="AFY1" s="59"/>
+      <c r="AFZ1" s="59"/>
+      <c r="AGA1" s="59"/>
+      <c r="AGB1" s="59"/>
+      <c r="AGC1" s="59"/>
+      <c r="AGD1" s="59"/>
+      <c r="AGE1" s="59"/>
+      <c r="AGF1" s="59"/>
+      <c r="AGG1" s="59"/>
+      <c r="AGH1" s="59"/>
+      <c r="AGI1" s="59"/>
+      <c r="AGJ1" s="59"/>
+      <c r="AGK1" s="59"/>
+      <c r="AGL1" s="59"/>
+      <c r="AGM1" s="59"/>
+      <c r="AGN1" s="59"/>
+      <c r="AGO1" s="59"/>
+      <c r="AGP1" s="59"/>
+      <c r="AGQ1" s="59"/>
+      <c r="AGR1" s="59"/>
+      <c r="AGS1" s="59"/>
+      <c r="AGT1" s="59"/>
+      <c r="AGU1" s="59"/>
+      <c r="AGV1" s="59"/>
+      <c r="AGW1" s="59"/>
+      <c r="AGX1" s="59"/>
+      <c r="AGY1" s="59"/>
+      <c r="AGZ1" s="59"/>
+      <c r="AHA1" s="59"/>
+      <c r="AHB1" s="59"/>
+      <c r="AHC1" s="59"/>
+      <c r="AHD1" s="59"/>
+      <c r="AHE1" s="59"/>
+      <c r="AHF1" s="59"/>
+      <c r="AHG1" s="59"/>
+      <c r="AHH1" s="59"/>
+      <c r="AHI1" s="59"/>
+      <c r="AHJ1" s="59"/>
+      <c r="AHK1" s="59"/>
+      <c r="AHL1" s="59"/>
+      <c r="AHM1" s="59"/>
+      <c r="AHN1" s="59"/>
+      <c r="AHO1" s="59"/>
+      <c r="AHP1" s="59"/>
+      <c r="AHQ1" s="59"/>
+      <c r="AHR1" s="59"/>
+      <c r="AHS1" s="59"/>
+      <c r="AHT1" s="59"/>
+      <c r="AHU1" s="59"/>
+      <c r="AHV1" s="59"/>
+      <c r="AHW1" s="59"/>
+      <c r="AHX1" s="59"/>
+      <c r="AHY1" s="59"/>
+      <c r="AHZ1" s="59"/>
+      <c r="AIA1" s="59"/>
+      <c r="AIB1" s="59"/>
+      <c r="AIC1" s="59"/>
+      <c r="AID1" s="59"/>
+      <c r="AIE1" s="59"/>
+      <c r="AIF1" s="59"/>
+      <c r="AIG1" s="59"/>
+      <c r="AIH1" s="59"/>
+      <c r="AII1" s="59"/>
+      <c r="AIJ1" s="59"/>
+      <c r="AIK1" s="59"/>
+      <c r="AIL1" s="59"/>
+      <c r="AIM1" s="59"/>
+      <c r="AIN1" s="59"/>
+      <c r="AIO1" s="59"/>
+      <c r="AIP1" s="59"/>
+      <c r="AIQ1" s="59"/>
+      <c r="AIR1" s="59"/>
+      <c r="AIS1" s="59"/>
+      <c r="AIT1" s="59"/>
+      <c r="AIU1" s="59"/>
+      <c r="AIV1" s="59"/>
+      <c r="AIW1" s="59"/>
+      <c r="AIX1" s="59"/>
+      <c r="AIY1" s="59"/>
+      <c r="AIZ1" s="59"/>
+      <c r="AJA1" s="59"/>
+      <c r="AJB1" s="59"/>
+      <c r="AJC1" s="59"/>
+      <c r="AJD1" s="59"/>
+      <c r="AJE1" s="59"/>
+      <c r="AJF1" s="59"/>
+      <c r="AJG1" s="59"/>
+      <c r="AJH1" s="59"/>
+      <c r="AJI1" s="59"/>
+      <c r="AJJ1" s="59"/>
+      <c r="AJK1" s="59"/>
+      <c r="AJL1" s="59"/>
+      <c r="AJM1" s="59"/>
+      <c r="AJN1" s="59"/>
+      <c r="AJO1" s="59"/>
+      <c r="AJP1" s="59"/>
+      <c r="AJQ1" s="59"/>
+      <c r="AJR1" s="59"/>
+      <c r="AJS1" s="59"/>
+      <c r="AJT1" s="59"/>
+      <c r="AJU1" s="59"/>
+      <c r="AJV1" s="59"/>
+      <c r="AJW1" s="59"/>
+      <c r="AJX1" s="59"/>
+      <c r="AJY1" s="59"/>
+      <c r="AJZ1" s="59"/>
+      <c r="AKA1" s="59"/>
+      <c r="AKB1" s="59"/>
+      <c r="AKC1" s="59"/>
+      <c r="AKD1" s="59"/>
+      <c r="AKE1" s="59"/>
+      <c r="AKF1" s="59"/>
+      <c r="AKG1" s="59"/>
+      <c r="AKH1" s="59"/>
+      <c r="AKI1" s="59"/>
+      <c r="AKJ1" s="59"/>
+      <c r="AKK1" s="59"/>
+      <c r="AKL1" s="59"/>
+      <c r="AKM1" s="59"/>
+      <c r="AKN1" s="59"/>
+      <c r="AKO1" s="59"/>
+      <c r="AKP1" s="59"/>
+      <c r="AKQ1" s="59"/>
+      <c r="AKR1" s="59"/>
+      <c r="AKS1" s="59"/>
+      <c r="AKT1" s="59"/>
+      <c r="AKU1" s="59"/>
+      <c r="AKV1" s="59"/>
+      <c r="AKW1" s="59"/>
+      <c r="AKX1" s="59"/>
+      <c r="AKY1" s="59"/>
+      <c r="AKZ1" s="59"/>
+      <c r="ALA1" s="59"/>
+      <c r="ALB1" s="59"/>
+      <c r="ALC1" s="59"/>
+      <c r="ALD1" s="59"/>
+      <c r="ALE1" s="59"/>
+      <c r="ALF1" s="59"/>
+      <c r="ALG1" s="59"/>
+      <c r="ALH1" s="59"/>
+      <c r="ALI1" s="59"/>
+      <c r="ALJ1" s="59"/>
+      <c r="ALK1" s="59"/>
+      <c r="ALL1" s="59"/>
+      <c r="ALM1" s="59"/>
+      <c r="ALN1" s="59"/>
+      <c r="ALO1" s="59"/>
+      <c r="ALP1" s="59"/>
+      <c r="ALQ1" s="59"/>
+      <c r="ALR1" s="59"/>
+      <c r="ALS1" s="59"/>
+      <c r="ALT1" s="59"/>
+      <c r="ALU1" s="59"/>
+      <c r="ALV1" s="59"/>
+      <c r="ALW1" s="59"/>
+      <c r="ALX1" s="59"/>
+      <c r="ALY1" s="59"/>
+      <c r="ALZ1" s="59"/>
+      <c r="AMA1" s="59"/>
+      <c r="AMB1" s="59"/>
+      <c r="AMC1" s="59"/>
+      <c r="AMD1" s="59"/>
+      <c r="AME1" s="59"/>
+      <c r="AMF1" s="59"/>
+      <c r="AMG1" s="59"/>
+      <c r="AMH1" s="59"/>
+      <c r="AMI1" s="59"/>
+      <c r="AMJ1" s="59"/>
+    </row>
+    <row r="2" spans="1:1024">
+      <c r="A2" s="50" t="s">
+        <v>378</v>
+      </c>
+      <c r="B2" s="50" t="s">
+        <v>360</v>
+      </c>
+      <c r="C2" s="89" t="s">
+        <v>379</v>
+      </c>
+      <c r="D2" s="50" t="s">
+        <v>380</v>
+      </c>
+      <c r="E2" s="34">
+        <v>1</v>
+      </c>
+      <c r="F2" s="42"/>
+      <c r="H2" s="42"/>
+    </row>
+    <row r="3" spans="1:1024">
+      <c r="A3" s="50" t="s">
+        <v>381</v>
+      </c>
+      <c r="B3" s="50" t="s">
+        <v>363</v>
+      </c>
+      <c r="C3" s="89" t="s">
+        <v>379</v>
+      </c>
+      <c r="D3" s="53" t="s">
+        <v>382</v>
+      </c>
+      <c r="E3" s="34">
+        <v>1</v>
+      </c>
+      <c r="F3" s="42"/>
+      <c r="H3" s="50" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1024">
+      <c r="A4" s="50" t="s">
+        <v>384</v>
+      </c>
+      <c r="B4" s="50" t="s">
+        <v>366</v>
+      </c>
+      <c r="C4" s="89" t="s">
+        <v>379</v>
+      </c>
+      <c r="D4" s="50" t="s">
+        <v>385</v>
+      </c>
+      <c r="E4" s="34">
+        <v>1</v>
+      </c>
+      <c r="F4" s="42"/>
+      <c r="H4" s="50" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1024">
+      <c r="A5" s="50" t="s">
+        <v>387</v>
+      </c>
+      <c r="B5" s="50" t="s">
+        <v>369</v>
+      </c>
+      <c r="C5" s="89" t="s">
+        <v>379</v>
+      </c>
+      <c r="D5" s="50" t="s">
+        <v>380</v>
+      </c>
+      <c r="E5" s="34">
+        <v>1</v>
+      </c>
+      <c r="F5" s="42"/>
+      <c r="H5" s="50" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1024">
+      <c r="A6" s="50" t="s">
         <v>389</v>
       </c>
-      <c r="C1" s="59" t="s">
-        <v>283</v>
-      </c>
-      <c r="D1" s="59" t="s">
-        <v>367</v>
-      </c>
-      <c r="E1" s="59" t="s">
-        <v>347</v>
-      </c>
-      <c r="F1" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" s="60" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" s="59" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" s="61"/>
-      <c r="J1" s="61"/>
-      <c r="K1" s="61"/>
-      <c r="L1" s="61"/>
-      <c r="M1" s="61"/>
-      <c r="N1" s="61"/>
-      <c r="O1" s="61"/>
-      <c r="P1" s="61"/>
-      <c r="Q1" s="61"/>
-      <c r="R1" s="61"/>
-      <c r="S1" s="61"/>
-      <c r="T1" s="61"/>
-      <c r="U1" s="61"/>
-      <c r="V1" s="61"/>
-      <c r="W1" s="61"/>
-      <c r="X1" s="61"/>
-      <c r="Y1" s="61"/>
-      <c r="Z1" s="61"/>
-      <c r="AA1" s="61"/>
-      <c r="AB1" s="61"/>
-      <c r="AC1" s="61"/>
-      <c r="AD1" s="61"/>
-      <c r="AE1" s="61"/>
-      <c r="AF1" s="61"/>
-      <c r="AG1" s="61"/>
-      <c r="AH1" s="61"/>
-      <c r="AI1" s="61"/>
-      <c r="AJ1" s="61"/>
-      <c r="AK1" s="61"/>
-      <c r="AL1" s="61"/>
-      <c r="AM1" s="61"/>
-      <c r="AN1" s="61"/>
-      <c r="AO1" s="61"/>
-      <c r="AP1" s="61"/>
-      <c r="AQ1" s="61"/>
-      <c r="AR1" s="61"/>
-      <c r="AS1" s="61"/>
-      <c r="AT1" s="61"/>
-      <c r="AU1" s="61"/>
-      <c r="AV1" s="61"/>
-      <c r="AW1" s="61"/>
-      <c r="AX1" s="61"/>
-      <c r="AY1" s="61"/>
-      <c r="AZ1" s="61"/>
-      <c r="BA1" s="61"/>
-      <c r="BB1" s="61"/>
-      <c r="BC1" s="61"/>
-      <c r="BD1" s="61"/>
-      <c r="BE1" s="61"/>
-      <c r="BF1" s="61"/>
-      <c r="BG1" s="61"/>
-      <c r="BH1" s="61"/>
-      <c r="BI1" s="61"/>
-      <c r="BJ1" s="61"/>
-      <c r="BK1" s="61"/>
-      <c r="BL1" s="61"/>
-      <c r="BM1" s="61"/>
-      <c r="BN1" s="61"/>
-      <c r="BO1" s="61"/>
-      <c r="BP1" s="61"/>
-      <c r="BQ1" s="61"/>
-      <c r="BR1" s="61"/>
-      <c r="BS1" s="61"/>
-      <c r="BT1" s="61"/>
-      <c r="BU1" s="61"/>
-      <c r="BV1" s="61"/>
-      <c r="BW1" s="61"/>
-      <c r="BX1" s="61"/>
-      <c r="BY1" s="61"/>
-      <c r="BZ1" s="61"/>
-      <c r="CA1" s="61"/>
-      <c r="CB1" s="61"/>
-      <c r="CC1" s="61"/>
-      <c r="CD1" s="61"/>
-      <c r="CE1" s="61"/>
-      <c r="CF1" s="61"/>
-      <c r="CG1" s="61"/>
-      <c r="CH1" s="61"/>
-      <c r="CI1" s="61"/>
-      <c r="CJ1" s="61"/>
-      <c r="CK1" s="61"/>
-      <c r="CL1" s="61"/>
-      <c r="CM1" s="61"/>
-      <c r="CN1" s="61"/>
-      <c r="CO1" s="61"/>
-      <c r="CP1" s="61"/>
-      <c r="CQ1" s="61"/>
-      <c r="CR1" s="61"/>
-      <c r="CS1" s="61"/>
-      <c r="CT1" s="61"/>
-      <c r="CU1" s="61"/>
-      <c r="CV1" s="61"/>
-      <c r="CW1" s="61"/>
-      <c r="CX1" s="61"/>
-      <c r="CY1" s="61"/>
-      <c r="CZ1" s="61"/>
-      <c r="DA1" s="61"/>
-      <c r="DB1" s="61"/>
-      <c r="DC1" s="61"/>
-      <c r="DD1" s="61"/>
-      <c r="DE1" s="61"/>
-      <c r="DF1" s="61"/>
-      <c r="DG1" s="61"/>
-      <c r="DH1" s="61"/>
-      <c r="DI1" s="61"/>
-      <c r="DJ1" s="61"/>
-      <c r="DK1" s="61"/>
-      <c r="DL1" s="61"/>
-      <c r="DM1" s="61"/>
-      <c r="DN1" s="61"/>
-      <c r="DO1" s="61"/>
-      <c r="DP1" s="61"/>
-      <c r="DQ1" s="61"/>
-      <c r="DR1" s="61"/>
-      <c r="DS1" s="61"/>
-      <c r="DT1" s="61"/>
-      <c r="DU1" s="61"/>
-      <c r="DV1" s="61"/>
-      <c r="DW1" s="61"/>
-      <c r="DX1" s="61"/>
-      <c r="DY1" s="61"/>
-      <c r="DZ1" s="61"/>
-      <c r="EA1" s="61"/>
-      <c r="EB1" s="61"/>
-      <c r="EC1" s="61"/>
-      <c r="ED1" s="61"/>
-      <c r="EE1" s="61"/>
-      <c r="EF1" s="61"/>
-      <c r="EG1" s="61"/>
-      <c r="EH1" s="61"/>
-      <c r="EI1" s="61"/>
-      <c r="EJ1" s="61"/>
-      <c r="EK1" s="61"/>
-      <c r="EL1" s="61"/>
-      <c r="EM1" s="61"/>
-      <c r="EN1" s="61"/>
-      <c r="EO1" s="61"/>
-      <c r="EP1" s="61"/>
-      <c r="EQ1" s="61"/>
-      <c r="ER1" s="61"/>
-      <c r="ES1" s="61"/>
-      <c r="ET1" s="61"/>
-      <c r="EU1" s="61"/>
-      <c r="EV1" s="61"/>
-      <c r="EW1" s="61"/>
-      <c r="EX1" s="61"/>
-      <c r="EY1" s="61"/>
-      <c r="EZ1" s="61"/>
-      <c r="FA1" s="61"/>
-      <c r="FB1" s="61"/>
-      <c r="FC1" s="61"/>
-      <c r="FD1" s="61"/>
-      <c r="FE1" s="61"/>
-      <c r="FF1" s="61"/>
-      <c r="FG1" s="61"/>
-      <c r="FH1" s="61"/>
-      <c r="FI1" s="61"/>
-      <c r="FJ1" s="61"/>
-      <c r="FK1" s="61"/>
-      <c r="FL1" s="61"/>
-      <c r="FM1" s="61"/>
-      <c r="FN1" s="61"/>
-      <c r="FO1" s="61"/>
-      <c r="FP1" s="61"/>
-      <c r="FQ1" s="61"/>
-      <c r="FR1" s="61"/>
-      <c r="FS1" s="61"/>
-      <c r="FT1" s="61"/>
-      <c r="FU1" s="61"/>
-      <c r="FV1" s="61"/>
-      <c r="FW1" s="61"/>
-      <c r="FX1" s="61"/>
-      <c r="FY1" s="61"/>
-      <c r="FZ1" s="61"/>
-      <c r="GA1" s="61"/>
-      <c r="GB1" s="61"/>
-      <c r="GC1" s="61"/>
-      <c r="GD1" s="61"/>
-      <c r="GE1" s="61"/>
-      <c r="GF1" s="61"/>
-      <c r="GG1" s="61"/>
-      <c r="GH1" s="61"/>
-      <c r="GI1" s="61"/>
-      <c r="GJ1" s="61"/>
-      <c r="GK1" s="61"/>
-      <c r="GL1" s="61"/>
-      <c r="GM1" s="61"/>
-      <c r="GN1" s="61"/>
-      <c r="GO1" s="61"/>
-      <c r="GP1" s="61"/>
-      <c r="GQ1" s="61"/>
-      <c r="GR1" s="61"/>
-      <c r="GS1" s="61"/>
-      <c r="GT1" s="61"/>
-      <c r="GU1" s="61"/>
-      <c r="GV1" s="61"/>
-      <c r="GW1" s="61"/>
-      <c r="GX1" s="61"/>
-      <c r="GY1" s="61"/>
-      <c r="GZ1" s="61"/>
-      <c r="HA1" s="61"/>
-      <c r="HB1" s="61"/>
-      <c r="HC1" s="61"/>
-      <c r="HD1" s="61"/>
-      <c r="HE1" s="61"/>
-      <c r="HF1" s="61"/>
-      <c r="HG1" s="61"/>
-      <c r="HH1" s="61"/>
-      <c r="HI1" s="61"/>
-      <c r="HJ1" s="61"/>
-      <c r="HK1" s="61"/>
-      <c r="HL1" s="61"/>
-      <c r="HM1" s="61"/>
-      <c r="HN1" s="61"/>
-      <c r="HO1" s="61"/>
-      <c r="HP1" s="61"/>
-      <c r="HQ1" s="61"/>
-      <c r="HR1" s="61"/>
-      <c r="HS1" s="61"/>
-      <c r="HT1" s="61"/>
-      <c r="HU1" s="61"/>
-      <c r="HV1" s="61"/>
-      <c r="HW1" s="61"/>
-      <c r="HX1" s="61"/>
-      <c r="HY1" s="61"/>
-      <c r="HZ1" s="61"/>
-      <c r="IA1" s="61"/>
-      <c r="IB1" s="61"/>
-      <c r="IC1" s="61"/>
-      <c r="ID1" s="61"/>
-      <c r="IE1" s="61"/>
-      <c r="IF1" s="61"/>
-      <c r="IG1" s="61"/>
-      <c r="IH1" s="61"/>
-      <c r="II1" s="61"/>
-      <c r="IJ1" s="61"/>
-      <c r="IK1" s="61"/>
-      <c r="IL1" s="61"/>
-      <c r="IM1" s="61"/>
-      <c r="IN1" s="61"/>
-      <c r="IO1" s="61"/>
-      <c r="IP1" s="61"/>
-      <c r="IQ1" s="61"/>
-      <c r="IR1" s="61"/>
-      <c r="IS1" s="61"/>
-      <c r="IT1" s="61"/>
-      <c r="IU1" s="61"/>
-      <c r="IV1" s="61"/>
-      <c r="IW1" s="61"/>
-      <c r="IX1" s="61"/>
-      <c r="IY1" s="61"/>
-      <c r="IZ1" s="61"/>
-      <c r="JA1" s="61"/>
-      <c r="JB1" s="61"/>
-      <c r="JC1" s="61"/>
-      <c r="JD1" s="61"/>
-      <c r="JE1" s="61"/>
-      <c r="JF1" s="61"/>
-      <c r="JG1" s="61"/>
-      <c r="JH1" s="61"/>
-      <c r="JI1" s="61"/>
-      <c r="JJ1" s="61"/>
-      <c r="JK1" s="61"/>
-      <c r="JL1" s="61"/>
-      <c r="JM1" s="61"/>
-      <c r="JN1" s="61"/>
-      <c r="JO1" s="61"/>
-      <c r="JP1" s="61"/>
-      <c r="JQ1" s="61"/>
-      <c r="JR1" s="61"/>
-      <c r="JS1" s="61"/>
-      <c r="JT1" s="61"/>
-      <c r="JU1" s="61"/>
-      <c r="JV1" s="61"/>
-      <c r="JW1" s="61"/>
-      <c r="JX1" s="61"/>
-      <c r="JY1" s="61"/>
-      <c r="JZ1" s="61"/>
-      <c r="KA1" s="61"/>
-      <c r="KB1" s="61"/>
-      <c r="KC1" s="61"/>
-      <c r="KD1" s="61"/>
-      <c r="KE1" s="61"/>
-      <c r="KF1" s="61"/>
-      <c r="KG1" s="61"/>
-      <c r="KH1" s="61"/>
-      <c r="KI1" s="61"/>
-      <c r="KJ1" s="61"/>
-      <c r="KK1" s="61"/>
-      <c r="KL1" s="61"/>
-      <c r="KM1" s="61"/>
-      <c r="KN1" s="61"/>
-      <c r="KO1" s="61"/>
-      <c r="KP1" s="61"/>
-      <c r="KQ1" s="61"/>
-      <c r="KR1" s="61"/>
-      <c r="KS1" s="61"/>
-      <c r="KT1" s="61"/>
-      <c r="KU1" s="61"/>
-      <c r="KV1" s="61"/>
-      <c r="KW1" s="61"/>
-      <c r="KX1" s="61"/>
-      <c r="KY1" s="61"/>
-      <c r="KZ1" s="61"/>
-      <c r="LA1" s="61"/>
-      <c r="LB1" s="61"/>
-      <c r="LC1" s="61"/>
-      <c r="LD1" s="61"/>
-      <c r="LE1" s="61"/>
-      <c r="LF1" s="61"/>
-      <c r="LG1" s="61"/>
-      <c r="LH1" s="61"/>
-      <c r="LI1" s="61"/>
-      <c r="LJ1" s="61"/>
-      <c r="LK1" s="61"/>
-      <c r="LL1" s="61"/>
-      <c r="LM1" s="61"/>
-      <c r="LN1" s="61"/>
-      <c r="LO1" s="61"/>
-      <c r="LP1" s="61"/>
-      <c r="LQ1" s="61"/>
-      <c r="LR1" s="61"/>
-      <c r="LS1" s="61"/>
-      <c r="LT1" s="61"/>
-      <c r="LU1" s="61"/>
-      <c r="LV1" s="61"/>
-      <c r="LW1" s="61"/>
-      <c r="LX1" s="61"/>
-      <c r="LY1" s="61"/>
-      <c r="LZ1" s="61"/>
-      <c r="MA1" s="61"/>
-      <c r="MB1" s="61"/>
-      <c r="MC1" s="61"/>
-      <c r="MD1" s="61"/>
-      <c r="ME1" s="61"/>
-      <c r="MF1" s="61"/>
-      <c r="MG1" s="61"/>
-      <c r="MH1" s="61"/>
-      <c r="MI1" s="61"/>
-      <c r="MJ1" s="61"/>
-      <c r="MK1" s="61"/>
-      <c r="ML1" s="61"/>
-      <c r="MM1" s="61"/>
-      <c r="MN1" s="61"/>
-      <c r="MO1" s="61"/>
-      <c r="MP1" s="61"/>
-      <c r="MQ1" s="61"/>
-      <c r="MR1" s="61"/>
-      <c r="MS1" s="61"/>
-      <c r="MT1" s="61"/>
-      <c r="MU1" s="61"/>
-      <c r="MV1" s="61"/>
-      <c r="MW1" s="61"/>
-      <c r="MX1" s="61"/>
-      <c r="MY1" s="61"/>
-      <c r="MZ1" s="61"/>
-      <c r="NA1" s="61"/>
-      <c r="NB1" s="61"/>
-      <c r="NC1" s="61"/>
-      <c r="ND1" s="61"/>
-      <c r="NE1" s="61"/>
-      <c r="NF1" s="61"/>
-      <c r="NG1" s="61"/>
-      <c r="NH1" s="61"/>
-      <c r="NI1" s="61"/>
-      <c r="NJ1" s="61"/>
-      <c r="NK1" s="61"/>
-      <c r="NL1" s="61"/>
-      <c r="NM1" s="61"/>
-      <c r="NN1" s="61"/>
-      <c r="NO1" s="61"/>
-      <c r="NP1" s="61"/>
-      <c r="NQ1" s="61"/>
-      <c r="NR1" s="61"/>
-      <c r="NS1" s="61"/>
-      <c r="NT1" s="61"/>
-      <c r="NU1" s="61"/>
-      <c r="NV1" s="61"/>
-      <c r="NW1" s="61"/>
-      <c r="NX1" s="61"/>
-      <c r="NY1" s="61"/>
-      <c r="NZ1" s="61"/>
-      <c r="OA1" s="61"/>
-      <c r="OB1" s="61"/>
-      <c r="OC1" s="61"/>
-      <c r="OD1" s="61"/>
-      <c r="OE1" s="61"/>
-      <c r="OF1" s="61"/>
-      <c r="OG1" s="61"/>
-      <c r="OH1" s="61"/>
-      <c r="OI1" s="61"/>
-      <c r="OJ1" s="61"/>
-      <c r="OK1" s="61"/>
-      <c r="OL1" s="61"/>
-      <c r="OM1" s="61"/>
-      <c r="ON1" s="61"/>
-      <c r="OO1" s="61"/>
-      <c r="OP1" s="61"/>
-      <c r="OQ1" s="61"/>
-      <c r="OR1" s="61"/>
-      <c r="OS1" s="61"/>
-      <c r="OT1" s="61"/>
-      <c r="OU1" s="61"/>
-      <c r="OV1" s="61"/>
-      <c r="OW1" s="61"/>
-      <c r="OX1" s="61"/>
-      <c r="OY1" s="61"/>
-      <c r="OZ1" s="61"/>
-      <c r="PA1" s="61"/>
-      <c r="PB1" s="61"/>
-      <c r="PC1" s="61"/>
-      <c r="PD1" s="61"/>
-      <c r="PE1" s="61"/>
-      <c r="PF1" s="61"/>
-      <c r="PG1" s="61"/>
-      <c r="PH1" s="61"/>
-      <c r="PI1" s="61"/>
-      <c r="PJ1" s="61"/>
-      <c r="PK1" s="61"/>
-      <c r="PL1" s="61"/>
-      <c r="PM1" s="61"/>
-      <c r="PN1" s="61"/>
-      <c r="PO1" s="61"/>
-      <c r="PP1" s="61"/>
-      <c r="PQ1" s="61"/>
-      <c r="PR1" s="61"/>
-      <c r="PS1" s="61"/>
-      <c r="PT1" s="61"/>
-      <c r="PU1" s="61"/>
-      <c r="PV1" s="61"/>
-      <c r="PW1" s="61"/>
-      <c r="PX1" s="61"/>
-      <c r="PY1" s="61"/>
-      <c r="PZ1" s="61"/>
-      <c r="QA1" s="61"/>
-      <c r="QB1" s="61"/>
-      <c r="QC1" s="61"/>
-      <c r="QD1" s="61"/>
-      <c r="QE1" s="61"/>
-      <c r="QF1" s="61"/>
-      <c r="QG1" s="61"/>
-      <c r="QH1" s="61"/>
-      <c r="QI1" s="61"/>
-      <c r="QJ1" s="61"/>
-      <c r="QK1" s="61"/>
-      <c r="QL1" s="61"/>
-      <c r="QM1" s="61"/>
-      <c r="QN1" s="61"/>
-      <c r="QO1" s="61"/>
-      <c r="QP1" s="61"/>
-      <c r="QQ1" s="61"/>
-      <c r="QR1" s="61"/>
-      <c r="QS1" s="61"/>
-      <c r="QT1" s="61"/>
-      <c r="QU1" s="61"/>
-      <c r="QV1" s="61"/>
-      <c r="QW1" s="61"/>
-      <c r="QX1" s="61"/>
-      <c r="QY1" s="61"/>
-      <c r="QZ1" s="61"/>
-      <c r="RA1" s="61"/>
-      <c r="RB1" s="61"/>
-      <c r="RC1" s="61"/>
-      <c r="RD1" s="61"/>
-      <c r="RE1" s="61"/>
-      <c r="RF1" s="61"/>
-      <c r="RG1" s="61"/>
-      <c r="RH1" s="61"/>
-      <c r="RI1" s="61"/>
-      <c r="RJ1" s="61"/>
-      <c r="RK1" s="61"/>
-      <c r="RL1" s="61"/>
-      <c r="RM1" s="61"/>
-      <c r="RN1" s="61"/>
-      <c r="RO1" s="61"/>
-      <c r="RP1" s="61"/>
-      <c r="RQ1" s="61"/>
-      <c r="RR1" s="61"/>
-      <c r="RS1" s="61"/>
-      <c r="RT1" s="61"/>
-      <c r="RU1" s="61"/>
-      <c r="RV1" s="61"/>
-      <c r="RW1" s="61"/>
-      <c r="RX1" s="61"/>
-      <c r="RY1" s="61"/>
-      <c r="RZ1" s="61"/>
-      <c r="SA1" s="61"/>
-      <c r="SB1" s="61"/>
-      <c r="SC1" s="61"/>
-      <c r="SD1" s="61"/>
-      <c r="SE1" s="61"/>
-      <c r="SF1" s="61"/>
-      <c r="SG1" s="61"/>
-      <c r="SH1" s="61"/>
-      <c r="SI1" s="61"/>
-      <c r="SJ1" s="61"/>
-      <c r="SK1" s="61"/>
-      <c r="SL1" s="61"/>
-      <c r="SM1" s="61"/>
-      <c r="SN1" s="61"/>
-      <c r="SO1" s="61"/>
-      <c r="SP1" s="61"/>
-      <c r="SQ1" s="61"/>
-      <c r="SR1" s="61"/>
-      <c r="SS1" s="61"/>
-      <c r="ST1" s="61"/>
-      <c r="SU1" s="61"/>
-      <c r="SV1" s="61"/>
-      <c r="SW1" s="61"/>
-      <c r="SX1" s="61"/>
-      <c r="SY1" s="61"/>
-      <c r="SZ1" s="61"/>
-      <c r="TA1" s="61"/>
-      <c r="TB1" s="61"/>
-      <c r="TC1" s="61"/>
-      <c r="TD1" s="61"/>
-      <c r="TE1" s="61"/>
-      <c r="TF1" s="61"/>
-      <c r="TG1" s="61"/>
-      <c r="TH1" s="61"/>
-      <c r="TI1" s="61"/>
-      <c r="TJ1" s="61"/>
-      <c r="TK1" s="61"/>
-      <c r="TL1" s="61"/>
-      <c r="TM1" s="61"/>
-      <c r="TN1" s="61"/>
-      <c r="TO1" s="61"/>
-      <c r="TP1" s="61"/>
-      <c r="TQ1" s="61"/>
-      <c r="TR1" s="61"/>
-      <c r="TS1" s="61"/>
-      <c r="TT1" s="61"/>
-      <c r="TU1" s="61"/>
-      <c r="TV1" s="61"/>
-      <c r="TW1" s="61"/>
-      <c r="TX1" s="61"/>
-      <c r="TY1" s="61"/>
-      <c r="TZ1" s="61"/>
-      <c r="UA1" s="61"/>
-      <c r="UB1" s="61"/>
-      <c r="UC1" s="61"/>
-      <c r="UD1" s="61"/>
-      <c r="UE1" s="61"/>
-      <c r="UF1" s="61"/>
-      <c r="UG1" s="61"/>
-      <c r="UH1" s="61"/>
-      <c r="UI1" s="61"/>
-      <c r="UJ1" s="61"/>
-      <c r="UK1" s="61"/>
-      <c r="UL1" s="61"/>
-      <c r="UM1" s="61"/>
-      <c r="UN1" s="61"/>
-      <c r="UO1" s="61"/>
-      <c r="UP1" s="61"/>
-      <c r="UQ1" s="61"/>
-      <c r="UR1" s="61"/>
-      <c r="US1" s="61"/>
-      <c r="UT1" s="61"/>
-      <c r="UU1" s="61"/>
-      <c r="UV1" s="61"/>
-      <c r="UW1" s="61"/>
-      <c r="UX1" s="61"/>
-      <c r="UY1" s="61"/>
-      <c r="UZ1" s="61"/>
-      <c r="VA1" s="61"/>
-      <c r="VB1" s="61"/>
-      <c r="VC1" s="61"/>
-      <c r="VD1" s="61"/>
-      <c r="VE1" s="61"/>
-      <c r="VF1" s="61"/>
-      <c r="VG1" s="61"/>
-      <c r="VH1" s="61"/>
-      <c r="VI1" s="61"/>
-      <c r="VJ1" s="61"/>
-      <c r="VK1" s="61"/>
-      <c r="VL1" s="61"/>
-      <c r="VM1" s="61"/>
-      <c r="VN1" s="61"/>
-      <c r="VO1" s="61"/>
-      <c r="VP1" s="61"/>
-      <c r="VQ1" s="61"/>
-      <c r="VR1" s="61"/>
-      <c r="VS1" s="61"/>
-      <c r="VT1" s="61"/>
-      <c r="VU1" s="61"/>
-      <c r="VV1" s="61"/>
-      <c r="VW1" s="61"/>
-      <c r="VX1" s="61"/>
-      <c r="VY1" s="61"/>
-      <c r="VZ1" s="61"/>
-      <c r="WA1" s="61"/>
-      <c r="WB1" s="61"/>
-      <c r="WC1" s="61"/>
-      <c r="WD1" s="61"/>
-      <c r="WE1" s="61"/>
-      <c r="WF1" s="61"/>
-      <c r="WG1" s="61"/>
-      <c r="WH1" s="61"/>
-      <c r="WI1" s="61"/>
-      <c r="WJ1" s="61"/>
-      <c r="WK1" s="61"/>
-      <c r="WL1" s="61"/>
-      <c r="WM1" s="61"/>
-      <c r="WN1" s="61"/>
-      <c r="WO1" s="61"/>
-      <c r="WP1" s="61"/>
-      <c r="WQ1" s="61"/>
-      <c r="WR1" s="61"/>
-      <c r="WS1" s="61"/>
-      <c r="WT1" s="61"/>
-      <c r="WU1" s="61"/>
-      <c r="WV1" s="61"/>
-      <c r="WW1" s="61"/>
-      <c r="WX1" s="61"/>
-      <c r="WY1" s="61"/>
-      <c r="WZ1" s="61"/>
-      <c r="XA1" s="61"/>
-      <c r="XB1" s="61"/>
-      <c r="XC1" s="61"/>
-      <c r="XD1" s="61"/>
-      <c r="XE1" s="61"/>
-      <c r="XF1" s="61"/>
-      <c r="XG1" s="61"/>
-      <c r="XH1" s="61"/>
-      <c r="XI1" s="61"/>
-      <c r="XJ1" s="61"/>
-      <c r="XK1" s="61"/>
-      <c r="XL1" s="61"/>
-      <c r="XM1" s="61"/>
-      <c r="XN1" s="61"/>
-      <c r="XO1" s="61"/>
-      <c r="XP1" s="61"/>
-      <c r="XQ1" s="61"/>
-      <c r="XR1" s="61"/>
-      <c r="XS1" s="61"/>
-      <c r="XT1" s="61"/>
-      <c r="XU1" s="61"/>
-      <c r="XV1" s="61"/>
-      <c r="XW1" s="61"/>
-      <c r="XX1" s="61"/>
-      <c r="XY1" s="61"/>
-      <c r="XZ1" s="61"/>
-      <c r="YA1" s="61"/>
-      <c r="YB1" s="61"/>
-      <c r="YC1" s="61"/>
-      <c r="YD1" s="61"/>
-      <c r="YE1" s="61"/>
-      <c r="YF1" s="61"/>
-      <c r="YG1" s="61"/>
-      <c r="YH1" s="61"/>
-      <c r="YI1" s="61"/>
-      <c r="YJ1" s="61"/>
-      <c r="YK1" s="61"/>
-      <c r="YL1" s="61"/>
-      <c r="YM1" s="61"/>
-      <c r="YN1" s="61"/>
-      <c r="YO1" s="61"/>
-      <c r="YP1" s="61"/>
-      <c r="YQ1" s="61"/>
-      <c r="YR1" s="61"/>
-      <c r="YS1" s="61"/>
-      <c r="YT1" s="61"/>
-      <c r="YU1" s="61"/>
-      <c r="YV1" s="61"/>
-      <c r="YW1" s="61"/>
-      <c r="YX1" s="61"/>
-      <c r="YY1" s="61"/>
-      <c r="YZ1" s="61"/>
-      <c r="ZA1" s="61"/>
-      <c r="ZB1" s="61"/>
-      <c r="ZC1" s="61"/>
-      <c r="ZD1" s="61"/>
-      <c r="ZE1" s="61"/>
-      <c r="ZF1" s="61"/>
-      <c r="ZG1" s="61"/>
-      <c r="ZH1" s="61"/>
-      <c r="ZI1" s="61"/>
-      <c r="ZJ1" s="61"/>
-      <c r="ZK1" s="61"/>
-      <c r="ZL1" s="61"/>
-      <c r="ZM1" s="61"/>
-      <c r="ZN1" s="61"/>
-      <c r="ZO1" s="61"/>
-      <c r="ZP1" s="61"/>
-      <c r="ZQ1" s="61"/>
-      <c r="ZR1" s="61"/>
-      <c r="ZS1" s="61"/>
-      <c r="ZT1" s="61"/>
-      <c r="ZU1" s="61"/>
-      <c r="ZV1" s="61"/>
-      <c r="ZW1" s="61"/>
-      <c r="ZX1" s="61"/>
-      <c r="ZY1" s="61"/>
-      <c r="ZZ1" s="61"/>
-      <c r="AAA1" s="61"/>
-      <c r="AAB1" s="61"/>
-      <c r="AAC1" s="61"/>
-      <c r="AAD1" s="61"/>
-      <c r="AAE1" s="61"/>
-      <c r="AAF1" s="61"/>
-      <c r="AAG1" s="61"/>
-      <c r="AAH1" s="61"/>
-      <c r="AAI1" s="61"/>
-      <c r="AAJ1" s="61"/>
-      <c r="AAK1" s="61"/>
-      <c r="AAL1" s="61"/>
-      <c r="AAM1" s="61"/>
-      <c r="AAN1" s="61"/>
-      <c r="AAO1" s="61"/>
-      <c r="AAP1" s="61"/>
-      <c r="AAQ1" s="61"/>
-      <c r="AAR1" s="61"/>
-      <c r="AAS1" s="61"/>
-      <c r="AAT1" s="61"/>
-      <c r="AAU1" s="61"/>
-      <c r="AAV1" s="61"/>
-      <c r="AAW1" s="61"/>
-      <c r="AAX1" s="61"/>
-      <c r="AAY1" s="61"/>
-      <c r="AAZ1" s="61"/>
-      <c r="ABA1" s="61"/>
-      <c r="ABB1" s="61"/>
-      <c r="ABC1" s="61"/>
-      <c r="ABD1" s="61"/>
-      <c r="ABE1" s="61"/>
-      <c r="ABF1" s="61"/>
-      <c r="ABG1" s="61"/>
-      <c r="ABH1" s="61"/>
-      <c r="ABI1" s="61"/>
-      <c r="ABJ1" s="61"/>
-      <c r="ABK1" s="61"/>
-      <c r="ABL1" s="61"/>
-      <c r="ABM1" s="61"/>
-      <c r="ABN1" s="61"/>
-      <c r="ABO1" s="61"/>
-      <c r="ABP1" s="61"/>
-      <c r="ABQ1" s="61"/>
-      <c r="ABR1" s="61"/>
-      <c r="ABS1" s="61"/>
-      <c r="ABT1" s="61"/>
-      <c r="ABU1" s="61"/>
-      <c r="ABV1" s="61"/>
-      <c r="ABW1" s="61"/>
-      <c r="ABX1" s="61"/>
-      <c r="ABY1" s="61"/>
-      <c r="ABZ1" s="61"/>
-      <c r="ACA1" s="61"/>
-      <c r="ACB1" s="61"/>
-      <c r="ACC1" s="61"/>
-      <c r="ACD1" s="61"/>
-      <c r="ACE1" s="61"/>
-      <c r="ACF1" s="61"/>
-      <c r="ACG1" s="61"/>
-      <c r="ACH1" s="61"/>
-      <c r="ACI1" s="61"/>
-      <c r="ACJ1" s="61"/>
-      <c r="ACK1" s="61"/>
-      <c r="ACL1" s="61"/>
-      <c r="ACM1" s="61"/>
-      <c r="ACN1" s="61"/>
-      <c r="ACO1" s="61"/>
-      <c r="ACP1" s="61"/>
-      <c r="ACQ1" s="61"/>
-      <c r="ACR1" s="61"/>
-      <c r="ACS1" s="61"/>
-      <c r="ACT1" s="61"/>
-      <c r="ACU1" s="61"/>
-      <c r="ACV1" s="61"/>
-      <c r="ACW1" s="61"/>
-      <c r="ACX1" s="61"/>
-      <c r="ACY1" s="61"/>
-      <c r="ACZ1" s="61"/>
-      <c r="ADA1" s="61"/>
-      <c r="ADB1" s="61"/>
-      <c r="ADC1" s="61"/>
-      <c r="ADD1" s="61"/>
-      <c r="ADE1" s="61"/>
-      <c r="ADF1" s="61"/>
-      <c r="ADG1" s="61"/>
-      <c r="ADH1" s="61"/>
-      <c r="ADI1" s="61"/>
-      <c r="ADJ1" s="61"/>
-      <c r="ADK1" s="61"/>
-      <c r="ADL1" s="61"/>
-      <c r="ADM1" s="61"/>
-      <c r="ADN1" s="61"/>
-      <c r="ADO1" s="61"/>
-      <c r="ADP1" s="61"/>
-      <c r="ADQ1" s="61"/>
-      <c r="ADR1" s="61"/>
-      <c r="ADS1" s="61"/>
-      <c r="ADT1" s="61"/>
-      <c r="ADU1" s="61"/>
-      <c r="ADV1" s="61"/>
-      <c r="ADW1" s="61"/>
-      <c r="ADX1" s="61"/>
-      <c r="ADY1" s="61"/>
-      <c r="ADZ1" s="61"/>
-      <c r="AEA1" s="61"/>
-      <c r="AEB1" s="61"/>
-      <c r="AEC1" s="61"/>
-      <c r="AED1" s="61"/>
-      <c r="AEE1" s="61"/>
-      <c r="AEF1" s="61"/>
-      <c r="AEG1" s="61"/>
-      <c r="AEH1" s="61"/>
-      <c r="AEI1" s="61"/>
-      <c r="AEJ1" s="61"/>
-      <c r="AEK1" s="61"/>
-      <c r="AEL1" s="61"/>
-      <c r="AEM1" s="61"/>
-      <c r="AEN1" s="61"/>
-      <c r="AEO1" s="61"/>
-      <c r="AEP1" s="61"/>
-      <c r="AEQ1" s="61"/>
-      <c r="AER1" s="61"/>
-      <c r="AES1" s="61"/>
-      <c r="AET1" s="61"/>
-      <c r="AEU1" s="61"/>
-      <c r="AEV1" s="61"/>
-      <c r="AEW1" s="61"/>
-      <c r="AEX1" s="61"/>
-      <c r="AEY1" s="61"/>
-      <c r="AEZ1" s="61"/>
-      <c r="AFA1" s="61"/>
-      <c r="AFB1" s="61"/>
-      <c r="AFC1" s="61"/>
-      <c r="AFD1" s="61"/>
-      <c r="AFE1" s="61"/>
-      <c r="AFF1" s="61"/>
-      <c r="AFG1" s="61"/>
-      <c r="AFH1" s="61"/>
-      <c r="AFI1" s="61"/>
-      <c r="AFJ1" s="61"/>
-      <c r="AFK1" s="61"/>
-      <c r="AFL1" s="61"/>
-      <c r="AFM1" s="61"/>
-      <c r="AFN1" s="61"/>
-      <c r="AFO1" s="61"/>
-      <c r="AFP1" s="61"/>
-      <c r="AFQ1" s="61"/>
-      <c r="AFR1" s="61"/>
-      <c r="AFS1" s="61"/>
-      <c r="AFT1" s="61"/>
-      <c r="AFU1" s="61"/>
-      <c r="AFV1" s="61"/>
-      <c r="AFW1" s="61"/>
-      <c r="AFX1" s="61"/>
-      <c r="AFY1" s="61"/>
-      <c r="AFZ1" s="61"/>
-      <c r="AGA1" s="61"/>
-      <c r="AGB1" s="61"/>
-      <c r="AGC1" s="61"/>
-      <c r="AGD1" s="61"/>
-      <c r="AGE1" s="61"/>
-      <c r="AGF1" s="61"/>
-      <c r="AGG1" s="61"/>
-      <c r="AGH1" s="61"/>
-      <c r="AGI1" s="61"/>
-      <c r="AGJ1" s="61"/>
-      <c r="AGK1" s="61"/>
-      <c r="AGL1" s="61"/>
-      <c r="AGM1" s="61"/>
-      <c r="AGN1" s="61"/>
-      <c r="AGO1" s="61"/>
-      <c r="AGP1" s="61"/>
-      <c r="AGQ1" s="61"/>
-      <c r="AGR1" s="61"/>
-      <c r="AGS1" s="61"/>
-      <c r="AGT1" s="61"/>
-      <c r="AGU1" s="61"/>
-      <c r="AGV1" s="61"/>
-      <c r="AGW1" s="61"/>
-      <c r="AGX1" s="61"/>
-      <c r="AGY1" s="61"/>
-      <c r="AGZ1" s="61"/>
-      <c r="AHA1" s="61"/>
-      <c r="AHB1" s="61"/>
-      <c r="AHC1" s="61"/>
-      <c r="AHD1" s="61"/>
-      <c r="AHE1" s="61"/>
-      <c r="AHF1" s="61"/>
-      <c r="AHG1" s="61"/>
-      <c r="AHH1" s="61"/>
-      <c r="AHI1" s="61"/>
-      <c r="AHJ1" s="61"/>
-      <c r="AHK1" s="61"/>
-      <c r="AHL1" s="61"/>
-      <c r="AHM1" s="61"/>
-      <c r="AHN1" s="61"/>
-      <c r="AHO1" s="61"/>
-      <c r="AHP1" s="61"/>
-      <c r="AHQ1" s="61"/>
-      <c r="AHR1" s="61"/>
-      <c r="AHS1" s="61"/>
-      <c r="AHT1" s="61"/>
-      <c r="AHU1" s="61"/>
-      <c r="AHV1" s="61"/>
-      <c r="AHW1" s="61"/>
-      <c r="AHX1" s="61"/>
-      <c r="AHY1" s="61"/>
-      <c r="AHZ1" s="61"/>
-      <c r="AIA1" s="61"/>
-      <c r="AIB1" s="61"/>
-      <c r="AIC1" s="61"/>
-      <c r="AID1" s="61"/>
-      <c r="AIE1" s="61"/>
-      <c r="AIF1" s="61"/>
-      <c r="AIG1" s="61"/>
-      <c r="AIH1" s="61"/>
-      <c r="AII1" s="61"/>
-      <c r="AIJ1" s="61"/>
-      <c r="AIK1" s="61"/>
-      <c r="AIL1" s="61"/>
-      <c r="AIM1" s="61"/>
-      <c r="AIN1" s="61"/>
-      <c r="AIO1" s="61"/>
-      <c r="AIP1" s="61"/>
-      <c r="AIQ1" s="61"/>
-      <c r="AIR1" s="61"/>
-      <c r="AIS1" s="61"/>
-      <c r="AIT1" s="61"/>
-      <c r="AIU1" s="61"/>
-      <c r="AIV1" s="61"/>
-      <c r="AIW1" s="61"/>
-      <c r="AIX1" s="61"/>
-      <c r="AIY1" s="61"/>
-      <c r="AIZ1" s="61"/>
-      <c r="AJA1" s="61"/>
-      <c r="AJB1" s="61"/>
-      <c r="AJC1" s="61"/>
-      <c r="AJD1" s="61"/>
-      <c r="AJE1" s="61"/>
-      <c r="AJF1" s="61"/>
-      <c r="AJG1" s="61"/>
-      <c r="AJH1" s="61"/>
-      <c r="AJI1" s="61"/>
-      <c r="AJJ1" s="61"/>
-      <c r="AJK1" s="61"/>
-      <c r="AJL1" s="61"/>
-      <c r="AJM1" s="61"/>
-      <c r="AJN1" s="61"/>
-      <c r="AJO1" s="61"/>
-      <c r="AJP1" s="61"/>
-      <c r="AJQ1" s="61"/>
-      <c r="AJR1" s="61"/>
-      <c r="AJS1" s="61"/>
-      <c r="AJT1" s="61"/>
-      <c r="AJU1" s="61"/>
-      <c r="AJV1" s="61"/>
-      <c r="AJW1" s="61"/>
-      <c r="AJX1" s="61"/>
-      <c r="AJY1" s="61"/>
-      <c r="AJZ1" s="61"/>
-      <c r="AKA1" s="61"/>
-      <c r="AKB1" s="61"/>
-      <c r="AKC1" s="61"/>
-      <c r="AKD1" s="61"/>
-      <c r="AKE1" s="61"/>
-      <c r="AKF1" s="61"/>
-      <c r="AKG1" s="61"/>
-      <c r="AKH1" s="61"/>
-      <c r="AKI1" s="61"/>
-      <c r="AKJ1" s="61"/>
-      <c r="AKK1" s="61"/>
-      <c r="AKL1" s="61"/>
-      <c r="AKM1" s="61"/>
-      <c r="AKN1" s="61"/>
-      <c r="AKO1" s="61"/>
-      <c r="AKP1" s="61"/>
-      <c r="AKQ1" s="61"/>
-      <c r="AKR1" s="61"/>
-      <c r="AKS1" s="61"/>
-      <c r="AKT1" s="61"/>
-      <c r="AKU1" s="61"/>
-      <c r="AKV1" s="61"/>
-      <c r="AKW1" s="61"/>
-      <c r="AKX1" s="61"/>
-      <c r="AKY1" s="61"/>
-      <c r="AKZ1" s="61"/>
-      <c r="ALA1" s="61"/>
-      <c r="ALB1" s="61"/>
-      <c r="ALC1" s="61"/>
-      <c r="ALD1" s="61"/>
-      <c r="ALE1" s="61"/>
-      <c r="ALF1" s="61"/>
-      <c r="ALG1" s="61"/>
-      <c r="ALH1" s="61"/>
-      <c r="ALI1" s="61"/>
-      <c r="ALJ1" s="61"/>
-      <c r="ALK1" s="61"/>
-      <c r="ALL1" s="61"/>
-      <c r="ALM1" s="61"/>
-      <c r="ALN1" s="61"/>
-      <c r="ALO1" s="61"/>
-      <c r="ALP1" s="61"/>
-      <c r="ALQ1" s="61"/>
-      <c r="ALR1" s="61"/>
-      <c r="ALS1" s="61"/>
-      <c r="ALT1" s="61"/>
-      <c r="ALU1" s="61"/>
-      <c r="ALV1" s="61"/>
-      <c r="ALW1" s="61"/>
-      <c r="ALX1" s="61"/>
-      <c r="ALY1" s="61"/>
-      <c r="ALZ1" s="61"/>
-      <c r="AMA1" s="61"/>
-      <c r="AMB1" s="61"/>
-      <c r="AMC1" s="61"/>
-      <c r="AMD1" s="61"/>
-      <c r="AME1" s="61"/>
-      <c r="AMF1" s="61"/>
-      <c r="AMG1" s="61"/>
-      <c r="AMH1" s="61"/>
-      <c r="AMI1" s="61"/>
-      <c r="AMJ1" s="61"/>
-    </row>
-    <row r="2" spans="1:1024">
-      <c r="A2" s="51" t="s">
+      <c r="B6" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="89" t="s">
+        <v>379</v>
+      </c>
+      <c r="D6" s="50" t="s">
         <v>390</v>
       </c>
-      <c r="B2" s="51" t="s">
-        <v>372</v>
-      </c>
-      <c r="C2" s="51" t="s">
+      <c r="E6" s="34">
+        <v>1</v>
+      </c>
+      <c r="F6" s="42"/>
+      <c r="H6" s="50" t="s">
         <v>391</v>
       </c>
-      <c r="D2" s="51" t="s">
+    </row>
+    <row r="7" spans="1:1024">
+      <c r="A7" s="50" t="s">
         <v>392</v>
       </c>
-      <c r="E2" s="35">
+      <c r="B7" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="89" t="s">
+        <v>488</v>
+      </c>
+      <c r="D7" s="50" t="s">
+        <v>393</v>
+      </c>
+      <c r="E7" s="34">
         <v>1</v>
       </c>
-      <c r="F2" s="43"/>
-      <c r="H2" s="43"/>
-    </row>
-    <row r="3" spans="1:1024">
-      <c r="A3" s="51" t="s">
-        <v>393</v>
-      </c>
-      <c r="B3" s="51" t="s">
-        <v>375</v>
-      </c>
-      <c r="C3" s="51" t="s">
-        <v>391</v>
-      </c>
-      <c r="D3" s="55" t="s">
+      <c r="F7" s="42"/>
+    </row>
+    <row r="8" spans="1:1024">
+      <c r="A8" s="50" t="s">
         <v>394</v>
       </c>
-      <c r="E3" s="35">
+      <c r="B8" s="50" t="s">
+        <v>373</v>
+      </c>
+      <c r="C8" s="89" t="s">
+        <v>379</v>
+      </c>
+      <c r="D8" s="50" t="s">
+        <v>395</v>
+      </c>
+      <c r="E8" s="34">
         <v>1</v>
       </c>
-      <c r="F3" s="43"/>
-      <c r="H3" s="51" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1024">
-      <c r="A4" s="51" t="s">
+      <c r="F8" s="50" t="s">
         <v>396</v>
       </c>
-      <c r="B4" s="51" t="s">
-        <v>378</v>
-      </c>
-      <c r="C4" s="51" t="s">
-        <v>391</v>
-      </c>
-      <c r="D4" s="51" t="s">
+    </row>
+    <row r="9" spans="1:1024">
+      <c r="A9" s="50" t="s">
         <v>397</v>
       </c>
-      <c r="E4" s="35">
+      <c r="B9" s="50" t="s">
+        <v>376</v>
+      </c>
+      <c r="C9" s="89" t="s">
+        <v>379</v>
+      </c>
+      <c r="D9" s="50" t="s">
+        <v>398</v>
+      </c>
+      <c r="E9" s="34">
         <v>1</v>
       </c>
-      <c r="F4" s="43"/>
-      <c r="H4" s="51" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1024">
-      <c r="A5" s="51" t="s">
+      <c r="F9" s="50" t="s">
         <v>399</v>
-      </c>
-      <c r="B5" s="51" t="s">
-        <v>381</v>
-      </c>
-      <c r="C5" s="51" t="s">
-        <v>391</v>
-      </c>
-      <c r="D5" s="51" t="s">
-        <v>392</v>
-      </c>
-      <c r="E5" s="35">
-        <v>1</v>
-      </c>
-      <c r="F5" s="43"/>
-      <c r="H5" s="51" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1024">
-      <c r="A6" s="51" t="s">
-        <v>401</v>
-      </c>
-      <c r="B6" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" s="51" t="s">
-        <v>391</v>
-      </c>
-      <c r="D6" s="51" t="s">
-        <v>402</v>
-      </c>
-      <c r="E6" s="35">
-        <v>1</v>
-      </c>
-      <c r="F6" s="43"/>
-      <c r="H6" s="51" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1024">
-      <c r="A7" s="51" t="s">
-        <v>404</v>
-      </c>
-      <c r="B7" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" s="51" t="s">
-        <v>405</v>
-      </c>
-      <c r="D7" s="51" t="s">
-        <v>406</v>
-      </c>
-      <c r="E7" s="35">
-        <v>1</v>
-      </c>
-      <c r="F7" s="43"/>
-    </row>
-    <row r="8" spans="1:1024">
-      <c r="A8" s="51" t="s">
-        <v>407</v>
-      </c>
-      <c r="B8" s="51" t="s">
-        <v>385</v>
-      </c>
-      <c r="C8" s="51" t="s">
-        <v>391</v>
-      </c>
-      <c r="D8" s="51" t="s">
-        <v>408</v>
-      </c>
-      <c r="E8" s="35">
-        <v>1</v>
-      </c>
-      <c r="F8" s="51" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1024">
-      <c r="A9" s="51" t="s">
-        <v>410</v>
-      </c>
-      <c r="B9" s="51" t="s">
-        <v>388</v>
-      </c>
-      <c r="C9" s="51" t="s">
-        <v>391</v>
-      </c>
-      <c r="D9" s="51" t="s">
-        <v>411</v>
-      </c>
-      <c r="E9" s="35">
-        <v>1</v>
-      </c>
-      <c r="F9" s="51" t="s">
-        <v>412</v>
       </c>
     </row>
   </sheetData>
@@ -5064,184 +5063,184 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="3" width="20.7109375" style="43" customWidth="1"/>
-    <col min="4" max="5" width="15.7109375" style="35" customWidth="1"/>
-    <col min="6" max="9" width="20.7109375" style="43" customWidth="1"/>
+    <col min="1" max="3" width="20.7109375" style="42" customWidth="1"/>
+    <col min="4" max="5" width="15.7109375" style="34" customWidth="1"/>
+    <col min="6" max="9" width="20.7109375" style="42" customWidth="1"/>
     <col min="10" max="1025" width="8.42578125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="47" t="s">
-        <v>447</v>
-      </c>
-      <c r="D1" s="47" t="s">
-        <v>346</v>
-      </c>
-      <c r="E1" s="47" t="s">
-        <v>347</v>
-      </c>
-      <c r="F1" s="47" t="s">
-        <v>457</v>
-      </c>
-      <c r="G1" s="47" t="s">
+      <c r="C1" s="46" t="s">
+        <v>434</v>
+      </c>
+      <c r="D1" s="46" t="s">
+        <v>334</v>
+      </c>
+      <c r="E1" s="46" t="s">
+        <v>335</v>
+      </c>
+      <c r="F1" s="46" t="s">
+        <v>444</v>
+      </c>
+      <c r="G1" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="47" t="s">
+      <c r="H1" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="49" t="s">
+      <c r="I1" s="48" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="43" t="s">
-        <v>413</v>
-      </c>
-      <c r="B2" s="43" t="s">
-        <v>414</v>
-      </c>
-      <c r="D2" s="35">
+      <c r="A2" s="42" t="s">
+        <v>400</v>
+      </c>
+      <c r="B2" s="42" t="s">
+        <v>401</v>
+      </c>
+      <c r="D2" s="34">
         <v>20.5</v>
       </c>
-      <c r="E2" s="35" t="s">
-        <v>415</v>
-      </c>
-      <c r="G2" s="43" t="s">
-        <v>416</v>
+      <c r="E2" s="34" t="s">
+        <v>402</v>
+      </c>
+      <c r="G2" s="42" t="s">
+        <v>403</v>
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="43" t="s">
-        <v>417</v>
-      </c>
-      <c r="B3" s="43" t="s">
-        <v>418</v>
-      </c>
-      <c r="D3" s="35">
+      <c r="A3" s="42" t="s">
+        <v>404</v>
+      </c>
+      <c r="B3" s="42" t="s">
+        <v>405</v>
+      </c>
+      <c r="D3" s="34">
         <v>1.35</v>
       </c>
-      <c r="E3" s="35" t="s">
-        <v>415</v>
-      </c>
-      <c r="G3" s="43" t="s">
-        <v>419</v>
+      <c r="E3" s="34" t="s">
+        <v>402</v>
+      </c>
+      <c r="G3" s="42" t="s">
+        <v>406</v>
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="43" t="s">
-        <v>420</v>
-      </c>
-      <c r="B4" s="43" t="s">
-        <v>421</v>
-      </c>
-      <c r="D4" s="35">
+      <c r="A4" s="42" t="s">
+        <v>407</v>
+      </c>
+      <c r="B4" s="42" t="s">
+        <v>408</v>
+      </c>
+      <c r="D4" s="34">
         <v>0.46</v>
       </c>
-      <c r="E4" s="35" t="s">
-        <v>349</v>
-      </c>
-      <c r="G4" s="43" t="s">
-        <v>416</v>
+      <c r="E4" s="34" t="s">
+        <v>337</v>
+      </c>
+      <c r="G4" s="42" t="s">
+        <v>403</v>
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="43" t="s">
-        <v>422</v>
-      </c>
-      <c r="B5" s="43" t="s">
-        <v>423</v>
-      </c>
-      <c r="D5" s="35">
+      <c r="A5" s="42" t="s">
+        <v>409</v>
+      </c>
+      <c r="B5" s="42" t="s">
+        <v>410</v>
+      </c>
+      <c r="D5" s="34">
         <v>1.2</v>
       </c>
-      <c r="E5" s="35" t="s">
-        <v>349</v>
-      </c>
-      <c r="G5" s="43" t="s">
-        <v>419</v>
+      <c r="E5" s="34" t="s">
+        <v>337</v>
+      </c>
+      <c r="G5" s="42" t="s">
+        <v>406</v>
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="43" t="s">
-        <v>392</v>
-      </c>
-      <c r="B6" s="43" t="s">
-        <v>424</v>
-      </c>
-      <c r="D6" s="35">
+      <c r="A6" s="42" t="s">
+        <v>380</v>
+      </c>
+      <c r="B6" s="42" t="s">
+        <v>411</v>
+      </c>
+      <c r="D6" s="34">
         <v>2.1</v>
       </c>
-      <c r="E6" s="35" t="s">
-        <v>425</v>
+      <c r="E6" s="34" t="s">
+        <v>412</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>426</v>
+        <v>413</v>
       </c>
       <c r="B7" t="s">
-        <v>427</v>
-      </c>
-      <c r="D7" s="64">
+        <v>414</v>
+      </c>
+      <c r="D7" s="62">
         <v>3.0000000000000001E-12</v>
       </c>
-      <c r="E7" s="37" t="s">
-        <v>428</v>
+      <c r="E7" s="36" t="s">
+        <v>415</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>429</v>
+        <v>416</v>
       </c>
       <c r="B8" t="s">
-        <v>430</v>
-      </c>
-      <c r="D8" s="64">
+        <v>417</v>
+      </c>
+      <c r="D8" s="62">
         <v>10000000</v>
       </c>
-      <c r="E8" s="37" t="s">
-        <v>431</v>
+      <c r="E8" s="36" t="s">
+        <v>418</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>432</v>
+        <v>419</v>
       </c>
       <c r="B9" t="s">
-        <v>433</v>
-      </c>
-      <c r="D9" s="37">
+        <v>420</v>
+      </c>
+      <c r="D9" s="36">
         <v>0.7</v>
       </c>
-      <c r="E9" s="37" t="s">
-        <v>434</v>
+      <c r="E9" s="36" t="s">
+        <v>421</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="B10" t="s">
-        <v>436</v>
-      </c>
-      <c r="D10" s="37">
+        <v>423</v>
+      </c>
+      <c r="D10" s="36">
         <v>71280</v>
       </c>
-      <c r="E10" s="37" t="s">
-        <v>437</v>
+      <c r="E10" s="36" t="s">
+        <v>424</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11"/>
       <c r="B11"/>
       <c r="C11"/>
-      <c r="D11" s="37"/>
+      <c r="D11" s="36"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -5263,35 +5262,35 @@
     <col min="1020" max="1024" width="8.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="44" customFormat="1">
-      <c r="A1" s="71" t="s">
+    <row r="1" spans="1:10" s="43" customFormat="1">
+      <c r="A1" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="71" t="s">
-        <v>446</v>
-      </c>
-      <c r="C1" s="71" t="s">
-        <v>464</v>
-      </c>
-      <c r="D1" s="71" t="s">
-        <v>455</v>
-      </c>
-      <c r="E1" s="71" t="s">
-        <v>465</v>
-      </c>
-      <c r="F1" s="71" t="s">
-        <v>347</v>
-      </c>
-      <c r="G1" s="71" t="s">
-        <v>466</v>
-      </c>
-      <c r="H1" s="72" t="s">
+      <c r="B1" s="69" t="s">
+        <v>433</v>
+      </c>
+      <c r="C1" s="69" t="s">
+        <v>451</v>
+      </c>
+      <c r="D1" s="69" t="s">
+        <v>442</v>
+      </c>
+      <c r="E1" s="69" t="s">
+        <v>452</v>
+      </c>
+      <c r="F1" s="69" t="s">
+        <v>335</v>
+      </c>
+      <c r="G1" s="69" t="s">
+        <v>453</v>
+      </c>
+      <c r="H1" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="72" t="s">
+      <c r="I1" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="71" t="s">
+      <c r="J1" s="69" t="s">
         <v>9</v>
       </c>
     </row>
@@ -5318,41 +5317,41 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="30.7109375" style="67" customWidth="1"/>
-    <col min="2" max="2" width="30.7109375" style="34" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" style="65" customWidth="1"/>
+    <col min="2" max="2" width="30.7109375" style="33" customWidth="1"/>
     <col min="3" max="1025" width="8.42578125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="46" customFormat="1" ht="15" customHeight="1">
-      <c r="A1" s="45" t="s">
+    <row r="1" spans="1:2" s="45" customFormat="1" ht="15" customHeight="1">
+      <c r="A1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="69" t="s">
-        <v>443</v>
+      <c r="B1" s="67" t="s">
+        <v>430</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="67" t="s">
+      <c r="A2" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="34" t="s">
-        <v>444</v>
+      <c r="B2" s="33" t="s">
+        <v>431</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="67" t="s">
+      <c r="A3" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="34">
+      <c r="B3" s="33">
         <v>9606</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="67" t="s">
+      <c r="A4" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="34" t="s">
-        <v>445</v>
+      <c r="B4" s="33" t="s">
+        <v>432</v>
       </c>
     </row>
   </sheetData>
@@ -5376,48 +5375,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="70" t="s">
-        <v>331</v>
-      </c>
-      <c r="B1" s="70" t="s">
-        <v>467</v>
-      </c>
-      <c r="C1" s="70" t="s">
-        <v>468</v>
-      </c>
-      <c r="D1" s="70" t="s">
-        <v>469</v>
-      </c>
-      <c r="E1" s="70" t="s">
-        <v>345</v>
-      </c>
-      <c r="F1" s="70" t="s">
-        <v>470</v>
-      </c>
-      <c r="G1" s="70" t="s">
-        <v>471</v>
-      </c>
-      <c r="H1" s="70" t="s">
-        <v>472</v>
-      </c>
-      <c r="I1" s="70" t="s">
-        <v>473</v>
-      </c>
-      <c r="J1" s="70" t="s">
-        <v>474</v>
-      </c>
-      <c r="K1" s="70" t="s">
+      <c r="A1" s="68" t="s">
+        <v>320</v>
+      </c>
+      <c r="B1" s="68" t="s">
+        <v>454</v>
+      </c>
+      <c r="C1" s="68" t="s">
+        <v>455</v>
+      </c>
+      <c r="D1" s="68" t="s">
+        <v>456</v>
+      </c>
+      <c r="E1" s="68" t="s">
+        <v>333</v>
+      </c>
+      <c r="F1" s="68" t="s">
+        <v>457</v>
+      </c>
+      <c r="G1" s="68" t="s">
+        <v>458</v>
+      </c>
+      <c r="H1" s="68" t="s">
+        <v>459</v>
+      </c>
+      <c r="I1" s="68" t="s">
+        <v>460</v>
+      </c>
+      <c r="J1" s="68" t="s">
+        <v>461</v>
+      </c>
+      <c r="K1" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="L1" s="70" t="s">
+      <c r="L1" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="70" t="s">
+      <c r="M1" s="68" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:13">
-      <c r="F15" s="44"/>
+      <c r="F15" s="43"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5434,73 +5433,73 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="2" width="20.7109375" style="43" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" style="35" customWidth="1"/>
-    <col min="4" max="12" width="20.7109375" style="43" customWidth="1"/>
-    <col min="13" max="1025" width="8.42578125" style="43"/>
-    <col min="1026" max="16384" width="9" style="43"/>
+    <col min="1" max="2" width="20.7109375" style="42" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" style="34" customWidth="1"/>
+    <col min="4" max="12" width="20.7109375" style="42" customWidth="1"/>
+    <col min="13" max="1025" width="8.42578125" style="42"/>
+    <col min="1026" max="16384" width="9" style="42"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="73" t="s">
+      <c r="B1" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="73" t="s">
+      <c r="C1" s="71" t="s">
         <v>77</v>
       </c>
-      <c r="D1" s="73" t="s">
-        <v>475</v>
-      </c>
-      <c r="E1" s="75" t="s">
-        <v>476</v>
-      </c>
-      <c r="F1" s="73" t="s">
-        <v>477</v>
-      </c>
-      <c r="G1" s="75" t="s">
-        <v>478</v>
-      </c>
-      <c r="H1" s="75" t="s">
-        <v>479</v>
-      </c>
-      <c r="I1" s="76" t="s">
-        <v>480</v>
-      </c>
-      <c r="J1" s="73" t="s">
-        <v>481</v>
-      </c>
-      <c r="K1" s="74" t="s">
+      <c r="D1" s="71" t="s">
+        <v>462</v>
+      </c>
+      <c r="E1" s="73" t="s">
+        <v>463</v>
+      </c>
+      <c r="F1" s="71" t="s">
+        <v>464</v>
+      </c>
+      <c r="G1" s="73" t="s">
+        <v>465</v>
+      </c>
+      <c r="H1" s="73" t="s">
+        <v>466</v>
+      </c>
+      <c r="I1" s="74" t="s">
+        <v>467</v>
+      </c>
+      <c r="J1" s="71" t="s">
+        <v>468</v>
+      </c>
+      <c r="K1" s="72" t="s">
         <v>13</v>
       </c>
-      <c r="L1" s="77" t="s">
+      <c r="L1" s="75" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="43" t="s">
-        <v>338</v>
-      </c>
-      <c r="C2" s="35" t="s">
-        <v>499</v>
+      <c r="A2" s="42" t="s">
+        <v>326</v>
+      </c>
+      <c r="C2" s="34" t="s">
+        <v>485</v>
       </c>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="43" t="s">
-        <v>353</v>
-      </c>
-      <c r="C3" s="35" t="s">
-        <v>500</v>
+      <c r="A3" s="42" t="s">
+        <v>341</v>
+      </c>
+      <c r="C3" s="34" t="s">
+        <v>486</v>
       </c>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="43" t="s">
-        <v>438</v>
-      </c>
-      <c r="C4" s="35" t="s">
-        <v>501</v>
+      <c r="A4" s="42" t="s">
+        <v>425</v>
+      </c>
+      <c r="C4" s="34" t="s">
+        <v>487</v>
       </c>
     </row>
   </sheetData>
@@ -5519,7 +5518,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" style="27" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" style="26" customWidth="1"/>
     <col min="2" max="6" width="20.7109375" style="4" customWidth="1"/>
     <col min="8" max="1020" width="9.140625" style="4"/>
     <col min="1024" max="1025" width="8.7109375"/>
@@ -5546,7 +5545,7 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="26" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -5563,7 +5562,7 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="26" t="s">
         <v>18</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -5575,7 +5574,7 @@
       <c r="D3"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="26" t="s">
         <v>20</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -5589,7 +5588,7 @@
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="27" t="s">
+      <c r="A5" s="26" t="s">
         <v>23</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -5616,7 +5615,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" style="27" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" style="26" customWidth="1"/>
     <col min="2" max="2" width="20.7109375" style="9" customWidth="1"/>
     <col min="3" max="6" width="20.7109375" style="4" customWidth="1"/>
     <col min="7" max="8" width="20.7109375" customWidth="1"/>
@@ -5654,13 +5653,13 @@
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="26" t="s">
         <v>50</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="28"/>
+      <c r="C2" s="27"/>
       <c r="D2" s="9">
         <v>0</v>
       </c>
@@ -5672,7 +5671,7 @@
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="26" t="s">
         <v>51</v>
       </c>
       <c r="B3" s="9" t="s">
@@ -5689,7 +5688,7 @@
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="26" t="s">
         <v>52</v>
       </c>
       <c r="B4" s="9" t="s">
@@ -5706,7 +5705,7 @@
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="27" t="s">
+      <c r="A5" s="26" t="s">
         <v>53</v>
       </c>
       <c r="B5" s="9" t="s">
@@ -5723,7 +5722,7 @@
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="27" t="s">
+      <c r="A6" s="26" t="s">
         <v>54</v>
       </c>
       <c r="B6" s="9" t="s">
@@ -5740,7 +5739,7 @@
       </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="27" t="s">
+      <c r="A7" s="26" t="s">
         <v>55</v>
       </c>
       <c r="B7" s="9" t="s">
@@ -5757,7 +5756,7 @@
       </c>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="27" t="s">
+      <c r="A8" s="26" t="s">
         <v>56</v>
       </c>
       <c r="B8" s="9" t="s">
@@ -5774,7 +5773,7 @@
       </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="27" t="s">
+      <c r="A9" s="26" t="s">
         <v>57</v>
       </c>
       <c r="B9" s="9" t="s">
@@ -5791,7 +5790,7 @@
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="27" t="s">
+      <c r="A10" s="26" t="s">
         <v>58</v>
       </c>
       <c r="B10" s="9" t="s">
@@ -5808,7 +5807,7 @@
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="27" t="s">
+      <c r="A11" s="26" t="s">
         <v>59</v>
       </c>
       <c r="B11" s="9" t="s">
@@ -5825,7 +5824,7 @@
       </c>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="27" t="s">
+      <c r="A12" s="26" t="s">
         <v>60</v>
       </c>
       <c r="B12" s="9" t="s">
@@ -5842,7 +5841,7 @@
       </c>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="27" t="s">
+      <c r="A13" s="26" t="s">
         <v>61</v>
       </c>
       <c r="B13" s="9" t="s">
@@ -5859,7 +5858,7 @@
       </c>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="27" t="s">
+      <c r="A14" s="26" t="s">
         <v>62</v>
       </c>
       <c r="B14" s="9" t="s">
@@ -5876,7 +5875,7 @@
       </c>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="27" t="s">
+      <c r="A15" s="26" t="s">
         <v>63</v>
       </c>
       <c r="B15" s="9" t="s">
@@ -5893,7 +5892,7 @@
       </c>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="27" t="s">
+      <c r="A16" s="26" t="s">
         <v>64</v>
       </c>
       <c r="B16" s="9" t="s">
@@ -5910,7 +5909,7 @@
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="27" t="s">
+      <c r="A17" s="26" t="s">
         <v>65</v>
       </c>
       <c r="B17" s="9" t="s">
@@ -5927,7 +5926,7 @@
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="27" t="s">
+      <c r="A18" s="26" t="s">
         <v>66</v>
       </c>
       <c r="B18" s="9" t="s">
@@ -5944,7 +5943,7 @@
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="27" t="s">
+      <c r="A19" s="26" t="s">
         <v>67</v>
       </c>
       <c r="B19" s="9" t="s">
@@ -5961,7 +5960,7 @@
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="27" t="s">
+      <c r="A20" s="26" t="s">
         <v>68</v>
       </c>
       <c r="B20" s="9" t="s">
@@ -5978,7 +5977,7 @@
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="27" t="s">
+      <c r="A21" s="26" t="s">
         <v>69</v>
       </c>
       <c r="B21" s="9" t="s">
@@ -5995,7 +5994,7 @@
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="27" t="s">
+      <c r="A22" s="26" t="s">
         <v>70</v>
       </c>
       <c r="B22" s="9" t="s">
@@ -6012,7 +6011,7 @@
       </c>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="27" t="s">
+      <c r="A23" s="26" t="s">
         <v>71</v>
       </c>
       <c r="B23" s="9" t="s">
@@ -6029,7 +6028,7 @@
       </c>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="27" t="s">
+      <c r="A24" s="26" t="s">
         <v>72</v>
       </c>
       <c r="B24" s="9" t="s">
@@ -6046,7 +6045,7 @@
       </c>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="27" t="s">
+      <c r="A25" s="26" t="s">
         <v>73</v>
       </c>
       <c r="B25" s="9" t="s">
@@ -6063,7 +6062,7 @@
       </c>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="27" t="s">
+      <c r="A26" s="26" t="s">
         <v>74</v>
       </c>
       <c r="B26" s="9" t="s">
@@ -6094,14 +6093,14 @@
   <dimension ref="A1:AMK37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="16.42578125" style="9"/>
     <col min="2" max="2" width="15.7109375" style="9" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" style="40" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" style="39" customWidth="1"/>
     <col min="4" max="4" width="20.7109375" style="9" customWidth="1"/>
     <col min="5" max="6" width="15.7109375" style="9" customWidth="1"/>
     <col min="7" max="7" width="10.7109375" style="9" customWidth="1"/>
@@ -6125,14 +6124,14 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="47" t="s">
-        <v>447</v>
+      <c r="C1" s="46" t="s">
+        <v>434</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>77</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>75</v>
@@ -6147,13 +6146,13 @@
         <v>80</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>13</v>
@@ -6161,7 +6160,7 @@
       <c r="N1" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="32" t="s">
+      <c r="O1" s="31" t="s">
         <v>9</v>
       </c>
       <c r="P1" s="22"/>
@@ -6181,22 +6180,22 @@
     </row>
     <row r="2" spans="1:1025">
       <c r="A2" s="9" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>198</v>
+        <v>489</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="F2" s="9" t="s">
         <v>50</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>89</v>
+        <v>280</v>
       </c>
       <c r="H2" s="9">
         <v>203893801</v>
@@ -6216,22 +6215,22 @@
     </row>
     <row r="3" spans="1:1025">
       <c r="A3" s="9" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>202</v>
+        <v>490</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="F3" s="9" t="s">
         <v>50</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>85</v>
+        <v>277</v>
       </c>
       <c r="H3" s="9">
         <v>20602802</v>
@@ -6251,22 +6250,22 @@
     </row>
     <row r="4" spans="1:1025">
       <c r="A4" s="9" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>205</v>
+        <v>491</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="F4" s="9" t="s">
         <v>51</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>85</v>
+        <v>277</v>
       </c>
       <c r="H4" s="9">
         <v>45648015</v>
@@ -6286,22 +6285,22 @@
     </row>
     <row r="5" spans="1:1025">
       <c r="A5" s="9" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>209</v>
+        <v>493</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="F5" s="9" t="s">
         <v>51</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>89</v>
+        <v>280</v>
       </c>
       <c r="H5" s="9">
         <v>85413000</v>
@@ -6321,22 +6320,22 @@
     </row>
     <row r="6" spans="1:1025">
       <c r="A6" s="9" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>198</v>
+        <v>489</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="F6" s="9" t="s">
         <v>52</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>85</v>
+        <v>277</v>
       </c>
       <c r="H6" s="9">
         <v>39877201</v>
@@ -6356,22 +6355,22 @@
     </row>
     <row r="7" spans="1:1025">
       <c r="A7" s="9" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>202</v>
+        <v>490</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="F7" s="9" t="s">
         <v>52</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>89</v>
+        <v>280</v>
       </c>
       <c r="H7" s="9">
         <v>185316402</v>
@@ -6391,22 +6390,22 @@
     </row>
     <row r="8" spans="1:1025">
       <c r="A8" s="9" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>218</v>
+        <v>492</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="F8" s="9" t="s">
         <v>53</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>85</v>
+        <v>277</v>
       </c>
       <c r="H8" s="9">
         <v>53862600</v>
@@ -6426,22 +6425,22 @@
     </row>
     <row r="9" spans="1:1025">
       <c r="A9" s="9" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>209</v>
+        <v>493</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="F9" s="9" t="s">
         <v>53</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>85</v>
+        <v>277</v>
       </c>
       <c r="H9" s="9">
         <v>118834600</v>
@@ -6461,22 +6460,22 @@
     </row>
     <row r="10" spans="1:1025">
       <c r="A10" s="9" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>202</v>
+        <v>490</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="F10" s="9" t="s">
         <v>54</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>89</v>
+        <v>280</v>
       </c>
       <c r="H10" s="9">
         <v>141848202</v>
@@ -6496,22 +6495,22 @@
     </row>
     <row r="11" spans="1:1025">
       <c r="A11" s="9" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>209</v>
+        <v>493</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="F11" s="9" t="s">
         <v>55</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>85</v>
+        <v>277</v>
       </c>
       <c r="H11" s="9">
         <v>2988400</v>
@@ -6531,22 +6530,22 @@
     </row>
     <row r="12" spans="1:1025">
       <c r="A12" s="9" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>218</v>
+        <v>492</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="F12" s="9" t="s">
         <v>56</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>89</v>
+        <v>280</v>
       </c>
       <c r="H12" s="9">
         <v>43970600</v>
@@ -6566,22 +6565,22 @@
     </row>
     <row r="13" spans="1:1025">
       <c r="A13" s="9" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>202</v>
+        <v>490</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="F13" s="9" t="s">
         <v>57</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>89</v>
+        <v>280</v>
       </c>
       <c r="H13" s="9">
         <v>890483</v>
@@ -6601,22 +6600,22 @@
     </row>
     <row r="14" spans="1:1025">
       <c r="A14" s="9" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>218</v>
+        <v>492</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="F14" s="9" t="s">
         <v>57</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>85</v>
+        <v>277</v>
       </c>
       <c r="H14" s="9">
         <v>116112401</v>
@@ -6636,22 +6635,22 @@
     </row>
     <row r="15" spans="1:1025">
       <c r="A15" s="9" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>233</v>
+        <v>497</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="F15" s="9" t="s">
         <v>58</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>85</v>
+        <v>277</v>
       </c>
       <c r="H15" s="9">
         <v>72121544</v>
@@ -6666,7 +6665,7 @@
         <v>72121926</v>
       </c>
       <c r="L15" s="5" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="N15" s="23"/>
       <c r="R15" s="11"/>
@@ -6674,22 +6673,22 @@
     </row>
     <row r="16" spans="1:1025">
       <c r="A16" s="9" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>218</v>
+        <v>492</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="F16" s="9" t="s">
         <v>59</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>85</v>
+        <v>277</v>
       </c>
       <c r="H16" s="9">
         <v>22700001</v>
@@ -6709,22 +6708,22 @@
     </row>
     <row r="17" spans="1:19">
       <c r="A17" s="9" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>209</v>
+        <v>493</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="F17" s="9" t="s">
         <v>59</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>89</v>
+        <v>280</v>
       </c>
       <c r="H17" s="9">
         <v>46022400</v>
@@ -6744,22 +6743,22 @@
     </row>
     <row r="18" spans="1:19">
       <c r="A18" s="9" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>198</v>
+        <v>489</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="F18" s="9" t="s">
         <v>60</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>85</v>
+        <v>277</v>
       </c>
       <c r="H18" s="9">
         <v>132186801</v>
@@ -6779,22 +6778,22 @@
     </row>
     <row r="19" spans="1:19" ht="15" customHeight="1">
       <c r="A19" s="9" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>233</v>
+        <v>497</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="F19" s="9" t="s">
         <v>60</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>89</v>
+        <v>280</v>
       </c>
       <c r="H19" s="9">
         <v>102368448</v>
@@ -6809,7 +6808,7 @@
         <v>102368872</v>
       </c>
       <c r="L19" s="5" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="N19" s="23"/>
       <c r="R19" s="11"/>
@@ -6817,22 +6816,22 @@
     </row>
     <row r="20" spans="1:19">
       <c r="A20" s="9" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>218</v>
+        <v>492</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="F20" s="9" t="s">
         <v>61</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>89</v>
+        <v>280</v>
       </c>
       <c r="H20" s="9">
         <v>101939801</v>
@@ -6852,22 +6851,22 @@
     </row>
     <row r="21" spans="1:19">
       <c r="A21" s="9" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>209</v>
+        <v>493</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="F21" s="9" t="s">
         <v>61</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>85</v>
+        <v>277</v>
       </c>
       <c r="H21" s="9">
         <v>99984000</v>
@@ -6887,22 +6886,22 @@
     </row>
     <row r="22" spans="1:19">
       <c r="A22" s="9" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>233</v>
+        <v>497</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="F22" s="9" t="s">
         <v>62</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>85</v>
+        <v>277</v>
       </c>
       <c r="H22" s="9">
         <v>52849669</v>
@@ -6922,22 +6921,22 @@
     </row>
     <row r="23" spans="1:19">
       <c r="A23" s="9" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>233</v>
+        <v>497</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="F23" s="9" t="s">
         <v>63</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>85</v>
+        <v>277</v>
       </c>
       <c r="H23" s="9">
         <v>23578503</v>
@@ -6957,22 +6956,22 @@
     </row>
     <row r="24" spans="1:19">
       <c r="A24" s="9" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>198</v>
+        <v>489</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="F24" s="9" t="s">
         <v>64</v>
       </c>
       <c r="G24" s="9" t="s">
-        <v>89</v>
+        <v>280</v>
       </c>
       <c r="H24" s="9">
         <v>90214601</v>
@@ -6992,22 +6991,22 @@
     </row>
     <row r="25" spans="1:19">
       <c r="A25" s="9" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>209</v>
+        <v>493</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="F25" s="9" t="s">
         <v>64</v>
       </c>
       <c r="G25" s="9" t="s">
-        <v>85</v>
+        <v>277</v>
       </c>
       <c r="H25" s="9">
         <v>47716801</v>
@@ -7027,22 +7026,22 @@
     </row>
     <row r="26" spans="1:19">
       <c r="A26" s="9" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>209</v>
+        <v>493</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="F26" s="9" t="s">
         <v>65</v>
       </c>
       <c r="G26" s="9" t="s">
-        <v>89</v>
+        <v>280</v>
       </c>
       <c r="H26" s="9">
         <v>50368000</v>
@@ -7062,22 +7061,22 @@
     </row>
     <row r="27" spans="1:19">
       <c r="A27" s="9" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>209</v>
+        <v>493</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="F27" s="9" t="s">
         <v>66</v>
       </c>
       <c r="G27" s="9" t="s">
-        <v>85</v>
+        <v>277</v>
       </c>
       <c r="H27" s="9">
         <v>18650001</v>
@@ -7097,22 +7096,22 @@
     </row>
     <row r="28" spans="1:19">
       <c r="A28" s="9" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>218</v>
+        <v>492</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="F28" s="9" t="s">
         <v>67</v>
       </c>
       <c r="G28" s="9" t="s">
-        <v>85</v>
+        <v>277</v>
       </c>
       <c r="H28" s="9">
         <v>33756200</v>
@@ -7132,22 +7131,22 @@
     </row>
     <row r="29" spans="1:19">
       <c r="A29" s="9" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>209</v>
+        <v>493</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="F29" s="9" t="s">
         <v>68</v>
       </c>
       <c r="G29" s="9" t="s">
-        <v>89</v>
+        <v>280</v>
       </c>
       <c r="H29" s="9">
         <v>58326200</v>
@@ -7167,22 +7166,22 @@
     </row>
     <row r="30" spans="1:19">
       <c r="A30" s="9" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>233</v>
+        <v>497</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="F30" s="9" t="s">
         <v>68</v>
       </c>
       <c r="G30" s="9" t="s">
-        <v>85</v>
+        <v>277</v>
       </c>
       <c r="H30" s="9">
         <v>50117624</v>
@@ -7202,22 +7201,22 @@
     </row>
     <row r="31" spans="1:19">
       <c r="A31" s="9" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>233</v>
+        <v>497</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="F31" s="9" t="s">
         <v>69</v>
       </c>
       <c r="G31" s="9" t="s">
-        <v>89</v>
+        <v>280</v>
       </c>
       <c r="H31" s="9">
         <v>62960832</v>
@@ -7237,22 +7236,22 @@
     </row>
     <row r="32" spans="1:19">
       <c r="A32" s="9" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>205</v>
+        <v>491</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="F32" s="9" t="s">
         <v>69</v>
       </c>
       <c r="G32" s="9" t="s">
-        <v>89</v>
+        <v>280</v>
       </c>
       <c r="H32" s="9">
         <v>57964075</v>
@@ -7272,22 +7271,22 @@
     </row>
     <row r="33" spans="1:19">
       <c r="A33" s="9" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>233</v>
+        <v>497</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="F33" s="9" t="s">
         <v>70</v>
       </c>
       <c r="G33" s="9" t="s">
-        <v>85</v>
+        <v>277</v>
       </c>
       <c r="H33" s="9">
         <v>36710048</v>
@@ -7307,22 +7306,22 @@
     </row>
     <row r="34" spans="1:19">
       <c r="A34" s="9" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>233</v>
+        <v>497</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="F34" s="9" t="s">
         <v>71</v>
       </c>
       <c r="G34" s="9" t="s">
-        <v>85</v>
+        <v>277</v>
       </c>
       <c r="H34" s="9">
         <v>43346380</v>
@@ -7342,22 +7341,22 @@
     </row>
     <row r="35" spans="1:19">
       <c r="A35" s="9" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>209</v>
+        <v>493</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="F35" s="9" t="s">
         <v>71</v>
       </c>
       <c r="G35" s="9" t="s">
-        <v>85</v>
+        <v>277</v>
       </c>
       <c r="H35" s="9">
         <v>30591000</v>
@@ -7377,22 +7376,22 @@
     </row>
     <row r="36" spans="1:19">
       <c r="A36" s="9" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>198</v>
+        <v>489</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="F36" s="9" t="s">
         <v>72</v>
       </c>
       <c r="G36" s="9" t="s">
-        <v>85</v>
+        <v>277</v>
       </c>
       <c r="H36" s="9">
         <v>135326401</v>
@@ -7412,22 +7411,22 @@
     </row>
     <row r="37" spans="1:19">
       <c r="A37" s="9" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>198</v>
+        <v>489</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="F37" s="9" t="s">
         <v>74</v>
       </c>
       <c r="G37" s="9" t="s">
-        <v>85</v>
+        <v>277</v>
       </c>
       <c r="H37" s="9">
         <v>13401</v>
@@ -7461,7 +7460,7 @@
   <dimension ref="A1:AMF5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E43" sqref="E43"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -7490,19 +7489,19 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>77</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>13</v>
@@ -7516,23 +7515,23 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="9" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="E2" s="11"/>
       <c r="F2" s="11" t="s">
-        <v>286</v>
+        <v>495</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>287</v>
+        <v>379</v>
       </c>
       <c r="K2" s="11"/>
       <c r="L2" s="11"/>
@@ -7540,23 +7539,23 @@
     </row>
     <row r="3" spans="1:13" ht="15" customHeight="1">
       <c r="A3" s="9" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="E3" s="11"/>
       <c r="F3" s="11" t="s">
-        <v>286</v>
+        <v>495</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>290</v>
+        <v>488</v>
       </c>
       <c r="K3" s="11"/>
       <c r="L3" s="11"/>
@@ -7564,48 +7563,48 @@
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="9" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>294</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>290</v>
+        <v>496</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>488</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="9" t="s">
-        <v>295</v>
+        <v>284</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>293</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>294</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>287</v>
+        <v>283</v>
+      </c>
+      <c r="F5" s="39" t="s">
+        <v>496</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>379</v>
       </c>
     </row>
   </sheetData>
@@ -7646,16 +7645,16 @@
         <v>1</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>321</v>
+        <v>310</v>
       </c>
       <c r="D1" s="13" t="s">
         <v>77</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>322</v>
+        <v>311</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>13</v>
@@ -7669,16 +7668,16 @@
     </row>
     <row r="2" spans="1:9" ht="15.75">
       <c r="A2" s="14" t="s">
-        <v>324</v>
+        <v>313</v>
       </c>
       <c r="C2" t="s">
-        <v>317</v>
+        <v>306</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>325</v>
+        <v>314</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
       <c r="F2">
         <v>0.5</v>
@@ -7687,16 +7686,16 @@
     </row>
     <row r="3" spans="1:9" ht="15.75">
       <c r="A3" s="14" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="C3" s="14" t="s">
+        <v>306</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>314</v>
+      </c>
+      <c r="E3" s="14" t="s">
         <v>317</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>325</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>328</v>
       </c>
       <c r="F3">
         <v>0.8</v>
@@ -7705,16 +7704,16 @@
     </row>
     <row r="4" spans="1:9" ht="15.75">
       <c r="A4" s="14" t="s">
-        <v>329</v>
+        <v>318</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>317</v>
+        <v>306</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>325</v>
+        <v>314</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="F4">
         <v>0.02</v>
@@ -7728,1048 +7727,937 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMJ37"/>
+  <dimension ref="A1:AMI37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:M1048576"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" style="9"/>
-    <col min="2" max="3" width="9" style="40"/>
-    <col min="4" max="5" width="9" style="12"/>
-    <col min="6" max="6" width="9" style="40"/>
-    <col min="7" max="7" width="16.42578125" style="9"/>
-    <col min="8" max="8" width="13.42578125" style="12"/>
-    <col min="9" max="10" width="13.42578125" style="9"/>
-    <col min="11" max="12" width="20.7109375" style="4" customWidth="1"/>
-    <col min="13" max="13" width="20.7109375" style="19" customWidth="1"/>
-    <col min="14" max="1024" width="32.42578125" style="4"/>
-    <col min="1025" max="1026" width="8.42578125"/>
+    <col min="1" max="1" width="17.42578125" style="83"/>
+    <col min="2" max="3" width="9" style="83"/>
+    <col min="4" max="4" width="10.42578125" style="83" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" style="83" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" style="83"/>
+    <col min="7" max="9" width="13.42578125" style="83"/>
+    <col min="10" max="11" width="20.7109375" style="82" customWidth="1"/>
+    <col min="12" max="12" width="20.7109375" style="86" customWidth="1"/>
+    <col min="13" max="1023" width="32.42578125" style="82"/>
+    <col min="1024" max="1025" width="8.42578125" style="87"/>
+    <col min="1026" max="16384" width="9" style="87"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1024" s="1" customFormat="1" ht="12.75">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:1023" s="80" customFormat="1" ht="12.75">
+      <c r="A1" s="80" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="47" t="s">
+      <c r="C1" s="81" t="s">
+        <v>434</v>
+      </c>
+      <c r="D1" s="80" t="s">
+        <v>76</v>
+      </c>
+      <c r="E1" s="81" t="s">
         <v>447</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="F1" s="47" t="s">
-        <v>460</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="F1" s="80" t="s">
         <v>75</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="G1" s="80" t="s">
         <v>78</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="H1" s="80" t="s">
         <v>79</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="I1" s="80" t="s">
         <v>80</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="J1" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="K1" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="L1" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="AME1" s="4"/>
-      <c r="AMF1" s="4"/>
-      <c r="AMG1" s="4"/>
-      <c r="AMH1" s="4"/>
-      <c r="AMI1" s="4"/>
-      <c r="AMJ1" s="4"/>
-    </row>
-    <row r="2" spans="1:1024">
-      <c r="A2" s="9" t="s">
+      <c r="AMD1" s="82"/>
+      <c r="AME1" s="82"/>
+      <c r="AMF1" s="82"/>
+      <c r="AMG1" s="82"/>
+      <c r="AMH1" s="82"/>
+      <c r="AMI1" s="82"/>
+    </row>
+    <row r="2" spans="1:1023">
+      <c r="A2" s="83" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="82" t="s">
         <v>82</v>
       </c>
-      <c r="C2" s="53"/>
-      <c r="D2" s="12" t="s">
+      <c r="C2" s="82"/>
+      <c r="D2" s="83" t="s">
         <v>83</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="F2" s="83" t="s">
+        <v>50</v>
+      </c>
+      <c r="G2" s="84" t="s">
+        <v>277</v>
+      </c>
+      <c r="H2" s="85">
+        <v>20633455</v>
+      </c>
+      <c r="I2" s="85">
+        <v>20651511</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1023">
+      <c r="A3" s="83" t="s">
         <v>84</v>
       </c>
-      <c r="G2" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="H2" s="26" t="s">
+      <c r="B3" s="82" t="s">
         <v>85</v>
       </c>
-      <c r="I2" s="17">
-        <v>20633455</v>
-      </c>
-      <c r="J2" s="17">
-        <v>20651511</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1024">
-      <c r="A3" s="9" t="s">
+      <c r="C3" s="82"/>
+      <c r="D3" s="83" t="s">
         <v>86</v>
       </c>
-      <c r="B3" s="53" t="s">
+      <c r="F3" s="83" t="s">
+        <v>51</v>
+      </c>
+      <c r="G3" s="84" t="s">
+        <v>280</v>
+      </c>
+      <c r="H3" s="85">
+        <v>10439968</v>
+      </c>
+      <c r="I3" s="85">
+        <v>10448504</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1023">
+      <c r="A4" s="83" t="s">
         <v>87</v>
       </c>
-      <c r="C3" s="53"/>
-      <c r="D3" s="12" t="s">
+      <c r="B4" s="82" t="s">
         <v>88</v>
       </c>
-      <c r="E3" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="G3" s="9" t="s">
+      <c r="C4" s="82"/>
+      <c r="D4" s="83" t="s">
+        <v>89</v>
+      </c>
+      <c r="F4" s="83" t="s">
         <v>51</v>
       </c>
-      <c r="H3" s="26" t="s">
-        <v>89</v>
-      </c>
-      <c r="I3" s="17">
-        <v>10439968</v>
-      </c>
-      <c r="J3" s="17">
-        <v>10448504</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1024">
-      <c r="A4" s="9" t="s">
+      <c r="G4" s="84" t="s">
+        <v>280</v>
+      </c>
+      <c r="H4" s="85">
+        <v>69319769</v>
+      </c>
+      <c r="I4" s="85">
+        <v>69387254</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1023">
+      <c r="A5" s="83" t="s">
         <v>90</v>
       </c>
-      <c r="B4" s="53" t="s">
+      <c r="B5" s="82" t="s">
         <v>91</v>
       </c>
-      <c r="C4" s="53"/>
-      <c r="D4" s="12" t="s">
+      <c r="C5" s="82"/>
+      <c r="D5" s="83" t="s">
         <v>92</v>
       </c>
-      <c r="E4" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="H4" s="26" t="s">
-        <v>89</v>
-      </c>
-      <c r="I4" s="17">
-        <v>69319769</v>
-      </c>
-      <c r="J4" s="17">
-        <v>69387254</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1024">
-      <c r="A5" s="9" t="s">
+      <c r="F5" s="83" t="s">
+        <v>52</v>
+      </c>
+      <c r="G5" s="84" t="s">
+        <v>277</v>
+      </c>
+      <c r="H5" s="85">
+        <v>40524878</v>
+      </c>
+      <c r="I5" s="85">
+        <v>40574685</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1023">
+      <c r="A6" s="83" t="s">
         <v>93</v>
       </c>
-      <c r="B5" s="53" t="s">
+      <c r="B6" s="82" t="s">
         <v>94</v>
       </c>
-      <c r="C5" s="53"/>
-      <c r="D5" s="12" t="s">
+      <c r="C6" s="82"/>
+      <c r="D6" s="83" t="s">
         <v>95</v>
       </c>
-      <c r="E5" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="G5" s="9" t="s">
+      <c r="F6" s="83" t="s">
         <v>52</v>
       </c>
-      <c r="H5" s="26" t="s">
-        <v>85</v>
-      </c>
-      <c r="I5" s="17">
-        <v>40524878</v>
-      </c>
-      <c r="J5" s="17">
-        <v>40574685</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1024">
-      <c r="A6" s="9" t="s">
+      <c r="G6" s="84" t="s">
+        <v>280</v>
+      </c>
+      <c r="H6" s="85">
+        <v>112596794</v>
+      </c>
+      <c r="I6" s="85">
+        <v>112649530</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1023">
+      <c r="A7" s="83" t="s">
         <v>96</v>
       </c>
-      <c r="B6" s="53" t="s">
+      <c r="B7" s="82" t="s">
         <v>97</v>
       </c>
-      <c r="C6" s="53"/>
-      <c r="D6" s="12" t="s">
+      <c r="C7" s="82"/>
+      <c r="D7" s="83" t="s">
         <v>98</v>
       </c>
-      <c r="E6" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="H6" s="26" t="s">
-        <v>89</v>
-      </c>
-      <c r="I6" s="17">
-        <v>112596794</v>
-      </c>
-      <c r="J6" s="17">
-        <v>112649530</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1024">
-      <c r="A7" s="9" t="s">
+      <c r="F7" s="83" t="s">
+        <v>53</v>
+      </c>
+      <c r="G7" s="84" t="s">
+        <v>277</v>
+      </c>
+      <c r="H7" s="85">
+        <v>83535914</v>
+      </c>
+      <c r="I7" s="85">
+        <v>83605875</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1023">
+      <c r="A8" s="83" t="s">
         <v>99</v>
       </c>
-      <c r="B7" s="53" t="s">
+      <c r="B8" s="82" t="s">
         <v>100</v>
       </c>
-      <c r="C7" s="53"/>
-      <c r="D7" s="12" t="s">
+      <c r="C8" s="82"/>
+      <c r="D8" s="83" t="s">
         <v>101</v>
       </c>
-      <c r="E7" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="G7" s="9" t="s">
+      <c r="F8" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="H7" s="26" t="s">
-        <v>85</v>
-      </c>
-      <c r="I7" s="17">
-        <v>83535914</v>
-      </c>
-      <c r="J7" s="17">
-        <v>83605875</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1024">
-      <c r="A8" s="9" t="s">
+      <c r="G8" s="84" t="s">
+        <v>277</v>
+      </c>
+      <c r="H8" s="85">
+        <v>127880861</v>
+      </c>
+      <c r="I8" s="85">
+        <v>127899195</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1023">
+      <c r="A9" s="83" t="s">
         <v>102</v>
       </c>
-      <c r="B8" s="53" t="s">
+      <c r="B9" s="82" t="s">
         <v>103</v>
       </c>
-      <c r="C8" s="53"/>
-      <c r="D8" s="12" t="s">
+      <c r="C9" s="82"/>
+      <c r="D9" s="83" t="s">
         <v>104</v>
       </c>
-      <c r="E8" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="H8" s="26" t="s">
-        <v>85</v>
-      </c>
-      <c r="I8" s="17">
-        <v>127880861</v>
-      </c>
-      <c r="J8" s="17">
-        <v>127899195</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1024">
-      <c r="A9" s="9" t="s">
+      <c r="F9" s="83" t="s">
+        <v>54</v>
+      </c>
+      <c r="G9" s="84" t="s">
+        <v>280</v>
+      </c>
+      <c r="H9" s="85">
+        <v>160401641</v>
+      </c>
+      <c r="I9" s="85">
+        <v>160421711</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1023">
+      <c r="A10" s="83" t="s">
         <v>105</v>
       </c>
-      <c r="B9" s="53" t="s">
+      <c r="B10" s="82" t="s">
         <v>106</v>
       </c>
-      <c r="C9" s="53"/>
-      <c r="D9" s="12" t="s">
+      <c r="C10" s="82"/>
+      <c r="D10" s="83" t="s">
         <v>107</v>
       </c>
-      <c r="E9" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="H9" s="26" t="s">
-        <v>89</v>
-      </c>
-      <c r="I9" s="17">
-        <v>160401641</v>
-      </c>
-      <c r="J9" s="17">
-        <v>160421711</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1024">
-      <c r="A10" s="9" t="s">
+      <c r="F10" s="83" t="s">
+        <v>55</v>
+      </c>
+      <c r="G10" s="84" t="s">
+        <v>277</v>
+      </c>
+      <c r="H10" s="85">
+        <v>151656691</v>
+      </c>
+      <c r="I10" s="85">
+        <v>152129619</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1023">
+      <c r="A11" s="83" t="s">
         <v>108</v>
       </c>
-      <c r="B10" s="53" t="s">
+      <c r="B11" s="82" t="s">
         <v>109</v>
       </c>
-      <c r="C10" s="53"/>
-      <c r="D10" s="9" t="s">
+      <c r="C11" s="82"/>
+      <c r="D11" s="83" t="s">
         <v>110</v>
       </c>
-      <c r="E10" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="H10" s="26" t="s">
-        <v>85</v>
-      </c>
-      <c r="I10" s="17">
-        <v>151656691</v>
-      </c>
-      <c r="J10" s="17">
-        <v>152129619</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1024">
-      <c r="A11" s="9" t="s">
+      <c r="F11" s="83" t="s">
+        <v>56</v>
+      </c>
+      <c r="G11" s="84" t="s">
+        <v>280</v>
+      </c>
+      <c r="H11" s="85">
+        <v>56011051</v>
+      </c>
+      <c r="I11" s="85">
+        <v>56051604</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1023">
+      <c r="A12" s="83" t="s">
         <v>111</v>
       </c>
-      <c r="B11" s="53" t="s">
+      <c r="B12" s="82" t="s">
         <v>112</v>
       </c>
-      <c r="C11" s="53"/>
-      <c r="D11" s="9" t="s">
+      <c r="C12" s="82"/>
+      <c r="D12" s="83" t="s">
         <v>113</v>
       </c>
-      <c r="E11" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="H11" s="26" t="s">
-        <v>89</v>
-      </c>
-      <c r="I11" s="17">
-        <v>56011051</v>
-      </c>
-      <c r="J11" s="17">
-        <v>56051604</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1024">
-      <c r="A12" s="9" t="s">
+      <c r="F12" s="83" t="s">
+        <v>57</v>
+      </c>
+      <c r="G12" s="84" t="s">
+        <v>280</v>
+      </c>
+      <c r="H12" s="85">
+        <v>18055992</v>
+      </c>
+      <c r="I12" s="85">
+        <v>18084998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1023">
+      <c r="A13" s="83" t="s">
         <v>114</v>
       </c>
-      <c r="B12" s="53" t="s">
+      <c r="B13" s="82" t="s">
         <v>115</v>
       </c>
-      <c r="C12" s="53"/>
-      <c r="D12" s="12" t="s">
+      <c r="C13" s="82"/>
+      <c r="D13" s="83" t="s">
         <v>116</v>
       </c>
-      <c r="E12" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="G12" s="9" t="s">
+      <c r="F13" s="83" t="s">
         <v>57</v>
       </c>
-      <c r="H12" s="26" t="s">
-        <v>89</v>
-      </c>
-      <c r="I12" s="17">
-        <v>18055992</v>
-      </c>
-      <c r="J12" s="17">
-        <v>18084998</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1024">
-      <c r="A13" s="9" t="s">
+      <c r="G13" s="84" t="s">
+        <v>277</v>
+      </c>
+      <c r="H13" s="85">
+        <v>19901717</v>
+      </c>
+      <c r="I13" s="85">
+        <v>19967258</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1023" ht="15" customHeight="1">
+      <c r="A14" s="83" t="s">
         <v>117</v>
       </c>
-      <c r="B13" s="53" t="s">
+      <c r="B14" s="82" t="s">
         <v>118</v>
       </c>
-      <c r="C13" s="53"/>
-      <c r="D13" s="12" t="s">
+      <c r="C14" s="82"/>
+      <c r="D14" s="83" t="s">
         <v>119</v>
       </c>
-      <c r="E13" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="G13" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="H13" s="26" t="s">
-        <v>85</v>
-      </c>
-      <c r="I13" s="17">
-        <v>19901717</v>
-      </c>
-      <c r="J13" s="17">
-        <v>19967258</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1024" ht="15" customHeight="1">
-      <c r="A14" s="9" t="s">
+      <c r="F14" s="83" t="s">
+        <v>58</v>
+      </c>
+      <c r="G14" s="84" t="s">
+        <v>277</v>
+      </c>
+      <c r="H14" s="85">
+        <v>136410570</v>
+      </c>
+      <c r="I14" s="85">
+        <v>136423761</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1023">
+      <c r="A15" s="83" t="s">
         <v>120</v>
       </c>
-      <c r="B14" s="53" t="s">
+      <c r="B15" s="82" t="s">
         <v>121</v>
       </c>
-      <c r="C14" s="53"/>
-      <c r="D14" s="12" t="s">
+      <c r="C15" s="82"/>
+      <c r="D15" s="83" t="s">
         <v>122</v>
       </c>
-      <c r="E14" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="G14" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="H14" s="26" t="s">
-        <v>85</v>
-      </c>
-      <c r="I14" s="17">
-        <v>136410570</v>
-      </c>
-      <c r="J14" s="17">
-        <v>136423761</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1024">
-      <c r="A15" s="9" t="s">
+      <c r="F15" s="83" t="s">
+        <v>59</v>
+      </c>
+      <c r="G15" s="84" t="s">
+        <v>280</v>
+      </c>
+      <c r="H15" s="85">
+        <v>7750962</v>
+      </c>
+      <c r="I15" s="85">
+        <v>7787981</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1023">
+      <c r="A16" s="83" t="s">
         <v>123</v>
       </c>
-      <c r="B15" s="53" t="s">
+      <c r="B16" s="82" t="s">
         <v>124</v>
       </c>
-      <c r="C15" s="53"/>
-      <c r="D15" s="12" t="s">
+      <c r="C16" s="82"/>
+      <c r="D16" s="83" t="s">
         <v>125</v>
       </c>
-      <c r="E15" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="G15" s="9" t="s">
+      <c r="F16" s="83" t="s">
         <v>59</v>
       </c>
-      <c r="H15" s="26" t="s">
-        <v>89</v>
-      </c>
-      <c r="I15" s="17">
-        <v>7750962</v>
-      </c>
-      <c r="J15" s="17">
-        <v>7787981</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1024">
-      <c r="A16" s="9" t="s">
+      <c r="G16" s="84" t="s">
+        <v>277</v>
+      </c>
+      <c r="H16" s="85">
+        <v>133394094</v>
+      </c>
+      <c r="I16" s="85">
+        <v>133421307</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="83" t="s">
         <v>126</v>
       </c>
-      <c r="B16" s="53" t="s">
+      <c r="B17" s="82" t="s">
         <v>127</v>
       </c>
-      <c r="C16" s="53"/>
-      <c r="D16" s="12" t="s">
+      <c r="C17" s="82"/>
+      <c r="D17" s="83" t="s">
         <v>128</v>
       </c>
-      <c r="E16" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="G16" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="H16" s="26" t="s">
-        <v>85</v>
-      </c>
-      <c r="I16" s="17">
-        <v>133394094</v>
-      </c>
-      <c r="J16" s="17">
-        <v>133421307</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="A17" s="9" t="s">
+      <c r="F17" s="83" t="s">
+        <v>60</v>
+      </c>
+      <c r="G17" s="84" t="s">
+        <v>277</v>
+      </c>
+      <c r="H17" s="85">
+        <v>13668670</v>
+      </c>
+      <c r="I17" s="85">
+        <v>13732346</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="83" t="s">
         <v>129</v>
       </c>
-      <c r="B17" s="53" t="s">
+      <c r="B18" s="82" t="s">
         <v>130</v>
       </c>
-      <c r="C17" s="53"/>
-      <c r="D17" s="12" t="s">
+      <c r="C18" s="82"/>
+      <c r="D18" s="83" t="s">
         <v>131</v>
       </c>
-      <c r="E17" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="G17" s="9" t="s">
+      <c r="F18" s="83" t="s">
         <v>60</v>
       </c>
-      <c r="H17" s="26" t="s">
-        <v>85</v>
-      </c>
-      <c r="I17" s="17">
-        <v>13668670</v>
-      </c>
-      <c r="J17" s="17">
-        <v>13732346</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="A18" s="9" t="s">
+      <c r="G18" s="84" t="s">
+        <v>277</v>
+      </c>
+      <c r="H18" s="85">
+        <v>114439386</v>
+      </c>
+      <c r="I18" s="85">
+        <v>114450279</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="83" t="s">
         <v>132</v>
       </c>
-      <c r="B18" s="53" t="s">
+      <c r="B19" s="82" t="s">
         <v>133</v>
       </c>
-      <c r="C18" s="53"/>
-      <c r="D18" s="12" t="s">
+      <c r="C19" s="82"/>
+      <c r="D19" s="83" t="s">
         <v>134</v>
       </c>
-      <c r="E18" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="G18" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="H18" s="26" t="s">
-        <v>85</v>
-      </c>
-      <c r="I18" s="17">
-        <v>114439386</v>
-      </c>
-      <c r="J18" s="17">
-        <v>114450279</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
-      <c r="A19" s="9" t="s">
+      <c r="F19" s="83" t="s">
+        <v>61</v>
+      </c>
+      <c r="G19" s="84" t="s">
+        <v>280</v>
+      </c>
+      <c r="H19" s="85">
+        <v>77021247</v>
+      </c>
+      <c r="I19" s="85">
+        <v>77065580</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="83" t="s">
         <v>135</v>
       </c>
-      <c r="B19" s="53" t="s">
+      <c r="B20" s="82" t="s">
         <v>136</v>
       </c>
-      <c r="C19" s="53"/>
-      <c r="D19" s="12" t="s">
+      <c r="C20" s="82"/>
+      <c r="D20" s="83" t="s">
         <v>137</v>
       </c>
-      <c r="E19" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="G19" s="9" t="s">
+      <c r="F20" s="83" t="s">
         <v>61</v>
       </c>
-      <c r="H19" s="26" t="s">
-        <v>89</v>
-      </c>
-      <c r="I19" s="17">
-        <v>77021247</v>
-      </c>
-      <c r="J19" s="17">
-        <v>77065580</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
-      <c r="A20" s="9" t="s">
+      <c r="G20" s="84" t="s">
+        <v>280</v>
+      </c>
+      <c r="H20" s="85">
+        <v>113298759</v>
+      </c>
+      <c r="I20" s="85">
+        <v>113359493</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="83" t="s">
         <v>138</v>
       </c>
-      <c r="B20" s="53" t="s">
+      <c r="B21" s="82" t="s">
         <v>139</v>
       </c>
-      <c r="C20" s="53"/>
-      <c r="D20" s="12" t="s">
+      <c r="C21" s="82"/>
+      <c r="D21" s="83" t="s">
         <v>140</v>
       </c>
-      <c r="E20" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="G20" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="H20" s="26" t="s">
-        <v>89</v>
-      </c>
-      <c r="I20" s="17">
-        <v>113298759</v>
-      </c>
-      <c r="J20" s="17">
-        <v>113359493</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10">
-      <c r="A21" s="9" t="s">
+      <c r="F21" s="83" t="s">
+        <v>62</v>
+      </c>
+      <c r="G21" s="84" t="s">
+        <v>277</v>
+      </c>
+      <c r="H21" s="85">
+        <v>52455429</v>
+      </c>
+      <c r="I21" s="85">
+        <v>52476628</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="83" t="s">
         <v>141</v>
       </c>
-      <c r="B21" s="53" t="s">
+      <c r="B22" s="82" t="s">
         <v>142</v>
       </c>
-      <c r="C21" s="53"/>
-      <c r="D21" s="12" t="s">
+      <c r="C22" s="82"/>
+      <c r="D22" s="83" t="s">
         <v>143</v>
       </c>
-      <c r="E21" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="G21" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="H21" s="26" t="s">
-        <v>85</v>
-      </c>
-      <c r="I21" s="17">
-        <v>52455429</v>
-      </c>
-      <c r="J21" s="17">
-        <v>52476628</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="26.25">
-      <c r="A22" s="9" t="s">
+      <c r="F22" s="83" t="s">
+        <v>63</v>
+      </c>
+      <c r="G22" s="84" t="s">
+        <v>280</v>
+      </c>
+      <c r="H22" s="85">
+        <v>102932379</v>
+      </c>
+      <c r="I22" s="85">
+        <v>103057462</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="83" t="s">
         <v>144</v>
       </c>
-      <c r="B22" s="53" t="s">
+      <c r="B23" s="82" t="s">
         <v>145</v>
       </c>
-      <c r="C22" s="53"/>
-      <c r="D22" s="12" t="s">
+      <c r="C23" s="82"/>
+      <c r="D23" s="83" t="s">
         <v>146</v>
       </c>
-      <c r="E22" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="G22" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="H22" s="26" t="s">
-        <v>89</v>
-      </c>
-      <c r="I22" s="17">
-        <v>102932379</v>
-      </c>
-      <c r="J22" s="17">
-        <v>103057462</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10">
-      <c r="A23" s="9" t="s">
+      <c r="F23" s="83" t="s">
+        <v>64</v>
+      </c>
+      <c r="G23" s="84" t="s">
+        <v>277</v>
+      </c>
+      <c r="H23" s="85">
+        <v>65530418</v>
+      </c>
+      <c r="I23" s="85">
+        <v>65578352</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="83" t="s">
         <v>147</v>
       </c>
-      <c r="B23" s="53" t="s">
+      <c r="B24" s="82" t="s">
         <v>148</v>
       </c>
-      <c r="C23" s="53"/>
-      <c r="D23" s="12" t="s">
+      <c r="C24" s="82"/>
+      <c r="D24" s="83" t="s">
         <v>149</v>
       </c>
-      <c r="E23" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="G23" s="9" t="s">
+      <c r="F24" s="83" t="s">
         <v>64</v>
       </c>
-      <c r="H23" s="26" t="s">
-        <v>85</v>
-      </c>
-      <c r="I23" s="17">
-        <v>65530418</v>
-      </c>
-      <c r="J23" s="17">
-        <v>65578352</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10">
-      <c r="A24" s="9" t="s">
+      <c r="G24" s="84" t="s">
+        <v>280</v>
+      </c>
+      <c r="H24" s="85">
+        <v>101175723</v>
+      </c>
+      <c r="I24" s="85">
+        <v>101251932</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="83" t="s">
         <v>150</v>
       </c>
-      <c r="B24" s="53" t="s">
+      <c r="B25" s="82" t="s">
         <v>151</v>
       </c>
-      <c r="C24" s="53"/>
-      <c r="D24" s="12" t="s">
+      <c r="C25" s="82"/>
+      <c r="D25" s="83" t="s">
         <v>152</v>
       </c>
-      <c r="E24" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="G24" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="H24" s="26" t="s">
-        <v>89</v>
-      </c>
-      <c r="I24" s="17">
-        <v>101175723</v>
-      </c>
-      <c r="J24" s="17">
-        <v>101251932</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10">
-      <c r="A25" s="9" t="s">
+      <c r="F25" s="83" t="s">
+        <v>65</v>
+      </c>
+      <c r="G25" s="84" t="s">
+        <v>277</v>
+      </c>
+      <c r="H25" s="85">
+        <v>89088375</v>
+      </c>
+      <c r="I25" s="85">
+        <v>89155846</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="83" t="s">
         <v>153</v>
       </c>
-      <c r="B25" s="53" t="s">
+      <c r="B26" s="82" t="s">
         <v>154</v>
       </c>
-      <c r="C25" s="53"/>
-      <c r="D25" s="9" t="s">
+      <c r="C26" s="82"/>
+      <c r="D26" s="83" t="s">
         <v>155</v>
       </c>
-      <c r="E25" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="G25" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="H25" s="26" t="s">
-        <v>85</v>
-      </c>
-      <c r="I25" s="17">
-        <v>89088375</v>
-      </c>
-      <c r="J25" s="17">
-        <v>89155846</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10">
-      <c r="A26" s="9" t="s">
+      <c r="F26" s="83" t="s">
+        <v>66</v>
+      </c>
+      <c r="G26" s="84" t="s">
+        <v>277</v>
+      </c>
+      <c r="H26" s="85">
+        <v>49210227</v>
+      </c>
+      <c r="I26" s="85">
+        <v>49223225</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="83" t="s">
         <v>156</v>
       </c>
-      <c r="B26" s="53" t="s">
+      <c r="B27" s="82" t="s">
         <v>157</v>
       </c>
-      <c r="C26" s="53"/>
-      <c r="D26" s="9" t="s">
+      <c r="C27" s="82"/>
+      <c r="D27" s="83" t="s">
         <v>158</v>
       </c>
-      <c r="E26" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="G26" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="H26" s="26" t="s">
-        <v>85</v>
-      </c>
-      <c r="I26" s="17">
-        <v>49210227</v>
-      </c>
-      <c r="J26" s="17">
-        <v>49223225</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10">
-      <c r="A27" s="9" t="s">
+      <c r="F27" s="83" t="s">
+        <v>67</v>
+      </c>
+      <c r="G27" s="84" t="s">
+        <v>277</v>
+      </c>
+      <c r="H27" s="85">
+        <v>50967991</v>
+      </c>
+      <c r="I27" s="85">
+        <v>50988121</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="83" t="s">
         <v>159</v>
       </c>
-      <c r="B27" s="53" t="s">
+      <c r="B28" s="82" t="s">
         <v>160</v>
       </c>
-      <c r="C27" s="53"/>
-      <c r="D27" s="9" t="s">
+      <c r="C28" s="82"/>
+      <c r="D28" s="83" t="s">
         <v>161</v>
       </c>
-      <c r="E27" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="G27" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="H27" s="26" t="s">
-        <v>85</v>
-      </c>
-      <c r="I27" s="17">
-        <v>50967991</v>
-      </c>
-      <c r="J27" s="17">
-        <v>50988121</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10">
-      <c r="A28" s="9" t="s">
+      <c r="F28" s="83" t="s">
+        <v>68</v>
+      </c>
+      <c r="G28" s="84" t="s">
+        <v>280</v>
+      </c>
+      <c r="H28" s="85">
+        <v>41431318</v>
+      </c>
+      <c r="I28" s="85">
+        <v>41440717</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="83" t="s">
         <v>162</v>
       </c>
-      <c r="B28" s="53" t="s">
+      <c r="B29" s="82" t="s">
         <v>163</v>
       </c>
-      <c r="C28" s="53"/>
-      <c r="D28" s="9" t="s">
+      <c r="C29" s="82"/>
+      <c r="D29" s="83" t="s">
         <v>164</v>
       </c>
-      <c r="E28" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="G28" s="9" t="s">
+      <c r="F29" s="83" t="s">
         <v>68</v>
       </c>
-      <c r="H28" s="26" t="s">
-        <v>89</v>
-      </c>
-      <c r="I28" s="17">
-        <v>41431318</v>
-      </c>
-      <c r="J28" s="17">
-        <v>41440717</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10">
-      <c r="A29" s="9" t="s">
+      <c r="G29" s="84" t="s">
+        <v>277</v>
+      </c>
+      <c r="H29" s="85">
+        <v>47778572</v>
+      </c>
+      <c r="I29" s="85">
+        <v>47784686</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="83" t="s">
         <v>165</v>
       </c>
-      <c r="B29" s="53" t="s">
+      <c r="B30" s="82" t="s">
         <v>166</v>
       </c>
-      <c r="C29" s="53"/>
-      <c r="D29" s="9" t="s">
+      <c r="C30" s="82"/>
+      <c r="D30" s="83" t="s">
         <v>167</v>
       </c>
-      <c r="E29" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="G29" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="H29" s="26" t="s">
-        <v>85</v>
-      </c>
-      <c r="I29" s="17">
-        <v>47778572</v>
-      </c>
-      <c r="J29" s="17">
-        <v>47784686</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10">
-      <c r="A30" s="9" t="s">
+      <c r="F30" s="83" t="s">
+        <v>69</v>
+      </c>
+      <c r="G30" s="84" t="s">
+        <v>280</v>
+      </c>
+      <c r="H30" s="85">
+        <v>13389392</v>
+      </c>
+      <c r="I30" s="85">
+        <v>13638940</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="83" t="s">
         <v>168</v>
       </c>
-      <c r="B30" s="53" t="s">
+      <c r="B31" s="82" t="s">
         <v>169</v>
       </c>
-      <c r="C30" s="53"/>
-      <c r="D30" s="12" t="s">
+      <c r="C31" s="82"/>
+      <c r="D31" s="83" t="s">
         <v>170</v>
       </c>
-      <c r="E30" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="G30" s="9" t="s">
+      <c r="F31" s="83" t="s">
         <v>69</v>
       </c>
-      <c r="H30" s="26" t="s">
-        <v>89</v>
-      </c>
-      <c r="I30" s="17">
-        <v>13389392</v>
-      </c>
-      <c r="J30" s="17">
-        <v>13638940</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10">
-      <c r="A31" s="9" t="s">
+      <c r="G31" s="84" t="s">
+        <v>280</v>
+      </c>
+      <c r="H31" s="85">
+        <v>44619522</v>
+      </c>
+      <c r="I31" s="85">
+        <v>44652233</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="83" t="s">
         <v>171</v>
       </c>
-      <c r="B31" s="53" t="s">
+      <c r="B32" s="82" t="s">
         <v>172</v>
       </c>
-      <c r="C31" s="53"/>
-      <c r="D31" s="9" t="s">
+      <c r="C32" s="82"/>
+      <c r="D32" s="83" t="s">
         <v>173</v>
       </c>
-      <c r="E31" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="G31" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="H31" s="26" t="s">
-        <v>89</v>
-      </c>
-      <c r="I31" s="17">
-        <v>44619522</v>
-      </c>
-      <c r="J31" s="17">
-        <v>44652233</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10">
-      <c r="A32" s="9" t="s">
+      <c r="F32" s="83" t="s">
+        <v>70</v>
+      </c>
+      <c r="G32" s="84" t="s">
+        <v>277</v>
+      </c>
+      <c r="H32" s="85">
+        <v>31659622</v>
+      </c>
+      <c r="I32" s="85">
+        <v>31668931</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="83" t="s">
         <v>174</v>
       </c>
-      <c r="B32" s="53" t="s">
+      <c r="B33" s="82" t="s">
         <v>175</v>
       </c>
-      <c r="C32" s="53"/>
-      <c r="D32" s="12" t="s">
+      <c r="C33" s="82"/>
+      <c r="D33" s="83" t="s">
         <v>176</v>
       </c>
-      <c r="E32" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="G32" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="H32" s="26" t="s">
-        <v>85</v>
-      </c>
-      <c r="I32" s="17">
-        <v>31659622</v>
-      </c>
-      <c r="J32" s="17">
-        <v>31668931</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10">
-      <c r="A33" s="9" t="s">
+      <c r="F33" s="83" t="s">
+        <v>71</v>
+      </c>
+      <c r="G33" s="84" t="s">
+        <v>280</v>
+      </c>
+      <c r="H33" s="85">
+        <v>20707691</v>
+      </c>
+      <c r="I33" s="85">
+        <v>20859417</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" s="83" t="s">
         <v>177</v>
       </c>
-      <c r="B33" s="53" t="s">
+      <c r="B34" s="82" t="s">
         <v>178</v>
       </c>
-      <c r="C33" s="53"/>
-      <c r="D33" s="12" t="s">
+      <c r="C34" s="82"/>
+      <c r="D34" s="83" t="s">
         <v>179</v>
       </c>
-      <c r="E33" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="G33" s="9" t="s">
+      <c r="F34" s="83" t="s">
         <v>71</v>
       </c>
-      <c r="H33" s="26" t="s">
-        <v>89</v>
-      </c>
-      <c r="I33" s="17">
-        <v>20707691</v>
-      </c>
-      <c r="J33" s="17">
-        <v>20859417</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10">
-      <c r="A34" s="9" t="s">
+      <c r="G34" s="84" t="s">
+        <v>277</v>
+      </c>
+      <c r="H34" s="85">
+        <v>38705723</v>
+      </c>
+      <c r="I34" s="85">
+        <v>38738299</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" s="83" t="s">
         <v>180</v>
       </c>
-      <c r="B34" s="53" t="s">
+      <c r="B35" s="82" t="s">
         <v>181</v>
       </c>
-      <c r="C34" s="53"/>
-      <c r="D34" s="12" t="s">
+      <c r="C35" s="82"/>
+      <c r="D35" s="83" t="s">
         <v>182</v>
       </c>
-      <c r="E34" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="G34" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="H34" s="26" t="s">
-        <v>85</v>
-      </c>
-      <c r="I34" s="17">
-        <v>38705723</v>
-      </c>
-      <c r="J34" s="17">
-        <v>38738299</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10">
-      <c r="A35" s="9" t="s">
+      <c r="F35" s="83" t="s">
+        <v>72</v>
+      </c>
+      <c r="G35" s="84" t="s">
+        <v>280</v>
+      </c>
+      <c r="H35" s="85">
+        <v>119588337</v>
+      </c>
+      <c r="I35" s="85">
+        <v>119605895</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" s="83" t="s">
         <v>183</v>
       </c>
-      <c r="B35" s="53" t="s">
+      <c r="B36" s="82" t="s">
         <v>184</v>
       </c>
-      <c r="C35" s="53"/>
-      <c r="D35" s="12" t="s">
+      <c r="C36" s="82"/>
+      <c r="D36" s="83" t="s">
         <v>185</v>
       </c>
-      <c r="E35" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="G35" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="H35" s="26" t="s">
-        <v>89</v>
-      </c>
-      <c r="I35" s="17">
-        <v>119588337</v>
-      </c>
-      <c r="J35" s="17">
-        <v>119605895</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10">
-      <c r="A36" s="9" t="s">
+      <c r="F36" s="83" t="s">
+        <v>73</v>
+      </c>
+      <c r="G36" s="84" t="s">
+        <v>277</v>
+      </c>
+      <c r="H36" s="85">
+        <v>22973819</v>
+      </c>
+      <c r="I36" s="85">
+        <v>23005465</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" s="83" t="s">
         <v>186</v>
       </c>
-      <c r="B36" s="53" t="s">
+      <c r="B37" s="82" t="s">
         <v>187</v>
       </c>
-      <c r="C36" s="53"/>
-      <c r="D36" s="9" t="s">
+      <c r="C37" s="82"/>
+      <c r="D37" s="83" t="s">
         <v>188</v>
       </c>
-      <c r="E36" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="G36" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="H36" s="26" t="s">
-        <v>85</v>
-      </c>
-      <c r="I36" s="17">
-        <v>22973819</v>
-      </c>
-      <c r="J36" s="17">
-        <v>23005465</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10">
-      <c r="A37" s="9" t="s">
-        <v>189</v>
-      </c>
-      <c r="B37" s="53" t="s">
-        <v>190</v>
-      </c>
-      <c r="C37" s="53"/>
-      <c r="D37" s="9" t="s">
-        <v>191</v>
-      </c>
-      <c r="E37" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="G37" s="9" t="s">
+      <c r="F37" s="83" t="s">
         <v>74</v>
       </c>
-      <c r="H37" s="26" t="s">
-        <v>85</v>
-      </c>
-      <c r="I37" s="17">
+      <c r="G37" s="84" t="s">
+        <v>277</v>
+      </c>
+      <c r="H37" s="85">
         <v>5904</v>
       </c>
-      <c r="J37" s="17">
+      <c r="I37" s="85">
         <v>7445</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="G1:J1064"/>
+  <autoFilter ref="F1:I1064"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1"/>
   <headerFooter>
@@ -8784,16 +8672,16 @@
   <dimension ref="A1:AMI9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="3" width="20.7109375" style="29" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" style="50" customWidth="1"/>
-    <col min="5" max="6" width="20.7109375" style="29" customWidth="1"/>
+    <col min="1" max="3" width="20.7109375" style="28" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" style="49" customWidth="1"/>
+    <col min="5" max="6" width="20.7109375" style="28" customWidth="1"/>
     <col min="7" max="8" width="20.7109375" style="4" customWidth="1"/>
-    <col min="9" max="9" width="20.7109375" style="29" customWidth="1"/>
+    <col min="9" max="9" width="20.7109375" style="28" customWidth="1"/>
     <col min="10" max="1023" width="9.140625" style="4"/>
   </cols>
   <sheetData>
@@ -8804,17 +8692,17 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="47" t="s">
-        <v>447</v>
-      </c>
-      <c r="D1" s="47" t="s">
+      <c r="C1" s="46" t="s">
+        <v>434</v>
+      </c>
+      <c r="D1" s="46" t="s">
         <v>77</v>
       </c>
-      <c r="E1" s="47" t="s">
-        <v>448</v>
-      </c>
-      <c r="F1" s="47" t="s">
-        <v>449</v>
+      <c r="E1" s="46" t="s">
+        <v>435</v>
+      </c>
+      <c r="F1" s="46" t="s">
+        <v>436</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>13</v>
@@ -8830,103 +8718,79 @@
       <c r="A2" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="28" t="s">
         <v>27</v>
-      </c>
-      <c r="D2" s="50" t="s">
-        <v>498</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="50" t="s">
-        <v>498</v>
-      </c>
-      <c r="F3" s="48" t="s">
-        <v>450</v>
+      <c r="F3" s="47" t="s">
+        <v>437</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="28" t="s">
         <v>32</v>
-      </c>
-      <c r="D4" s="50" t="s">
-        <v>498</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="28" t="s">
         <v>34</v>
-      </c>
-      <c r="D5" s="50" t="s">
-        <v>498</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="50" t="s">
-        <v>498</v>
-      </c>
-      <c r="F6" s="48" t="s">
-        <v>450</v>
+      <c r="F6" s="47" t="s">
+        <v>437</v>
       </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="29" t="s">
+      <c r="A7" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="D7" s="50" t="s">
-        <v>498</v>
-      </c>
-      <c r="F7" s="48" t="s">
-        <v>451</v>
+      <c r="F7" s="47" t="s">
+        <v>438</v>
       </c>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="29" t="s">
+      <c r="A8" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="B8" s="29" t="s">
+      <c r="B8" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="50" t="s">
-        <v>498</v>
-      </c>
-      <c r="F8" s="48" t="s">
-        <v>452</v>
+      <c r="F8" s="47" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="29" t="s">
+      <c r="A9" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="D9" s="50" t="s">
-        <v>498</v>
-      </c>
-      <c r="F9" s="48" t="s">
-        <v>453</v>
+      <c r="F9" s="47" t="s">
+        <v>440</v>
       </c>
     </row>
   </sheetData>

--- a/tests/fixtures/eukaryote_core.xlsx
+++ b/tests/fixtures/eukaryote_core.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="20295" windowHeight="6780" tabRatio="993" activeTab="15"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="20295" windowHeight="6780" tabRatio="993" firstSheet="1" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="KB" sheetId="1" r:id="rId1"/>
@@ -31,10 +31,10 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Cell!$A$1:$B$4</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">Complexes!$A$1:$K$221</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">Complexes!$A$1:$I$221</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">Genes!$F$1:$I$1064</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">KB!$A$1:$B$9</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">Proteins!$A$1:$I$719</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">Proteins!$A$1:$H$719</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="16" hidden="1">'Rate laws'!$A$1:$H$9</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="15" hidden="1">Reactions!$A$1:$N$220</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Regulatory element'!$A$1:$O$776</definedName>
@@ -42,7 +42,7 @@
     <definedName name="_FilterDatabase_0" localSheetId="1">Cell!$A$1:$B$1</definedName>
     <definedName name="_FilterDatabase_0" localSheetId="7">Genes!$L$1</definedName>
     <definedName name="_FilterDatabase_0" localSheetId="0">KB!$A$1:$B$2</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="10">Proteins!$A$1:$I$719</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="10">Proteins!$A$1:$H$719</definedName>
     <definedName name="_FilterDatabase_0" localSheetId="4">'Regulatory element'!$A$1:$O$776</definedName>
     <definedName name="_FilterDatabase_0" localSheetId="5">'Regulatory module'!$A$1:$J$849</definedName>
     <definedName name="_FilterDatabase_0_0" localSheetId="1">Cell!$A$1:$B$1</definedName>
@@ -79,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="945" uniqueCount="498">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="934" uniqueCount="493">
   <si>
     <t>Id</t>
   </si>
@@ -156,9 +156,6 @@
     <t>extracellular space</t>
   </si>
   <si>
-    <t>Half life</t>
-  </si>
-  <si>
     <t>O</t>
   </si>
   <si>
@@ -303,9 +300,6 @@
     <t>chromosomeY</t>
   </si>
   <si>
-    <t>chromosomeMT</t>
-  </si>
-  <si>
     <t>Polymer</t>
   </si>
   <si>
@@ -987,9 +981,6 @@
     <t>Coding Regions</t>
   </si>
   <si>
-    <t>Half Life</t>
-  </si>
-  <si>
     <t>ornithine decarboxylase</t>
   </si>
   <si>
@@ -1386,12 +1377,6 @@
     <t>Synonyms</t>
   </si>
   <si>
-    <t>Concentration</t>
-  </si>
-  <si>
-    <t>Species properties</t>
-  </si>
-  <si>
     <t>[PROP[O2:structure]]</t>
   </si>
   <si>
@@ -1425,27 +1410,18 @@
     <t>Homologs</t>
   </si>
   <si>
-    <t>Enzyme</t>
-  </si>
-  <si>
     <t>Parameters</t>
   </si>
   <si>
     <t>Object</t>
   </si>
   <si>
-    <t>Values</t>
-  </si>
-  <si>
     <t>Experiment</t>
   </si>
   <si>
     <t>Experiment design</t>
   </si>
   <si>
-    <t>Measurment technology</t>
-  </si>
-  <si>
     <t>Analysis type</t>
   </si>
   <si>
@@ -1572,7 +1548,16 @@
     <t>TFBindingSite</t>
   </si>
   <si>
-    <t>Sponteneous</t>
+    <t>chromosomeM</t>
+  </si>
+  <si>
+    <t>Measurement technology</t>
+  </si>
+  <si>
+    <t>Spontaneous</t>
+  </si>
+  <si>
+    <t>Enzymes</t>
   </si>
 </sst>
 </file>
@@ -1848,7 +1833,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1950,9 +1935,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2536,7 +2518,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="30" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15" customHeight="1">
@@ -2544,7 +2526,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15" customHeight="1">
@@ -2560,7 +2542,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2594,7 +2576,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
     </row>
   </sheetData>
@@ -2606,23 +2588,25 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H1048576"/>
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.42578125"/>
-    <col min="2" max="2" width="11.7109375"/>
-    <col min="3" max="4" width="8.42578125"/>
-    <col min="5" max="5" width="7.42578125"/>
-    <col min="7" max="7" width="10.7109375"/>
-    <col min="9" max="1024" width="8.42578125"/>
+    <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="1023" width="8.42578125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="18" customFormat="1" ht="12.75">
+    <row r="1" spans="1:7" s="18" customFormat="1" ht="12.75">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -2630,85 +2614,82 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>285</v>
+      </c>
+      <c r="B2" t="s">
         <v>286</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" t="s">
+      <c r="C2" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="D2" t="s">
         <v>287</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
         <v>288</v>
       </c>
-      <c r="C2" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="B3" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" t="s">
+      <c r="C3" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="D3" t="s">
         <v>290</v>
       </c>
-      <c r="B3" t="s">
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
         <v>291</v>
       </c>
-      <c r="C3" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="B4" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" t="s">
+      <c r="C4" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="D4" t="s">
         <v>293</v>
       </c>
-      <c r="B4" t="s">
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
         <v>294</v>
       </c>
-      <c r="C4" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="B5" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" t="s">
+      <c r="C5" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="D5" t="s">
         <v>296</v>
       </c>
-      <c r="B5" t="s">
-        <v>297</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="D5" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="19" spans="6:6">
-      <c r="F19" s="17"/>
-    </row>
-    <row r="20" spans="6:6">
-      <c r="F20" s="17"/>
+    </row>
+    <row r="19" spans="5:5">
+      <c r="E19" s="17"/>
+    </row>
+    <row r="20" spans="5:5">
+      <c r="E20" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -2718,10 +2699,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMF15"/>
+  <dimension ref="A1:AME15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2729,17 +2710,16 @@
     <col min="1" max="1" width="20.28515625" style="5"/>
     <col min="2" max="2" width="33.85546875" style="5"/>
     <col min="3" max="3" width="16.42578125" style="12"/>
-    <col min="4" max="4" width="16.42578125" style="9"/>
+    <col min="4" max="4" width="17" style="9" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="25.42578125" style="9" customWidth="1"/>
-    <col min="6" max="6" width="10.42578125" style="4"/>
-    <col min="7" max="7" width="9" style="4"/>
-    <col min="8" max="8" width="9.140625" style="4"/>
-    <col min="9" max="9" width="9" style="5"/>
-    <col min="10" max="1020" width="9.140625" style="4"/>
-    <col min="1023" max="1025" width="8.7109375"/>
+    <col min="6" max="6" width="14.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="1019" width="9.140625" style="4"/>
+    <col min="1022" max="1024" width="8.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="12.75">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="12.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2747,96 +2727,93 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15" customHeight="1">
+      <c r="A2" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>300</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="C2" s="12" t="s">
         <v>301</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="D2" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>302</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1">
-      <c r="A2" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="B2" s="5" t="s">
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="16" t="s">
         <v>303</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="B3" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>301</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="D2" s="9" t="s">
-        <v>287</v>
-      </c>
-      <c r="E2" s="5" t="s">
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="C4" s="12" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="16" t="s">
+      <c r="D4" s="9" t="s">
+        <v>291</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>306</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>303</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>304</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>290</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="5" t="s">
-        <v>283</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>303</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>308</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>293</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+    </row>
+    <row r="12" spans="1:8">
       <c r="D12" s="17"/>
       <c r="E12" s="17"/>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:8">
       <c r="D13" s="17"/>
       <c r="E13" s="17"/>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:8">
       <c r="D14" s="17"/>
       <c r="E14" s="17"/>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:8">
       <c r="D15" s="17"/>
       <c r="E15" s="17"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G719"/>
+  <autoFilter ref="A1:F719"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1"/>
   <headerFooter>
@@ -2848,10 +2825,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMF5"/>
+  <dimension ref="A1:AMD5"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2861,123 +2838,116 @@
     <col min="3" max="4" width="9" style="38"/>
     <col min="5" max="5" width="30.7109375" style="4" customWidth="1"/>
     <col min="6" max="6" width="30.7109375" style="8" customWidth="1"/>
-    <col min="7" max="8" width="15.7109375" style="40" customWidth="1"/>
-    <col min="9" max="11" width="15.7109375" style="4" customWidth="1"/>
-    <col min="12" max="1020" width="8.42578125" style="4"/>
-    <col min="1021" max="1023" width="8.42578125"/>
+    <col min="7" max="9" width="15.7109375" style="4" customWidth="1"/>
+    <col min="10" max="1018" width="8.42578125" style="4"/>
+    <col min="1019" max="1021" width="8.42578125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="1" spans="1:9" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="48" t="s">
-        <v>434</v>
-      </c>
-      <c r="D1" s="48" t="s">
-        <v>77</v>
+      <c r="C1" s="47" t="s">
+        <v>431</v>
+      </c>
+      <c r="D1" s="47" t="s">
+        <v>75</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="15" customHeight="1">
+      <c r="A2" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>321</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="G1" s="48" t="s">
-        <v>436</v>
-      </c>
-      <c r="H1" s="48" t="s">
-        <v>435</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="15" customHeight="1">
-      <c r="A2" s="5" t="s">
-        <v>323</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>324</v>
       </c>
       <c r="C2" s="10"/>
       <c r="D2" s="10"/>
       <c r="E2" s="11" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>325</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>326</v>
-      </c>
-      <c r="K2" s="5"/>
-    </row>
-    <row r="3" spans="1:11" ht="15" customHeight="1">
+        <v>322</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="I2" s="5"/>
+    </row>
+    <row r="3" spans="1:9" ht="15" customHeight="1">
       <c r="A3" s="5" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C3" s="10"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>328</v>
-      </c>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-    </row>
-    <row r="4" spans="1:11" ht="15" customHeight="1">
+        <v>325</v>
+      </c>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+    </row>
+    <row r="4" spans="1:9" ht="15" customHeight="1">
       <c r="A4" s="5" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
       <c r="E4" s="11" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>330</v>
-      </c>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-    </row>
-    <row r="5" spans="1:11" ht="15" customHeight="1">
+        <v>327</v>
+      </c>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+    </row>
+    <row r="5" spans="1:9" ht="15" customHeight="1">
       <c r="A5" s="5" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C5" s="10"/>
       <c r="D5" s="10"/>
       <c r="E5" s="11" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>332</v>
-      </c>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
+        <v>329</v>
+      </c>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I221"/>
+  <autoFilter ref="A1:G221"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1"/>
 </worksheet>
@@ -3003,84 +2973,84 @@
     <col min="9" max="1026" width="8.42578125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="76" customFormat="1" ht="15.2" customHeight="1">
-      <c r="A1" s="66" t="s">
+    <row r="1" spans="1:8" s="75" customFormat="1" ht="15.2" customHeight="1">
+      <c r="A1" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="66" t="s">
+      <c r="B1" s="65" t="s">
+        <v>330</v>
+      </c>
+      <c r="C1" s="65" t="s">
+        <v>331</v>
+      </c>
+      <c r="D1" s="65" t="s">
+        <v>332</v>
+      </c>
+      <c r="E1" s="65" t="s">
+        <v>439</v>
+      </c>
+      <c r="F1" s="65" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="65" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="65" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15.2" customHeight="1">
+      <c r="A2" s="77" t="s">
+        <v>461</v>
+      </c>
+      <c r="B2" s="37" t="s">
         <v>333</v>
-      </c>
-      <c r="C1" s="66" t="s">
-        <v>334</v>
-      </c>
-      <c r="D1" s="66" t="s">
-        <v>335</v>
-      </c>
-      <c r="E1" s="66" t="s">
-        <v>444</v>
-      </c>
-      <c r="F1" s="66" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" s="66" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" s="66" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="15.2" customHeight="1">
-      <c r="A2" s="78" t="s">
-        <v>469</v>
-      </c>
-      <c r="B2" s="37" t="s">
-        <v>336</v>
       </c>
       <c r="C2" s="37">
         <v>1</v>
       </c>
       <c r="D2" s="37" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="E2" s="37"/>
       <c r="F2" s="37" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="G2" s="37"/>
       <c r="H2" s="37"/>
     </row>
     <row r="3" spans="1:8" ht="15.2" customHeight="1">
-      <c r="A3" s="77" t="s">
-        <v>470</v>
+      <c r="A3" s="76" t="s">
+        <v>462</v>
       </c>
       <c r="B3" s="37" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C3" s="37">
         <v>1</v>
       </c>
       <c r="D3" s="37" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="E3" s="37"/>
       <c r="F3" s="37"/>
       <c r="G3" s="37" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="H3" s="37"/>
     </row>
     <row r="4" spans="1:8" ht="15.2" customHeight="1">
-      <c r="A4" s="77" t="s">
-        <v>471</v>
+      <c r="A4" s="76" t="s">
+        <v>463</v>
       </c>
       <c r="B4" s="37" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C4" s="37">
         <v>1</v>
       </c>
       <c r="D4" s="37" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="E4" s="37"/>
       <c r="F4" s="37"/>
@@ -3088,17 +3058,17 @@
       <c r="H4" s="37"/>
     </row>
     <row r="5" spans="1:8" ht="15.2" customHeight="1">
-      <c r="A5" s="77" t="s">
-        <v>472</v>
+      <c r="A5" s="76" t="s">
+        <v>464</v>
       </c>
       <c r="B5" s="37" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="C5" s="37">
         <v>1</v>
       </c>
       <c r="D5" s="37" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="E5" s="37"/>
       <c r="F5" s="37"/>
@@ -3106,17 +3076,17 @@
       <c r="H5" s="37"/>
     </row>
     <row r="6" spans="1:8" ht="15.2" customHeight="1">
-      <c r="A6" s="77" t="s">
-        <v>473</v>
+      <c r="A6" s="76" t="s">
+        <v>465</v>
       </c>
       <c r="B6" s="37" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="C6" s="37">
         <v>0.25</v>
       </c>
       <c r="D6" s="37" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="E6" s="37"/>
       <c r="F6" s="37"/>
@@ -3124,17 +3094,17 @@
       <c r="H6" s="37"/>
     </row>
     <row r="7" spans="1:8" ht="15.2" customHeight="1">
-      <c r="A7" s="77" t="s">
-        <v>474</v>
+      <c r="A7" s="76" t="s">
+        <v>466</v>
       </c>
       <c r="B7" s="37" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C7" s="37">
         <v>0.25</v>
       </c>
       <c r="D7" s="37" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="E7" s="37"/>
       <c r="F7" s="37"/>
@@ -3142,17 +3112,17 @@
       <c r="H7" s="37"/>
     </row>
     <row r="8" spans="1:8" ht="15.2" customHeight="1">
-      <c r="A8" s="77" t="s">
-        <v>475</v>
+      <c r="A8" s="76" t="s">
+        <v>467</v>
       </c>
       <c r="B8" s="37" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="C8" s="37">
         <v>0.25</v>
       </c>
       <c r="D8" s="37" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="E8" s="37"/>
       <c r="F8" s="37"/>
@@ -3160,17 +3130,17 @@
       <c r="H8" s="37"/>
     </row>
     <row r="9" spans="1:8" ht="15.2" customHeight="1">
-      <c r="A9" s="77" t="s">
-        <v>476</v>
+      <c r="A9" s="76" t="s">
+        <v>468</v>
       </c>
       <c r="B9" s="37" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="C9" s="37">
         <v>0.25</v>
       </c>
       <c r="D9" s="37" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="E9" s="37"/>
       <c r="F9" s="37"/>
@@ -3178,17 +3148,17 @@
       <c r="H9" s="37"/>
     </row>
     <row r="10" spans="1:8" ht="15.2" customHeight="1">
-      <c r="A10" s="77" t="s">
-        <v>477</v>
-      </c>
-      <c r="B10" s="79" t="s">
-        <v>348</v>
+      <c r="A10" s="76" t="s">
+        <v>469</v>
+      </c>
+      <c r="B10" s="78" t="s">
+        <v>345</v>
       </c>
       <c r="C10" s="37">
         <v>0.5</v>
       </c>
       <c r="D10" s="37" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="E10" s="37"/>
       <c r="F10" s="37"/>
@@ -3196,17 +3166,17 @@
       <c r="H10" s="37"/>
     </row>
     <row r="11" spans="1:8" ht="15.2" customHeight="1">
-      <c r="A11" s="77" t="s">
-        <v>478</v>
-      </c>
-      <c r="B11" s="79" t="s">
-        <v>349</v>
+      <c r="A11" s="76" t="s">
+        <v>470</v>
+      </c>
+      <c r="B11" s="78" t="s">
+        <v>346</v>
       </c>
       <c r="C11" s="37">
         <v>0.5</v>
       </c>
       <c r="D11" s="37" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="E11" s="37"/>
       <c r="F11" s="37"/>
@@ -3214,17 +3184,17 @@
       <c r="H11" s="37"/>
     </row>
     <row r="12" spans="1:8" ht="15.2" customHeight="1">
-      <c r="A12" s="77" t="s">
-        <v>479</v>
-      </c>
-      <c r="B12" s="79" t="s">
-        <v>350</v>
+      <c r="A12" s="76" t="s">
+        <v>471</v>
+      </c>
+      <c r="B12" s="78" t="s">
+        <v>347</v>
       </c>
       <c r="C12" s="37">
         <v>0.5</v>
       </c>
       <c r="D12" s="37" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="E12" s="37"/>
       <c r="F12" s="37"/>
@@ -3232,17 +3202,17 @@
       <c r="H12" s="37"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="77" t="s">
-        <v>480</v>
+      <c r="A13" s="76" t="s">
+        <v>472</v>
       </c>
       <c r="B13" s="37" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="C13" s="37">
         <v>0.1</v>
       </c>
       <c r="D13" s="37" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="E13" s="37"/>
       <c r="F13" s="37"/>
@@ -3250,17 +3220,17 @@
       <c r="H13" s="37"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="77" t="s">
-        <v>481</v>
+      <c r="A14" s="76" t="s">
+        <v>473</v>
       </c>
       <c r="B14" s="37" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C14" s="37">
         <v>0.36</v>
       </c>
       <c r="D14" s="37" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="E14" s="37"/>
       <c r="F14" s="37"/>
@@ -3268,17 +3238,17 @@
       <c r="H14" s="37"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="77" t="s">
-        <v>482</v>
+      <c r="A15" s="76" t="s">
+        <v>474</v>
       </c>
       <c r="B15" s="37" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C15" s="37">
         <v>0.5</v>
       </c>
       <c r="D15" s="37" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="E15" s="37"/>
       <c r="F15" s="37"/>
@@ -3286,17 +3256,17 @@
       <c r="H15" s="37"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="77" t="s">
-        <v>483</v>
+      <c r="A16" s="76" t="s">
+        <v>475</v>
       </c>
       <c r="B16" s="37" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="C16" s="37">
         <v>0.25</v>
       </c>
       <c r="D16" s="37" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="E16" s="37"/>
       <c r="F16" s="37"/>
@@ -3326,182 +3296,182 @@
     <col min="7" max="10" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="43" customFormat="1">
-      <c r="A1" s="56" t="s">
+    <row r="1" spans="1:11" s="42" customFormat="1">
+      <c r="A1" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="56" t="s">
+      <c r="B1" s="55" t="s">
+        <v>436</v>
+      </c>
+      <c r="C1" s="55" t="s">
+        <v>437</v>
+      </c>
+      <c r="D1" s="55" t="s">
+        <v>331</v>
+      </c>
+      <c r="E1" s="55" t="s">
+        <v>438</v>
+      </c>
+      <c r="F1" s="55" t="s">
+        <v>332</v>
+      </c>
+      <c r="G1" s="54" t="s">
+        <v>439</v>
+      </c>
+      <c r="H1" s="54" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="54" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="55" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="46" t="s">
+        <v>432</v>
+      </c>
+      <c r="B2" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="35" t="s">
+        <v>440</v>
+      </c>
+      <c r="D2" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="35" t="s">
         <v>441</v>
       </c>
-      <c r="C1" s="56" t="s">
-        <v>442</v>
-      </c>
-      <c r="D1" s="56" t="s">
-        <v>334</v>
-      </c>
-      <c r="E1" s="56" t="s">
-        <v>443</v>
-      </c>
-      <c r="F1" s="56" t="s">
-        <v>335</v>
-      </c>
-      <c r="G1" s="55" t="s">
-        <v>444</v>
-      </c>
-      <c r="H1" s="55" t="s">
-        <v>13</v>
-      </c>
-      <c r="I1" s="55" t="s">
-        <v>12</v>
-      </c>
-      <c r="J1" s="56" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="47" t="s">
-        <v>437</v>
-      </c>
-      <c r="B2" s="54" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" s="35" t="s">
-        <v>445</v>
-      </c>
-      <c r="D2" s="41" t="s">
-        <v>30</v>
-      </c>
-      <c r="E2" s="35" t="s">
-        <v>446</v>
-      </c>
       <c r="F2" s="35" t="s">
-        <v>421</v>
-      </c>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
+        <v>418</v>
+      </c>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
       <c r="J2" s="28"/>
-      <c r="K2" s="41"/>
+      <c r="K2" s="40"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="47" t="s">
-        <v>438</v>
+      <c r="A3" s="46" t="s">
+        <v>433</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C3" s="35" t="s">
-        <v>445</v>
-      </c>
-      <c r="D3" s="41" t="s">
+        <v>440</v>
+      </c>
+      <c r="D3" s="40" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="35" t="s">
+        <v>441</v>
+      </c>
+      <c r="F3" s="35" t="s">
+        <v>418</v>
+      </c>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="40"/>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="46" t="s">
+        <v>434</v>
+      </c>
+      <c r="B4" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="35" t="s">
-        <v>446</v>
-      </c>
-      <c r="F3" s="35" t="s">
-        <v>421</v>
-      </c>
-      <c r="H3" s="41"/>
-      <c r="I3" s="41"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="41"/>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="47" t="s">
-        <v>439</v>
-      </c>
-      <c r="B4" s="49" t="s">
-        <v>38</v>
-      </c>
       <c r="C4" s="35" t="s">
-        <v>445</v>
-      </c>
-      <c r="D4" s="41" t="s">
-        <v>40</v>
+        <v>440</v>
+      </c>
+      <c r="D4" s="40" t="s">
+        <v>39</v>
       </c>
       <c r="E4" s="35" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="F4" s="35" t="s">
-        <v>421</v>
-      </c>
-      <c r="H4" s="41"/>
-      <c r="I4" s="41"/>
+        <v>418</v>
+      </c>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
       <c r="J4" s="28"/>
-      <c r="K4" s="41"/>
+      <c r="K4" s="40"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="47" t="s">
+      <c r="A5" s="46" t="s">
+        <v>435</v>
+      </c>
+      <c r="B5" s="48" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="35" t="s">
         <v>440</v>
       </c>
-      <c r="B5" s="49" t="s">
-        <v>43</v>
-      </c>
-      <c r="C5" s="35" t="s">
-        <v>445</v>
-      </c>
-      <c r="D5" s="41" t="s">
-        <v>45</v>
+      <c r="D5" s="40" t="s">
+        <v>44</v>
       </c>
       <c r="E5" s="35" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="F5" s="35" t="s">
-        <v>421</v>
-      </c>
-      <c r="H5" s="41"/>
-      <c r="I5" s="41"/>
+        <v>418</v>
+      </c>
+      <c r="H5" s="40"/>
+      <c r="I5" s="40"/>
       <c r="J5" s="28"/>
-      <c r="K5" s="41"/>
+      <c r="K5" s="40"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="C6" s="49"/>
+      <c r="C6" s="48"/>
       <c r="D6" s="28"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="49"/>
-      <c r="H6" s="41"/>
-      <c r="I6" s="41"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="40"/>
       <c r="J6" s="28"/>
-      <c r="K6" s="41"/>
+      <c r="K6" s="40"/>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="28"/>
-      <c r="B7" s="49"/>
-      <c r="C7" s="49"/>
+      <c r="B7" s="48"/>
+      <c r="C7" s="48"/>
       <c r="D7" s="28"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="41"/>
-      <c r="H7" s="41"/>
-      <c r="I7" s="41"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="40"/>
       <c r="J7" s="28"/>
-      <c r="K7" s="41"/>
+      <c r="K7" s="40"/>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="28"/>
-      <c r="B8" s="49"/>
-      <c r="C8" s="49"/>
+      <c r="B8" s="48"/>
+      <c r="C8" s="48"/>
       <c r="D8" s="28"/>
-      <c r="E8" s="49"/>
-      <c r="F8" s="49"/>
-      <c r="G8" s="41"/>
-      <c r="H8" s="41"/>
-      <c r="I8" s="41"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="48"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="40"/>
+      <c r="I8" s="40"/>
       <c r="J8" s="28"/>
-      <c r="K8" s="41"/>
+      <c r="K8" s="40"/>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="28"/>
-      <c r="B9" s="49"/>
-      <c r="C9" s="49"/>
-      <c r="E9" s="49"/>
-      <c r="F9" s="49"/>
-      <c r="G9" s="41"/>
-      <c r="H9" s="41"/>
-      <c r="I9" s="41"/>
+      <c r="B9" s="48"/>
+      <c r="C9" s="48"/>
+      <c r="E9" s="48"/>
+      <c r="F9" s="48"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="40"/>
+      <c r="I9" s="40"/>
       <c r="J9" s="28"/>
-      <c r="K9" s="41"/>
+      <c r="K9" s="40"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3531,10 +3501,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>13</v>
@@ -3548,10 +3518,10 @@
     </row>
     <row r="2" spans="1:7" ht="14.45" customHeight="1">
       <c r="A2" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D2" s="5">
         <v>1</v>
@@ -3572,244 +3542,244 @@
   <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.7109375" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="3" width="20.7109375" style="42" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" style="42" customWidth="1"/>
-    <col min="5" max="5" width="30.7109375" style="42" customWidth="1"/>
-    <col min="6" max="11" width="15.7109375" style="42" customWidth="1"/>
-    <col min="12" max="14" width="20.7109375" style="42" customWidth="1"/>
-    <col min="15" max="16384" width="18.7109375" style="42"/>
+    <col min="1" max="3" width="20.7109375" style="41" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" style="41" customWidth="1"/>
+    <col min="5" max="5" width="30.7109375" style="41" customWidth="1"/>
+    <col min="6" max="11" width="15.7109375" style="41" customWidth="1"/>
+    <col min="12" max="14" width="20.7109375" style="41" customWidth="1"/>
+    <col min="15" max="16384" width="18.7109375" style="41"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="52" customFormat="1">
-      <c r="A1" s="64" t="s">
+    <row r="1" spans="1:14" s="51" customFormat="1">
+      <c r="A1" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="64" t="s">
+      <c r="B1" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="64" t="s">
-        <v>434</v>
-      </c>
-      <c r="D1" s="64" t="s">
-        <v>77</v>
-      </c>
-      <c r="E1" s="63" t="s">
+      <c r="C1" s="63" t="s">
+        <v>431</v>
+      </c>
+      <c r="D1" s="63" t="s">
+        <v>75</v>
+      </c>
+      <c r="E1" s="62" t="s">
+        <v>355</v>
+      </c>
+      <c r="F1" s="62" t="s">
+        <v>492</v>
+      </c>
+      <c r="G1" s="62" t="s">
+        <v>460</v>
+      </c>
+      <c r="H1" s="63" t="s">
+        <v>356</v>
+      </c>
+      <c r="I1" s="63" t="s">
+        <v>491</v>
+      </c>
+      <c r="J1" s="62" t="s">
+        <v>443</v>
+      </c>
+      <c r="K1" s="63" t="s">
+        <v>439</v>
+      </c>
+      <c r="L1" s="63" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" s="63" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="62" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="50" t="s">
+        <v>357</v>
+      </c>
+      <c r="B2" s="50" t="s">
         <v>358</v>
       </c>
-      <c r="F1" s="63" t="s">
-        <v>448</v>
-      </c>
-      <c r="G1" s="63" t="s">
-        <v>468</v>
-      </c>
-      <c r="H1" s="64" t="s">
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50" t="s">
         <v>359</v>
       </c>
-      <c r="I1" s="64" t="s">
-        <v>497</v>
-      </c>
-      <c r="J1" s="63" t="s">
-        <v>449</v>
-      </c>
-      <c r="K1" s="64" t="s">
-        <v>444</v>
-      </c>
-      <c r="L1" s="64" t="s">
-        <v>13</v>
-      </c>
-      <c r="M1" s="64" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="63" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14">
-      <c r="A2" s="51" t="s">
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" s="50" t="b">
+        <v>0</v>
+      </c>
+      <c r="J2" s="50"/>
+      <c r="K2" s="50"/>
+      <c r="L2" s="50"/>
+      <c r="M2" s="50"/>
+      <c r="N2" s="50"/>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="50" t="s">
         <v>360</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B3" s="50" t="s">
         <v>361</v>
       </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51" t="s">
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50" t="s">
         <v>362</v>
       </c>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51" t="b">
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50" t="b">
         <v>0</v>
       </c>
-      <c r="I2" s="51" t="b">
+      <c r="I3" s="50" t="b">
         <v>0</v>
       </c>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="51"/>
-      <c r="M2" s="51"/>
-      <c r="N2" s="51"/>
-    </row>
-    <row r="3" spans="1:14">
-      <c r="A3" s="51" t="s">
+      <c r="J3" s="50"/>
+      <c r="K3" s="50"/>
+      <c r="L3" s="50"/>
+      <c r="M3" s="50"/>
+      <c r="N3" s="50"/>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="50" t="s">
         <v>363</v>
       </c>
-      <c r="B3" s="51" t="s">
+      <c r="B4" s="50" t="s">
         <v>364</v>
       </c>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51" t="s">
+      <c r="C4" s="50"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50" t="s">
         <v>365</v>
       </c>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="51" t="b">
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="50" t="b">
         <v>0</v>
       </c>
-      <c r="I3" s="51" t="b">
+      <c r="I4" s="50" t="b">
+        <v>1</v>
+      </c>
+      <c r="J4" s="50"/>
+      <c r="K4" s="50"/>
+      <c r="L4" s="50"/>
+      <c r="M4" s="50"/>
+      <c r="N4" s="50"/>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="50" t="s">
+        <v>366</v>
+      </c>
+      <c r="B5" s="50" t="s">
+        <v>367</v>
+      </c>
+      <c r="C5" s="50"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50" t="s">
+        <v>368</v>
+      </c>
+      <c r="F5" s="50"/>
+      <c r="G5" s="50"/>
+      <c r="H5" s="50" t="b">
         <v>0</v>
       </c>
-      <c r="J3" s="51"/>
-      <c r="K3" s="51"/>
-      <c r="L3" s="51"/>
-      <c r="M3" s="51"/>
-      <c r="N3" s="51"/>
-    </row>
-    <row r="4" spans="1:14">
-      <c r="A4" s="51" t="s">
-        <v>366</v>
-      </c>
-      <c r="B4" s="51" t="s">
-        <v>367</v>
-      </c>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51" t="s">
-        <v>368</v>
-      </c>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
-      <c r="H4" s="51" t="b">
+      <c r="I5" s="50" t="b">
+        <v>1</v>
+      </c>
+      <c r="J5" s="50"/>
+      <c r="K5" s="50"/>
+      <c r="L5" s="50"/>
+      <c r="M5" s="50"/>
+      <c r="N5" s="50"/>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="50" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="50" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="50"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="50" t="s">
+        <v>369</v>
+      </c>
+      <c r="F6" s="50"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="50" t="b">
+        <v>1</v>
+      </c>
+      <c r="I6" s="50" t="b">
+        <v>1</v>
+      </c>
+      <c r="J6" s="50"/>
+      <c r="K6" s="50"/>
+      <c r="L6" s="50"/>
+      <c r="M6" s="50"/>
+      <c r="N6" s="50"/>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="50" t="s">
+        <v>370</v>
+      </c>
+      <c r="B7" s="50" t="s">
+        <v>371</v>
+      </c>
+      <c r="C7" s="50"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="50" t="s">
+        <v>372</v>
+      </c>
+      <c r="F7" s="50"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="50" t="b">
         <v>0</v>
       </c>
-      <c r="I4" s="51" t="b">
+      <c r="I7" s="50" t="b">
         <v>1</v>
       </c>
-      <c r="J4" s="51"/>
-      <c r="K4" s="51"/>
-      <c r="L4" s="51"/>
-      <c r="M4" s="51"/>
-      <c r="N4" s="51"/>
-    </row>
-    <row r="5" spans="1:14">
-      <c r="A5" s="51" t="s">
-        <v>369</v>
-      </c>
-      <c r="B5" s="51" t="s">
-        <v>370</v>
-      </c>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51" t="s">
+      <c r="J7" s="50"/>
+      <c r="K7" s="50"/>
+      <c r="L7" s="50"/>
+      <c r="M7" s="50"/>
+      <c r="N7" s="50"/>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="50" t="s">
+        <v>373</v>
+      </c>
+      <c r="B8" s="50" t="s">
         <v>371</v>
       </c>
-      <c r="F5" s="51"/>
-      <c r="G5" s="51"/>
-      <c r="H5" s="51" t="b">
+      <c r="C8" s="50"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="50" t="s">
+        <v>372</v>
+      </c>
+      <c r="F8" s="50"/>
+      <c r="G8" s="50"/>
+      <c r="H8" s="50" t="b">
         <v>0</v>
       </c>
-      <c r="I5" s="51" t="b">
-        <v>1</v>
-      </c>
-      <c r="J5" s="51"/>
-      <c r="K5" s="51"/>
-      <c r="L5" s="51"/>
-      <c r="M5" s="51"/>
-      <c r="N5" s="51"/>
-    </row>
-    <row r="6" spans="1:14">
-      <c r="A6" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" s="51"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="51" t="s">
-        <v>372</v>
-      </c>
-      <c r="F6" s="51"/>
-      <c r="G6" s="51"/>
-      <c r="H6" s="51" t="b">
-        <v>1</v>
-      </c>
-      <c r="I6" s="51" t="b">
-        <v>1</v>
-      </c>
-      <c r="J6" s="51"/>
-      <c r="K6" s="51"/>
-      <c r="L6" s="51"/>
-      <c r="M6" s="51"/>
-      <c r="N6" s="51"/>
-    </row>
-    <row r="7" spans="1:14">
-      <c r="A7" s="51" t="s">
-        <v>373</v>
-      </c>
-      <c r="B7" s="51" t="s">
-        <v>374</v>
-      </c>
-      <c r="C7" s="51"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="51" t="s">
-        <v>375</v>
-      </c>
-      <c r="F7" s="51"/>
-      <c r="G7" s="51"/>
-      <c r="H7" s="51" t="b">
+      <c r="I8" s="50" t="b">
         <v>0</v>
       </c>
-      <c r="I7" s="51" t="b">
-        <v>1</v>
-      </c>
-      <c r="J7" s="51"/>
-      <c r="K7" s="51"/>
-      <c r="L7" s="51"/>
-      <c r="M7" s="51"/>
-      <c r="N7" s="51"/>
-    </row>
-    <row r="8" spans="1:14">
-      <c r="A8" s="51" t="s">
-        <v>376</v>
-      </c>
-      <c r="B8" s="51" t="s">
-        <v>374</v>
-      </c>
-      <c r="C8" s="51"/>
-      <c r="D8" s="51"/>
-      <c r="E8" s="51" t="s">
-        <v>375</v>
-      </c>
-      <c r="F8" s="51"/>
-      <c r="G8" s="51"/>
-      <c r="H8" s="51" t="b">
-        <v>0</v>
-      </c>
-      <c r="I8" s="51" t="b">
-        <v>0</v>
-      </c>
-      <c r="J8" s="51"/>
-      <c r="K8" s="51"/>
-      <c r="L8" s="51"/>
-      <c r="M8" s="51"/>
-      <c r="N8" s="51"/>
+      <c r="J8" s="50"/>
+      <c r="K8" s="50"/>
+      <c r="L8" s="50"/>
+      <c r="M8" s="50"/>
+      <c r="N8" s="50"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:L220"/>
@@ -3835,1215 +3805,1215 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="20.7109375" style="50" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" style="89" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" style="50" customWidth="1"/>
-    <col min="5" max="5" width="20.7109375" style="61" customWidth="1"/>
-    <col min="6" max="8" width="20.7109375" style="50" customWidth="1"/>
+    <col min="1" max="2" width="20.7109375" style="49" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" style="88" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" style="49" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" style="60" customWidth="1"/>
+    <col min="6" max="8" width="20.7109375" style="49" customWidth="1"/>
     <col min="9" max="1024" width="8.7109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1024" s="60" customFormat="1" ht="15" customHeight="1">
-      <c r="A1" s="57" t="s">
-        <v>320</v>
-      </c>
-      <c r="B1" s="57" t="s">
+    <row r="1" spans="1:1024" s="59" customFormat="1" ht="15" customHeight="1">
+      <c r="A1" s="56" t="s">
+        <v>317</v>
+      </c>
+      <c r="B1" s="56" t="s">
+        <v>374</v>
+      </c>
+      <c r="C1" s="87" t="s">
+        <v>272</v>
+      </c>
+      <c r="D1" s="56" t="s">
+        <v>352</v>
+      </c>
+      <c r="E1" s="56" t="s">
+        <v>332</v>
+      </c>
+      <c r="F1" s="57" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="56" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
+      <c r="L1" s="58"/>
+      <c r="M1" s="58"/>
+      <c r="N1" s="58"/>
+      <c r="O1" s="58"/>
+      <c r="P1" s="58"/>
+      <c r="Q1" s="58"/>
+      <c r="R1" s="58"/>
+      <c r="S1" s="58"/>
+      <c r="T1" s="58"/>
+      <c r="U1" s="58"/>
+      <c r="V1" s="58"/>
+      <c r="W1" s="58"/>
+      <c r="X1" s="58"/>
+      <c r="Y1" s="58"/>
+      <c r="Z1" s="58"/>
+      <c r="AA1" s="58"/>
+      <c r="AB1" s="58"/>
+      <c r="AC1" s="58"/>
+      <c r="AD1" s="58"/>
+      <c r="AE1" s="58"/>
+      <c r="AF1" s="58"/>
+      <c r="AG1" s="58"/>
+      <c r="AH1" s="58"/>
+      <c r="AI1" s="58"/>
+      <c r="AJ1" s="58"/>
+      <c r="AK1" s="58"/>
+      <c r="AL1" s="58"/>
+      <c r="AM1" s="58"/>
+      <c r="AN1" s="58"/>
+      <c r="AO1" s="58"/>
+      <c r="AP1" s="58"/>
+      <c r="AQ1" s="58"/>
+      <c r="AR1" s="58"/>
+      <c r="AS1" s="58"/>
+      <c r="AT1" s="58"/>
+      <c r="AU1" s="58"/>
+      <c r="AV1" s="58"/>
+      <c r="AW1" s="58"/>
+      <c r="AX1" s="58"/>
+      <c r="AY1" s="58"/>
+      <c r="AZ1" s="58"/>
+      <c r="BA1" s="58"/>
+      <c r="BB1" s="58"/>
+      <c r="BC1" s="58"/>
+      <c r="BD1" s="58"/>
+      <c r="BE1" s="58"/>
+      <c r="BF1" s="58"/>
+      <c r="BG1" s="58"/>
+      <c r="BH1" s="58"/>
+      <c r="BI1" s="58"/>
+      <c r="BJ1" s="58"/>
+      <c r="BK1" s="58"/>
+      <c r="BL1" s="58"/>
+      <c r="BM1" s="58"/>
+      <c r="BN1" s="58"/>
+      <c r="BO1" s="58"/>
+      <c r="BP1" s="58"/>
+      <c r="BQ1" s="58"/>
+      <c r="BR1" s="58"/>
+      <c r="BS1" s="58"/>
+      <c r="BT1" s="58"/>
+      <c r="BU1" s="58"/>
+      <c r="BV1" s="58"/>
+      <c r="BW1" s="58"/>
+      <c r="BX1" s="58"/>
+      <c r="BY1" s="58"/>
+      <c r="BZ1" s="58"/>
+      <c r="CA1" s="58"/>
+      <c r="CB1" s="58"/>
+      <c r="CC1" s="58"/>
+      <c r="CD1" s="58"/>
+      <c r="CE1" s="58"/>
+      <c r="CF1" s="58"/>
+      <c r="CG1" s="58"/>
+      <c r="CH1" s="58"/>
+      <c r="CI1" s="58"/>
+      <c r="CJ1" s="58"/>
+      <c r="CK1" s="58"/>
+      <c r="CL1" s="58"/>
+      <c r="CM1" s="58"/>
+      <c r="CN1" s="58"/>
+      <c r="CO1" s="58"/>
+      <c r="CP1" s="58"/>
+      <c r="CQ1" s="58"/>
+      <c r="CR1" s="58"/>
+      <c r="CS1" s="58"/>
+      <c r="CT1" s="58"/>
+      <c r="CU1" s="58"/>
+      <c r="CV1" s="58"/>
+      <c r="CW1" s="58"/>
+      <c r="CX1" s="58"/>
+      <c r="CY1" s="58"/>
+      <c r="CZ1" s="58"/>
+      <c r="DA1" s="58"/>
+      <c r="DB1" s="58"/>
+      <c r="DC1" s="58"/>
+      <c r="DD1" s="58"/>
+      <c r="DE1" s="58"/>
+      <c r="DF1" s="58"/>
+      <c r="DG1" s="58"/>
+      <c r="DH1" s="58"/>
+      <c r="DI1" s="58"/>
+      <c r="DJ1" s="58"/>
+      <c r="DK1" s="58"/>
+      <c r="DL1" s="58"/>
+      <c r="DM1" s="58"/>
+      <c r="DN1" s="58"/>
+      <c r="DO1" s="58"/>
+      <c r="DP1" s="58"/>
+      <c r="DQ1" s="58"/>
+      <c r="DR1" s="58"/>
+      <c r="DS1" s="58"/>
+      <c r="DT1" s="58"/>
+      <c r="DU1" s="58"/>
+      <c r="DV1" s="58"/>
+      <c r="DW1" s="58"/>
+      <c r="DX1" s="58"/>
+      <c r="DY1" s="58"/>
+      <c r="DZ1" s="58"/>
+      <c r="EA1" s="58"/>
+      <c r="EB1" s="58"/>
+      <c r="EC1" s="58"/>
+      <c r="ED1" s="58"/>
+      <c r="EE1" s="58"/>
+      <c r="EF1" s="58"/>
+      <c r="EG1" s="58"/>
+      <c r="EH1" s="58"/>
+      <c r="EI1" s="58"/>
+      <c r="EJ1" s="58"/>
+      <c r="EK1" s="58"/>
+      <c r="EL1" s="58"/>
+      <c r="EM1" s="58"/>
+      <c r="EN1" s="58"/>
+      <c r="EO1" s="58"/>
+      <c r="EP1" s="58"/>
+      <c r="EQ1" s="58"/>
+      <c r="ER1" s="58"/>
+      <c r="ES1" s="58"/>
+      <c r="ET1" s="58"/>
+      <c r="EU1" s="58"/>
+      <c r="EV1" s="58"/>
+      <c r="EW1" s="58"/>
+      <c r="EX1" s="58"/>
+      <c r="EY1" s="58"/>
+      <c r="EZ1" s="58"/>
+      <c r="FA1" s="58"/>
+      <c r="FB1" s="58"/>
+      <c r="FC1" s="58"/>
+      <c r="FD1" s="58"/>
+      <c r="FE1" s="58"/>
+      <c r="FF1" s="58"/>
+      <c r="FG1" s="58"/>
+      <c r="FH1" s="58"/>
+      <c r="FI1" s="58"/>
+      <c r="FJ1" s="58"/>
+      <c r="FK1" s="58"/>
+      <c r="FL1" s="58"/>
+      <c r="FM1" s="58"/>
+      <c r="FN1" s="58"/>
+      <c r="FO1" s="58"/>
+      <c r="FP1" s="58"/>
+      <c r="FQ1" s="58"/>
+      <c r="FR1" s="58"/>
+      <c r="FS1" s="58"/>
+      <c r="FT1" s="58"/>
+      <c r="FU1" s="58"/>
+      <c r="FV1" s="58"/>
+      <c r="FW1" s="58"/>
+      <c r="FX1" s="58"/>
+      <c r="FY1" s="58"/>
+      <c r="FZ1" s="58"/>
+      <c r="GA1" s="58"/>
+      <c r="GB1" s="58"/>
+      <c r="GC1" s="58"/>
+      <c r="GD1" s="58"/>
+      <c r="GE1" s="58"/>
+      <c r="GF1" s="58"/>
+      <c r="GG1" s="58"/>
+      <c r="GH1" s="58"/>
+      <c r="GI1" s="58"/>
+      <c r="GJ1" s="58"/>
+      <c r="GK1" s="58"/>
+      <c r="GL1" s="58"/>
+      <c r="GM1" s="58"/>
+      <c r="GN1" s="58"/>
+      <c r="GO1" s="58"/>
+      <c r="GP1" s="58"/>
+      <c r="GQ1" s="58"/>
+      <c r="GR1" s="58"/>
+      <c r="GS1" s="58"/>
+      <c r="GT1" s="58"/>
+      <c r="GU1" s="58"/>
+      <c r="GV1" s="58"/>
+      <c r="GW1" s="58"/>
+      <c r="GX1" s="58"/>
+      <c r="GY1" s="58"/>
+      <c r="GZ1" s="58"/>
+      <c r="HA1" s="58"/>
+      <c r="HB1" s="58"/>
+      <c r="HC1" s="58"/>
+      <c r="HD1" s="58"/>
+      <c r="HE1" s="58"/>
+      <c r="HF1" s="58"/>
+      <c r="HG1" s="58"/>
+      <c r="HH1" s="58"/>
+      <c r="HI1" s="58"/>
+      <c r="HJ1" s="58"/>
+      <c r="HK1" s="58"/>
+      <c r="HL1" s="58"/>
+      <c r="HM1" s="58"/>
+      <c r="HN1" s="58"/>
+      <c r="HO1" s="58"/>
+      <c r="HP1" s="58"/>
+      <c r="HQ1" s="58"/>
+      <c r="HR1" s="58"/>
+      <c r="HS1" s="58"/>
+      <c r="HT1" s="58"/>
+      <c r="HU1" s="58"/>
+      <c r="HV1" s="58"/>
+      <c r="HW1" s="58"/>
+      <c r="HX1" s="58"/>
+      <c r="HY1" s="58"/>
+      <c r="HZ1" s="58"/>
+      <c r="IA1" s="58"/>
+      <c r="IB1" s="58"/>
+      <c r="IC1" s="58"/>
+      <c r="ID1" s="58"/>
+      <c r="IE1" s="58"/>
+      <c r="IF1" s="58"/>
+      <c r="IG1" s="58"/>
+      <c r="IH1" s="58"/>
+      <c r="II1" s="58"/>
+      <c r="IJ1" s="58"/>
+      <c r="IK1" s="58"/>
+      <c r="IL1" s="58"/>
+      <c r="IM1" s="58"/>
+      <c r="IN1" s="58"/>
+      <c r="IO1" s="58"/>
+      <c r="IP1" s="58"/>
+      <c r="IQ1" s="58"/>
+      <c r="IR1" s="58"/>
+      <c r="IS1" s="58"/>
+      <c r="IT1" s="58"/>
+      <c r="IU1" s="58"/>
+      <c r="IV1" s="58"/>
+      <c r="IW1" s="58"/>
+      <c r="IX1" s="58"/>
+      <c r="IY1" s="58"/>
+      <c r="IZ1" s="58"/>
+      <c r="JA1" s="58"/>
+      <c r="JB1" s="58"/>
+      <c r="JC1" s="58"/>
+      <c r="JD1" s="58"/>
+      <c r="JE1" s="58"/>
+      <c r="JF1" s="58"/>
+      <c r="JG1" s="58"/>
+      <c r="JH1" s="58"/>
+      <c r="JI1" s="58"/>
+      <c r="JJ1" s="58"/>
+      <c r="JK1" s="58"/>
+      <c r="JL1" s="58"/>
+      <c r="JM1" s="58"/>
+      <c r="JN1" s="58"/>
+      <c r="JO1" s="58"/>
+      <c r="JP1" s="58"/>
+      <c r="JQ1" s="58"/>
+      <c r="JR1" s="58"/>
+      <c r="JS1" s="58"/>
+      <c r="JT1" s="58"/>
+      <c r="JU1" s="58"/>
+      <c r="JV1" s="58"/>
+      <c r="JW1" s="58"/>
+      <c r="JX1" s="58"/>
+      <c r="JY1" s="58"/>
+      <c r="JZ1" s="58"/>
+      <c r="KA1" s="58"/>
+      <c r="KB1" s="58"/>
+      <c r="KC1" s="58"/>
+      <c r="KD1" s="58"/>
+      <c r="KE1" s="58"/>
+      <c r="KF1" s="58"/>
+      <c r="KG1" s="58"/>
+      <c r="KH1" s="58"/>
+      <c r="KI1" s="58"/>
+      <c r="KJ1" s="58"/>
+      <c r="KK1" s="58"/>
+      <c r="KL1" s="58"/>
+      <c r="KM1" s="58"/>
+      <c r="KN1" s="58"/>
+      <c r="KO1" s="58"/>
+      <c r="KP1" s="58"/>
+      <c r="KQ1" s="58"/>
+      <c r="KR1" s="58"/>
+      <c r="KS1" s="58"/>
+      <c r="KT1" s="58"/>
+      <c r="KU1" s="58"/>
+      <c r="KV1" s="58"/>
+      <c r="KW1" s="58"/>
+      <c r="KX1" s="58"/>
+      <c r="KY1" s="58"/>
+      <c r="KZ1" s="58"/>
+      <c r="LA1" s="58"/>
+      <c r="LB1" s="58"/>
+      <c r="LC1" s="58"/>
+      <c r="LD1" s="58"/>
+      <c r="LE1" s="58"/>
+      <c r="LF1" s="58"/>
+      <c r="LG1" s="58"/>
+      <c r="LH1" s="58"/>
+      <c r="LI1" s="58"/>
+      <c r="LJ1" s="58"/>
+      <c r="LK1" s="58"/>
+      <c r="LL1" s="58"/>
+      <c r="LM1" s="58"/>
+      <c r="LN1" s="58"/>
+      <c r="LO1" s="58"/>
+      <c r="LP1" s="58"/>
+      <c r="LQ1" s="58"/>
+      <c r="LR1" s="58"/>
+      <c r="LS1" s="58"/>
+      <c r="LT1" s="58"/>
+      <c r="LU1" s="58"/>
+      <c r="LV1" s="58"/>
+      <c r="LW1" s="58"/>
+      <c r="LX1" s="58"/>
+      <c r="LY1" s="58"/>
+      <c r="LZ1" s="58"/>
+      <c r="MA1" s="58"/>
+      <c r="MB1" s="58"/>
+      <c r="MC1" s="58"/>
+      <c r="MD1" s="58"/>
+      <c r="ME1" s="58"/>
+      <c r="MF1" s="58"/>
+      <c r="MG1" s="58"/>
+      <c r="MH1" s="58"/>
+      <c r="MI1" s="58"/>
+      <c r="MJ1" s="58"/>
+      <c r="MK1" s="58"/>
+      <c r="ML1" s="58"/>
+      <c r="MM1" s="58"/>
+      <c r="MN1" s="58"/>
+      <c r="MO1" s="58"/>
+      <c r="MP1" s="58"/>
+      <c r="MQ1" s="58"/>
+      <c r="MR1" s="58"/>
+      <c r="MS1" s="58"/>
+      <c r="MT1" s="58"/>
+      <c r="MU1" s="58"/>
+      <c r="MV1" s="58"/>
+      <c r="MW1" s="58"/>
+      <c r="MX1" s="58"/>
+      <c r="MY1" s="58"/>
+      <c r="MZ1" s="58"/>
+      <c r="NA1" s="58"/>
+      <c r="NB1" s="58"/>
+      <c r="NC1" s="58"/>
+      <c r="ND1" s="58"/>
+      <c r="NE1" s="58"/>
+      <c r="NF1" s="58"/>
+      <c r="NG1" s="58"/>
+      <c r="NH1" s="58"/>
+      <c r="NI1" s="58"/>
+      <c r="NJ1" s="58"/>
+      <c r="NK1" s="58"/>
+      <c r="NL1" s="58"/>
+      <c r="NM1" s="58"/>
+      <c r="NN1" s="58"/>
+      <c r="NO1" s="58"/>
+      <c r="NP1" s="58"/>
+      <c r="NQ1" s="58"/>
+      <c r="NR1" s="58"/>
+      <c r="NS1" s="58"/>
+      <c r="NT1" s="58"/>
+      <c r="NU1" s="58"/>
+      <c r="NV1" s="58"/>
+      <c r="NW1" s="58"/>
+      <c r="NX1" s="58"/>
+      <c r="NY1" s="58"/>
+      <c r="NZ1" s="58"/>
+      <c r="OA1" s="58"/>
+      <c r="OB1" s="58"/>
+      <c r="OC1" s="58"/>
+      <c r="OD1" s="58"/>
+      <c r="OE1" s="58"/>
+      <c r="OF1" s="58"/>
+      <c r="OG1" s="58"/>
+      <c r="OH1" s="58"/>
+      <c r="OI1" s="58"/>
+      <c r="OJ1" s="58"/>
+      <c r="OK1" s="58"/>
+      <c r="OL1" s="58"/>
+      <c r="OM1" s="58"/>
+      <c r="ON1" s="58"/>
+      <c r="OO1" s="58"/>
+      <c r="OP1" s="58"/>
+      <c r="OQ1" s="58"/>
+      <c r="OR1" s="58"/>
+      <c r="OS1" s="58"/>
+      <c r="OT1" s="58"/>
+      <c r="OU1" s="58"/>
+      <c r="OV1" s="58"/>
+      <c r="OW1" s="58"/>
+      <c r="OX1" s="58"/>
+      <c r="OY1" s="58"/>
+      <c r="OZ1" s="58"/>
+      <c r="PA1" s="58"/>
+      <c r="PB1" s="58"/>
+      <c r="PC1" s="58"/>
+      <c r="PD1" s="58"/>
+      <c r="PE1" s="58"/>
+      <c r="PF1" s="58"/>
+      <c r="PG1" s="58"/>
+      <c r="PH1" s="58"/>
+      <c r="PI1" s="58"/>
+      <c r="PJ1" s="58"/>
+      <c r="PK1" s="58"/>
+      <c r="PL1" s="58"/>
+      <c r="PM1" s="58"/>
+      <c r="PN1" s="58"/>
+      <c r="PO1" s="58"/>
+      <c r="PP1" s="58"/>
+      <c r="PQ1" s="58"/>
+      <c r="PR1" s="58"/>
+      <c r="PS1" s="58"/>
+      <c r="PT1" s="58"/>
+      <c r="PU1" s="58"/>
+      <c r="PV1" s="58"/>
+      <c r="PW1" s="58"/>
+      <c r="PX1" s="58"/>
+      <c r="PY1" s="58"/>
+      <c r="PZ1" s="58"/>
+      <c r="QA1" s="58"/>
+      <c r="QB1" s="58"/>
+      <c r="QC1" s="58"/>
+      <c r="QD1" s="58"/>
+      <c r="QE1" s="58"/>
+      <c r="QF1" s="58"/>
+      <c r="QG1" s="58"/>
+      <c r="QH1" s="58"/>
+      <c r="QI1" s="58"/>
+      <c r="QJ1" s="58"/>
+      <c r="QK1" s="58"/>
+      <c r="QL1" s="58"/>
+      <c r="QM1" s="58"/>
+      <c r="QN1" s="58"/>
+      <c r="QO1" s="58"/>
+      <c r="QP1" s="58"/>
+      <c r="QQ1" s="58"/>
+      <c r="QR1" s="58"/>
+      <c r="QS1" s="58"/>
+      <c r="QT1" s="58"/>
+      <c r="QU1" s="58"/>
+      <c r="QV1" s="58"/>
+      <c r="QW1" s="58"/>
+      <c r="QX1" s="58"/>
+      <c r="QY1" s="58"/>
+      <c r="QZ1" s="58"/>
+      <c r="RA1" s="58"/>
+      <c r="RB1" s="58"/>
+      <c r="RC1" s="58"/>
+      <c r="RD1" s="58"/>
+      <c r="RE1" s="58"/>
+      <c r="RF1" s="58"/>
+      <c r="RG1" s="58"/>
+      <c r="RH1" s="58"/>
+      <c r="RI1" s="58"/>
+      <c r="RJ1" s="58"/>
+      <c r="RK1" s="58"/>
+      <c r="RL1" s="58"/>
+      <c r="RM1" s="58"/>
+      <c r="RN1" s="58"/>
+      <c r="RO1" s="58"/>
+      <c r="RP1" s="58"/>
+      <c r="RQ1" s="58"/>
+      <c r="RR1" s="58"/>
+      <c r="RS1" s="58"/>
+      <c r="RT1" s="58"/>
+      <c r="RU1" s="58"/>
+      <c r="RV1" s="58"/>
+      <c r="RW1" s="58"/>
+      <c r="RX1" s="58"/>
+      <c r="RY1" s="58"/>
+      <c r="RZ1" s="58"/>
+      <c r="SA1" s="58"/>
+      <c r="SB1" s="58"/>
+      <c r="SC1" s="58"/>
+      <c r="SD1" s="58"/>
+      <c r="SE1" s="58"/>
+      <c r="SF1" s="58"/>
+      <c r="SG1" s="58"/>
+      <c r="SH1" s="58"/>
+      <c r="SI1" s="58"/>
+      <c r="SJ1" s="58"/>
+      <c r="SK1" s="58"/>
+      <c r="SL1" s="58"/>
+      <c r="SM1" s="58"/>
+      <c r="SN1" s="58"/>
+      <c r="SO1" s="58"/>
+      <c r="SP1" s="58"/>
+      <c r="SQ1" s="58"/>
+      <c r="SR1" s="58"/>
+      <c r="SS1" s="58"/>
+      <c r="ST1" s="58"/>
+      <c r="SU1" s="58"/>
+      <c r="SV1" s="58"/>
+      <c r="SW1" s="58"/>
+      <c r="SX1" s="58"/>
+      <c r="SY1" s="58"/>
+      <c r="SZ1" s="58"/>
+      <c r="TA1" s="58"/>
+      <c r="TB1" s="58"/>
+      <c r="TC1" s="58"/>
+      <c r="TD1" s="58"/>
+      <c r="TE1" s="58"/>
+      <c r="TF1" s="58"/>
+      <c r="TG1" s="58"/>
+      <c r="TH1" s="58"/>
+      <c r="TI1" s="58"/>
+      <c r="TJ1" s="58"/>
+      <c r="TK1" s="58"/>
+      <c r="TL1" s="58"/>
+      <c r="TM1" s="58"/>
+      <c r="TN1" s="58"/>
+      <c r="TO1" s="58"/>
+      <c r="TP1" s="58"/>
+      <c r="TQ1" s="58"/>
+      <c r="TR1" s="58"/>
+      <c r="TS1" s="58"/>
+      <c r="TT1" s="58"/>
+      <c r="TU1" s="58"/>
+      <c r="TV1" s="58"/>
+      <c r="TW1" s="58"/>
+      <c r="TX1" s="58"/>
+      <c r="TY1" s="58"/>
+      <c r="TZ1" s="58"/>
+      <c r="UA1" s="58"/>
+      <c r="UB1" s="58"/>
+      <c r="UC1" s="58"/>
+      <c r="UD1" s="58"/>
+      <c r="UE1" s="58"/>
+      <c r="UF1" s="58"/>
+      <c r="UG1" s="58"/>
+      <c r="UH1" s="58"/>
+      <c r="UI1" s="58"/>
+      <c r="UJ1" s="58"/>
+      <c r="UK1" s="58"/>
+      <c r="UL1" s="58"/>
+      <c r="UM1" s="58"/>
+      <c r="UN1" s="58"/>
+      <c r="UO1" s="58"/>
+      <c r="UP1" s="58"/>
+      <c r="UQ1" s="58"/>
+      <c r="UR1" s="58"/>
+      <c r="US1" s="58"/>
+      <c r="UT1" s="58"/>
+      <c r="UU1" s="58"/>
+      <c r="UV1" s="58"/>
+      <c r="UW1" s="58"/>
+      <c r="UX1" s="58"/>
+      <c r="UY1" s="58"/>
+      <c r="UZ1" s="58"/>
+      <c r="VA1" s="58"/>
+      <c r="VB1" s="58"/>
+      <c r="VC1" s="58"/>
+      <c r="VD1" s="58"/>
+      <c r="VE1" s="58"/>
+      <c r="VF1" s="58"/>
+      <c r="VG1" s="58"/>
+      <c r="VH1" s="58"/>
+      <c r="VI1" s="58"/>
+      <c r="VJ1" s="58"/>
+      <c r="VK1" s="58"/>
+      <c r="VL1" s="58"/>
+      <c r="VM1" s="58"/>
+      <c r="VN1" s="58"/>
+      <c r="VO1" s="58"/>
+      <c r="VP1" s="58"/>
+      <c r="VQ1" s="58"/>
+      <c r="VR1" s="58"/>
+      <c r="VS1" s="58"/>
+      <c r="VT1" s="58"/>
+      <c r="VU1" s="58"/>
+      <c r="VV1" s="58"/>
+      <c r="VW1" s="58"/>
+      <c r="VX1" s="58"/>
+      <c r="VY1" s="58"/>
+      <c r="VZ1" s="58"/>
+      <c r="WA1" s="58"/>
+      <c r="WB1" s="58"/>
+      <c r="WC1" s="58"/>
+      <c r="WD1" s="58"/>
+      <c r="WE1" s="58"/>
+      <c r="WF1" s="58"/>
+      <c r="WG1" s="58"/>
+      <c r="WH1" s="58"/>
+      <c r="WI1" s="58"/>
+      <c r="WJ1" s="58"/>
+      <c r="WK1" s="58"/>
+      <c r="WL1" s="58"/>
+      <c r="WM1" s="58"/>
+      <c r="WN1" s="58"/>
+      <c r="WO1" s="58"/>
+      <c r="WP1" s="58"/>
+      <c r="WQ1" s="58"/>
+      <c r="WR1" s="58"/>
+      <c r="WS1" s="58"/>
+      <c r="WT1" s="58"/>
+      <c r="WU1" s="58"/>
+      <c r="WV1" s="58"/>
+      <c r="WW1" s="58"/>
+      <c r="WX1" s="58"/>
+      <c r="WY1" s="58"/>
+      <c r="WZ1" s="58"/>
+      <c r="XA1" s="58"/>
+      <c r="XB1" s="58"/>
+      <c r="XC1" s="58"/>
+      <c r="XD1" s="58"/>
+      <c r="XE1" s="58"/>
+      <c r="XF1" s="58"/>
+      <c r="XG1" s="58"/>
+      <c r="XH1" s="58"/>
+      <c r="XI1" s="58"/>
+      <c r="XJ1" s="58"/>
+      <c r="XK1" s="58"/>
+      <c r="XL1" s="58"/>
+      <c r="XM1" s="58"/>
+      <c r="XN1" s="58"/>
+      <c r="XO1" s="58"/>
+      <c r="XP1" s="58"/>
+      <c r="XQ1" s="58"/>
+      <c r="XR1" s="58"/>
+      <c r="XS1" s="58"/>
+      <c r="XT1" s="58"/>
+      <c r="XU1" s="58"/>
+      <c r="XV1" s="58"/>
+      <c r="XW1" s="58"/>
+      <c r="XX1" s="58"/>
+      <c r="XY1" s="58"/>
+      <c r="XZ1" s="58"/>
+      <c r="YA1" s="58"/>
+      <c r="YB1" s="58"/>
+      <c r="YC1" s="58"/>
+      <c r="YD1" s="58"/>
+      <c r="YE1" s="58"/>
+      <c r="YF1" s="58"/>
+      <c r="YG1" s="58"/>
+      <c r="YH1" s="58"/>
+      <c r="YI1" s="58"/>
+      <c r="YJ1" s="58"/>
+      <c r="YK1" s="58"/>
+      <c r="YL1" s="58"/>
+      <c r="YM1" s="58"/>
+      <c r="YN1" s="58"/>
+      <c r="YO1" s="58"/>
+      <c r="YP1" s="58"/>
+      <c r="YQ1" s="58"/>
+      <c r="YR1" s="58"/>
+      <c r="YS1" s="58"/>
+      <c r="YT1" s="58"/>
+      <c r="YU1" s="58"/>
+      <c r="YV1" s="58"/>
+      <c r="YW1" s="58"/>
+      <c r="YX1" s="58"/>
+      <c r="YY1" s="58"/>
+      <c r="YZ1" s="58"/>
+      <c r="ZA1" s="58"/>
+      <c r="ZB1" s="58"/>
+      <c r="ZC1" s="58"/>
+      <c r="ZD1" s="58"/>
+      <c r="ZE1" s="58"/>
+      <c r="ZF1" s="58"/>
+      <c r="ZG1" s="58"/>
+      <c r="ZH1" s="58"/>
+      <c r="ZI1" s="58"/>
+      <c r="ZJ1" s="58"/>
+      <c r="ZK1" s="58"/>
+      <c r="ZL1" s="58"/>
+      <c r="ZM1" s="58"/>
+      <c r="ZN1" s="58"/>
+      <c r="ZO1" s="58"/>
+      <c r="ZP1" s="58"/>
+      <c r="ZQ1" s="58"/>
+      <c r="ZR1" s="58"/>
+      <c r="ZS1" s="58"/>
+      <c r="ZT1" s="58"/>
+      <c r="ZU1" s="58"/>
+      <c r="ZV1" s="58"/>
+      <c r="ZW1" s="58"/>
+      <c r="ZX1" s="58"/>
+      <c r="ZY1" s="58"/>
+      <c r="ZZ1" s="58"/>
+      <c r="AAA1" s="58"/>
+      <c r="AAB1" s="58"/>
+      <c r="AAC1" s="58"/>
+      <c r="AAD1" s="58"/>
+      <c r="AAE1" s="58"/>
+      <c r="AAF1" s="58"/>
+      <c r="AAG1" s="58"/>
+      <c r="AAH1" s="58"/>
+      <c r="AAI1" s="58"/>
+      <c r="AAJ1" s="58"/>
+      <c r="AAK1" s="58"/>
+      <c r="AAL1" s="58"/>
+      <c r="AAM1" s="58"/>
+      <c r="AAN1" s="58"/>
+      <c r="AAO1" s="58"/>
+      <c r="AAP1" s="58"/>
+      <c r="AAQ1" s="58"/>
+      <c r="AAR1" s="58"/>
+      <c r="AAS1" s="58"/>
+      <c r="AAT1" s="58"/>
+      <c r="AAU1" s="58"/>
+      <c r="AAV1" s="58"/>
+      <c r="AAW1" s="58"/>
+      <c r="AAX1" s="58"/>
+      <c r="AAY1" s="58"/>
+      <c r="AAZ1" s="58"/>
+      <c r="ABA1" s="58"/>
+      <c r="ABB1" s="58"/>
+      <c r="ABC1" s="58"/>
+      <c r="ABD1" s="58"/>
+      <c r="ABE1" s="58"/>
+      <c r="ABF1" s="58"/>
+      <c r="ABG1" s="58"/>
+      <c r="ABH1" s="58"/>
+      <c r="ABI1" s="58"/>
+      <c r="ABJ1" s="58"/>
+      <c r="ABK1" s="58"/>
+      <c r="ABL1" s="58"/>
+      <c r="ABM1" s="58"/>
+      <c r="ABN1" s="58"/>
+      <c r="ABO1" s="58"/>
+      <c r="ABP1" s="58"/>
+      <c r="ABQ1" s="58"/>
+      <c r="ABR1" s="58"/>
+      <c r="ABS1" s="58"/>
+      <c r="ABT1" s="58"/>
+      <c r="ABU1" s="58"/>
+      <c r="ABV1" s="58"/>
+      <c r="ABW1" s="58"/>
+      <c r="ABX1" s="58"/>
+      <c r="ABY1" s="58"/>
+      <c r="ABZ1" s="58"/>
+      <c r="ACA1" s="58"/>
+      <c r="ACB1" s="58"/>
+      <c r="ACC1" s="58"/>
+      <c r="ACD1" s="58"/>
+      <c r="ACE1" s="58"/>
+      <c r="ACF1" s="58"/>
+      <c r="ACG1" s="58"/>
+      <c r="ACH1" s="58"/>
+      <c r="ACI1" s="58"/>
+      <c r="ACJ1" s="58"/>
+      <c r="ACK1" s="58"/>
+      <c r="ACL1" s="58"/>
+      <c r="ACM1" s="58"/>
+      <c r="ACN1" s="58"/>
+      <c r="ACO1" s="58"/>
+      <c r="ACP1" s="58"/>
+      <c r="ACQ1" s="58"/>
+      <c r="ACR1" s="58"/>
+      <c r="ACS1" s="58"/>
+      <c r="ACT1" s="58"/>
+      <c r="ACU1" s="58"/>
+      <c r="ACV1" s="58"/>
+      <c r="ACW1" s="58"/>
+      <c r="ACX1" s="58"/>
+      <c r="ACY1" s="58"/>
+      <c r="ACZ1" s="58"/>
+      <c r="ADA1" s="58"/>
+      <c r="ADB1" s="58"/>
+      <c r="ADC1" s="58"/>
+      <c r="ADD1" s="58"/>
+      <c r="ADE1" s="58"/>
+      <c r="ADF1" s="58"/>
+      <c r="ADG1" s="58"/>
+      <c r="ADH1" s="58"/>
+      <c r="ADI1" s="58"/>
+      <c r="ADJ1" s="58"/>
+      <c r="ADK1" s="58"/>
+      <c r="ADL1" s="58"/>
+      <c r="ADM1" s="58"/>
+      <c r="ADN1" s="58"/>
+      <c r="ADO1" s="58"/>
+      <c r="ADP1" s="58"/>
+      <c r="ADQ1" s="58"/>
+      <c r="ADR1" s="58"/>
+      <c r="ADS1" s="58"/>
+      <c r="ADT1" s="58"/>
+      <c r="ADU1" s="58"/>
+      <c r="ADV1" s="58"/>
+      <c r="ADW1" s="58"/>
+      <c r="ADX1" s="58"/>
+      <c r="ADY1" s="58"/>
+      <c r="ADZ1" s="58"/>
+      <c r="AEA1" s="58"/>
+      <c r="AEB1" s="58"/>
+      <c r="AEC1" s="58"/>
+      <c r="AED1" s="58"/>
+      <c r="AEE1" s="58"/>
+      <c r="AEF1" s="58"/>
+      <c r="AEG1" s="58"/>
+      <c r="AEH1" s="58"/>
+      <c r="AEI1" s="58"/>
+      <c r="AEJ1" s="58"/>
+      <c r="AEK1" s="58"/>
+      <c r="AEL1" s="58"/>
+      <c r="AEM1" s="58"/>
+      <c r="AEN1" s="58"/>
+      <c r="AEO1" s="58"/>
+      <c r="AEP1" s="58"/>
+      <c r="AEQ1" s="58"/>
+      <c r="AER1" s="58"/>
+      <c r="AES1" s="58"/>
+      <c r="AET1" s="58"/>
+      <c r="AEU1" s="58"/>
+      <c r="AEV1" s="58"/>
+      <c r="AEW1" s="58"/>
+      <c r="AEX1" s="58"/>
+      <c r="AEY1" s="58"/>
+      <c r="AEZ1" s="58"/>
+      <c r="AFA1" s="58"/>
+      <c r="AFB1" s="58"/>
+      <c r="AFC1" s="58"/>
+      <c r="AFD1" s="58"/>
+      <c r="AFE1" s="58"/>
+      <c r="AFF1" s="58"/>
+      <c r="AFG1" s="58"/>
+      <c r="AFH1" s="58"/>
+      <c r="AFI1" s="58"/>
+      <c r="AFJ1" s="58"/>
+      <c r="AFK1" s="58"/>
+      <c r="AFL1" s="58"/>
+      <c r="AFM1" s="58"/>
+      <c r="AFN1" s="58"/>
+      <c r="AFO1" s="58"/>
+      <c r="AFP1" s="58"/>
+      <c r="AFQ1" s="58"/>
+      <c r="AFR1" s="58"/>
+      <c r="AFS1" s="58"/>
+      <c r="AFT1" s="58"/>
+      <c r="AFU1" s="58"/>
+      <c r="AFV1" s="58"/>
+      <c r="AFW1" s="58"/>
+      <c r="AFX1" s="58"/>
+      <c r="AFY1" s="58"/>
+      <c r="AFZ1" s="58"/>
+      <c r="AGA1" s="58"/>
+      <c r="AGB1" s="58"/>
+      <c r="AGC1" s="58"/>
+      <c r="AGD1" s="58"/>
+      <c r="AGE1" s="58"/>
+      <c r="AGF1" s="58"/>
+      <c r="AGG1" s="58"/>
+      <c r="AGH1" s="58"/>
+      <c r="AGI1" s="58"/>
+      <c r="AGJ1" s="58"/>
+      <c r="AGK1" s="58"/>
+      <c r="AGL1" s="58"/>
+      <c r="AGM1" s="58"/>
+      <c r="AGN1" s="58"/>
+      <c r="AGO1" s="58"/>
+      <c r="AGP1" s="58"/>
+      <c r="AGQ1" s="58"/>
+      <c r="AGR1" s="58"/>
+      <c r="AGS1" s="58"/>
+      <c r="AGT1" s="58"/>
+      <c r="AGU1" s="58"/>
+      <c r="AGV1" s="58"/>
+      <c r="AGW1" s="58"/>
+      <c r="AGX1" s="58"/>
+      <c r="AGY1" s="58"/>
+      <c r="AGZ1" s="58"/>
+      <c r="AHA1" s="58"/>
+      <c r="AHB1" s="58"/>
+      <c r="AHC1" s="58"/>
+      <c r="AHD1" s="58"/>
+      <c r="AHE1" s="58"/>
+      <c r="AHF1" s="58"/>
+      <c r="AHG1" s="58"/>
+      <c r="AHH1" s="58"/>
+      <c r="AHI1" s="58"/>
+      <c r="AHJ1" s="58"/>
+      <c r="AHK1" s="58"/>
+      <c r="AHL1" s="58"/>
+      <c r="AHM1" s="58"/>
+      <c r="AHN1" s="58"/>
+      <c r="AHO1" s="58"/>
+      <c r="AHP1" s="58"/>
+      <c r="AHQ1" s="58"/>
+      <c r="AHR1" s="58"/>
+      <c r="AHS1" s="58"/>
+      <c r="AHT1" s="58"/>
+      <c r="AHU1" s="58"/>
+      <c r="AHV1" s="58"/>
+      <c r="AHW1" s="58"/>
+      <c r="AHX1" s="58"/>
+      <c r="AHY1" s="58"/>
+      <c r="AHZ1" s="58"/>
+      <c r="AIA1" s="58"/>
+      <c r="AIB1" s="58"/>
+      <c r="AIC1" s="58"/>
+      <c r="AID1" s="58"/>
+      <c r="AIE1" s="58"/>
+      <c r="AIF1" s="58"/>
+      <c r="AIG1" s="58"/>
+      <c r="AIH1" s="58"/>
+      <c r="AII1" s="58"/>
+      <c r="AIJ1" s="58"/>
+      <c r="AIK1" s="58"/>
+      <c r="AIL1" s="58"/>
+      <c r="AIM1" s="58"/>
+      <c r="AIN1" s="58"/>
+      <c r="AIO1" s="58"/>
+      <c r="AIP1" s="58"/>
+      <c r="AIQ1" s="58"/>
+      <c r="AIR1" s="58"/>
+      <c r="AIS1" s="58"/>
+      <c r="AIT1" s="58"/>
+      <c r="AIU1" s="58"/>
+      <c r="AIV1" s="58"/>
+      <c r="AIW1" s="58"/>
+      <c r="AIX1" s="58"/>
+      <c r="AIY1" s="58"/>
+      <c r="AIZ1" s="58"/>
+      <c r="AJA1" s="58"/>
+      <c r="AJB1" s="58"/>
+      <c r="AJC1" s="58"/>
+      <c r="AJD1" s="58"/>
+      <c r="AJE1" s="58"/>
+      <c r="AJF1" s="58"/>
+      <c r="AJG1" s="58"/>
+      <c r="AJH1" s="58"/>
+      <c r="AJI1" s="58"/>
+      <c r="AJJ1" s="58"/>
+      <c r="AJK1" s="58"/>
+      <c r="AJL1" s="58"/>
+      <c r="AJM1" s="58"/>
+      <c r="AJN1" s="58"/>
+      <c r="AJO1" s="58"/>
+      <c r="AJP1" s="58"/>
+      <c r="AJQ1" s="58"/>
+      <c r="AJR1" s="58"/>
+      <c r="AJS1" s="58"/>
+      <c r="AJT1" s="58"/>
+      <c r="AJU1" s="58"/>
+      <c r="AJV1" s="58"/>
+      <c r="AJW1" s="58"/>
+      <c r="AJX1" s="58"/>
+      <c r="AJY1" s="58"/>
+      <c r="AJZ1" s="58"/>
+      <c r="AKA1" s="58"/>
+      <c r="AKB1" s="58"/>
+      <c r="AKC1" s="58"/>
+      <c r="AKD1" s="58"/>
+      <c r="AKE1" s="58"/>
+      <c r="AKF1" s="58"/>
+      <c r="AKG1" s="58"/>
+      <c r="AKH1" s="58"/>
+      <c r="AKI1" s="58"/>
+      <c r="AKJ1" s="58"/>
+      <c r="AKK1" s="58"/>
+      <c r="AKL1" s="58"/>
+      <c r="AKM1" s="58"/>
+      <c r="AKN1" s="58"/>
+      <c r="AKO1" s="58"/>
+      <c r="AKP1" s="58"/>
+      <c r="AKQ1" s="58"/>
+      <c r="AKR1" s="58"/>
+      <c r="AKS1" s="58"/>
+      <c r="AKT1" s="58"/>
+      <c r="AKU1" s="58"/>
+      <c r="AKV1" s="58"/>
+      <c r="AKW1" s="58"/>
+      <c r="AKX1" s="58"/>
+      <c r="AKY1" s="58"/>
+      <c r="AKZ1" s="58"/>
+      <c r="ALA1" s="58"/>
+      <c r="ALB1" s="58"/>
+      <c r="ALC1" s="58"/>
+      <c r="ALD1" s="58"/>
+      <c r="ALE1" s="58"/>
+      <c r="ALF1" s="58"/>
+      <c r="ALG1" s="58"/>
+      <c r="ALH1" s="58"/>
+      <c r="ALI1" s="58"/>
+      <c r="ALJ1" s="58"/>
+      <c r="ALK1" s="58"/>
+      <c r="ALL1" s="58"/>
+      <c r="ALM1" s="58"/>
+      <c r="ALN1" s="58"/>
+      <c r="ALO1" s="58"/>
+      <c r="ALP1" s="58"/>
+      <c r="ALQ1" s="58"/>
+      <c r="ALR1" s="58"/>
+      <c r="ALS1" s="58"/>
+      <c r="ALT1" s="58"/>
+      <c r="ALU1" s="58"/>
+      <c r="ALV1" s="58"/>
+      <c r="ALW1" s="58"/>
+      <c r="ALX1" s="58"/>
+      <c r="ALY1" s="58"/>
+      <c r="ALZ1" s="58"/>
+      <c r="AMA1" s="58"/>
+      <c r="AMB1" s="58"/>
+      <c r="AMC1" s="58"/>
+      <c r="AMD1" s="58"/>
+      <c r="AME1" s="58"/>
+      <c r="AMF1" s="58"/>
+      <c r="AMG1" s="58"/>
+      <c r="AMH1" s="58"/>
+      <c r="AMI1" s="58"/>
+      <c r="AMJ1" s="58"/>
+    </row>
+    <row r="2" spans="1:1024">
+      <c r="A2" s="49" t="s">
+        <v>375</v>
+      </c>
+      <c r="B2" s="49" t="s">
+        <v>357</v>
+      </c>
+      <c r="C2" s="88" t="s">
+        <v>376</v>
+      </c>
+      <c r="D2" s="49" t="s">
         <v>377</v>
-      </c>
-      <c r="C1" s="88" t="s">
-        <v>274</v>
-      </c>
-      <c r="D1" s="57" t="s">
-        <v>355</v>
-      </c>
-      <c r="E1" s="57" t="s">
-        <v>335</v>
-      </c>
-      <c r="F1" s="58" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" s="58" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" s="57" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" s="59"/>
-      <c r="J1" s="59"/>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
-      <c r="M1" s="59"/>
-      <c r="N1" s="59"/>
-      <c r="O1" s="59"/>
-      <c r="P1" s="59"/>
-      <c r="Q1" s="59"/>
-      <c r="R1" s="59"/>
-      <c r="S1" s="59"/>
-      <c r="T1" s="59"/>
-      <c r="U1" s="59"/>
-      <c r="V1" s="59"/>
-      <c r="W1" s="59"/>
-      <c r="X1" s="59"/>
-      <c r="Y1" s="59"/>
-      <c r="Z1" s="59"/>
-      <c r="AA1" s="59"/>
-      <c r="AB1" s="59"/>
-      <c r="AC1" s="59"/>
-      <c r="AD1" s="59"/>
-      <c r="AE1" s="59"/>
-      <c r="AF1" s="59"/>
-      <c r="AG1" s="59"/>
-      <c r="AH1" s="59"/>
-      <c r="AI1" s="59"/>
-      <c r="AJ1" s="59"/>
-      <c r="AK1" s="59"/>
-      <c r="AL1" s="59"/>
-      <c r="AM1" s="59"/>
-      <c r="AN1" s="59"/>
-      <c r="AO1" s="59"/>
-      <c r="AP1" s="59"/>
-      <c r="AQ1" s="59"/>
-      <c r="AR1" s="59"/>
-      <c r="AS1" s="59"/>
-      <c r="AT1" s="59"/>
-      <c r="AU1" s="59"/>
-      <c r="AV1" s="59"/>
-      <c r="AW1" s="59"/>
-      <c r="AX1" s="59"/>
-      <c r="AY1" s="59"/>
-      <c r="AZ1" s="59"/>
-      <c r="BA1" s="59"/>
-      <c r="BB1" s="59"/>
-      <c r="BC1" s="59"/>
-      <c r="BD1" s="59"/>
-      <c r="BE1" s="59"/>
-      <c r="BF1" s="59"/>
-      <c r="BG1" s="59"/>
-      <c r="BH1" s="59"/>
-      <c r="BI1" s="59"/>
-      <c r="BJ1" s="59"/>
-      <c r="BK1" s="59"/>
-      <c r="BL1" s="59"/>
-      <c r="BM1" s="59"/>
-      <c r="BN1" s="59"/>
-      <c r="BO1" s="59"/>
-      <c r="BP1" s="59"/>
-      <c r="BQ1" s="59"/>
-      <c r="BR1" s="59"/>
-      <c r="BS1" s="59"/>
-      <c r="BT1" s="59"/>
-      <c r="BU1" s="59"/>
-      <c r="BV1" s="59"/>
-      <c r="BW1" s="59"/>
-      <c r="BX1" s="59"/>
-      <c r="BY1" s="59"/>
-      <c r="BZ1" s="59"/>
-      <c r="CA1" s="59"/>
-      <c r="CB1" s="59"/>
-      <c r="CC1" s="59"/>
-      <c r="CD1" s="59"/>
-      <c r="CE1" s="59"/>
-      <c r="CF1" s="59"/>
-      <c r="CG1" s="59"/>
-      <c r="CH1" s="59"/>
-      <c r="CI1" s="59"/>
-      <c r="CJ1" s="59"/>
-      <c r="CK1" s="59"/>
-      <c r="CL1" s="59"/>
-      <c r="CM1" s="59"/>
-      <c r="CN1" s="59"/>
-      <c r="CO1" s="59"/>
-      <c r="CP1" s="59"/>
-      <c r="CQ1" s="59"/>
-      <c r="CR1" s="59"/>
-      <c r="CS1" s="59"/>
-      <c r="CT1" s="59"/>
-      <c r="CU1" s="59"/>
-      <c r="CV1" s="59"/>
-      <c r="CW1" s="59"/>
-      <c r="CX1" s="59"/>
-      <c r="CY1" s="59"/>
-      <c r="CZ1" s="59"/>
-      <c r="DA1" s="59"/>
-      <c r="DB1" s="59"/>
-      <c r="DC1" s="59"/>
-      <c r="DD1" s="59"/>
-      <c r="DE1" s="59"/>
-      <c r="DF1" s="59"/>
-      <c r="DG1" s="59"/>
-      <c r="DH1" s="59"/>
-      <c r="DI1" s="59"/>
-      <c r="DJ1" s="59"/>
-      <c r="DK1" s="59"/>
-      <c r="DL1" s="59"/>
-      <c r="DM1" s="59"/>
-      <c r="DN1" s="59"/>
-      <c r="DO1" s="59"/>
-      <c r="DP1" s="59"/>
-      <c r="DQ1" s="59"/>
-      <c r="DR1" s="59"/>
-      <c r="DS1" s="59"/>
-      <c r="DT1" s="59"/>
-      <c r="DU1" s="59"/>
-      <c r="DV1" s="59"/>
-      <c r="DW1" s="59"/>
-      <c r="DX1" s="59"/>
-      <c r="DY1" s="59"/>
-      <c r="DZ1" s="59"/>
-      <c r="EA1" s="59"/>
-      <c r="EB1" s="59"/>
-      <c r="EC1" s="59"/>
-      <c r="ED1" s="59"/>
-      <c r="EE1" s="59"/>
-      <c r="EF1" s="59"/>
-      <c r="EG1" s="59"/>
-      <c r="EH1" s="59"/>
-      <c r="EI1" s="59"/>
-      <c r="EJ1" s="59"/>
-      <c r="EK1" s="59"/>
-      <c r="EL1" s="59"/>
-      <c r="EM1" s="59"/>
-      <c r="EN1" s="59"/>
-      <c r="EO1" s="59"/>
-      <c r="EP1" s="59"/>
-      <c r="EQ1" s="59"/>
-      <c r="ER1" s="59"/>
-      <c r="ES1" s="59"/>
-      <c r="ET1" s="59"/>
-      <c r="EU1" s="59"/>
-      <c r="EV1" s="59"/>
-      <c r="EW1" s="59"/>
-      <c r="EX1" s="59"/>
-      <c r="EY1" s="59"/>
-      <c r="EZ1" s="59"/>
-      <c r="FA1" s="59"/>
-      <c r="FB1" s="59"/>
-      <c r="FC1" s="59"/>
-      <c r="FD1" s="59"/>
-      <c r="FE1" s="59"/>
-      <c r="FF1" s="59"/>
-      <c r="FG1" s="59"/>
-      <c r="FH1" s="59"/>
-      <c r="FI1" s="59"/>
-      <c r="FJ1" s="59"/>
-      <c r="FK1" s="59"/>
-      <c r="FL1" s="59"/>
-      <c r="FM1" s="59"/>
-      <c r="FN1" s="59"/>
-      <c r="FO1" s="59"/>
-      <c r="FP1" s="59"/>
-      <c r="FQ1" s="59"/>
-      <c r="FR1" s="59"/>
-      <c r="FS1" s="59"/>
-      <c r="FT1" s="59"/>
-      <c r="FU1" s="59"/>
-      <c r="FV1" s="59"/>
-      <c r="FW1" s="59"/>
-      <c r="FX1" s="59"/>
-      <c r="FY1" s="59"/>
-      <c r="FZ1" s="59"/>
-      <c r="GA1" s="59"/>
-      <c r="GB1" s="59"/>
-      <c r="GC1" s="59"/>
-      <c r="GD1" s="59"/>
-      <c r="GE1" s="59"/>
-      <c r="GF1" s="59"/>
-      <c r="GG1" s="59"/>
-      <c r="GH1" s="59"/>
-      <c r="GI1" s="59"/>
-      <c r="GJ1" s="59"/>
-      <c r="GK1" s="59"/>
-      <c r="GL1" s="59"/>
-      <c r="GM1" s="59"/>
-      <c r="GN1" s="59"/>
-      <c r="GO1" s="59"/>
-      <c r="GP1" s="59"/>
-      <c r="GQ1" s="59"/>
-      <c r="GR1" s="59"/>
-      <c r="GS1" s="59"/>
-      <c r="GT1" s="59"/>
-      <c r="GU1" s="59"/>
-      <c r="GV1" s="59"/>
-      <c r="GW1" s="59"/>
-      <c r="GX1" s="59"/>
-      <c r="GY1" s="59"/>
-      <c r="GZ1" s="59"/>
-      <c r="HA1" s="59"/>
-      <c r="HB1" s="59"/>
-      <c r="HC1" s="59"/>
-      <c r="HD1" s="59"/>
-      <c r="HE1" s="59"/>
-      <c r="HF1" s="59"/>
-      <c r="HG1" s="59"/>
-      <c r="HH1" s="59"/>
-      <c r="HI1" s="59"/>
-      <c r="HJ1" s="59"/>
-      <c r="HK1" s="59"/>
-      <c r="HL1" s="59"/>
-      <c r="HM1" s="59"/>
-      <c r="HN1" s="59"/>
-      <c r="HO1" s="59"/>
-      <c r="HP1" s="59"/>
-      <c r="HQ1" s="59"/>
-      <c r="HR1" s="59"/>
-      <c r="HS1" s="59"/>
-      <c r="HT1" s="59"/>
-      <c r="HU1" s="59"/>
-      <c r="HV1" s="59"/>
-      <c r="HW1" s="59"/>
-      <c r="HX1" s="59"/>
-      <c r="HY1" s="59"/>
-      <c r="HZ1" s="59"/>
-      <c r="IA1" s="59"/>
-      <c r="IB1" s="59"/>
-      <c r="IC1" s="59"/>
-      <c r="ID1" s="59"/>
-      <c r="IE1" s="59"/>
-      <c r="IF1" s="59"/>
-      <c r="IG1" s="59"/>
-      <c r="IH1" s="59"/>
-      <c r="II1" s="59"/>
-      <c r="IJ1" s="59"/>
-      <c r="IK1" s="59"/>
-      <c r="IL1" s="59"/>
-      <c r="IM1" s="59"/>
-      <c r="IN1" s="59"/>
-      <c r="IO1" s="59"/>
-      <c r="IP1" s="59"/>
-      <c r="IQ1" s="59"/>
-      <c r="IR1" s="59"/>
-      <c r="IS1" s="59"/>
-      <c r="IT1" s="59"/>
-      <c r="IU1" s="59"/>
-      <c r="IV1" s="59"/>
-      <c r="IW1" s="59"/>
-      <c r="IX1" s="59"/>
-      <c r="IY1" s="59"/>
-      <c r="IZ1" s="59"/>
-      <c r="JA1" s="59"/>
-      <c r="JB1" s="59"/>
-      <c r="JC1" s="59"/>
-      <c r="JD1" s="59"/>
-      <c r="JE1" s="59"/>
-      <c r="JF1" s="59"/>
-      <c r="JG1" s="59"/>
-      <c r="JH1" s="59"/>
-      <c r="JI1" s="59"/>
-      <c r="JJ1" s="59"/>
-      <c r="JK1" s="59"/>
-      <c r="JL1" s="59"/>
-      <c r="JM1" s="59"/>
-      <c r="JN1" s="59"/>
-      <c r="JO1" s="59"/>
-      <c r="JP1" s="59"/>
-      <c r="JQ1" s="59"/>
-      <c r="JR1" s="59"/>
-      <c r="JS1" s="59"/>
-      <c r="JT1" s="59"/>
-      <c r="JU1" s="59"/>
-      <c r="JV1" s="59"/>
-      <c r="JW1" s="59"/>
-      <c r="JX1" s="59"/>
-      <c r="JY1" s="59"/>
-      <c r="JZ1" s="59"/>
-      <c r="KA1" s="59"/>
-      <c r="KB1" s="59"/>
-      <c r="KC1" s="59"/>
-      <c r="KD1" s="59"/>
-      <c r="KE1" s="59"/>
-      <c r="KF1" s="59"/>
-      <c r="KG1" s="59"/>
-      <c r="KH1" s="59"/>
-      <c r="KI1" s="59"/>
-      <c r="KJ1" s="59"/>
-      <c r="KK1" s="59"/>
-      <c r="KL1" s="59"/>
-      <c r="KM1" s="59"/>
-      <c r="KN1" s="59"/>
-      <c r="KO1" s="59"/>
-      <c r="KP1" s="59"/>
-      <c r="KQ1" s="59"/>
-      <c r="KR1" s="59"/>
-      <c r="KS1" s="59"/>
-      <c r="KT1" s="59"/>
-      <c r="KU1" s="59"/>
-      <c r="KV1" s="59"/>
-      <c r="KW1" s="59"/>
-      <c r="KX1" s="59"/>
-      <c r="KY1" s="59"/>
-      <c r="KZ1" s="59"/>
-      <c r="LA1" s="59"/>
-      <c r="LB1" s="59"/>
-      <c r="LC1" s="59"/>
-      <c r="LD1" s="59"/>
-      <c r="LE1" s="59"/>
-      <c r="LF1" s="59"/>
-      <c r="LG1" s="59"/>
-      <c r="LH1" s="59"/>
-      <c r="LI1" s="59"/>
-      <c r="LJ1" s="59"/>
-      <c r="LK1" s="59"/>
-      <c r="LL1" s="59"/>
-      <c r="LM1" s="59"/>
-      <c r="LN1" s="59"/>
-      <c r="LO1" s="59"/>
-      <c r="LP1" s="59"/>
-      <c r="LQ1" s="59"/>
-      <c r="LR1" s="59"/>
-      <c r="LS1" s="59"/>
-      <c r="LT1" s="59"/>
-      <c r="LU1" s="59"/>
-      <c r="LV1" s="59"/>
-      <c r="LW1" s="59"/>
-      <c r="LX1" s="59"/>
-      <c r="LY1" s="59"/>
-      <c r="LZ1" s="59"/>
-      <c r="MA1" s="59"/>
-      <c r="MB1" s="59"/>
-      <c r="MC1" s="59"/>
-      <c r="MD1" s="59"/>
-      <c r="ME1" s="59"/>
-      <c r="MF1" s="59"/>
-      <c r="MG1" s="59"/>
-      <c r="MH1" s="59"/>
-      <c r="MI1" s="59"/>
-      <c r="MJ1" s="59"/>
-      <c r="MK1" s="59"/>
-      <c r="ML1" s="59"/>
-      <c r="MM1" s="59"/>
-      <c r="MN1" s="59"/>
-      <c r="MO1" s="59"/>
-      <c r="MP1" s="59"/>
-      <c r="MQ1" s="59"/>
-      <c r="MR1" s="59"/>
-      <c r="MS1" s="59"/>
-      <c r="MT1" s="59"/>
-      <c r="MU1" s="59"/>
-      <c r="MV1" s="59"/>
-      <c r="MW1" s="59"/>
-      <c r="MX1" s="59"/>
-      <c r="MY1" s="59"/>
-      <c r="MZ1" s="59"/>
-      <c r="NA1" s="59"/>
-      <c r="NB1" s="59"/>
-      <c r="NC1" s="59"/>
-      <c r="ND1" s="59"/>
-      <c r="NE1" s="59"/>
-      <c r="NF1" s="59"/>
-      <c r="NG1" s="59"/>
-      <c r="NH1" s="59"/>
-      <c r="NI1" s="59"/>
-      <c r="NJ1" s="59"/>
-      <c r="NK1" s="59"/>
-      <c r="NL1" s="59"/>
-      <c r="NM1" s="59"/>
-      <c r="NN1" s="59"/>
-      <c r="NO1" s="59"/>
-      <c r="NP1" s="59"/>
-      <c r="NQ1" s="59"/>
-      <c r="NR1" s="59"/>
-      <c r="NS1" s="59"/>
-      <c r="NT1" s="59"/>
-      <c r="NU1" s="59"/>
-      <c r="NV1" s="59"/>
-      <c r="NW1" s="59"/>
-      <c r="NX1" s="59"/>
-      <c r="NY1" s="59"/>
-      <c r="NZ1" s="59"/>
-      <c r="OA1" s="59"/>
-      <c r="OB1" s="59"/>
-      <c r="OC1" s="59"/>
-      <c r="OD1" s="59"/>
-      <c r="OE1" s="59"/>
-      <c r="OF1" s="59"/>
-      <c r="OG1" s="59"/>
-      <c r="OH1" s="59"/>
-      <c r="OI1" s="59"/>
-      <c r="OJ1" s="59"/>
-      <c r="OK1" s="59"/>
-      <c r="OL1" s="59"/>
-      <c r="OM1" s="59"/>
-      <c r="ON1" s="59"/>
-      <c r="OO1" s="59"/>
-      <c r="OP1" s="59"/>
-      <c r="OQ1" s="59"/>
-      <c r="OR1" s="59"/>
-      <c r="OS1" s="59"/>
-      <c r="OT1" s="59"/>
-      <c r="OU1" s="59"/>
-      <c r="OV1" s="59"/>
-      <c r="OW1" s="59"/>
-      <c r="OX1" s="59"/>
-      <c r="OY1" s="59"/>
-      <c r="OZ1" s="59"/>
-      <c r="PA1" s="59"/>
-      <c r="PB1" s="59"/>
-      <c r="PC1" s="59"/>
-      <c r="PD1" s="59"/>
-      <c r="PE1" s="59"/>
-      <c r="PF1" s="59"/>
-      <c r="PG1" s="59"/>
-      <c r="PH1" s="59"/>
-      <c r="PI1" s="59"/>
-      <c r="PJ1" s="59"/>
-      <c r="PK1" s="59"/>
-      <c r="PL1" s="59"/>
-      <c r="PM1" s="59"/>
-      <c r="PN1" s="59"/>
-      <c r="PO1" s="59"/>
-      <c r="PP1" s="59"/>
-      <c r="PQ1" s="59"/>
-      <c r="PR1" s="59"/>
-      <c r="PS1" s="59"/>
-      <c r="PT1" s="59"/>
-      <c r="PU1" s="59"/>
-      <c r="PV1" s="59"/>
-      <c r="PW1" s="59"/>
-      <c r="PX1" s="59"/>
-      <c r="PY1" s="59"/>
-      <c r="PZ1" s="59"/>
-      <c r="QA1" s="59"/>
-      <c r="QB1" s="59"/>
-      <c r="QC1" s="59"/>
-      <c r="QD1" s="59"/>
-      <c r="QE1" s="59"/>
-      <c r="QF1" s="59"/>
-      <c r="QG1" s="59"/>
-      <c r="QH1" s="59"/>
-      <c r="QI1" s="59"/>
-      <c r="QJ1" s="59"/>
-      <c r="QK1" s="59"/>
-      <c r="QL1" s="59"/>
-      <c r="QM1" s="59"/>
-      <c r="QN1" s="59"/>
-      <c r="QO1" s="59"/>
-      <c r="QP1" s="59"/>
-      <c r="QQ1" s="59"/>
-      <c r="QR1" s="59"/>
-      <c r="QS1" s="59"/>
-      <c r="QT1" s="59"/>
-      <c r="QU1" s="59"/>
-      <c r="QV1" s="59"/>
-      <c r="QW1" s="59"/>
-      <c r="QX1" s="59"/>
-      <c r="QY1" s="59"/>
-      <c r="QZ1" s="59"/>
-      <c r="RA1" s="59"/>
-      <c r="RB1" s="59"/>
-      <c r="RC1" s="59"/>
-      <c r="RD1" s="59"/>
-      <c r="RE1" s="59"/>
-      <c r="RF1" s="59"/>
-      <c r="RG1" s="59"/>
-      <c r="RH1" s="59"/>
-      <c r="RI1" s="59"/>
-      <c r="RJ1" s="59"/>
-      <c r="RK1" s="59"/>
-      <c r="RL1" s="59"/>
-      <c r="RM1" s="59"/>
-      <c r="RN1" s="59"/>
-      <c r="RO1" s="59"/>
-      <c r="RP1" s="59"/>
-      <c r="RQ1" s="59"/>
-      <c r="RR1" s="59"/>
-      <c r="RS1" s="59"/>
-      <c r="RT1" s="59"/>
-      <c r="RU1" s="59"/>
-      <c r="RV1" s="59"/>
-      <c r="RW1" s="59"/>
-      <c r="RX1" s="59"/>
-      <c r="RY1" s="59"/>
-      <c r="RZ1" s="59"/>
-      <c r="SA1" s="59"/>
-      <c r="SB1" s="59"/>
-      <c r="SC1" s="59"/>
-      <c r="SD1" s="59"/>
-      <c r="SE1" s="59"/>
-      <c r="SF1" s="59"/>
-      <c r="SG1" s="59"/>
-      <c r="SH1" s="59"/>
-      <c r="SI1" s="59"/>
-      <c r="SJ1" s="59"/>
-      <c r="SK1" s="59"/>
-      <c r="SL1" s="59"/>
-      <c r="SM1" s="59"/>
-      <c r="SN1" s="59"/>
-      <c r="SO1" s="59"/>
-      <c r="SP1" s="59"/>
-      <c r="SQ1" s="59"/>
-      <c r="SR1" s="59"/>
-      <c r="SS1" s="59"/>
-      <c r="ST1" s="59"/>
-      <c r="SU1" s="59"/>
-      <c r="SV1" s="59"/>
-      <c r="SW1" s="59"/>
-      <c r="SX1" s="59"/>
-      <c r="SY1" s="59"/>
-      <c r="SZ1" s="59"/>
-      <c r="TA1" s="59"/>
-      <c r="TB1" s="59"/>
-      <c r="TC1" s="59"/>
-      <c r="TD1" s="59"/>
-      <c r="TE1" s="59"/>
-      <c r="TF1" s="59"/>
-      <c r="TG1" s="59"/>
-      <c r="TH1" s="59"/>
-      <c r="TI1" s="59"/>
-      <c r="TJ1" s="59"/>
-      <c r="TK1" s="59"/>
-      <c r="TL1" s="59"/>
-      <c r="TM1" s="59"/>
-      <c r="TN1" s="59"/>
-      <c r="TO1" s="59"/>
-      <c r="TP1" s="59"/>
-      <c r="TQ1" s="59"/>
-      <c r="TR1" s="59"/>
-      <c r="TS1" s="59"/>
-      <c r="TT1" s="59"/>
-      <c r="TU1" s="59"/>
-      <c r="TV1" s="59"/>
-      <c r="TW1" s="59"/>
-      <c r="TX1" s="59"/>
-      <c r="TY1" s="59"/>
-      <c r="TZ1" s="59"/>
-      <c r="UA1" s="59"/>
-      <c r="UB1" s="59"/>
-      <c r="UC1" s="59"/>
-      <c r="UD1" s="59"/>
-      <c r="UE1" s="59"/>
-      <c r="UF1" s="59"/>
-      <c r="UG1" s="59"/>
-      <c r="UH1" s="59"/>
-      <c r="UI1" s="59"/>
-      <c r="UJ1" s="59"/>
-      <c r="UK1" s="59"/>
-      <c r="UL1" s="59"/>
-      <c r="UM1" s="59"/>
-      <c r="UN1" s="59"/>
-      <c r="UO1" s="59"/>
-      <c r="UP1" s="59"/>
-      <c r="UQ1" s="59"/>
-      <c r="UR1" s="59"/>
-      <c r="US1" s="59"/>
-      <c r="UT1" s="59"/>
-      <c r="UU1" s="59"/>
-      <c r="UV1" s="59"/>
-      <c r="UW1" s="59"/>
-      <c r="UX1" s="59"/>
-      <c r="UY1" s="59"/>
-      <c r="UZ1" s="59"/>
-      <c r="VA1" s="59"/>
-      <c r="VB1" s="59"/>
-      <c r="VC1" s="59"/>
-      <c r="VD1" s="59"/>
-      <c r="VE1" s="59"/>
-      <c r="VF1" s="59"/>
-      <c r="VG1" s="59"/>
-      <c r="VH1" s="59"/>
-      <c r="VI1" s="59"/>
-      <c r="VJ1" s="59"/>
-      <c r="VK1" s="59"/>
-      <c r="VL1" s="59"/>
-      <c r="VM1" s="59"/>
-      <c r="VN1" s="59"/>
-      <c r="VO1" s="59"/>
-      <c r="VP1" s="59"/>
-      <c r="VQ1" s="59"/>
-      <c r="VR1" s="59"/>
-      <c r="VS1" s="59"/>
-      <c r="VT1" s="59"/>
-      <c r="VU1" s="59"/>
-      <c r="VV1" s="59"/>
-      <c r="VW1" s="59"/>
-      <c r="VX1" s="59"/>
-      <c r="VY1" s="59"/>
-      <c r="VZ1" s="59"/>
-      <c r="WA1" s="59"/>
-      <c r="WB1" s="59"/>
-      <c r="WC1" s="59"/>
-      <c r="WD1" s="59"/>
-      <c r="WE1" s="59"/>
-      <c r="WF1" s="59"/>
-      <c r="WG1" s="59"/>
-      <c r="WH1" s="59"/>
-      <c r="WI1" s="59"/>
-      <c r="WJ1" s="59"/>
-      <c r="WK1" s="59"/>
-      <c r="WL1" s="59"/>
-      <c r="WM1" s="59"/>
-      <c r="WN1" s="59"/>
-      <c r="WO1" s="59"/>
-      <c r="WP1" s="59"/>
-      <c r="WQ1" s="59"/>
-      <c r="WR1" s="59"/>
-      <c r="WS1" s="59"/>
-      <c r="WT1" s="59"/>
-      <c r="WU1" s="59"/>
-      <c r="WV1" s="59"/>
-      <c r="WW1" s="59"/>
-      <c r="WX1" s="59"/>
-      <c r="WY1" s="59"/>
-      <c r="WZ1" s="59"/>
-      <c r="XA1" s="59"/>
-      <c r="XB1" s="59"/>
-      <c r="XC1" s="59"/>
-      <c r="XD1" s="59"/>
-      <c r="XE1" s="59"/>
-      <c r="XF1" s="59"/>
-      <c r="XG1" s="59"/>
-      <c r="XH1" s="59"/>
-      <c r="XI1" s="59"/>
-      <c r="XJ1" s="59"/>
-      <c r="XK1" s="59"/>
-      <c r="XL1" s="59"/>
-      <c r="XM1" s="59"/>
-      <c r="XN1" s="59"/>
-      <c r="XO1" s="59"/>
-      <c r="XP1" s="59"/>
-      <c r="XQ1" s="59"/>
-      <c r="XR1" s="59"/>
-      <c r="XS1" s="59"/>
-      <c r="XT1" s="59"/>
-      <c r="XU1" s="59"/>
-      <c r="XV1" s="59"/>
-      <c r="XW1" s="59"/>
-      <c r="XX1" s="59"/>
-      <c r="XY1" s="59"/>
-      <c r="XZ1" s="59"/>
-      <c r="YA1" s="59"/>
-      <c r="YB1" s="59"/>
-      <c r="YC1" s="59"/>
-      <c r="YD1" s="59"/>
-      <c r="YE1" s="59"/>
-      <c r="YF1" s="59"/>
-      <c r="YG1" s="59"/>
-      <c r="YH1" s="59"/>
-      <c r="YI1" s="59"/>
-      <c r="YJ1" s="59"/>
-      <c r="YK1" s="59"/>
-      <c r="YL1" s="59"/>
-      <c r="YM1" s="59"/>
-      <c r="YN1" s="59"/>
-      <c r="YO1" s="59"/>
-      <c r="YP1" s="59"/>
-      <c r="YQ1" s="59"/>
-      <c r="YR1" s="59"/>
-      <c r="YS1" s="59"/>
-      <c r="YT1" s="59"/>
-      <c r="YU1" s="59"/>
-      <c r="YV1" s="59"/>
-      <c r="YW1" s="59"/>
-      <c r="YX1" s="59"/>
-      <c r="YY1" s="59"/>
-      <c r="YZ1" s="59"/>
-      <c r="ZA1" s="59"/>
-      <c r="ZB1" s="59"/>
-      <c r="ZC1" s="59"/>
-      <c r="ZD1" s="59"/>
-      <c r="ZE1" s="59"/>
-      <c r="ZF1" s="59"/>
-      <c r="ZG1" s="59"/>
-      <c r="ZH1" s="59"/>
-      <c r="ZI1" s="59"/>
-      <c r="ZJ1" s="59"/>
-      <c r="ZK1" s="59"/>
-      <c r="ZL1" s="59"/>
-      <c r="ZM1" s="59"/>
-      <c r="ZN1" s="59"/>
-      <c r="ZO1" s="59"/>
-      <c r="ZP1" s="59"/>
-      <c r="ZQ1" s="59"/>
-      <c r="ZR1" s="59"/>
-      <c r="ZS1" s="59"/>
-      <c r="ZT1" s="59"/>
-      <c r="ZU1" s="59"/>
-      <c r="ZV1" s="59"/>
-      <c r="ZW1" s="59"/>
-      <c r="ZX1" s="59"/>
-      <c r="ZY1" s="59"/>
-      <c r="ZZ1" s="59"/>
-      <c r="AAA1" s="59"/>
-      <c r="AAB1" s="59"/>
-      <c r="AAC1" s="59"/>
-      <c r="AAD1" s="59"/>
-      <c r="AAE1" s="59"/>
-      <c r="AAF1" s="59"/>
-      <c r="AAG1" s="59"/>
-      <c r="AAH1" s="59"/>
-      <c r="AAI1" s="59"/>
-      <c r="AAJ1" s="59"/>
-      <c r="AAK1" s="59"/>
-      <c r="AAL1" s="59"/>
-      <c r="AAM1" s="59"/>
-      <c r="AAN1" s="59"/>
-      <c r="AAO1" s="59"/>
-      <c r="AAP1" s="59"/>
-      <c r="AAQ1" s="59"/>
-      <c r="AAR1" s="59"/>
-      <c r="AAS1" s="59"/>
-      <c r="AAT1" s="59"/>
-      <c r="AAU1" s="59"/>
-      <c r="AAV1" s="59"/>
-      <c r="AAW1" s="59"/>
-      <c r="AAX1" s="59"/>
-      <c r="AAY1" s="59"/>
-      <c r="AAZ1" s="59"/>
-      <c r="ABA1" s="59"/>
-      <c r="ABB1" s="59"/>
-      <c r="ABC1" s="59"/>
-      <c r="ABD1" s="59"/>
-      <c r="ABE1" s="59"/>
-      <c r="ABF1" s="59"/>
-      <c r="ABG1" s="59"/>
-      <c r="ABH1" s="59"/>
-      <c r="ABI1" s="59"/>
-      <c r="ABJ1" s="59"/>
-      <c r="ABK1" s="59"/>
-      <c r="ABL1" s="59"/>
-      <c r="ABM1" s="59"/>
-      <c r="ABN1" s="59"/>
-      <c r="ABO1" s="59"/>
-      <c r="ABP1" s="59"/>
-      <c r="ABQ1" s="59"/>
-      <c r="ABR1" s="59"/>
-      <c r="ABS1" s="59"/>
-      <c r="ABT1" s="59"/>
-      <c r="ABU1" s="59"/>
-      <c r="ABV1" s="59"/>
-      <c r="ABW1" s="59"/>
-      <c r="ABX1" s="59"/>
-      <c r="ABY1" s="59"/>
-      <c r="ABZ1" s="59"/>
-      <c r="ACA1" s="59"/>
-      <c r="ACB1" s="59"/>
-      <c r="ACC1" s="59"/>
-      <c r="ACD1" s="59"/>
-      <c r="ACE1" s="59"/>
-      <c r="ACF1" s="59"/>
-      <c r="ACG1" s="59"/>
-      <c r="ACH1" s="59"/>
-      <c r="ACI1" s="59"/>
-      <c r="ACJ1" s="59"/>
-      <c r="ACK1" s="59"/>
-      <c r="ACL1" s="59"/>
-      <c r="ACM1" s="59"/>
-      <c r="ACN1" s="59"/>
-      <c r="ACO1" s="59"/>
-      <c r="ACP1" s="59"/>
-      <c r="ACQ1" s="59"/>
-      <c r="ACR1" s="59"/>
-      <c r="ACS1" s="59"/>
-      <c r="ACT1" s="59"/>
-      <c r="ACU1" s="59"/>
-      <c r="ACV1" s="59"/>
-      <c r="ACW1" s="59"/>
-      <c r="ACX1" s="59"/>
-      <c r="ACY1" s="59"/>
-      <c r="ACZ1" s="59"/>
-      <c r="ADA1" s="59"/>
-      <c r="ADB1" s="59"/>
-      <c r="ADC1" s="59"/>
-      <c r="ADD1" s="59"/>
-      <c r="ADE1" s="59"/>
-      <c r="ADF1" s="59"/>
-      <c r="ADG1" s="59"/>
-      <c r="ADH1" s="59"/>
-      <c r="ADI1" s="59"/>
-      <c r="ADJ1" s="59"/>
-      <c r="ADK1" s="59"/>
-      <c r="ADL1" s="59"/>
-      <c r="ADM1" s="59"/>
-      <c r="ADN1" s="59"/>
-      <c r="ADO1" s="59"/>
-      <c r="ADP1" s="59"/>
-      <c r="ADQ1" s="59"/>
-      <c r="ADR1" s="59"/>
-      <c r="ADS1" s="59"/>
-      <c r="ADT1" s="59"/>
-      <c r="ADU1" s="59"/>
-      <c r="ADV1" s="59"/>
-      <c r="ADW1" s="59"/>
-      <c r="ADX1" s="59"/>
-      <c r="ADY1" s="59"/>
-      <c r="ADZ1" s="59"/>
-      <c r="AEA1" s="59"/>
-      <c r="AEB1" s="59"/>
-      <c r="AEC1" s="59"/>
-      <c r="AED1" s="59"/>
-      <c r="AEE1" s="59"/>
-      <c r="AEF1" s="59"/>
-      <c r="AEG1" s="59"/>
-      <c r="AEH1" s="59"/>
-      <c r="AEI1" s="59"/>
-      <c r="AEJ1" s="59"/>
-      <c r="AEK1" s="59"/>
-      <c r="AEL1" s="59"/>
-      <c r="AEM1" s="59"/>
-      <c r="AEN1" s="59"/>
-      <c r="AEO1" s="59"/>
-      <c r="AEP1" s="59"/>
-      <c r="AEQ1" s="59"/>
-      <c r="AER1" s="59"/>
-      <c r="AES1" s="59"/>
-      <c r="AET1" s="59"/>
-      <c r="AEU1" s="59"/>
-      <c r="AEV1" s="59"/>
-      <c r="AEW1" s="59"/>
-      <c r="AEX1" s="59"/>
-      <c r="AEY1" s="59"/>
-      <c r="AEZ1" s="59"/>
-      <c r="AFA1" s="59"/>
-      <c r="AFB1" s="59"/>
-      <c r="AFC1" s="59"/>
-      <c r="AFD1" s="59"/>
-      <c r="AFE1" s="59"/>
-      <c r="AFF1" s="59"/>
-      <c r="AFG1" s="59"/>
-      <c r="AFH1" s="59"/>
-      <c r="AFI1" s="59"/>
-      <c r="AFJ1" s="59"/>
-      <c r="AFK1" s="59"/>
-      <c r="AFL1" s="59"/>
-      <c r="AFM1" s="59"/>
-      <c r="AFN1" s="59"/>
-      <c r="AFO1" s="59"/>
-      <c r="AFP1" s="59"/>
-      <c r="AFQ1" s="59"/>
-      <c r="AFR1" s="59"/>
-      <c r="AFS1" s="59"/>
-      <c r="AFT1" s="59"/>
-      <c r="AFU1" s="59"/>
-      <c r="AFV1" s="59"/>
-      <c r="AFW1" s="59"/>
-      <c r="AFX1" s="59"/>
-      <c r="AFY1" s="59"/>
-      <c r="AFZ1" s="59"/>
-      <c r="AGA1" s="59"/>
-      <c r="AGB1" s="59"/>
-      <c r="AGC1" s="59"/>
-      <c r="AGD1" s="59"/>
-      <c r="AGE1" s="59"/>
-      <c r="AGF1" s="59"/>
-      <c r="AGG1" s="59"/>
-      <c r="AGH1" s="59"/>
-      <c r="AGI1" s="59"/>
-      <c r="AGJ1" s="59"/>
-      <c r="AGK1" s="59"/>
-      <c r="AGL1" s="59"/>
-      <c r="AGM1" s="59"/>
-      <c r="AGN1" s="59"/>
-      <c r="AGO1" s="59"/>
-      <c r="AGP1" s="59"/>
-      <c r="AGQ1" s="59"/>
-      <c r="AGR1" s="59"/>
-      <c r="AGS1" s="59"/>
-      <c r="AGT1" s="59"/>
-      <c r="AGU1" s="59"/>
-      <c r="AGV1" s="59"/>
-      <c r="AGW1" s="59"/>
-      <c r="AGX1" s="59"/>
-      <c r="AGY1" s="59"/>
-      <c r="AGZ1" s="59"/>
-      <c r="AHA1" s="59"/>
-      <c r="AHB1" s="59"/>
-      <c r="AHC1" s="59"/>
-      <c r="AHD1" s="59"/>
-      <c r="AHE1" s="59"/>
-      <c r="AHF1" s="59"/>
-      <c r="AHG1" s="59"/>
-      <c r="AHH1" s="59"/>
-      <c r="AHI1" s="59"/>
-      <c r="AHJ1" s="59"/>
-      <c r="AHK1" s="59"/>
-      <c r="AHL1" s="59"/>
-      <c r="AHM1" s="59"/>
-      <c r="AHN1" s="59"/>
-      <c r="AHO1" s="59"/>
-      <c r="AHP1" s="59"/>
-      <c r="AHQ1" s="59"/>
-      <c r="AHR1" s="59"/>
-      <c r="AHS1" s="59"/>
-      <c r="AHT1" s="59"/>
-      <c r="AHU1" s="59"/>
-      <c r="AHV1" s="59"/>
-      <c r="AHW1" s="59"/>
-      <c r="AHX1" s="59"/>
-      <c r="AHY1" s="59"/>
-      <c r="AHZ1" s="59"/>
-      <c r="AIA1" s="59"/>
-      <c r="AIB1" s="59"/>
-      <c r="AIC1" s="59"/>
-      <c r="AID1" s="59"/>
-      <c r="AIE1" s="59"/>
-      <c r="AIF1" s="59"/>
-      <c r="AIG1" s="59"/>
-      <c r="AIH1" s="59"/>
-      <c r="AII1" s="59"/>
-      <c r="AIJ1" s="59"/>
-      <c r="AIK1" s="59"/>
-      <c r="AIL1" s="59"/>
-      <c r="AIM1" s="59"/>
-      <c r="AIN1" s="59"/>
-      <c r="AIO1" s="59"/>
-      <c r="AIP1" s="59"/>
-      <c r="AIQ1" s="59"/>
-      <c r="AIR1" s="59"/>
-      <c r="AIS1" s="59"/>
-      <c r="AIT1" s="59"/>
-      <c r="AIU1" s="59"/>
-      <c r="AIV1" s="59"/>
-      <c r="AIW1" s="59"/>
-      <c r="AIX1" s="59"/>
-      <c r="AIY1" s="59"/>
-      <c r="AIZ1" s="59"/>
-      <c r="AJA1" s="59"/>
-      <c r="AJB1" s="59"/>
-      <c r="AJC1" s="59"/>
-      <c r="AJD1" s="59"/>
-      <c r="AJE1" s="59"/>
-      <c r="AJF1" s="59"/>
-      <c r="AJG1" s="59"/>
-      <c r="AJH1" s="59"/>
-      <c r="AJI1" s="59"/>
-      <c r="AJJ1" s="59"/>
-      <c r="AJK1" s="59"/>
-      <c r="AJL1" s="59"/>
-      <c r="AJM1" s="59"/>
-      <c r="AJN1" s="59"/>
-      <c r="AJO1" s="59"/>
-      <c r="AJP1" s="59"/>
-      <c r="AJQ1" s="59"/>
-      <c r="AJR1" s="59"/>
-      <c r="AJS1" s="59"/>
-      <c r="AJT1" s="59"/>
-      <c r="AJU1" s="59"/>
-      <c r="AJV1" s="59"/>
-      <c r="AJW1" s="59"/>
-      <c r="AJX1" s="59"/>
-      <c r="AJY1" s="59"/>
-      <c r="AJZ1" s="59"/>
-      <c r="AKA1" s="59"/>
-      <c r="AKB1" s="59"/>
-      <c r="AKC1" s="59"/>
-      <c r="AKD1" s="59"/>
-      <c r="AKE1" s="59"/>
-      <c r="AKF1" s="59"/>
-      <c r="AKG1" s="59"/>
-      <c r="AKH1" s="59"/>
-      <c r="AKI1" s="59"/>
-      <c r="AKJ1" s="59"/>
-      <c r="AKK1" s="59"/>
-      <c r="AKL1" s="59"/>
-      <c r="AKM1" s="59"/>
-      <c r="AKN1" s="59"/>
-      <c r="AKO1" s="59"/>
-      <c r="AKP1" s="59"/>
-      <c r="AKQ1" s="59"/>
-      <c r="AKR1" s="59"/>
-      <c r="AKS1" s="59"/>
-      <c r="AKT1" s="59"/>
-      <c r="AKU1" s="59"/>
-      <c r="AKV1" s="59"/>
-      <c r="AKW1" s="59"/>
-      <c r="AKX1" s="59"/>
-      <c r="AKY1" s="59"/>
-      <c r="AKZ1" s="59"/>
-      <c r="ALA1" s="59"/>
-      <c r="ALB1" s="59"/>
-      <c r="ALC1" s="59"/>
-      <c r="ALD1" s="59"/>
-      <c r="ALE1" s="59"/>
-      <c r="ALF1" s="59"/>
-      <c r="ALG1" s="59"/>
-      <c r="ALH1" s="59"/>
-      <c r="ALI1" s="59"/>
-      <c r="ALJ1" s="59"/>
-      <c r="ALK1" s="59"/>
-      <c r="ALL1" s="59"/>
-      <c r="ALM1" s="59"/>
-      <c r="ALN1" s="59"/>
-      <c r="ALO1" s="59"/>
-      <c r="ALP1" s="59"/>
-      <c r="ALQ1" s="59"/>
-      <c r="ALR1" s="59"/>
-      <c r="ALS1" s="59"/>
-      <c r="ALT1" s="59"/>
-      <c r="ALU1" s="59"/>
-      <c r="ALV1" s="59"/>
-      <c r="ALW1" s="59"/>
-      <c r="ALX1" s="59"/>
-      <c r="ALY1" s="59"/>
-      <c r="ALZ1" s="59"/>
-      <c r="AMA1" s="59"/>
-      <c r="AMB1" s="59"/>
-      <c r="AMC1" s="59"/>
-      <c r="AMD1" s="59"/>
-      <c r="AME1" s="59"/>
-      <c r="AMF1" s="59"/>
-      <c r="AMG1" s="59"/>
-      <c r="AMH1" s="59"/>
-      <c r="AMI1" s="59"/>
-      <c r="AMJ1" s="59"/>
-    </row>
-    <row r="2" spans="1:1024">
-      <c r="A2" s="50" t="s">
-        <v>378</v>
-      </c>
-      <c r="B2" s="50" t="s">
-        <v>360</v>
-      </c>
-      <c r="C2" s="89" t="s">
-        <v>379</v>
-      </c>
-      <c r="D2" s="50" t="s">
-        <v>380</v>
       </c>
       <c r="E2" s="34">
         <v>1</v>
       </c>
-      <c r="F2" s="42"/>
-      <c r="H2" s="42"/>
+      <c r="F2" s="41"/>
+      <c r="H2" s="41"/>
     </row>
     <row r="3" spans="1:1024">
-      <c r="A3" s="50" t="s">
-        <v>381</v>
-      </c>
-      <c r="B3" s="50" t="s">
-        <v>363</v>
-      </c>
-      <c r="C3" s="89" t="s">
+      <c r="A3" s="49" t="s">
+        <v>378</v>
+      </c>
+      <c r="B3" s="49" t="s">
+        <v>360</v>
+      </c>
+      <c r="C3" s="88" t="s">
+        <v>376</v>
+      </c>
+      <c r="D3" s="52" t="s">
         <v>379</v>
-      </c>
-      <c r="D3" s="53" t="s">
-        <v>382</v>
       </c>
       <c r="E3" s="34">
         <v>1</v>
       </c>
-      <c r="F3" s="42"/>
-      <c r="H3" s="50" t="s">
-        <v>383</v>
+      <c r="F3" s="41"/>
+      <c r="H3" s="49" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="4" spans="1:1024">
-      <c r="A4" s="50" t="s">
-        <v>384</v>
-      </c>
-      <c r="B4" s="50" t="s">
-        <v>366</v>
-      </c>
-      <c r="C4" s="89" t="s">
-        <v>379</v>
-      </c>
-      <c r="D4" s="50" t="s">
-        <v>385</v>
+      <c r="A4" s="49" t="s">
+        <v>381</v>
+      </c>
+      <c r="B4" s="49" t="s">
+        <v>363</v>
+      </c>
+      <c r="C4" s="88" t="s">
+        <v>376</v>
+      </c>
+      <c r="D4" s="49" t="s">
+        <v>382</v>
       </c>
       <c r="E4" s="34">
         <v>1</v>
       </c>
-      <c r="F4" s="42"/>
-      <c r="H4" s="50" t="s">
-        <v>386</v>
+      <c r="F4" s="41"/>
+      <c r="H4" s="49" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="5" spans="1:1024">
-      <c r="A5" s="50" t="s">
-        <v>387</v>
-      </c>
-      <c r="B5" s="50" t="s">
-        <v>369</v>
-      </c>
-      <c r="C5" s="89" t="s">
-        <v>379</v>
-      </c>
-      <c r="D5" s="50" t="s">
-        <v>380</v>
+      <c r="A5" s="49" t="s">
+        <v>384</v>
+      </c>
+      <c r="B5" s="49" t="s">
+        <v>366</v>
+      </c>
+      <c r="C5" s="88" t="s">
+        <v>376</v>
+      </c>
+      <c r="D5" s="49" t="s">
+        <v>377</v>
       </c>
       <c r="E5" s="34">
         <v>1</v>
       </c>
-      <c r="F5" s="42"/>
-      <c r="H5" s="50" t="s">
-        <v>388</v>
+      <c r="F5" s="41"/>
+      <c r="H5" s="49" t="s">
+        <v>385</v>
       </c>
     </row>
     <row r="6" spans="1:1024">
-      <c r="A6" s="50" t="s">
-        <v>389</v>
-      </c>
-      <c r="B6" s="50" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" s="89" t="s">
-        <v>379</v>
-      </c>
-      <c r="D6" s="50" t="s">
-        <v>390</v>
+      <c r="A6" s="49" t="s">
+        <v>386</v>
+      </c>
+      <c r="B6" s="49" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="88" t="s">
+        <v>376</v>
+      </c>
+      <c r="D6" s="49" t="s">
+        <v>387</v>
       </c>
       <c r="E6" s="34">
         <v>1</v>
       </c>
-      <c r="F6" s="42"/>
-      <c r="H6" s="50" t="s">
-        <v>391</v>
+      <c r="F6" s="41"/>
+      <c r="H6" s="49" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="7" spans="1:1024">
-      <c r="A7" s="50" t="s">
-        <v>392</v>
-      </c>
-      <c r="B7" s="50" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" s="89" t="s">
-        <v>487</v>
-      </c>
-      <c r="D7" s="50" t="s">
-        <v>393</v>
+      <c r="A7" s="49" t="s">
+        <v>389</v>
+      </c>
+      <c r="B7" s="49" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="88" t="s">
+        <v>479</v>
+      </c>
+      <c r="D7" s="49" t="s">
+        <v>390</v>
       </c>
       <c r="E7" s="34">
         <v>1</v>
       </c>
-      <c r="F7" s="42"/>
+      <c r="F7" s="41"/>
     </row>
     <row r="8" spans="1:1024">
-      <c r="A8" s="50" t="s">
-        <v>394</v>
-      </c>
-      <c r="B8" s="50" t="s">
-        <v>373</v>
-      </c>
-      <c r="C8" s="89" t="s">
-        <v>379</v>
-      </c>
-      <c r="D8" s="50" t="s">
-        <v>395</v>
+      <c r="A8" s="49" t="s">
+        <v>391</v>
+      </c>
+      <c r="B8" s="49" t="s">
+        <v>370</v>
+      </c>
+      <c r="C8" s="88" t="s">
+        <v>376</v>
+      </c>
+      <c r="D8" s="49" t="s">
+        <v>392</v>
       </c>
       <c r="E8" s="34">
         <v>1</v>
       </c>
-      <c r="F8" s="50" t="s">
-        <v>396</v>
+      <c r="F8" s="49" t="s">
+        <v>393</v>
       </c>
     </row>
     <row r="9" spans="1:1024">
-      <c r="A9" s="50" t="s">
-        <v>397</v>
-      </c>
-      <c r="B9" s="50" t="s">
+      <c r="A9" s="49" t="s">
+        <v>394</v>
+      </c>
+      <c r="B9" s="49" t="s">
+        <v>373</v>
+      </c>
+      <c r="C9" s="88" t="s">
         <v>376</v>
       </c>
-      <c r="C9" s="89" t="s">
-        <v>379</v>
-      </c>
-      <c r="D9" s="50" t="s">
-        <v>398</v>
+      <c r="D9" s="49" t="s">
+        <v>395</v>
       </c>
       <c r="E9" s="34">
         <v>1</v>
       </c>
-      <c r="F9" s="50" t="s">
-        <v>399</v>
+      <c r="F9" s="49" t="s">
+        <v>396</v>
       </c>
     </row>
   </sheetData>
@@ -5063,177 +5033,177 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="3" width="20.7109375" style="42" customWidth="1"/>
+    <col min="1" max="3" width="20.7109375" style="41" customWidth="1"/>
     <col min="4" max="5" width="15.7109375" style="34" customWidth="1"/>
-    <col min="6" max="9" width="20.7109375" style="42" customWidth="1"/>
+    <col min="6" max="9" width="20.7109375" style="41" customWidth="1"/>
     <col min="10" max="1025" width="8.42578125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="46" t="s">
-        <v>434</v>
-      </c>
-      <c r="D1" s="46" t="s">
-        <v>334</v>
-      </c>
-      <c r="E1" s="46" t="s">
-        <v>335</v>
-      </c>
-      <c r="F1" s="46" t="s">
-        <v>444</v>
-      </c>
-      <c r="G1" s="46" t="s">
+      <c r="C1" s="45" t="s">
+        <v>431</v>
+      </c>
+      <c r="D1" s="45" t="s">
+        <v>331</v>
+      </c>
+      <c r="E1" s="45" t="s">
+        <v>332</v>
+      </c>
+      <c r="F1" s="45" t="s">
+        <v>439</v>
+      </c>
+      <c r="G1" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="46" t="s">
+      <c r="H1" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="48" t="s">
+      <c r="I1" s="47" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="42" t="s">
-        <v>400</v>
-      </c>
-      <c r="B2" s="42" t="s">
-        <v>401</v>
+      <c r="A2" s="41" t="s">
+        <v>397</v>
+      </c>
+      <c r="B2" s="41" t="s">
+        <v>398</v>
       </c>
       <c r="D2" s="34">
         <v>20.5</v>
       </c>
       <c r="E2" s="34" t="s">
+        <v>399</v>
+      </c>
+      <c r="G2" s="41" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="41" t="s">
+        <v>401</v>
+      </c>
+      <c r="B3" s="41" t="s">
         <v>402</v>
-      </c>
-      <c r="G2" s="42" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="42" t="s">
-        <v>404</v>
-      </c>
-      <c r="B3" s="42" t="s">
-        <v>405</v>
       </c>
       <c r="D3" s="34">
         <v>1.35</v>
       </c>
       <c r="E3" s="34" t="s">
-        <v>402</v>
-      </c>
-      <c r="G3" s="42" t="s">
-        <v>406</v>
+        <v>399</v>
+      </c>
+      <c r="G3" s="41" t="s">
+        <v>403</v>
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="42" t="s">
-        <v>407</v>
-      </c>
-      <c r="B4" s="42" t="s">
-        <v>408</v>
+      <c r="A4" s="41" t="s">
+        <v>404</v>
+      </c>
+      <c r="B4" s="41" t="s">
+        <v>405</v>
       </c>
       <c r="D4" s="34">
         <v>0.46</v>
       </c>
       <c r="E4" s="34" t="s">
-        <v>337</v>
-      </c>
-      <c r="G4" s="42" t="s">
-        <v>403</v>
+        <v>334</v>
+      </c>
+      <c r="G4" s="41" t="s">
+        <v>400</v>
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="42" t="s">
-        <v>409</v>
-      </c>
-      <c r="B5" s="42" t="s">
-        <v>410</v>
+      <c r="A5" s="41" t="s">
+        <v>406</v>
+      </c>
+      <c r="B5" s="41" t="s">
+        <v>407</v>
       </c>
       <c r="D5" s="34">
         <v>1.2</v>
       </c>
       <c r="E5" s="34" t="s">
-        <v>337</v>
-      </c>
-      <c r="G5" s="42" t="s">
-        <v>406</v>
+        <v>334</v>
+      </c>
+      <c r="G5" s="41" t="s">
+        <v>403</v>
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="42" t="s">
-        <v>380</v>
-      </c>
-      <c r="B6" s="42" t="s">
-        <v>411</v>
+      <c r="A6" s="41" t="s">
+        <v>377</v>
+      </c>
+      <c r="B6" s="41" t="s">
+        <v>408</v>
       </c>
       <c r="D6" s="34">
         <v>2.1</v>
       </c>
       <c r="E6" s="34" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="B7" t="s">
-        <v>414</v>
-      </c>
-      <c r="D7" s="62">
+        <v>411</v>
+      </c>
+      <c r="D7" s="61">
         <v>3.0000000000000001E-12</v>
       </c>
       <c r="E7" s="36" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="B8" t="s">
-        <v>417</v>
-      </c>
-      <c r="D8" s="62">
+        <v>414</v>
+      </c>
+      <c r="D8" s="61">
         <v>10000000</v>
       </c>
       <c r="E8" s="36" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="B9" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="D9" s="36">
         <v>0.7</v>
       </c>
       <c r="E9" s="36" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="B10" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="D10" s="36">
         <v>71280</v>
       </c>
       <c r="E10" s="36" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -5253,7 +5223,7 @@
   <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -5262,35 +5232,35 @@
     <col min="1020" max="1024" width="8.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="43" customFormat="1">
-      <c r="A1" s="69" t="s">
+    <row r="1" spans="1:10" s="42" customFormat="1">
+      <c r="A1" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="69" t="s">
-        <v>433</v>
-      </c>
-      <c r="C1" s="69" t="s">
-        <v>450</v>
-      </c>
-      <c r="D1" s="69" t="s">
-        <v>442</v>
-      </c>
-      <c r="E1" s="69" t="s">
-        <v>451</v>
-      </c>
-      <c r="F1" s="69" t="s">
-        <v>335</v>
-      </c>
-      <c r="G1" s="69" t="s">
-        <v>452</v>
-      </c>
-      <c r="H1" s="70" t="s">
+      <c r="B1" s="68" t="s">
+        <v>430</v>
+      </c>
+      <c r="C1" s="68" t="s">
+        <v>444</v>
+      </c>
+      <c r="D1" s="68" t="s">
+        <v>437</v>
+      </c>
+      <c r="E1" s="68" t="s">
+        <v>331</v>
+      </c>
+      <c r="F1" s="68" t="s">
+        <v>332</v>
+      </c>
+      <c r="G1" s="68" t="s">
+        <v>445</v>
+      </c>
+      <c r="H1" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="70" t="s">
+      <c r="I1" s="69" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="69" t="s">
+      <c r="J1" s="68" t="s">
         <v>9</v>
       </c>
     </row>
@@ -5317,29 +5287,29 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="30.7109375" style="65" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" style="64" customWidth="1"/>
     <col min="2" max="2" width="30.7109375" style="33" customWidth="1"/>
     <col min="3" max="1025" width="8.42578125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="45" customFormat="1" ht="15" customHeight="1">
-      <c r="A1" s="44" t="s">
+    <row r="1" spans="1:2" s="44" customFormat="1" ht="15" customHeight="1">
+      <c r="A1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="67" t="s">
-        <v>430</v>
+      <c r="B1" s="66" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="65" t="s">
+      <c r="A2" s="64" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="65" t="s">
+      <c r="A3" s="64" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="33">
@@ -5347,11 +5317,11 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="65" t="s">
+      <c r="A4" s="64" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
   </sheetData>
@@ -5366,7 +5336,7 @@
   <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5375,48 +5345,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="68" t="s">
-        <v>320</v>
-      </c>
-      <c r="B1" s="68" t="s">
-        <v>453</v>
-      </c>
-      <c r="C1" s="68" t="s">
-        <v>454</v>
-      </c>
-      <c r="D1" s="68" t="s">
-        <v>455</v>
-      </c>
-      <c r="E1" s="68" t="s">
-        <v>333</v>
-      </c>
-      <c r="F1" s="68" t="s">
-        <v>456</v>
-      </c>
-      <c r="G1" s="68" t="s">
-        <v>457</v>
-      </c>
-      <c r="H1" s="68" t="s">
-        <v>458</v>
-      </c>
-      <c r="I1" s="68" t="s">
-        <v>459</v>
-      </c>
-      <c r="J1" s="68" t="s">
-        <v>460</v>
-      </c>
-      <c r="K1" s="68" t="s">
+      <c r="A1" s="67" t="s">
+        <v>317</v>
+      </c>
+      <c r="B1" s="67" t="s">
+        <v>446</v>
+      </c>
+      <c r="C1" s="67" t="s">
+        <v>490</v>
+      </c>
+      <c r="D1" s="67" t="s">
+        <v>447</v>
+      </c>
+      <c r="E1" s="67" t="s">
+        <v>330</v>
+      </c>
+      <c r="F1" s="67" t="s">
+        <v>448</v>
+      </c>
+      <c r="G1" s="67" t="s">
+        <v>449</v>
+      </c>
+      <c r="H1" s="67" t="s">
+        <v>450</v>
+      </c>
+      <c r="I1" s="67" t="s">
+        <v>451</v>
+      </c>
+      <c r="J1" s="67" t="s">
+        <v>452</v>
+      </c>
+      <c r="K1" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="L1" s="68" t="s">
+      <c r="L1" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="68" t="s">
+      <c r="M1" s="67" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:13">
-      <c r="F15" s="43"/>
+      <c r="F15" s="42"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5433,73 +5403,73 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="2" width="20.7109375" style="42" customWidth="1"/>
+    <col min="1" max="2" width="20.7109375" style="41" customWidth="1"/>
     <col min="3" max="3" width="20.7109375" style="34" customWidth="1"/>
-    <col min="4" max="12" width="20.7109375" style="42" customWidth="1"/>
-    <col min="13" max="1025" width="8.42578125" style="42"/>
-    <col min="1026" max="16384" width="9" style="42"/>
+    <col min="4" max="12" width="20.7109375" style="41" customWidth="1"/>
+    <col min="13" max="1025" width="8.42578125" style="41"/>
+    <col min="1026" max="16384" width="9" style="41"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="71" t="s">
+      <c r="B1" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="71" t="s">
-        <v>77</v>
-      </c>
-      <c r="D1" s="71" t="s">
-        <v>461</v>
-      </c>
-      <c r="E1" s="73" t="s">
-        <v>462</v>
-      </c>
-      <c r="F1" s="71" t="s">
-        <v>463</v>
-      </c>
-      <c r="G1" s="73" t="s">
-        <v>464</v>
-      </c>
-      <c r="H1" s="73" t="s">
-        <v>465</v>
-      </c>
-      <c r="I1" s="74" t="s">
-        <v>466</v>
-      </c>
-      <c r="J1" s="71" t="s">
-        <v>467</v>
-      </c>
-      <c r="K1" s="72" t="s">
+      <c r="C1" s="70" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1" s="70" t="s">
+        <v>453</v>
+      </c>
+      <c r="E1" s="72" t="s">
+        <v>454</v>
+      </c>
+      <c r="F1" s="70" t="s">
+        <v>455</v>
+      </c>
+      <c r="G1" s="72" t="s">
+        <v>456</v>
+      </c>
+      <c r="H1" s="72" t="s">
+        <v>457</v>
+      </c>
+      <c r="I1" s="73" t="s">
+        <v>458</v>
+      </c>
+      <c r="J1" s="70" t="s">
+        <v>459</v>
+      </c>
+      <c r="K1" s="71" t="s">
         <v>13</v>
       </c>
-      <c r="L1" s="75" t="s">
+      <c r="L1" s="74" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="42" t="s">
-        <v>326</v>
+      <c r="A2" s="41" t="s">
+        <v>323</v>
       </c>
       <c r="C2" s="34" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="42" t="s">
-        <v>341</v>
+      <c r="A3" s="41" t="s">
+        <v>338</v>
       </c>
       <c r="C3" s="34" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="42" t="s">
-        <v>425</v>
+      <c r="A4" s="41" t="s">
+        <v>422</v>
       </c>
       <c r="C4" s="34" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
     </row>
   </sheetData>
@@ -5610,7 +5580,7 @@
   <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -5631,16 +5601,16 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>49</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>13</v>
@@ -5654,10 +5624,10 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="26" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C2" s="27"/>
       <c r="D2" s="9">
@@ -5672,10 +5642,10 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="26" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D3" s="9">
         <v>0</v>
@@ -5689,10 +5659,10 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="26" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D4" s="9">
         <v>0</v>
@@ -5706,10 +5676,10 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="26" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D5" s="9">
         <v>0</v>
@@ -5723,10 +5693,10 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="26" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D6" s="9">
         <v>0</v>
@@ -5740,10 +5710,10 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="26" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D7" s="9">
         <v>0</v>
@@ -5757,10 +5727,10 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D8" s="9">
         <v>0</v>
@@ -5774,10 +5744,10 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D9" s="9">
         <v>0</v>
@@ -5791,10 +5761,10 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="26" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D10" s="9">
         <v>0</v>
@@ -5808,10 +5778,10 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="26" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D11" s="9">
         <v>0</v>
@@ -5825,10 +5795,10 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="26" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D12" s="9">
         <v>0</v>
@@ -5842,10 +5812,10 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="26" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D13" s="9">
         <v>0</v>
@@ -5859,10 +5829,10 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="26" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D14" s="9">
         <v>0</v>
@@ -5876,10 +5846,10 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="26" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D15" s="9">
         <v>0</v>
@@ -5893,10 +5863,10 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="26" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D16" s="9">
         <v>0</v>
@@ -5910,10 +5880,10 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="26" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D17" s="9">
         <v>0</v>
@@ -5927,10 +5897,10 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="26" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D18" s="9">
         <v>0</v>
@@ -5944,10 +5914,10 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="26" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D19" s="9">
         <v>0</v>
@@ -5961,10 +5931,10 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="26" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D20" s="9">
         <v>0</v>
@@ -5978,10 +5948,10 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="26" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D21" s="9">
         <v>0</v>
@@ -5995,10 +5965,10 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="26" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D22" s="9">
         <v>0</v>
@@ -6012,10 +5982,10 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="26" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D23" s="9">
         <v>0</v>
@@ -6029,10 +5999,10 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="26" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D24" s="9">
         <v>0</v>
@@ -6046,10 +6016,10 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="26" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D25" s="9">
         <v>0</v>
@@ -6063,10 +6033,10 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="26" t="s">
-        <v>74</v>
+        <v>489</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>74</v>
+        <v>489</v>
       </c>
       <c r="D26" s="9">
         <v>0</v>
@@ -6092,8 +6062,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -6124,35 +6094,35 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="46" t="s">
-        <v>434</v>
+      <c r="C1" s="45" t="s">
+        <v>431</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="I1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>190</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>192</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>13</v>
@@ -6180,22 +6150,22 @@
     </row>
     <row r="2" spans="1:1025">
       <c r="A2" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>480</v>
+      </c>
+      <c r="E2" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>194</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>488</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>195</v>
-      </c>
       <c r="F2" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="H2" s="9">
         <v>203893801</v>
@@ -6215,22 +6185,22 @@
     </row>
     <row r="3" spans="1:1025">
       <c r="A3" s="9" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="H3" s="9">
         <v>20602802</v>
@@ -6250,22 +6220,22 @@
     </row>
     <row r="4" spans="1:1025">
       <c r="A4" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>482</v>
+      </c>
+      <c r="E4" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="B4" s="9" t="s">
-        <v>199</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>490</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>200</v>
-      </c>
       <c r="F4" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="H4" s="9">
         <v>45648015</v>
@@ -6285,22 +6255,22 @@
     </row>
     <row r="5" spans="1:1025">
       <c r="A5" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>484</v>
+      </c>
+      <c r="E5" s="9" t="s">
         <v>201</v>
       </c>
-      <c r="B5" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>492</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>203</v>
-      </c>
       <c r="F5" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="H5" s="9">
         <v>85413000</v>
@@ -6320,22 +6290,22 @@
     </row>
     <row r="6" spans="1:1025">
       <c r="A6" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>480</v>
+      </c>
+      <c r="E6" s="9" t="s">
         <v>204</v>
       </c>
-      <c r="B6" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>488</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>206</v>
-      </c>
       <c r="F6" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="H6" s="9">
         <v>39877201</v>
@@ -6355,22 +6325,22 @@
     </row>
     <row r="7" spans="1:1025">
       <c r="A7" s="9" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="H7" s="9">
         <v>185316402</v>
@@ -6390,22 +6360,22 @@
     </row>
     <row r="8" spans="1:1025">
       <c r="A8" s="9" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="H8" s="9">
         <v>53862600</v>
@@ -6425,22 +6395,22 @@
     </row>
     <row r="9" spans="1:1025">
       <c r="A9" s="9" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>492</v>
+        <v>484</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="H9" s="9">
         <v>118834600</v>
@@ -6460,22 +6430,22 @@
     </row>
     <row r="10" spans="1:1025">
       <c r="A10" s="9" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="H10" s="9">
         <v>141848202</v>
@@ -6495,22 +6465,22 @@
     </row>
     <row r="11" spans="1:1025">
       <c r="A11" s="9" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>492</v>
+        <v>484</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="H11" s="9">
         <v>2988400</v>
@@ -6530,22 +6500,22 @@
     </row>
     <row r="12" spans="1:1025">
       <c r="A12" s="9" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="H12" s="9">
         <v>43970600</v>
@@ -6565,22 +6535,22 @@
     </row>
     <row r="13" spans="1:1025">
       <c r="A13" s="9" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="H13" s="9">
         <v>890483</v>
@@ -6600,22 +6570,22 @@
     </row>
     <row r="14" spans="1:1025">
       <c r="A14" s="9" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="H14" s="9">
         <v>116112401</v>
@@ -6635,22 +6605,22 @@
     </row>
     <row r="15" spans="1:1025">
       <c r="A15" s="9" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="H15" s="9">
         <v>72121544</v>
@@ -6665,7 +6635,7 @@
         <v>72121926</v>
       </c>
       <c r="L15" s="5" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="N15" s="23"/>
       <c r="R15" s="11"/>
@@ -6673,22 +6643,22 @@
     </row>
     <row r="16" spans="1:1025">
       <c r="A16" s="9" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="H16" s="9">
         <v>22700001</v>
@@ -6708,22 +6678,22 @@
     </row>
     <row r="17" spans="1:19">
       <c r="A17" s="9" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>492</v>
+        <v>484</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="H17" s="9">
         <v>46022400</v>
@@ -6743,22 +6713,22 @@
     </row>
     <row r="18" spans="1:19">
       <c r="A18" s="9" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="H18" s="9">
         <v>132186801</v>
@@ -6778,22 +6748,22 @@
     </row>
     <row r="19" spans="1:19" ht="15" customHeight="1">
       <c r="A19" s="9" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="H19" s="9">
         <v>102368448</v>
@@ -6808,7 +6778,7 @@
         <v>102368872</v>
       </c>
       <c r="L19" s="5" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="N19" s="23"/>
       <c r="R19" s="11"/>
@@ -6816,22 +6786,22 @@
     </row>
     <row r="20" spans="1:19">
       <c r="A20" s="9" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="H20" s="9">
         <v>101939801</v>
@@ -6851,22 +6821,22 @@
     </row>
     <row r="21" spans="1:19">
       <c r="A21" s="9" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>492</v>
+        <v>484</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="H21" s="9">
         <v>99984000</v>
@@ -6886,22 +6856,22 @@
     </row>
     <row r="22" spans="1:19">
       <c r="A22" s="9" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="H22" s="9">
         <v>52849669</v>
@@ -6921,22 +6891,22 @@
     </row>
     <row r="23" spans="1:19">
       <c r="A23" s="9" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="H23" s="9">
         <v>23578503</v>
@@ -6956,22 +6926,22 @@
     </row>
     <row r="24" spans="1:19">
       <c r="A24" s="9" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G24" s="9" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="H24" s="9">
         <v>90214601</v>
@@ -6991,22 +6961,22 @@
     </row>
     <row r="25" spans="1:19">
       <c r="A25" s="9" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>492</v>
+        <v>484</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G25" s="9" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="H25" s="9">
         <v>47716801</v>
@@ -7026,22 +6996,22 @@
     </row>
     <row r="26" spans="1:19">
       <c r="A26" s="9" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>492</v>
+        <v>484</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G26" s="9" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="H26" s="9">
         <v>50368000</v>
@@ -7061,22 +7031,22 @@
     </row>
     <row r="27" spans="1:19">
       <c r="A27" s="9" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>492</v>
+        <v>484</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G27" s="9" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="H27" s="9">
         <v>18650001</v>
@@ -7096,22 +7066,22 @@
     </row>
     <row r="28" spans="1:19">
       <c r="A28" s="9" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G28" s="9" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="H28" s="9">
         <v>33756200</v>
@@ -7131,22 +7101,22 @@
     </row>
     <row r="29" spans="1:19">
       <c r="A29" s="9" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>492</v>
+        <v>484</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G29" s="9" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="H29" s="9">
         <v>58326200</v>
@@ -7166,22 +7136,22 @@
     </row>
     <row r="30" spans="1:19">
       <c r="A30" s="9" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F30" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G30" s="9" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="H30" s="9">
         <v>50117624</v>
@@ -7201,22 +7171,22 @@
     </row>
     <row r="31" spans="1:19">
       <c r="A31" s="9" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G31" s="9" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="H31" s="9">
         <v>62960832</v>
@@ -7236,22 +7206,22 @@
     </row>
     <row r="32" spans="1:19">
       <c r="A32" s="9" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G32" s="9" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="H32" s="9">
         <v>57964075</v>
@@ -7271,22 +7241,22 @@
     </row>
     <row r="33" spans="1:19">
       <c r="A33" s="9" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F33" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G33" s="9" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="H33" s="9">
         <v>36710048</v>
@@ -7306,22 +7276,22 @@
     </row>
     <row r="34" spans="1:19">
       <c r="A34" s="9" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F34" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G34" s="9" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="H34" s="9">
         <v>43346380</v>
@@ -7341,22 +7311,22 @@
     </row>
     <row r="35" spans="1:19">
       <c r="A35" s="9" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>492</v>
+        <v>484</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F35" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G35" s="9" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="H35" s="9">
         <v>30591000</v>
@@ -7376,22 +7346,22 @@
     </row>
     <row r="36" spans="1:19">
       <c r="A36" s="9" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F36" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G36" s="9" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="H36" s="9">
         <v>135326401</v>
@@ -7411,22 +7381,22 @@
     </row>
     <row r="37" spans="1:19">
       <c r="A37" s="9" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>74</v>
+        <v>489</v>
       </c>
       <c r="G37" s="9" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="H37" s="9">
         <v>13401</v>
@@ -7489,19 +7459,19 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>272</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>274</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>13</v>
@@ -7515,23 +7485,23 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="9" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E2" s="11"/>
       <c r="F2" s="11" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="K2" s="11"/>
       <c r="L2" s="11"/>
@@ -7539,23 +7509,23 @@
     </row>
     <row r="3" spans="1:13" ht="15" customHeight="1">
       <c r="A3" s="9" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E3" s="11"/>
       <c r="F3" s="11" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="K3" s="11"/>
       <c r="L3" s="11"/>
@@ -7563,48 +7533,48 @@
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="9" t="s">
+        <v>279</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>281</v>
       </c>
-      <c r="B4" s="9" t="s">
-        <v>282</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>209</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>283</v>
-      </c>
       <c r="F4" s="9" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="9" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="F5" s="39" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
     </row>
   </sheetData>
@@ -7645,16 +7615,16 @@
         <v>1</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>13</v>
@@ -7668,16 +7638,16 @@
     </row>
     <row r="2" spans="1:9" ht="15.75">
       <c r="A2" s="14" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C2" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="F2">
         <v>0.5</v>
@@ -7686,16 +7656,16 @@
     </row>
     <row r="3" spans="1:9" ht="15.75">
       <c r="A3" s="14" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="D3" s="14" t="s">
+        <v>311</v>
+      </c>
+      <c r="E3" s="14" t="s">
         <v>314</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>317</v>
       </c>
       <c r="F3">
         <v>0.8</v>
@@ -7704,16 +7674,16 @@
     </row>
     <row r="4" spans="1:9" ht="15.75">
       <c r="A4" s="14" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="F4">
         <v>0.02</v>
@@ -7730,929 +7700,929 @@
   <dimension ref="A1:AMI37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" style="83"/>
-    <col min="2" max="3" width="9" style="83"/>
-    <col min="4" max="4" width="10.42578125" style="83" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" style="83" customWidth="1"/>
-    <col min="6" max="6" width="16.42578125" style="83"/>
-    <col min="7" max="9" width="13.42578125" style="83"/>
-    <col min="10" max="11" width="20.7109375" style="82" customWidth="1"/>
-    <col min="12" max="12" width="20.7109375" style="86" customWidth="1"/>
-    <col min="13" max="1023" width="32.42578125" style="82"/>
-    <col min="1024" max="1025" width="8.42578125" style="87"/>
-    <col min="1026" max="16384" width="9" style="87"/>
+    <col min="1" max="1" width="17.42578125" style="82"/>
+    <col min="2" max="3" width="9" style="82"/>
+    <col min="4" max="4" width="10.42578125" style="82" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" style="82" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" style="82"/>
+    <col min="7" max="9" width="13.42578125" style="82"/>
+    <col min="10" max="11" width="20.7109375" style="81" customWidth="1"/>
+    <col min="12" max="12" width="20.7109375" style="85" customWidth="1"/>
+    <col min="13" max="1023" width="32.42578125" style="81"/>
+    <col min="1024" max="1025" width="8.42578125" style="86"/>
+    <col min="1026" max="16384" width="9" style="86"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1023" s="80" customFormat="1" ht="12.75">
-      <c r="A1" s="80" t="s">
+    <row r="1" spans="1:1023" s="79" customFormat="1" ht="12.75">
+      <c r="A1" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="81" t="s">
+      <c r="B1" s="80" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="81" t="s">
-        <v>434</v>
-      </c>
-      <c r="D1" s="80" t="s">
+      <c r="C1" s="80" t="s">
+        <v>431</v>
+      </c>
+      <c r="D1" s="79" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1" s="80" t="s">
+        <v>442</v>
+      </c>
+      <c r="F1" s="79" t="s">
+        <v>73</v>
+      </c>
+      <c r="G1" s="79" t="s">
         <v>76</v>
       </c>
-      <c r="E1" s="81" t="s">
-        <v>447</v>
-      </c>
-      <c r="F1" s="80" t="s">
-        <v>75</v>
-      </c>
-      <c r="G1" s="80" t="s">
+      <c r="H1" s="79" t="s">
+        <v>77</v>
+      </c>
+      <c r="I1" s="79" t="s">
         <v>78</v>
       </c>
-      <c r="H1" s="80" t="s">
+      <c r="J1" s="79" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" s="79" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="79" t="s">
+        <v>9</v>
+      </c>
+      <c r="AMD1" s="81"/>
+      <c r="AME1" s="81"/>
+      <c r="AMF1" s="81"/>
+      <c r="AMG1" s="81"/>
+      <c r="AMH1" s="81"/>
+      <c r="AMI1" s="81"/>
+    </row>
+    <row r="2" spans="1:1023">
+      <c r="A2" s="82" t="s">
         <v>79</v>
       </c>
-      <c r="I1" s="80" t="s">
+      <c r="B2" s="81" t="s">
         <v>80</v>
       </c>
-      <c r="J1" s="80" t="s">
-        <v>13</v>
-      </c>
-      <c r="K1" s="80" t="s">
-        <v>12</v>
-      </c>
-      <c r="L1" s="80" t="s">
-        <v>9</v>
-      </c>
-      <c r="AMD1" s="82"/>
-      <c r="AME1" s="82"/>
-      <c r="AMF1" s="82"/>
-      <c r="AMG1" s="82"/>
-      <c r="AMH1" s="82"/>
-      <c r="AMI1" s="82"/>
-    </row>
-    <row r="2" spans="1:1023">
-      <c r="A2" s="83" t="s">
+      <c r="C2" s="81"/>
+      <c r="D2" s="82" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="82" t="s">
+      <c r="F2" s="82" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2" s="83" t="s">
+        <v>275</v>
+      </c>
+      <c r="H2" s="84">
+        <v>20633455</v>
+      </c>
+      <c r="I2" s="84">
+        <v>20651511</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1023">
+      <c r="A3" s="82" t="s">
         <v>82</v>
       </c>
-      <c r="C2" s="82"/>
-      <c r="D2" s="83" t="s">
+      <c r="B3" s="81" t="s">
         <v>83</v>
       </c>
-      <c r="F2" s="83" t="s">
+      <c r="C3" s="81"/>
+      <c r="D3" s="82" t="s">
+        <v>84</v>
+      </c>
+      <c r="F3" s="82" t="s">
         <v>50</v>
       </c>
-      <c r="G2" s="84" t="s">
-        <v>277</v>
-      </c>
-      <c r="H2" s="85">
-        <v>20633455</v>
-      </c>
-      <c r="I2" s="85">
-        <v>20651511</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1023">
-      <c r="A3" s="83" t="s">
-        <v>84</v>
-      </c>
-      <c r="B3" s="82" t="s">
+      <c r="G3" s="83" t="s">
+        <v>278</v>
+      </c>
+      <c r="H3" s="84">
+        <v>10439968</v>
+      </c>
+      <c r="I3" s="84">
+        <v>10448504</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1023">
+      <c r="A4" s="82" t="s">
         <v>85</v>
       </c>
-      <c r="C3" s="82"/>
-      <c r="D3" s="83" t="s">
+      <c r="B4" s="81" t="s">
         <v>86</v>
       </c>
-      <c r="F3" s="83" t="s">
+      <c r="C4" s="81"/>
+      <c r="D4" s="82" t="s">
+        <v>87</v>
+      </c>
+      <c r="F4" s="82" t="s">
+        <v>50</v>
+      </c>
+      <c r="G4" s="83" t="s">
+        <v>278</v>
+      </c>
+      <c r="H4" s="84">
+        <v>69319769</v>
+      </c>
+      <c r="I4" s="84">
+        <v>69387254</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1023">
+      <c r="A5" s="82" t="s">
+        <v>88</v>
+      </c>
+      <c r="B5" s="81" t="s">
+        <v>89</v>
+      </c>
+      <c r="C5" s="81"/>
+      <c r="D5" s="82" t="s">
+        <v>90</v>
+      </c>
+      <c r="F5" s="82" t="s">
         <v>51</v>
       </c>
-      <c r="G3" s="84" t="s">
-        <v>280</v>
-      </c>
-      <c r="H3" s="85">
-        <v>10439968</v>
-      </c>
-      <c r="I3" s="85">
-        <v>10448504</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1023">
-      <c r="A4" s="83" t="s">
-        <v>87</v>
-      </c>
-      <c r="B4" s="82" t="s">
-        <v>88</v>
-      </c>
-      <c r="C4" s="82"/>
-      <c r="D4" s="83" t="s">
-        <v>89</v>
-      </c>
-      <c r="F4" s="83" t="s">
+      <c r="G5" s="83" t="s">
+        <v>275</v>
+      </c>
+      <c r="H5" s="84">
+        <v>40524878</v>
+      </c>
+      <c r="I5" s="84">
+        <v>40574685</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1023">
+      <c r="A6" s="82" t="s">
+        <v>91</v>
+      </c>
+      <c r="B6" s="81" t="s">
+        <v>92</v>
+      </c>
+      <c r="C6" s="81"/>
+      <c r="D6" s="82" t="s">
+        <v>93</v>
+      </c>
+      <c r="F6" s="82" t="s">
         <v>51</v>
       </c>
-      <c r="G4" s="84" t="s">
-        <v>280</v>
-      </c>
-      <c r="H4" s="85">
-        <v>69319769</v>
-      </c>
-      <c r="I4" s="85">
-        <v>69387254</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1023">
-      <c r="A5" s="83" t="s">
-        <v>90</v>
-      </c>
-      <c r="B5" s="82" t="s">
-        <v>91</v>
-      </c>
-      <c r="C5" s="82"/>
-      <c r="D5" s="83" t="s">
-        <v>92</v>
-      </c>
-      <c r="F5" s="83" t="s">
+      <c r="G6" s="83" t="s">
+        <v>278</v>
+      </c>
+      <c r="H6" s="84">
+        <v>112596794</v>
+      </c>
+      <c r="I6" s="84">
+        <v>112649530</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1023">
+      <c r="A7" s="82" t="s">
+        <v>94</v>
+      </c>
+      <c r="B7" s="81" t="s">
+        <v>95</v>
+      </c>
+      <c r="C7" s="81"/>
+      <c r="D7" s="82" t="s">
+        <v>96</v>
+      </c>
+      <c r="F7" s="82" t="s">
         <v>52</v>
       </c>
-      <c r="G5" s="84" t="s">
-        <v>277</v>
-      </c>
-      <c r="H5" s="85">
-        <v>40524878</v>
-      </c>
-      <c r="I5" s="85">
-        <v>40574685</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1023">
-      <c r="A6" s="83" t="s">
-        <v>93</v>
-      </c>
-      <c r="B6" s="82" t="s">
-        <v>94</v>
-      </c>
-      <c r="C6" s="82"/>
-      <c r="D6" s="83" t="s">
-        <v>95</v>
-      </c>
-      <c r="F6" s="83" t="s">
+      <c r="G7" s="83" t="s">
+        <v>275</v>
+      </c>
+      <c r="H7" s="84">
+        <v>83535914</v>
+      </c>
+      <c r="I7" s="84">
+        <v>83605875</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1023">
+      <c r="A8" s="82" t="s">
+        <v>97</v>
+      </c>
+      <c r="B8" s="81" t="s">
+        <v>98</v>
+      </c>
+      <c r="C8" s="81"/>
+      <c r="D8" s="82" t="s">
+        <v>99</v>
+      </c>
+      <c r="F8" s="82" t="s">
         <v>52</v>
       </c>
-      <c r="G6" s="84" t="s">
-        <v>280</v>
-      </c>
-      <c r="H6" s="85">
-        <v>112596794</v>
-      </c>
-      <c r="I6" s="85">
-        <v>112649530</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1023">
-      <c r="A7" s="83" t="s">
-        <v>96</v>
-      </c>
-      <c r="B7" s="82" t="s">
-        <v>97</v>
-      </c>
-      <c r="C7" s="82"/>
-      <c r="D7" s="83" t="s">
-        <v>98</v>
-      </c>
-      <c r="F7" s="83" t="s">
+      <c r="G8" s="83" t="s">
+        <v>275</v>
+      </c>
+      <c r="H8" s="84">
+        <v>127880861</v>
+      </c>
+      <c r="I8" s="84">
+        <v>127899195</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1023">
+      <c r="A9" s="82" t="s">
+        <v>100</v>
+      </c>
+      <c r="B9" s="81" t="s">
+        <v>101</v>
+      </c>
+      <c r="C9" s="81"/>
+      <c r="D9" s="82" t="s">
+        <v>102</v>
+      </c>
+      <c r="F9" s="82" t="s">
         <v>53</v>
       </c>
-      <c r="G7" s="84" t="s">
-        <v>277</v>
-      </c>
-      <c r="H7" s="85">
-        <v>83535914</v>
-      </c>
-      <c r="I7" s="85">
-        <v>83605875</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1023">
-      <c r="A8" s="83" t="s">
-        <v>99</v>
-      </c>
-      <c r="B8" s="82" t="s">
-        <v>100</v>
-      </c>
-      <c r="C8" s="82"/>
-      <c r="D8" s="83" t="s">
-        <v>101</v>
-      </c>
-      <c r="F8" s="83" t="s">
-        <v>53</v>
-      </c>
-      <c r="G8" s="84" t="s">
-        <v>277</v>
-      </c>
-      <c r="H8" s="85">
-        <v>127880861</v>
-      </c>
-      <c r="I8" s="85">
-        <v>127899195</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1023">
-      <c r="A9" s="83" t="s">
-        <v>102</v>
-      </c>
-      <c r="B9" s="82" t="s">
+      <c r="G9" s="83" t="s">
+        <v>278</v>
+      </c>
+      <c r="H9" s="84">
+        <v>160401641</v>
+      </c>
+      <c r="I9" s="84">
+        <v>160421711</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1023">
+      <c r="A10" s="82" t="s">
         <v>103</v>
       </c>
-      <c r="C9" s="82"/>
-      <c r="D9" s="83" t="s">
+      <c r="B10" s="81" t="s">
         <v>104</v>
       </c>
-      <c r="F9" s="83" t="s">
+      <c r="C10" s="81"/>
+      <c r="D10" s="82" t="s">
+        <v>105</v>
+      </c>
+      <c r="F10" s="82" t="s">
         <v>54</v>
       </c>
-      <c r="G9" s="84" t="s">
-        <v>280</v>
-      </c>
-      <c r="H9" s="85">
-        <v>160401641</v>
-      </c>
-      <c r="I9" s="85">
-        <v>160421711</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1023">
-      <c r="A10" s="83" t="s">
-        <v>105</v>
-      </c>
-      <c r="B10" s="82" t="s">
+      <c r="G10" s="83" t="s">
+        <v>275</v>
+      </c>
+      <c r="H10" s="84">
+        <v>151656691</v>
+      </c>
+      <c r="I10" s="84">
+        <v>152129619</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1023">
+      <c r="A11" s="82" t="s">
         <v>106</v>
       </c>
-      <c r="C10" s="82"/>
-      <c r="D10" s="83" t="s">
+      <c r="B11" s="81" t="s">
         <v>107</v>
       </c>
-      <c r="F10" s="83" t="s">
+      <c r="C11" s="81"/>
+      <c r="D11" s="82" t="s">
+        <v>108</v>
+      </c>
+      <c r="F11" s="82" t="s">
         <v>55</v>
       </c>
-      <c r="G10" s="84" t="s">
-        <v>277</v>
-      </c>
-      <c r="H10" s="85">
-        <v>151656691</v>
-      </c>
-      <c r="I10" s="85">
-        <v>152129619</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1023">
-      <c r="A11" s="83" t="s">
-        <v>108</v>
-      </c>
-      <c r="B11" s="82" t="s">
+      <c r="G11" s="83" t="s">
+        <v>278</v>
+      </c>
+      <c r="H11" s="84">
+        <v>56011051</v>
+      </c>
+      <c r="I11" s="84">
+        <v>56051604</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1023">
+      <c r="A12" s="82" t="s">
         <v>109</v>
       </c>
-      <c r="C11" s="82"/>
-      <c r="D11" s="83" t="s">
+      <c r="B12" s="81" t="s">
         <v>110</v>
       </c>
-      <c r="F11" s="83" t="s">
+      <c r="C12" s="81"/>
+      <c r="D12" s="82" t="s">
+        <v>111</v>
+      </c>
+      <c r="F12" s="82" t="s">
         <v>56</v>
       </c>
-      <c r="G11" s="84" t="s">
-        <v>280</v>
-      </c>
-      <c r="H11" s="85">
-        <v>56011051</v>
-      </c>
-      <c r="I11" s="85">
-        <v>56051604</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1023">
-      <c r="A12" s="83" t="s">
-        <v>111</v>
-      </c>
-      <c r="B12" s="82" t="s">
+      <c r="G12" s="83" t="s">
+        <v>278</v>
+      </c>
+      <c r="H12" s="84">
+        <v>18055992</v>
+      </c>
+      <c r="I12" s="84">
+        <v>18084998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1023">
+      <c r="A13" s="82" t="s">
         <v>112</v>
       </c>
-      <c r="C12" s="82"/>
-      <c r="D12" s="83" t="s">
+      <c r="B13" s="81" t="s">
         <v>113</v>
       </c>
-      <c r="F12" s="83" t="s">
+      <c r="C13" s="81"/>
+      <c r="D13" s="82" t="s">
+        <v>114</v>
+      </c>
+      <c r="F13" s="82" t="s">
+        <v>56</v>
+      </c>
+      <c r="G13" s="83" t="s">
+        <v>275</v>
+      </c>
+      <c r="H13" s="84">
+        <v>19901717</v>
+      </c>
+      <c r="I13" s="84">
+        <v>19967258</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1023" ht="15" customHeight="1">
+      <c r="A14" s="82" t="s">
+        <v>115</v>
+      </c>
+      <c r="B14" s="81" t="s">
+        <v>116</v>
+      </c>
+      <c r="C14" s="81"/>
+      <c r="D14" s="82" t="s">
+        <v>117</v>
+      </c>
+      <c r="F14" s="82" t="s">
         <v>57</v>
       </c>
-      <c r="G12" s="84" t="s">
-        <v>280</v>
-      </c>
-      <c r="H12" s="85">
-        <v>18055992</v>
-      </c>
-      <c r="I12" s="85">
-        <v>18084998</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1023">
-      <c r="A13" s="83" t="s">
-        <v>114</v>
-      </c>
-      <c r="B13" s="82" t="s">
-        <v>115</v>
-      </c>
-      <c r="C13" s="82"/>
-      <c r="D13" s="83" t="s">
-        <v>116</v>
-      </c>
-      <c r="F13" s="83" t="s">
-        <v>57</v>
-      </c>
-      <c r="G13" s="84" t="s">
-        <v>277</v>
-      </c>
-      <c r="H13" s="85">
-        <v>19901717</v>
-      </c>
-      <c r="I13" s="85">
-        <v>19967258</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1023" ht="15" customHeight="1">
-      <c r="A14" s="83" t="s">
-        <v>117</v>
-      </c>
-      <c r="B14" s="82" t="s">
+      <c r="G14" s="83" t="s">
+        <v>275</v>
+      </c>
+      <c r="H14" s="84">
+        <v>136410570</v>
+      </c>
+      <c r="I14" s="84">
+        <v>136423761</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1023">
+      <c r="A15" s="82" t="s">
         <v>118</v>
       </c>
-      <c r="C14" s="82"/>
-      <c r="D14" s="83" t="s">
+      <c r="B15" s="81" t="s">
         <v>119</v>
       </c>
-      <c r="F14" s="83" t="s">
+      <c r="C15" s="81"/>
+      <c r="D15" s="82" t="s">
+        <v>120</v>
+      </c>
+      <c r="F15" s="82" t="s">
         <v>58</v>
       </c>
-      <c r="G14" s="84" t="s">
-        <v>277</v>
-      </c>
-      <c r="H14" s="85">
-        <v>136410570</v>
-      </c>
-      <c r="I14" s="85">
-        <v>136423761</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1023">
-      <c r="A15" s="83" t="s">
-        <v>120</v>
-      </c>
-      <c r="B15" s="82" t="s">
+      <c r="G15" s="83" t="s">
+        <v>278</v>
+      </c>
+      <c r="H15" s="84">
+        <v>7750962</v>
+      </c>
+      <c r="I15" s="84">
+        <v>7787981</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1023">
+      <c r="A16" s="82" t="s">
         <v>121</v>
       </c>
-      <c r="C15" s="82"/>
-      <c r="D15" s="83" t="s">
+      <c r="B16" s="81" t="s">
         <v>122</v>
       </c>
-      <c r="F15" s="83" t="s">
+      <c r="C16" s="81"/>
+      <c r="D16" s="82" t="s">
+        <v>123</v>
+      </c>
+      <c r="F16" s="82" t="s">
+        <v>58</v>
+      </c>
+      <c r="G16" s="83" t="s">
+        <v>275</v>
+      </c>
+      <c r="H16" s="84">
+        <v>133394094</v>
+      </c>
+      <c r="I16" s="84">
+        <v>133421307</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="82" t="s">
+        <v>124</v>
+      </c>
+      <c r="B17" s="81" t="s">
+        <v>125</v>
+      </c>
+      <c r="C17" s="81"/>
+      <c r="D17" s="82" t="s">
+        <v>126</v>
+      </c>
+      <c r="F17" s="82" t="s">
         <v>59</v>
       </c>
-      <c r="G15" s="84" t="s">
-        <v>280</v>
-      </c>
-      <c r="H15" s="85">
-        <v>7750962</v>
-      </c>
-      <c r="I15" s="85">
-        <v>7787981</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1023">
-      <c r="A16" s="83" t="s">
-        <v>123</v>
-      </c>
-      <c r="B16" s="82" t="s">
-        <v>124</v>
-      </c>
-      <c r="C16" s="82"/>
-      <c r="D16" s="83" t="s">
-        <v>125</v>
-      </c>
-      <c r="F16" s="83" t="s">
+      <c r="G17" s="83" t="s">
+        <v>275</v>
+      </c>
+      <c r="H17" s="84">
+        <v>13668670</v>
+      </c>
+      <c r="I17" s="84">
+        <v>13732346</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="82" t="s">
+        <v>127</v>
+      </c>
+      <c r="B18" s="81" t="s">
+        <v>128</v>
+      </c>
+      <c r="C18" s="81"/>
+      <c r="D18" s="82" t="s">
+        <v>129</v>
+      </c>
+      <c r="F18" s="82" t="s">
         <v>59</v>
       </c>
-      <c r="G16" s="84" t="s">
-        <v>277</v>
-      </c>
-      <c r="H16" s="85">
-        <v>133394094</v>
-      </c>
-      <c r="I16" s="85">
-        <v>133421307</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="83" t="s">
-        <v>126</v>
-      </c>
-      <c r="B17" s="82" t="s">
-        <v>127</v>
-      </c>
-      <c r="C17" s="82"/>
-      <c r="D17" s="83" t="s">
-        <v>128</v>
-      </c>
-      <c r="F17" s="83" t="s">
+      <c r="G18" s="83" t="s">
+        <v>275</v>
+      </c>
+      <c r="H18" s="84">
+        <v>114439386</v>
+      </c>
+      <c r="I18" s="84">
+        <v>114450279</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="82" t="s">
+        <v>130</v>
+      </c>
+      <c r="B19" s="81" t="s">
+        <v>131</v>
+      </c>
+      <c r="C19" s="81"/>
+      <c r="D19" s="82" t="s">
+        <v>132</v>
+      </c>
+      <c r="F19" s="82" t="s">
         <v>60</v>
       </c>
-      <c r="G17" s="84" t="s">
-        <v>277</v>
-      </c>
-      <c r="H17" s="85">
-        <v>13668670</v>
-      </c>
-      <c r="I17" s="85">
-        <v>13732346</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="83" t="s">
-        <v>129</v>
-      </c>
-      <c r="B18" s="82" t="s">
-        <v>130</v>
-      </c>
-      <c r="C18" s="82"/>
-      <c r="D18" s="83" t="s">
-        <v>131</v>
-      </c>
-      <c r="F18" s="83" t="s">
+      <c r="G19" s="83" t="s">
+        <v>278</v>
+      </c>
+      <c r="H19" s="84">
+        <v>77021247</v>
+      </c>
+      <c r="I19" s="84">
+        <v>77065580</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="82" t="s">
+        <v>133</v>
+      </c>
+      <c r="B20" s="81" t="s">
+        <v>134</v>
+      </c>
+      <c r="C20" s="81"/>
+      <c r="D20" s="82" t="s">
+        <v>135</v>
+      </c>
+      <c r="F20" s="82" t="s">
         <v>60</v>
       </c>
-      <c r="G18" s="84" t="s">
-        <v>277</v>
-      </c>
-      <c r="H18" s="85">
-        <v>114439386</v>
-      </c>
-      <c r="I18" s="85">
-        <v>114450279</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" s="83" t="s">
-        <v>132</v>
-      </c>
-      <c r="B19" s="82" t="s">
-        <v>133</v>
-      </c>
-      <c r="C19" s="82"/>
-      <c r="D19" s="83" t="s">
-        <v>134</v>
-      </c>
-      <c r="F19" s="83" t="s">
+      <c r="G20" s="83" t="s">
+        <v>278</v>
+      </c>
+      <c r="H20" s="84">
+        <v>113298759</v>
+      </c>
+      <c r="I20" s="84">
+        <v>113359493</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="82" t="s">
+        <v>136</v>
+      </c>
+      <c r="B21" s="81" t="s">
+        <v>137</v>
+      </c>
+      <c r="C21" s="81"/>
+      <c r="D21" s="82" t="s">
+        <v>138</v>
+      </c>
+      <c r="F21" s="82" t="s">
         <v>61</v>
       </c>
-      <c r="G19" s="84" t="s">
-        <v>280</v>
-      </c>
-      <c r="H19" s="85">
-        <v>77021247</v>
-      </c>
-      <c r="I19" s="85">
-        <v>77065580</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="83" t="s">
-        <v>135</v>
-      </c>
-      <c r="B20" s="82" t="s">
-        <v>136</v>
-      </c>
-      <c r="C20" s="82"/>
-      <c r="D20" s="83" t="s">
-        <v>137</v>
-      </c>
-      <c r="F20" s="83" t="s">
-        <v>61</v>
-      </c>
-      <c r="G20" s="84" t="s">
-        <v>280</v>
-      </c>
-      <c r="H20" s="85">
-        <v>113298759</v>
-      </c>
-      <c r="I20" s="85">
-        <v>113359493</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="83" t="s">
-        <v>138</v>
-      </c>
-      <c r="B21" s="82" t="s">
+      <c r="G21" s="83" t="s">
+        <v>275</v>
+      </c>
+      <c r="H21" s="84">
+        <v>52455429</v>
+      </c>
+      <c r="I21" s="84">
+        <v>52476628</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="82" t="s">
         <v>139</v>
       </c>
-      <c r="C21" s="82"/>
-      <c r="D21" s="83" t="s">
+      <c r="B22" s="81" t="s">
         <v>140</v>
       </c>
-      <c r="F21" s="83" t="s">
+      <c r="C22" s="81"/>
+      <c r="D22" s="82" t="s">
+        <v>141</v>
+      </c>
+      <c r="F22" s="82" t="s">
         <v>62</v>
       </c>
-      <c r="G21" s="84" t="s">
-        <v>277</v>
-      </c>
-      <c r="H21" s="85">
-        <v>52455429</v>
-      </c>
-      <c r="I21" s="85">
-        <v>52476628</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="A22" s="83" t="s">
-        <v>141</v>
-      </c>
-      <c r="B22" s="82" t="s">
+      <c r="G22" s="83" t="s">
+        <v>278</v>
+      </c>
+      <c r="H22" s="84">
+        <v>102932379</v>
+      </c>
+      <c r="I22" s="84">
+        <v>103057462</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="82" t="s">
         <v>142</v>
       </c>
-      <c r="C22" s="82"/>
-      <c r="D22" s="83" t="s">
+      <c r="B23" s="81" t="s">
         <v>143</v>
       </c>
-      <c r="F22" s="83" t="s">
+      <c r="C23" s="81"/>
+      <c r="D23" s="82" t="s">
+        <v>144</v>
+      </c>
+      <c r="F23" s="82" t="s">
         <v>63</v>
       </c>
-      <c r="G22" s="84" t="s">
-        <v>280</v>
-      </c>
-      <c r="H22" s="85">
-        <v>102932379</v>
-      </c>
-      <c r="I22" s="85">
-        <v>103057462</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
-      <c r="A23" s="83" t="s">
-        <v>144</v>
-      </c>
-      <c r="B23" s="82" t="s">
+      <c r="G23" s="83" t="s">
+        <v>275</v>
+      </c>
+      <c r="H23" s="84">
+        <v>65530418</v>
+      </c>
+      <c r="I23" s="84">
+        <v>65578352</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="82" t="s">
         <v>145</v>
       </c>
-      <c r="C23" s="82"/>
-      <c r="D23" s="83" t="s">
+      <c r="B24" s="81" t="s">
         <v>146</v>
       </c>
-      <c r="F23" s="83" t="s">
+      <c r="C24" s="81"/>
+      <c r="D24" s="82" t="s">
+        <v>147</v>
+      </c>
+      <c r="F24" s="82" t="s">
+        <v>63</v>
+      </c>
+      <c r="G24" s="83" t="s">
+        <v>278</v>
+      </c>
+      <c r="H24" s="84">
+        <v>101175723</v>
+      </c>
+      <c r="I24" s="84">
+        <v>101251932</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="82" t="s">
+        <v>148</v>
+      </c>
+      <c r="B25" s="81" t="s">
+        <v>149</v>
+      </c>
+      <c r="C25" s="81"/>
+      <c r="D25" s="82" t="s">
+        <v>150</v>
+      </c>
+      <c r="F25" s="82" t="s">
         <v>64</v>
       </c>
-      <c r="G23" s="84" t="s">
-        <v>277</v>
-      </c>
-      <c r="H23" s="85">
-        <v>65530418</v>
-      </c>
-      <c r="I23" s="85">
-        <v>65578352</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="A24" s="83" t="s">
-        <v>147</v>
-      </c>
-      <c r="B24" s="82" t="s">
-        <v>148</v>
-      </c>
-      <c r="C24" s="82"/>
-      <c r="D24" s="83" t="s">
-        <v>149</v>
-      </c>
-      <c r="F24" s="83" t="s">
-        <v>64</v>
-      </c>
-      <c r="G24" s="84" t="s">
-        <v>280</v>
-      </c>
-      <c r="H24" s="85">
-        <v>101175723</v>
-      </c>
-      <c r="I24" s="85">
-        <v>101251932</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
-      <c r="A25" s="83" t="s">
-        <v>150</v>
-      </c>
-      <c r="B25" s="82" t="s">
+      <c r="G25" s="83" t="s">
+        <v>275</v>
+      </c>
+      <c r="H25" s="84">
+        <v>89088375</v>
+      </c>
+      <c r="I25" s="84">
+        <v>89155846</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="82" t="s">
         <v>151</v>
       </c>
-      <c r="C25" s="82"/>
-      <c r="D25" s="83" t="s">
+      <c r="B26" s="81" t="s">
         <v>152</v>
       </c>
-      <c r="F25" s="83" t="s">
+      <c r="C26" s="81"/>
+      <c r="D26" s="82" t="s">
+        <v>153</v>
+      </c>
+      <c r="F26" s="82" t="s">
         <v>65</v>
       </c>
-      <c r="G25" s="84" t="s">
-        <v>277</v>
-      </c>
-      <c r="H25" s="85">
-        <v>89088375</v>
-      </c>
-      <c r="I25" s="85">
-        <v>89155846</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
-      <c r="A26" s="83" t="s">
-        <v>153</v>
-      </c>
-      <c r="B26" s="82" t="s">
+      <c r="G26" s="83" t="s">
+        <v>275</v>
+      </c>
+      <c r="H26" s="84">
+        <v>49210227</v>
+      </c>
+      <c r="I26" s="84">
+        <v>49223225</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="82" t="s">
         <v>154</v>
       </c>
-      <c r="C26" s="82"/>
-      <c r="D26" s="83" t="s">
+      <c r="B27" s="81" t="s">
         <v>155</v>
       </c>
-      <c r="F26" s="83" t="s">
+      <c r="C27" s="81"/>
+      <c r="D27" s="82" t="s">
+        <v>156</v>
+      </c>
+      <c r="F27" s="82" t="s">
         <v>66</v>
       </c>
-      <c r="G26" s="84" t="s">
-        <v>277</v>
-      </c>
-      <c r="H26" s="85">
-        <v>49210227</v>
-      </c>
-      <c r="I26" s="85">
-        <v>49223225</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
-      <c r="A27" s="83" t="s">
-        <v>156</v>
-      </c>
-      <c r="B27" s="82" t="s">
+      <c r="G27" s="83" t="s">
+        <v>275</v>
+      </c>
+      <c r="H27" s="84">
+        <v>50967991</v>
+      </c>
+      <c r="I27" s="84">
+        <v>50988121</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="82" t="s">
         <v>157</v>
       </c>
-      <c r="C27" s="82"/>
-      <c r="D27" s="83" t="s">
+      <c r="B28" s="81" t="s">
         <v>158</v>
       </c>
-      <c r="F27" s="83" t="s">
+      <c r="C28" s="81"/>
+      <c r="D28" s="82" t="s">
+        <v>159</v>
+      </c>
+      <c r="F28" s="82" t="s">
         <v>67</v>
       </c>
-      <c r="G27" s="84" t="s">
-        <v>277</v>
-      </c>
-      <c r="H27" s="85">
-        <v>50967991</v>
-      </c>
-      <c r="I27" s="85">
-        <v>50988121</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
-      <c r="A28" s="83" t="s">
-        <v>159</v>
-      </c>
-      <c r="B28" s="82" t="s">
+      <c r="G28" s="83" t="s">
+        <v>278</v>
+      </c>
+      <c r="H28" s="84">
+        <v>41431318</v>
+      </c>
+      <c r="I28" s="84">
+        <v>41440717</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="82" t="s">
         <v>160</v>
       </c>
-      <c r="C28" s="82"/>
-      <c r="D28" s="83" t="s">
+      <c r="B29" s="81" t="s">
         <v>161</v>
       </c>
-      <c r="F28" s="83" t="s">
+      <c r="C29" s="81"/>
+      <c r="D29" s="82" t="s">
+        <v>162</v>
+      </c>
+      <c r="F29" s="82" t="s">
+        <v>67</v>
+      </c>
+      <c r="G29" s="83" t="s">
+        <v>275</v>
+      </c>
+      <c r="H29" s="84">
+        <v>47778572</v>
+      </c>
+      <c r="I29" s="84">
+        <v>47784686</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="82" t="s">
+        <v>163</v>
+      </c>
+      <c r="B30" s="81" t="s">
+        <v>164</v>
+      </c>
+      <c r="C30" s="81"/>
+      <c r="D30" s="82" t="s">
+        <v>165</v>
+      </c>
+      <c r="F30" s="82" t="s">
         <v>68</v>
       </c>
-      <c r="G28" s="84" t="s">
-        <v>280</v>
-      </c>
-      <c r="H28" s="85">
-        <v>41431318</v>
-      </c>
-      <c r="I28" s="85">
-        <v>41440717</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
-      <c r="A29" s="83" t="s">
-        <v>162</v>
-      </c>
-      <c r="B29" s="82" t="s">
-        <v>163</v>
-      </c>
-      <c r="C29" s="82"/>
-      <c r="D29" s="83" t="s">
-        <v>164</v>
-      </c>
-      <c r="F29" s="83" t="s">
+      <c r="G30" s="83" t="s">
+        <v>278</v>
+      </c>
+      <c r="H30" s="84">
+        <v>13389392</v>
+      </c>
+      <c r="I30" s="84">
+        <v>13638940</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="82" t="s">
+        <v>166</v>
+      </c>
+      <c r="B31" s="81" t="s">
+        <v>167</v>
+      </c>
+      <c r="C31" s="81"/>
+      <c r="D31" s="82" t="s">
+        <v>168</v>
+      </c>
+      <c r="F31" s="82" t="s">
         <v>68</v>
       </c>
-      <c r="G29" s="84" t="s">
-        <v>277</v>
-      </c>
-      <c r="H29" s="85">
-        <v>47778572</v>
-      </c>
-      <c r="I29" s="85">
-        <v>47784686</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
-      <c r="A30" s="83" t="s">
-        <v>165</v>
-      </c>
-      <c r="B30" s="82" t="s">
-        <v>166</v>
-      </c>
-      <c r="C30" s="82"/>
-      <c r="D30" s="83" t="s">
-        <v>167</v>
-      </c>
-      <c r="F30" s="83" t="s">
+      <c r="G31" s="83" t="s">
+        <v>278</v>
+      </c>
+      <c r="H31" s="84">
+        <v>44619522</v>
+      </c>
+      <c r="I31" s="84">
+        <v>44652233</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="82" t="s">
+        <v>169</v>
+      </c>
+      <c r="B32" s="81" t="s">
+        <v>170</v>
+      </c>
+      <c r="C32" s="81"/>
+      <c r="D32" s="82" t="s">
+        <v>171</v>
+      </c>
+      <c r="F32" s="82" t="s">
         <v>69</v>
       </c>
-      <c r="G30" s="84" t="s">
-        <v>280</v>
-      </c>
-      <c r="H30" s="85">
-        <v>13389392</v>
-      </c>
-      <c r="I30" s="85">
-        <v>13638940</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
-      <c r="A31" s="83" t="s">
-        <v>168</v>
-      </c>
-      <c r="B31" s="82" t="s">
-        <v>169</v>
-      </c>
-      <c r="C31" s="82"/>
-      <c r="D31" s="83" t="s">
-        <v>170</v>
-      </c>
-      <c r="F31" s="83" t="s">
-        <v>69</v>
-      </c>
-      <c r="G31" s="84" t="s">
-        <v>280</v>
-      </c>
-      <c r="H31" s="85">
-        <v>44619522</v>
-      </c>
-      <c r="I31" s="85">
-        <v>44652233</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
-      <c r="A32" s="83" t="s">
-        <v>171</v>
-      </c>
-      <c r="B32" s="82" t="s">
+      <c r="G32" s="83" t="s">
+        <v>275</v>
+      </c>
+      <c r="H32" s="84">
+        <v>31659622</v>
+      </c>
+      <c r="I32" s="84">
+        <v>31668931</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="82" t="s">
         <v>172</v>
       </c>
-      <c r="C32" s="82"/>
-      <c r="D32" s="83" t="s">
+      <c r="B33" s="81" t="s">
         <v>173</v>
       </c>
-      <c r="F32" s="83" t="s">
+      <c r="C33" s="81"/>
+      <c r="D33" s="82" t="s">
+        <v>174</v>
+      </c>
+      <c r="F33" s="82" t="s">
         <v>70</v>
       </c>
-      <c r="G32" s="84" t="s">
-        <v>277</v>
-      </c>
-      <c r="H32" s="85">
-        <v>31659622</v>
-      </c>
-      <c r="I32" s="85">
-        <v>31668931</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
-      <c r="A33" s="83" t="s">
-        <v>174</v>
-      </c>
-      <c r="B33" s="82" t="s">
+      <c r="G33" s="83" t="s">
+        <v>278</v>
+      </c>
+      <c r="H33" s="84">
+        <v>20707691</v>
+      </c>
+      <c r="I33" s="84">
+        <v>20859417</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" s="82" t="s">
         <v>175</v>
       </c>
-      <c r="C33" s="82"/>
-      <c r="D33" s="83" t="s">
+      <c r="B34" s="81" t="s">
         <v>176</v>
       </c>
-      <c r="F33" s="83" t="s">
+      <c r="C34" s="81"/>
+      <c r="D34" s="82" t="s">
+        <v>177</v>
+      </c>
+      <c r="F34" s="82" t="s">
+        <v>70</v>
+      </c>
+      <c r="G34" s="83" t="s">
+        <v>275</v>
+      </c>
+      <c r="H34" s="84">
+        <v>38705723</v>
+      </c>
+      <c r="I34" s="84">
+        <v>38738299</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" s="82" t="s">
+        <v>178</v>
+      </c>
+      <c r="B35" s="81" t="s">
+        <v>179</v>
+      </c>
+      <c r="C35" s="81"/>
+      <c r="D35" s="82" t="s">
+        <v>180</v>
+      </c>
+      <c r="F35" s="82" t="s">
         <v>71</v>
       </c>
-      <c r="G33" s="84" t="s">
-        <v>280</v>
-      </c>
-      <c r="H33" s="85">
-        <v>20707691</v>
-      </c>
-      <c r="I33" s="85">
-        <v>20859417</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
-      <c r="A34" s="83" t="s">
-        <v>177</v>
-      </c>
-      <c r="B34" s="82" t="s">
-        <v>178</v>
-      </c>
-      <c r="C34" s="82"/>
-      <c r="D34" s="83" t="s">
-        <v>179</v>
-      </c>
-      <c r="F34" s="83" t="s">
-        <v>71</v>
-      </c>
-      <c r="G34" s="84" t="s">
-        <v>277</v>
-      </c>
-      <c r="H34" s="85">
-        <v>38705723</v>
-      </c>
-      <c r="I34" s="85">
-        <v>38738299</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
-      <c r="A35" s="83" t="s">
-        <v>180</v>
-      </c>
-      <c r="B35" s="82" t="s">
+      <c r="G35" s="83" t="s">
+        <v>278</v>
+      </c>
+      <c r="H35" s="84">
+        <v>119588337</v>
+      </c>
+      <c r="I35" s="84">
+        <v>119605895</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" s="82" t="s">
         <v>181</v>
       </c>
-      <c r="C35" s="82"/>
-      <c r="D35" s="83" t="s">
+      <c r="B36" s="81" t="s">
         <v>182</v>
       </c>
-      <c r="F35" s="83" t="s">
+      <c r="C36" s="81"/>
+      <c r="D36" s="82" t="s">
+        <v>183</v>
+      </c>
+      <c r="F36" s="82" t="s">
         <v>72</v>
       </c>
-      <c r="G35" s="84" t="s">
-        <v>280</v>
-      </c>
-      <c r="H35" s="85">
-        <v>119588337</v>
-      </c>
-      <c r="I35" s="85">
-        <v>119605895</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
-      <c r="A36" s="83" t="s">
-        <v>183</v>
-      </c>
-      <c r="B36" s="82" t="s">
+      <c r="G36" s="83" t="s">
+        <v>275</v>
+      </c>
+      <c r="H36" s="84">
+        <v>22973819</v>
+      </c>
+      <c r="I36" s="84">
+        <v>23005465</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" s="82" t="s">
         <v>184</v>
       </c>
-      <c r="C36" s="82"/>
-      <c r="D36" s="83" t="s">
+      <c r="B37" s="81" t="s">
         <v>185</v>
       </c>
-      <c r="F36" s="83" t="s">
-        <v>73</v>
-      </c>
-      <c r="G36" s="84" t="s">
-        <v>277</v>
-      </c>
-      <c r="H36" s="85">
-        <v>22973819</v>
-      </c>
-      <c r="I36" s="85">
-        <v>23005465</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
-      <c r="A37" s="83" t="s">
+      <c r="C37" s="81"/>
+      <c r="D37" s="82" t="s">
         <v>186</v>
       </c>
-      <c r="B37" s="82" t="s">
-        <v>187</v>
-      </c>
-      <c r="C37" s="82"/>
-      <c r="D37" s="83" t="s">
-        <v>188</v>
-      </c>
-      <c r="F37" s="83" t="s">
-        <v>74</v>
-      </c>
-      <c r="G37" s="84" t="s">
-        <v>277</v>
-      </c>
-      <c r="H37" s="85">
+      <c r="F37" s="82" t="s">
+        <v>489</v>
+      </c>
+      <c r="G37" s="83" t="s">
+        <v>275</v>
+      </c>
+      <c r="H37" s="84">
         <v>5904</v>
       </c>
-      <c r="I37" s="85">
+      <c r="I37" s="84">
         <v>7445</v>
       </c>
     </row>
@@ -8669,128 +8639,106 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMI9"/>
+  <dimension ref="A1:AMG9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="3" width="20.7109375" style="28" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" style="49" customWidth="1"/>
-    <col min="5" max="6" width="20.7109375" style="28" customWidth="1"/>
-    <col min="7" max="8" width="20.7109375" style="4" customWidth="1"/>
-    <col min="9" max="9" width="20.7109375" style="28" customWidth="1"/>
-    <col min="10" max="1023" width="9.140625" style="4"/>
+    <col min="4" max="4" width="20.7109375" style="48" customWidth="1"/>
+    <col min="5" max="6" width="20.7109375" style="4" customWidth="1"/>
+    <col min="7" max="7" width="20.7109375" style="28" customWidth="1"/>
+    <col min="8" max="1021" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="12.75">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="12.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="46" t="s">
-        <v>434</v>
-      </c>
-      <c r="D1" s="46" t="s">
-        <v>77</v>
-      </c>
-      <c r="E1" s="46" t="s">
-        <v>435</v>
-      </c>
-      <c r="F1" s="46" t="s">
-        <v>436</v>
+      <c r="C1" s="45" t="s">
+        <v>431</v>
+      </c>
+      <c r="D1" s="45" t="s">
+        <v>75</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="28" t="s">
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" t="s">
+      <c r="B3" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3" s="47" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="28" t="s">
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" t="s">
+      <c r="B5" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="28" t="s">
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="10" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="10" t="s">
+      <c r="B6" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="F6" s="47" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="F7" s="47" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="B8" s="28" t="s">
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="F8" s="47" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="28" t="s">
+      <c r="B9" s="28" t="s">
         <v>43</v>
-      </c>
-      <c r="B9" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="F9" s="47" t="s">
-        <v>440</v>
       </c>
     </row>
   </sheetData>

--- a/tests/fixtures/eukaryote_core.xlsx
+++ b/tests/fixtures/eukaryote_core.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10309"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chebaro/WC/wc_kb/tests/fixtures/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DD821F7-A720-6F49-8DE4-73F6F00E68C3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="20295" windowHeight="6780" tabRatio="993" firstSheet="1" activeTab="15"/>
+    <workbookView xWindow="780" yWindow="840" windowWidth="33400" windowHeight="20840" tabRatio="993" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="KB" sheetId="1" r:id="rId1"/>
@@ -38,23 +44,23 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="16" hidden="1">'Rate laws'!$A$1:$H$9</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="15" hidden="1">Reactions!$A$1:$N$220</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Regulatory element'!$A$1:$O$776</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Regulatory module'!$A$1:$J$849</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Regulatory module'!$A$1:$K$849</definedName>
     <definedName name="_FilterDatabase_0" localSheetId="1">Cell!$A$1:$B$1</definedName>
     <definedName name="_FilterDatabase_0" localSheetId="7">Genes!$L$1</definedName>
     <definedName name="_FilterDatabase_0" localSheetId="0">KB!$A$1:$B$2</definedName>
     <definedName name="_FilterDatabase_0" localSheetId="10">Proteins!$A$1:$H$719</definedName>
     <definedName name="_FilterDatabase_0" localSheetId="4">'Regulatory element'!$A$1:$O$776</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="5">'Regulatory module'!$A$1:$J$849</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="5">'Regulatory module'!$A$1:$K$849</definedName>
     <definedName name="_FilterDatabase_0_0" localSheetId="1">Cell!$A$1:$B$1</definedName>
     <definedName name="_FilterDatabase_0_0" localSheetId="7">Genes!$F$1:$I$1064</definedName>
     <definedName name="_FilterDatabase_0_0" localSheetId="0">KB!$A$1:$B$2</definedName>
     <definedName name="_FilterDatabase_0_0" localSheetId="4">'Regulatory element'!$A$1:$O$776</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="5">'Regulatory module'!$A$1:$J$849</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="5">'Regulatory module'!$A$1:$K$849</definedName>
     <definedName name="_FilterDatabase_0_0_0" localSheetId="1">Cell!$A$1:$B$1</definedName>
     <definedName name="_FilterDatabase_0_0_0" localSheetId="7">Genes!$L$1</definedName>
     <definedName name="_FilterDatabase_0_0_0" localSheetId="0">KB!$A$1:$B$2</definedName>
     <definedName name="_FilterDatabase_0_0_0" localSheetId="4">'Regulatory element'!$A$1:$O$776</definedName>
-    <definedName name="_FilterDatabase_0_0_0" localSheetId="5">'Regulatory module'!$A$1:$J$849</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="5">'Regulatory module'!$A$1:$K$849</definedName>
     <definedName name="_FilterDatabase_0_0_0_0" localSheetId="1">Cell!$A$1:$B$1</definedName>
     <definedName name="_FilterDatabase_0_0_0_0" localSheetId="7">Genes!$F$1:$I$1064</definedName>
     <definedName name="_FilterDatabase_0_0_0_0" localSheetId="0">KB!$A$1:$B$2</definedName>
@@ -79,7 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="934" uniqueCount="493">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="939" uniqueCount="493">
   <si>
     <t>Id</t>
   </si>
@@ -1563,8 +1569,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="24">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2075,62 +2081,62 @@
   <cellStyles count="58">
     <cellStyle name="Explanatory Text" xfId="1" builtinId="53"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 10" xfId="13"/>
-    <cellStyle name="Normal 10 2" xfId="28"/>
-    <cellStyle name="Normal 10 2 2" xfId="52"/>
-    <cellStyle name="Normal 10 3" xfId="41"/>
-    <cellStyle name="Normal 11" xfId="14"/>
-    <cellStyle name="Normal 11 2" xfId="29"/>
-    <cellStyle name="Normal 11 2 2" xfId="53"/>
-    <cellStyle name="Normal 11 3" xfId="42"/>
-    <cellStyle name="Normal 12" xfId="17"/>
-    <cellStyle name="Normal 12 2" xfId="32"/>
-    <cellStyle name="Normal 12 2 2" xfId="55"/>
-    <cellStyle name="Normal 12 3" xfId="44"/>
-    <cellStyle name="Normal 13" xfId="57"/>
-    <cellStyle name="Normal 2" xfId="3"/>
-    <cellStyle name="Normal 3" xfId="4"/>
-    <cellStyle name="Normal 3 2" xfId="11"/>
-    <cellStyle name="Normal 3 2 2" xfId="26"/>
-    <cellStyle name="Normal 3 3" xfId="15"/>
-    <cellStyle name="Normal 3 3 2" xfId="30"/>
-    <cellStyle name="Normal 3 4" xfId="18"/>
-    <cellStyle name="Normal 3 4 2" xfId="33"/>
-    <cellStyle name="Normal 3 5" xfId="21"/>
-    <cellStyle name="Normal 4" xfId="5"/>
-    <cellStyle name="Normal 5" xfId="6"/>
-    <cellStyle name="Normal 6" xfId="7"/>
-    <cellStyle name="Normal 6 2" xfId="9"/>
-    <cellStyle name="Normal 6 2 2" xfId="24"/>
-    <cellStyle name="Normal 6 2 2 2" xfId="49"/>
-    <cellStyle name="Normal 6 2 3" xfId="38"/>
-    <cellStyle name="Normal 6 3" xfId="12"/>
-    <cellStyle name="Normal 6 3 2" xfId="27"/>
-    <cellStyle name="Normal 6 3 2 2" xfId="51"/>
-    <cellStyle name="Normal 6 3 3" xfId="40"/>
-    <cellStyle name="Normal 6 4" xfId="16"/>
-    <cellStyle name="Normal 6 4 2" xfId="31"/>
-    <cellStyle name="Normal 6 4 2 2" xfId="54"/>
-    <cellStyle name="Normal 6 4 3" xfId="43"/>
-    <cellStyle name="Normal 6 5" xfId="19"/>
-    <cellStyle name="Normal 6 5 2" xfId="34"/>
-    <cellStyle name="Normal 6 5 2 2" xfId="56"/>
-    <cellStyle name="Normal 6 5 3" xfId="45"/>
-    <cellStyle name="Normal 6 6" xfId="22"/>
-    <cellStyle name="Normal 6 6 2" xfId="47"/>
-    <cellStyle name="Normal 6 7" xfId="36"/>
-    <cellStyle name="Normal 7" xfId="2"/>
-    <cellStyle name="Normal 7 2" xfId="20"/>
-    <cellStyle name="Normal 7 2 2" xfId="46"/>
-    <cellStyle name="Normal 7 3" xfId="35"/>
-    <cellStyle name="Normal 8" xfId="8"/>
-    <cellStyle name="Normal 8 2" xfId="23"/>
-    <cellStyle name="Normal 8 2 2" xfId="48"/>
-    <cellStyle name="Normal 8 3" xfId="37"/>
-    <cellStyle name="Normal 9" xfId="10"/>
-    <cellStyle name="Normal 9 2" xfId="25"/>
-    <cellStyle name="Normal 9 2 2" xfId="50"/>
-    <cellStyle name="Normal 9 3" xfId="39"/>
+    <cellStyle name="Normal 10" xfId="13" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 10 2" xfId="28" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Normal 10 2 2" xfId="52" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Normal 10 3" xfId="41" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Normal 11" xfId="14" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Normal 11 2" xfId="29" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="Normal 11 2 2" xfId="53" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="Normal 11 3" xfId="42" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="Normal 12" xfId="17" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="Normal 12 2" xfId="32" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="Normal 12 2 2" xfId="55" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="Normal 12 3" xfId="44" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="Normal 13" xfId="57" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="Normal 2" xfId="3" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="Normal 3 2" xfId="11" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="Normal 3 2 2" xfId="26" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
+    <cellStyle name="Normal 3 3" xfId="15" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="Normal 3 3 2" xfId="30" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
+    <cellStyle name="Normal 3 4" xfId="18" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="Normal 3 4 2" xfId="33" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
+    <cellStyle name="Normal 3 5" xfId="21" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
+    <cellStyle name="Normal 4" xfId="5" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
+    <cellStyle name="Normal 5" xfId="6" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
+    <cellStyle name="Normal 6" xfId="7" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
+    <cellStyle name="Normal 6 2" xfId="9" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
+    <cellStyle name="Normal 6 2 2" xfId="24" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
+    <cellStyle name="Normal 6 2 2 2" xfId="49" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
+    <cellStyle name="Normal 6 2 3" xfId="38" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
+    <cellStyle name="Normal 6 3" xfId="12" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
+    <cellStyle name="Normal 6 3 2" xfId="27" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
+    <cellStyle name="Normal 6 3 2 2" xfId="51" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
+    <cellStyle name="Normal 6 3 3" xfId="40" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
+    <cellStyle name="Normal 6 4" xfId="16" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
+    <cellStyle name="Normal 6 4 2" xfId="31" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
+    <cellStyle name="Normal 6 4 2 2" xfId="54" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
+    <cellStyle name="Normal 6 4 3" xfId="43" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
+    <cellStyle name="Normal 6 5" xfId="19" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
+    <cellStyle name="Normal 6 5 2" xfId="34" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
+    <cellStyle name="Normal 6 5 2 2" xfId="56" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
+    <cellStyle name="Normal 6 5 3" xfId="45" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
+    <cellStyle name="Normal 6 6" xfId="22" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
+    <cellStyle name="Normal 6 6 2" xfId="47" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
+    <cellStyle name="Normal 6 7" xfId="36" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
+    <cellStyle name="Normal 7" xfId="2" xr:uid="{00000000-0005-0000-0000-00002E000000}"/>
+    <cellStyle name="Normal 7 2" xfId="20" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
+    <cellStyle name="Normal 7 2 2" xfId="46" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
+    <cellStyle name="Normal 7 3" xfId="35" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="Normal 8" xfId="8" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
+    <cellStyle name="Normal 8 2" xfId="23" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
+    <cellStyle name="Normal 8 2 2" xfId="48" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
+    <cellStyle name="Normal 8 3" xfId="37" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
+    <cellStyle name="Normal 9" xfId="10" xr:uid="{00000000-0005-0000-0000-000036000000}"/>
+    <cellStyle name="Normal 9 2" xfId="25" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
+    <cellStyle name="Normal 9 2 2" xfId="50" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
+    <cellStyle name="Normal 9 3" xfId="39" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2206,6 +2212,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -2253,7 +2262,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2286,9 +2295,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2321,6 +2347,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2496,7 +2539,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2506,14 +2549,14 @@
       <selection pane="bottomRight" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.42578125" style="25"/>
-    <col min="2" max="2" width="43.42578125" style="4"/>
-    <col min="3" max="1025" width="8.42578125"/>
+    <col min="1" max="1" width="21.5" style="25"/>
+    <col min="2" max="2" width="43.5" style="4"/>
+    <col min="3" max="1025" width="8.5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15" customHeight="1">
+    <row r="1" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
@@ -2521,7 +2564,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15" customHeight="1">
+    <row r="2" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="29" t="s">
         <v>1</v>
       </c>
@@ -2529,7 +2572,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15" customHeight="1">
+    <row r="3" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="29" t="s">
         <v>2</v>
       </c>
@@ -2537,7 +2580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="25" t="s">
         <v>3</v>
       </c>
@@ -2545,25 +2588,25 @@
         <v>425</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="25" t="s">
         <v>5</v>
       </c>
       <c r="B5"/>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="25" t="s">
         <v>6</v>
       </c>
       <c r="B6"/>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="25" t="s">
         <v>7</v>
       </c>
       <c r="B7"/>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="25" t="s">
         <v>8</v>
       </c>
@@ -2571,7 +2614,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="25" t="s">
         <v>9</v>
       </c>
@@ -2580,33 +2623,33 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B9"/>
+  <autoFilter ref="A1:B9" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="36" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="1023" width="8.42578125"/>
+    <col min="6" max="6" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="1023" width="8.5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="18" customFormat="1" ht="12.75">
+    <row r="1" spans="1:7" s="18" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -2629,7 +2672,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>285</v>
       </c>
@@ -2643,7 +2686,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>288</v>
       </c>
@@ -2657,7 +2700,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>291</v>
       </c>
@@ -2671,7 +2714,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>294</v>
       </c>
@@ -2685,10 +2728,10 @@
         <v>296</v>
       </c>
     </row>
-    <row r="19" spans="5:5">
+    <row r="19" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E19" s="17"/>
     </row>
-    <row r="20" spans="5:5">
+    <row r="20" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E20" s="17"/>
     </row>
   </sheetData>
@@ -2698,28 +2741,28 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:AME15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.28515625" style="5"/>
-    <col min="2" max="2" width="33.85546875" style="5"/>
-    <col min="3" max="3" width="16.42578125" style="12"/>
+    <col min="1" max="1" width="20.33203125" style="5"/>
+    <col min="2" max="2" width="33.83203125" style="5"/>
+    <col min="3" max="3" width="16.5" style="12"/>
     <col min="4" max="4" width="17" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.42578125" style="9" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="1019" width="9.140625" style="4"/>
-    <col min="1022" max="1024" width="8.7109375"/>
+    <col min="5" max="5" width="25.5" style="9" customWidth="1"/>
+    <col min="6" max="6" width="14.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="1019" width="9.1640625" style="4"/>
+    <col min="1022" max="1024" width="8.6640625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="12.75">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2745,7 +2788,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15" customHeight="1">
+    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>223</v>
       </c>
@@ -2762,7 +2805,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="16" t="s">
         <v>303</v>
       </c>
@@ -2779,7 +2822,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>281</v>
       </c>
@@ -2796,24 +2839,24 @@
         <v>306</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D12" s="17"/>
       <c r="E12" s="17"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D13" s="17"/>
       <c r="E13" s="17"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D14" s="17"/>
       <c r="E14" s="17"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D15" s="17"/>
       <c r="E15" s="17"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F719"/>
+  <autoFilter ref="A1:F719" xr:uid="{00000000-0009-0000-0000-00000A000000}"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1"/>
   <headerFooter>
@@ -2824,26 +2867,26 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:AMD5"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" style="4" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" style="7" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" style="7" customWidth="1"/>
     <col min="3" max="4" width="9" style="38"/>
-    <col min="5" max="5" width="30.7109375" style="4" customWidth="1"/>
-    <col min="6" max="6" width="30.7109375" style="8" customWidth="1"/>
-    <col min="7" max="9" width="15.7109375" style="4" customWidth="1"/>
-    <col min="10" max="1018" width="8.42578125" style="4"/>
-    <col min="1019" max="1021" width="8.42578125"/>
+    <col min="5" max="5" width="30.6640625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="30.6640625" style="8" customWidth="1"/>
+    <col min="7" max="9" width="15.6640625" style="4" customWidth="1"/>
+    <col min="10" max="1018" width="8.5" style="4"/>
+    <col min="1019" max="1021" width="8.5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="1" spans="1:9" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>317</v>
       </c>
@@ -2872,7 +2915,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1">
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>320</v>
       </c>
@@ -2892,7 +2935,7 @@
       </c>
       <c r="I2" s="5"/>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>324</v>
       </c>
@@ -2910,7 +2953,7 @@
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>326</v>
       </c>
@@ -2928,7 +2971,7 @@
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>328</v>
       </c>
@@ -2947,14 +2990,14 @@
       <c r="I5" s="5"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G221"/>
+  <autoFilter ref="A1:G221" xr:uid="{00000000-0009-0000-0000-00000B000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:AML16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2964,16 +3007,16 @@
       <selection pane="bottomRight" activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" style="32" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" style="6" customWidth="1"/>
-    <col min="3" max="4" width="15.7109375" style="6" customWidth="1"/>
-    <col min="5" max="8" width="20.7109375" style="6" customWidth="1"/>
-    <col min="9" max="1026" width="8.42578125" style="6"/>
+    <col min="1" max="1" width="20.6640625" style="32" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" style="6" customWidth="1"/>
+    <col min="3" max="4" width="15.6640625" style="6" customWidth="1"/>
+    <col min="5" max="8" width="20.6640625" style="6" customWidth="1"/>
+    <col min="9" max="1026" width="8.5" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="75" customFormat="1" ht="15.2" customHeight="1">
+    <row r="1" spans="1:8" s="75" customFormat="1" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="65" t="s">
         <v>0</v>
       </c>
@@ -2999,7 +3042,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15.2" customHeight="1">
+    <row r="2" spans="1:8" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="77" t="s">
         <v>461</v>
       </c>
@@ -3019,7 +3062,7 @@
       <c r="G2" s="37"/>
       <c r="H2" s="37"/>
     </row>
-    <row r="3" spans="1:8" ht="15.2" customHeight="1">
+    <row r="3" spans="1:8" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="76" t="s">
         <v>462</v>
       </c>
@@ -3039,7 +3082,7 @@
       </c>
       <c r="H3" s="37"/>
     </row>
-    <row r="4" spans="1:8" ht="15.2" customHeight="1">
+    <row r="4" spans="1:8" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="76" t="s">
         <v>463</v>
       </c>
@@ -3057,7 +3100,7 @@
       <c r="G4" s="37"/>
       <c r="H4" s="37"/>
     </row>
-    <row r="5" spans="1:8" ht="15.2" customHeight="1">
+    <row r="5" spans="1:8" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="76" t="s">
         <v>464</v>
       </c>
@@ -3075,7 +3118,7 @@
       <c r="G5" s="37"/>
       <c r="H5" s="37"/>
     </row>
-    <row r="6" spans="1:8" ht="15.2" customHeight="1">
+    <row r="6" spans="1:8" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="76" t="s">
         <v>465</v>
       </c>
@@ -3093,7 +3136,7 @@
       <c r="G6" s="37"/>
       <c r="H6" s="37"/>
     </row>
-    <row r="7" spans="1:8" ht="15.2" customHeight="1">
+    <row r="7" spans="1:8" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="76" t="s">
         <v>466</v>
       </c>
@@ -3111,7 +3154,7 @@
       <c r="G7" s="37"/>
       <c r="H7" s="37"/>
     </row>
-    <row r="8" spans="1:8" ht="15.2" customHeight="1">
+    <row r="8" spans="1:8" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="76" t="s">
         <v>467</v>
       </c>
@@ -3129,7 +3172,7 @@
       <c r="G8" s="37"/>
       <c r="H8" s="37"/>
     </row>
-    <row r="9" spans="1:8" ht="15.2" customHeight="1">
+    <row r="9" spans="1:8" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="76" t="s">
         <v>468</v>
       </c>
@@ -3147,7 +3190,7 @@
       <c r="G9" s="37"/>
       <c r="H9" s="37"/>
     </row>
-    <row r="10" spans="1:8" ht="15.2" customHeight="1">
+    <row r="10" spans="1:8" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="76" t="s">
         <v>469</v>
       </c>
@@ -3165,7 +3208,7 @@
       <c r="G10" s="37"/>
       <c r="H10" s="37"/>
     </row>
-    <row r="11" spans="1:8" ht="15.2" customHeight="1">
+    <row r="11" spans="1:8" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="76" t="s">
         <v>470</v>
       </c>
@@ -3183,7 +3226,7 @@
       <c r="G11" s="37"/>
       <c r="H11" s="37"/>
     </row>
-    <row r="12" spans="1:8" ht="15.2" customHeight="1">
+    <row r="12" spans="1:8" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="76" t="s">
         <v>471</v>
       </c>
@@ -3201,7 +3244,7 @@
       <c r="G12" s="37"/>
       <c r="H12" s="37"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="76" t="s">
         <v>472</v>
       </c>
@@ -3219,7 +3262,7 @@
       <c r="G13" s="37"/>
       <c r="H13" s="37"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="76" t="s">
         <v>473</v>
       </c>
@@ -3237,7 +3280,7 @@
       <c r="G14" s="37"/>
       <c r="H14" s="37"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="76" t="s">
         <v>474</v>
       </c>
@@ -3255,7 +3298,7 @@
       <c r="G15" s="37"/>
       <c r="H15" s="37"/>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="76" t="s">
         <v>475</v>
       </c>
@@ -3280,23 +3323,23 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" customWidth="1"/>
-    <col min="2" max="3" width="20.7109375" style="36" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" customWidth="1"/>
-    <col min="5" max="6" width="20.7109375" style="36" customWidth="1"/>
-    <col min="7" max="10" width="20.7109375" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" customWidth="1"/>
+    <col min="2" max="3" width="20.6640625" style="36" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" customWidth="1"/>
+    <col min="5" max="6" width="20.6640625" style="36" customWidth="1"/>
+    <col min="7" max="10" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="42" customFormat="1">
+    <row r="1" spans="1:11" s="42" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="55" t="s">
         <v>0</v>
       </c>
@@ -3328,7 +3371,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="46" t="s">
         <v>432</v>
       </c>
@@ -3353,7 +3396,7 @@
       <c r="J2" s="28"/>
       <c r="K2" s="40"/>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="46" t="s">
         <v>433</v>
       </c>
@@ -3377,7 +3420,7 @@
       <c r="J3" s="28"/>
       <c r="K3" s="40"/>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="46" t="s">
         <v>434</v>
       </c>
@@ -3401,7 +3444,7 @@
       <c r="J4" s="28"/>
       <c r="K4" s="40"/>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="46" t="s">
         <v>435</v>
       </c>
@@ -3425,7 +3468,7 @@
       <c r="J5" s="28"/>
       <c r="K5" s="40"/>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C6" s="48"/>
       <c r="D6" s="28"/>
       <c r="E6" s="48"/>
@@ -3435,7 +3478,7 @@
       <c r="J6" s="28"/>
       <c r="K6" s="40"/>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="28"/>
       <c r="B7" s="48"/>
       <c r="C7" s="48"/>
@@ -3448,7 +3491,7 @@
       <c r="J7" s="28"/>
       <c r="K7" s="40"/>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="28"/>
       <c r="B8" s="48"/>
       <c r="C8" s="48"/>
@@ -3461,7 +3504,7 @@
       <c r="J8" s="28"/>
       <c r="K8" s="40"/>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="28"/>
       <c r="B9" s="48"/>
       <c r="C9" s="48"/>
@@ -3479,21 +3522,21 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16"/>
-    <col min="3" max="3" width="15.42578125"/>
-    <col min="6" max="6" width="11.140625"/>
+    <col min="3" max="3" width="15.5"/>
+    <col min="6" max="6" width="11.1640625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="12.75">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3516,7 +3559,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="14.45" customHeight="1">
+    <row r="2" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>353</v>
       </c>
@@ -3538,24 +3581,24 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:N8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="18.7109375" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="18.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="3" width="20.7109375" style="41" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" style="41" customWidth="1"/>
-    <col min="5" max="5" width="30.7109375" style="41" customWidth="1"/>
-    <col min="6" max="11" width="15.7109375" style="41" customWidth="1"/>
-    <col min="12" max="14" width="20.7109375" style="41" customWidth="1"/>
-    <col min="15" max="16384" width="18.7109375" style="41"/>
+    <col min="1" max="3" width="20.6640625" style="41" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" style="41" customWidth="1"/>
+    <col min="5" max="5" width="30.6640625" style="41" customWidth="1"/>
+    <col min="6" max="11" width="15.6640625" style="41" customWidth="1"/>
+    <col min="12" max="14" width="20.6640625" style="41" customWidth="1"/>
+    <col min="15" max="16384" width="18.6640625" style="41"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="51" customFormat="1">
+    <row r="1" spans="1:14" s="51" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="63" t="s">
         <v>0</v>
       </c>
@@ -3599,7 +3642,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A2" s="50" t="s">
         <v>357</v>
       </c>
@@ -3625,7 +3668,7 @@
       <c r="M2" s="50"/>
       <c r="N2" s="50"/>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A3" s="50" t="s">
         <v>360</v>
       </c>
@@ -3651,7 +3694,7 @@
       <c r="M3" s="50"/>
       <c r="N3" s="50"/>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A4" s="50" t="s">
         <v>363</v>
       </c>
@@ -3677,7 +3720,7 @@
       <c r="M4" s="50"/>
       <c r="N4" s="50"/>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A5" s="50" t="s">
         <v>366</v>
       </c>
@@ -3703,7 +3746,7 @@
       <c r="M5" s="50"/>
       <c r="N5" s="50"/>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A6" s="50" t="s">
         <v>31</v>
       </c>
@@ -3729,7 +3772,7 @@
       <c r="M6" s="50"/>
       <c r="N6" s="50"/>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A7" s="50" t="s">
         <v>370</v>
       </c>
@@ -3755,7 +3798,7 @@
       <c r="M7" s="50"/>
       <c r="N7" s="50"/>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A8" s="50" t="s">
         <v>373</v>
       </c>
@@ -3782,7 +3825,7 @@
       <c r="N8" s="50"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L220"/>
+  <autoFilter ref="A1:L220" xr:uid="{00000000-0009-0000-0000-00000F000000}"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1"/>
   <headerFooter>
@@ -3793,7 +3836,7 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:AMJ9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3803,17 +3846,17 @@
       <selection pane="bottomRight" activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="20.7109375" style="49" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" style="88" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" style="49" customWidth="1"/>
-    <col min="5" max="5" width="20.7109375" style="60" customWidth="1"/>
-    <col min="6" max="8" width="20.7109375" style="49" customWidth="1"/>
-    <col min="9" max="1024" width="8.7109375" style="3"/>
+    <col min="1" max="2" width="20.6640625" style="49" customWidth="1"/>
+    <col min="3" max="3" width="20.6640625" style="88" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" style="49" customWidth="1"/>
+    <col min="5" max="5" width="20.6640625" style="60" customWidth="1"/>
+    <col min="6" max="8" width="20.6640625" style="49" customWidth="1"/>
+    <col min="9" max="1024" width="8.6640625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1024" s="59" customFormat="1" ht="15" customHeight="1">
+    <row r="1" spans="1:1024" s="59" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="56" t="s">
         <v>317</v>
       </c>
@@ -4855,7 +4898,7 @@
       <c r="AMI1" s="58"/>
       <c r="AMJ1" s="58"/>
     </row>
-    <row r="2" spans="1:1024">
+    <row r="2" spans="1:1024" x14ac:dyDescent="0.2">
       <c r="A2" s="49" t="s">
         <v>375</v>
       </c>
@@ -4874,7 +4917,7 @@
       <c r="F2" s="41"/>
       <c r="H2" s="41"/>
     </row>
-    <row r="3" spans="1:1024">
+    <row r="3" spans="1:1024" x14ac:dyDescent="0.2">
       <c r="A3" s="49" t="s">
         <v>378</v>
       </c>
@@ -4895,7 +4938,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="4" spans="1:1024">
+    <row r="4" spans="1:1024" x14ac:dyDescent="0.2">
       <c r="A4" s="49" t="s">
         <v>381</v>
       </c>
@@ -4916,7 +4959,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="5" spans="1:1024">
+    <row r="5" spans="1:1024" x14ac:dyDescent="0.2">
       <c r="A5" s="49" t="s">
         <v>384</v>
       </c>
@@ -4937,7 +4980,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="6" spans="1:1024">
+    <row r="6" spans="1:1024" x14ac:dyDescent="0.2">
       <c r="A6" s="49" t="s">
         <v>386</v>
       </c>
@@ -4958,7 +5001,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="7" spans="1:1024">
+    <row r="7" spans="1:1024" x14ac:dyDescent="0.2">
       <c r="A7" s="49" t="s">
         <v>389</v>
       </c>
@@ -4976,7 +5019,7 @@
       </c>
       <c r="F7" s="41"/>
     </row>
-    <row r="8" spans="1:1024">
+    <row r="8" spans="1:1024" x14ac:dyDescent="0.2">
       <c r="A8" s="49" t="s">
         <v>391</v>
       </c>
@@ -4996,7 +5039,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="9" spans="1:1024">
+    <row r="9" spans="1:1024" x14ac:dyDescent="0.2">
       <c r="A9" s="49" t="s">
         <v>394</v>
       </c>
@@ -5017,29 +5060,29 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F9"/>
+  <autoFilter ref="A1:F9" xr:uid="{00000000-0009-0000-0000-000010000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="20.7109375" style="41" customWidth="1"/>
-    <col min="4" max="5" width="15.7109375" style="34" customWidth="1"/>
-    <col min="6" max="9" width="20.7109375" style="41" customWidth="1"/>
-    <col min="10" max="1025" width="8.42578125"/>
+    <col min="1" max="3" width="20.6640625" style="41" customWidth="1"/>
+    <col min="4" max="5" width="15.6640625" style="34" customWidth="1"/>
+    <col min="6" max="9" width="20.6640625" style="41" customWidth="1"/>
+    <col min="10" max="1025" width="8.5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
@@ -5068,7 +5111,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="41" t="s">
         <v>397</v>
       </c>
@@ -5085,7 +5128,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="41" t="s">
         <v>401</v>
       </c>
@@ -5102,7 +5145,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="41" t="s">
         <v>404</v>
       </c>
@@ -5119,7 +5162,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="41" t="s">
         <v>406</v>
       </c>
@@ -5136,7 +5179,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="41" t="s">
         <v>377</v>
       </c>
@@ -5150,7 +5193,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>410</v>
       </c>
@@ -5164,7 +5207,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>413</v>
       </c>
@@ -5178,7 +5221,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>416</v>
       </c>
@@ -5192,7 +5235,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>419</v>
       </c>
@@ -5206,7 +5249,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11"/>
       <c r="B11"/>
       <c r="C11"/>
@@ -5219,20 +5262,20 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="10" width="20.7109375" customWidth="1"/>
-    <col min="1020" max="1024" width="8.7109375"/>
+    <col min="1" max="10" width="20.6640625" customWidth="1"/>
+    <col min="1020" max="1024" width="8.6640625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="42" customFormat="1">
+    <row r="1" spans="1:10" s="42" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="68" t="s">
         <v>0</v>
       </c>
@@ -5275,7 +5318,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5285,14 +5328,14 @@
       <selection pane="bottomRight" activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="30.7109375" style="64" customWidth="1"/>
-    <col min="2" max="2" width="30.7109375" style="33" customWidth="1"/>
-    <col min="3" max="1025" width="8.42578125"/>
+    <col min="1" max="1" width="30.6640625" style="64" customWidth="1"/>
+    <col min="2" max="2" width="30.6640625" style="33" customWidth="1"/>
+    <col min="3" max="1025" width="8.5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="44" customFormat="1" ht="15" customHeight="1">
+    <row r="1" spans="1:2" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="43" t="s">
         <v>0</v>
       </c>
@@ -5300,7 +5343,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="64" t="s">
         <v>1</v>
       </c>
@@ -5308,7 +5351,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="64" t="s">
         <v>10</v>
       </c>
@@ -5316,7 +5359,7 @@
         <v>9606</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="64" t="s">
         <v>9</v>
       </c>
@@ -5325,26 +5368,26 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B4"/>
+  <autoFilter ref="A1:B4" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="13" width="20.7109375" customWidth="1"/>
+    <col min="1" max="13" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="67" t="s">
         <v>317</v>
       </c>
@@ -5385,7 +5428,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="F15" s="42"/>
     </row>
   </sheetData>
@@ -5394,23 +5437,23 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="20.7109375" style="41" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" style="34" customWidth="1"/>
-    <col min="4" max="12" width="20.7109375" style="41" customWidth="1"/>
-    <col min="13" max="1025" width="8.42578125" style="41"/>
+    <col min="1" max="2" width="20.6640625" style="41" customWidth="1"/>
+    <col min="3" max="3" width="20.6640625" style="34" customWidth="1"/>
+    <col min="4" max="12" width="20.6640625" style="41" customWidth="1"/>
+    <col min="13" max="1025" width="8.5" style="41"/>
     <col min="1026" max="16384" width="9" style="41"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1" s="70" t="s">
         <v>0</v>
       </c>
@@ -5448,7 +5491,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2" s="41" t="s">
         <v>323</v>
       </c>
@@ -5456,7 +5499,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3" s="41" t="s">
         <v>338</v>
       </c>
@@ -5464,7 +5507,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4" s="41" t="s">
         <v>422</v>
       </c>
@@ -5479,22 +5522,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AMF5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" style="26" customWidth="1"/>
-    <col min="2" max="6" width="20.7109375" style="4" customWidth="1"/>
-    <col min="8" max="1020" width="9.140625" style="4"/>
-    <col min="1024" max="1025" width="8.7109375"/>
+    <col min="1" max="1" width="20.6640625" style="26" customWidth="1"/>
+    <col min="2" max="6" width="20.6640625" style="4" customWidth="1"/>
+    <col min="8" max="1020" width="9.1640625" style="4"/>
+    <col min="1024" max="1025" width="8.6640625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" ht="12.75">
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5514,7 +5557,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
         <v>14</v>
       </c>
@@ -5531,7 +5574,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="26" t="s">
         <v>18</v>
       </c>
@@ -5543,7 +5586,7 @@
       </c>
       <c r="D3"/>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="26" t="s">
         <v>20</v>
       </c>
@@ -5557,7 +5600,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="26" t="s">
         <v>23</v>
       </c>
@@ -5576,24 +5619,24 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" style="26" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" style="9" customWidth="1"/>
-    <col min="3" max="6" width="20.7109375" style="4" customWidth="1"/>
-    <col min="7" max="8" width="20.7109375" customWidth="1"/>
-    <col min="9" max="9" width="20.7109375" style="4" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125"/>
+    <col min="1" max="1" width="20.6640625" style="26" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" style="9" customWidth="1"/>
+    <col min="3" max="6" width="20.6640625" style="4" customWidth="1"/>
+    <col min="7" max="8" width="20.6640625" customWidth="1"/>
+    <col min="9" max="9" width="20.6640625" style="4" customWidth="1"/>
+    <col min="11" max="11" width="13.5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5622,7 +5665,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
         <v>49</v>
       </c>
@@ -5640,7 +5683,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="26" t="s">
         <v>50</v>
       </c>
@@ -5657,7 +5700,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="26" t="s">
         <v>51</v>
       </c>
@@ -5674,7 +5717,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="26" t="s">
         <v>52</v>
       </c>
@@ -5691,7 +5734,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="26" t="s">
         <v>53</v>
       </c>
@@ -5708,7 +5751,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="26" t="s">
         <v>54</v>
       </c>
@@ -5725,7 +5768,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="26" t="s">
         <v>55</v>
       </c>
@@ -5742,7 +5785,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="26" t="s">
         <v>56</v>
       </c>
@@ -5759,7 +5802,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="26" t="s">
         <v>57</v>
       </c>
@@ -5776,7 +5819,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="26" t="s">
         <v>58</v>
       </c>
@@ -5793,7 +5836,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="26" t="s">
         <v>59</v>
       </c>
@@ -5810,7 +5853,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="26" t="s">
         <v>60</v>
       </c>
@@ -5827,7 +5870,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="26" t="s">
         <v>61</v>
       </c>
@@ -5844,7 +5887,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="26" t="s">
         <v>62</v>
       </c>
@@ -5861,7 +5904,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="26" t="s">
         <v>63</v>
       </c>
@@ -5878,7 +5921,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="26" t="s">
         <v>64</v>
       </c>
@@ -5895,7 +5938,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="26" t="s">
         <v>65</v>
       </c>
@@ -5912,7 +5955,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="26" t="s">
         <v>66</v>
       </c>
@@ -5929,7 +5972,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="26" t="s">
         <v>67</v>
       </c>
@@ -5946,7 +5989,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="26" t="s">
         <v>68</v>
       </c>
@@ -5963,7 +6006,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="26" t="s">
         <v>69</v>
       </c>
@@ -5980,7 +6023,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="26" t="s">
         <v>70</v>
       </c>
@@ -5997,7 +6040,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="26" t="s">
         <v>71</v>
       </c>
@@ -6014,7 +6057,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="26" t="s">
         <v>72</v>
       </c>
@@ -6031,7 +6074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="26" t="s">
         <v>489</v>
       </c>
@@ -6059,35 +6102,35 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AMK37"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" style="9"/>
-    <col min="2" max="2" width="15.7109375" style="9" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" style="39" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" style="9" customWidth="1"/>
-    <col min="5" max="6" width="15.7109375" style="9" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" style="9" customWidth="1"/>
-    <col min="8" max="11" width="15.7109375" style="9" customWidth="1"/>
-    <col min="12" max="12" width="20.7109375" style="9" customWidth="1"/>
-    <col min="13" max="13" width="20.7109375" customWidth="1"/>
-    <col min="14" max="14" width="20.7109375" style="4" customWidth="1"/>
-    <col min="15" max="15" width="20.7109375" style="9" customWidth="1"/>
-    <col min="16" max="16" width="10.42578125" style="12"/>
-    <col min="17" max="17" width="10.7109375" style="12"/>
-    <col min="18" max="19" width="9.140625" style="9"/>
-    <col min="20" max="20" width="22.85546875" style="12"/>
-    <col min="21" max="1016" width="9.140625" style="9"/>
-    <col min="1017" max="1025" width="9.140625" style="4"/>
+    <col min="1" max="1" width="16.5" style="9"/>
+    <col min="2" max="2" width="15.6640625" style="9" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" style="39" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" style="9" customWidth="1"/>
+    <col min="5" max="6" width="15.6640625" style="9" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" style="9" customWidth="1"/>
+    <col min="8" max="11" width="15.6640625" style="9" customWidth="1"/>
+    <col min="12" max="12" width="20.6640625" style="9" customWidth="1"/>
+    <col min="13" max="13" width="20.6640625" customWidth="1"/>
+    <col min="14" max="14" width="20.6640625" style="4" customWidth="1"/>
+    <col min="15" max="15" width="20.6640625" style="9" customWidth="1"/>
+    <col min="16" max="16" width="10.5" style="12"/>
+    <col min="17" max="17" width="10.6640625" style="12"/>
+    <col min="18" max="19" width="9.1640625" style="9"/>
+    <col min="20" max="20" width="22.83203125" style="12"/>
+    <col min="21" max="1016" width="9.1640625" style="9"/>
+    <col min="1017" max="1025" width="9.1640625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1025" s="1" customFormat="1" ht="12.75">
+    <row r="1" spans="1:1025" s="1" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6148,7 +6191,7 @@
       <c r="AMJ1" s="25"/>
       <c r="AMK1" s="25"/>
     </row>
-    <row r="2" spans="1:1025">
+    <row r="2" spans="1:1025" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
         <v>191</v>
       </c>
@@ -6183,7 +6226,7 @@
       <c r="R2" s="11"/>
       <c r="S2" s="11"/>
     </row>
-    <row r="3" spans="1:1025">
+    <row r="3" spans="1:1025" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
         <v>194</v>
       </c>
@@ -6218,7 +6261,7 @@
       <c r="R3" s="11"/>
       <c r="S3" s="11"/>
     </row>
-    <row r="4" spans="1:1025">
+    <row r="4" spans="1:1025" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>196</v>
       </c>
@@ -6253,7 +6296,7 @@
       <c r="R4" s="11"/>
       <c r="S4" s="11"/>
     </row>
-    <row r="5" spans="1:1025">
+    <row r="5" spans="1:1025" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
         <v>199</v>
       </c>
@@ -6288,7 +6331,7 @@
       <c r="R5" s="11"/>
       <c r="S5" s="11"/>
     </row>
-    <row r="6" spans="1:1025">
+    <row r="6" spans="1:1025" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
         <v>202</v>
       </c>
@@ -6323,7 +6366,7 @@
       <c r="R6" s="11"/>
       <c r="S6" s="11"/>
     </row>
-    <row r="7" spans="1:1025">
+    <row r="7" spans="1:1025" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
         <v>205</v>
       </c>
@@ -6358,7 +6401,7 @@
       <c r="R7" s="11"/>
       <c r="S7" s="11"/>
     </row>
-    <row r="8" spans="1:1025">
+    <row r="8" spans="1:1025" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
         <v>207</v>
       </c>
@@ -6393,7 +6436,7 @@
       <c r="R8" s="11"/>
       <c r="S8" s="11"/>
     </row>
-    <row r="9" spans="1:1025">
+    <row r="9" spans="1:1025" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
         <v>209</v>
       </c>
@@ -6428,7 +6471,7 @@
       <c r="R9" s="11"/>
       <c r="S9" s="11"/>
     </row>
-    <row r="10" spans="1:1025">
+    <row r="10" spans="1:1025" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
         <v>211</v>
       </c>
@@ -6463,7 +6506,7 @@
       <c r="R10" s="11"/>
       <c r="S10" s="11"/>
     </row>
-    <row r="11" spans="1:1025">
+    <row r="11" spans="1:1025" x14ac:dyDescent="0.2">
       <c r="A11" s="9" t="s">
         <v>213</v>
       </c>
@@ -6498,7 +6541,7 @@
       <c r="R11" s="11"/>
       <c r="S11" s="11"/>
     </row>
-    <row r="12" spans="1:1025">
+    <row r="12" spans="1:1025" x14ac:dyDescent="0.2">
       <c r="A12" s="9" t="s">
         <v>215</v>
       </c>
@@ -6533,7 +6576,7 @@
       <c r="R12" s="11"/>
       <c r="S12" s="11"/>
     </row>
-    <row r="13" spans="1:1025">
+    <row r="13" spans="1:1025" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="s">
         <v>217</v>
       </c>
@@ -6568,7 +6611,7 @@
       <c r="R13" s="11"/>
       <c r="S13" s="11"/>
     </row>
-    <row r="14" spans="1:1025">
+    <row r="14" spans="1:1025" x14ac:dyDescent="0.2">
       <c r="A14" s="9" t="s">
         <v>219</v>
       </c>
@@ -6603,7 +6646,7 @@
       <c r="R14" s="11"/>
       <c r="S14" s="11"/>
     </row>
-    <row r="15" spans="1:1025">
+    <row r="15" spans="1:1025" x14ac:dyDescent="0.2">
       <c r="A15" s="9" t="s">
         <v>221</v>
       </c>
@@ -6641,7 +6684,7 @@
       <c r="R15" s="11"/>
       <c r="S15" s="11"/>
     </row>
-    <row r="16" spans="1:1025">
+    <row r="16" spans="1:1025" x14ac:dyDescent="0.2">
       <c r="A16" s="9" t="s">
         <v>224</v>
       </c>
@@ -6676,7 +6719,7 @@
       <c r="R16" s="11"/>
       <c r="S16" s="11"/>
     </row>
-    <row r="17" spans="1:19">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A17" s="9" t="s">
         <v>226</v>
       </c>
@@ -6711,7 +6754,7 @@
       <c r="R17" s="11"/>
       <c r="S17" s="11"/>
     </row>
-    <row r="18" spans="1:19">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A18" s="9" t="s">
         <v>228</v>
       </c>
@@ -6746,7 +6789,7 @@
       <c r="R18" s="11"/>
       <c r="S18" s="11"/>
     </row>
-    <row r="19" spans="1:19" ht="15" customHeight="1">
+    <row r="19" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="9" t="s">
         <v>230</v>
       </c>
@@ -6784,7 +6827,7 @@
       <c r="R19" s="11"/>
       <c r="S19" s="11"/>
     </row>
-    <row r="20" spans="1:19">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A20" s="9" t="s">
         <v>233</v>
       </c>
@@ -6819,7 +6862,7 @@
       <c r="R20" s="11"/>
       <c r="S20" s="11"/>
     </row>
-    <row r="21" spans="1:19">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A21" s="9" t="s">
         <v>235</v>
       </c>
@@ -6854,7 +6897,7 @@
       <c r="R21" s="11"/>
       <c r="S21" s="11"/>
     </row>
-    <row r="22" spans="1:19">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A22" s="9" t="s">
         <v>237</v>
       </c>
@@ -6889,7 +6932,7 @@
       <c r="R22" s="11"/>
       <c r="S22" s="11"/>
     </row>
-    <row r="23" spans="1:19">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A23" s="9" t="s">
         <v>239</v>
       </c>
@@ -6924,7 +6967,7 @@
       <c r="R23" s="11"/>
       <c r="S23" s="11"/>
     </row>
-    <row r="24" spans="1:19">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A24" s="9" t="s">
         <v>241</v>
       </c>
@@ -6959,7 +7002,7 @@
       <c r="R24" s="11"/>
       <c r="S24" s="11"/>
     </row>
-    <row r="25" spans="1:19">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A25" s="9" t="s">
         <v>243</v>
       </c>
@@ -6994,7 +7037,7 @@
       <c r="R25" s="11"/>
       <c r="S25" s="11"/>
     </row>
-    <row r="26" spans="1:19">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A26" s="9" t="s">
         <v>245</v>
       </c>
@@ -7029,7 +7072,7 @@
       <c r="R26" s="11"/>
       <c r="S26" s="11"/>
     </row>
-    <row r="27" spans="1:19">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A27" s="9" t="s">
         <v>247</v>
       </c>
@@ -7064,7 +7107,7 @@
       <c r="R27" s="11"/>
       <c r="S27" s="11"/>
     </row>
-    <row r="28" spans="1:19">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A28" s="9" t="s">
         <v>249</v>
       </c>
@@ -7099,7 +7142,7 @@
       <c r="R28" s="11"/>
       <c r="S28" s="11"/>
     </row>
-    <row r="29" spans="1:19">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A29" s="9" t="s">
         <v>251</v>
       </c>
@@ -7134,7 +7177,7 @@
       <c r="R29" s="11"/>
       <c r="S29" s="11"/>
     </row>
-    <row r="30" spans="1:19">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A30" s="9" t="s">
         <v>253</v>
       </c>
@@ -7169,7 +7212,7 @@
       <c r="R30" s="11"/>
       <c r="S30" s="11"/>
     </row>
-    <row r="31" spans="1:19">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A31" s="9" t="s">
         <v>255</v>
       </c>
@@ -7204,7 +7247,7 @@
       <c r="R31" s="11"/>
       <c r="S31" s="11"/>
     </row>
-    <row r="32" spans="1:19">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A32" s="9" t="s">
         <v>257</v>
       </c>
@@ -7239,7 +7282,7 @@
       <c r="R32" s="11"/>
       <c r="S32" s="11"/>
     </row>
-    <row r="33" spans="1:19">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A33" s="9" t="s">
         <v>259</v>
       </c>
@@ -7274,7 +7317,7 @@
       <c r="R33" s="11"/>
       <c r="S33" s="11"/>
     </row>
-    <row r="34" spans="1:19">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A34" s="9" t="s">
         <v>261</v>
       </c>
@@ -7309,7 +7352,7 @@
       <c r="R34" s="11"/>
       <c r="S34" s="11"/>
     </row>
-    <row r="35" spans="1:19">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A35" s="9" t="s">
         <v>263</v>
       </c>
@@ -7344,7 +7387,7 @@
       <c r="R35" s="11"/>
       <c r="S35" s="11"/>
     </row>
-    <row r="36" spans="1:19">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A36" s="9" t="s">
         <v>265</v>
       </c>
@@ -7379,7 +7422,7 @@
       <c r="R36" s="11"/>
       <c r="S36" s="11"/>
     </row>
-    <row r="37" spans="1:19">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A37" s="9" t="s">
         <v>267</v>
       </c>
@@ -7415,7 +7458,7 @@
       <c r="S37" s="11"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M776"/>
+  <autoFilter ref="A1:M776" xr:uid="{00000000-0009-0000-0000-000004000000}"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1"/>
   <headerFooter>
@@ -7426,32 +7469,33 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMF5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:AMG5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" style="9" customWidth="1"/>
-    <col min="2" max="2" width="10.42578125" style="9" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" style="9" customWidth="1"/>
-    <col min="4" max="4" width="50.42578125" style="9"/>
-    <col min="5" max="5" width="18.42578125" style="9" customWidth="1"/>
-    <col min="6" max="6" width="10" style="9" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" style="9" customWidth="1"/>
-    <col min="8" max="8" width="9" style="12"/>
-    <col min="9" max="9" width="13.42578125" style="20"/>
-    <col min="10" max="10" width="9" style="19"/>
-    <col min="11" max="12" width="9.140625" style="9"/>
-    <col min="13" max="1020" width="9.140625" style="20"/>
-    <col min="1021" max="1023" width="8.42578125"/>
-    <col min="1024" max="1029" width="8.7109375"/>
+    <col min="1" max="1" width="9.6640625" style="9" customWidth="1"/>
+    <col min="2" max="2" width="10.5" style="9" customWidth="1"/>
+    <col min="3" max="3" width="17.5" style="9" customWidth="1"/>
+    <col min="4" max="4" width="50.5" style="9"/>
+    <col min="5" max="5" width="9" style="39"/>
+    <col min="6" max="6" width="18.5" style="9" customWidth="1"/>
+    <col min="7" max="7" width="10" style="9" customWidth="1"/>
+    <col min="8" max="8" width="13.6640625" style="9" customWidth="1"/>
+    <col min="9" max="9" width="9" style="12"/>
+    <col min="10" max="10" width="13.5" style="20"/>
+    <col min="11" max="11" width="9" style="19"/>
+    <col min="12" max="13" width="9.1640625" style="9"/>
+    <col min="14" max="1021" width="9.1640625" style="20"/>
+    <col min="1022" max="1024" width="8.5"/>
+    <col min="1025" max="1030" width="8.6640625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" ht="12.75">
+    <row r="1" spans="1:14" s="1" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7465,25 +7509,28 @@
         <v>270</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
         <v>273</v>
       </c>
@@ -7496,18 +7543,21 @@
       <c r="D2" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11" t="s">
+      <c r="E2" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11" t="s">
         <v>486</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="H2" s="11" t="s">
         <v>376</v>
       </c>
-      <c r="K2" s="11"/>
       <c r="L2" s="11"/>
-      <c r="M2" s="9"/>
-    </row>
-    <row r="3" spans="1:13" ht="15" customHeight="1">
+      <c r="M2" s="11"/>
+      <c r="N2" s="9"/>
+    </row>
+    <row r="3" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
         <v>276</v>
       </c>
@@ -7520,18 +7570,21 @@
       <c r="D3" s="9" t="s">
         <v>209</v>
       </c>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11" t="s">
+      <c r="E3" s="39" t="s">
+        <v>201</v>
+      </c>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11" t="s">
         <v>486</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="H3" s="11" t="s">
         <v>479</v>
       </c>
-      <c r="K3" s="11"/>
       <c r="L3" s="11"/>
-      <c r="M3" s="9"/>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="M3" s="11"/>
+      <c r="N3" s="9"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>279</v>
       </c>
@@ -7544,17 +7597,20 @@
       <c r="D4" s="11" t="s">
         <v>207</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="F4" s="5" t="s">
         <v>281</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="G4" s="9" t="s">
         <v>487</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="H4" s="11" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
         <v>282</v>
       </c>
@@ -7567,18 +7623,21 @@
       <c r="D5" s="11" t="s">
         <v>207</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>281</v>
       </c>
-      <c r="F5" s="39" t="s">
+      <c r="G5" s="39" t="s">
         <v>487</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="H5" s="11" t="s">
         <v>376</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H849"/>
+  <autoFilter ref="A1:I849" xr:uid="{00000000-0009-0000-0000-000005000000}"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1"/>
   <headerFooter>
@@ -7589,25 +7648,25 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="2" max="2" width="17.140625" customWidth="1"/>
-    <col min="3" max="3" width="20.42578125" customWidth="1"/>
-    <col min="4" max="4" width="19.7109375" customWidth="1"/>
-    <col min="5" max="5" width="19.140625" customWidth="1"/>
+    <col min="2" max="2" width="17.1640625" customWidth="1"/>
+    <col min="3" max="3" width="20.5" customWidth="1"/>
+    <col min="4" max="4" width="19.6640625" customWidth="1"/>
+    <col min="5" max="5" width="19.1640625" customWidth="1"/>
     <col min="6" max="6" width="16" customWidth="1"/>
-    <col min="8" max="8" width="23.85546875" customWidth="1"/>
+    <col min="8" max="8" width="23.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -7636,7 +7695,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15.75">
+    <row r="2" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
         <v>310</v>
       </c>
@@ -7654,7 +7713,7 @@
       </c>
       <c r="H2" s="15"/>
     </row>
-    <row r="3" spans="1:9" ht="15.75">
+    <row r="3" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
         <v>313</v>
       </c>
@@ -7672,7 +7731,7 @@
       </c>
       <c r="H3" s="15"/>
     </row>
-    <row r="4" spans="1:9" ht="15.75">
+    <row r="4" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
         <v>315</v>
       </c>
@@ -7696,29 +7755,29 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:AMI37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" style="82"/>
+    <col min="1" max="1" width="17.5" style="82"/>
     <col min="2" max="3" width="9" styl